--- a/prot/ООО Регионстрой/Трехосные_КД_ПП/1252.xlsx
+++ b/prot/ООО Регионстрой/Трехосные_КД_ПП/1252.xlsx
@@ -8491,14 +8491,8 @@
     </row>
     <row r="47" ht="16.5" customHeight="1">
       <c r="A47" s="144" t="n"/>
-      <c r="B47" s="144" t="inlineStr">
-        <is>
-          <t>K0, д.е.</t>
-        </is>
-      </c>
-      <c r="C47" s="144" t="n">
-        <v>0.775048945656135</v>
-      </c>
+      <c r="B47" s="144" t="n"/>
+      <c r="C47" s="144" t="n"/>
       <c r="D47" s="144" t="n"/>
       <c r="E47" s="144" t="n"/>
       <c r="F47" s="144" t="n"/>
@@ -8555,14 +8549,8 @@
     </row>
     <row r="48" ht="16.5" customHeight="1">
       <c r="A48" s="144" t="n"/>
-      <c r="B48" s="144" t="inlineStr">
-        <is>
-          <t>q_zg, МПа</t>
-        </is>
-      </c>
-      <c r="C48" s="144" t="n">
-        <v>0.03875244728280675</v>
-      </c>
+      <c r="B48" s="144" t="n"/>
+      <c r="C48" s="144" t="n"/>
       <c r="D48" s="144" t="n"/>
       <c r="E48" s="144" t="n"/>
       <c r="F48" s="144" t="n"/>
@@ -8712,20 +8700,12 @@
         <f>B70/A70</f>
         <v/>
       </c>
-      <c r="F50" s="144" t="inlineStr">
-        <is>
-          <t>Точки модуля (полное напр.), МПа</t>
-        </is>
-      </c>
+      <c r="F50" s="144" t="n"/>
       <c r="G50" s="144" t="n"/>
       <c r="H50" s="144" t="n"/>
       <c r="I50" s="144" t="n"/>
-      <c r="J50" s="144" t="n">
-        <v>0.03875244728280675</v>
-      </c>
-      <c r="K50" s="144" t="n">
-        <v>0.0620039156524908</v>
-      </c>
+      <c r="J50" s="144" t="n"/>
+      <c r="K50" s="144" t="n"/>
       <c r="L50" s="144" t="n"/>
       <c r="N50" s="148">
         <f>J50</f>
@@ -8802,17 +8782,11 @@
         <f>A65/B65</f>
         <v/>
       </c>
-      <c r="F51" s="144" t="inlineStr">
-        <is>
-          <t>qf (полное напр.), МПа</t>
-        </is>
-      </c>
+      <c r="F51" s="144" t="n"/>
       <c r="G51" s="144" t="n"/>
       <c r="H51" s="144" t="n"/>
       <c r="I51" s="144" t="n"/>
-      <c r="J51" s="144" t="n">
-        <v>0.06220702089408412</v>
-      </c>
+      <c r="J51" s="144" t="n"/>
       <c r="K51" s="144" t="n"/>
       <c r="L51" s="144" t="n"/>
       <c r="M51" s="1" t="n"/>
@@ -9258,10 +9232,10 @@
     </row>
     <row r="65">
       <c r="A65" t="n">
-        <v>0.01220702089408412</v>
+        <v>0.01954074392490505</v>
       </c>
       <c r="B65" t="n">
-        <v>0.00757631405491525</v>
+        <v>0.01212800519687042</v>
       </c>
       <c r="C65" s="151">
         <f>MATCH(A65,F65:F1000,1)-A67</f>
@@ -9318,29 +9292,29 @@
         </is>
       </c>
       <c r="F66" s="170" t="n">
-        <v>0.001944899931080935</v>
+        <v>0.001889034146716033</v>
       </c>
       <c r="G66" s="171" t="n">
-        <v>0.0007478317057488395</v>
+        <v>0.0007861475000156339</v>
       </c>
       <c r="H66" s="171" t="n"/>
       <c r="J66" s="170" t="n">
-        <v>0.001964017848838324</v>
+        <v>0.005133008280991169</v>
       </c>
       <c r="K66" s="171" t="n">
-        <v>0.0007981333568502776</v>
+        <v>0.0007826395325473639</v>
       </c>
       <c r="L66" s="172" t="n">
-        <v>0.007427135558337794</v>
+        <v>0.0121742633254035</v>
       </c>
       <c r="M66" s="170" t="n">
-        <v>0.0007698102113080469</v>
+        <v>0.0007763443248541745</v>
       </c>
       <c r="N66" s="171" t="n">
-        <v>0.01009921849935957</v>
+        <v>0.001889034146716033</v>
       </c>
       <c r="O66" s="172" t="n">
-        <v>0.0007822647758783828</v>
+        <v>0.0007861475000156339</v>
       </c>
       <c r="Q66" s="151" t="inlineStr">
         <is>
@@ -9358,29 +9332,29 @@
         <v>2</v>
       </c>
       <c r="F67" s="170" t="n">
-        <v>0.003750164107986856</v>
+        <v>0.004103416125373238</v>
       </c>
       <c r="G67" s="171" t="n">
-        <v>0.001495663411497679</v>
+        <v>0.001572295000031268</v>
       </c>
       <c r="H67" s="171" t="n"/>
       <c r="J67" s="170" t="n">
-        <v>0.003623226932731628</v>
+        <v>0.007999999999999979</v>
       </c>
       <c r="K67" s="171" t="n">
-        <v>0.001596266713700555</v>
+        <v>0.001273132664437009</v>
       </c>
       <c r="L67" s="172" t="n">
-        <v>0.01502796967816544</v>
+        <v>0.02494021139871266</v>
       </c>
       <c r="M67" s="170" t="n">
-        <v>0.001539620422616094</v>
+        <v>0.001552688649708349</v>
       </c>
       <c r="N67" s="171" t="n">
-        <v>0.01871981085710223</v>
+        <v>0.004103416125373238</v>
       </c>
       <c r="O67" s="172" t="n">
-        <v>0.001564529551756766</v>
+        <v>0.001572295000031268</v>
       </c>
       <c r="Q67" s="151" t="inlineStr">
         <is>
@@ -9400,29 +9374,29 @@
         </is>
       </c>
       <c r="F68" s="170" t="n">
-        <v>0.005812867092421008</v>
+        <v>0.005701577558495013</v>
       </c>
       <c r="G68" s="171" t="n">
-        <v>0.002525438018305083</v>
+        <v>0.002358442500046902</v>
       </c>
       <c r="H68" s="171" t="n"/>
       <c r="J68" s="170" t="n">
-        <v>0.004999999999999998</v>
+        <v>0.0131043340473061</v>
       </c>
       <c r="K68" s="171" t="n">
-        <v>0.002172282608695651</v>
+        <v>0.002347918597642092</v>
       </c>
       <c r="L68" s="172" t="n">
-        <v>0.02170965928474367</v>
+        <v>0.03769967094364463</v>
       </c>
       <c r="M68" s="170" t="n">
-        <v>0.002309430633924141</v>
+        <v>0.002329032974562524</v>
       </c>
       <c r="N68" s="171" t="n">
-        <v>0.02700000000000002</v>
+        <v>0.005701577558495013</v>
       </c>
       <c r="O68" s="172" t="n">
-        <v>0.002234347826086959</v>
+        <v>0.002358442500046902</v>
       </c>
       <c r="Q68" s="151" t="inlineStr">
         <is>
@@ -9447,29 +9421,29 @@
         </is>
       </c>
       <c r="F69" s="170" t="n">
-        <v>0.006579256852399261</v>
+        <v>0.007541950068604773</v>
       </c>
       <c r="G69" s="171" t="n">
-        <v>0.002991326822995358</v>
+        <v>0.003144590000062536</v>
       </c>
       <c r="H69" s="171" t="n"/>
       <c r="J69" s="170" t="n">
-        <v>0.006839894296806717</v>
+        <v>0.01668285086183999</v>
       </c>
       <c r="K69" s="171" t="n">
-        <v>0.003192533427401111</v>
+        <v>0.003130558130189455</v>
       </c>
       <c r="L69" s="172" t="n">
-        <v>0.02797936130333284</v>
+        <v>0.04695446868391639</v>
       </c>
       <c r="M69" s="170" t="n">
-        <v>0.003079240845232188</v>
+        <v>0.003105377299416698</v>
       </c>
       <c r="N69" s="171" t="n">
-        <v>0.03449020978113021</v>
+        <v>0.007541950068604773</v>
       </c>
       <c r="O69" s="172" t="n">
-        <v>0.003129059103513531</v>
+        <v>0.003144590000062536</v>
       </c>
       <c r="Q69" s="151" t="inlineStr">
         <is>
@@ -9484,62 +9458,62 @@
     </row>
     <row r="70" ht="15" customHeight="1">
       <c r="A70" t="n">
-        <v>0.002525438018305083</v>
+        <v>0.004344565217391303</v>
       </c>
       <c r="B70" t="n">
-        <v>0.005812867092421008</v>
+        <v>0.009999999999999995</v>
       </c>
       <c r="F70" s="170" t="n">
-        <v>0.006727877579958581</v>
+        <v>0.009082965278225899</v>
       </c>
       <c r="G70" s="171" t="n">
-        <v>0.003739158528744197</v>
+        <v>0.00393073750007817</v>
       </c>
       <c r="H70" s="171" t="n"/>
       <c r="J70" s="170" t="n">
-        <v>0.007983608417850875</v>
+        <v>0.02125391818981873</v>
       </c>
       <c r="K70" s="171" t="n">
-        <v>0.003990666784251388</v>
+        <v>0.00391319766273682</v>
       </c>
       <c r="L70" s="172" t="n">
-        <v>0.0335442326591936</v>
+        <v>0.05620643134324532</v>
       </c>
       <c r="M70" s="170" t="n">
-        <v>0.003849051056540234</v>
+        <v>0.003881721624270873</v>
       </c>
       <c r="N70" s="171" t="n">
-        <v>0.04177256590652645</v>
+        <v>0.009082965278225899</v>
       </c>
       <c r="O70" s="172" t="n">
-        <v>0.003911323879391913</v>
+        <v>0.00393073750007817</v>
       </c>
     </row>
     <row r="71">
       <c r="F71" s="170" t="n">
-        <v>0.006780095943717528</v>
+        <v>0.009999999999999995</v>
       </c>
       <c r="G71" s="171" t="n">
-        <v>0.004486990234493037</v>
+        <v>0.004344565217391303</v>
       </c>
       <c r="H71" s="171" t="n"/>
       <c r="J71" s="170" t="n">
-        <v>0.009354655870624257</v>
+        <v>0.02439876434834029</v>
       </c>
       <c r="K71" s="171" t="n">
-        <v>0.004788800141101666</v>
+        <v>0.004695837195284183</v>
       </c>
       <c r="L71" s="172" t="n">
-        <v>0.03821143027758644</v>
+        <v>0.06235738564534826</v>
       </c>
       <c r="M71" s="170" t="n">
-        <v>0.004618861267848281</v>
+        <v>0.004658065949125047</v>
       </c>
       <c r="N71" s="171" t="n">
-        <v>0.04794084937790527</v>
+        <v>0.009999999999999995</v>
       </c>
       <c r="O71" s="172" t="n">
-        <v>0.004693588655270297</v>
+        <v>0.004344565217391303</v>
       </c>
     </row>
     <row r="72">
@@ -9554,29 +9528,29 @@
         </is>
       </c>
       <c r="F72" s="170" t="n">
-        <v>0.007740614999276869</v>
+        <v>0.0117236527109717</v>
       </c>
       <c r="G72" s="171" t="n">
-        <v>0.005234821940241876</v>
+        <v>0.005503032500109438</v>
       </c>
       <c r="H72" s="171" t="n"/>
       <c r="J72" s="170" t="n">
-        <v>0.0104633522823613</v>
+        <v>0.02859861765450245</v>
       </c>
       <c r="K72" s="171" t="n">
-        <v>0.005586933497951943</v>
+        <v>0.005478476727831547</v>
       </c>
       <c r="L72" s="172" t="n">
-        <v>0.04168811108377193</v>
+        <v>0.068</v>
       </c>
       <c r="M72" s="170" t="n">
-        <v>0.005388671479156329</v>
+        <v>0.005522064201544089</v>
       </c>
       <c r="N72" s="171" t="n">
-        <v>0.05382593760781818</v>
+        <v>0.0117236527109717</v>
       </c>
       <c r="O72" s="172" t="n">
-        <v>0.005475853431148679</v>
+        <v>0.005503032500109438</v>
       </c>
     </row>
     <row r="73">
@@ -9600,29 +9574,29 @@
         <v/>
       </c>
       <c r="F73" s="170" t="n">
-        <v>0.01061413780223737</v>
+        <v>0.01286889915754996</v>
       </c>
       <c r="G73" s="171" t="n">
-        <v>0.005982653645990716</v>
+        <v>0.006289180000125071</v>
       </c>
       <c r="H73" s="171" t="n"/>
       <c r="J73" s="170" t="n">
-        <v>0.01182001328029642</v>
+        <v>0.03223470642540319</v>
       </c>
       <c r="K73" s="171" t="n">
-        <v>0.006385066854802221</v>
+        <v>0.006261116260378911</v>
       </c>
       <c r="L73" s="172" t="n">
-        <v>0.04499999999999998</v>
+        <v>0.06940381437128179</v>
       </c>
       <c r="M73" s="170" t="n">
-        <v>0.006516847826086954</v>
+        <v>0.006210754598833396</v>
       </c>
       <c r="N73" s="171" t="n">
-        <v>0.05935870800881698</v>
+        <v>0.01286889915754996</v>
       </c>
       <c r="O73" s="172" t="n">
-        <v>0.006258118207027062</v>
+        <v>0.006289180000125071</v>
       </c>
     </row>
     <row r="74">
@@ -9637,29 +9611,29 @@
         </is>
       </c>
       <c r="F74" s="170" t="n">
-        <v>0.01140536740819979</v>
+        <v>0.01394401636735293</v>
       </c>
       <c r="G74" s="171" t="n">
-        <v>0.006730485351739555</v>
+        <v>0.007075327500140705</v>
       </c>
       <c r="H74" s="171" t="n"/>
       <c r="J74" s="170" t="n">
-        <v>0.01293495449166406</v>
+        <v>0.03478825897814039</v>
       </c>
       <c r="K74" s="171" t="n">
-        <v>0.007183200211652499</v>
+        <v>0.007043755792926274</v>
       </c>
       <c r="L74" s="172" t="n">
-        <v>0.04560360749084225</v>
+        <v>0.07276867014693295</v>
       </c>
       <c r="M74" s="170" t="n">
-        <v>0.006928291901772421</v>
+        <v>0.006987098923687571</v>
       </c>
       <c r="N74" s="171" t="n">
-        <v>0.06477003799345332</v>
+        <v>0.01394401636735293</v>
       </c>
       <c r="O74" s="172" t="n">
-        <v>0.007040382982905444</v>
+        <v>0.007075327500140705</v>
       </c>
     </row>
     <row r="75">
@@ -9681,29 +9655,29 @@
         </is>
       </c>
       <c r="F75" s="170" t="n">
-        <v>0.01220702089408412</v>
+        <v>0.01475289155981124</v>
       </c>
       <c r="G75" s="171" t="n">
-        <v>0.00757631405491525</v>
+        <v>0.00786147500015634</v>
       </c>
       <c r="H75" s="171" t="n"/>
       <c r="J75" s="170" t="n">
-        <v>0.01401849154369865</v>
+        <v>0.03794050362981191</v>
       </c>
       <c r="K75" s="171" t="n">
-        <v>0.007981333568502776</v>
+        <v>0.007826395325473639</v>
       </c>
       <c r="L75" s="172" t="n">
-        <v>0.04623286211617125</v>
+        <v>0.07392114610323047</v>
       </c>
       <c r="M75" s="170" t="n">
-        <v>0.007698102113080468</v>
+        <v>0.007763443248541745</v>
       </c>
       <c r="N75" s="171" t="n">
-        <v>0.06829080497427897</v>
+        <v>0.01475289155981124</v>
       </c>
       <c r="O75" s="172" t="n">
-        <v>0.007822647758783826</v>
+        <v>0.00786147500015634</v>
       </c>
     </row>
     <row r="76">
@@ -9723,29 +9697,29 @@
         <v>0</v>
       </c>
       <c r="F76" s="170" t="n">
-        <v>0.012788186001739</v>
+        <v>0.01599941195435546</v>
       </c>
       <c r="G76" s="171" t="n">
-        <v>0.008226148763237235</v>
+        <v>0.008647622500171974</v>
       </c>
       <c r="H76" s="171" t="n"/>
       <c r="J76" s="170" t="n">
-        <v>0.01488094006363462</v>
+        <v>0.04107266869751566</v>
       </c>
       <c r="K76" s="171" t="n">
-        <v>0.008779466925353054</v>
+        <v>0.008609034858021003</v>
       </c>
       <c r="L76" s="172" t="n">
-        <v>0.04625150636468217</v>
+        <v>0.07637099039502404</v>
       </c>
       <c r="M76" s="170" t="n">
-        <v>0.008467912324388515</v>
+        <v>0.008539787573395921</v>
       </c>
       <c r="N76" s="171" t="n">
-        <v>0.07395188636384559</v>
+        <v>0.01599941195435546</v>
       </c>
       <c r="O76" s="172" t="n">
-        <v>0.00860491253466221</v>
+        <v>0.008647622500171974</v>
       </c>
     </row>
     <row r="77" ht="15" customHeight="1">
@@ -9760,28 +9734,28 @@
         </is>
       </c>
       <c r="F77" t="n">
-        <v>0.01245952602813746</v>
+        <v>0.01658746477041624</v>
       </c>
       <c r="G77" t="n">
-        <v>0.008973980468986073</v>
+        <v>0.009433770000187606</v>
       </c>
       <c r="J77" t="n">
-        <v>0.01603261567870642</v>
+        <v>0.04306598249834953</v>
       </c>
       <c r="K77" t="n">
-        <v>0.009577600282203332</v>
+        <v>0.009391674390568367</v>
       </c>
       <c r="L77" t="n">
-        <v>0.04757322186420262</v>
+        <v>0.07758896284182204</v>
       </c>
       <c r="M77" t="n">
-        <v>0.009237722535696562</v>
+        <v>0.009001076347557984</v>
       </c>
       <c r="N77" t="n">
-        <v>0.07758896284182204</v>
+        <v>0.01658746477041624</v>
       </c>
       <c r="O77" t="n">
-        <v>0.009172525420844803</v>
+        <v>0.009433770000187606</v>
       </c>
     </row>
     <row r="78" ht="15" customHeight="1">
@@ -9800,28 +9774,28 @@
         <v/>
       </c>
       <c r="F78" t="n">
-        <v>0.01213100732727403</v>
+        <v>0.01752093722742411</v>
       </c>
       <c r="G78" t="n">
-        <v>0.009721812174734912</v>
+        <v>0.01021991750020324</v>
       </c>
       <c r="J78" t="n">
-        <v>0.01708383401614848</v>
+        <v>0.04580167334941143</v>
       </c>
       <c r="K78" t="n">
-        <v>0.01037573363905361</v>
+        <v>0.01017431392311573</v>
       </c>
       <c r="L78" t="n">
-        <v>0.04856485338336355</v>
+        <v>0.08042727155461371</v>
       </c>
       <c r="M78" t="n">
-        <v>0.01004729394271761</v>
+        <v>0.01009247622310427</v>
       </c>
       <c r="N78" t="n">
-        <v>0.0820641307232356</v>
+        <v>0.01752093722742411</v>
       </c>
       <c r="O78" t="n">
-        <v>0.01016944208641898</v>
+        <v>0.01021991750020324</v>
       </c>
     </row>
     <row r="79" ht="15" customHeight="1">
@@ -9842,28 +9816,28 @@
         <v/>
       </c>
       <c r="F79" t="n">
-        <v>0.01479994265570774</v>
+        <v>0.01830371654480974</v>
       </c>
       <c r="G79" t="n">
-        <v>0.01046964388048375</v>
+        <v>0.01100606500021888</v>
       </c>
       <c r="J79" t="n">
-        <v>0.01804491070319524</v>
+        <v>0.04856485338336355</v>
       </c>
       <c r="K79" t="n">
-        <v>0.01117386699590389</v>
+        <v>0.01104098235463473</v>
       </c>
       <c r="L79" t="n">
-        <v>0.04883803758150254</v>
+        <v>0.08160927383987326</v>
       </c>
       <c r="M79" t="n">
-        <v>0.01077734295831266</v>
+        <v>0.01086882054795844</v>
       </c>
       <c r="N79" t="n">
-        <v>0.08691513256022049</v>
+        <v>0.01830371654480974</v>
       </c>
       <c r="O79" t="n">
-        <v>0.01095170686229736</v>
+        <v>0.01100606500021888</v>
       </c>
     </row>
     <row r="80" ht="15" customHeight="1">
@@ -9873,28 +9847,28 @@
         </is>
       </c>
       <c r="F80" t="n">
-        <v>0.01346364476999758</v>
+        <v>0.01954074392490505</v>
       </c>
       <c r="G80" t="n">
-        <v>0.01121747558623259</v>
+        <v>0.01212800519687042</v>
       </c>
       <c r="J80" t="n">
+        <v>0.04954083163706255</v>
+      </c>
+      <c r="K80" t="n">
+        <v>0.01173959298821046</v>
+      </c>
+      <c r="L80" t="n">
+        <v>0.08343840113670009</v>
+      </c>
+      <c r="M80" t="n">
+        <v>0.01164516487281262</v>
+      </c>
+      <c r="N80" t="n">
         <v>0.01954074392490505</v>
       </c>
-      <c r="K80" t="n">
+      <c r="O80" t="n">
         <v>0.01212800519687042</v>
-      </c>
-      <c r="L80" t="n">
-        <v>0.05104951716997597</v>
-      </c>
-      <c r="M80" t="n">
-        <v>0.0115471531696207</v>
-      </c>
-      <c r="N80" t="n">
-        <v>0.09121871568542261</v>
-      </c>
-      <c r="O80" t="n">
-        <v>0.01173397163817574</v>
       </c>
     </row>
     <row r="81" ht="15" customHeight="1">
@@ -9910,28 +9884,28 @@
         </is>
       </c>
       <c r="F81" t="n">
-        <v>0.01411942642670259</v>
+        <v>0.01974002906177534</v>
       </c>
       <c r="G81" t="n">
-        <v>0.01196530729198143</v>
+        <v>0.01257836000025014</v>
       </c>
       <c r="J81" t="n">
-        <v>0.02015817508358844</v>
+        <v>0.0513058084777652</v>
       </c>
       <c r="K81" t="n">
-        <v>0.01277013370960444</v>
+        <v>0.01252223252075782</v>
       </c>
       <c r="L81" t="n">
-        <v>0.05239983244910396</v>
+        <v>0.08571000797115019</v>
       </c>
       <c r="M81" t="n">
-        <v>0.01231696338092875</v>
+        <v>0.01242150919766679</v>
       </c>
       <c r="N81" t="n">
-        <v>0.09594427154437135</v>
+        <v>0.01974002906177534</v>
       </c>
       <c r="O81" t="n">
-        <v>0.01251623641405412</v>
+        <v>0.01257836000025014</v>
       </c>
     </row>
     <row r="82" ht="15" customHeight="1">
@@ -9944,28 +9918,28 @@
         <v/>
       </c>
       <c r="F82" t="n">
-        <v>0.01676460038238177</v>
+        <v>0.02063963113888445</v>
       </c>
       <c r="G82" t="n">
-        <v>0.01271313899773027</v>
+        <v>0.01336450750026578</v>
       </c>
       <c r="J82" t="n">
-        <v>0.02137665421909375</v>
+        <v>0.05385591027201156</v>
       </c>
       <c r="K82" t="n">
-        <v>0.01356826706645472</v>
+        <v>0.01330487205330518</v>
       </c>
       <c r="L82" t="n">
-        <v>0.05554269750268206</v>
+        <v>0.08881944886927928</v>
       </c>
       <c r="M82" t="n">
-        <v>0.0130867735922368</v>
+        <v>0.01319785352252097</v>
       </c>
       <c r="N82" t="n">
-        <v>0.1004611915825959</v>
+        <v>0.02063963113888445</v>
       </c>
       <c r="O82" t="n">
-        <v>0.01329850118993251</v>
+        <v>0.01336450750026578</v>
       </c>
     </row>
     <row r="83" ht="15" customHeight="1">
@@ -9975,28 +9949,28 @@
         </is>
       </c>
       <c r="F83" t="n">
-        <v>0.01739647939359413</v>
+        <v>0.02134161300633713</v>
       </c>
       <c r="G83" t="n">
-        <v>0.01346097070347911</v>
+        <v>0.01415065500028141</v>
       </c>
       <c r="J83" t="n">
-        <v>0.02286421150385005</v>
+        <v>0.05498950580297543</v>
       </c>
       <c r="K83" t="n">
-        <v>0.014366400423305</v>
+        <v>0.01408751158585255</v>
       </c>
       <c r="L83" t="n">
-        <v>0.05723182641450575</v>
+        <v>0.08986207835714333</v>
       </c>
       <c r="M83" t="n">
-        <v>0.01385658380354484</v>
+        <v>0.01397419784737514</v>
       </c>
       <c r="N83" t="n">
-        <v>0.1059388672456258</v>
+        <v>0.02134161300633713</v>
       </c>
       <c r="O83" t="n">
-        <v>0.01408076596581089</v>
+        <v>0.01415065500028141</v>
       </c>
     </row>
     <row r="84" ht="15" customHeight="1">
@@ -10011,28 +9985,28 @@
         </is>
       </c>
       <c r="F84" t="n">
-        <v>0.01701237621689869</v>
+        <v>0.02204489058279135</v>
       </c>
       <c r="G84" t="n">
-        <v>0.01420880240922795</v>
+        <v>0.01493680250029704</v>
       </c>
       <c r="J84" t="n">
-        <v>0.02430207783896385</v>
+        <v>0.05740496385383068</v>
       </c>
       <c r="K84" t="n">
-        <v>0.01516453378015528</v>
+        <v>0.01487015111839991</v>
       </c>
       <c r="L84" t="n">
-        <v>0.06002093326837057</v>
+        <v>0.09213325096079822</v>
       </c>
       <c r="M84" t="n">
-        <v>0.01462639401485289</v>
+        <v>0.01475054217222932</v>
       </c>
       <c r="N84" t="n">
-        <v>0.1094466899789904</v>
+        <v>0.02204489058279135</v>
       </c>
       <c r="O84" t="n">
-        <v>0.01486303074168927</v>
+        <v>0.01493680250029704</v>
       </c>
     </row>
     <row r="85" ht="15" customHeight="1">
@@ -10051,28 +10025,28 @@
         <v/>
       </c>
       <c r="F85" t="n">
-        <v>0.01860960360885447</v>
+        <v>0.02254837978690517</v>
       </c>
       <c r="G85" t="n">
-        <v>0.01495663411497679</v>
+        <v>0.01572295000031268</v>
       </c>
       <c r="J85" t="n">
-        <v>0.02557148412554165</v>
+        <v>0.05940065320775118</v>
       </c>
       <c r="K85" t="n">
-        <v>0.01596266713700555</v>
+        <v>0.01565279065094728</v>
       </c>
       <c r="L85" t="n">
-        <v>0.06306373214807201</v>
+        <v>0.09512832120629966</v>
       </c>
       <c r="M85" t="n">
-        <v>0.01539620422616094</v>
+        <v>0.01552688649708349</v>
       </c>
       <c r="N85" t="n">
-        <v>0.1138540512282191</v>
+        <v>0.02254837978690517</v>
       </c>
       <c r="O85" t="n">
-        <v>0.01564529551756765</v>
+        <v>0.01572295000031268</v>
       </c>
     </row>
     <row r="86" ht="15" customHeight="1">
@@ -10093,28 +10067,28 @@
         <v/>
       </c>
       <c r="F86" t="n">
-        <v>0.01718547432602047</v>
+        <v>0.02345099653733661</v>
       </c>
       <c r="G86" t="n">
-        <v>0.01570446582072563</v>
+        <v>0.01650909750032831</v>
       </c>
       <c r="J86" t="n">
-        <v>0.02685366126469001</v>
+        <v>0.06027494264791072</v>
       </c>
       <c r="K86" t="n">
-        <v>0.01676080049385583</v>
+        <v>0.01643543018349464</v>
       </c>
       <c r="L86" t="n">
-        <v>0.06571393713740559</v>
+        <v>0.09684264361970374</v>
       </c>
       <c r="M86" t="n">
-        <v>0.01616601443746898</v>
+        <v>0.01630323082193767</v>
       </c>
       <c r="N86" t="n">
-        <v>0.1187303424388412</v>
+        <v>0.02345099653733661</v>
       </c>
       <c r="O86" t="n">
-        <v>0.01642756029344604</v>
+        <v>0.01650909750032831</v>
       </c>
     </row>
     <row r="87" ht="15" customHeight="1">
@@ -10124,28 +10098,28 @@
         </is>
       </c>
       <c r="F87" t="n">
-        <v>0.01873730112495572</v>
+        <v>0.02405165675274365</v>
       </c>
       <c r="G87" t="n">
-        <v>0.01645229752647447</v>
+        <v>0.01729524500034395</v>
       </c>
       <c r="J87" t="n">
-        <v>0.02842984015751543</v>
+        <v>0.06242620095748319</v>
       </c>
       <c r="K87" t="n">
-        <v>0.01755893385070611</v>
+        <v>0.01721806971604201</v>
       </c>
       <c r="L87" t="n">
-        <v>0.06872526232016679</v>
+        <v>0.09917157272706623</v>
       </c>
       <c r="M87" t="n">
-        <v>0.01693582464877703</v>
+        <v>0.01707957514679184</v>
       </c>
       <c r="N87" t="n">
-        <v>0.1234449550563861</v>
+        <v>0.02405165675274365</v>
       </c>
       <c r="O87" t="n">
-        <v>0.01720982506932442</v>
+        <v>0.01729524500034395</v>
       </c>
     </row>
     <row r="88" ht="15" customHeight="1">
@@ -10159,28 +10133,28 @@
       <c r="C88" s="139" t="n"/>
       <c r="D88" s="139" t="n"/>
       <c r="F88" t="n">
-        <v>0.01926239676221922</v>
+        <v>0.02484927635178437</v>
       </c>
       <c r="G88" t="n">
-        <v>0.01720012923222331</v>
+        <v>0.01808139250035958</v>
       </c>
       <c r="J88" t="n">
-        <v>0.02948125170512447</v>
+        <v>0.06395279691964242</v>
       </c>
       <c r="K88" t="n">
-        <v>0.01835706720755639</v>
+        <v>0.01800070924858937</v>
       </c>
       <c r="L88" t="n">
-        <v>0.07175142178015115</v>
+        <v>0.1025104630544429</v>
       </c>
       <c r="M88" t="n">
-        <v>0.01770563486008508</v>
+        <v>0.01785591947164602</v>
       </c>
       <c r="N88" t="n">
-        <v>0.1273672805263831</v>
+        <v>0.02484927635178437</v>
       </c>
       <c r="O88" t="n">
-        <v>0.0179920898452028</v>
+        <v>0.01808139250035958</v>
       </c>
     </row>
     <row r="89" ht="15" customHeight="1">
@@ -10193,4578 +10167,4578 @@
         <v/>
       </c>
       <c r="F89" t="n">
-        <v>0.01875807399437</v>
+        <v>0.02554277125311673</v>
       </c>
       <c r="G89" t="n">
-        <v>0.01794796093797215</v>
+        <v>0.01886754000037521</v>
       </c>
       <c r="J89" t="n">
-        <v>0.03078912680862361</v>
+        <v>0.06605309931756234</v>
       </c>
       <c r="K89" t="n">
-        <v>0.01915520056440666</v>
+        <v>0.01878334878113673</v>
       </c>
       <c r="L89" t="n">
-        <v>0.07534612960115414</v>
+        <v>0.1046546691278898</v>
       </c>
       <c r="M89" t="n">
-        <v>0.01847544507139312</v>
+        <v>0.01863226379650019</v>
       </c>
       <c r="N89" t="n">
-        <v>0.1300667102943617</v>
+        <v>0.02554277125311673</v>
       </c>
       <c r="O89" t="n">
-        <v>0.01877435462108119</v>
+        <v>0.01886754000037521</v>
       </c>
     </row>
     <row r="90" ht="15" customHeight="1">
       <c r="F90" t="n">
-        <v>0.01922164557796705</v>
+        <v>0.02623105737539877</v>
       </c>
       <c r="G90" t="n">
-        <v>0.01869579264372099</v>
+        <v>0.01965368750039085</v>
       </c>
       <c r="J90" t="n">
-        <v>0.03213469636911939</v>
+        <v>0.0676254769344167</v>
       </c>
       <c r="K90" t="n">
-        <v>0.01995333392125694</v>
+        <v>0.0195659883136841</v>
       </c>
       <c r="L90" t="n">
-        <v>0.07766309986697131</v>
+        <v>0.1060995454734627</v>
       </c>
       <c r="M90" t="n">
-        <v>0.01924525528270117</v>
+        <v>0.01940860812135436</v>
       </c>
       <c r="N90" t="n">
-        <v>0.1346126358058512</v>
+        <v>0.02623105737539877</v>
       </c>
       <c r="O90" t="n">
-        <v>0.01955661939695957</v>
+        <v>0.01965368750039085</v>
       </c>
     </row>
     <row r="91" ht="15" customHeight="1">
       <c r="F91" t="n">
-        <v>0.02065042426956941</v>
+        <v>0.02681305063728852</v>
       </c>
       <c r="G91" t="n">
-        <v>0.01944362434946982</v>
+        <v>0.02043983500040648</v>
       </c>
       <c r="J91" t="n">
-        <v>0.03349919128771836</v>
+        <v>0.06926829855337938</v>
       </c>
       <c r="K91" t="n">
-        <v>0.02075146727810722</v>
+        <v>0.02034862784623146</v>
       </c>
       <c r="L91" t="n">
-        <v>0.08125604666139816</v>
+        <v>0.1098404466172175</v>
       </c>
       <c r="M91" t="n">
-        <v>0.02001506549400922</v>
+        <v>0.02018495244620854</v>
       </c>
       <c r="N91" t="n">
-        <v>0.1366744485063811</v>
+        <v>0.02681305063728852</v>
       </c>
       <c r="O91" t="n">
-        <v>0.02033888417283795</v>
+        <v>0.02043983500040648</v>
       </c>
     </row>
     <row r="92" ht="15" customHeight="1">
       <c r="F92" t="n">
-        <v>0.02004172282573607</v>
+        <v>0.02748766695744398</v>
       </c>
       <c r="G92" t="n">
-        <v>0.02019145605521867</v>
+        <v>0.02122598250042211</v>
       </c>
       <c r="J92" t="n">
-        <v>0.03446384246552704</v>
+        <v>0.07097993295762428</v>
       </c>
       <c r="K92" t="n">
-        <v>0.0215496006349575</v>
+        <v>0.02113126737877882</v>
       </c>
       <c r="L92" t="n">
-        <v>0.08367868406823015</v>
+        <v>0.1108727270852101</v>
       </c>
       <c r="M92" t="n">
-        <v>0.02078487570531726</v>
+        <v>0.02096129677106271</v>
       </c>
       <c r="N92" t="n">
-        <v>0.1393215398414805</v>
+        <v>0.02748766695744398</v>
       </c>
       <c r="O92" t="n">
-        <v>0.02112114894871633</v>
+        <v>0.02122598250042211</v>
       </c>
     </row>
     <row r="93" ht="15" customHeight="1">
       <c r="F93" t="n">
-        <v>0.02139285400302608</v>
+        <v>0.02805382225452319</v>
       </c>
       <c r="G93" t="n">
-        <v>0.02093928776096751</v>
+        <v>0.02201213000043775</v>
       </c>
       <c r="J93" t="n">
-        <v>0.03550988080365196</v>
+        <v>0.07275874893032519</v>
       </c>
       <c r="K93" t="n">
-        <v>0.02234773399180777</v>
+        <v>0.02191390691132619</v>
       </c>
       <c r="L93" t="n">
-        <v>0.08598472617126288</v>
+        <v>0.1131917414034961</v>
       </c>
       <c r="M93" t="n">
-        <v>0.02155468591662531</v>
+        <v>0.02173764109591689</v>
       </c>
       <c r="N93" t="n">
-        <v>0.1422233012566791</v>
+        <v>0.02805382225452319</v>
       </c>
       <c r="O93" t="n">
-        <v>0.02190341372459472</v>
+        <v>0.02201213000043775</v>
       </c>
     </row>
     <row r="94" ht="15" customHeight="1">
       <c r="F94" t="n">
-        <v>0.02070113055799842</v>
+        <v>0.02871043244718414</v>
       </c>
       <c r="G94" t="n">
-        <v>0.02168711946671634</v>
+        <v>0.02279827750045338</v>
       </c>
       <c r="J94" t="n">
-        <v>0.03601853720319963</v>
+        <v>0.07390311525465595</v>
       </c>
       <c r="K94" t="n">
-        <v>0.02314586734865805</v>
+        <v>0.02269654644387355</v>
       </c>
       <c r="L94" t="n">
-        <v>0.08782788705429181</v>
+        <v>0.1152928440981318</v>
       </c>
       <c r="M94" t="n">
-        <v>0.02232449612793336</v>
+        <v>0.02251398542077106</v>
       </c>
       <c r="N94" t="n">
-        <v>0.144649124197506</v>
+        <v>0.02871043244718414</v>
       </c>
       <c r="O94" t="n">
-        <v>0.0226856785004731</v>
+        <v>0.02279827750045338</v>
       </c>
     </row>
     <row r="95" ht="15" customHeight="1">
       <c r="F95" t="n">
-        <v>0.02196386524721212</v>
+        <v>0.02945641345408487</v>
       </c>
       <c r="G95" t="n">
-        <v>0.02243495117246518</v>
+        <v>0.02358442500046902</v>
       </c>
       <c r="J95" t="n">
-        <v>0.03677104256527657</v>
+        <v>0.07541140071379046</v>
       </c>
       <c r="K95" t="n">
-        <v>0.02394400070550833</v>
+        <v>0.02347918597642092</v>
       </c>
       <c r="L95" t="n">
-        <v>0.08986188080111243</v>
+        <v>0.1182713896951728</v>
       </c>
       <c r="M95" t="n">
-        <v>0.02309430633924141</v>
+        <v>0.02329032974562524</v>
       </c>
       <c r="N95" t="n">
-        <v>0.1461684001094908</v>
+        <v>0.02945641345408487</v>
       </c>
       <c r="O95" t="n">
-        <v>0.02346794327635148</v>
+        <v>0.02358442500046902</v>
       </c>
     </row>
     <row r="96" ht="15" customHeight="1">
       <c r="F96" t="n">
-        <v>0.02217837082722619</v>
+        <v>0.03019068119388339</v>
       </c>
       <c r="G96" t="n">
-        <v>0.02318278287821402</v>
+        <v>0.02437057250048465</v>
       </c>
       <c r="J96" t="n">
-        <v>0.03744862779098933</v>
+        <v>0.07658197409090253</v>
       </c>
       <c r="K96" t="n">
-        <v>0.02474213406235861</v>
+        <v>0.02426182550896828</v>
       </c>
       <c r="L96" t="n">
-        <v>0.09104042149552033</v>
+        <v>0.1204227327206751</v>
       </c>
       <c r="M96" t="n">
-        <v>0.02386411655054945</v>
+        <v>0.02406667407047941</v>
       </c>
       <c r="N96" t="n">
-        <v>0.1469505204381626</v>
+        <v>0.03019068119388339</v>
       </c>
       <c r="O96" t="n">
-        <v>0.02425020805222987</v>
+        <v>0.02437057250048465</v>
       </c>
     </row>
     <row r="97" ht="15" customHeight="1">
       <c r="F97" t="n">
-        <v>0.02334196005459964</v>
+        <v>0.03081215158523772</v>
       </c>
       <c r="G97" t="n">
-        <v>0.02393061458396286</v>
+        <v>0.02515672000050028</v>
       </c>
       <c r="J97" t="n">
-        <v>0.03753252378144441</v>
+        <v>0.07881320416916607</v>
       </c>
       <c r="K97" t="n">
-        <v>0.02554026741920888</v>
+        <v>0.02504446504151564</v>
       </c>
       <c r="L97" t="n">
-        <v>0.09281722322131092</v>
+        <v>0.1221422277006944</v>
       </c>
       <c r="M97" t="n">
-        <v>0.0246339267618575</v>
+        <v>0.02484301839533358</v>
       </c>
       <c r="N97" t="n">
-        <v>0.1475648766290511</v>
+        <v>0.03081215158523772</v>
       </c>
       <c r="O97" t="n">
-        <v>0.02503247282810825</v>
+        <v>0.02515672000050028</v>
       </c>
     </row>
     <row r="98" ht="15" customHeight="1">
       <c r="F98" t="n">
-        <v>0.0214519456858915</v>
+        <v>0.03141974054680588</v>
       </c>
       <c r="G98" t="n">
-        <v>0.0246784462897117</v>
+        <v>0.02594286750051592</v>
       </c>
       <c r="J98" t="n">
-        <v>0.03770616960651674</v>
+        <v>0.07990345973175489</v>
       </c>
       <c r="K98" t="n">
-        <v>0.02633840077605917</v>
+        <v>0.02582710457406301</v>
       </c>
       <c r="L98" t="n">
-        <v>0.09334600006227972</v>
+        <v>0.1248252291612866</v>
       </c>
       <c r="M98" t="n">
-        <v>0.02540373697316555</v>
+        <v>0.02561936272018776</v>
       </c>
       <c r="N98" t="n">
-        <v>0.1493808601276855</v>
+        <v>0.03141974054680588</v>
       </c>
       <c r="O98" t="n">
-        <v>0.02581473760398663</v>
+        <v>0.02594286750051592</v>
       </c>
     </row>
     <row r="99" ht="15" customHeight="1">
       <c r="F99" t="n">
-        <v>0.02350564047766076</v>
+        <v>0.03191236399724588</v>
       </c>
       <c r="G99" t="n">
-        <v>0.02542627799546054</v>
+        <v>0.02672901500053155</v>
       </c>
       <c r="J99" t="n">
-        <v>0.03754681861296236</v>
+        <v>0.08115110956184282</v>
       </c>
       <c r="K99" t="n">
-        <v>0.02713653413290944</v>
+        <v>0.02660974410661037</v>
       </c>
       <c r="L99" t="n">
-        <v>0.09338801308047845</v>
+        <v>0.1272670916285078</v>
       </c>
       <c r="M99" t="n">
-        <v>0.02617354718447359</v>
+        <v>0.02639570704504193</v>
       </c>
       <c r="N99" t="n">
-        <v>0.148596040812423</v>
+        <v>0.03191236399724588</v>
       </c>
       <c r="O99" t="n">
-        <v>0.02659700237986501</v>
+        <v>0.02672901500053155</v>
       </c>
     </row>
     <row r="100" ht="15" customHeight="1">
       <c r="F100" t="n">
-        <v>0.02149793391381277</v>
+        <v>0.03248893785521574</v>
       </c>
       <c r="G100" t="n">
-        <v>0.02617410970120938</v>
+        <v>0.02751516250054719</v>
       </c>
       <c r="J100" t="n">
-        <v>0.03730789042699133</v>
+        <v>0.08245452244260376</v>
       </c>
       <c r="K100" t="n">
-        <v>0.02793466748975972</v>
+        <v>0.02739238363915774</v>
       </c>
       <c r="L100" t="n">
-        <v>0.09299637512879841</v>
+        <v>0.1284631696284136</v>
       </c>
       <c r="M100" t="n">
-        <v>0.02694335739578164</v>
+        <v>0.02717205136989611</v>
       </c>
       <c r="N100" t="n">
-        <v>0.1484002708860483</v>
+        <v>0.03248893785521574</v>
       </c>
       <c r="O100" t="n">
-        <v>0.02737926715574339</v>
+        <v>0.02751516250054719</v>
       </c>
     </row>
     <row r="101" ht="15" customHeight="1">
       <c r="F101" t="n">
-        <v>0.02342062581633322</v>
+        <v>0.03294837803937348</v>
       </c>
       <c r="G101" t="n">
-        <v>0.02692194140695822</v>
+        <v>0.02830131000056282</v>
       </c>
       <c r="J101" t="n">
-        <v>0.03729948168617529</v>
+        <v>0.08341206715721156</v>
       </c>
       <c r="K101" t="n">
-        <v>0.02873280084661</v>
+        <v>0.0281750231717051</v>
       </c>
       <c r="L101" t="n">
-        <v>0.09257091424695416</v>
+        <v>0.13110881768706</v>
       </c>
       <c r="M101" t="n">
-        <v>0.02771316760708968</v>
+        <v>0.02794839569475028</v>
       </c>
       <c r="N101" t="n">
-        <v>0.1472136186672516</v>
+        <v>0.03294837803937348</v>
       </c>
       <c r="O101" t="n">
-        <v>0.02816153193162178</v>
+        <v>0.02830131000056282</v>
       </c>
     </row>
     <row r="102" ht="15" customHeight="1">
       <c r="F102" t="n">
-        <v>0.02128134057691338</v>
+        <v>0.03338960046837713</v>
       </c>
       <c r="G102" t="n">
-        <v>0.02766977311270706</v>
+        <v>0.02908745750057845</v>
       </c>
       <c r="J102" t="n">
-        <v>0.03693168902808595</v>
+        <v>0.08502211248883998</v>
       </c>
       <c r="K102" t="n">
-        <v>0.02953093420346028</v>
+        <v>0.02895766270425246</v>
       </c>
       <c r="L102" t="n">
-        <v>0.09184278519433772</v>
+        <v>0.1328993903305029</v>
       </c>
       <c r="M102" t="n">
-        <v>0.02848297781839773</v>
+        <v>0.02872474001960446</v>
       </c>
       <c r="N102" t="n">
-        <v>0.146454418144176</v>
+        <v>0.03338960046837713</v>
       </c>
       <c r="O102" t="n">
-        <v>0.02894379670750016</v>
+        <v>0.02908745750057845</v>
       </c>
     </row>
     <row r="103" ht="15" customHeight="1">
       <c r="F103" t="n">
-        <v>0.02108925215761831</v>
+        <v>0.03391152106088471</v>
       </c>
       <c r="G103" t="n">
-        <v>0.0284176048184559</v>
+        <v>0.02987360500059409</v>
       </c>
       <c r="J103" t="n">
-        <v>0.036514609090295</v>
+        <v>0.08638302722066299</v>
       </c>
       <c r="K103" t="n">
-        <v>0.03032906756031055</v>
+        <v>0.02974030223679983</v>
       </c>
       <c r="L103" t="n">
-        <v>0.09094314273034118</v>
+        <v>0.1345302420847979</v>
       </c>
       <c r="M103" t="n">
-        <v>0.02925278802970578</v>
+        <v>0.02950108434445863</v>
       </c>
       <c r="N103" t="n">
-        <v>0.1468410033049647</v>
+        <v>0.03391152106088471</v>
       </c>
       <c r="O103" t="n">
-        <v>0.02972606148337854</v>
+        <v>0.02987360500059409</v>
       </c>
     </row>
     <row r="104" ht="15" customHeight="1">
       <c r="F104" t="n">
-        <v>0.02285353452051305</v>
+        <v>0.03451305573555419</v>
       </c>
       <c r="G104" t="n">
-        <v>0.02916543652420474</v>
+        <v>0.03065975250060972</v>
       </c>
       <c r="J104" t="n">
-        <v>0.03615833851037412</v>
+        <v>0.08699318013585433</v>
       </c>
       <c r="K104" t="n">
-        <v>0.03112720091716083</v>
+        <v>0.03052294176934719</v>
       </c>
       <c r="L104" t="n">
-        <v>0.09000314161435663</v>
+        <v>0.1363967274760012</v>
       </c>
       <c r="M104" t="n">
-        <v>0.03002259824101382</v>
+        <v>0.03027742866931281</v>
       </c>
       <c r="N104" t="n">
-        <v>0.1452917081377608</v>
+        <v>0.03451305573555419</v>
       </c>
       <c r="O104" t="n">
-        <v>0.03050832625925692</v>
+        <v>0.03065975250060972</v>
       </c>
     </row>
     <row r="105" ht="15" customHeight="1">
       <c r="F105" t="n">
-        <v>0.02258336162766267</v>
+        <v>0.03489312041104366</v>
       </c>
       <c r="G105" t="n">
-        <v>0.02991326822995358</v>
+        <v>0.03144590000062536</v>
       </c>
       <c r="J105" t="n">
-        <v>0.03607297392589498</v>
+        <v>0.08795094001758794</v>
       </c>
       <c r="K105" t="n">
-        <v>0.03192533427401111</v>
+        <v>0.03130558130189456</v>
       </c>
       <c r="L105" t="n">
-        <v>0.08895393660577613</v>
+        <v>0.1386942010301686</v>
       </c>
       <c r="M105" t="n">
-        <v>0.03079240845232187</v>
+        <v>0.03105377299416698</v>
       </c>
       <c r="N105" t="n">
-        <v>0.1435248666307079</v>
+        <v>0.03489312041104366</v>
       </c>
       <c r="O105" t="n">
-        <v>0.0312905910351353</v>
+        <v>0.03144590000062536</v>
       </c>
     </row>
     <row r="106" ht="15" customHeight="1">
       <c r="F106" t="n">
-        <v>0.0222879074411322</v>
+        <v>0.03555063100601108</v>
       </c>
       <c r="G106" t="n">
-        <v>0.03066109993570242</v>
+        <v>0.03223204750064099</v>
       </c>
       <c r="J106" t="n">
-        <v>0.03536861197442931</v>
+        <v>0.08905467564903766</v>
       </c>
       <c r="K106" t="n">
-        <v>0.03272346763086138</v>
+        <v>0.03208822083444192</v>
       </c>
       <c r="L106" t="n">
-        <v>0.08812668246399177</v>
+        <v>0.1403180172733559</v>
       </c>
       <c r="M106" t="n">
-        <v>0.03156221866362992</v>
+        <v>0.03183011731902115</v>
       </c>
       <c r="N106" t="n">
-        <v>0.1435588127719489</v>
+        <v>0.03555063100601108</v>
       </c>
       <c r="O106" t="n">
-        <v>0.03207285581101369</v>
+        <v>0.03223204750064099</v>
       </c>
     </row>
     <row r="107" ht="15" customHeight="1">
       <c r="F107" t="n">
-        <v>0.0219763459229867</v>
+        <v>0.03588450343911449</v>
       </c>
       <c r="G107" t="n">
-        <v>0.03140893164145125</v>
+        <v>0.03301819500065663</v>
       </c>
       <c r="J107" t="n">
-        <v>0.03525534929354875</v>
+        <v>0.08990275581337728</v>
       </c>
       <c r="K107" t="n">
-        <v>0.03352160098771167</v>
+        <v>0.03287086036698928</v>
       </c>
       <c r="L107" t="n">
-        <v>0.08685253394839562</v>
+        <v>0.1414635307316189</v>
       </c>
       <c r="M107" t="n">
-        <v>0.03233202887493797</v>
+        <v>0.03260646164387533</v>
       </c>
       <c r="N107" t="n">
-        <v>0.1416118805496271</v>
+        <v>0.03588450343911449</v>
       </c>
       <c r="O107" t="n">
-        <v>0.03285512058689208</v>
+        <v>0.03301819500065663</v>
       </c>
     </row>
     <row r="108" ht="15" customHeight="1">
       <c r="F108" t="n">
-        <v>0.01965785103529123</v>
+        <v>0.03639365362901192</v>
       </c>
       <c r="G108" t="n">
-        <v>0.0321567633472001</v>
+        <v>0.03380434250067226</v>
       </c>
       <c r="J108" t="n">
-        <v>0.03484328252082501</v>
+        <v>0.09089354929378074</v>
       </c>
       <c r="K108" t="n">
-        <v>0.03431973434456195</v>
+        <v>0.03365349989953664</v>
       </c>
       <c r="L108" t="n">
-        <v>0.08526264581837978</v>
+        <v>0.1433260959310136</v>
       </c>
       <c r="M108" t="n">
-        <v>0.03310183908624602</v>
+        <v>0.0333828059687295</v>
       </c>
       <c r="N108" t="n">
-        <v>0.1404024039518859</v>
+        <v>0.03639365362901192</v>
       </c>
       <c r="O108" t="n">
-        <v>0.03363738536277046</v>
+        <v>0.03380434250067226</v>
       </c>
     </row>
     <row r="109" ht="15" customHeight="1">
       <c r="F109" t="n">
-        <v>0.02134159674011083</v>
+        <v>0.03677699749436136</v>
       </c>
       <c r="G109" t="n">
-        <v>0.03290459505294894</v>
+        <v>0.0345904900006879</v>
       </c>
       <c r="J109" t="n">
-        <v>0.0343425082938298</v>
+        <v>0.09162542487342179</v>
       </c>
       <c r="K109" t="n">
-        <v>0.03511786770141222</v>
+        <v>0.03443613943208401</v>
       </c>
       <c r="L109" t="n">
-        <v>0.08418817283333629</v>
+        <v>0.1451010673975958</v>
       </c>
       <c r="M109" t="n">
-        <v>0.03387164929755406</v>
+        <v>0.03415915029358368</v>
       </c>
       <c r="N109" t="n">
-        <v>0.1385487169668684</v>
+        <v>0.03677699749436136</v>
       </c>
       <c r="O109" t="n">
-        <v>0.03441965013864884</v>
+        <v>0.0345904900006879</v>
       </c>
     </row>
     <row r="110" ht="15" customHeight="1">
       <c r="F110" t="n">
-        <v>0.02103675699951056</v>
+        <v>0.03723345095382087</v>
       </c>
       <c r="G110" t="n">
-        <v>0.03365242675869778</v>
+        <v>0.03537663750070352</v>
       </c>
       <c r="J110" t="n">
-        <v>0.03376312325013478</v>
+        <v>0.09309675133547435</v>
       </c>
       <c r="K110" t="n">
-        <v>0.0359160010582625</v>
+        <v>0.03521877896463137</v>
       </c>
       <c r="L110" t="n">
-        <v>0.08356026975265723</v>
+        <v>0.1458837996574215</v>
       </c>
       <c r="M110" t="n">
-        <v>0.03464145950886211</v>
+        <v>0.03493549461843785</v>
       </c>
       <c r="N110" t="n">
-        <v>0.1376691535827179</v>
+        <v>0.03723345095382087</v>
       </c>
       <c r="O110" t="n">
-        <v>0.03520191491452723</v>
+        <v>0.03537663750070352</v>
       </c>
     </row>
     <row r="111" ht="15" customHeight="1">
       <c r="F111" t="n">
-        <v>0.01975250577555546</v>
+        <v>0.03746192992604842</v>
       </c>
       <c r="G111" t="n">
-        <v>0.03440025846444662</v>
+        <v>0.03616278500071916</v>
       </c>
       <c r="J111" t="n">
-        <v>0.03341522402731163</v>
+        <v>0.09290589746311223</v>
       </c>
       <c r="K111" t="n">
-        <v>0.03671413441511277</v>
+        <v>0.03600141849717874</v>
       </c>
       <c r="L111" t="n">
-        <v>0.08181009133573469</v>
+        <v>0.1481696472365464</v>
       </c>
       <c r="M111" t="n">
-        <v>0.03541126972017015</v>
+        <v>0.03571183894329203</v>
       </c>
       <c r="N111" t="n">
-        <v>0.1370820477875775</v>
+        <v>0.03746192992604842</v>
       </c>
       <c r="O111" t="n">
-        <v>0.03598417969040561</v>
+        <v>0.03616278500071916</v>
       </c>
     </row>
     <row r="112" ht="15" customHeight="1">
       <c r="F112" t="n">
-        <v>0.01849801703031059</v>
+        <v>0.03786135032970207</v>
       </c>
       <c r="G112" t="n">
-        <v>0.03514809017019545</v>
+        <v>0.03694893250073479</v>
       </c>
       <c r="J112" t="n">
-        <v>0.03330890726293205</v>
+        <v>0.09395123203950939</v>
       </c>
       <c r="K112" t="n">
-        <v>0.03751226777196306</v>
+        <v>0.0367840580297261</v>
       </c>
       <c r="L112" t="n">
-        <v>0.08146879234196075</v>
+        <v>0.1497539646610264</v>
       </c>
       <c r="M112" t="n">
-        <v>0.03618107993147821</v>
+        <v>0.0364881832681462</v>
       </c>
       <c r="N112" t="n">
-        <v>0.1352057335695905</v>
+        <v>0.03786135032970207</v>
       </c>
       <c r="O112" t="n">
-        <v>0.03676644446628399</v>
+        <v>0.03694893250073479</v>
       </c>
     </row>
     <row r="113" ht="15" customHeight="1">
       <c r="F113" t="n">
-        <v>0.018282464725841</v>
+        <v>0.03803062808343981</v>
       </c>
       <c r="G113" t="n">
-        <v>0.03589592187594429</v>
+        <v>0.03773508000075042</v>
       </c>
       <c r="J113" t="n">
-        <v>0.03295426959456772</v>
+        <v>0.0941311238478395</v>
       </c>
       <c r="K113" t="n">
-        <v>0.03831040112881333</v>
+        <v>0.03756669756227347</v>
       </c>
       <c r="L113" t="n">
-        <v>0.08056752753072746</v>
+        <v>0.1507321064569174</v>
       </c>
       <c r="M113" t="n">
-        <v>0.03695089014278625</v>
+        <v>0.03726452759300038</v>
       </c>
       <c r="N113" t="n">
-        <v>0.1330585449169002</v>
+        <v>0.03803062808343981</v>
       </c>
       <c r="O113" t="n">
-        <v>0.03754870924216237</v>
+        <v>0.03773508000075042</v>
       </c>
     </row>
     <row r="114" ht="15" customHeight="1">
       <c r="F114" t="n">
-        <v>0.01911502282421175</v>
+        <v>0.03826867910591969</v>
       </c>
       <c r="G114" t="n">
-        <v>0.03664375358169313</v>
+        <v>0.03852122750076606</v>
       </c>
       <c r="J114" t="n">
-        <v>0.03276140765979035</v>
+        <v>0.09534394167127649</v>
       </c>
       <c r="K114" t="n">
-        <v>0.03910853448566361</v>
+        <v>0.03834933709482083</v>
       </c>
       <c r="L114" t="n">
-        <v>0.08033745166142692</v>
+        <v>0.1506994271502752</v>
       </c>
       <c r="M114" t="n">
-        <v>0.0377207003540943</v>
+        <v>0.03804087191785455</v>
       </c>
       <c r="N114" t="n">
-        <v>0.1329588158176499</v>
+        <v>0.03826867910591969</v>
       </c>
       <c r="O114" t="n">
-        <v>0.03833097401804075</v>
+        <v>0.03852122750076606</v>
       </c>
     </row>
     <row r="115" ht="15" customHeight="1">
       <c r="F115" t="n">
-        <v>0.01900486528748788</v>
+        <v>0.03837441931579967</v>
       </c>
       <c r="G115" t="n">
-        <v>0.03739158528744197</v>
+        <v>0.03930737500078169</v>
       </c>
       <c r="J115" t="n">
-        <v>0.03254041809617161</v>
+        <v>0.09598805429299434</v>
       </c>
       <c r="K115" t="n">
-        <v>0.03990666784251388</v>
+        <v>0.03913197662736819</v>
       </c>
       <c r="L115" t="n">
-        <v>0.0798097194934512</v>
+        <v>0.1514512812671557</v>
       </c>
       <c r="M115" t="n">
-        <v>0.03849051056540234</v>
+        <v>0.03881721624270872</v>
       </c>
       <c r="N115" t="n">
-        <v>0.1304248802599826</v>
+        <v>0.03837441931579967</v>
       </c>
       <c r="O115" t="n">
-        <v>0.03911323879391913</v>
+        <v>0.03930737500078169</v>
       </c>
     </row>
     <row r="116" ht="15" customHeight="1">
       <c r="F116" t="n">
-        <v>0.01796116607773444</v>
+        <v>0.03844676463173782</v>
       </c>
       <c r="G116" t="n">
-        <v>0.03813941699319081</v>
+        <v>0.04009352250079733</v>
       </c>
       <c r="J116" t="n">
-        <v>0.03280132412980197</v>
+        <v>0.09566183049616667</v>
       </c>
       <c r="K116" t="n">
-        <v>0.04070480119936416</v>
+        <v>0.03991461615991556</v>
       </c>
       <c r="L116" t="n">
-        <v>0.07961548578619235</v>
+        <v>0.153283023333615</v>
       </c>
       <c r="M116" t="n">
-        <v>0.03926032077671039</v>
+        <v>0.0395935605675629</v>
       </c>
       <c r="N116" t="n">
-        <v>0.1302750722320417</v>
+        <v>0.03844676463173782</v>
       </c>
       <c r="O116" t="n">
-        <v>0.03989550356979752</v>
+        <v>0.04009352250079733</v>
       </c>
     </row>
     <row r="117" ht="15" customHeight="1">
       <c r="F117" t="n">
-        <v>0.01997106215315553</v>
+        <v>0.03868463097239215</v>
       </c>
       <c r="G117" t="n">
-        <v>0.03888724869893965</v>
+        <v>0.04087967000081296</v>
       </c>
       <c r="J117" t="n">
-        <v>0.0326275520060316</v>
+        <v>0.09576363906396745</v>
       </c>
       <c r="K117" t="n">
-        <v>0.04150293455621444</v>
+        <v>0.04069725569246292</v>
       </c>
       <c r="L117" t="n">
-        <v>0.0790428322583992</v>
+        <v>0.1539900078757087</v>
       </c>
       <c r="M117" t="n">
-        <v>0.04003013098801844</v>
+        <v>0.04036990489241708</v>
       </c>
       <c r="N117" t="n">
-        <v>0.1285277257219705</v>
+        <v>0.03868463097239215</v>
       </c>
       <c r="O117" t="n">
-        <v>0.0406777683456759</v>
+        <v>0.04087967000081296</v>
       </c>
     </row>
     <row r="118" ht="15" customHeight="1">
       <c r="F118" t="n">
-        <v>0.0200054274859235</v>
+        <v>0.03888693425642066</v>
       </c>
       <c r="G118" t="n">
-        <v>0.03963508040468849</v>
+        <v>0.04166581750082859</v>
       </c>
       <c r="J118" t="n">
-        <v>0.03279837178851208</v>
+        <v>0.0961918487795706</v>
       </c>
       <c r="K118" t="n">
-        <v>0.04230106791306472</v>
+        <v>0.04147989522501028</v>
       </c>
       <c r="L118" t="n">
-        <v>0.07919711964331511</v>
+        <v>0.1535675894194927</v>
       </c>
       <c r="M118" t="n">
-        <v>0.04079994119932649</v>
+        <v>0.04114624921727125</v>
       </c>
       <c r="N118" t="n">
-        <v>0.1281011747179119</v>
+        <v>0.03888693425642066</v>
       </c>
       <c r="O118" t="n">
-        <v>0.04146003312155428</v>
+        <v>0.04166581750082859</v>
       </c>
     </row>
     <row r="119" ht="15" customHeight="1">
       <c r="F119" t="n">
-        <v>0.02006243651158687</v>
+        <v>0.03908148784981012</v>
       </c>
       <c r="G119" t="n">
-        <v>0.04038291211043733</v>
+        <v>0.04245196500084423</v>
       </c>
       <c r="J119" t="n">
-        <v>0.03291036865475114</v>
+        <v>0.09654482842614992</v>
       </c>
       <c r="K119" t="n">
-        <v>0.043099201269915</v>
+        <v>0.04226253475755765</v>
       </c>
       <c r="L119" t="n">
-        <v>0.07996488128774321</v>
+        <v>0.1539111224910228</v>
       </c>
       <c r="M119" t="n">
-        <v>0.04156975141063453</v>
+        <v>0.04192259354212542</v>
       </c>
       <c r="N119" t="n">
-        <v>0.1268137532080095</v>
+        <v>0.03908148784981012</v>
       </c>
       <c r="O119" t="n">
-        <v>0.04224229789743267</v>
+        <v>0.04245196500084423</v>
       </c>
     </row>
     <row r="120" ht="15" customHeight="1">
       <c r="F120" t="n">
-        <v>0.01914050340727239</v>
+        <v>0.03888051532923234</v>
       </c>
       <c r="G120" t="n">
-        <v>0.04113074381618617</v>
+        <v>0.04323811250085987</v>
       </c>
       <c r="J120" t="n">
-        <v>0.03296012778225647</v>
+        <v>0.09712970676672711</v>
       </c>
       <c r="K120" t="n">
-        <v>0.04389733462676527</v>
+        <v>0.04304517429010501</v>
       </c>
       <c r="L120" t="n">
-        <v>0.07993701050971649</v>
+        <v>0.155177925683644</v>
       </c>
       <c r="M120" t="n">
-        <v>0.04233956162194258</v>
+        <v>0.0426989378669796</v>
       </c>
       <c r="N120" t="n">
-        <v>0.1261837951804064</v>
+        <v>0.03888051532923234</v>
       </c>
       <c r="O120" t="n">
-        <v>0.04302456267331105</v>
+        <v>0.04323811250085987</v>
       </c>
     </row>
     <row r="121" ht="15" customHeight="1">
       <c r="F121" t="n">
-        <v>0.01923804235010684</v>
+        <v>0.03887859448901225</v>
       </c>
       <c r="G121" t="n">
-        <v>0.04187857552193501</v>
+        <v>0.0440242600008755</v>
       </c>
       <c r="J121" t="n">
-        <v>0.03314423434853578</v>
+        <v>0.09682508425525826</v>
       </c>
       <c r="K121" t="n">
-        <v>0.04469546798361555</v>
+        <v>0.04382781382265238</v>
       </c>
       <c r="L121" t="n">
-        <v>0.08020440062726797</v>
+        <v>0.1545778456181056</v>
       </c>
       <c r="M121" t="n">
-        <v>0.04310937183325063</v>
+        <v>0.04347528219183378</v>
       </c>
       <c r="N121" t="n">
-        <v>0.1266296346232458</v>
+        <v>0.03887859448901225</v>
       </c>
       <c r="O121" t="n">
-        <v>0.04380682744918944</v>
+        <v>0.0440242600008755</v>
       </c>
     </row>
     <row r="122" ht="15" customHeight="1">
       <c r="F122" t="n">
-        <v>0.02035346751721698</v>
+        <v>0.03886652288942918</v>
       </c>
       <c r="G122" t="n">
-        <v>0.04262640722768385</v>
+        <v>0.04481040750089114</v>
       </c>
       <c r="J122" t="n">
-        <v>0.03325927353109678</v>
+        <v>0.09649159880091954</v>
       </c>
       <c r="K122" t="n">
-        <v>0.04549360134046583</v>
+        <v>0.04461045335519974</v>
       </c>
       <c r="L122" t="n">
-        <v>0.08115794495843062</v>
+        <v>0.1536632080091932</v>
       </c>
       <c r="M122" t="n">
-        <v>0.04387918204455867</v>
+        <v>0.04425162651668795</v>
       </c>
       <c r="N122" t="n">
-        <v>0.1258696055246709</v>
+        <v>0.03886652288942918</v>
       </c>
       <c r="O122" t="n">
-        <v>0.04458909222506782</v>
+        <v>0.04481040750089114</v>
       </c>
     </row>
     <row r="123" ht="15" customHeight="1">
       <c r="F123" t="n">
-        <v>0.01848519308572957</v>
+        <v>0.0390453671920656</v>
       </c>
       <c r="G123" t="n">
-        <v>0.04337423893343269</v>
+        <v>0.04559655500090676</v>
       </c>
       <c r="J123" t="n">
-        <v>0.03380183050744717</v>
+        <v>0.09652682658349296</v>
       </c>
       <c r="K123" t="n">
-        <v>0.04629173469731611</v>
+        <v>0.0453930928877471</v>
       </c>
       <c r="L123" t="n">
-        <v>0.08198853682123741</v>
+        <v>0.1546237408634831</v>
       </c>
       <c r="M123" t="n">
-        <v>0.04464899225586672</v>
+        <v>0.04502797084154212</v>
       </c>
       <c r="N123" t="n">
-        <v>0.1266262283194156</v>
+        <v>0.0390453671920656</v>
       </c>
       <c r="O123" t="n">
-        <v>0.0453713570009462</v>
+        <v>0.04559655500090676</v>
       </c>
     </row>
     <row r="124" ht="15" customHeight="1">
       <c r="F124" t="n">
-        <v>0.01863163323277138</v>
+        <v>0.03901546373220152</v>
       </c>
       <c r="G124" t="n">
-        <v>0.04412207063918153</v>
+        <v>0.0463827025009224</v>
       </c>
       <c r="J124" t="n">
-        <v>0.03376849045509468</v>
+        <v>0.09623205317525196</v>
       </c>
       <c r="K124" t="n">
-        <v>0.04708986805416639</v>
+        <v>0.04617573242029447</v>
       </c>
       <c r="L124" t="n">
-        <v>0.0826870695337214</v>
+        <v>0.1545600556154747</v>
       </c>
       <c r="M124" t="n">
-        <v>0.04541880246717477</v>
+        <v>0.0458043151663963</v>
       </c>
       <c r="N124" t="n">
-        <v>0.1254778838380514</v>
+        <v>0.03901546373220152</v>
       </c>
       <c r="O124" t="n">
-        <v>0.04615362177682458</v>
+        <v>0.0463827025009224</v>
       </c>
     </row>
     <row r="125" ht="15" customHeight="1">
       <c r="F125" t="n">
-        <v>0.02079120213546919</v>
+        <v>0.038877148845117</v>
       </c>
       <c r="G125" t="n">
-        <v>0.04486990234493037</v>
+        <v>0.04716885000093803</v>
       </c>
       <c r="J125" t="n">
-        <v>0.03425583855154697</v>
+        <v>0.09600856414846995</v>
       </c>
       <c r="K125" t="n">
-        <v>0.04788800141101666</v>
+        <v>0.04695837195284183</v>
       </c>
       <c r="L125" t="n">
-        <v>0.08364443641391553</v>
+        <v>0.1546727636996676</v>
       </c>
       <c r="M125" t="n">
-        <v>0.04618861267848282</v>
+        <v>0.04658065949125047</v>
       </c>
       <c r="N125" t="n">
-        <v>0.1273261915653398</v>
+        <v>0.038877148845117</v>
       </c>
       <c r="O125" t="n">
-        <v>0.04693588655270296</v>
+        <v>0.04716885000093803</v>
       </c>
     </row>
     <row r="126" ht="15" customHeight="1">
       <c r="F126" t="n">
-        <v>0.01996231397094973</v>
+        <v>0.03883075886609211</v>
       </c>
       <c r="G126" t="n">
-        <v>0.0456177340506792</v>
+        <v>0.04795499750095367</v>
       </c>
       <c r="J126" t="n">
-        <v>0.03436045997431181</v>
+        <v>0.09645764507542037</v>
       </c>
       <c r="K126" t="n">
-        <v>0.04868613476786694</v>
+        <v>0.04774101148538919</v>
       </c>
       <c r="L126" t="n">
-        <v>0.08445153077985282</v>
+        <v>0.1542624765505615</v>
       </c>
       <c r="M126" t="n">
-        <v>0.04695842288979086</v>
+        <v>0.04735700381610465</v>
       </c>
       <c r="N126" t="n">
-        <v>0.1281420779471218</v>
+        <v>0.03883075886609211</v>
       </c>
       <c r="O126" t="n">
-        <v>0.04771815132858135</v>
+        <v>0.04795499750095367</v>
       </c>
     </row>
     <row r="127" ht="15" customHeight="1">
       <c r="F127" t="n">
-        <v>0.0211433829163398</v>
+        <v>0.03857663013040689</v>
       </c>
       <c r="G127" t="n">
-        <v>0.04636556575642805</v>
+        <v>0.0487411450009693</v>
       </c>
       <c r="J127" t="n">
-        <v>0.03487893990089685</v>
+        <v>0.09568058152837666</v>
       </c>
       <c r="K127" t="n">
-        <v>0.04948426812471722</v>
+        <v>0.04852365101793656</v>
       </c>
       <c r="L127" t="n">
-        <v>0.08519924594956618</v>
+        <v>0.1546298056026558</v>
       </c>
       <c r="M127" t="n">
-        <v>0.04772823310109891</v>
+        <v>0.04813334814095882</v>
       </c>
       <c r="N127" t="n">
-        <v>0.1287964694292384</v>
+        <v>0.03857663013040689</v>
       </c>
       <c r="O127" t="n">
-        <v>0.04850041610445973</v>
+        <v>0.0487411450009693</v>
       </c>
     </row>
     <row r="128" ht="15" customHeight="1">
       <c r="F128" t="n">
-        <v>0.02133282314876615</v>
+        <v>0.0388150989733414</v>
       </c>
       <c r="G128" t="n">
-        <v>0.04711339746217689</v>
+        <v>0.04952729250098493</v>
       </c>
       <c r="J128" t="n">
-        <v>0.03500786350880986</v>
+        <v>0.09587865907961221</v>
       </c>
       <c r="K128" t="n">
-        <v>0.0502824014815675</v>
+        <v>0.04930629055048392</v>
       </c>
       <c r="L128" t="n">
-        <v>0.08537847524108871</v>
+        <v>0.1533753622904499</v>
       </c>
       <c r="M128" t="n">
-        <v>0.04849804331240695</v>
+        <v>0.048909692465813</v>
       </c>
       <c r="N128" t="n">
-        <v>0.1302602924575308</v>
+        <v>0.0388150989733414</v>
       </c>
       <c r="O128" t="n">
-        <v>0.04928268088033811</v>
+        <v>0.04952729250098493</v>
       </c>
     </row>
     <row r="129" ht="15" customHeight="1">
       <c r="F129" t="n">
-        <v>0.02152904884535555</v>
+        <v>0.03874650173017569</v>
       </c>
       <c r="G129" t="n">
-        <v>0.04786122916792573</v>
+        <v>0.05031344000100057</v>
       </c>
       <c r="J129" t="n">
-        <v>0.03564381597555848</v>
+        <v>0.09535316330140045</v>
       </c>
       <c r="K129" t="n">
-        <v>0.05108053483841777</v>
+        <v>0.05008893008303129</v>
       </c>
       <c r="L129" t="n">
-        <v>0.08618011197245329</v>
+        <v>0.1537997580484435</v>
       </c>
       <c r="M129" t="n">
-        <v>0.049267853523715</v>
+        <v>0.04968603679066717</v>
       </c>
       <c r="N129" t="n">
-        <v>0.13070447347784</v>
+        <v>0.03874650173017569</v>
       </c>
       <c r="O129" t="n">
-        <v>0.0500649456562165</v>
+        <v>0.05031344000100057</v>
       </c>
     </row>
     <row r="130" ht="15" customHeight="1">
       <c r="F130" t="n">
-        <v>0.01973047418323476</v>
+        <v>0.03837117473618981</v>
       </c>
       <c r="G130" t="n">
-        <v>0.04860906087367457</v>
+        <v>0.0510995875010162</v>
       </c>
       <c r="J130" t="n">
-        <v>0.03568338247865045</v>
+        <v>0.09510537976601482</v>
       </c>
       <c r="K130" t="n">
-        <v>0.05187866819526805</v>
+        <v>0.05087156961557865</v>
       </c>
       <c r="L130" t="n">
-        <v>0.08749504946169301</v>
+        <v>0.1531036043111362</v>
       </c>
       <c r="M130" t="n">
-        <v>0.05003766373502305</v>
+        <v>0.05046238111552134</v>
       </c>
       <c r="N130" t="n">
-        <v>0.132199938936007</v>
+        <v>0.03837117473618981</v>
       </c>
       <c r="O130" t="n">
-        <v>0.05084721043209488</v>
+        <v>0.0510995875010162</v>
       </c>
     </row>
     <row r="131" ht="15" customHeight="1">
       <c r="F131" t="n">
-        <v>0.01993551333953055</v>
+        <v>0.0385894543266638</v>
       </c>
       <c r="G131" t="n">
-        <v>0.0493568925794234</v>
+        <v>0.05188573500103184</v>
       </c>
       <c r="J131" t="n">
-        <v>0.03632314819559347</v>
+        <v>0.09543659404572874</v>
       </c>
       <c r="K131" t="n">
-        <v>0.05267680155211833</v>
+        <v>0.05165420914812601</v>
       </c>
       <c r="L131" t="n">
-        <v>0.0880141810268408</v>
+        <v>0.1533875125130273</v>
       </c>
       <c r="M131" t="n">
-        <v>0.0508074739463311</v>
+        <v>0.05123872544037552</v>
       </c>
       <c r="N131" t="n">
-        <v>0.1352176152778727</v>
+        <v>0.0385894543266638</v>
       </c>
       <c r="O131" t="n">
-        <v>0.05162947520797326</v>
+        <v>0.05188573500103184</v>
       </c>
     </row>
     <row r="132" ht="15" customHeight="1">
       <c r="F132" t="n">
-        <v>0.02214258049136968</v>
+        <v>0.03850167683687772</v>
       </c>
       <c r="G132" t="n">
-        <v>0.05010472428517224</v>
+        <v>0.05267188250104747</v>
       </c>
       <c r="J132" t="n">
-        <v>0.03635969830389528</v>
+        <v>0.09434809171281563</v>
       </c>
       <c r="K132" t="n">
-        <v>0.0534749349089686</v>
+        <v>0.05243684868067338</v>
       </c>
       <c r="L132" t="n">
-        <v>0.08942839998592969</v>
+        <v>0.1535520940886166</v>
       </c>
       <c r="M132" t="n">
-        <v>0.05157728415763914</v>
+        <v>0.05201506976522969</v>
       </c>
       <c r="N132" t="n">
-        <v>0.1367284289492785</v>
+        <v>0.03850167683687772</v>
       </c>
       <c r="O132" t="n">
-        <v>0.05241173998385164</v>
+        <v>0.05267188250104747</v>
       </c>
     </row>
     <row r="133" ht="15" customHeight="1">
       <c r="F133" t="n">
-        <v>0.02235008981587892</v>
+        <v>0.03820817860211163</v>
       </c>
       <c r="G133" t="n">
-        <v>0.05085255599092108</v>
+        <v>0.0534580300010631</v>
       </c>
       <c r="J133" t="n">
-        <v>0.03668961798106354</v>
+        <v>0.09444115833954897</v>
       </c>
       <c r="K133" t="n">
-        <v>0.05427306826581888</v>
+        <v>0.05321948821322074</v>
       </c>
       <c r="L133" t="n">
-        <v>0.09022859965699265</v>
+        <v>0.1533979604724036</v>
       </c>
       <c r="M133" t="n">
-        <v>0.05234709436894719</v>
+        <v>0.05279141409008387</v>
       </c>
       <c r="N133" t="n">
-        <v>0.1388033063960653</v>
+        <v>0.03820817860211163</v>
       </c>
       <c r="O133" t="n">
-        <v>0.05319400475973003</v>
+        <v>0.0534580300010631</v>
       </c>
     </row>
     <row r="134" ht="15" customHeight="1">
       <c r="F134" t="n">
-        <v>0.02255645549018505</v>
+        <v>0.03820929595764561</v>
       </c>
       <c r="G134" t="n">
-        <v>0.05160038769666992</v>
+        <v>0.05424417750107874</v>
       </c>
       <c r="J134" t="n">
-        <v>0.03700949240460599</v>
+        <v>0.09421707949820207</v>
       </c>
       <c r="K134" t="n">
-        <v>0.05507120162266917</v>
+        <v>0.0540021277457681</v>
       </c>
       <c r="L134" t="n">
-        <v>0.09140567335806266</v>
+        <v>0.1531257230988877</v>
       </c>
       <c r="M134" t="n">
-        <v>0.05311690458025524</v>
+        <v>0.05356775841493805</v>
       </c>
       <c r="N134" t="n">
-        <v>0.139813174064074</v>
+        <v>0.03820929595764561</v>
       </c>
       <c r="O134" t="n">
-        <v>0.05397626953560841</v>
+        <v>0.05424417750107874</v>
       </c>
     </row>
     <row r="135" ht="15" customHeight="1">
       <c r="F135" t="n">
-        <v>0.0217600916914148</v>
+        <v>0.03800536523875965</v>
       </c>
       <c r="G135" t="n">
-        <v>0.05234821940241876</v>
+        <v>0.05503032500109437</v>
       </c>
       <c r="J135" t="n">
-        <v>0.0375159067520303</v>
+        <v>0.09427714076104846</v>
       </c>
       <c r="K135" t="n">
-        <v>0.05586933497951944</v>
+        <v>0.05478476727831547</v>
       </c>
       <c r="L135" t="n">
-        <v>0.09235051440717271</v>
+        <v>0.1522359934025687</v>
       </c>
       <c r="M135" t="n">
-        <v>0.05388671479156328</v>
+        <v>0.05434410273979221</v>
       </c>
       <c r="N135" t="n">
-        <v>0.1425289583991459</v>
+        <v>0.03800536523875965</v>
       </c>
       <c r="O135" t="n">
-        <v>0.05475853431148679</v>
+        <v>0.05503032500109437</v>
       </c>
     </row>
     <row r="136" ht="15" customHeight="1">
       <c r="F136" t="n">
-        <v>0.02195941259669496</v>
+        <v>0.03779672278073387</v>
       </c>
       <c r="G136" t="n">
-        <v>0.0530960511081676</v>
+        <v>0.05581647250111001</v>
       </c>
       <c r="J136" t="n">
-        <v>0.03790544620084423</v>
+        <v>0.0936226277003615</v>
       </c>
       <c r="K136" t="n">
-        <v>0.05666746833636972</v>
+        <v>0.05556740681086283</v>
       </c>
       <c r="L136" t="n">
-        <v>0.09275401612235584</v>
+        <v>0.1515293828179458</v>
       </c>
       <c r="M136" t="n">
-        <v>0.05465652500287133</v>
+        <v>0.05512044706464639</v>
       </c>
       <c r="N136" t="n">
-        <v>0.1434215858471218</v>
+        <v>0.03779672278073387</v>
       </c>
       <c r="O136" t="n">
-        <v>0.05554079908736517</v>
+        <v>0.05581647250111001</v>
       </c>
     </row>
     <row r="137" ht="15" customHeight="1">
       <c r="F137" t="n">
-        <v>0.02315283238315229</v>
+        <v>0.03778370491884826</v>
       </c>
       <c r="G137" t="n">
-        <v>0.05384388281391644</v>
+        <v>0.05660262000112564</v>
       </c>
       <c r="J137" t="n">
-        <v>0.03787469592855545</v>
+        <v>0.09275482588841469</v>
       </c>
       <c r="K137" t="n">
-        <v>0.05746560169321999</v>
+        <v>0.05635004634341019</v>
       </c>
       <c r="L137" t="n">
-        <v>0.0931070718216449</v>
+        <v>0.1523065027795187</v>
       </c>
       <c r="M137" t="n">
-        <v>0.05542633521417937</v>
+        <v>0.05589679138950056</v>
       </c>
       <c r="N137" t="n">
-        <v>0.145061982853843</v>
+        <v>0.03778370491884826</v>
       </c>
       <c r="O137" t="n">
-        <v>0.05632306386324355</v>
+        <v>0.05660262000112564</v>
       </c>
     </row>
     <row r="138" ht="15" customHeight="1">
       <c r="F138" t="n">
-        <v>0.02133876522791357</v>
+        <v>0.03766664798838291</v>
       </c>
       <c r="G138" t="n">
-        <v>0.05459171451966528</v>
+        <v>0.05738876750114128</v>
       </c>
       <c r="J138" t="n">
-        <v>0.03822024111267165</v>
+        <v>0.0928750208974814</v>
       </c>
       <c r="K138" t="n">
-        <v>0.05826373505007027</v>
+        <v>0.05713268587595756</v>
       </c>
       <c r="L138" t="n">
-        <v>0.09430057482307308</v>
+        <v>0.151267964721787</v>
       </c>
       <c r="M138" t="n">
-        <v>0.05619614542548743</v>
+        <v>0.05667313571435475</v>
       </c>
       <c r="N138" t="n">
-        <v>0.1470210758651503</v>
+        <v>0.03766664798838291</v>
       </c>
       <c r="O138" t="n">
-        <v>0.05710532863912193</v>
+        <v>0.05738876750114128</v>
       </c>
     </row>
     <row r="139" ht="15" customHeight="1">
       <c r="F139" t="n">
-        <v>0.02351562530810553</v>
+        <v>0.03744588832461788</v>
       </c>
       <c r="G139" t="n">
-        <v>0.05533954622541412</v>
+        <v>0.05817491500115691</v>
       </c>
       <c r="J139" t="n">
-        <v>0.0385386669307006</v>
+        <v>0.092384498299835</v>
       </c>
       <c r="K139" t="n">
-        <v>0.05906186840692056</v>
+        <v>0.05791532540850492</v>
       </c>
       <c r="L139" t="n">
-        <v>0.09502541844467324</v>
+        <v>0.1510143800792502</v>
       </c>
       <c r="M139" t="n">
-        <v>0.05696595563679546</v>
+        <v>0.05744948003920891</v>
       </c>
       <c r="N139" t="n">
-        <v>0.148569791326885</v>
+        <v>0.03744588832461788</v>
       </c>
       <c r="O139" t="n">
-        <v>0.05788759341500032</v>
+        <v>0.05817491500115691</v>
       </c>
     </row>
     <row r="140" ht="15" customHeight="1">
       <c r="F140" t="n">
-        <v>0.02268182680085497</v>
+        <v>0.03732176226283321</v>
       </c>
       <c r="G140" t="n">
-        <v>0.05608737793116296</v>
+        <v>0.05896106250117255</v>
       </c>
       <c r="J140" t="n">
-        <v>0.03852655856014997</v>
+        <v>0.09188454366774906</v>
       </c>
       <c r="K140" t="n">
-        <v>0.05986000176377083</v>
+        <v>0.05869796494105229</v>
       </c>
       <c r="L140" t="n">
-        <v>0.09547249600447838</v>
+        <v>0.1502463602864078</v>
       </c>
       <c r="M140" t="n">
-        <v>0.05773576584810352</v>
+        <v>0.05822582436406309</v>
       </c>
       <c r="N140" t="n">
-        <v>0.1507790556848881</v>
+        <v>0.03732176226283321</v>
       </c>
       <c r="O140" t="n">
-        <v>0.0586698581908787</v>
+        <v>0.05896106250117255</v>
       </c>
     </row>
     <row r="141" ht="15" customHeight="1">
       <c r="F141" t="n">
-        <v>0.02183578388328864</v>
+        <v>0.03749460613830892</v>
       </c>
       <c r="G141" t="n">
-        <v>0.0568352096369118</v>
+        <v>0.05974721000118818</v>
       </c>
       <c r="J141" t="n">
-        <v>0.03898050117852746</v>
+        <v>0.09197644257349688</v>
       </c>
       <c r="K141" t="n">
-        <v>0.06065813512062111</v>
+        <v>0.05948060447359965</v>
       </c>
       <c r="L141" t="n">
-        <v>0.09563270082052158</v>
+        <v>0.1493645167777594</v>
       </c>
       <c r="M141" t="n">
-        <v>0.05850557605941156</v>
+        <v>0.05900216868891726</v>
       </c>
       <c r="N141" t="n">
-        <v>0.1528197953850006</v>
+        <v>0.03749460613830892</v>
       </c>
       <c r="O141" t="n">
-        <v>0.05945212296675708</v>
+        <v>0.05974721000118818</v>
       </c>
     </row>
     <row r="142" ht="15" customHeight="1">
       <c r="F142" t="n">
-        <v>0.02397591073253329</v>
+        <v>0.03736475628632512</v>
       </c>
       <c r="G142" t="n">
-        <v>0.05758304134266064</v>
+        <v>0.0605333575012038</v>
       </c>
       <c r="J142" t="n">
-        <v>0.03908148784981012</v>
+        <v>0.09106148058935193</v>
       </c>
       <c r="K142" t="n">
-        <v>0.06145626847747138</v>
+        <v>0.06026324400614702</v>
       </c>
       <c r="L142" t="n">
-        <v>0.09649692621083569</v>
+        <v>0.1499694609878045</v>
       </c>
       <c r="M142" t="n">
-        <v>0.05927538627071961</v>
+        <v>0.05977851301377144</v>
       </c>
       <c r="N142" t="n">
-        <v>0.1529629368730634</v>
+        <v>0.03736475628632512</v>
       </c>
       <c r="O142" t="n">
-        <v>0.06023438774263547</v>
+        <v>0.0605333575012038</v>
       </c>
     </row>
     <row r="143" ht="15" customHeight="1">
       <c r="F143" t="n">
-        <v>0.02410062152571573</v>
+        <v>0.03713254904216182</v>
       </c>
       <c r="G143" t="n">
-        <v>0.05833087304840948</v>
+        <v>0.06131950500121944</v>
       </c>
       <c r="J143" t="n">
-        <v>0.03890006732508032</v>
+        <v>0.09104094328758766</v>
       </c>
       <c r="K143" t="n">
-        <v>0.06225440183432166</v>
+        <v>0.06104588353869438</v>
       </c>
       <c r="L143" t="n">
-        <v>0.09695606549345381</v>
+        <v>0.1491618043510427</v>
       </c>
       <c r="M143" t="n">
-        <v>0.06004519648202765</v>
+        <v>0.06055485733862561</v>
       </c>
       <c r="N143" t="n">
-        <v>0.155177925683644</v>
+        <v>0.03713254904216182</v>
       </c>
       <c r="O143" t="n">
-        <v>0.06101665251851385</v>
+        <v>0.06131950500121944</v>
       </c>
     </row>
     <row r="144" ht="15" customHeight="1">
       <c r="F144" t="n">
-        <v>0.0222083304399627</v>
+        <v>0.03679832074109909</v>
       </c>
       <c r="G144" t="n">
-        <v>0.05907870475415831</v>
+        <v>0.06210565250123507</v>
       </c>
       <c r="J144" t="n">
-        <v>0.039101518674501</v>
+        <v>0.09011611624047747</v>
       </c>
       <c r="K144" t="n">
-        <v>0.06305253519117195</v>
+        <v>0.06182852307124174</v>
       </c>
       <c r="L144" t="n">
-        <v>0.09712970676672711</v>
+        <v>0.1490421583019735</v>
       </c>
       <c r="M144" t="n">
-        <v>0.06081500669333571</v>
+        <v>0.06133120166347979</v>
       </c>
       <c r="N144" t="n">
-        <v>0.1547879551882663</v>
+        <v>0.03679832074109909</v>
       </c>
       <c r="O144" t="n">
-        <v>0.06179891729439223</v>
+        <v>0.06210565250123507</v>
       </c>
     </row>
     <row r="145" ht="15" customHeight="1">
       <c r="F145" t="n">
-        <v>0.02229745165240093</v>
+        <v>0.03666240771841697</v>
       </c>
       <c r="G145" t="n">
-        <v>0.05982653645990715</v>
+        <v>0.06289180000125072</v>
       </c>
       <c r="J145" t="n">
-        <v>0.03930168468452494</v>
+        <v>0.08938828502029475</v>
       </c>
       <c r="K145" t="n">
-        <v>0.06385066854802221</v>
+        <v>0.06261116260378911</v>
       </c>
       <c r="L145" t="n">
-        <v>0.09682968538673911</v>
+        <v>0.1485111342750964</v>
       </c>
       <c r="M145" t="n">
-        <v>0.06158481690464374</v>
+        <v>0.06210754598833396</v>
       </c>
       <c r="N145" t="n">
-        <v>0.1550701505943758</v>
+        <v>0.03666240771841697</v>
       </c>
       <c r="O145" t="n">
-        <v>0.06258118207027061</v>
+        <v>0.06289180000125072</v>
       </c>
     </row>
     <row r="146" ht="15" customHeight="1">
       <c r="F146" t="n">
-        <v>0.02436639934015725</v>
+        <v>0.03672514630939555</v>
       </c>
       <c r="G146" t="n">
-        <v>0.060574368165656</v>
+        <v>0.06367794750126635</v>
       </c>
       <c r="J146" t="n">
-        <v>0.03940033363918156</v>
+        <v>0.08985873519931301</v>
       </c>
       <c r="K146" t="n">
-        <v>0.0646488019048725</v>
+        <v>0.06339380213633647</v>
       </c>
       <c r="L146" t="n">
-        <v>0.09632935814895149</v>
+        <v>0.147369343704911</v>
       </c>
       <c r="M146" t="n">
-        <v>0.0623546271159518</v>
+        <v>0.06288389031318813</v>
       </c>
       <c r="N146" t="n">
-        <v>0.1557462489674085</v>
+        <v>0.03672514630939555</v>
       </c>
       <c r="O146" t="n">
-        <v>0.063363446846149</v>
+        <v>0.06367794750126635</v>
       </c>
     </row>
     <row r="147" ht="15" customHeight="1">
       <c r="F147" t="n">
-        <v>0.02441404178816824</v>
+        <v>0.03648687284931483</v>
       </c>
       <c r="G147" t="n">
-        <v>0.06132219987140484</v>
+        <v>0.06446409500128199</v>
       </c>
       <c r="J147" t="n">
-        <v>0.03959723382250036</v>
+        <v>0.08852875234980559</v>
       </c>
       <c r="K147" t="n">
-        <v>0.06544693526172277</v>
+        <v>0.06417644166888384</v>
       </c>
       <c r="L147" t="n">
-        <v>0.09682863791148508</v>
+        <v>0.1472173980259168</v>
       </c>
       <c r="M147" t="n">
-        <v>0.06312443732725985</v>
+        <v>0.06366023463804231</v>
       </c>
       <c r="N147" t="n">
-        <v>0.1571155206045497</v>
+        <v>0.03648687284931483</v>
       </c>
       <c r="O147" t="n">
-        <v>0.06414571162202738</v>
+        <v>0.06446409500128199</v>
       </c>
     </row>
     <row r="148" ht="15" customHeight="1">
       <c r="F148" t="n">
-        <v>0.02244873901104031</v>
+        <v>0.03634792367345491</v>
       </c>
       <c r="G148" t="n">
-        <v>0.06207003157715368</v>
+        <v>0.06525024250129761</v>
       </c>
       <c r="J148" t="n">
-        <v>0.03939215351851069</v>
+        <v>0.08829962204404596</v>
       </c>
       <c r="K148" t="n">
-        <v>0.06624506861857304</v>
+        <v>0.06495908120143119</v>
       </c>
       <c r="L148" t="n">
-        <v>0.09692752681588887</v>
+        <v>0.1473559086726134</v>
       </c>
       <c r="M148" t="n">
-        <v>0.06389424753856789</v>
+        <v>0.06443657896289649</v>
       </c>
       <c r="N148" t="n">
-        <v>0.157277235802985</v>
+        <v>0.03634792367345491</v>
       </c>
       <c r="O148" t="n">
-        <v>0.06492797639790578</v>
+        <v>0.06525024250129761</v>
       </c>
     </row>
     <row r="149" ht="15" customHeight="1">
       <c r="F149" t="n">
-        <v>0.02248317938931956</v>
+        <v>0.03610863511709581</v>
       </c>
       <c r="G149" t="n">
-        <v>0.06281786328290251</v>
+        <v>0.06603639000131326</v>
       </c>
       <c r="J149" t="n">
-        <v>0.03968486101124205</v>
+        <v>0.08827262985430756</v>
       </c>
       <c r="K149" t="n">
-        <v>0.06704320197542334</v>
+        <v>0.06574172073397856</v>
       </c>
       <c r="L149" t="n">
-        <v>0.09702602700371196</v>
+        <v>0.1471854870795004</v>
       </c>
       <c r="M149" t="n">
-        <v>0.06466405774987594</v>
+        <v>0.06521292328775066</v>
       </c>
       <c r="N149" t="n">
-        <v>0.1579306648598996</v>
+        <v>0.03610863511709581</v>
       </c>
       <c r="O149" t="n">
-        <v>0.06571024117378416</v>
+        <v>0.06603639000131326</v>
       </c>
     </row>
     <row r="150" ht="15" customHeight="1">
       <c r="F150" t="n">
-        <v>0.02451687136001087</v>
+        <v>0.0360693435155176</v>
       </c>
       <c r="G150" t="n">
-        <v>0.06356569498865135</v>
+        <v>0.06682253750132888</v>
       </c>
       <c r="J150" t="n">
-        <v>0.0396751245847239</v>
+        <v>0.08764906135286379</v>
       </c>
       <c r="K150" t="n">
-        <v>0.0678413353322736</v>
+        <v>0.06652436026652593</v>
       </c>
       <c r="L150" t="n">
-        <v>0.09712414061650332</v>
+        <v>0.1454067446810771</v>
       </c>
       <c r="M150" t="n">
-        <v>0.06543386796118399</v>
+        <v>0.06598926761260483</v>
       </c>
       <c r="N150" t="n">
-        <v>0.159375078072479</v>
+        <v>0.0360693435155176</v>
       </c>
       <c r="O150" t="n">
-        <v>0.06649250594966254</v>
+        <v>0.06682253750132888</v>
       </c>
     </row>
     <row r="151" ht="15" customHeight="1">
       <c r="F151" t="n">
-        <v>0.02354977562532717</v>
+        <v>0.03613038520400033</v>
       </c>
       <c r="G151" t="n">
-        <v>0.0643135266944002</v>
+        <v>0.06760868500134452</v>
       </c>
       <c r="J151" t="n">
-        <v>0.03986271252298564</v>
+        <v>0.08753020211198803</v>
       </c>
       <c r="K151" t="n">
-        <v>0.06863946868912389</v>
+        <v>0.06730699979907329</v>
       </c>
       <c r="L151" t="n">
-        <v>0.09652186979581204</v>
+        <v>0.1453202929118432</v>
       </c>
       <c r="M151" t="n">
-        <v>0.06620367817249204</v>
+        <v>0.066765611937459</v>
       </c>
       <c r="N151" t="n">
-        <v>0.1597097457379086</v>
+        <v>0.03613038520400033</v>
       </c>
       <c r="O151" t="n">
-        <v>0.06727477072554092</v>
+        <v>0.06760868500134452</v>
       </c>
     </row>
     <row r="152" ht="15" customHeight="1">
       <c r="F152" t="n">
-        <v>0.02358185288748129</v>
+        <v>0.03599209651782405</v>
       </c>
       <c r="G152" t="n">
-        <v>0.06506135840014904</v>
+        <v>0.06839483250136015</v>
       </c>
       <c r="J152" t="n">
-        <v>0.03994739311005674</v>
+        <v>0.08661733770395383</v>
       </c>
       <c r="K152" t="n">
-        <v>0.06943760204597416</v>
+        <v>0.06808963933162065</v>
       </c>
       <c r="L152" t="n">
-        <v>0.09671921668318709</v>
+        <v>0.1452267432062983</v>
       </c>
       <c r="M152" t="n">
-        <v>0.06697348838380007</v>
+        <v>0.06754195626231319</v>
       </c>
       <c r="N152" t="n">
-        <v>0.1593339381533736</v>
+        <v>0.03599209651782405</v>
       </c>
       <c r="O152" t="n">
-        <v>0.0680570355014193</v>
+        <v>0.06839483250136015</v>
       </c>
     </row>
     <row r="153" ht="15" customHeight="1">
       <c r="F153" t="n">
-        <v>0.02261306384868617</v>
+        <v>0.0356548137922688</v>
       </c>
       <c r="G153" t="n">
-        <v>0.06580919010589788</v>
+        <v>0.06918098000137579</v>
       </c>
       <c r="J153" t="n">
-        <v>0.03992893462996659</v>
+        <v>0.08681175370103453</v>
       </c>
       <c r="K153" t="n">
-        <v>0.07023573540282443</v>
+        <v>0.06887227886416802</v>
       </c>
       <c r="L153" t="n">
-        <v>0.09651618342017762</v>
+        <v>0.1440267069989418</v>
       </c>
       <c r="M153" t="n">
-        <v>0.06774329859510812</v>
+        <v>0.06831830058716737</v>
       </c>
       <c r="N153" t="n">
-        <v>0.1599469256160594</v>
+        <v>0.0356548137922688</v>
       </c>
       <c r="O153" t="n">
-        <v>0.06883930027729768</v>
+        <v>0.06918098000137579</v>
       </c>
     </row>
     <row r="154" ht="15" customHeight="1">
       <c r="F154" t="n">
-        <v>0.02464336921115465</v>
+        <v>0.03561887336261466</v>
       </c>
       <c r="G154" t="n">
-        <v>0.06655702181164672</v>
+        <v>0.06996712750139142</v>
       </c>
       <c r="J154" t="n">
-        <v>0.03990710536674473</v>
+        <v>0.08611473567550348</v>
       </c>
       <c r="K154" t="n">
-        <v>0.07103386875967473</v>
+        <v>0.06965491839671538</v>
       </c>
       <c r="L154" t="n">
-        <v>0.09701277214833254</v>
+        <v>0.1435207957242733</v>
       </c>
       <c r="M154" t="n">
-        <v>0.06851310880641617</v>
+        <v>0.06909464491202152</v>
       </c>
       <c r="N154" t="n">
-        <v>0.1612479784231516</v>
+        <v>0.03561887336261466</v>
       </c>
       <c r="O154" t="n">
-        <v>0.06962156505317607</v>
+        <v>0.06996712750139142</v>
       </c>
     </row>
     <row r="155" ht="15" customHeight="1">
       <c r="F155" t="n">
-        <v>0.02267272967709964</v>
+        <v>0.03528461156414166</v>
       </c>
       <c r="G155" t="n">
-        <v>0.06730485351739555</v>
+        <v>0.07075327500140705</v>
       </c>
       <c r="J155" t="n">
-        <v>0.0401816736044205</v>
+        <v>0.08552756919963431</v>
       </c>
       <c r="K155" t="n">
-        <v>0.07183200211652499</v>
+        <v>0.07043755792926275</v>
       </c>
       <c r="L155" t="n">
-        <v>0.09690898500920098</v>
+        <v>0.1434096208167925</v>
       </c>
       <c r="M155" t="n">
-        <v>0.06928291901772422</v>
+        <v>0.06987098923687571</v>
       </c>
       <c r="N155" t="n">
-        <v>0.1619363668718354</v>
+        <v>0.03528461156414166</v>
       </c>
       <c r="O155" t="n">
-        <v>0.07040382982905445</v>
+        <v>0.07075327500140705</v>
       </c>
     </row>
     <row r="156" ht="15" customHeight="1">
       <c r="F156" t="n">
-        <v>0.02370110594873399</v>
+        <v>0.03545236473212986</v>
       </c>
       <c r="G156" t="n">
-        <v>0.06805268522314439</v>
+        <v>0.07153942250142269</v>
       </c>
       <c r="J156" t="n">
-        <v>0.04005240762702339</v>
+        <v>0.08485153984570024</v>
       </c>
       <c r="K156" t="n">
-        <v>0.07263013547337527</v>
+        <v>0.07122019746181012</v>
       </c>
       <c r="L156" t="n">
-        <v>0.09680482414433195</v>
+        <v>0.1429937937109986</v>
       </c>
       <c r="M156" t="n">
-        <v>0.07005272922903226</v>
+        <v>0.07064733356172988</v>
       </c>
       <c r="N156" t="n">
-        <v>0.1629113612592963</v>
+        <v>0.03545236473212986</v>
       </c>
       <c r="O156" t="n">
-        <v>0.07118609460493283</v>
+        <v>0.07153942250142269</v>
       </c>
     </row>
     <row r="157" ht="15" customHeight="1">
       <c r="F157" t="n">
-        <v>0.02272845872827061</v>
+        <v>0.03532244270600085</v>
       </c>
       <c r="G157" t="n">
-        <v>0.06880051692889323</v>
+        <v>0.07232557000143831</v>
       </c>
       <c r="J157" t="n">
-        <v>0.04041907571858283</v>
+        <v>0.08518793318597481</v>
       </c>
       <c r="K157" t="n">
-        <v>0.07342826883022555</v>
+        <v>0.07200283699435747</v>
       </c>
       <c r="L157" t="n">
-        <v>0.09700029169527447</v>
+        <v>0.1423739258413915</v>
       </c>
       <c r="M157" t="n">
-        <v>0.07082253944034031</v>
+        <v>0.07142367788658406</v>
       </c>
       <c r="N157" t="n">
-        <v>0.1627722318827195</v>
+        <v>0.03532244270600085</v>
       </c>
       <c r="O157" t="n">
-        <v>0.07196835938081121</v>
+        <v>0.07232557000143831</v>
       </c>
     </row>
     <row r="158" ht="15" customHeight="1">
       <c r="F158" t="n">
-        <v>0.02275474871792239</v>
+        <v>0.03488866381299706</v>
       </c>
       <c r="G158" t="n">
-        <v>0.06954834863464207</v>
+        <v>0.07311171750145395</v>
       </c>
       <c r="J158" t="n">
-        <v>0.04028144616312825</v>
+        <v>0.08483025889035942</v>
       </c>
       <c r="K158" t="n">
-        <v>0.07422640218707582</v>
+        <v>0.07278547652690484</v>
       </c>
       <c r="L158" t="n">
-        <v>0.0962953898035776</v>
+        <v>0.1413506286424706</v>
       </c>
       <c r="M158" t="n">
-        <v>0.07159234965164836</v>
+        <v>0.07220002221143823</v>
       </c>
       <c r="N158" t="n">
-        <v>0.1633182490392905</v>
+        <v>0.03488866381299706</v>
       </c>
       <c r="O158" t="n">
-        <v>0.07275062415668959</v>
+        <v>0.07311171750145395</v>
       </c>
     </row>
     <row r="159" ht="15" customHeight="1">
       <c r="F159" t="n">
-        <v>0.02477993661990218</v>
+        <v>0.03504643521244025</v>
       </c>
       <c r="G159" t="n">
-        <v>0.07029618034039091</v>
+        <v>0.07389786500146958</v>
       </c>
       <c r="J159" t="n">
-        <v>0.04023928724468914</v>
+        <v>0.08446923644431931</v>
       </c>
       <c r="K159" t="n">
-        <v>0.07502453554392612</v>
+        <v>0.0735681160594522</v>
       </c>
       <c r="L159" t="n">
-        <v>0.09649012061079038</v>
+        <v>0.1423245135487352</v>
       </c>
       <c r="M159" t="n">
-        <v>0.07236215986295641</v>
+        <v>0.0729763665362924</v>
       </c>
       <c r="N159" t="n">
-        <v>0.1637486830261948</v>
+        <v>0.03504643521244025</v>
       </c>
       <c r="O159" t="n">
-        <v>0.07353288893256797</v>
+        <v>0.07389786500146958</v>
       </c>
     </row>
     <row r="160" ht="15" customHeight="1">
       <c r="F160" t="n">
-        <v>0.02280398313642288</v>
+        <v>0.03479624110688799</v>
       </c>
       <c r="G160" t="n">
-        <v>0.07104401204613975</v>
+        <v>0.07468401250148522</v>
       </c>
       <c r="J160" t="n">
-        <v>0.04059236724729491</v>
+        <v>0.08370492021333056</v>
       </c>
       <c r="K160" t="n">
-        <v>0.07582266890077638</v>
+        <v>0.07435075559199956</v>
       </c>
       <c r="L160" t="n">
-        <v>0.09708448625846181</v>
+        <v>0.1404961919946852</v>
       </c>
       <c r="M160" t="n">
-        <v>0.07313197007426445</v>
+        <v>0.07375271086114658</v>
       </c>
       <c r="N160" t="n">
-        <v>0.1649628041406175</v>
+        <v>0.03479624110688799</v>
       </c>
       <c r="O160" t="n">
-        <v>0.07431515370844637</v>
+        <v>0.07468401250148522</v>
       </c>
     </row>
     <row r="161" ht="15" customHeight="1">
       <c r="F161" t="n">
-        <v>0.02282684896969738</v>
+        <v>0.03443856569889783</v>
       </c>
       <c r="G161" t="n">
-        <v>0.07179184375188859</v>
+        <v>0.07547016000150085</v>
       </c>
       <c r="J161" t="n">
-        <v>0.04064045445497497</v>
+        <v>0.08343739616730228</v>
       </c>
       <c r="K161" t="n">
-        <v>0.07662080225762666</v>
+        <v>0.07513339512454693</v>
       </c>
       <c r="L161" t="n">
-        <v>0.09667848888814098</v>
+        <v>0.1411662754148201</v>
       </c>
       <c r="M161" t="n">
-        <v>0.0739017802855725</v>
+        <v>0.07452905518600075</v>
       </c>
       <c r="N161" t="n">
-        <v>0.1653598826797441</v>
+        <v>0.03443856569889783</v>
       </c>
       <c r="O161" t="n">
-        <v>0.07509741848432475</v>
+        <v>0.07547016000150085</v>
       </c>
     </row>
     <row r="162" ht="15" customHeight="1">
       <c r="F162" t="n">
-        <v>0.02284849482193856</v>
+        <v>0.03447389319102734</v>
       </c>
       <c r="G162" t="n">
-        <v>0.07253967545763743</v>
+        <v>0.07625630750151649</v>
       </c>
       <c r="J162" t="n">
-        <v>0.04058331715175881</v>
+        <v>0.0831667502761437</v>
       </c>
       <c r="K162" t="n">
-        <v>0.07741893561447694</v>
+        <v>0.07591603465709429</v>
       </c>
       <c r="L162" t="n">
-        <v>0.09687213064137692</v>
+        <v>0.1396353752436392</v>
       </c>
       <c r="M162" t="n">
-        <v>0.07467159049688055</v>
+        <v>0.07530539951085492</v>
       </c>
       <c r="N162" t="n">
-        <v>0.16493918894076</v>
+        <v>0.03447389319102734</v>
       </c>
       <c r="O162" t="n">
-        <v>0.07587968326020313</v>
+        <v>0.07625630750151649</v>
       </c>
     </row>
     <row r="163" ht="15" customHeight="1">
       <c r="F163" t="n">
-        <v>0.0238688813953593</v>
+        <v>0.03440270778583406</v>
       </c>
       <c r="G163" t="n">
-        <v>0.07328750716338626</v>
+        <v>0.07704245500153212</v>
       </c>
       <c r="J163" t="n">
-        <v>0.04062072362167585</v>
+        <v>0.08279306850976395</v>
       </c>
       <c r="K163" t="n">
-        <v>0.07821706897132721</v>
+        <v>0.07669867418964166</v>
       </c>
       <c r="L163" t="n">
-        <v>0.09706541365971863</v>
+        <v>0.1399041029156422</v>
       </c>
       <c r="M163" t="n">
-        <v>0.0754414007081886</v>
+        <v>0.07608174383570911</v>
       </c>
       <c r="N163" t="n">
-        <v>0.1663999932208506</v>
+        <v>0.03440270778583406</v>
       </c>
       <c r="O163" t="n">
-        <v>0.07666194803608151</v>
+        <v>0.07704245500153212</v>
       </c>
     </row>
     <row r="164" ht="15" customHeight="1">
       <c r="F164" t="n">
-        <v>0.02488796939217248</v>
+        <v>0.03422549368587556</v>
       </c>
       <c r="G164" t="n">
-        <v>0.0740353388691351</v>
+        <v>0.07782860250154776</v>
       </c>
       <c r="J164" t="n">
-        <v>0.0406524421487555</v>
+        <v>0.08241643683807215</v>
       </c>
       <c r="K164" t="n">
-        <v>0.07901520232817749</v>
+        <v>0.07748131372218901</v>
       </c>
       <c r="L164" t="n">
-        <v>0.09685834008471519</v>
+        <v>0.1394730698653287</v>
       </c>
       <c r="M164" t="n">
-        <v>0.07621121091949665</v>
+        <v>0.07685808816056328</v>
       </c>
       <c r="N164" t="n">
-        <v>0.1669415658172013</v>
+        <v>0.03422549368587556</v>
       </c>
       <c r="O164" t="n">
-        <v>0.07744421281195989</v>
+        <v>0.07782860250154776</v>
       </c>
     </row>
     <row r="165" ht="15" customHeight="1">
       <c r="F165" t="n">
-        <v>0.02290571951459099</v>
+        <v>0.03394273509370942</v>
       </c>
       <c r="G165" t="n">
-        <v>0.07478317057488394</v>
+        <v>0.07861475000156339</v>
       </c>
       <c r="J165" t="n">
-        <v>0.04067824101702729</v>
+        <v>0.08233694123097748</v>
       </c>
       <c r="K165" t="n">
-        <v>0.07981333568502777</v>
+        <v>0.07826395325473638</v>
       </c>
       <c r="L165" t="n">
-        <v>0.09675091205791561</v>
+        <v>0.1388428875271981</v>
       </c>
       <c r="M165" t="n">
-        <v>0.07698102113080468</v>
+        <v>0.07763443248541745</v>
       </c>
       <c r="N165" t="n">
-        <v>0.1676631770269975</v>
+        <v>0.03394273509370942</v>
       </c>
       <c r="O165" t="n">
-        <v>0.07822647758783827</v>
+        <v>0.07861475000156339</v>
       </c>
     </row>
     <row r="166" ht="15" customHeight="1">
       <c r="F166" t="n">
-        <v>0.02292209246482769</v>
+        <v>0.03355491621189313</v>
       </c>
       <c r="G166" t="n">
-        <v>0.07553100228063278</v>
+        <v>0.07940089750157903</v>
       </c>
       <c r="J166" t="n">
-        <v>0.04069788851052057</v>
+        <v>0.08185466765838903</v>
       </c>
       <c r="K166" t="n">
-        <v>0.08061146904187805</v>
+        <v>0.07904659278728375</v>
       </c>
       <c r="L166" t="n">
-        <v>0.09644313172086896</v>
+        <v>0.1373141673357501</v>
       </c>
       <c r="M166" t="n">
-        <v>0.07775083134211273</v>
+        <v>0.07841077681027163</v>
       </c>
       <c r="N166" t="n">
-        <v>0.1671640971474244</v>
+        <v>0.03355491621189313</v>
       </c>
       <c r="O166" t="n">
-        <v>0.07900874236371665</v>
+        <v>0.07940089750157903</v>
       </c>
     </row>
     <row r="167" ht="15" customHeight="1">
       <c r="F167" t="n">
-        <v>0.0229370489450955</v>
+        <v>0.03366252124298431</v>
       </c>
       <c r="G167" t="n">
-        <v>0.07627883398638162</v>
+        <v>0.08018704500159465</v>
       </c>
       <c r="J167" t="n">
-        <v>0.04061115291326484</v>
+        <v>0.08146970209021601</v>
       </c>
       <c r="K167" t="n">
-        <v>0.08140960239872833</v>
+        <v>0.07982923231983112</v>
       </c>
       <c r="L167" t="n">
-        <v>0.09633500121512423</v>
+        <v>0.1365875207254841</v>
       </c>
       <c r="M167" t="n">
-        <v>0.07852064155342078</v>
+        <v>0.0791871211351258</v>
       </c>
       <c r="N167" t="n">
-        <v>0.1671435964756674</v>
+        <v>0.03366252124298431</v>
       </c>
       <c r="O167" t="n">
-        <v>0.07979100713959504</v>
+        <v>0.08018704500159465</v>
       </c>
     </row>
     <row r="168" ht="15" customHeight="1">
       <c r="F168" t="n">
-        <v>0.02395054965760728</v>
+        <v>0.03346603438954049</v>
       </c>
       <c r="G168" t="n">
-        <v>0.07702666569213046</v>
+        <v>0.08097319250161028</v>
       </c>
       <c r="J168" t="n">
-        <v>0.0408178025092895</v>
+        <v>0.08118213049636749</v>
       </c>
       <c r="K168" t="n">
-        <v>0.0822077357555786</v>
+        <v>0.08061187185237847</v>
       </c>
       <c r="L168" t="n">
-        <v>0.0970265226822305</v>
+        <v>0.1364529938208062</v>
       </c>
       <c r="M168" t="n">
-        <v>0.07929045176472883</v>
+        <v>0.07996346545997998</v>
       </c>
       <c r="N168" t="n">
-        <v>0.1676009453089122</v>
+        <v>0.03346603438954049</v>
       </c>
       <c r="O168" t="n">
-        <v>0.08057327191547342</v>
+        <v>0.08097319250161028</v>
       </c>
     </row>
     <row r="169" ht="15" customHeight="1">
       <c r="F169" t="n">
-        <v>0.02396255530457591</v>
+        <v>0.03316593985411921</v>
       </c>
       <c r="G169" t="n">
-        <v>0.0777744973978793</v>
+        <v>0.08175934000162592</v>
       </c>
       <c r="J169" t="n">
-        <v>0.04071653685762822</v>
+        <v>0.08059203884675273</v>
       </c>
       <c r="K169" t="n">
-        <v>0.08300586911242888</v>
+        <v>0.08139451138492583</v>
       </c>
       <c r="L169" t="n">
-        <v>0.09691769826373681</v>
+        <v>0.1360993545116729</v>
       </c>
       <c r="M169" t="n">
-        <v>0.08006026197603687</v>
+        <v>0.08073980978483415</v>
       </c>
       <c r="N169" t="n">
-        <v>0.1685354139443438</v>
+        <v>0.03316593985411921</v>
       </c>
       <c r="O169" t="n">
-        <v>0.0813555366913518</v>
+        <v>0.08175934000162592</v>
       </c>
     </row>
     <row r="170" ht="15" customHeight="1">
       <c r="F170" t="n">
-        <v>0.02497302658821429</v>
+        <v>0.03286272183927809</v>
       </c>
       <c r="G170" t="n">
-        <v>0.07852232910362815</v>
+        <v>0.08254548750164155</v>
       </c>
       <c r="J170" t="n">
-        <v>0.04080164476435126</v>
+        <v>0.07979951311128075</v>
       </c>
       <c r="K170" t="n">
-        <v>0.08380400246927916</v>
+        <v>0.0821771509174732</v>
       </c>
       <c r="L170" t="n">
-        <v>0.09690853010119216</v>
+        <v>0.1361262769210073</v>
       </c>
       <c r="M170" t="n">
-        <v>0.08083007218734492</v>
+        <v>0.08151615410968832</v>
       </c>
       <c r="N170" t="n">
-        <v>0.1681462726791477</v>
+        <v>0.03286272183927809</v>
       </c>
       <c r="O170" t="n">
-        <v>0.08213780146723018</v>
+        <v>0.08254548750164155</v>
       </c>
     </row>
     <row r="171" ht="15" customHeight="1">
       <c r="F171" t="n">
-        <v>0.02398192421073527</v>
+        <v>0.03285686454757462</v>
       </c>
       <c r="G171" t="n">
-        <v>0.07927016080937699</v>
+        <v>0.08333163500165719</v>
       </c>
       <c r="J171" t="n">
-        <v>0.04047274909318459</v>
+        <v>0.08010463925986078</v>
       </c>
       <c r="K171" t="n">
-        <v>0.08460213582612944</v>
+        <v>0.08295979045002057</v>
       </c>
       <c r="L171" t="n">
-        <v>0.0962990203361456</v>
+        <v>0.1345334377274987</v>
       </c>
       <c r="M171" t="n">
-        <v>0.08159988239865297</v>
+        <v>0.0822924984345425</v>
       </c>
       <c r="N171" t="n">
-        <v>0.1684327918105094</v>
+        <v>0.03285686454757462</v>
       </c>
       <c r="O171" t="n">
-        <v>0.08292006624310856</v>
+        <v>0.08333163500165719</v>
       </c>
     </row>
     <row r="172" ht="15" customHeight="1">
       <c r="F172" t="n">
-        <v>0.02498920887435178</v>
+        <v>0.0323488521815664</v>
       </c>
       <c r="G172" t="n">
-        <v>0.08001799251512583</v>
+        <v>0.08411778250167283</v>
       </c>
       <c r="J172" t="n">
-        <v>0.04073036200856746</v>
+        <v>0.07960750326240193</v>
       </c>
       <c r="K172" t="n">
-        <v>0.08540026918297972</v>
+        <v>0.08374242998256794</v>
       </c>
       <c r="L172" t="n">
-        <v>0.09688917111014622</v>
+        <v>0.1345205136098361</v>
       </c>
       <c r="M172" t="n">
-        <v>0.08236969260996102</v>
+        <v>0.08306884275939667</v>
       </c>
       <c r="N172" t="n">
-        <v>0.1694942416356142</v>
+        <v>0.0323488521815664</v>
       </c>
       <c r="O172" t="n">
-        <v>0.08370233101898694</v>
+        <v>0.08411778250167283</v>
       </c>
     </row>
     <row r="173" ht="15" customHeight="1">
       <c r="F173" t="n">
-        <v>0.02299484128127666</v>
+        <v>0.03243916894381095</v>
       </c>
       <c r="G173" t="n">
-        <v>0.08076582422087467</v>
+        <v>0.08490393000168846</v>
       </c>
       <c r="J173" t="n">
-        <v>0.04067499567493919</v>
+        <v>0.07860819108881328</v>
       </c>
       <c r="K173" t="n">
-        <v>0.08619840253982999</v>
+        <v>0.08452506951511529</v>
       </c>
       <c r="L173" t="n">
-        <v>0.09617898456474297</v>
+        <v>0.1334871812467083</v>
       </c>
       <c r="M173" t="n">
-        <v>0.08313950282126906</v>
+        <v>0.08384518708425084</v>
       </c>
       <c r="N173" t="n">
-        <v>0.1699298924516475</v>
+        <v>0.03243916894381095</v>
       </c>
       <c r="O173" t="n">
-        <v>0.08448459579486534</v>
+        <v>0.08490393000168846</v>
       </c>
     </row>
     <row r="174" ht="15" customHeight="1">
       <c r="F174" t="n">
-        <v>0.02499878213372281</v>
+        <v>0.03192829903686586</v>
       </c>
       <c r="G174" t="n">
-        <v>0.0815136559266235</v>
+        <v>0.0856900775017041</v>
       </c>
       <c r="J174" t="n">
-        <v>0.04060716225673906</v>
+        <v>0.0780067887090041</v>
       </c>
       <c r="K174" t="n">
-        <v>0.08699653589668027</v>
+        <v>0.08530770904766266</v>
       </c>
       <c r="L174" t="n">
-        <v>0.09636846284148495</v>
+        <v>0.1329331173168045</v>
       </c>
       <c r="M174" t="n">
-        <v>0.08390931303257711</v>
+        <v>0.08462153140910503</v>
       </c>
       <c r="N174" t="n">
-        <v>0.1701390145557946</v>
+        <v>0.03192829903686586</v>
       </c>
       <c r="O174" t="n">
-        <v>0.08526686057074372</v>
+        <v>0.0856900775017041</v>
       </c>
     </row>
     <row r="175" ht="15" customHeight="1">
       <c r="F175" t="n">
-        <v>0.02300099213390313</v>
+        <v>0.03201672666328868</v>
       </c>
       <c r="G175" t="n">
-        <v>0.08226148763237234</v>
+        <v>0.08647622500171974</v>
       </c>
       <c r="J175" t="n">
-        <v>0.04022737391840633</v>
+        <v>0.07800338209288352</v>
       </c>
       <c r="K175" t="n">
-        <v>0.08779466925353055</v>
+        <v>0.08609034858021002</v>
       </c>
       <c r="L175" t="n">
-        <v>0.09655760808192115</v>
+        <v>0.1323579984988136</v>
       </c>
       <c r="M175" t="n">
-        <v>0.08467912324388516</v>
+        <v>0.0853978757339592</v>
       </c>
       <c r="N175" t="n">
-        <v>0.1702208782452408</v>
+        <v>0.03201672666328868</v>
       </c>
       <c r="O175" t="n">
-        <v>0.0860491253466221</v>
+        <v>0.08647622500171974</v>
       </c>
     </row>
     <row r="176" ht="15" customHeight="1">
       <c r="F176" t="n">
-        <v>0.02300121238740029</v>
+        <v>0.03150493602563696</v>
       </c>
       <c r="G176" t="n">
-        <v>0.08300931933812118</v>
+        <v>0.08726237250173537</v>
       </c>
       <c r="J176" t="n">
-        <v>0.04023614282438027</v>
+        <v>0.0776980572103606</v>
       </c>
       <c r="K176" t="n">
-        <v>0.08859280261038083</v>
+        <v>0.08687298811275738</v>
       </c>
       <c r="L176" t="n">
-        <v>0.09653363497036777</v>
+        <v>0.1320615014714246</v>
       </c>
       <c r="M176" t="n">
-        <v>0.08544893345519321</v>
+        <v>0.08617422005881338</v>
       </c>
       <c r="N176" t="n">
-        <v>0.1692747538171718</v>
+        <v>0.03150493602563696</v>
       </c>
       <c r="O176" t="n">
-        <v>0.08683139012250048</v>
+        <v>0.08726237250173537</v>
       </c>
     </row>
     <row r="177" ht="15" customHeight="1">
       <c r="F177" t="n">
-        <v>0.02499479446674822</v>
+        <v>0.03149341132646825</v>
       </c>
       <c r="G177" t="n">
-        <v>0.08375715104387002</v>
+        <v>0.08804852000175101</v>
       </c>
       <c r="J177" t="n">
-        <v>0.04033398113910022</v>
+        <v>0.07689090003134461</v>
       </c>
       <c r="K177" t="n">
-        <v>0.08939093596723109</v>
+        <v>0.08765562764530475</v>
       </c>
       <c r="L177" t="n">
-        <v>0.0968798653815327</v>
+        <v>0.1311433029133268</v>
       </c>
       <c r="M177" t="n">
-        <v>0.08621874366650126</v>
+        <v>0.08695056438366755</v>
       </c>
       <c r="N177" t="n">
-        <v>0.1706999115687728</v>
+        <v>0.03149341132646825</v>
       </c>
       <c r="O177" t="n">
-        <v>0.08761365489837887</v>
+        <v>0.08804852000175101</v>
       </c>
     </row>
     <row r="178" ht="15" customHeight="1">
       <c r="F178" t="n">
-        <v>0.02498009789957752</v>
+        <v>0.03128263676834012</v>
       </c>
       <c r="G178" t="n">
-        <v>0.08450498274961886</v>
+        <v>0.08883466750176663</v>
       </c>
       <c r="J178" t="n">
-        <v>0.04012140102700537</v>
+        <v>0.07658199652574454</v>
       </c>
       <c r="K178" t="n">
-        <v>0.09018906932408138</v>
+        <v>0.08843826717785212</v>
       </c>
       <c r="L178" t="n">
-        <v>0.09629735047061963</v>
+        <v>0.130403079503209</v>
       </c>
       <c r="M178" t="n">
-        <v>0.08698855387780929</v>
+        <v>0.08772690870852172</v>
       </c>
       <c r="N178" t="n">
-        <v>0.170195621797229</v>
+        <v>0.03128263676834012</v>
       </c>
       <c r="O178" t="n">
-        <v>0.08839591967425725</v>
+        <v>0.08883466750176663</v>
       </c>
     </row>
     <row r="179" ht="15" customHeight="1">
       <c r="F179" t="n">
-        <v>0.0239574065168262</v>
+        <v>0.03087309655381013</v>
       </c>
       <c r="G179" t="n">
-        <v>0.0852528144553677</v>
+        <v>0.08962081500178228</v>
       </c>
       <c r="J179" t="n">
-        <v>0.04009891465253508</v>
+        <v>0.07617143266346965</v>
       </c>
       <c r="K179" t="n">
-        <v>0.09098720268093166</v>
+        <v>0.08922090671039948</v>
       </c>
       <c r="L179" t="n">
-        <v>0.09608724158865403</v>
+        <v>0.1292405079197601</v>
       </c>
       <c r="M179" t="n">
-        <v>0.08775836408911734</v>
+        <v>0.0885032530333759</v>
       </c>
       <c r="N179" t="n">
-        <v>0.169561154799726</v>
+        <v>0.03087309655381013</v>
       </c>
       <c r="O179" t="n">
-        <v>0.08917818445013563</v>
+        <v>0.08962081500178228</v>
       </c>
     </row>
     <row r="180" ht="15" customHeight="1">
       <c r="F180" t="n">
-        <v>0.02492700414943223</v>
+        <v>0.03076527488543583</v>
       </c>
       <c r="G180" t="n">
-        <v>0.08600064616111654</v>
+        <v>0.0904069625017979</v>
       </c>
       <c r="J180" t="n">
-        <v>0.03996703418012858</v>
+        <v>0.07615929441442909</v>
       </c>
       <c r="K180" t="n">
-        <v>0.09178533603778194</v>
+        <v>0.09000354624294683</v>
       </c>
       <c r="L180" t="n">
-        <v>0.09595069008666141</v>
+        <v>0.1282552648416693</v>
       </c>
       <c r="M180" t="n">
-        <v>0.08852817430042539</v>
+        <v>0.08927959735823006</v>
       </c>
       <c r="N180" t="n">
-        <v>0.1709957808734492</v>
+        <v>0.03076527488543583</v>
       </c>
       <c r="O180" t="n">
-        <v>0.08996044922601402</v>
+        <v>0.0904069625017979</v>
       </c>
     </row>
     <row r="181" ht="15" customHeight="1">
       <c r="F181" t="n">
-        <v>0.0228891746283336</v>
+        <v>0.03055965596577477</v>
       </c>
       <c r="G181" t="n">
-        <v>0.08674847786686538</v>
+        <v>0.09119311000181353</v>
       </c>
       <c r="J181" t="n">
-        <v>0.03962627177422516</v>
+        <v>0.07594566774853195</v>
       </c>
       <c r="K181" t="n">
-        <v>0.09258346939463222</v>
+        <v>0.0907861857754942</v>
       </c>
       <c r="L181" t="n">
-        <v>0.09568884731566721</v>
+        <v>0.1286470269476256</v>
       </c>
       <c r="M181" t="n">
-        <v>0.08929798451173344</v>
+        <v>0.09005594168308424</v>
       </c>
       <c r="N181" t="n">
-        <v>0.1703744146310442</v>
+        <v>0.03055965596577477</v>
       </c>
       <c r="O181" t="n">
-        <v>0.0907427140018924</v>
+        <v>0.09119311000181353</v>
       </c>
     </row>
     <row r="182" ht="15" customHeight="1">
       <c r="F182" t="n">
-        <v>0.02284420178446828</v>
+        <v>0.03045672399738453</v>
       </c>
       <c r="G182" t="n">
-        <v>0.08749630957261421</v>
+        <v>0.09197925750182917</v>
       </c>
       <c r="J182" t="n">
-        <v>0.03967713959926412</v>
+        <v>0.07543063863568733</v>
       </c>
       <c r="K182" t="n">
-        <v>0.09338160275148248</v>
+        <v>0.09156882530804157</v>
       </c>
       <c r="L182" t="n">
-        <v>0.09580286462669702</v>
+        <v>0.126815470916318</v>
       </c>
       <c r="M182" t="n">
-        <v>0.09006779472304148</v>
+        <v>0.09083228600793843</v>
       </c>
       <c r="N182" t="n">
-        <v>0.1702862294994197</v>
+        <v>0.03045672399738453</v>
       </c>
       <c r="O182" t="n">
-        <v>0.09152497877777079</v>
+        <v>0.09197925750182917</v>
       </c>
     </row>
     <row r="183" ht="15" customHeight="1">
       <c r="F183" t="n">
-        <v>0.02279236944877432</v>
+        <v>0.03015696318282264</v>
       </c>
       <c r="G183" t="n">
-        <v>0.08824414127836305</v>
+        <v>0.0927654050018448</v>
       </c>
       <c r="J183" t="n">
-        <v>0.03932014981968472</v>
+        <v>0.07501429304580448</v>
       </c>
       <c r="K183" t="n">
-        <v>0.09417973610833277</v>
+        <v>0.09235146484058894</v>
       </c>
       <c r="L183" t="n">
-        <v>0.09589389337077631</v>
+        <v>0.1266602734264354</v>
       </c>
       <c r="M183" t="n">
-        <v>0.09083760493434953</v>
+        <v>0.0916086303327926</v>
       </c>
       <c r="N183" t="n">
-        <v>0.1696045327938647</v>
+        <v>0.03015696318282264</v>
       </c>
       <c r="O183" t="n">
-        <v>0.09230724355364917</v>
+        <v>0.0927654050018448</v>
       </c>
     </row>
     <row r="184" ht="15" customHeight="1">
       <c r="F184" t="n">
-        <v>0.02373396145218964</v>
+        <v>0.02986085772464668</v>
       </c>
       <c r="G184" t="n">
-        <v>0.08899197298411189</v>
+        <v>0.09355155250186044</v>
       </c>
       <c r="J184" t="n">
-        <v>0.03915581459992624</v>
+        <v>0.07459671694879252</v>
       </c>
       <c r="K184" t="n">
-        <v>0.09497786946518305</v>
+        <v>0.09313410437313629</v>
       </c>
       <c r="L184" t="n">
-        <v>0.09566308489893049</v>
+        <v>0.125781111156667</v>
       </c>
       <c r="M184" t="n">
-        <v>0.09160741514565758</v>
+        <v>0.09238497465764677</v>
       </c>
       <c r="N184" t="n">
-        <v>0.1679565242271492</v>
+        <v>0.02986085772464668</v>
       </c>
       <c r="O184" t="n">
-        <v>0.09308950832952755</v>
+        <v>0.09355155250186044</v>
       </c>
     </row>
     <row r="185" ht="15" customHeight="1">
       <c r="F185" t="n">
-        <v>0.02366926162565227</v>
+        <v>0.02976889182541417</v>
       </c>
       <c r="G185" t="n">
-        <v>0.08973980468986073</v>
+        <v>0.09433770000187607</v>
       </c>
       <c r="J185" t="n">
-        <v>0.03918464610442798</v>
+        <v>0.07417799631456057</v>
       </c>
       <c r="K185" t="n">
-        <v>0.09577600282203332</v>
+        <v>0.09391674390568366</v>
       </c>
       <c r="L185" t="n">
-        <v>0.09481159056218513</v>
+        <v>0.1249776607857017</v>
       </c>
       <c r="M185" t="n">
-        <v>0.09237722535696563</v>
+        <v>0.09316131898250095</v>
       </c>
       <c r="N185" t="n">
-        <v>0.1673694035120436</v>
+        <v>0.02976889182541417</v>
       </c>
       <c r="O185" t="n">
-        <v>0.09387177310540593</v>
+        <v>0.09433770000187607</v>
       </c>
     </row>
     <row r="186" ht="15" customHeight="1">
       <c r="F186" t="n">
-        <v>0.02459855380010018</v>
+        <v>0.02958154968768273</v>
       </c>
       <c r="G186" t="n">
-        <v>0.09048763639560957</v>
+        <v>0.09512384750189171</v>
       </c>
       <c r="J186" t="n">
-        <v>0.0389071564976292</v>
+        <v>0.07395821711301775</v>
       </c>
       <c r="K186" t="n">
-        <v>0.09657413617888361</v>
+        <v>0.09469938343823102</v>
       </c>
       <c r="L186" t="n">
-        <v>0.0952405617115657</v>
+        <v>0.1239495989922286</v>
       </c>
       <c r="M186" t="n">
-        <v>0.09314703556827367</v>
+        <v>0.09393766330735512</v>
       </c>
       <c r="N186" t="n">
-        <v>0.1658703703613181</v>
+        <v>0.02958154968768273</v>
       </c>
       <c r="O186" t="n">
-        <v>0.09465403788128431</v>
+        <v>0.09512384750189171</v>
       </c>
     </row>
     <row r="187" ht="15" customHeight="1">
       <c r="F187" t="n">
-        <v>0.02352212180647136</v>
+        <v>0.02929931551400985</v>
       </c>
       <c r="G187" t="n">
-        <v>0.09123546810135841</v>
+        <v>0.09590999500190733</v>
       </c>
       <c r="J187" t="n">
-        <v>0.03872385794396919</v>
+        <v>0.07263746531407328</v>
       </c>
       <c r="K187" t="n">
-        <v>0.09737226953573387</v>
+        <v>0.09548202297077839</v>
       </c>
       <c r="L187" t="n">
-        <v>0.09405114969809772</v>
+        <v>0.1226966024549367</v>
       </c>
       <c r="M187" t="n">
-        <v>0.09391684577958172</v>
+        <v>0.0947140076322093</v>
       </c>
       <c r="N187" t="n">
-        <v>0.1647866244877429</v>
+        <v>0.02929931551400985</v>
       </c>
       <c r="O187" t="n">
-        <v>0.0954363026571627</v>
+        <v>0.09590999500190733</v>
       </c>
     </row>
     <row r="188" ht="15" customHeight="1">
       <c r="F188" t="n">
-        <v>0.0234402494757038</v>
+        <v>0.02942267350695314</v>
       </c>
       <c r="G188" t="n">
-        <v>0.09198329980710725</v>
+        <v>0.09669614250192297</v>
       </c>
       <c r="J188" t="n">
-        <v>0.03853526260788723</v>
+        <v>0.07281582688763627</v>
       </c>
       <c r="K188" t="n">
-        <v>0.09817040289258416</v>
+        <v>0.09626466250332576</v>
       </c>
       <c r="L188" t="n">
-        <v>0.09384450587280668</v>
+        <v>0.121118347852515</v>
       </c>
       <c r="M188" t="n">
-        <v>0.09468665599088977</v>
+        <v>0.09549035195706346</v>
       </c>
       <c r="N188" t="n">
-        <v>0.1636453656040884</v>
+        <v>0.02942267350695314</v>
       </c>
       <c r="O188" t="n">
-        <v>0.09621856743304108</v>
+        <v>0.09669614250192297</v>
       </c>
     </row>
     <row r="189" ht="15" customHeight="1">
       <c r="F189" t="n">
-        <v>0.02335322063873547</v>
+        <v>0.02905210786907012</v>
       </c>
       <c r="G189" t="n">
-        <v>0.0927311315128561</v>
+        <v>0.0974822900019386</v>
       </c>
       <c r="J189" t="n">
-        <v>0.03844188265382259</v>
+        <v>0.07249338780361583</v>
       </c>
       <c r="K189" t="n">
-        <v>0.09896853624943444</v>
+        <v>0.09704730203587313</v>
       </c>
       <c r="L189" t="n">
-        <v>0.09392178158671804</v>
+        <v>0.1208145118636524</v>
       </c>
       <c r="M189" t="n">
-        <v>0.09545646620219782</v>
+        <v>0.09626669628191764</v>
       </c>
       <c r="N189" t="n">
-        <v>0.1611737934231245</v>
+        <v>0.02905210786907012</v>
       </c>
       <c r="O189" t="n">
-        <v>0.09700083220891946</v>
+        <v>0.0974822900019386</v>
       </c>
     </row>
     <row r="190" ht="15" customHeight="1">
       <c r="F190" t="n">
-        <v>0.0222613191265044</v>
+        <v>0.02898810280291837</v>
       </c>
       <c r="G190" t="n">
-        <v>0.09347896321860494</v>
+        <v>0.09826843750195424</v>
       </c>
       <c r="J190" t="n">
-        <v>0.03824423024621455</v>
+        <v>0.0713701652667342</v>
       </c>
       <c r="K190" t="n">
-        <v>0.09976666960628471</v>
+        <v>0.09782994156842048</v>
       </c>
       <c r="L190" t="n">
-        <v>0.09308412819085729</v>
+        <v>0.1198847711670382</v>
       </c>
       <c r="M190" t="n">
-        <v>0.09622627641350585</v>
+        <v>0.09704304060677182</v>
       </c>
       <c r="N190" t="n">
-        <v>0.1589991076576219</v>
+        <v>0.02898810280291837</v>
       </c>
       <c r="O190" t="n">
-        <v>0.09778309698479784</v>
+        <v>0.09826843750195424</v>
       </c>
     </row>
     <row r="191" ht="15" customHeight="1">
       <c r="F191" t="n">
-        <v>0.02216482876994853</v>
+        <v>0.02873114251105544</v>
       </c>
       <c r="G191" t="n">
-        <v>0.09422679492435378</v>
+        <v>0.09905458500196987</v>
       </c>
       <c r="J191" t="n">
-        <v>0.0377428175495024</v>
+        <v>0.07164505891014256</v>
       </c>
       <c r="K191" t="n">
-        <v>0.100564802963135</v>
+        <v>0.09861258110096784</v>
       </c>
       <c r="L191" t="n">
-        <v>0.09313269703624999</v>
+        <v>0.1180288024413612</v>
       </c>
       <c r="M191" t="n">
-        <v>0.0969960866248139</v>
+        <v>0.09781938493162599</v>
       </c>
       <c r="N191" t="n">
-        <v>0.1576485080203505</v>
+        <v>0.02873114251105544</v>
       </c>
       <c r="O191" t="n">
-        <v>0.09856536176067622</v>
+        <v>0.09905458500196987</v>
       </c>
     </row>
     <row r="192" ht="15" customHeight="1">
       <c r="F192" t="n">
-        <v>0.02406403340000588</v>
+        <v>0.02848171119603891</v>
       </c>
       <c r="G192" t="n">
-        <v>0.09497462663010262</v>
+        <v>0.09984073250198551</v>
       </c>
       <c r="J192" t="n">
-        <v>0.03753815672812542</v>
+        <v>0.07101768433102296</v>
       </c>
       <c r="K192" t="n">
-        <v>0.1013629363199853</v>
+        <v>0.0993952206335152</v>
       </c>
       <c r="L192" t="n">
-        <v>0.09296863947392156</v>
+        <v>0.1178462823653104</v>
       </c>
       <c r="M192" t="n">
-        <v>0.09776589683612195</v>
+        <v>0.09859572925648016</v>
       </c>
       <c r="N192" t="n">
-        <v>0.1549491942240806</v>
+        <v>0.02848171119603891</v>
       </c>
       <c r="O192" t="n">
-        <v>0.0993476265365546</v>
+        <v>0.09984073250198551</v>
       </c>
     </row>
     <row r="193" ht="15" customHeight="1">
       <c r="F193" t="n">
-        <v>0.02395921684761444</v>
+        <v>0.02844029306042627</v>
       </c>
       <c r="G193" t="n">
-        <v>0.09572245833585145</v>
+        <v>0.1006268800020011</v>
       </c>
       <c r="J193" t="n">
-        <v>0.03763075994652287</v>
+        <v>0.07048807434682941</v>
       </c>
       <c r="K193" t="n">
-        <v>0.1021610696768355</v>
+        <v>0.1001778601660626</v>
       </c>
       <c r="L193" t="n">
-        <v>0.09279310685489756</v>
+        <v>0.115817262770443</v>
       </c>
       <c r="M193" t="n">
-        <v>0.09853570704743</v>
+        <v>0.09937207358133433</v>
       </c>
       <c r="N193" t="n">
-        <v>0.1540283659815826</v>
+        <v>0.02844029306042627</v>
       </c>
       <c r="O193" t="n">
-        <v>0.100129891312433</v>
+        <v>0.1006268800020011</v>
       </c>
     </row>
     <row r="194" ht="15" customHeight="1">
       <c r="F194" t="n">
-        <v>0.02185066294371215</v>
+        <v>0.02840737230677513</v>
       </c>
       <c r="G194" t="n">
-        <v>0.09647029004160029</v>
+        <v>0.1014130275020168</v>
       </c>
       <c r="J194" t="n">
-        <v>0.03742113936913408</v>
+        <v>0.07025626177501584</v>
       </c>
       <c r="K194" t="n">
-        <v>0.1029592030336858</v>
+        <v>0.1009604996986099</v>
       </c>
       <c r="L194" t="n">
-        <v>0.0917072505302034</v>
+        <v>0.1146146351381022</v>
       </c>
       <c r="M194" t="n">
-        <v>0.09930551725873805</v>
+        <v>0.1001484179061885</v>
       </c>
       <c r="N194" t="n">
-        <v>0.1519132230056265</v>
+        <v>0.02840737230677513</v>
       </c>
       <c r="O194" t="n">
-        <v>0.1009121560883114</v>
+        <v>0.1014130275020168</v>
       </c>
     </row>
     <row r="195" ht="15" customHeight="1">
       <c r="F195" t="n">
-        <v>0.02373865551923706</v>
+        <v>0.02808343313764307</v>
       </c>
       <c r="G195" t="n">
-        <v>0.09721812174734913</v>
+        <v>0.1021991750020324</v>
       </c>
       <c r="J195" t="n">
-        <v>0.03720980716039826</v>
+        <v>0.07012227943303614</v>
       </c>
       <c r="K195" t="n">
-        <v>0.1037573363905361</v>
+        <v>0.1017431392311573</v>
       </c>
       <c r="L195" t="n">
-        <v>0.09201222185086466</v>
+        <v>0.1138336220192698</v>
       </c>
       <c r="M195" t="n">
-        <v>0.1000753274700461</v>
+        <v>0.1009247622310427</v>
       </c>
       <c r="N195" t="n">
-        <v>0.1501309650089829</v>
+        <v>0.02808343313764307</v>
       </c>
       <c r="O195" t="n">
-        <v>0.1016944208641898</v>
+        <v>0.1021991750020324</v>
       </c>
     </row>
     <row r="196" ht="15" customHeight="1">
       <c r="F196" t="n">
-        <v>0.02362347840512712</v>
+        <v>0.0280689597555876</v>
       </c>
       <c r="G196" t="n">
-        <v>0.09796595345309797</v>
+        <v>0.102985322502048</v>
       </c>
       <c r="J196" t="n">
-        <v>0.03699727548475475</v>
+        <v>0.0689861601383443</v>
       </c>
       <c r="K196" t="n">
-        <v>0.1045554697473864</v>
+        <v>0.1025257787637047</v>
       </c>
       <c r="L196" t="n">
-        <v>0.09090917216790678</v>
+        <v>0.1115960373696558</v>
       </c>
       <c r="M196" t="n">
-        <v>0.1008451376813541</v>
+        <v>0.1017011065558969</v>
       </c>
       <c r="N196" t="n">
-        <v>0.1481087917044216</v>
+        <v>0.0280689597555876</v>
       </c>
       <c r="O196" t="n">
-        <v>0.1024766856400681</v>
+        <v>0.102985322502048</v>
       </c>
     </row>
     <row r="197" ht="15" customHeight="1">
       <c r="F197" t="n">
-        <v>0.02350541543232033</v>
+        <v>0.02806443636316629</v>
       </c>
       <c r="G197" t="n">
-        <v>0.09871378515884681</v>
+        <v>0.1037714700020637</v>
       </c>
       <c r="J197" t="n">
-        <v>0.03648405650664278</v>
+        <v>0.06874793670839424</v>
       </c>
       <c r="K197" t="n">
-        <v>0.1053536031042367</v>
+        <v>0.103308418296252</v>
       </c>
       <c r="L197" t="n">
-        <v>0.09129925283235529</v>
+        <v>0.1105236951449698</v>
       </c>
       <c r="M197" t="n">
-        <v>0.1016149478926622</v>
+        <v>0.102477450880751</v>
       </c>
       <c r="N197" t="n">
-        <v>0.1460739028047131</v>
+        <v>0.02806443636316629</v>
       </c>
       <c r="O197" t="n">
-        <v>0.1032589504159465</v>
+        <v>0.1037714700020637</v>
       </c>
     </row>
     <row r="198" ht="15" customHeight="1">
       <c r="F198" t="n">
-        <v>0.02338475043175468</v>
+        <v>0.02787034716293668</v>
       </c>
       <c r="G198" t="n">
-        <v>0.09946161686459565</v>
+        <v>0.1045576175020793</v>
       </c>
       <c r="J198" t="n">
-        <v>0.03637066239050167</v>
+        <v>0.06820764196063986</v>
       </c>
       <c r="K198" t="n">
-        <v>0.1061517364610869</v>
+        <v>0.1040910578287994</v>
       </c>
       <c r="L198" t="n">
-        <v>0.09018361519523563</v>
+        <v>0.1078384093009221</v>
       </c>
       <c r="M198" t="n">
-        <v>0.1023847581039702</v>
+        <v>0.1032537952056052</v>
       </c>
       <c r="N198" t="n">
-        <v>0.1437534980226277</v>
+        <v>0.02787034716293668</v>
       </c>
       <c r="O198" t="n">
-        <v>0.1040412151918249</v>
+        <v>0.1045576175020793</v>
       </c>
     </row>
     <row r="199" ht="15" customHeight="1">
       <c r="F199" t="n">
-        <v>0.02326176723436815</v>
+        <v>0.02768519824657215</v>
       </c>
       <c r="G199" t="n">
-        <v>0.1002094485703445</v>
+        <v>0.1053437650020949</v>
       </c>
       <c r="J199" t="n">
-        <v>0.03635760530077069</v>
+        <v>0.0678653087125351</v>
       </c>
       <c r="K199" t="n">
-        <v>0.1069498698179372</v>
+        <v>0.1048736973613468</v>
       </c>
       <c r="L199" t="n">
-        <v>0.09026341060757337</v>
+        <v>0.1058619937932224</v>
       </c>
       <c r="M199" t="n">
-        <v>0.1031545683152783</v>
+        <v>0.1040301395304594</v>
       </c>
       <c r="N199" t="n">
-        <v>0.1428747770709354</v>
+        <v>0.02768519824657215</v>
       </c>
       <c r="O199" t="n">
-        <v>0.1048234799677033</v>
+        <v>0.1053437650020949</v>
       </c>
     </row>
     <row r="200" ht="15" customHeight="1">
       <c r="F200" t="n">
-        <v>0.02113674967109874</v>
+        <v>0.02780606311522343</v>
       </c>
       <c r="G200" t="n">
-        <v>0.1009572802760933</v>
+        <v>0.1061299125021106</v>
       </c>
       <c r="J200" t="n">
-        <v>0.0361453974018891</v>
+        <v>0.06722096978153394</v>
       </c>
       <c r="K200" t="n">
-        <v>0.1077480031747875</v>
+        <v>0.1056563368938941</v>
       </c>
       <c r="L200" t="n">
-        <v>0.08963979042039394</v>
+        <v>0.1038162625775805</v>
       </c>
       <c r="M200" t="n">
-        <v>0.1039243785265863</v>
+        <v>0.1048064838553136</v>
       </c>
       <c r="N200" t="n">
-        <v>0.1409649396624068</v>
+        <v>0.02780606311522343</v>
       </c>
       <c r="O200" t="n">
-        <v>0.1056057447435817</v>
+        <v>0.1061299125021106</v>
       </c>
     </row>
     <row r="201" ht="15" customHeight="1">
       <c r="F201" t="n">
-        <v>0.02100998157288442</v>
+        <v>0.02773242220460506</v>
       </c>
       <c r="G201" t="n">
-        <v>0.1017051119818422</v>
+        <v>0.1069160600021262</v>
       </c>
       <c r="J201" t="n">
-        <v>0.03593455085829621</v>
+        <v>0.06717465798509029</v>
       </c>
       <c r="K201" t="n">
-        <v>0.1085461365316378</v>
+        <v>0.1064389764264415</v>
       </c>
       <c r="L201" t="n">
-        <v>0.08871390598472287</v>
+        <v>0.1019230296097064</v>
       </c>
       <c r="M201" t="n">
-        <v>0.1046941887378944</v>
+        <v>0.1055828281801677</v>
       </c>
       <c r="N201" t="n">
-        <v>0.1405511855098117</v>
+        <v>0.02773242220460506</v>
       </c>
       <c r="O201" t="n">
-        <v>0.1063880095194601</v>
+        <v>0.1069160600021262</v>
       </c>
     </row>
     <row r="202" ht="15" customHeight="1">
       <c r="F202" t="n">
-        <v>0.02288174677066319</v>
+        <v>0.02766377552214203</v>
       </c>
       <c r="G202" t="n">
-        <v>0.102452943687591</v>
+        <v>0.1077022075021419</v>
       </c>
       <c r="J202" t="n">
-        <v>0.03572557783443128</v>
+        <v>0.0666264061406581</v>
       </c>
       <c r="K202" t="n">
-        <v>0.109344269888488</v>
+        <v>0.1072216159589889</v>
       </c>
       <c r="L202" t="n">
-        <v>0.08918690865158566</v>
+        <v>0.09990410884531004</v>
       </c>
       <c r="M202" t="n">
-        <v>0.1054639989492024</v>
+        <v>0.1063591725050219</v>
       </c>
       <c r="N202" t="n">
-        <v>0.1393607143259208</v>
+        <v>0.02766377552214203</v>
       </c>
       <c r="O202" t="n">
-        <v>0.1071702742953384</v>
+        <v>0.1077022075021419</v>
       </c>
     </row>
     <row r="203" ht="15" customHeight="1">
       <c r="F203" t="n">
-        <v>0.02175232909537304</v>
+        <v>0.02739962307525935</v>
       </c>
       <c r="G203" t="n">
-        <v>0.1032007753933398</v>
+        <v>0.1084883550021575</v>
       </c>
       <c r="J203" t="n">
-        <v>0.0353189904947336</v>
+        <v>0.06587624706569131</v>
       </c>
       <c r="K203" t="n">
-        <v>0.1101424032453383</v>
+        <v>0.1080042554915362</v>
       </c>
       <c r="L203" t="n">
-        <v>0.08815994977200775</v>
+        <v>0.09718131424010124</v>
       </c>
       <c r="M203" t="n">
-        <v>0.1062338091605105</v>
+        <v>0.1071355168298761</v>
       </c>
       <c r="N203" t="n">
-        <v>0.1374207258235039</v>
+        <v>0.02739962307525935</v>
       </c>
       <c r="O203" t="n">
-        <v>0.1079525390712168</v>
+        <v>0.1084883550021575</v>
       </c>
     </row>
     <row r="204" ht="15" customHeight="1">
       <c r="F204" t="n">
-        <v>0.02162201237795194</v>
+        <v>0.027339464871382</v>
       </c>
       <c r="G204" t="n">
-        <v>0.1039486070990887</v>
+        <v>0.1092745025021731</v>
       </c>
       <c r="J204" t="n">
-        <v>0.0350151938547507</v>
+        <v>0.06542421357764383</v>
       </c>
       <c r="K204" t="n">
-        <v>0.1109405366021886</v>
+        <v>0.1087868950240836</v>
       </c>
       <c r="L204" t="n">
-        <v>0.08773418069701472</v>
+        <v>0.0955764597497899</v>
       </c>
       <c r="M204" t="n">
-        <v>0.1070036193718185</v>
+        <v>0.1079118611547303</v>
       </c>
       <c r="N204" t="n">
-        <v>0.1375584197153315</v>
+        <v>0.027339464871382</v>
       </c>
       <c r="O204" t="n">
-        <v>0.1087348038470952</v>
+        <v>0.1092745025021731</v>
       </c>
     </row>
     <row r="205" ht="15" customHeight="1">
       <c r="F205" t="n">
-        <v>0.0224910804493379</v>
+        <v>0.027282800917935</v>
       </c>
       <c r="G205" t="n">
-        <v>0.1046964388048375</v>
+        <v>0.1100606500021887</v>
       </c>
       <c r="J205" t="n">
-        <v>0.03490964611759322</v>
+        <v>0.06517033849396958</v>
       </c>
       <c r="K205" t="n">
-        <v>0.1117386699590389</v>
+        <v>0.1095695345566309</v>
       </c>
       <c r="L205" t="n">
-        <v>0.08791075277763194</v>
+        <v>0.09351135933008597</v>
       </c>
       <c r="M205" t="n">
-        <v>0.1077734295831266</v>
+        <v>0.1086882054795844</v>
       </c>
       <c r="N205" t="n">
-        <v>0.138000970597648</v>
+        <v>0.027282800917935</v>
       </c>
       <c r="O205" t="n">
-        <v>0.1095170686229736</v>
+        <v>0.1100606500021887</v>
       </c>
     </row>
     <row r="206" ht="15" customHeight="1">
       <c r="F206" t="n">
-        <v>0.0213598171404689</v>
+        <v>0.02732913122234336</v>
       </c>
       <c r="G206" t="n">
-        <v>0.1054442705105864</v>
+        <v>0.1108467975022044</v>
       </c>
       <c r="J206" t="n">
-        <v>0.03479973775527861</v>
+        <v>0.0651146546321226</v>
       </c>
       <c r="K206" t="n">
-        <v>0.1125368033158892</v>
+        <v>0.1103521740891783</v>
       </c>
       <c r="L206" t="n">
-        <v>0.08749081736488501</v>
+        <v>0.09160782693669928</v>
       </c>
       <c r="M206" t="n">
-        <v>0.1085432397944346</v>
+        <v>0.1094645498044386</v>
       </c>
       <c r="N206" t="n">
-        <v>0.1373010534308029</v>
+        <v>0.02732913122234336</v>
       </c>
       <c r="O206" t="n">
-        <v>0.110299333398852</v>
+        <v>0.1108467975022044</v>
       </c>
     </row>
     <row r="207" ht="15" customHeight="1">
       <c r="F207" t="n">
-        <v>0.02222850628228293</v>
+        <v>0.02717795579203208</v>
       </c>
       <c r="G207" t="n">
-        <v>0.1061921022163352</v>
+        <v>0.11163294500222</v>
       </c>
       <c r="J207" t="n">
-        <v>0.03438549133016355</v>
+        <v>0.06405719480955668</v>
       </c>
       <c r="K207" t="n">
-        <v>0.1133349366727394</v>
+        <v>0.1111348136217257</v>
       </c>
       <c r="L207" t="n">
-        <v>0.08627552580979939</v>
+        <v>0.09048767652533984</v>
       </c>
       <c r="M207" t="n">
-        <v>0.1093130500057427</v>
+        <v>0.1102408941292928</v>
       </c>
       <c r="N207" t="n">
-        <v>0.1375016212564107</v>
+        <v>0.02717795579203208</v>
       </c>
       <c r="O207" t="n">
-        <v>0.1110815981747303</v>
+        <v>0.11163294500222</v>
       </c>
     </row>
     <row r="208" ht="15" customHeight="1">
       <c r="F208" t="n">
-        <v>0.02109743170571796</v>
+        <v>0.02722877463442616</v>
       </c>
       <c r="G208" t="n">
-        <v>0.106939933922084</v>
+        <v>0.1124190925022357</v>
       </c>
       <c r="J208" t="n">
-        <v>0.03416692940460474</v>
+        <v>0.06419799184372582</v>
       </c>
       <c r="K208" t="n">
-        <v>0.1141330700295897</v>
+        <v>0.111917453154273</v>
       </c>
       <c r="L208" t="n">
-        <v>0.08666545160842579</v>
+        <v>0.0880727220517174</v>
       </c>
       <c r="M208" t="n">
-        <v>0.1100828602170507</v>
+        <v>0.111017238454147</v>
       </c>
       <c r="N208" t="n">
-        <v>0.1381031531724671</v>
+        <v>0.02722877463442616</v>
       </c>
       <c r="O208" t="n">
-        <v>0.1118638629506087</v>
+        <v>0.1124190925022357</v>
       </c>
     </row>
     <row r="209" ht="15" customHeight="1">
       <c r="F209" t="n">
-        <v>0.019966877241712</v>
+        <v>0.02728108775695061</v>
       </c>
       <c r="G209" t="n">
-        <v>0.1076877656278329</v>
+        <v>0.1132052400022513</v>
       </c>
       <c r="J209" t="n">
-        <v>0.03424407454095883</v>
+        <v>0.06363707855208398</v>
       </c>
       <c r="K209" t="n">
-        <v>0.11493120338644</v>
+        <v>0.1127000926868204</v>
       </c>
       <c r="L209" t="n">
-        <v>0.08595021761815874</v>
+        <v>0.08598477747154198</v>
       </c>
       <c r="M209" t="n">
-        <v>0.1108526704283587</v>
+        <v>0.1117935827790011</v>
       </c>
       <c r="N209" t="n">
-        <v>0.1380061282769681</v>
+        <v>0.02728108775695061</v>
       </c>
       <c r="O209" t="n">
-        <v>0.1126461277264871</v>
+        <v>0.1132052400022513</v>
       </c>
     </row>
     <row r="210" ht="15" customHeight="1">
       <c r="F210" t="n">
-        <v>0.02083712672120303</v>
+        <v>0.02733439516703043</v>
       </c>
       <c r="G210" t="n">
-        <v>0.1084355973335817</v>
+        <v>0.1139913875022669</v>
       </c>
       <c r="J210" t="n">
-        <v>0.03401694930158253</v>
+        <v>0.06257448775208507</v>
       </c>
       <c r="K210" t="n">
-        <v>0.1157293367432903</v>
+        <v>0.1134827322193678</v>
       </c>
       <c r="L210" t="n">
-        <v>0.0851256433989383</v>
+        <v>0.08404565674052339</v>
       </c>
       <c r="M210" t="n">
-        <v>0.1116224806396668</v>
+        <v>0.1125699271038553</v>
       </c>
       <c r="N210" t="n">
-        <v>0.1369110256679094</v>
+        <v>0.02733439516703043</v>
       </c>
       <c r="O210" t="n">
-        <v>0.1134283925023655</v>
+        <v>0.1139913875022669</v>
       </c>
     </row>
     <row r="211" ht="15" customHeight="1">
       <c r="F211" t="n">
-        <v>0.02070785451909405</v>
+        <v>0.02698819687209063</v>
       </c>
       <c r="G211" t="n">
-        <v>0.1091834290393306</v>
+        <v>0.1147775350022826</v>
       </c>
       <c r="J211" t="n">
-        <v>0.03368557624883256</v>
+        <v>0.06241025226118305</v>
       </c>
       <c r="K211" t="n">
-        <v>0.1165274701001405</v>
+        <v>0.1142653717519151</v>
       </c>
       <c r="L211" t="n">
-        <v>0.08479177923202788</v>
+        <v>0.08287717381437154</v>
       </c>
       <c r="M211" t="n">
-        <v>0.1123922908509749</v>
+        <v>0.1133462714287095</v>
       </c>
       <c r="N211" t="n">
-        <v>0.137818324443287</v>
+        <v>0.02698819687209063</v>
       </c>
       <c r="O211" t="n">
-        <v>0.1142106572782439</v>
+        <v>0.1147775350022826</v>
       </c>
     </row>
     <row r="212" ht="15" customHeight="1">
       <c r="F212" t="n">
-        <v>0.02057492797820744</v>
+        <v>0.0272419928795562</v>
       </c>
       <c r="G212" t="n">
-        <v>0.1099312607450794</v>
+        <v>0.1155636825022982</v>
       </c>
       <c r="J212" t="n">
-        <v>0.03344997794506555</v>
+        <v>0.06164440489683182</v>
       </c>
       <c r="K212" t="n">
-        <v>0.1173256034569908</v>
+        <v>0.1150480112844625</v>
       </c>
       <c r="L212" t="n">
-        <v>0.08414867539869086</v>
+        <v>0.08220114264879647</v>
       </c>
       <c r="M212" t="n">
-        <v>0.1131621010622829</v>
+        <v>0.1141226157535637</v>
       </c>
       <c r="N212" t="n">
-        <v>0.1375285037010966</v>
+        <v>0.0272419928795562</v>
       </c>
       <c r="O212" t="n">
-        <v>0.1149929220541223</v>
+        <v>0.1155636825022982</v>
       </c>
     </row>
     <row r="213" ht="15" customHeight="1">
       <c r="F213" t="n">
-        <v>0.02043755129783562</v>
+        <v>0.02719528319685216</v>
       </c>
       <c r="G213" t="n">
-        <v>0.1106790924508282</v>
+        <v>0.1163498300023138</v>
       </c>
       <c r="J213" t="n">
-        <v>0.03321017695263824</v>
+        <v>0.06137697847648532</v>
       </c>
       <c r="K213" t="n">
-        <v>0.1181237368138411</v>
+        <v>0.1158306508170098</v>
       </c>
       <c r="L213" t="n">
-        <v>0.08409638218019083</v>
+        <v>0.08143937719950789</v>
       </c>
       <c r="M213" t="n">
-        <v>0.1139319112735909</v>
+        <v>0.1148989600784178</v>
       </c>
       <c r="N213" t="n">
-        <v>0.1381420425393342</v>
+        <v>0.02719528319685216</v>
       </c>
       <c r="O213" t="n">
-        <v>0.1157751868300006</v>
+        <v>0.1163498300023138</v>
       </c>
     </row>
     <row r="214" ht="15" customHeight="1">
       <c r="F214" t="n">
-        <v>0.01929576345724251</v>
+        <v>0.02704756783140351</v>
       </c>
       <c r="G214" t="n">
-        <v>0.1114269241565771</v>
+        <v>0.1171359775023294</v>
       </c>
       <c r="J214" t="n">
-        <v>0.03306619583390728</v>
+        <v>0.06120800581759753</v>
       </c>
       <c r="K214" t="n">
-        <v>0.1189218701706914</v>
+        <v>0.1166132903495572</v>
       </c>
       <c r="L214" t="n">
-        <v>0.08373494985779115</v>
+        <v>0.08011601408309554</v>
       </c>
       <c r="M214" t="n">
-        <v>0.114701721484899</v>
+        <v>0.115675304403272</v>
       </c>
       <c r="N214" t="n">
-        <v>0.1380594200559956</v>
+        <v>0.02704756783140351</v>
       </c>
       <c r="O214" t="n">
-        <v>0.116557451605879</v>
+        <v>0.1171359775023294</v>
       </c>
     </row>
     <row r="215" ht="15" customHeight="1">
       <c r="F215" t="n">
-        <v>0.01914960343569206</v>
+        <v>0.02689834679063524</v>
       </c>
       <c r="G215" t="n">
-        <v>0.1121747558623259</v>
+        <v>0.1179221250023451</v>
       </c>
       <c r="J215" t="n">
-        <v>0.0327180571512294</v>
+        <v>0.06053751973762236</v>
       </c>
       <c r="K215" t="n">
-        <v>0.1197200035275417</v>
+        <v>0.1173959298821046</v>
       </c>
       <c r="L215" t="n">
-        <v>0.08306442871275521</v>
+        <v>0.07900148452586803</v>
       </c>
       <c r="M215" t="n">
-        <v>0.115471531696207</v>
+        <v>0.1164516487281262</v>
       </c>
       <c r="N215" t="n">
-        <v>0.1371811153490766</v>
+        <v>0.02689834679063524</v>
       </c>
       <c r="O215" t="n">
-        <v>0.1173397163817574</v>
+        <v>0.1179221250023451</v>
       </c>
     </row>
     <row r="216" ht="15" customHeight="1">
       <c r="F216" t="n">
-        <v>0.01899911021244818</v>
+        <v>0.02684712008197239</v>
       </c>
       <c r="G216" t="n">
-        <v>0.1129225875680748</v>
+        <v>0.1187082725023607</v>
       </c>
       <c r="J216" t="n">
-        <v>0.03236578346696126</v>
+        <v>0.0598655530540137</v>
       </c>
       <c r="K216" t="n">
-        <v>0.1205181368843919</v>
+        <v>0.1181785694146519</v>
       </c>
       <c r="L216" t="n">
-        <v>0.08248486902634652</v>
+        <v>0.0791951524195133</v>
       </c>
       <c r="M216" t="n">
-        <v>0.1162413419075151</v>
+        <v>0.1172279930529803</v>
       </c>
       <c r="N216" t="n">
-        <v>0.1378076075165731</v>
+        <v>0.02684712008197239</v>
       </c>
       <c r="O216" t="n">
-        <v>0.1181219811576358</v>
+        <v>0.1187082725023607</v>
       </c>
     </row>
     <row r="217" ht="15" customHeight="1">
       <c r="F217" t="n">
-        <v>0.01984432276677484</v>
+        <v>0.02669338771283994</v>
       </c>
       <c r="G217" t="n">
-        <v>0.1136704192738236</v>
+        <v>0.1194944200023764</v>
       </c>
       <c r="J217" t="n">
-        <v>0.03200939734345956</v>
+        <v>0.05919213858422556</v>
       </c>
       <c r="K217" t="n">
-        <v>0.1213162702412422</v>
+        <v>0.1189612089471993</v>
       </c>
       <c r="L217" t="n">
-        <v>0.08169632107982855</v>
+        <v>0.07749735829922055</v>
       </c>
       <c r="M217" t="n">
-        <v>0.1170111521188231</v>
+        <v>0.1180043373778345</v>
       </c>
       <c r="N217" t="n">
-        <v>0.1374393756564809</v>
+        <v>0.02669338771283994</v>
       </c>
       <c r="O217" t="n">
-        <v>0.1189042459335142</v>
+        <v>0.1194944200023764</v>
       </c>
     </row>
     <row r="218" ht="15" customHeight="1">
       <c r="F218" t="n">
-        <v>0.01868528007793593</v>
+        <v>0.02693664969066288</v>
       </c>
       <c r="G218" t="n">
-        <v>0.1144182509795724</v>
+        <v>0.120280567502392</v>
       </c>
       <c r="J218" t="n">
-        <v>0.03174892134308099</v>
+        <v>0.05941732322505744</v>
       </c>
       <c r="K218" t="n">
-        <v>0.1221144035980925</v>
+        <v>0.1197438484797467</v>
       </c>
       <c r="L218" t="n">
-        <v>0.08189883515446467</v>
+        <v>0.07690844270017955</v>
       </c>
       <c r="M218" t="n">
-        <v>0.1177809623301312</v>
+        <v>0.1187806817026887</v>
       </c>
       <c r="N218" t="n">
-        <v>0.1381768988667959</v>
+        <v>0.02693664969066288</v>
       </c>
       <c r="O218" t="n">
-        <v>0.1196865107093926</v>
+        <v>0.120280567502392</v>
       </c>
     </row>
     <row r="219" ht="15" customHeight="1">
       <c r="F219" t="n">
-        <v>0.0205220211251954</v>
+        <v>0.02687640602286624</v>
       </c>
       <c r="G219" t="n">
-        <v>0.1151660826853213</v>
+        <v>0.1210667150024076</v>
       </c>
       <c r="J219" t="n">
-        <v>0.03178437802818222</v>
+        <v>0.05914124921297084</v>
       </c>
       <c r="K219" t="n">
-        <v>0.1229125369549428</v>
+        <v>0.120526488012294</v>
       </c>
       <c r="L219" t="n">
-        <v>0.08139246153151836</v>
+        <v>0.07612874615757942</v>
       </c>
       <c r="M219" t="n">
-        <v>0.1185507725414392</v>
+        <v>0.1195570260275429</v>
       </c>
       <c r="N219" t="n">
-        <v>0.1384206562455139</v>
+        <v>0.02687640602286624</v>
       </c>
       <c r="O219" t="n">
-        <v>0.1204687754852709</v>
+        <v>0.1210667150024076</v>
       </c>
     </row>
     <row r="220" ht="15" customHeight="1">
       <c r="F220" t="n">
-        <v>0.01935458488781718</v>
+        <v>0.026612156716875</v>
       </c>
       <c r="G220" t="n">
-        <v>0.1159139143910701</v>
+        <v>0.1218528625024233</v>
       </c>
       <c r="J220" t="n">
-        <v>0.03131578996111996</v>
+        <v>0.05846393919090359</v>
       </c>
       <c r="K220" t="n">
-        <v>0.1237106703117931</v>
+        <v>0.1213091275448414</v>
       </c>
       <c r="L220" t="n">
-        <v>0.080877250492253</v>
+        <v>0.07575860920660965</v>
       </c>
       <c r="M220" t="n">
-        <v>0.1193205827527473</v>
+        <v>0.1203333703523971</v>
       </c>
       <c r="N220" t="n">
-        <v>0.1369711268906308</v>
+        <v>0.026612156716875</v>
       </c>
       <c r="O220" t="n">
-        <v>0.1212510402611493</v>
+        <v>0.1218528625024233</v>
       </c>
     </row>
     <row r="221" ht="15" customHeight="1">
       <c r="F221" t="n">
-        <v>0.01818301034506521</v>
+        <v>0.02644340178011421</v>
       </c>
       <c r="G221" t="n">
-        <v>0.116661746096819</v>
+        <v>0.1226390100024389</v>
       </c>
       <c r="J221" t="n">
-        <v>0.03124317970425092</v>
+        <v>0.05738538475553503</v>
       </c>
       <c r="K221" t="n">
-        <v>0.1245088036686433</v>
+        <v>0.1220917670773888</v>
       </c>
       <c r="L221" t="n">
-        <v>0.08005325231793214</v>
+        <v>0.07569837238245974</v>
       </c>
       <c r="M221" t="n">
-        <v>0.1200903929640553</v>
+        <v>0.1211097146772512</v>
       </c>
       <c r="N221" t="n">
-        <v>0.1383287899001426</v>
+        <v>0.02644340178011421</v>
       </c>
       <c r="O221" t="n">
-        <v>0.1220333050370277</v>
+        <v>0.1226390100024389</v>
       </c>
     </row>
     <row r="222" ht="15" customHeight="1">
       <c r="F222" t="n">
-        <v>0.01800733647620341</v>
+        <v>0.02636964122000883</v>
       </c>
       <c r="G222" t="n">
-        <v>0.1174095778025678</v>
+        <v>0.1234251575024545</v>
       </c>
       <c r="J222" t="n">
-        <v>0.03096656981993176</v>
+        <v>0.05720557750354446</v>
       </c>
       <c r="K222" t="n">
-        <v>0.1253069370254936</v>
+        <v>0.1228744066099361</v>
       </c>
       <c r="L222" t="n">
-        <v>0.07992051728981917</v>
+        <v>0.07494837622031897</v>
       </c>
       <c r="M222" t="n">
-        <v>0.1208602031753633</v>
+        <v>0.1218860590021054</v>
       </c>
       <c r="N222" t="n">
-        <v>0.1379941243720448</v>
+        <v>0.02636964122000883</v>
       </c>
       <c r="O222" t="n">
-        <v>0.1228155698129061</v>
+        <v>0.1234251575024545</v>
       </c>
     </row>
     <row r="223" ht="15" customHeight="1">
       <c r="F223" t="n">
-        <v>0.01882760226049571</v>
+        <v>0.02659037504398387</v>
       </c>
       <c r="G223" t="n">
-        <v>0.1181574095083166</v>
+        <v>0.1242113050024701</v>
       </c>
       <c r="J223" t="n">
-        <v>0.03058598287051913</v>
+        <v>0.05682450903161132</v>
       </c>
       <c r="K223" t="n">
-        <v>0.1261050703823439</v>
+        <v>0.1236570461424835</v>
       </c>
       <c r="L223" t="n">
-        <v>0.07907909568917748</v>
+        <v>0.07350896125537698</v>
       </c>
       <c r="M223" t="n">
-        <v>0.1216300133866714</v>
+        <v>0.1226624033269596</v>
       </c>
       <c r="N223" t="n">
-        <v>0.1386676094043335</v>
+        <v>0.02659037504398387</v>
       </c>
       <c r="O223" t="n">
-        <v>0.1235978345887845</v>
+        <v>0.1242113050024701</v>
       </c>
     </row>
     <row r="224" ht="15" customHeight="1">
       <c r="F224" t="n">
-        <v>0.01964384667720605</v>
+        <v>0.02640510325946432</v>
       </c>
       <c r="G224" t="n">
-        <v>0.1189052412140655</v>
+        <v>0.1249974525024858</v>
       </c>
       <c r="J224" t="n">
-        <v>0.03030144141836982</v>
+        <v>0.05634217093641483</v>
       </c>
       <c r="K224" t="n">
-        <v>0.1269032037391942</v>
+        <v>0.1244396856750309</v>
       </c>
       <c r="L224" t="n">
-        <v>0.07822903779727053</v>
+        <v>0.07308046802282281</v>
       </c>
       <c r="M224" t="n">
-        <v>0.1223998235979795</v>
+        <v>0.1234387476518137</v>
       </c>
       <c r="N224" t="n">
-        <v>0.1372497240950045</v>
+        <v>0.02640510325946432</v>
       </c>
       <c r="O224" t="n">
-        <v>0.1243800993646628</v>
+        <v>0.1249974525024858</v>
       </c>
     </row>
     <row r="225" ht="15" customHeight="1">
       <c r="F225" t="n">
-        <v>0.01945610870559836</v>
+        <v>0.02641327619733379</v>
       </c>
       <c r="G225" t="n">
-        <v>0.1196530729198143</v>
+        <v>0.1257836000025014</v>
       </c>
       <c r="J225" t="n">
-        <v>0.03001296802584043</v>
+        <v>0.05615855481463441</v>
       </c>
       <c r="K225" t="n">
-        <v>0.1277013370960444</v>
+        <v>0.1252223252075782</v>
       </c>
       <c r="L225" t="n">
-        <v>0.07797039389536189</v>
+        <v>0.07206323705784623</v>
       </c>
       <c r="M225" t="n">
-        <v>0.1231696338092875</v>
+        <v>0.1242150919766679</v>
       </c>
       <c r="N225" t="n">
-        <v>0.1377409475420536</v>
+        <v>0.02641327619733379</v>
       </c>
       <c r="O225" t="n">
-        <v>0.1251623641405412</v>
+        <v>0.1257836000025014</v>
       </c>
     </row>
     <row r="226" ht="15" customHeight="1">
       <c r="F226" t="n">
-        <v>0.01726442732493658</v>
+        <v>0.02621286079394763</v>
       </c>
       <c r="G226" t="n">
-        <v>0.1204009046255631</v>
+        <v>0.1265697475025171</v>
       </c>
       <c r="J226" t="n">
-        <v>0.02982058525528768</v>
+        <v>0.05537365226294938</v>
       </c>
       <c r="K226" t="n">
-        <v>0.1284994704528947</v>
+        <v>0.1260049647401256</v>
       </c>
       <c r="L226" t="n">
-        <v>0.07770321426471488</v>
+        <v>0.07145760889563652</v>
       </c>
       <c r="M226" t="n">
-        <v>0.1239394440205955</v>
+        <v>0.1249914363015221</v>
       </c>
       <c r="N226" t="n">
-        <v>0.1386417588434767</v>
+        <v>0.02621286079394763</v>
       </c>
       <c r="O226" t="n">
-        <v>0.1259446289164196</v>
+        <v>0.1265697475025171</v>
       </c>
     </row>
     <row r="227" ht="15" customHeight="1">
       <c r="F227" t="n">
-        <v>0.01806884151448461</v>
+        <v>0.02600311392735107</v>
       </c>
       <c r="G227" t="n">
-        <v>0.121148736331312</v>
+        <v>0.1273558950025327</v>
       </c>
       <c r="J227" t="n">
-        <v>0.02932431566906826</v>
+        <v>0.05518745487803906</v>
       </c>
       <c r="K227" t="n">
-        <v>0.129297603809745</v>
+        <v>0.1267876042726729</v>
       </c>
       <c r="L227" t="n">
-        <v>0.07692754918659292</v>
+        <v>0.07116392407138311</v>
       </c>
       <c r="M227" t="n">
-        <v>0.1247092542319036</v>
+        <v>0.1257677806263763</v>
       </c>
       <c r="N227" t="n">
-        <v>0.1377526370972696</v>
+        <v>0.02600311392735107</v>
       </c>
       <c r="O227" t="n">
-        <v>0.126726893692298</v>
+        <v>0.1273558950025327</v>
       </c>
     </row>
     <row r="228" ht="15" customHeight="1">
       <c r="F228" t="n">
-        <v>0.01886939025350642</v>
+        <v>0.02598419148264465</v>
       </c>
       <c r="G228" t="n">
-        <v>0.1218965680370608</v>
+        <v>0.1281420425025483</v>
       </c>
       <c r="J228" t="n">
-        <v>0.02912418182953887</v>
+        <v>0.05479995425658271</v>
       </c>
       <c r="K228" t="n">
-        <v>0.1300957371665953</v>
+        <v>0.1275702438052203</v>
       </c>
       <c r="L228" t="n">
-        <v>0.07654344894225951</v>
+        <v>0.06988252312027532</v>
       </c>
       <c r="M228" t="n">
-        <v>0.1254790644432116</v>
+        <v>0.1265441249512305</v>
       </c>
       <c r="N228" t="n">
-        <v>0.1390740614014284</v>
+        <v>0.02598419148264465</v>
       </c>
       <c r="O228" t="n">
-        <v>0.1275091584681764</v>
+        <v>0.1281420425025483</v>
       </c>
     </row>
     <row r="229" ht="15" customHeight="1">
       <c r="F229" t="n">
-        <v>0.01666611252126593</v>
+        <v>0.02595624934492899</v>
       </c>
       <c r="G229" t="n">
-        <v>0.1226443997428097</v>
+        <v>0.128928190002564</v>
       </c>
       <c r="J229" t="n">
-        <v>0.02892020629905619</v>
+        <v>0.05401114199525983</v>
       </c>
       <c r="K229" t="n">
-        <v>0.1308938705234455</v>
+        <v>0.1283528833377677</v>
       </c>
       <c r="L229" t="n">
-        <v>0.07545096381297806</v>
+        <v>0.06971374657750273</v>
       </c>
       <c r="M229" t="n">
-        <v>0.1262488746545197</v>
+        <v>0.1273204692760846</v>
       </c>
       <c r="N229" t="n">
-        <v>0.1382065108539485</v>
+        <v>0.02595624934492899</v>
       </c>
       <c r="O229" t="n">
-        <v>0.1282914232440548</v>
+        <v>0.128928190002564</v>
       </c>
     </row>
     <row r="230" ht="15" customHeight="1">
       <c r="F230" t="n">
-        <v>0.01845904729702706</v>
+        <v>0.02571944339930465</v>
       </c>
       <c r="G230" t="n">
-        <v>0.1233922314485585</v>
+        <v>0.1297143375025796</v>
       </c>
       <c r="J230" t="n">
-        <v>0.02851241163997689</v>
+        <v>0.05322100969074964</v>
       </c>
       <c r="K230" t="n">
-        <v>0.1316920038802958</v>
+        <v>0.129135522870315</v>
       </c>
       <c r="L230" t="n">
-        <v>0.07545014408001208</v>
+        <v>0.06885793497825465</v>
       </c>
       <c r="M230" t="n">
-        <v>0.1270186848658277</v>
+        <v>0.1280968136009388</v>
       </c>
       <c r="N230" t="n">
-        <v>0.1392504645528261</v>
+        <v>0.02571944339930465</v>
       </c>
       <c r="O230" t="n">
-        <v>0.1290736880199332</v>
+        <v>0.1297143375025796</v>
       </c>
     </row>
     <row r="231" ht="15" customHeight="1">
       <c r="F231" t="n">
-        <v>0.01824823356005376</v>
+        <v>0.02567392953087223</v>
       </c>
       <c r="G231" t="n">
-        <v>0.1241400631543074</v>
+        <v>0.1305004850025952</v>
       </c>
       <c r="J231" t="n">
-        <v>0.0283008204146577</v>
+        <v>0.05262954893973149</v>
       </c>
       <c r="K231" t="n">
-        <v>0.1324901372371461</v>
+        <v>0.1299181624028624</v>
       </c>
       <c r="L231" t="n">
-        <v>0.07464104002462491</v>
+        <v>0.06871542885772053</v>
       </c>
       <c r="M231" t="n">
-        <v>0.1277884950771358</v>
+        <v>0.128873157925793</v>
       </c>
       <c r="N231" t="n">
-        <v>0.138706401596057</v>
+        <v>0.02567392953087223</v>
       </c>
       <c r="O231" t="n">
-        <v>0.1298559527958116</v>
+        <v>0.1305004850025952</v>
       </c>
     </row>
     <row r="232" ht="15" customHeight="1">
       <c r="F232" t="n">
-        <v>0.01603371028960995</v>
+        <v>0.02531986362473233</v>
       </c>
       <c r="G232" t="n">
-        <v>0.1248878948600562</v>
+        <v>0.1312866325026109</v>
       </c>
       <c r="J232" t="n">
-        <v>0.02778545518545529</v>
+        <v>0.05193675133888473</v>
       </c>
       <c r="K232" t="n">
-        <v>0.1332882705939964</v>
+        <v>0.1307008019354098</v>
       </c>
       <c r="L232" t="n">
-        <v>0.07412370192808004</v>
+        <v>0.06748656875108977</v>
       </c>
       <c r="M232" t="n">
-        <v>0.1285583052884438</v>
+        <v>0.1296495022506471</v>
       </c>
       <c r="N232" t="n">
-        <v>0.1393748010816369</v>
+        <v>0.02531986362473233</v>
       </c>
       <c r="O232" t="n">
-        <v>0.1306382175716899</v>
+        <v>0.1312866325026109</v>
       </c>
     </row>
     <row r="233" ht="15" customHeight="1">
       <c r="F233" t="n">
-        <v>0.01581551646495955</v>
+        <v>0.02515740156598552</v>
       </c>
       <c r="G233" t="n">
-        <v>0.125635726565805</v>
+        <v>0.1320727800026265</v>
       </c>
       <c r="J233" t="n">
-        <v>0.02756633851472631</v>
+        <v>0.05234260848488875</v>
       </c>
       <c r="K233" t="n">
-        <v>0.1340864039508467</v>
+        <v>0.1314834414679571</v>
       </c>
       <c r="L233" t="n">
-        <v>0.07309818007164093</v>
+        <v>0.06677169519355175</v>
       </c>
       <c r="M233" t="n">
-        <v>0.1293281154997519</v>
+        <v>0.1304258465755013</v>
       </c>
       <c r="N233" t="n">
-        <v>0.1386561421075617</v>
+        <v>0.02515740156598552</v>
       </c>
       <c r="O233" t="n">
-        <v>0.1314204823475683</v>
+        <v>0.1320727800026265</v>
       </c>
     </row>
     <row r="234" ht="15" customHeight="1">
       <c r="F234" t="n">
-        <v>0.01659369106536652</v>
+        <v>0.02508669923973242</v>
       </c>
       <c r="G234" t="n">
-        <v>0.1263835582715539</v>
+        <v>0.1328589275026421</v>
       </c>
       <c r="J234" t="n">
-        <v>0.02714349296482751</v>
+        <v>0.05154711197442277</v>
       </c>
       <c r="K234" t="n">
-        <v>0.1348845373076969</v>
+        <v>0.1322660810005045</v>
       </c>
       <c r="L234" t="n">
-        <v>0.07276452473657102</v>
+        <v>0.06657114872029596</v>
       </c>
       <c r="M234" t="n">
-        <v>0.1300979257110599</v>
+        <v>0.1312021909003555</v>
       </c>
       <c r="N234" t="n">
-        <v>0.1386509037718274</v>
+        <v>0.02508669923973242</v>
       </c>
       <c r="O234" t="n">
-        <v>0.1322027471234467</v>
+        <v>0.1328589275026421</v>
       </c>
     </row>
     <row r="235" ht="15" customHeight="1">
       <c r="F235" t="n">
-        <v>0.01636827307009477</v>
+        <v>0.02490791253107359</v>
       </c>
       <c r="G235" t="n">
-        <v>0.1271313899773027</v>
+        <v>0.1336450750026578</v>
       </c>
       <c r="J235" t="n">
-        <v>0.02701694109811557</v>
+        <v>0.05115025340416626</v>
       </c>
       <c r="K235" t="n">
-        <v>0.1356826706645472</v>
+        <v>0.1330487205330519</v>
       </c>
       <c r="L235" t="n">
-        <v>0.07162278620413373</v>
+        <v>0.06498526986651171</v>
       </c>
       <c r="M235" t="n">
-        <v>0.130867735922368</v>
+        <v>0.1319785352252097</v>
       </c>
       <c r="N235" t="n">
-        <v>0.1397595651724298</v>
+        <v>0.02490791253107359</v>
       </c>
       <c r="O235" t="n">
-        <v>0.1329850118993251</v>
+        <v>0.1336450750026578</v>
       </c>
     </row>
     <row r="236" ht="15" customHeight="1">
       <c r="F236" t="n">
-        <v>0.01513930145840824</v>
+        <v>0.02452119732510964</v>
       </c>
       <c r="G236" t="n">
-        <v>0.1278792216830515</v>
+        <v>0.1344312225026734</v>
       </c>
       <c r="J236" t="n">
-        <v>0.02658670547694714</v>
+        <v>0.04995202437079846</v>
       </c>
       <c r="K236" t="n">
-        <v>0.1364808040213975</v>
+        <v>0.1338313600655992</v>
       </c>
       <c r="L236" t="n">
-        <v>0.07087301475559249</v>
+        <v>0.0644143991673885</v>
       </c>
       <c r="M236" t="n">
-        <v>0.131637546133676</v>
+        <v>0.1327548795500638</v>
       </c>
       <c r="N236" t="n">
-        <v>0.1397826054073645</v>
+        <v>0.02452119732510964</v>
       </c>
       <c r="O236" t="n">
-        <v>0.1337672766752035</v>
+        <v>0.1344312225026734</v>
       </c>
     </row>
     <row r="237" ht="15" customHeight="1">
       <c r="F237" t="n">
-        <v>0.01590681520957086</v>
+        <v>0.02442670950694113</v>
       </c>
       <c r="G237" t="n">
-        <v>0.1286270533888004</v>
+        <v>0.135217370002689</v>
       </c>
       <c r="J237" t="n">
-        <v>0.02615280866367893</v>
+        <v>0.05005241647099873</v>
       </c>
       <c r="K237" t="n">
-        <v>0.1372789373782478</v>
+        <v>0.1346139995981466</v>
       </c>
       <c r="L237" t="n">
-        <v>0.07031526067221078</v>
+        <v>0.06405887715811587</v>
       </c>
       <c r="M237" t="n">
-        <v>0.1324073563449841</v>
+        <v>0.133531223874918</v>
       </c>
       <c r="N237" t="n">
-        <v>0.1397205035746277</v>
+        <v>0.02442670950694113</v>
       </c>
       <c r="O237" t="n">
-        <v>0.1345495414510818</v>
+        <v>0.135217370002689</v>
       </c>
     </row>
     <row r="238" ht="15" customHeight="1">
       <c r="F238" t="n">
-        <v>0.01567085330284657</v>
+        <v>0.02412460496166868</v>
       </c>
       <c r="G238" t="n">
-        <v>0.1293748850945492</v>
+        <v>0.1360035175027047</v>
       </c>
       <c r="J238" t="n">
-        <v>0.02601527322066764</v>
+        <v>0.04975142130144647</v>
       </c>
       <c r="K238" t="n">
-        <v>0.138077070735098</v>
+        <v>0.1353966391306939</v>
       </c>
       <c r="L238" t="n">
-        <v>0.06974957423525205</v>
+        <v>0.06361904437388294</v>
       </c>
       <c r="M238" t="n">
-        <v>0.1331771665562921</v>
+        <v>0.1343075681997722</v>
       </c>
       <c r="N238" t="n">
-        <v>0.1408737387722151</v>
+        <v>0.02412460496166868</v>
       </c>
       <c r="O238" t="n">
-        <v>0.1353318062269602</v>
+        <v>0.1360035175027047</v>
       </c>
     </row>
     <row r="239" ht="15" customHeight="1">
       <c r="F239" t="n">
-        <v>0.01643145471749927</v>
+        <v>0.02391503957439289</v>
       </c>
       <c r="G239" t="n">
-        <v>0.1301227168002981</v>
+        <v>0.1367896650027203</v>
       </c>
       <c r="J239" t="n">
-        <v>0.02557412171026996</v>
+        <v>0.0492490304588209</v>
       </c>
       <c r="K239" t="n">
-        <v>0.1388752040919483</v>
+        <v>0.1361792786632413</v>
       </c>
       <c r="L239" t="n">
-        <v>0.06967600572597968</v>
+        <v>0.06309524134987932</v>
       </c>
       <c r="M239" t="n">
-        <v>0.1339469767676001</v>
+        <v>0.1350839125246264</v>
       </c>
       <c r="N239" t="n">
-        <v>0.1413427900981225</v>
+        <v>0.02391503957439289</v>
       </c>
       <c r="O239" t="n">
-        <v>0.1361140710028386</v>
+        <v>0.1367896650027203</v>
       </c>
     </row>
     <row r="240" ht="15" customHeight="1">
       <c r="F240" t="n">
-        <v>0.01618865843279294</v>
+        <v>0.02389816923021428</v>
       </c>
       <c r="G240" t="n">
-        <v>0.1308705485060469</v>
+        <v>0.1375758125027359</v>
       </c>
       <c r="J240" t="n">
-        <v>0.02502937669484256</v>
+        <v>0.04874523553980142</v>
       </c>
       <c r="K240" t="n">
-        <v>0.1396733374487986</v>
+        <v>0.1369619181957887</v>
       </c>
       <c r="L240" t="n">
-        <v>0.0682946054256571</v>
+        <v>0.06328780862129435</v>
       </c>
       <c r="M240" t="n">
-        <v>0.1347167869789082</v>
+        <v>0.1358602568494805</v>
       </c>
       <c r="N240" t="n">
-        <v>0.1403281366503458</v>
+        <v>0.02389816923021428</v>
       </c>
       <c r="O240" t="n">
-        <v>0.136896335778717</v>
+        <v>0.1375758125027359</v>
       </c>
     </row>
     <row r="241" ht="15" customHeight="1">
       <c r="F241" t="n">
-        <v>0.01394250342799148</v>
+        <v>0.02367414981423349</v>
       </c>
       <c r="G241" t="n">
-        <v>0.1316183802117958</v>
+        <v>0.1383619600027516</v>
       </c>
       <c r="J241" t="n">
-        <v>0.02498106073674214</v>
+        <v>0.04764002814106738</v>
       </c>
       <c r="K241" t="n">
-        <v>0.1404714708056489</v>
+        <v>0.137744557728336</v>
       </c>
       <c r="L241" t="n">
-        <v>0.06780542361554787</v>
+        <v>0.06189708672331751</v>
       </c>
       <c r="M241" t="n">
-        <v>0.1354865971902162</v>
+        <v>0.1366366011743347</v>
       </c>
       <c r="N241" t="n">
-        <v>0.1407302575268809</v>
+        <v>0.02367414981423349</v>
       </c>
       <c r="O241" t="n">
-        <v>0.1376786005545954</v>
+        <v>0.1383619600027516</v>
       </c>
     </row>
     <row r="242" ht="15" customHeight="1">
       <c r="F242" t="n">
-        <v>0.01569302868235883</v>
+        <v>0.02334313721155112</v>
       </c>
       <c r="G242" t="n">
-        <v>0.1323662119175446</v>
+        <v>0.1391481075027672</v>
       </c>
       <c r="J242" t="n">
-        <v>0.02462919639832541</v>
+        <v>0.0478333998592981</v>
       </c>
       <c r="K242" t="n">
-        <v>0.1412696041624991</v>
+        <v>0.1385271972608834</v>
       </c>
       <c r="L242" t="n">
-        <v>0.06680851057691534</v>
+        <v>0.06202341619113821</v>
       </c>
       <c r="M242" t="n">
-        <v>0.1362564074015243</v>
+        <v>0.1374129454991889</v>
       </c>
       <c r="N242" t="n">
-        <v>0.1411496318257235</v>
+        <v>0.02334313721155112</v>
       </c>
       <c r="O242" t="n">
-        <v>0.1384608653304737</v>
+        <v>0.1391481075027672</v>
       </c>
     </row>
     <row r="243" ht="15" customHeight="1">
       <c r="F243" t="n">
-        <v>0.01344027317515892</v>
+        <v>0.02310528730726776</v>
       </c>
       <c r="G243" t="n">
-        <v>0.1331140436232934</v>
+        <v>0.1399342550027828</v>
       </c>
       <c r="J243" t="n">
-        <v>0.02417380624194898</v>
+        <v>0.0469253422911729</v>
       </c>
       <c r="K243" t="n">
-        <v>0.1420677375193495</v>
+        <v>0.1393098367934308</v>
       </c>
       <c r="L243" t="n">
-        <v>0.06610391659102299</v>
+        <v>0.06166713755994579</v>
       </c>
       <c r="M243" t="n">
-        <v>0.1370262176128323</v>
+        <v>0.138189289824043</v>
       </c>
       <c r="N243" t="n">
-        <v>0.1423867386448697</v>
+        <v>0.02310528730726776</v>
       </c>
       <c r="O243" t="n">
-        <v>0.1392431301063521</v>
+        <v>0.1399342550027828</v>
       </c>
     </row>
     <row r="244" ht="15" customHeight="1">
       <c r="F244" t="n">
-        <v>0.01318427588565568</v>
+        <v>0.02306075598648395</v>
       </c>
       <c r="G244" t="n">
-        <v>0.1338618753290423</v>
+        <v>0.1407204025027985</v>
       </c>
       <c r="J244" t="n">
-        <v>0.02381491282996967</v>
+        <v>0.04611584703337115</v>
       </c>
       <c r="K244" t="n">
-        <v>0.1428658708761997</v>
+        <v>0.1400924763259781</v>
       </c>
       <c r="L244" t="n">
-        <v>0.06589169193913419</v>
+        <v>0.06082859136492968</v>
       </c>
       <c r="M244" t="n">
-        <v>0.1377960278241404</v>
+        <v>0.1389656341488973</v>
       </c>
       <c r="N244" t="n">
-        <v>0.142042057082315</v>
+        <v>0.02306075598648395</v>
       </c>
       <c r="O244" t="n">
-        <v>0.1400253948822305</v>
+        <v>0.1407204025027985</v>
       </c>
     </row>
     <row r="245" ht="15" customHeight="1">
       <c r="F245" t="n">
-        <v>0.01392507579311305</v>
+        <v>0.02280969913430032</v>
       </c>
       <c r="G245" t="n">
-        <v>0.1346097070347911</v>
+        <v>0.1415065500028141</v>
       </c>
       <c r="J245" t="n">
-        <v>0.02355253872474405</v>
+        <v>0.04570490568257221</v>
       </c>
       <c r="K245" t="n">
-        <v>0.14366400423305</v>
+        <v>0.1408751158585255</v>
       </c>
       <c r="L245" t="n">
-        <v>0.06467188690251247</v>
+        <v>0.06040811814127944</v>
       </c>
       <c r="M245" t="n">
-        <v>0.1385658380354484</v>
+        <v>0.1397419784737514</v>
       </c>
       <c r="N245" t="n">
-        <v>0.1418160662360556</v>
+        <v>0.02280969913430032</v>
       </c>
       <c r="O245" t="n">
-        <v>0.1408076596581089</v>
+        <v>0.1415065500028141</v>
       </c>
     </row>
     <row r="246" ht="15" customHeight="1">
       <c r="F246" t="n">
-        <v>0.01266271187679496</v>
+        <v>0.02245227263581745</v>
       </c>
       <c r="G246" t="n">
-        <v>0.1353575387405399</v>
+        <v>0.1422926975028297</v>
       </c>
       <c r="J246" t="n">
-        <v>0.02298670648862888</v>
+        <v>0.04579250983545533</v>
       </c>
       <c r="K246" t="n">
-        <v>0.1444621375899003</v>
+        <v>0.1416577553910729</v>
       </c>
       <c r="L246" t="n">
-        <v>0.06444455176242123</v>
+        <v>0.05970605842418431</v>
       </c>
       <c r="M246" t="n">
-        <v>0.1393356482467565</v>
+        <v>0.1405183227986056</v>
       </c>
       <c r="N246" t="n">
-        <v>0.1436092452040872</v>
+        <v>0.02245227263581745</v>
       </c>
       <c r="O246" t="n">
-        <v>0.1415899244339873</v>
+        <v>0.1422926975028297</v>
       </c>
     </row>
     <row r="247" ht="15" customHeight="1">
       <c r="F247" t="n">
-        <v>0.01439722311596532</v>
+        <v>0.02218863237613593</v>
       </c>
       <c r="G247" t="n">
-        <v>0.1361053704462888</v>
+        <v>0.1430788450028454</v>
       </c>
       <c r="J247" t="n">
-        <v>0.02251743868398082</v>
+        <v>0.04487865108869987</v>
       </c>
       <c r="K247" t="n">
-        <v>0.1452602709467505</v>
+        <v>0.1424403949236202</v>
       </c>
       <c r="L247" t="n">
-        <v>0.06390973680012391</v>
+        <v>0.05902275274883367</v>
       </c>
       <c r="M247" t="n">
-        <v>0.1401054584580645</v>
+        <v>0.1412946671234598</v>
       </c>
       <c r="N247" t="n">
-        <v>0.1431220730844056</v>
+        <v>0.02218863237613593</v>
       </c>
       <c r="O247" t="n">
-        <v>0.1423721892098657</v>
+        <v>0.1430788450028454</v>
       </c>
     </row>
     <row r="248" ht="15" customHeight="1">
       <c r="F248" t="n">
-        <v>0.01212864848988809</v>
+        <v>0.02191893424035635</v>
       </c>
       <c r="G248" t="n">
-        <v>0.1368532021520376</v>
+        <v>0.143864992502861</v>
       </c>
       <c r="J248" t="n">
-        <v>0.02224475787315654</v>
+        <v>0.04426332103898525</v>
       </c>
       <c r="K248" t="n">
-        <v>0.1460584043036008</v>
+        <v>0.1432230344561676</v>
       </c>
       <c r="L248" t="n">
-        <v>0.06256749229688399</v>
+        <v>0.05885854165041715</v>
       </c>
       <c r="M248" t="n">
-        <v>0.1408752686693726</v>
+        <v>0.1420710114483139</v>
       </c>
       <c r="N248" t="n">
-        <v>0.1432550289750067</v>
+        <v>0.02191893424035635</v>
       </c>
       <c r="O248" t="n">
-        <v>0.143154453985744</v>
+        <v>0.143864992502861</v>
       </c>
     </row>
     <row r="249" ht="15" customHeight="1">
       <c r="F249" t="n">
-        <v>0.0118570269778272</v>
+        <v>0.02164333411357929</v>
       </c>
       <c r="G249" t="n">
-        <v>0.1376010338577865</v>
+        <v>0.1446511400028766</v>
       </c>
       <c r="J249" t="n">
-        <v>0.02186868661851278</v>
+        <v>0.04414651128299071</v>
       </c>
       <c r="K249" t="n">
-        <v>0.1468565376604511</v>
+        <v>0.1440056739887149</v>
       </c>
       <c r="L249" t="n">
-        <v>0.06241786853396486</v>
+        <v>0.05961376566412407</v>
       </c>
       <c r="M249" t="n">
-        <v>0.1416450788806806</v>
+        <v>0.1428473557731681</v>
       </c>
       <c r="N249" t="n">
-        <v>0.1441085919738864</v>
+        <v>0.02164333411357929</v>
       </c>
       <c r="O249" t="n">
-        <v>0.1439367187616224</v>
+        <v>0.1446511400028766</v>
       </c>
     </row>
     <row r="250" ht="15" customHeight="1">
       <c r="F250" t="n">
-        <v>0.01158239755904657</v>
+        <v>0.02126198788090534</v>
       </c>
       <c r="G250" t="n">
-        <v>0.1383488655635353</v>
+        <v>0.1454372875028923</v>
       </c>
       <c r="J250" t="n">
-        <v>0.0215892474824062</v>
+        <v>0.04362821341739562</v>
       </c>
       <c r="K250" t="n">
-        <v>0.1476546710173014</v>
+        <v>0.1447883135212623</v>
       </c>
       <c r="L250" t="n">
-        <v>0.06156091579262996</v>
+        <v>0.0593887653251437</v>
       </c>
       <c r="M250" t="n">
-        <v>0.1424148890919887</v>
+        <v>0.1436237000980223</v>
       </c>
       <c r="N250" t="n">
-        <v>0.1447832411790406</v>
+        <v>0.02126198788090534</v>
       </c>
       <c r="O250" t="n">
-        <v>0.1447189835375008</v>
+        <v>0.1454372875028923</v>
       </c>
     </row>
     <row r="251" ht="15" customHeight="1">
       <c r="F251" t="n">
-        <v>0.01230479921281013</v>
+        <v>0.02117505142743512</v>
       </c>
       <c r="G251" t="n">
-        <v>0.1390966972692841</v>
+        <v>0.1462234350029079</v>
       </c>
       <c r="J251" t="n">
-        <v>0.02100646302719349</v>
+        <v>0.04310841903887933</v>
       </c>
       <c r="K251" t="n">
-        <v>0.1484528043741516</v>
+        <v>0.1455709530538097</v>
       </c>
       <c r="L251" t="n">
-        <v>0.06009668435414275</v>
+        <v>0.05848388116866565</v>
       </c>
       <c r="M251" t="n">
-        <v>0.1431846993032967</v>
+        <v>0.1444000444228765</v>
       </c>
       <c r="N251" t="n">
-        <v>0.1447794556884649</v>
+        <v>0.02117505142743512</v>
       </c>
       <c r="O251" t="n">
-        <v>0.1455012483133792</v>
+        <v>0.1462234350029079</v>
       </c>
     </row>
     <row r="252" ht="15" customHeight="1">
       <c r="F252" t="n">
-        <v>0.01302427091838183</v>
+        <v>0.02058268063826918</v>
       </c>
       <c r="G252" t="n">
-        <v>0.139844528975033</v>
+        <v>0.1470095825029235</v>
       </c>
       <c r="J252" t="n">
-        <v>0.02062035581523135</v>
+        <v>0.04218711974412118</v>
       </c>
       <c r="K252" t="n">
-        <v>0.1492509377310019</v>
+        <v>0.1463535925863571</v>
       </c>
       <c r="L252" t="n">
-        <v>0.05982522449976671</v>
+        <v>0.05829945372987927</v>
       </c>
       <c r="M252" t="n">
-        <v>0.1439545095146048</v>
+        <v>0.1451763887477306</v>
       </c>
       <c r="N252" t="n">
-        <v>0.1450977146001554</v>
+        <v>0.02058268063826918</v>
       </c>
       <c r="O252" t="n">
-        <v>0.1462835130892576</v>
+        <v>0.1470095825029235</v>
       </c>
     </row>
     <row r="253" ht="15" customHeight="1">
       <c r="F253" t="n">
-        <v>0.01174085165502557</v>
+        <v>0.02048503139850812</v>
       </c>
       <c r="G253" t="n">
-        <v>0.1405923606807818</v>
+        <v>0.1477957300029392</v>
       </c>
       <c r="J253" t="n">
-        <v>0.02053094840887644</v>
+        <v>0.04186430712980047</v>
       </c>
       <c r="K253" t="n">
-        <v>0.1500490710878522</v>
+        <v>0.1471362321189044</v>
       </c>
       <c r="L253" t="n">
-        <v>0.05934658651076527</v>
+        <v>0.05783582354397387</v>
       </c>
       <c r="M253" t="n">
-        <v>0.1447243197259128</v>
+        <v>0.1459527330725848</v>
       </c>
       <c r="N253" t="n">
-        <v>0.1466384970121078</v>
+        <v>0.02048503139850812</v>
       </c>
       <c r="O253" t="n">
-        <v>0.1470657778651359</v>
+        <v>0.1477957300029392</v>
       </c>
     </row>
     <row r="254" ht="15" customHeight="1">
       <c r="F254" t="n">
-        <v>0.01245458040200531</v>
+        <v>0.01998225959325253</v>
       </c>
       <c r="G254" t="n">
-        <v>0.1413401923865306</v>
+        <v>0.1485818775029548</v>
       </c>
       <c r="J254" t="n">
-        <v>0.01993826337048547</v>
+        <v>0.04093997279259654</v>
       </c>
       <c r="K254" t="n">
-        <v>0.1508472044447025</v>
+        <v>0.1479188716514518</v>
       </c>
       <c r="L254" t="n">
-        <v>0.05786082066840184</v>
+        <v>0.05819333114613912</v>
       </c>
       <c r="M254" t="n">
-        <v>0.1454941299372209</v>
+        <v>0.146729077397439</v>
       </c>
       <c r="N254" t="n">
-        <v>0.147202282022318</v>
+        <v>0.01998225959325253</v>
       </c>
       <c r="O254" t="n">
-        <v>0.1478480426410143</v>
+        <v>0.1485818775029548</v>
       </c>
     </row>
     <row r="255" ht="15" customHeight="1">
       <c r="F255" t="n">
-        <v>0.01216549613858497</v>
+        <v>0.019974521107603</v>
       </c>
       <c r="G255" t="n">
-        <v>0.1420880240922795</v>
+        <v>0.1493680250029704</v>
       </c>
       <c r="J255" t="n">
-        <v>0.01954232326241516</v>
+        <v>0.04081410832918883</v>
       </c>
       <c r="K255" t="n">
-        <v>0.1516453378015528</v>
+        <v>0.1487015111839991</v>
       </c>
       <c r="L255" t="n">
-        <v>0.05786797725393986</v>
+        <v>0.05737231707156415</v>
       </c>
       <c r="M255" t="n">
-        <v>0.1462639401485289</v>
+        <v>0.1475054217222932</v>
       </c>
       <c r="N255" t="n">
-        <v>0.1471895487287819</v>
+        <v>0.019974521107603</v>
       </c>
       <c r="O255" t="n">
-        <v>0.1486303074168927</v>
+        <v>0.1493680250029704</v>
       </c>
     </row>
     <row r="256" ht="15" customHeight="1">
       <c r="F256" t="n">
-        <v>0.01187363784402849</v>
+        <v>0.01966197182666012</v>
       </c>
       <c r="G256" t="n">
-        <v>0.1428358557980283</v>
+        <v>0.1501541725029861</v>
       </c>
       <c r="J256" t="n">
-        <v>0.01924315064702216</v>
+        <v>0.0402867053362565</v>
       </c>
       <c r="K256" t="n">
-        <v>0.152443471158403</v>
+        <v>0.1494841507165465</v>
       </c>
       <c r="L256" t="n">
-        <v>0.05636810654864277</v>
+        <v>0.05747312185543857</v>
       </c>
       <c r="M256" t="n">
-        <v>0.147033750359837</v>
+        <v>0.1482817660471473</v>
       </c>
       <c r="N256" t="n">
-        <v>0.1483007762294953</v>
+        <v>0.01966197182666012</v>
       </c>
       <c r="O256" t="n">
-        <v>0.1494125721927711</v>
+        <v>0.1501541725029861</v>
       </c>
     </row>
     <row r="257" ht="15" customHeight="1">
       <c r="F257" t="n">
-        <v>0.01057904449759978</v>
+        <v>0.0190447676355245</v>
       </c>
       <c r="G257" t="n">
-        <v>0.1435836875037772</v>
+        <v>0.1509403200030017</v>
       </c>
       <c r="J257" t="n">
-        <v>0.01894076808666315</v>
+        <v>0.04005775541047901</v>
       </c>
       <c r="K257" t="n">
-        <v>0.1532416045152533</v>
+        <v>0.1502667902490939</v>
       </c>
       <c r="L257" t="n">
-        <v>0.05546125883377404</v>
+        <v>0.05689608603295165</v>
       </c>
       <c r="M257" t="n">
-        <v>0.147803560571145</v>
+        <v>0.1490581103720015</v>
       </c>
       <c r="N257" t="n">
-        <v>0.1494364436224541</v>
+        <v>0.0190447676355245</v>
       </c>
       <c r="O257" t="n">
-        <v>0.1501948369686495</v>
+        <v>0.1509403200030017</v>
       </c>
     </row>
     <row r="258" ht="15" customHeight="1">
       <c r="F258" t="n">
-        <v>0.01128175507856281</v>
+        <v>0.01892306441929667</v>
       </c>
       <c r="G258" t="n">
-        <v>0.144331519209526</v>
+        <v>0.1517264675030173</v>
       </c>
       <c r="J258" t="n">
-        <v>0.01833519814369483</v>
+        <v>0.03912725014853566</v>
       </c>
       <c r="K258" t="n">
-        <v>0.1540397378721036</v>
+        <v>0.1510494297816412</v>
       </c>
       <c r="L258" t="n">
-        <v>0.05534748439059708</v>
+        <v>0.05764155013929295</v>
       </c>
       <c r="M258" t="n">
-        <v>0.1485733707824531</v>
+        <v>0.1498344546968557</v>
       </c>
       <c r="N258" t="n">
-        <v>0.1495970300056541</v>
+        <v>0.01892306441929667</v>
       </c>
       <c r="O258" t="n">
-        <v>0.1509771017445279</v>
+        <v>0.1517264675030173</v>
       </c>
     </row>
     <row r="259" ht="15" customHeight="1">
       <c r="F259" t="n">
-        <v>0.009981808566181478</v>
+        <v>0.01839701806307728</v>
       </c>
       <c r="G259" t="n">
-        <v>0.1450793509152749</v>
+        <v>0.152512615003033</v>
       </c>
       <c r="J259" t="n">
-        <v>0.01802646338047392</v>
+        <v>0.03809518114710581</v>
       </c>
       <c r="K259" t="n">
-        <v>0.1548378712289539</v>
+        <v>0.1518320693141886</v>
       </c>
       <c r="L259" t="n">
-        <v>0.05432683350037537</v>
+        <v>0.05700985470965175</v>
       </c>
       <c r="M259" t="n">
-        <v>0.1493431809937611</v>
+        <v>0.1506107990217098</v>
       </c>
       <c r="N259" t="n">
-        <v>0.1497830144770911</v>
+        <v>0.01839701806307728</v>
       </c>
       <c r="O259" t="n">
-        <v>0.1517593665204063</v>
+        <v>0.152512615003033</v>
       </c>
     </row>
     <row r="260" ht="15" customHeight="1">
       <c r="F260" t="n">
-        <v>0.008679243939719729</v>
+        <v>0.01826678445196687</v>
       </c>
       <c r="G260" t="n">
-        <v>0.1458271826210237</v>
+        <v>0.1532987625030486</v>
       </c>
       <c r="J260" t="n">
-        <v>0.01751458635935707</v>
+        <v>0.03836154000286882</v>
       </c>
       <c r="K260" t="n">
-        <v>0.1556360045858041</v>
+        <v>0.1526147088467359</v>
       </c>
       <c r="L260" t="n">
-        <v>0.05379935644437234</v>
+        <v>0.05610134027921754</v>
       </c>
       <c r="M260" t="n">
-        <v>0.1501129912050691</v>
+        <v>0.151387143346564</v>
       </c>
       <c r="N260" t="n">
-        <v>0.150594876134761</v>
+        <v>0.01826678445196687</v>
       </c>
       <c r="O260" t="n">
-        <v>0.1525416312962846</v>
+        <v>0.1532987625030486</v>
       </c>
     </row>
     <row r="261" ht="15" customHeight="1">
       <c r="F261" t="n">
-        <v>0.008374100178441486</v>
+        <v>0.0177325194710661</v>
       </c>
       <c r="G261" t="n">
-        <v>0.1465750143267725</v>
+        <v>0.1540849100030642</v>
       </c>
       <c r="J261" t="n">
-        <v>0.01709958964270099</v>
+        <v>0.03772631831250389</v>
       </c>
       <c r="K261" t="n">
-        <v>0.1564341379426544</v>
+        <v>0.1533973483792833</v>
       </c>
       <c r="L261" t="n">
-        <v>0.05246510350385139</v>
+        <v>0.0569163473831798</v>
       </c>
       <c r="M261" t="n">
-        <v>0.1508828014163772</v>
+        <v>0.1521634876714182</v>
       </c>
       <c r="N261" t="n">
-        <v>0.1520330940766598</v>
+        <v>0.0177325194710661</v>
       </c>
       <c r="O261" t="n">
-        <v>0.153323896072163</v>
+        <v>0.1540849100030642</v>
       </c>
     </row>
     <row r="262" ht="15" customHeight="1">
       <c r="F262" t="n">
-        <v>0.0100664162616107</v>
+        <v>0.01739437900547551</v>
       </c>
       <c r="G262" t="n">
-        <v>0.1473228460325214</v>
+        <v>0.1548710575030799</v>
       </c>
       <c r="J262" t="n">
-        <v>0.01658149579286237</v>
+        <v>0.0366895076726905</v>
       </c>
       <c r="K262" t="n">
-        <v>0.1572322712995047</v>
+        <v>0.1541799879118307</v>
       </c>
       <c r="L262" t="n">
-        <v>0.05192412496007601</v>
+        <v>0.05705521655672779</v>
       </c>
       <c r="M262" t="n">
-        <v>0.1516526116276852</v>
+        <v>0.1529398319962724</v>
       </c>
       <c r="N262" t="n">
-        <v>0.152598147400783</v>
+        <v>0.01739437900547551</v>
       </c>
       <c r="O262" t="n">
-        <v>0.1541061608480414</v>
+        <v>0.1548710575030799</v>
       </c>
     </row>
     <row r="263" ht="15" customHeight="1">
       <c r="F263" t="n">
-        <v>0.009756231168491281</v>
+        <v>0.01725251894029564</v>
       </c>
       <c r="G263" t="n">
-        <v>0.1480706777382702</v>
+        <v>0.1556572050030955</v>
       </c>
       <c r="J263" t="n">
-        <v>0.01646032737219789</v>
+        <v>0.03635109968010797</v>
       </c>
       <c r="K263" t="n">
-        <v>0.158030404656355</v>
+        <v>0.154962627444378</v>
       </c>
       <c r="L263" t="n">
-        <v>0.0510764710943096</v>
+        <v>0.05681828833505104</v>
       </c>
       <c r="M263" t="n">
-        <v>0.1524224218389933</v>
+        <v>0.1537161763211266</v>
       </c>
       <c r="N263" t="n">
-        <v>0.1526905152051269</v>
+        <v>0.01725251894029564</v>
       </c>
       <c r="O263" t="n">
-        <v>0.1548884256239198</v>
+        <v>0.1556572050030955</v>
       </c>
     </row>
     <row r="264" ht="15" customHeight="1">
       <c r="F264" t="n">
-        <v>0.007443583878347169</v>
+        <v>0.01690709516062719</v>
       </c>
       <c r="G264" t="n">
-        <v>0.1488185094440191</v>
+        <v>0.1564433525031111</v>
       </c>
       <c r="J264" t="n">
-        <v>0.01603610694306425</v>
+        <v>0.03561108593143555</v>
       </c>
       <c r="K264" t="n">
-        <v>0.1588285380132053</v>
+        <v>0.1557452669769254</v>
       </c>
       <c r="L264" t="n">
-        <v>0.04952219218781564</v>
+        <v>0.05610590325333897</v>
       </c>
       <c r="M264" t="n">
-        <v>0.1531922320503013</v>
+        <v>0.1544925206459807</v>
       </c>
       <c r="N264" t="n">
-        <v>0.154510676587687</v>
+        <v>0.01690709516062719</v>
       </c>
       <c r="O264" t="n">
-        <v>0.1556706903997982</v>
+        <v>0.1564433525031111</v>
       </c>
     </row>
     <row r="265" ht="15" customHeight="1"/>

--- a/prot/ООО Регионстрой/Трехосные_КД_ПП/1252.xlsx
+++ b/prot/ООО Регионстрой/Трехосные_КД_ПП/1252.xlsx
@@ -4884,7 +4884,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A1:BF264"/>
+  <dimension ref="A1:BF464"/>
   <sheetViews>
     <sheetView tabSelected="1" view="pageBreakPreview" topLeftCell="A3" zoomScale="70" zoomScaleNormal="40" zoomScaleSheetLayoutView="85" workbookViewId="0">
       <selection activeCell="J22" sqref="J22"/>
@@ -8491,8 +8491,14 @@
     </row>
     <row r="47" ht="16.5" customHeight="1">
       <c r="A47" s="144" t="n"/>
-      <c r="B47" s="144" t="n"/>
-      <c r="C47" s="144" t="n"/>
+      <c r="B47" s="144" t="inlineStr">
+        <is>
+          <t>K0, д.е.</t>
+        </is>
+      </c>
+      <c r="C47" s="144" t="n">
+        <v>0.775048945656135</v>
+      </c>
       <c r="D47" s="144" t="n"/>
       <c r="E47" s="144" t="n"/>
       <c r="F47" s="144" t="n"/>
@@ -8549,8 +8555,14 @@
     </row>
     <row r="48" ht="16.5" customHeight="1">
       <c r="A48" s="144" t="n"/>
-      <c r="B48" s="144" t="n"/>
-      <c r="C48" s="144" t="n"/>
+      <c r="B48" s="144" t="inlineStr">
+        <is>
+          <t>q_zg, МПа</t>
+        </is>
+      </c>
+      <c r="C48" s="144" t="n">
+        <v>0.03875244728280675</v>
+      </c>
       <c r="D48" s="144" t="n"/>
       <c r="E48" s="144" t="n"/>
       <c r="F48" s="144" t="n"/>
@@ -8700,12 +8712,20 @@
         <f>B70/A70</f>
         <v/>
       </c>
-      <c r="F50" s="144" t="n"/>
+      <c r="F50" s="144" t="inlineStr">
+        <is>
+          <t>Точки модуля (полное напр.), МПа</t>
+        </is>
+      </c>
       <c r="G50" s="144" t="n"/>
       <c r="H50" s="144" t="n"/>
       <c r="I50" s="144" t="n"/>
-      <c r="J50" s="144" t="n"/>
-      <c r="K50" s="144" t="n"/>
+      <c r="J50" s="144" t="n">
+        <v>0.03875244728280675</v>
+      </c>
+      <c r="K50" s="144" t="n">
+        <v>0.0620039156524908</v>
+      </c>
       <c r="L50" s="144" t="n"/>
       <c r="N50" s="148">
         <f>J50</f>
@@ -8782,11 +8802,17 @@
         <f>A65/B65</f>
         <v/>
       </c>
-      <c r="F51" s="144" t="n"/>
+      <c r="F51" s="144" t="inlineStr">
+        <is>
+          <t>qf (полное напр.), МПа</t>
+        </is>
+      </c>
       <c r="G51" s="144" t="n"/>
       <c r="H51" s="144" t="n"/>
       <c r="I51" s="144" t="n"/>
-      <c r="J51" s="144" t="n"/>
+      <c r="J51" s="144" t="n">
+        <v>0.08425146836968406</v>
+      </c>
       <c r="K51" s="144" t="n"/>
       <c r="L51" s="144" t="n"/>
       <c r="M51" s="1" t="n"/>
@@ -9232,10 +9258,10 @@
     </row>
     <row r="65">
       <c r="A65" t="n">
-        <v>0.01954074392490505</v>
+        <v>0.03425146836968405</v>
       </c>
       <c r="B65" t="n">
-        <v>0.01212800519687042</v>
+        <v>0.01404271110820086</v>
       </c>
       <c r="C65" s="151">
         <f>MATCH(A65,F65:F1000,1)-A67</f>
@@ -9292,29 +9318,29 @@
         </is>
       </c>
       <c r="F66" s="170" t="n">
-        <v>0.001889034146716033</v>
+        <v>0.001278708602455124</v>
       </c>
       <c r="G66" s="171" t="n">
-        <v>0.0007861475000156339</v>
+        <v>0.0006465172839212208</v>
       </c>
       <c r="H66" s="171" t="n"/>
       <c r="J66" s="170" t="n">
-        <v>0.005133008280991169</v>
+        <v>0.00214352102779064</v>
       </c>
       <c r="K66" s="171" t="n">
-        <v>0.0007826395325473639</v>
+        <v>0.0007861475000156339</v>
       </c>
       <c r="L66" s="172" t="n">
-        <v>0.0121742633254035</v>
+        <v>0.006586426989993177</v>
       </c>
       <c r="M66" s="170" t="n">
-        <v>0.0007763443248541745</v>
+        <v>0.0007772269205693772</v>
       </c>
       <c r="N66" s="171" t="n">
-        <v>0.001889034146716033</v>
+        <v>0.01019085979817219</v>
       </c>
       <c r="O66" s="172" t="n">
-        <v>0.0007861475000156339</v>
+        <v>0.0007812217833584227</v>
       </c>
       <c r="Q66" s="151" t="inlineStr">
         <is>
@@ -9332,29 +9358,29 @@
         <v>2</v>
       </c>
       <c r="F67" s="170" t="n">
-        <v>0.004103416125373238</v>
+        <v>0.002592903065693174</v>
       </c>
       <c r="G67" s="171" t="n">
-        <v>0.001572295000031268</v>
+        <v>0.001293034567842442</v>
       </c>
       <c r="H67" s="171" t="n"/>
       <c r="J67" s="170" t="n">
-        <v>0.007999999999999979</v>
+        <v>0.004291515908966904</v>
       </c>
       <c r="K67" s="171" t="n">
-        <v>0.001273132664437009</v>
+        <v>0.001572295000031268</v>
       </c>
       <c r="L67" s="172" t="n">
-        <v>0.02494021139871266</v>
+        <v>0.01402552154825415</v>
       </c>
       <c r="M67" s="170" t="n">
-        <v>0.001552688649708349</v>
+        <v>0.001554453841138754</v>
       </c>
       <c r="N67" s="171" t="n">
-        <v>0.004103416125373238</v>
+        <v>0.02109314901665393</v>
       </c>
       <c r="O67" s="172" t="n">
-        <v>0.001572295000031268</v>
+        <v>0.001562443566716845</v>
       </c>
       <c r="Q67" s="151" t="inlineStr">
         <is>
@@ -9374,29 +9400,29 @@
         </is>
       </c>
       <c r="F68" s="170" t="n">
-        <v>0.005701577558495013</v>
+        <v>0.003941075097386199</v>
       </c>
       <c r="G68" s="171" t="n">
-        <v>0.002358442500046902</v>
+        <v>0.001939551851763663</v>
       </c>
       <c r="H68" s="171" t="n"/>
       <c r="J68" s="170" t="n">
-        <v>0.0131043340473061</v>
+        <v>0.006318039019363474</v>
       </c>
       <c r="K68" s="171" t="n">
-        <v>0.002347918597642092</v>
+        <v>0.002358442500046902</v>
       </c>
       <c r="L68" s="172" t="n">
-        <v>0.03769967094364463</v>
+        <v>0.02028910608090553</v>
       </c>
       <c r="M68" s="170" t="n">
-        <v>0.002329032974562524</v>
+        <v>0.002331680761708132</v>
       </c>
       <c r="N68" s="171" t="n">
-        <v>0.005701577558495013</v>
+        <v>0.03178424384496675</v>
       </c>
       <c r="O68" s="172" t="n">
-        <v>0.002358442500046902</v>
+        <v>0.002343665350075268</v>
       </c>
       <c r="Q68" s="151" t="inlineStr">
         <is>
@@ -9421,29 +9447,29 @@
         </is>
       </c>
       <c r="F69" s="170" t="n">
-        <v>0.007541950068604773</v>
+        <v>0.005321716405206227</v>
       </c>
       <c r="G69" s="171" t="n">
-        <v>0.003144590000062536</v>
+        <v>0.002586069135684883</v>
       </c>
       <c r="H69" s="171" t="n"/>
       <c r="J69" s="170" t="n">
-        <v>0.01668285086183999</v>
+        <v>0.007997144734815047</v>
       </c>
       <c r="K69" s="171" t="n">
-        <v>0.003130558130189455</v>
+        <v>0.003144590000062536</v>
       </c>
       <c r="L69" s="172" t="n">
-        <v>0.04695446868391639</v>
+        <v>0.02594900299407008</v>
       </c>
       <c r="M69" s="170" t="n">
-        <v>0.003105377299416698</v>
+        <v>0.003108907682277509</v>
       </c>
       <c r="N69" s="171" t="n">
-        <v>0.007541950068604773</v>
+        <v>0.04094152047263228</v>
       </c>
       <c r="O69" s="172" t="n">
-        <v>0.003144590000062536</v>
+        <v>0.003124887133433691</v>
       </c>
       <c r="Q69" s="151" t="inlineStr">
         <is>
@@ -9458,62 +9484,62 @@
     </row>
     <row r="70" ht="15" customHeight="1">
       <c r="A70" t="n">
-        <v>0.004344565217391303</v>
+        <v>0.01010175207322034</v>
       </c>
       <c r="B70" t="n">
-        <v>0.009999999999999995</v>
+        <v>0.02325146836968405</v>
       </c>
       <c r="F70" s="170" t="n">
-        <v>0.009082965278225899</v>
+        <v>0.00673331869682528</v>
       </c>
       <c r="G70" s="171" t="n">
-        <v>0.00393073750007817</v>
+        <v>0.003232586419606104</v>
       </c>
       <c r="H70" s="171" t="n"/>
       <c r="J70" s="170" t="n">
-        <v>0.02125391818981873</v>
+        <v>0.009802887431156301</v>
       </c>
       <c r="K70" s="171" t="n">
-        <v>0.00391319766273682</v>
+        <v>0.00393073750007817</v>
       </c>
       <c r="L70" s="172" t="n">
-        <v>0.05620643134324532</v>
+        <v>0.03007703469387046</v>
       </c>
       <c r="M70" s="170" t="n">
-        <v>0.003881721624270873</v>
+        <v>0.003886134602846886</v>
       </c>
       <c r="N70" s="171" t="n">
-        <v>0.009082965278225899</v>
+        <v>0.04864235508917197</v>
       </c>
       <c r="O70" s="172" t="n">
-        <v>0.00393073750007817</v>
+        <v>0.003906108916792113</v>
       </c>
     </row>
     <row r="71">
       <c r="F71" s="170" t="n">
-        <v>0.009999999999999995</v>
+        <v>0.008174373679915421</v>
       </c>
       <c r="G71" s="171" t="n">
-        <v>0.004344565217391303</v>
+        <v>0.003879103703527325</v>
       </c>
       <c r="H71" s="171" t="n"/>
       <c r="J71" s="170" t="n">
-        <v>0.02439876434834029</v>
+        <v>0.01140932148422191</v>
       </c>
       <c r="K71" s="171" t="n">
-        <v>0.004695837195284183</v>
+        <v>0.004716885000093803</v>
       </c>
       <c r="L71" s="172" t="n">
-        <v>0.06235738564534826</v>
+        <v>0.03399999999999997</v>
       </c>
       <c r="M71" s="170" t="n">
-        <v>0.004658065949125047</v>
+        <v>0.00455911164787976</v>
       </c>
       <c r="N71" s="171" t="n">
-        <v>0.009999999999999995</v>
+        <v>0.05566412388410752</v>
       </c>
       <c r="O71" s="172" t="n">
-        <v>0.004344565217391303</v>
+        <v>0.004687330700150536</v>
       </c>
     </row>
     <row r="72">
@@ -9528,29 +9554,29 @@
         </is>
       </c>
       <c r="F72" s="170" t="n">
-        <v>0.0117236527109717</v>
+        <v>0.009643373062148658</v>
       </c>
       <c r="G72" s="171" t="n">
-        <v>0.005503032500109438</v>
+        <v>0.004525620987448546</v>
       </c>
       <c r="H72" s="171" t="n"/>
       <c r="J72" s="170" t="n">
-        <v>0.02859861765450245</v>
+        <v>0.013</v>
       </c>
       <c r="K72" s="171" t="n">
-        <v>0.005478476727831547</v>
+        <v>0.005647934782608695</v>
       </c>
       <c r="L72" s="172" t="n">
-        <v>0.068</v>
+        <v>0.03748461637149406</v>
       </c>
       <c r="M72" s="170" t="n">
-        <v>0.005522064201544089</v>
+        <v>0.00544058844398564</v>
       </c>
       <c r="N72" s="171" t="n">
-        <v>0.0117236527109717</v>
+        <v>0.06058420304696044</v>
       </c>
       <c r="O72" s="172" t="n">
-        <v>0.005503032500109438</v>
+        <v>0.005468552483508959</v>
       </c>
     </row>
     <row r="73">
@@ -9574,29 +9600,29 @@
         <v/>
       </c>
       <c r="F73" s="170" t="n">
-        <v>0.01286889915754996</v>
+        <v>0.01113880855119704</v>
       </c>
       <c r="G73" s="171" t="n">
-        <v>0.006289180000125071</v>
+        <v>0.005172138271369767</v>
       </c>
       <c r="H73" s="171" t="n"/>
       <c r="J73" s="170" t="n">
-        <v>0.03223470642540319</v>
+        <v>0.01357012689385495</v>
       </c>
       <c r="K73" s="171" t="n">
-        <v>0.006261116260378911</v>
+        <v>0.006289180000125071</v>
       </c>
       <c r="L73" s="172" t="n">
-        <v>0.06940381437128179</v>
+        <v>0.04004829539806123</v>
       </c>
       <c r="M73" s="170" t="n">
-        <v>0.006210754598833396</v>
+        <v>0.006217815364555018</v>
       </c>
       <c r="N73" s="171" t="n">
-        <v>0.01286889915754996</v>
+        <v>0.066</v>
       </c>
       <c r="O73" s="172" t="n">
-        <v>0.006289180000125071</v>
+        <v>0.006302006688963212</v>
       </c>
     </row>
     <row r="74">
@@ -9611,29 +9637,29 @@
         </is>
       </c>
       <c r="F74" s="170" t="n">
-        <v>0.01394401636735293</v>
+        <v>0.01265917185473259</v>
       </c>
       <c r="G74" s="171" t="n">
-        <v>0.007075327500140705</v>
+        <v>0.005818655555290988</v>
       </c>
       <c r="H74" s="171" t="n"/>
       <c r="J74" s="170" t="n">
-        <v>0.03478825897814039</v>
+        <v>0.01484160648353623</v>
       </c>
       <c r="K74" s="171" t="n">
-        <v>0.007043755792926274</v>
+        <v>0.007075327500140705</v>
       </c>
       <c r="L74" s="172" t="n">
-        <v>0.07276867014693295</v>
+        <v>0.04258759836018897</v>
       </c>
       <c r="M74" s="170" t="n">
-        <v>0.006987098923687571</v>
+        <v>0.006995042285124395</v>
       </c>
       <c r="N74" s="171" t="n">
-        <v>0.01394401636735293</v>
+        <v>0.06750984834171508</v>
       </c>
       <c r="O74" s="172" t="n">
-        <v>0.007075327500140705</v>
+        <v>0.007030996050225805</v>
       </c>
     </row>
     <row r="75">
@@ -9655,29 +9681,29 @@
         </is>
       </c>
       <c r="F75" s="170" t="n">
-        <v>0.01475289155981124</v>
+        <v>0.01420295468042736</v>
       </c>
       <c r="G75" s="171" t="n">
-        <v>0.00786147500015634</v>
+        <v>0.006465172839212208</v>
       </c>
       <c r="H75" s="171" t="n"/>
       <c r="J75" s="170" t="n">
-        <v>0.03794050362981191</v>
+        <v>0.01572188423458902</v>
       </c>
       <c r="K75" s="171" t="n">
-        <v>0.007826395325473639</v>
+        <v>0.00786147500015634</v>
       </c>
       <c r="L75" s="172" t="n">
-        <v>0.07392114610323047</v>
+        <v>0.04464815247310919</v>
       </c>
       <c r="M75" s="170" t="n">
-        <v>0.007763443248541745</v>
+        <v>0.007772269205693772</v>
       </c>
       <c r="N75" s="171" t="n">
-        <v>0.01475289155981124</v>
+        <v>0.07054623378157188</v>
       </c>
       <c r="O75" s="172" t="n">
-        <v>0.00786147500015634</v>
+        <v>0.007812217833584227</v>
       </c>
     </row>
     <row r="76">
@@ -9697,29 +9723,29 @@
         <v>0</v>
       </c>
       <c r="F76" s="170" t="n">
-        <v>0.01599941195435546</v>
+        <v>0.01576864873595336</v>
       </c>
       <c r="G76" s="171" t="n">
-        <v>0.008647622500171974</v>
+        <v>0.00711169012313343</v>
       </c>
       <c r="H76" s="171" t="n"/>
       <c r="J76" s="170" t="n">
-        <v>0.04107266869751566</v>
+        <v>0.01642559910820766</v>
       </c>
       <c r="K76" s="171" t="n">
-        <v>0.008609034858021003</v>
+        <v>0.008647622500171974</v>
       </c>
       <c r="L76" s="172" t="n">
-        <v>0.07637099039502404</v>
+        <v>0.04657558495205377</v>
       </c>
       <c r="M76" s="170" t="n">
-        <v>0.008539787573395921</v>
+        <v>0.008549496126263149</v>
       </c>
       <c r="N76" s="171" t="n">
-        <v>0.01599941195435546</v>
+        <v>0.0714938186793761</v>
       </c>
       <c r="O76" s="172" t="n">
-        <v>0.008647622500171974</v>
+        <v>0.008593439616942649</v>
       </c>
     </row>
     <row r="77" ht="15" customHeight="1">
@@ -9734,28 +9760,28 @@
         </is>
       </c>
       <c r="F77" t="n">
-        <v>0.01658746477041624</v>
+        <v>0.01735474572898266</v>
       </c>
       <c r="G77" t="n">
+        <v>0.00775820740705465</v>
+      </c>
+      <c r="J77" t="n">
+        <v>0.01696739006558649</v>
+      </c>
+      <c r="K77" t="n">
         <v>0.009433770000187606</v>
       </c>
-      <c r="J77" t="n">
-        <v>0.04306598249834953</v>
-      </c>
-      <c r="K77" t="n">
-        <v>0.009391674390568367</v>
-      </c>
       <c r="L77" t="n">
-        <v>0.07758896284182204</v>
+        <v>0.04856485338336355</v>
       </c>
       <c r="M77" t="n">
-        <v>0.009001076347557984</v>
+        <v>0.009303049946960743</v>
       </c>
       <c r="N77" t="n">
-        <v>0.01658746477041624</v>
+        <v>0.07475558298026286</v>
       </c>
       <c r="O77" t="n">
-        <v>0.009433770000187606</v>
+        <v>0.009374661400301071</v>
       </c>
     </row>
     <row r="78" ht="15" customHeight="1">
@@ -9774,28 +9800,28 @@
         <v/>
       </c>
       <c r="F78" t="n">
-        <v>0.01752093722742411</v>
+        <v>0.01895973736718726</v>
       </c>
       <c r="G78" t="n">
+        <v>0.008404724690975871</v>
+      </c>
+      <c r="J78" t="n">
+        <v>0.01766189606791987</v>
+      </c>
+      <c r="K78" t="n">
         <v>0.01021991750020324</v>
       </c>
-      <c r="J78" t="n">
-        <v>0.04580167334941143</v>
-      </c>
-      <c r="K78" t="n">
-        <v>0.01017431392311573</v>
-      </c>
       <c r="L78" t="n">
-        <v>0.08042727155461371</v>
+        <v>0.04968073566781694</v>
       </c>
       <c r="M78" t="n">
-        <v>0.01009247622310427</v>
+        <v>0.0101039499674019</v>
       </c>
       <c r="N78" t="n">
-        <v>0.01752093722742411</v>
+        <v>0.07633450662936725</v>
       </c>
       <c r="O78" t="n">
-        <v>0.01021991750020324</v>
+        <v>0.01015588318365949</v>
       </c>
     </row>
     <row r="79" ht="15" customHeight="1">
@@ -9816,28 +9842,28 @@
         <v/>
       </c>
       <c r="F79" t="n">
-        <v>0.01830371654480974</v>
+        <v>0.02058211535823921</v>
       </c>
       <c r="G79" t="n">
+        <v>0.009051241974897092</v>
+      </c>
+      <c r="J79" t="n">
+        <v>0.01832375607640216</v>
+      </c>
+      <c r="K79" t="n">
         <v>0.01100606500021888</v>
       </c>
-      <c r="J79" t="n">
-        <v>0.04856485338336355</v>
-      </c>
-      <c r="K79" t="n">
-        <v>0.01104098235463473</v>
-      </c>
       <c r="L79" t="n">
-        <v>0.08160927383987326</v>
+        <v>0.05154358888532526</v>
       </c>
       <c r="M79" t="n">
-        <v>0.01086882054795844</v>
+        <v>0.01088117688797128</v>
       </c>
       <c r="N79" t="n">
-        <v>0.01830371654480974</v>
+        <v>0.07758896284182204</v>
       </c>
       <c r="O79" t="n">
-        <v>0.01100606500021888</v>
+        <v>0.01058368317789785</v>
       </c>
     </row>
     <row r="80" ht="15" customHeight="1">
@@ -9847,28 +9873,28 @@
         </is>
       </c>
       <c r="F80" t="n">
+        <v>0.02222037140981056</v>
+      </c>
+      <c r="G80" t="n">
+        <v>0.009697759258818313</v>
+      </c>
+      <c r="J80" t="n">
         <v>0.01954074392490505</v>
       </c>
-      <c r="G80" t="n">
+      <c r="K80" t="n">
         <v>0.01212800519687042</v>
       </c>
-      <c r="J80" t="n">
-        <v>0.04954083163706255</v>
-      </c>
-      <c r="K80" t="n">
-        <v>0.01173959298821046</v>
-      </c>
       <c r="L80" t="n">
-        <v>0.08343840113670009</v>
+        <v>0.05270244345716549</v>
       </c>
       <c r="M80" t="n">
-        <v>0.01164516487281262</v>
+        <v>0.01165840380854066</v>
       </c>
       <c r="N80" t="n">
-        <v>0.01954074392490505</v>
+        <v>0.08047638690577308</v>
       </c>
       <c r="O80" t="n">
-        <v>0.01212800519687042</v>
+        <v>0.01171832675037634</v>
       </c>
     </row>
     <row r="81" ht="15" customHeight="1">
@@ -9884,28 +9910,28 @@
         </is>
       </c>
       <c r="F81" t="n">
-        <v>0.01974002906177534</v>
+        <v>0.02325146836968405</v>
       </c>
       <c r="G81" t="n">
+        <v>0.01010175207322034</v>
+      </c>
+      <c r="J81" t="n">
+        <v>0.01980871947262423</v>
+      </c>
+      <c r="K81" t="n">
         <v>0.01257836000025014</v>
       </c>
-      <c r="J81" t="n">
-        <v>0.0513058084777652</v>
-      </c>
-      <c r="K81" t="n">
-        <v>0.01252223252075782</v>
-      </c>
       <c r="L81" t="n">
-        <v>0.08571000797115019</v>
+        <v>0.05455559419660974</v>
       </c>
       <c r="M81" t="n">
-        <v>0.01242150919766679</v>
+        <v>0.01243563072911004</v>
       </c>
       <c r="N81" t="n">
-        <v>0.01974002906177534</v>
+        <v>0.08121322423473054</v>
       </c>
       <c r="O81" t="n">
-        <v>0.01257836000025014</v>
+        <v>0.01249954853373476</v>
       </c>
     </row>
     <row r="82" ht="15" customHeight="1">
@@ -9918,28 +9944,28 @@
         <v/>
       </c>
       <c r="F82" t="n">
-        <v>0.02063963113888445</v>
+        <v>0.0258519364119533</v>
       </c>
       <c r="G82" t="n">
+        <v>0.01099079382666075</v>
+      </c>
+      <c r="J82" t="n">
+        <v>0.02045799439965491</v>
+      </c>
+      <c r="K82" t="n">
         <v>0.01336450750026578</v>
       </c>
-      <c r="J82" t="n">
-        <v>0.05385591027201156</v>
-      </c>
-      <c r="K82" t="n">
-        <v>0.01330487205330518</v>
-      </c>
       <c r="L82" t="n">
-        <v>0.08881944886927928</v>
+        <v>0.05660133591693028</v>
       </c>
       <c r="M82" t="n">
-        <v>0.01319785352252097</v>
+        <v>0.01321285764967941</v>
       </c>
       <c r="N82" t="n">
-        <v>0.02063963113888445</v>
+        <v>0.08410866449293664</v>
       </c>
       <c r="O82" t="n">
-        <v>0.01336450750026578</v>
+        <v>0.01328077031709319</v>
       </c>
     </row>
     <row r="83" ht="15" customHeight="1">
@@ -9949,28 +9975,28 @@
         </is>
       </c>
       <c r="F83" t="n">
-        <v>0.02134161300633713</v>
+        <v>0.02797558692780403</v>
       </c>
       <c r="G83" t="n">
+        <v>0.01163731111058198</v>
+      </c>
+      <c r="J83" t="n">
+        <v>0.02091496893676048</v>
+      </c>
+      <c r="K83" t="n">
         <v>0.01415065500028141</v>
       </c>
-      <c r="J83" t="n">
-        <v>0.05498950580297543</v>
-      </c>
-      <c r="K83" t="n">
-        <v>0.01408751158585255</v>
-      </c>
       <c r="L83" t="n">
-        <v>0.08986207835714333</v>
+        <v>0.05853796343139933</v>
       </c>
       <c r="M83" t="n">
-        <v>0.01397419784737514</v>
+        <v>0.01399008457024879</v>
       </c>
       <c r="N83" t="n">
-        <v>0.02134161300633713</v>
+        <v>0.08565697797134608</v>
       </c>
       <c r="O83" t="n">
-        <v>0.01415065500028141</v>
+        <v>0.01406199210045161</v>
       </c>
     </row>
     <row r="84" ht="15" customHeight="1">
@@ -9985,28 +10011,28 @@
         </is>
       </c>
       <c r="F84" t="n">
-        <v>0.02204489058279135</v>
+        <v>0.03008416630800347</v>
       </c>
       <c r="G84" t="n">
+        <v>0.0122838283945032</v>
+      </c>
+      <c r="J84" t="n">
+        <v>0.02177834585147369</v>
+      </c>
+      <c r="K84" t="n">
         <v>0.01493680250029704</v>
       </c>
-      <c r="J84" t="n">
-        <v>0.05740496385383068</v>
-      </c>
-      <c r="K84" t="n">
-        <v>0.01487015111839991</v>
-      </c>
       <c r="L84" t="n">
-        <v>0.09213325096079822</v>
+        <v>0.05946377155328916</v>
       </c>
       <c r="M84" t="n">
-        <v>0.01475054217222932</v>
+        <v>0.01476731149081817</v>
       </c>
       <c r="N84" t="n">
-        <v>0.02204489058279135</v>
+        <v>0.0888524349609135</v>
       </c>
       <c r="O84" t="n">
-        <v>0.01493680250029704</v>
+        <v>0.01484321388381003</v>
       </c>
     </row>
     <row r="85" ht="15" customHeight="1">
@@ -10025,28 +10051,28 @@
         <v/>
       </c>
       <c r="F85" t="n">
-        <v>0.02254837978690517</v>
+        <v>0.0319902048568013</v>
       </c>
       <c r="G85" t="n">
+        <v>0.01293034567842442</v>
+      </c>
+      <c r="J85" t="n">
+        <v>0.02224682791132737</v>
+      </c>
+      <c r="K85" t="n">
         <v>0.01572295000031268</v>
       </c>
-      <c r="J85" t="n">
-        <v>0.05940065320775118</v>
-      </c>
-      <c r="K85" t="n">
-        <v>0.01565279065094728</v>
-      </c>
       <c r="L85" t="n">
-        <v>0.09512832120629966</v>
+        <v>0.06147705509587192</v>
       </c>
       <c r="M85" t="n">
-        <v>0.01552688649708349</v>
+        <v>0.01554453841138754</v>
       </c>
       <c r="N85" t="n">
-        <v>0.02254837978690517</v>
+        <v>0.09078930575259359</v>
       </c>
       <c r="O85" t="n">
-        <v>0.01572295000031268</v>
+        <v>0.01562443566716845</v>
       </c>
     </row>
     <row r="86" ht="15" customHeight="1">
@@ -10067,28 +10093,28 @@
         <v/>
       </c>
       <c r="F86" t="n">
-        <v>0.02345099653733661</v>
+        <v>0.03350623287844724</v>
       </c>
       <c r="G86" t="n">
+        <v>0.01357686296234564</v>
+      </c>
+      <c r="J86" t="n">
+        <v>0.0231191178838543</v>
+      </c>
+      <c r="K86" t="n">
         <v>0.01650909750032831</v>
       </c>
-      <c r="J86" t="n">
-        <v>0.06027494264791072</v>
-      </c>
-      <c r="K86" t="n">
-        <v>0.01643543018349464</v>
-      </c>
       <c r="L86" t="n">
-        <v>0.09684264361970374</v>
+        <v>0.06327610887241991</v>
       </c>
       <c r="M86" t="n">
-        <v>0.01630323082193767</v>
+        <v>0.01632176533195692</v>
       </c>
       <c r="N86" t="n">
-        <v>0.02345099653733661</v>
+        <v>0.09366186063734094</v>
       </c>
       <c r="O86" t="n">
-        <v>0.01650909750032831</v>
+        <v>0.01640565745052688</v>
       </c>
     </row>
     <row r="87" ht="15" customHeight="1">
@@ -10098,28 +10124,28 @@
         </is>
       </c>
       <c r="F87" t="n">
-        <v>0.02405165675274365</v>
+        <v>0.03425146836968405</v>
       </c>
       <c r="G87" t="n">
+        <v>0.01404271110820086</v>
+      </c>
+      <c r="J87" t="n">
+        <v>0.02369391853658728</v>
+      </c>
+      <c r="K87" t="n">
         <v>0.01729524500034395</v>
       </c>
-      <c r="J87" t="n">
-        <v>0.06242620095748319</v>
-      </c>
-      <c r="K87" t="n">
-        <v>0.01721806971604201</v>
-      </c>
       <c r="L87" t="n">
-        <v>0.09917157272706623</v>
+        <v>0.06485922769620528</v>
       </c>
       <c r="M87" t="n">
-        <v>0.01707957514679184</v>
+        <v>0.0170989922525263</v>
       </c>
       <c r="N87" t="n">
-        <v>0.02405165675274365</v>
+        <v>0.09536436990611025</v>
       </c>
       <c r="O87" t="n">
-        <v>0.01729524500034395</v>
+        <v>0.0171868792338853</v>
       </c>
     </row>
     <row r="88" ht="15" customHeight="1">
@@ -10133,28 +10159,28 @@
       <c r="C88" s="139" t="n"/>
       <c r="D88" s="139" t="n"/>
       <c r="F88" t="n">
-        <v>0.02484927635178437</v>
+        <v>0.03523263919763863</v>
       </c>
       <c r="G88" t="n">
+        <v>0.01486989753018808</v>
+      </c>
+      <c r="J88" t="n">
+        <v>0.02426993263705909</v>
+      </c>
+      <c r="K88" t="n">
         <v>0.01808139250035958</v>
       </c>
-      <c r="J88" t="n">
-        <v>0.06395279691964242</v>
-      </c>
-      <c r="K88" t="n">
-        <v>0.01800070924858937</v>
-      </c>
       <c r="L88" t="n">
-        <v>0.1025104630544429</v>
+        <v>0.06592470638050035</v>
       </c>
       <c r="M88" t="n">
-        <v>0.01785591947164602</v>
+        <v>0.01787621917309568</v>
       </c>
       <c r="N88" t="n">
-        <v>0.02484927635178437</v>
+        <v>0.09829110384985607</v>
       </c>
       <c r="O88" t="n">
-        <v>0.01808139250035958</v>
+        <v>0.01796810101724372</v>
       </c>
     </row>
     <row r="89" ht="15" customHeight="1">
@@ -10167,4780 +10193,6180 @@
         <v/>
       </c>
       <c r="F89" t="n">
-        <v>0.02554277125311673</v>
+        <v>0.03595292404360512</v>
       </c>
       <c r="G89" t="n">
+        <v>0.0155164148141093</v>
+      </c>
+      <c r="J89" t="n">
+        <v>0.02504586295280251</v>
+      </c>
+      <c r="K89" t="n">
         <v>0.01886754000037521</v>
       </c>
-      <c r="J89" t="n">
-        <v>0.06605309931756234</v>
-      </c>
-      <c r="K89" t="n">
-        <v>0.01878334878113673</v>
-      </c>
       <c r="L89" t="n">
-        <v>0.1046546691278898</v>
+        <v>0.06757083973857722</v>
       </c>
       <c r="M89" t="n">
-        <v>0.01863226379650019</v>
+        <v>0.01865344609366505</v>
       </c>
       <c r="N89" t="n">
-        <v>0.02554277125311673</v>
+        <v>0.1014363327595331</v>
       </c>
       <c r="O89" t="n">
-        <v>0.01886754000037521</v>
+        <v>0.01874932280060214</v>
       </c>
     </row>
     <row r="90" ht="15" customHeight="1">
       <c r="F90" t="n">
-        <v>0.02623105737539877</v>
+        <v>0.03663401281439708</v>
       </c>
       <c r="G90" t="n">
+        <v>0.01616293209803052</v>
+      </c>
+      <c r="J90" t="n">
+        <v>0.02592041225135037</v>
+      </c>
+      <c r="K90" t="n">
         <v>0.01965368750039085</v>
       </c>
-      <c r="J90" t="n">
-        <v>0.0676254769344167</v>
-      </c>
-      <c r="K90" t="n">
-        <v>0.0195659883136841</v>
-      </c>
       <c r="L90" t="n">
-        <v>0.1060995454734627</v>
+        <v>0.06909592258370825</v>
       </c>
       <c r="M90" t="n">
-        <v>0.01940860812135436</v>
+        <v>0.01943067301423443</v>
       </c>
       <c r="N90" t="n">
-        <v>0.02623105737539877</v>
+        <v>0.1029943269260959</v>
       </c>
       <c r="O90" t="n">
-        <v>0.01965368750039085</v>
+        <v>0.01953054458396057</v>
       </c>
     </row>
     <row r="91" ht="15" customHeight="1">
       <c r="F91" t="n">
-        <v>0.02681305063728852</v>
+        <v>0.03727743994911149</v>
       </c>
       <c r="G91" t="n">
+        <v>0.01680944938195174</v>
+      </c>
+      <c r="J91" t="n">
+        <v>0.02659228330023541</v>
+      </c>
+      <c r="K91" t="n">
         <v>0.02043983500040648</v>
       </c>
-      <c r="J91" t="n">
-        <v>0.06926829855337938</v>
-      </c>
-      <c r="K91" t="n">
-        <v>0.02034862784623146</v>
-      </c>
       <c r="L91" t="n">
-        <v>0.1098404466172175</v>
+        <v>0.07089824972916559</v>
       </c>
       <c r="M91" t="n">
-        <v>0.02018495244620854</v>
+        <v>0.02020789993480381</v>
       </c>
       <c r="N91" t="n">
-        <v>0.02681305063728852</v>
+        <v>0.1049593566404992</v>
       </c>
       <c r="O91" t="n">
-        <v>0.02043983500040648</v>
+        <v>0.02031176636731899</v>
       </c>
     </row>
     <row r="92" ht="15" customHeight="1">
       <c r="F92" t="n">
-        <v>0.02748766695744398</v>
+        <v>0.0378847398868454</v>
       </c>
       <c r="G92" t="n">
+        <v>0.01745596666587296</v>
+      </c>
+      <c r="J92" t="n">
+        <v>0.02696017886699047</v>
+      </c>
+      <c r="K92" t="n">
         <v>0.02122598250042211</v>
       </c>
-      <c r="J92" t="n">
-        <v>0.07097993295762428</v>
-      </c>
-      <c r="K92" t="n">
-        <v>0.02113126737877882</v>
-      </c>
       <c r="L92" t="n">
-        <v>0.1108727270852101</v>
+        <v>0.07237611598822147</v>
       </c>
       <c r="M92" t="n">
-        <v>0.02096129677106271</v>
+        <v>0.02098512685537319</v>
       </c>
       <c r="N92" t="n">
-        <v>0.02748766695744398</v>
+        <v>0.1084256921936977</v>
       </c>
       <c r="O92" t="n">
-        <v>0.02122598250042211</v>
+        <v>0.02109298815067741</v>
       </c>
     </row>
     <row r="93" ht="15" customHeight="1">
       <c r="F93" t="n">
-        <v>0.02805382225452319</v>
+        <v>0.03845744706669581</v>
       </c>
       <c r="G93" t="n">
+        <v>0.01810248394979418</v>
+      </c>
+      <c r="J93" t="n">
+        <v>0.02782280171914833</v>
+      </c>
+      <c r="K93" t="n">
         <v>0.02201213000043775</v>
       </c>
-      <c r="J93" t="n">
-        <v>0.07275874893032519</v>
-      </c>
-      <c r="K93" t="n">
-        <v>0.02191390691132619</v>
-      </c>
       <c r="L93" t="n">
-        <v>0.1131917414034961</v>
+        <v>0.07392781617414818</v>
       </c>
       <c r="M93" t="n">
-        <v>0.02173764109591689</v>
+        <v>0.02176235377594256</v>
       </c>
       <c r="N93" t="n">
-        <v>0.02805382225452319</v>
+        <v>0.111287603876646</v>
       </c>
       <c r="O93" t="n">
-        <v>0.02201213000043775</v>
+        <v>0.02187420993403584</v>
       </c>
     </row>
     <row r="94" ht="15" customHeight="1">
       <c r="F94" t="n">
-        <v>0.02871043244718414</v>
+        <v>0.03899709592775973</v>
       </c>
       <c r="G94" t="n">
+        <v>0.0187490012337154</v>
+      </c>
+      <c r="J94" t="n">
+        <v>0.02837885462424176</v>
+      </c>
+      <c r="K94" t="n">
         <v>0.02279827750045338</v>
       </c>
-      <c r="J94" t="n">
-        <v>0.07390311525465595</v>
-      </c>
-      <c r="K94" t="n">
-        <v>0.02269654644387355</v>
-      </c>
       <c r="L94" t="n">
-        <v>0.1152928440981318</v>
+        <v>0.07455164510021783</v>
       </c>
       <c r="M94" t="n">
-        <v>0.02251398542077106</v>
+        <v>0.02253958069651194</v>
       </c>
       <c r="N94" t="n">
-        <v>0.02871043244718414</v>
+        <v>0.1134393619802986</v>
       </c>
       <c r="O94" t="n">
-        <v>0.02279827750045338</v>
+        <v>0.02265543171739426</v>
       </c>
     </row>
     <row r="95" ht="15" customHeight="1">
       <c r="F95" t="n">
-        <v>0.02945641345408487</v>
+        <v>0.03950522090913421</v>
       </c>
       <c r="G95" t="n">
+        <v>0.01939551851763663</v>
+      </c>
+      <c r="J95" t="n">
+        <v>0.0289270403498036</v>
+      </c>
+      <c r="K95" t="n">
         <v>0.02358442500046902</v>
       </c>
-      <c r="J95" t="n">
-        <v>0.07541140071379046</v>
-      </c>
-      <c r="K95" t="n">
-        <v>0.02347918597642092</v>
-      </c>
       <c r="L95" t="n">
-        <v>0.1182713896951728</v>
+        <v>0.07674589757970279</v>
       </c>
       <c r="M95" t="n">
-        <v>0.02329032974562524</v>
+        <v>0.02331680761708132</v>
       </c>
       <c r="N95" t="n">
-        <v>0.02945641345408487</v>
+        <v>0.1157752367956104</v>
       </c>
       <c r="O95" t="n">
-        <v>0.02358442500046902</v>
+        <v>0.02343665350075268</v>
       </c>
     </row>
     <row r="96" ht="15" customHeight="1">
       <c r="F96" t="n">
-        <v>0.03019068119388339</v>
+        <v>0.03998335644991626</v>
       </c>
       <c r="G96" t="n">
+        <v>0.02004203580155784</v>
+      </c>
+      <c r="J96" t="n">
+        <v>0.02966606166336658</v>
+      </c>
+      <c r="K96" t="n">
         <v>0.02437057250048465</v>
       </c>
-      <c r="J96" t="n">
-        <v>0.07658197409090253</v>
-      </c>
-      <c r="K96" t="n">
-        <v>0.02426182550896828</v>
-      </c>
       <c r="L96" t="n">
-        <v>0.1204227327206751</v>
+        <v>0.07790886842587516</v>
       </c>
       <c r="M96" t="n">
-        <v>0.02406667407047941</v>
+        <v>0.0240940345376507</v>
       </c>
       <c r="N96" t="n">
-        <v>0.03019068119388339</v>
+        <v>0.1174894986135359</v>
       </c>
       <c r="O96" t="n">
-        <v>0.02437057250048465</v>
+        <v>0.0242178752841111</v>
       </c>
     </row>
     <row r="97" ht="15" customHeight="1">
       <c r="F97" t="n">
-        <v>0.03081215158523772</v>
+        <v>0.04043303698920286</v>
       </c>
       <c r="G97" t="n">
+        <v>0.02068855308547907</v>
+      </c>
+      <c r="J97" t="n">
+        <v>0.03049462133246354</v>
+      </c>
+      <c r="K97" t="n">
         <v>0.02515672000050028</v>
       </c>
-      <c r="J97" t="n">
-        <v>0.07881320416916607</v>
-      </c>
-      <c r="K97" t="n">
-        <v>0.02504446504151564</v>
-      </c>
       <c r="L97" t="n">
-        <v>0.1221422277006944</v>
+        <v>0.07913885245200719</v>
       </c>
       <c r="M97" t="n">
-        <v>0.02484301839533358</v>
+        <v>0.02487126145822007</v>
       </c>
       <c r="N97" t="n">
-        <v>0.03081215158523772</v>
+        <v>0.1205764177250296</v>
       </c>
       <c r="O97" t="n">
-        <v>0.02515672000050028</v>
+        <v>0.02499909706746953</v>
       </c>
     </row>
     <row r="98" ht="15" customHeight="1">
       <c r="F98" t="n">
-        <v>0.03141974054680588</v>
+        <v>0.04085579696609105</v>
       </c>
       <c r="G98" t="n">
+        <v>0.02133507036940029</v>
+      </c>
+      <c r="J98" t="n">
+        <v>0.03111142212462725</v>
+      </c>
+      <c r="K98" t="n">
         <v>0.02594286750051592</v>
       </c>
-      <c r="J98" t="n">
-        <v>0.07990345973175489</v>
-      </c>
-      <c r="K98" t="n">
-        <v>0.02582710457406301</v>
-      </c>
       <c r="L98" t="n">
-        <v>0.1248252291612866</v>
+        <v>0.08033414447137116</v>
       </c>
       <c r="M98" t="n">
-        <v>0.02561936272018776</v>
+        <v>0.02564848837878945</v>
       </c>
       <c r="N98" t="n">
-        <v>0.03141974054680588</v>
+        <v>0.1223302644210465</v>
       </c>
       <c r="O98" t="n">
-        <v>0.02594286750051592</v>
+        <v>0.02578031885082795</v>
       </c>
     </row>
     <row r="99" ht="15" customHeight="1">
       <c r="F99" t="n">
-        <v>0.03191236399724588</v>
+        <v>0.04125317081967784</v>
       </c>
       <c r="G99" t="n">
+        <v>0.02198158765332151</v>
+      </c>
+      <c r="J99" t="n">
+        <v>0.0315151668073905</v>
+      </c>
+      <c r="K99" t="n">
         <v>0.02672901500053155</v>
       </c>
-      <c r="J99" t="n">
-        <v>0.08115110956184282</v>
-      </c>
-      <c r="K99" t="n">
-        <v>0.02660974410661037</v>
-      </c>
       <c r="L99" t="n">
-        <v>0.1272670916285078</v>
+        <v>0.08159303929723929</v>
       </c>
       <c r="M99" t="n">
-        <v>0.02639570704504193</v>
+        <v>0.02642571529935882</v>
       </c>
       <c r="N99" t="n">
-        <v>0.03191236399724588</v>
+        <v>0.1242453089925409</v>
       </c>
       <c r="O99" t="n">
-        <v>0.02672901500053155</v>
+        <v>0.02656154063418637</v>
       </c>
     </row>
     <row r="100" ht="15" customHeight="1">
       <c r="F100" t="n">
-        <v>0.03248893785521574</v>
+        <v>0.04162669298906026</v>
       </c>
       <c r="G100" t="n">
+        <v>0.02262810493724273</v>
+      </c>
+      <c r="J100" t="n">
+        <v>0.0322045581482861</v>
+      </c>
+      <c r="K100" t="n">
         <v>0.02751516250054719</v>
       </c>
-      <c r="J100" t="n">
-        <v>0.08245452244260376</v>
-      </c>
-      <c r="K100" t="n">
-        <v>0.02739238363915774</v>
-      </c>
       <c r="L100" t="n">
-        <v>0.1284631696284136</v>
+        <v>0.08281383174288376</v>
       </c>
       <c r="M100" t="n">
-        <v>0.02717205136989611</v>
+        <v>0.0272029422199282</v>
       </c>
       <c r="N100" t="n">
-        <v>0.03248893785521574</v>
+        <v>0.1266158217304676</v>
       </c>
       <c r="O100" t="n">
-        <v>0.02751516250054719</v>
+        <v>0.02734276241754479</v>
       </c>
     </row>
     <row r="101" ht="15" customHeight="1">
       <c r="F101" t="n">
-        <v>0.03294837803937348</v>
+        <v>0.0419778979133353</v>
       </c>
       <c r="G101" t="n">
+        <v>0.02327462222116395</v>
+      </c>
+      <c r="J101" t="n">
+        <v>0.03277829891484683</v>
+      </c>
+      <c r="K101" t="n">
         <v>0.02830131000056282</v>
       </c>
-      <c r="J101" t="n">
-        <v>0.08341206715721156</v>
-      </c>
-      <c r="K101" t="n">
-        <v>0.0281750231717051</v>
-      </c>
       <c r="L101" t="n">
-        <v>0.13110881768706</v>
+        <v>0.08359481662157681</v>
       </c>
       <c r="M101" t="n">
-        <v>0.02794839569475028</v>
+        <v>0.02798016914049758</v>
       </c>
       <c r="N101" t="n">
-        <v>0.03294837803937348</v>
+        <v>0.1292360729257813</v>
       </c>
       <c r="O101" t="n">
-        <v>0.02830131000056282</v>
+        <v>0.02812398420090322</v>
       </c>
     </row>
     <row r="102" ht="15" customHeight="1">
       <c r="F102" t="n">
-        <v>0.03338960046837713</v>
+        <v>0.04230832003160003</v>
       </c>
       <c r="G102" t="n">
+        <v>0.02392113950508517</v>
+      </c>
+      <c r="J102" t="n">
+        <v>0.03313509187460549</v>
+      </c>
+      <c r="K102" t="n">
         <v>0.02908745750057845</v>
       </c>
-      <c r="J102" t="n">
-        <v>0.08502211248883998</v>
-      </c>
-      <c r="K102" t="n">
-        <v>0.02895766270425246</v>
-      </c>
       <c r="L102" t="n">
-        <v>0.1328993903305029</v>
+        <v>0.08513428874659071</v>
       </c>
       <c r="M102" t="n">
-        <v>0.02872474001960446</v>
+        <v>0.02875739606106696</v>
       </c>
       <c r="N102" t="n">
-        <v>0.03338960046837713</v>
+        <v>0.1322003328694365</v>
       </c>
       <c r="O102" t="n">
-        <v>0.02908745750057845</v>
+        <v>0.02890520598426164</v>
       </c>
     </row>
     <row r="103" ht="15" customHeight="1">
       <c r="F103" t="n">
-        <v>0.03391152106088471</v>
+        <v>0.0426194937829514</v>
       </c>
       <c r="G103" t="n">
+        <v>0.02456765678900639</v>
+      </c>
+      <c r="J103" t="n">
+        <v>0.03387363979509485</v>
+      </c>
+      <c r="K103" t="n">
         <v>0.02987360500059409</v>
       </c>
-      <c r="J103" t="n">
-        <v>0.08638302722066299</v>
-      </c>
-      <c r="K103" t="n">
-        <v>0.02974030223679983</v>
-      </c>
       <c r="L103" t="n">
-        <v>0.1345302420847979</v>
+        <v>0.08623054293119764</v>
       </c>
       <c r="M103" t="n">
-        <v>0.02950108434445863</v>
+        <v>0.02953462298163633</v>
       </c>
       <c r="N103" t="n">
-        <v>0.03391152106088471</v>
+        <v>0.134102871852388</v>
       </c>
       <c r="O103" t="n">
-        <v>0.02987360500059409</v>
+        <v>0.02968642776762007</v>
       </c>
     </row>
     <row r="104" ht="15" customHeight="1">
       <c r="F104" t="n">
-        <v>0.03451305573555419</v>
+        <v>0.04291295360648647</v>
       </c>
       <c r="G104" t="n">
+        <v>0.02521417407292761</v>
+      </c>
+      <c r="J104" t="n">
+        <v>0.03449264544384772</v>
+      </c>
+      <c r="K104" t="n">
         <v>0.03065975250060972</v>
       </c>
-      <c r="J104" t="n">
-        <v>0.08699318013585433</v>
-      </c>
-      <c r="K104" t="n">
-        <v>0.03052294176934719</v>
-      </c>
       <c r="L104" t="n">
-        <v>0.1363967274760012</v>
+        <v>0.08718187398866986</v>
       </c>
       <c r="M104" t="n">
-        <v>0.03027742866931281</v>
+        <v>0.03031184990220571</v>
       </c>
       <c r="N104" t="n">
-        <v>0.03451305573555419</v>
+        <v>0.1358379601655903</v>
       </c>
       <c r="O104" t="n">
-        <v>0.03065975250060972</v>
+        <v>0.03046764955097849</v>
       </c>
     </row>
     <row r="105" ht="15" customHeight="1">
       <c r="F105" t="n">
-        <v>0.03489312041104366</v>
+        <v>0.04319023394130223</v>
       </c>
       <c r="G105" t="n">
+        <v>0.02586069135684883</v>
+      </c>
+      <c r="J105" t="n">
+        <v>0.03489081158839688</v>
+      </c>
+      <c r="K105" t="n">
         <v>0.03144590000062536</v>
       </c>
-      <c r="J105" t="n">
-        <v>0.08795094001758794</v>
-      </c>
-      <c r="K105" t="n">
-        <v>0.03130558130189456</v>
-      </c>
       <c r="L105" t="n">
-        <v>0.1386942010301686</v>
+        <v>0.08798657673227953</v>
       </c>
       <c r="M105" t="n">
-        <v>0.03105377299416698</v>
+        <v>0.03108907682277509</v>
       </c>
       <c r="N105" t="n">
-        <v>0.03489312041104366</v>
+        <v>0.137999868099998</v>
       </c>
       <c r="O105" t="n">
-        <v>0.03144590000062536</v>
+        <v>0.03124887133433691</v>
       </c>
     </row>
     <row r="106" ht="15" customHeight="1">
       <c r="F106" t="n">
-        <v>0.03555063100601108</v>
+        <v>0.04345286922649574</v>
       </c>
       <c r="G106" t="n">
+        <v>0.02650720864077005</v>
+      </c>
+      <c r="J106" t="n">
+        <v>0.03516684099627518</v>
+      </c>
+      <c r="K106" t="n">
         <v>0.03223204750064099</v>
       </c>
-      <c r="J106" t="n">
-        <v>0.08905467564903766</v>
-      </c>
-      <c r="K106" t="n">
-        <v>0.03208822083444192</v>
-      </c>
       <c r="L106" t="n">
-        <v>0.1403180172733559</v>
+        <v>0.08954294597529894</v>
       </c>
       <c r="M106" t="n">
-        <v>0.03183011731902115</v>
+        <v>0.03186630374334447</v>
       </c>
       <c r="N106" t="n">
-        <v>0.03555063100601108</v>
+        <v>0.139882865946566</v>
       </c>
       <c r="O106" t="n">
-        <v>0.03223204750064099</v>
+        <v>0.03203009311769533</v>
       </c>
     </row>
     <row r="107" ht="15" customHeight="1">
       <c r="F107" t="n">
-        <v>0.03588450343911449</v>
+        <v>0.04370239390116396</v>
       </c>
       <c r="G107" t="n">
+        <v>0.02715372592469128</v>
+      </c>
+      <c r="J107" t="n">
+        <v>0.0359194364350153</v>
+      </c>
+      <c r="K107" t="n">
         <v>0.03301819500065663</v>
       </c>
-      <c r="J107" t="n">
-        <v>0.08990275581337728</v>
-      </c>
-      <c r="K107" t="n">
-        <v>0.03287086036698928</v>
-      </c>
       <c r="L107" t="n">
-        <v>0.1414635307316189</v>
+        <v>0.0901492765310003</v>
       </c>
       <c r="M107" t="n">
-        <v>0.03260646164387533</v>
+        <v>0.03264353066391384</v>
       </c>
       <c r="N107" t="n">
-        <v>0.03588450343911449</v>
+        <v>0.1409812239962488</v>
       </c>
       <c r="O107" t="n">
-        <v>0.03301819500065663</v>
+        <v>0.03281131490105375</v>
       </c>
     </row>
     <row r="108" ht="15" customHeight="1">
       <c r="F108" t="n">
-        <v>0.03639365362901192</v>
+        <v>0.04394034240440394</v>
       </c>
       <c r="G108" t="n">
+        <v>0.02780024320861249</v>
+      </c>
+      <c r="J108" t="n">
+        <v>0.03614730067215015</v>
+      </c>
+      <c r="K108" t="n">
         <v>0.03380434250067226</v>
       </c>
-      <c r="J108" t="n">
-        <v>0.09089354929378074</v>
-      </c>
-      <c r="K108" t="n">
-        <v>0.03365349989953664</v>
-      </c>
       <c r="L108" t="n">
-        <v>0.1433260959310136</v>
+        <v>0.09100386321265586</v>
       </c>
       <c r="M108" t="n">
-        <v>0.0333828059687295</v>
+        <v>0.03342075758448322</v>
       </c>
       <c r="N108" t="n">
-        <v>0.03639365362901192</v>
+        <v>0.1431892125400009</v>
       </c>
       <c r="O108" t="n">
-        <v>0.03380434250067226</v>
+        <v>0.03359253668441218</v>
       </c>
     </row>
     <row r="109" ht="15" customHeight="1">
       <c r="F109" t="n">
-        <v>0.03677699749436136</v>
+        <v>0.04416824917531268</v>
       </c>
       <c r="G109" t="n">
+        <v>0.02844676049253372</v>
+      </c>
+      <c r="J109" t="n">
+        <v>0.03644913647521243</v>
+      </c>
+      <c r="K109" t="n">
         <v>0.0345904900006879</v>
       </c>
-      <c r="J109" t="n">
-        <v>0.09162542487342179</v>
-      </c>
-      <c r="K109" t="n">
-        <v>0.03443613943208401</v>
-      </c>
       <c r="L109" t="n">
-        <v>0.1451010673975958</v>
+        <v>0.0922050008335378</v>
       </c>
       <c r="M109" t="n">
-        <v>0.03415915029358368</v>
+        <v>0.0341979845050526</v>
       </c>
       <c r="N109" t="n">
-        <v>0.03677699749436136</v>
+        <v>0.1439011018687772</v>
       </c>
       <c r="O109" t="n">
-        <v>0.0345904900006879</v>
+        <v>0.0343737584677706</v>
       </c>
     </row>
     <row r="110" ht="15" customHeight="1">
       <c r="F110" t="n">
-        <v>0.03723345095382087</v>
+        <v>0.04438764865298723</v>
       </c>
       <c r="G110" t="n">
+        <v>0.02909327777645494</v>
+      </c>
+      <c r="J110" t="n">
+        <v>0.03692364661173497</v>
+      </c>
+      <c r="K110" t="n">
         <v>0.03537663750070352</v>
       </c>
-      <c r="J110" t="n">
-        <v>0.09309675133547435</v>
-      </c>
-      <c r="K110" t="n">
-        <v>0.03521877896463137</v>
-      </c>
       <c r="L110" t="n">
-        <v>0.1458837996574215</v>
+        <v>0.09225098420691838</v>
       </c>
       <c r="M110" t="n">
-        <v>0.03493549461843785</v>
+        <v>0.03497521142562197</v>
       </c>
       <c r="N110" t="n">
-        <v>0.03723345095382087</v>
+        <v>0.1455111622735322</v>
       </c>
       <c r="O110" t="n">
-        <v>0.03537663750070352</v>
+        <v>0.03515498025112902</v>
       </c>
     </row>
     <row r="111" ht="15" customHeight="1">
       <c r="F111" t="n">
-        <v>0.03746192992604842</v>
+        <v>0.04460131356618046</v>
       </c>
       <c r="G111" t="n">
+        <v>0.02973979506037615</v>
+      </c>
+      <c r="J111" t="n">
+        <v>0.0373695338492506</v>
+      </c>
+      <c r="K111" t="n">
         <v>0.03616278500071916</v>
       </c>
-      <c r="J111" t="n">
-        <v>0.09290589746311223</v>
-      </c>
-      <c r="K111" t="n">
-        <v>0.03600141849717874</v>
-      </c>
       <c r="L111" t="n">
-        <v>0.1481696472365464</v>
+        <v>0.09304010814606981</v>
       </c>
       <c r="M111" t="n">
-        <v>0.03571183894329203</v>
+        <v>0.03575243834619135</v>
       </c>
       <c r="N111" t="n">
-        <v>0.03746192992604842</v>
+        <v>0.1477136640452206</v>
       </c>
       <c r="O111" t="n">
-        <v>0.03616278500071916</v>
+        <v>0.03593620203448745</v>
       </c>
     </row>
     <row r="112" ht="15" customHeight="1">
       <c r="F112" t="n">
-        <v>0.03786135032970207</v>
+        <v>0.04481320928523754</v>
       </c>
       <c r="G112" t="n">
+        <v>0.03038631234429738</v>
+      </c>
+      <c r="J112" t="n">
+        <v>0.03748550095529206</v>
+      </c>
+      <c r="K112" t="n">
         <v>0.03694893250073479</v>
       </c>
-      <c r="J112" t="n">
-        <v>0.09395123203950939</v>
-      </c>
-      <c r="K112" t="n">
-        <v>0.0367840580297261</v>
-      </c>
       <c r="L112" t="n">
-        <v>0.1497539646610264</v>
+        <v>0.09437066746426429</v>
       </c>
       <c r="M112" t="n">
-        <v>0.0364881832681462</v>
+        <v>0.03652966526676073</v>
       </c>
       <c r="N112" t="n">
-        <v>0.03786135032970207</v>
+        <v>0.1492028774747969</v>
       </c>
       <c r="O112" t="n">
-        <v>0.03694893250073479</v>
+        <v>0.03671742381784587</v>
       </c>
     </row>
     <row r="113" ht="15" customHeight="1">
       <c r="F113" t="n">
-        <v>0.03803062808343981</v>
+        <v>0.04502343351801024</v>
       </c>
       <c r="G113" t="n">
+        <v>0.0310328296282186</v>
+      </c>
+      <c r="J113" t="n">
+        <v>0.03787025069739214</v>
+      </c>
+      <c r="K113" t="n">
         <v>0.03773508000075042</v>
       </c>
-      <c r="J113" t="n">
-        <v>0.0941311238478395</v>
-      </c>
-      <c r="K113" t="n">
-        <v>0.03756669756227347</v>
-      </c>
       <c r="L113" t="n">
-        <v>0.1507321064569174</v>
+        <v>0.09474095697477411</v>
       </c>
       <c r="M113" t="n">
-        <v>0.03726452759300038</v>
+        <v>0.0373068921873301</v>
       </c>
       <c r="N113" t="n">
-        <v>0.03803062808343981</v>
+        <v>0.1503730728532159</v>
       </c>
       <c r="O113" t="n">
-        <v>0.03773508000075042</v>
+        <v>0.03749864560120428</v>
       </c>
     </row>
     <row r="114" ht="15" customHeight="1">
       <c r="F114" t="n">
-        <v>0.03826867910591969</v>
+        <v>0.04523189443166236</v>
       </c>
       <c r="G114" t="n">
+        <v>0.03167934691213983</v>
+      </c>
+      <c r="J114" t="n">
+        <v>0.03822248584308366</v>
+      </c>
+      <c r="K114" t="n">
         <v>0.03852122750076606</v>
       </c>
-      <c r="J114" t="n">
-        <v>0.09534394167127649</v>
-      </c>
-      <c r="K114" t="n">
-        <v>0.03834933709482083</v>
-      </c>
       <c r="L114" t="n">
-        <v>0.1506994271502752</v>
+        <v>0.09454927149087144</v>
       </c>
       <c r="M114" t="n">
-        <v>0.03804087191785455</v>
+        <v>0.03808411910789949</v>
       </c>
       <c r="N114" t="n">
-        <v>0.03826867910591969</v>
+        <v>0.1504185204714323</v>
       </c>
       <c r="O114" t="n">
-        <v>0.03852122750076606</v>
+        <v>0.03827986738456271</v>
       </c>
     </row>
     <row r="115" ht="15" customHeight="1">
       <c r="F115" t="n">
-        <v>0.03837441931579967</v>
+        <v>0.04543850019335764</v>
       </c>
       <c r="G115" t="n">
+        <v>0.03232586419606104</v>
+      </c>
+      <c r="J115" t="n">
+        <v>0.0385409091598994</v>
+      </c>
+      <c r="K115" t="n">
         <v>0.03930737500078169</v>
       </c>
-      <c r="J115" t="n">
-        <v>0.09598805429299434</v>
-      </c>
-      <c r="K115" t="n">
-        <v>0.03913197662736819</v>
-      </c>
       <c r="L115" t="n">
-        <v>0.1514512812671557</v>
+        <v>0.09589390582582857</v>
       </c>
       <c r="M115" t="n">
-        <v>0.03881721624270872</v>
+        <v>0.03886134602846886</v>
       </c>
       <c r="N115" t="n">
-        <v>0.03837441931579967</v>
+        <v>0.1515334906204005</v>
       </c>
       <c r="O115" t="n">
-        <v>0.03930737500078169</v>
+        <v>0.03906108916792114</v>
       </c>
     </row>
     <row r="116" ht="15" customHeight="1">
       <c r="F116" t="n">
-        <v>0.03844676463173782</v>
+        <v>0.04564315897025983</v>
       </c>
       <c r="G116" t="n">
+        <v>0.03297238147998226</v>
+      </c>
+      <c r="J116" t="n">
+        <v>0.03842422341537215</v>
+      </c>
+      <c r="K116" t="n">
         <v>0.04009352250079733</v>
       </c>
-      <c r="J116" t="n">
-        <v>0.09566183049616667</v>
-      </c>
-      <c r="K116" t="n">
-        <v>0.03991461615991556</v>
-      </c>
       <c r="L116" t="n">
-        <v>0.153283023333615</v>
+        <v>0.09627315479291759</v>
       </c>
       <c r="M116" t="n">
-        <v>0.0395935605675629</v>
+        <v>0.03963857294903824</v>
       </c>
       <c r="N116" t="n">
-        <v>0.03844676463173782</v>
+        <v>0.1526122535910753</v>
       </c>
       <c r="O116" t="n">
-        <v>0.04009352250079733</v>
+        <v>0.03984231095127956</v>
       </c>
     </row>
     <row r="117" ht="15" customHeight="1">
       <c r="F117" t="n">
-        <v>0.03868463097239215</v>
+        <v>0.04584577892953268</v>
       </c>
       <c r="G117" t="n">
+        <v>0.03361889876390348</v>
+      </c>
+      <c r="J117" t="n">
+        <v>0.03877113137703472</v>
+      </c>
+      <c r="K117" t="n">
         <v>0.04087967000081296</v>
       </c>
-      <c r="J117" t="n">
-        <v>0.09576363906396745</v>
-      </c>
-      <c r="K117" t="n">
-        <v>0.04069725569246292</v>
-      </c>
       <c r="L117" t="n">
-        <v>0.1539900078757087</v>
+        <v>0.09608531320541092</v>
       </c>
       <c r="M117" t="n">
-        <v>0.04036990489241708</v>
+        <v>0.04041579986960762</v>
       </c>
       <c r="N117" t="n">
-        <v>0.03868463097239215</v>
+        <v>0.1530490796744114</v>
       </c>
       <c r="O117" t="n">
-        <v>0.04087967000081296</v>
+        <v>0.04062353273463798</v>
       </c>
     </row>
     <row r="118" ht="15" customHeight="1">
       <c r="F118" t="n">
-        <v>0.03888693425642066</v>
+        <v>0.04604626823833998</v>
       </c>
       <c r="G118" t="n">
+        <v>0.0342654160478247</v>
+      </c>
+      <c r="J118" t="n">
+        <v>0.03868033581241986</v>
+      </c>
+      <c r="K118" t="n">
         <v>0.04166581750082859</v>
       </c>
-      <c r="J118" t="n">
-        <v>0.0961918487795706</v>
-      </c>
-      <c r="K118" t="n">
-        <v>0.04147989522501028</v>
-      </c>
       <c r="L118" t="n">
-        <v>0.1535675894194927</v>
+        <v>0.0963286758765807</v>
       </c>
       <c r="M118" t="n">
-        <v>0.04114624921727125</v>
+        <v>0.04119302679017699</v>
       </c>
       <c r="N118" t="n">
-        <v>0.03888693425642066</v>
+        <v>0.1534382391613634</v>
       </c>
       <c r="O118" t="n">
-        <v>0.04166581750082859</v>
+        <v>0.0414047545179964</v>
       </c>
     </row>
     <row r="119" ht="15" customHeight="1">
       <c r="F119" t="n">
+        <v>0.04624453506384548</v>
+      </c>
+      <c r="G119" t="n">
+        <v>0.03491193333174593</v>
+      </c>
+      <c r="J119" t="n">
         <v>0.03908148784981012</v>
       </c>
-      <c r="G119" t="n">
+      <c r="K119" t="n">
         <v>0.04245196500084423</v>
       </c>
-      <c r="J119" t="n">
-        <v>0.09654482842614992</v>
-      </c>
-      <c r="K119" t="n">
-        <v>0.04226253475755765</v>
-      </c>
       <c r="L119" t="n">
-        <v>0.1539111224910228</v>
+        <v>0.09610153761969908</v>
       </c>
       <c r="M119" t="n">
-        <v>0.04192259354212542</v>
+        <v>0.04197025371074637</v>
       </c>
       <c r="N119" t="n">
-        <v>0.03908148784981012</v>
+        <v>0.1549740023428858</v>
       </c>
       <c r="O119" t="n">
-        <v>0.04245196500084423</v>
+        <v>0.04218597630135482</v>
       </c>
     </row>
     <row r="120" ht="15" customHeight="1">
       <c r="F120" t="n">
-        <v>0.03888051532923234</v>
+        <v>0.04644048757321289</v>
       </c>
       <c r="G120" t="n">
+        <v>0.03555845061566715</v>
+      </c>
+      <c r="J120" t="n">
+        <v>0.03908044517448914</v>
+      </c>
+      <c r="K120" t="n">
         <v>0.04323811250085987</v>
       </c>
-      <c r="J120" t="n">
+      <c r="L120" t="n">
         <v>0.09712970676672711</v>
       </c>
-      <c r="K120" t="n">
-        <v>0.04304517429010501</v>
-      </c>
-      <c r="L120" t="n">
+      <c r="M120" t="n">
+        <v>0.04274748063131575</v>
+      </c>
+      <c r="N120" t="n">
         <v>0.155177925683644</v>
       </c>
-      <c r="M120" t="n">
-        <v>0.0426989378669796</v>
-      </c>
-      <c r="N120" t="n">
-        <v>0.03888051532923234</v>
-      </c>
       <c r="O120" t="n">
-        <v>0.04323811250085987</v>
+        <v>0.04296719808471325</v>
       </c>
     </row>
     <row r="121" ht="15" customHeight="1">
       <c r="F121" t="n">
-        <v>0.03887859448901225</v>
+        <v>0.04663403393360602</v>
       </c>
       <c r="G121" t="n">
+        <v>0.03620496789958837</v>
+      </c>
+      <c r="J121" t="n">
+        <v>0.0387787802739588</v>
+      </c>
+      <c r="K121" t="n">
         <v>0.0440242600008755</v>
       </c>
-      <c r="J121" t="n">
-        <v>0.09682508425525826</v>
-      </c>
-      <c r="K121" t="n">
-        <v>0.04382781382265238</v>
-      </c>
       <c r="L121" t="n">
-        <v>0.1545778456181056</v>
+        <v>0.09642933117614763</v>
       </c>
       <c r="M121" t="n">
-        <v>0.04347528219183378</v>
+        <v>0.04352470755188512</v>
       </c>
       <c r="N121" t="n">
-        <v>0.03887859448901225</v>
+        <v>0.1542714286573268</v>
       </c>
       <c r="O121" t="n">
-        <v>0.0440242600008755</v>
+        <v>0.04374841986807167</v>
       </c>
     </row>
     <row r="122" ht="15" customHeight="1">
       <c r="F122" t="n">
-        <v>0.03886652288942918</v>
+        <v>0.04682508231218859</v>
       </c>
       <c r="G122" t="n">
+        <v>0.03685148518350959</v>
+      </c>
+      <c r="J122" t="n">
+        <v>0.03906748255024566</v>
+      </c>
+      <c r="K122" t="n">
         <v>0.04481040750089114</v>
       </c>
-      <c r="J122" t="n">
-        <v>0.09649159880091954</v>
-      </c>
-      <c r="K122" t="n">
-        <v>0.04461045335519974</v>
-      </c>
       <c r="L122" t="n">
-        <v>0.1536632080091932</v>
+        <v>0.09630598112843064</v>
       </c>
       <c r="M122" t="n">
-        <v>0.04425162651668795</v>
+        <v>0.04430193447245451</v>
       </c>
       <c r="N122" t="n">
-        <v>0.03886652288942918</v>
+        <v>0.1547067942115142</v>
       </c>
       <c r="O122" t="n">
-        <v>0.04481040750089114</v>
+        <v>0.04452964165143009</v>
       </c>
     </row>
     <row r="123" ht="15" customHeight="1">
       <c r="F123" t="n">
-        <v>0.0390453671920656</v>
+        <v>0.04701354087612439</v>
       </c>
       <c r="G123" t="n">
+        <v>0.0374980024674308</v>
+      </c>
+      <c r="J123" t="n">
+        <v>0.03894768041666181</v>
+      </c>
+      <c r="K123" t="n">
         <v>0.04559655500090676</v>
       </c>
-      <c r="J123" t="n">
-        <v>0.09652682658349296</v>
-      </c>
-      <c r="K123" t="n">
-        <v>0.0453930928877471</v>
-      </c>
       <c r="L123" t="n">
-        <v>0.1546237408634831</v>
+        <v>0.0969474610530327</v>
       </c>
       <c r="M123" t="n">
-        <v>0.04502797084154212</v>
+        <v>0.04507916139302388</v>
       </c>
       <c r="N123" t="n">
-        <v>0.0390453671920656</v>
+        <v>0.1546754983017201</v>
       </c>
       <c r="O123" t="n">
-        <v>0.04559655500090676</v>
+        <v>0.04531086343478852</v>
       </c>
     </row>
     <row r="124" ht="15" customHeight="1">
       <c r="F124" t="n">
-        <v>0.03901546373220152</v>
+        <v>0.04719931779257714</v>
       </c>
       <c r="G124" t="n">
+        <v>0.03814451975135203</v>
+      </c>
+      <c r="J124" t="n">
+        <v>0.03881968623421364</v>
+      </c>
+      <c r="K124" t="n">
         <v>0.0463827025009224</v>
       </c>
-      <c r="J124" t="n">
-        <v>0.09623205317525196</v>
-      </c>
-      <c r="K124" t="n">
-        <v>0.04617573242029447</v>
-      </c>
       <c r="L124" t="n">
-        <v>0.1545600556154747</v>
+        <v>0.09615529915119686</v>
       </c>
       <c r="M124" t="n">
-        <v>0.0458043151663963</v>
+        <v>0.04585638831359326</v>
       </c>
       <c r="N124" t="n">
-        <v>0.03901546373220152</v>
+        <v>0.1547807565758406</v>
       </c>
       <c r="O124" t="n">
-        <v>0.0463827025009224</v>
+        <v>0.04609208521814694</v>
       </c>
     </row>
     <row r="125" ht="15" customHeight="1">
       <c r="F125" t="n">
-        <v>0.038877148845117</v>
+        <v>0.04738232122871065</v>
       </c>
       <c r="G125" t="n">
+        <v>0.03879103703527325</v>
+      </c>
+      <c r="J125" t="n">
+        <v>0.03898381236390744</v>
+      </c>
+      <c r="K125" t="n">
         <v>0.04716885000093803</v>
       </c>
-      <c r="J125" t="n">
-        <v>0.09600856414846995</v>
-      </c>
-      <c r="K125" t="n">
-        <v>0.04695837195284183</v>
-      </c>
       <c r="L125" t="n">
-        <v>0.1546727636996676</v>
+        <v>0.09603102362416621</v>
       </c>
       <c r="M125" t="n">
-        <v>0.04658065949125047</v>
+        <v>0.04663361523416263</v>
       </c>
       <c r="N125" t="n">
-        <v>0.038877148845117</v>
+        <v>0.1533257846817719</v>
       </c>
       <c r="O125" t="n">
-        <v>0.04716885000093803</v>
+        <v>0.04687330700150536</v>
       </c>
     </row>
     <row r="126" ht="15" customHeight="1">
       <c r="F126" t="n">
-        <v>0.03883075886609211</v>
+        <v>0.0475624593516886</v>
       </c>
       <c r="G126" t="n">
+        <v>0.03943755431919447</v>
+      </c>
+      <c r="J126" t="n">
+        <v>0.03884037116674957</v>
+      </c>
+      <c r="K126" t="n">
         <v>0.04795499750095367</v>
       </c>
-      <c r="J126" t="n">
-        <v>0.09645764507542037</v>
-      </c>
-      <c r="K126" t="n">
-        <v>0.04774101148538919</v>
-      </c>
       <c r="L126" t="n">
-        <v>0.1542624765505615</v>
+        <v>0.09667616267318377</v>
       </c>
       <c r="M126" t="n">
-        <v>0.04735700381610465</v>
+        <v>0.04741084215473201</v>
       </c>
       <c r="N126" t="n">
-        <v>0.03883075886609211</v>
+        <v>0.1539137982674103</v>
       </c>
       <c r="O126" t="n">
-        <v>0.04795499750095367</v>
+        <v>0.04765452878486378</v>
       </c>
     </row>
     <row r="127" ht="15" customHeight="1">
       <c r="F127" t="n">
-        <v>0.03857663013040689</v>
+        <v>0.04773964032867482</v>
       </c>
       <c r="G127" t="n">
+        <v>0.04008407160311569</v>
+      </c>
+      <c r="J127" t="n">
+        <v>0.0385896750037464</v>
+      </c>
+      <c r="K127" t="n">
         <v>0.0487411450009693</v>
       </c>
-      <c r="J127" t="n">
-        <v>0.09568058152837666</v>
-      </c>
-      <c r="K127" t="n">
-        <v>0.04852365101793656</v>
-      </c>
       <c r="L127" t="n">
-        <v>0.1546298056026558</v>
+        <v>0.09599224449949265</v>
       </c>
       <c r="M127" t="n">
-        <v>0.04813334814095882</v>
+        <v>0.04818806907530139</v>
       </c>
       <c r="N127" t="n">
-        <v>0.03857663013040689</v>
+        <v>0.1535480129806521</v>
       </c>
       <c r="O127" t="n">
-        <v>0.0487411450009693</v>
+        <v>0.04843575056822221</v>
       </c>
     </row>
     <row r="128" ht="15" customHeight="1">
       <c r="F128" t="n">
-        <v>0.0388150989733414</v>
+        <v>0.04791377232683302</v>
       </c>
       <c r="G128" t="n">
+        <v>0.04073058888703691</v>
+      </c>
+      <c r="J128" t="n">
+        <v>0.0387320362359042</v>
+      </c>
+      <c r="K128" t="n">
         <v>0.04952729250098493</v>
       </c>
-      <c r="J128" t="n">
-        <v>0.09587865907961221</v>
-      </c>
-      <c r="K128" t="n">
-        <v>0.04930629055048392</v>
-      </c>
       <c r="L128" t="n">
-        <v>0.1533753622904499</v>
+        <v>0.09568079730433593</v>
       </c>
       <c r="M128" t="n">
-        <v>0.048909692465813</v>
+        <v>0.04896529599587077</v>
       </c>
       <c r="N128" t="n">
-        <v>0.0388150989733414</v>
+        <v>0.1529316444693934</v>
       </c>
       <c r="O128" t="n">
-        <v>0.04952729250098493</v>
+        <v>0.04921697235158063</v>
       </c>
     </row>
     <row r="129" ht="15" customHeight="1">
       <c r="F129" t="n">
-        <v>0.03874650173017569</v>
+        <v>0.04808476351332697</v>
       </c>
       <c r="G129" t="n">
+        <v>0.04137710617095813</v>
+      </c>
+      <c r="J129" t="n">
+        <v>0.03856776722422939</v>
+      </c>
+      <c r="K129" t="n">
         <v>0.05031344000100057</v>
       </c>
-      <c r="J129" t="n">
-        <v>0.09535316330140045</v>
-      </c>
-      <c r="K129" t="n">
-        <v>0.05008893008303129</v>
-      </c>
       <c r="L129" t="n">
-        <v>0.1537997580484435</v>
+        <v>0.09584334928895655</v>
       </c>
       <c r="M129" t="n">
-        <v>0.04968603679066717</v>
+        <v>0.04974252291644014</v>
       </c>
       <c r="N129" t="n">
-        <v>0.03874650173017569</v>
+        <v>0.1529679083815306</v>
       </c>
       <c r="O129" t="n">
-        <v>0.05031344000100057</v>
+        <v>0.04999819413493906</v>
       </c>
     </row>
     <row r="130" ht="15" customHeight="1">
       <c r="F130" t="n">
-        <v>0.03837117473618981</v>
+        <v>0.04825252205532043</v>
       </c>
       <c r="G130" t="n">
+        <v>0.04202362345487935</v>
+      </c>
+      <c r="J130" t="n">
+        <v>0.03859718032972824</v>
+      </c>
+      <c r="K130" t="n">
         <v>0.0510995875010162</v>
       </c>
-      <c r="J130" t="n">
-        <v>0.09510537976601482</v>
-      </c>
-      <c r="K130" t="n">
-        <v>0.05087156961557865</v>
-      </c>
       <c r="L130" t="n">
-        <v>0.1531036043111362</v>
+        <v>0.09578142865459774</v>
       </c>
       <c r="M130" t="n">
-        <v>0.05046238111552134</v>
+        <v>0.05051974983700952</v>
       </c>
       <c r="N130" t="n">
-        <v>0.03837117473618981</v>
+        <v>0.1513600203649599</v>
       </c>
       <c r="O130" t="n">
-        <v>0.0510995875010162</v>
+        <v>0.05077941591829747</v>
       </c>
     </row>
     <row r="131" ht="15" customHeight="1">
       <c r="F131" t="n">
-        <v>0.0385894543266638</v>
+        <v>0.04841695611997716</v>
       </c>
       <c r="G131" t="n">
+        <v>0.04267014073880058</v>
+      </c>
+      <c r="J131" t="n">
+        <v>0.03852058791340715</v>
+      </c>
+      <c r="K131" t="n">
         <v>0.05188573500103184</v>
       </c>
-      <c r="J131" t="n">
-        <v>0.09543659404572874</v>
-      </c>
-      <c r="K131" t="n">
-        <v>0.05165420914812601</v>
-      </c>
       <c r="L131" t="n">
-        <v>0.1533875125130273</v>
+        <v>0.09459656360250246</v>
       </c>
       <c r="M131" t="n">
-        <v>0.05123872544037552</v>
+        <v>0.0512969767575789</v>
       </c>
       <c r="N131" t="n">
-        <v>0.0385894543266638</v>
+        <v>0.1515111960675775</v>
       </c>
       <c r="O131" t="n">
-        <v>0.05188573500103184</v>
+        <v>0.0515606377016559</v>
       </c>
     </row>
     <row r="132" ht="15" customHeight="1">
       <c r="F132" t="n">
-        <v>0.03850167683687772</v>
+        <v>0.0485779738744609</v>
       </c>
       <c r="G132" t="n">
+        <v>0.0433166580227218</v>
+      </c>
+      <c r="J132" t="n">
+        <v>0.03823830233627246</v>
+      </c>
+      <c r="K132" t="n">
         <v>0.05267188250104747</v>
       </c>
-      <c r="J132" t="n">
-        <v>0.09434809171281563</v>
-      </c>
-      <c r="K132" t="n">
-        <v>0.05243684868067338</v>
-      </c>
       <c r="L132" t="n">
-        <v>0.1535520940886166</v>
+        <v>0.09459028233391381</v>
       </c>
       <c r="M132" t="n">
-        <v>0.05201506976522969</v>
+        <v>0.05207420367814827</v>
       </c>
       <c r="N132" t="n">
-        <v>0.03850167683687772</v>
+        <v>0.1506246511372798</v>
       </c>
       <c r="O132" t="n">
-        <v>0.05267188250104747</v>
+        <v>0.05234185948501432</v>
       </c>
     </row>
     <row r="133" ht="15" customHeight="1">
       <c r="F133" t="n">
-        <v>0.03820817860211163</v>
+        <v>0.04873548348593542</v>
       </c>
       <c r="G133" t="n">
+        <v>0.04396317530664302</v>
+      </c>
+      <c r="J133" t="n">
+        <v>0.03845063595933046</v>
+      </c>
+      <c r="K133" t="n">
         <v>0.0534580300010631</v>
       </c>
-      <c r="J133" t="n">
-        <v>0.09444115833954897</v>
-      </c>
-      <c r="K133" t="n">
-        <v>0.05321948821322074</v>
-      </c>
       <c r="L133" t="n">
-        <v>0.1533979604724036</v>
+        <v>0.09396411305007482</v>
       </c>
       <c r="M133" t="n">
-        <v>0.05279141409008387</v>
+        <v>0.05285143059871764</v>
       </c>
       <c r="N133" t="n">
-        <v>0.03820817860211163</v>
+        <v>0.1496036012219628</v>
       </c>
       <c r="O133" t="n">
-        <v>0.0534580300010631</v>
+        <v>0.05312308126837274</v>
       </c>
     </row>
     <row r="134" ht="15" customHeight="1">
       <c r="F134" t="n">
-        <v>0.03820929595764561</v>
+        <v>0.04888939312156448</v>
       </c>
       <c r="G134" t="n">
+        <v>0.04460969259056424</v>
+      </c>
+      <c r="J134" t="n">
+        <v>0.03815790114358752</v>
+      </c>
+      <c r="K134" t="n">
         <v>0.05424417750107874</v>
       </c>
-      <c r="J134" t="n">
-        <v>0.09421707949820207</v>
-      </c>
-      <c r="K134" t="n">
-        <v>0.0540021277457681</v>
-      </c>
       <c r="L134" t="n">
-        <v>0.1531257230988877</v>
+        <v>0.09411958395222858</v>
       </c>
       <c r="M134" t="n">
-        <v>0.05356775841493805</v>
+        <v>0.05362865751928703</v>
       </c>
       <c r="N134" t="n">
-        <v>0.03820929595764561</v>
+        <v>0.1500512619695228</v>
       </c>
       <c r="O134" t="n">
-        <v>0.05424417750107874</v>
+        <v>0.05390430305173117</v>
       </c>
     </row>
     <row r="135" ht="15" customHeight="1">
       <c r="F135" t="n">
-        <v>0.03800536523875965</v>
+        <v>0.04903961094851183</v>
       </c>
       <c r="G135" t="n">
+        <v>0.04525620987448546</v>
+      </c>
+      <c r="J135" t="n">
+        <v>0.03806041025005</v>
+      </c>
+      <c r="K135" t="n">
         <v>0.05503032500109437</v>
       </c>
-      <c r="J135" t="n">
-        <v>0.09427714076104846</v>
-      </c>
-      <c r="K135" t="n">
-        <v>0.05478476727831547</v>
-      </c>
       <c r="L135" t="n">
-        <v>0.1522359934025687</v>
+        <v>0.09355822324161819</v>
       </c>
       <c r="M135" t="n">
-        <v>0.05434410273979221</v>
+        <v>0.05440588443985641</v>
       </c>
       <c r="N135" t="n">
-        <v>0.03800536523875965</v>
+        <v>0.1493708490278562</v>
       </c>
       <c r="O135" t="n">
-        <v>0.05503032500109437</v>
+        <v>0.05468552483508959</v>
       </c>
     </row>
     <row r="136" ht="15" customHeight="1">
       <c r="F136" t="n">
-        <v>0.03779672278073387</v>
+        <v>0.04918604513394121</v>
       </c>
       <c r="G136" t="n">
+        <v>0.04590272715840668</v>
+      </c>
+      <c r="J136" t="n">
+        <v>0.03805847563972424</v>
+      </c>
+      <c r="K136" t="n">
         <v>0.05581647250111001</v>
       </c>
-      <c r="J136" t="n">
-        <v>0.0936226277003615</v>
-      </c>
-      <c r="K136" t="n">
-        <v>0.05556740681086283</v>
-      </c>
       <c r="L136" t="n">
-        <v>0.1515293828179458</v>
+        <v>0.09338155911948662</v>
       </c>
       <c r="M136" t="n">
-        <v>0.05512044706464639</v>
+        <v>0.05518311136042579</v>
       </c>
       <c r="N136" t="n">
-        <v>0.03779672278073387</v>
+        <v>0.1475655780448592</v>
       </c>
       <c r="O136" t="n">
-        <v>0.05581647250111001</v>
+        <v>0.05546674661844802</v>
       </c>
     </row>
     <row r="137" ht="15" customHeight="1">
       <c r="F137" t="n">
-        <v>0.03778370491884826</v>
+        <v>0.04932860384501641</v>
       </c>
       <c r="G137" t="n">
+        <v>0.0465492444423279</v>
+      </c>
+      <c r="J137" t="n">
+        <v>0.03805240967361656</v>
+      </c>
+      <c r="K137" t="n">
         <v>0.05660262000112564</v>
       </c>
-      <c r="J137" t="n">
-        <v>0.09275482588841469</v>
-      </c>
-      <c r="K137" t="n">
-        <v>0.05635004634341019</v>
-      </c>
       <c r="L137" t="n">
-        <v>0.1523065027795187</v>
+        <v>0.09309111978707704</v>
       </c>
       <c r="M137" t="n">
-        <v>0.05589679138950056</v>
+        <v>0.05596033828099516</v>
       </c>
       <c r="N137" t="n">
-        <v>0.03778370491884826</v>
+        <v>0.147138664668428</v>
       </c>
       <c r="O137" t="n">
-        <v>0.05660262000112564</v>
+        <v>0.05624796840180644</v>
       </c>
     </row>
     <row r="138" ht="15" customHeight="1">
       <c r="F138" t="n">
-        <v>0.03766664798838291</v>
+        <v>0.04946719524890115</v>
       </c>
       <c r="G138" t="n">
+        <v>0.04719576172624912</v>
+      </c>
+      <c r="J138" t="n">
+        <v>0.03794252471273329</v>
+      </c>
+      <c r="K138" t="n">
         <v>0.05738876750114128</v>
       </c>
-      <c r="J138" t="n">
-        <v>0.0928750208974814</v>
-      </c>
-      <c r="K138" t="n">
-        <v>0.05713268587595756</v>
-      </c>
       <c r="L138" t="n">
-        <v>0.151267964721787</v>
+        <v>0.09208843344563239</v>
       </c>
       <c r="M138" t="n">
-        <v>0.05667313571435475</v>
+        <v>0.05673756520156453</v>
       </c>
       <c r="N138" t="n">
-        <v>0.03766664798838291</v>
+        <v>0.1458933245464588</v>
       </c>
       <c r="O138" t="n">
-        <v>0.05738876750114128</v>
+        <v>0.05702919018516486</v>
       </c>
     </row>
     <row r="139" ht="15" customHeight="1">
       <c r="F139" t="n">
-        <v>0.03744588832461788</v>
+        <v>0.04960172751275922</v>
       </c>
       <c r="G139" t="n">
+        <v>0.04784227901017034</v>
+      </c>
+      <c r="J139" t="n">
+        <v>0.03752913311808082</v>
+      </c>
+      <c r="K139" t="n">
         <v>0.05817491500115691</v>
       </c>
-      <c r="J139" t="n">
-        <v>0.092384498299835</v>
-      </c>
-      <c r="K139" t="n">
-        <v>0.05791532540850492</v>
-      </c>
       <c r="L139" t="n">
-        <v>0.1510143800792502</v>
+        <v>0.09197502829639589</v>
       </c>
       <c r="M139" t="n">
-        <v>0.05744948003920891</v>
+        <v>0.05751479212213392</v>
       </c>
       <c r="N139" t="n">
-        <v>0.03744588832461788</v>
+        <v>0.1451327733268478</v>
       </c>
       <c r="O139" t="n">
-        <v>0.05817491500115691</v>
+        <v>0.05781041196852328</v>
       </c>
     </row>
     <row r="140" ht="15" customHeight="1">
       <c r="F140" t="n">
-        <v>0.03732176226283321</v>
+        <v>0.04973210880375436</v>
       </c>
       <c r="G140" t="n">
+        <v>0.04848879629409156</v>
+      </c>
+      <c r="J140" t="n">
+        <v>0.03741254725066545</v>
+      </c>
+      <c r="K140" t="n">
         <v>0.05896106250117255</v>
       </c>
-      <c r="J140" t="n">
-        <v>0.09188454366774906</v>
-      </c>
-      <c r="K140" t="n">
-        <v>0.05869796494105229</v>
-      </c>
       <c r="L140" t="n">
-        <v>0.1502463602864078</v>
+        <v>0.09215243254061045</v>
       </c>
       <c r="M140" t="n">
-        <v>0.05822582436406309</v>
+        <v>0.05829201904270329</v>
       </c>
       <c r="N140" t="n">
-        <v>0.03732176226283321</v>
+        <v>0.1454602266574915</v>
       </c>
       <c r="O140" t="n">
-        <v>0.05896106250117255</v>
+        <v>0.0585916337518817</v>
       </c>
     </row>
     <row r="141" ht="15" customHeight="1">
       <c r="F141" t="n">
-        <v>0.03749460613830892</v>
+        <v>0.04985824728905034</v>
       </c>
       <c r="G141" t="n">
+        <v>0.04913531357801278</v>
+      </c>
+      <c r="J141" t="n">
+        <v>0.03739307947149352</v>
+      </c>
+      <c r="K141" t="n">
         <v>0.05974721000118818</v>
       </c>
-      <c r="J141" t="n">
-        <v>0.09197644257349688</v>
-      </c>
-      <c r="K141" t="n">
-        <v>0.05948060447359965</v>
-      </c>
       <c r="L141" t="n">
-        <v>0.1493645167777594</v>
+        <v>0.09102217437951921</v>
       </c>
       <c r="M141" t="n">
-        <v>0.05900216868891726</v>
+        <v>0.05906924596327266</v>
       </c>
       <c r="N141" t="n">
-        <v>0.03749460613830892</v>
+        <v>0.1441789001862859</v>
       </c>
       <c r="O141" t="n">
-        <v>0.05974721000118818</v>
+        <v>0.05937285553524013</v>
       </c>
     </row>
     <row r="142" ht="15" customHeight="1">
       <c r="F142" t="n">
-        <v>0.03736475628632512</v>
+        <v>0.04998005113581088</v>
       </c>
       <c r="G142" t="n">
+        <v>0.049781830861934</v>
+      </c>
+      <c r="J142" t="n">
+        <v>0.03747104214157142</v>
+      </c>
+      <c r="K142" t="n">
         <v>0.0605333575012038</v>
       </c>
-      <c r="J142" t="n">
-        <v>0.09106148058935193</v>
-      </c>
-      <c r="K142" t="n">
-        <v>0.06026324400614702</v>
-      </c>
       <c r="L142" t="n">
-        <v>0.1499694609878045</v>
+        <v>0.09078578201436521</v>
       </c>
       <c r="M142" t="n">
-        <v>0.05977851301377144</v>
+        <v>0.05984647288384205</v>
       </c>
       <c r="N142" t="n">
-        <v>0.03736475628632512</v>
+        <v>0.1430920095611273</v>
       </c>
       <c r="O142" t="n">
-        <v>0.0605333575012038</v>
+        <v>0.06015407731859854</v>
       </c>
     </row>
     <row r="143" ht="15" customHeight="1">
       <c r="F143" t="n">
-        <v>0.03713254904216182</v>
+        <v>0.05009742851119977</v>
       </c>
       <c r="G143" t="n">
+        <v>0.05042834814585523</v>
+      </c>
+      <c r="J143" t="n">
+        <v>0.03704674762190543</v>
+      </c>
+      <c r="K143" t="n">
         <v>0.06131950500121944</v>
       </c>
-      <c r="J143" t="n">
-        <v>0.09104094328758766</v>
-      </c>
-      <c r="K143" t="n">
-        <v>0.06104588353869438</v>
-      </c>
       <c r="L143" t="n">
-        <v>0.1491618043510427</v>
+        <v>0.09044478364639155</v>
       </c>
       <c r="M143" t="n">
-        <v>0.06055485733862561</v>
+        <v>0.06062369980441142</v>
       </c>
       <c r="N143" t="n">
-        <v>0.03713254904216182</v>
+        <v>0.141802770429912</v>
       </c>
       <c r="O143" t="n">
-        <v>0.06131950500121944</v>
+        <v>0.06093529910195698</v>
       </c>
     </row>
     <row r="144" ht="15" customHeight="1">
       <c r="F144" t="n">
-        <v>0.03679832074109909</v>
+        <v>0.05021028758238078</v>
       </c>
       <c r="G144" t="n">
+        <v>0.05107486542977644</v>
+      </c>
+      <c r="J144" t="n">
+        <v>0.03702050827350194</v>
+      </c>
+      <c r="K144" t="n">
         <v>0.06210565250123507</v>
       </c>
-      <c r="J144" t="n">
-        <v>0.09011611624047747</v>
-      </c>
-      <c r="K144" t="n">
-        <v>0.06182852307124174</v>
-      </c>
       <c r="L144" t="n">
-        <v>0.1490421583019735</v>
+        <v>0.0898007074768413</v>
       </c>
       <c r="M144" t="n">
-        <v>0.06133120166347979</v>
+        <v>0.06140092672498081</v>
       </c>
       <c r="N144" t="n">
-        <v>0.03679832074109909</v>
+        <v>0.1411143984405362</v>
       </c>
       <c r="O144" t="n">
-        <v>0.06210565250123507</v>
+        <v>0.06171652088531539</v>
       </c>
     </row>
     <row r="145" ht="15" customHeight="1">
       <c r="F145" t="n">
-        <v>0.03666240771841697</v>
+        <v>0.05031853651651761</v>
       </c>
       <c r="G145" t="n">
+        <v>0.05172138271369767</v>
+      </c>
+      <c r="J145" t="n">
+        <v>0.03679263645736726</v>
+      </c>
+      <c r="K145" t="n">
         <v>0.06289180000125072</v>
       </c>
-      <c r="J145" t="n">
-        <v>0.08938828502029475</v>
-      </c>
-      <c r="K145" t="n">
-        <v>0.06261116260378911</v>
-      </c>
       <c r="L145" t="n">
-        <v>0.1485111342750964</v>
+        <v>0.08975508170695745</v>
       </c>
       <c r="M145" t="n">
-        <v>0.06210754598833396</v>
+        <v>0.06217815364555018</v>
       </c>
       <c r="N145" t="n">
-        <v>0.03666240771841697</v>
+        <v>0.1408301092408962</v>
       </c>
       <c r="O145" t="n">
-        <v>0.06289180000125072</v>
+        <v>0.06249774266867381</v>
       </c>
     </row>
     <row r="146" ht="15" customHeight="1">
       <c r="F146" t="n">
-        <v>0.03672514630939555</v>
+        <v>0.05042208348077407</v>
       </c>
       <c r="G146" t="n">
+        <v>0.05236789999761889</v>
+      </c>
+      <c r="J146" t="n">
+        <v>0.03676344453450774</v>
+      </c>
+      <c r="K146" t="n">
         <v>0.06367794750126635</v>
       </c>
-      <c r="J146" t="n">
-        <v>0.08985873519931301</v>
-      </c>
-      <c r="K146" t="n">
-        <v>0.06339380213633647</v>
-      </c>
       <c r="L146" t="n">
-        <v>0.147369343704911</v>
+        <v>0.08860943453798309</v>
       </c>
       <c r="M146" t="n">
-        <v>0.06288389031318813</v>
+        <v>0.06295538056611956</v>
       </c>
       <c r="N146" t="n">
-        <v>0.03672514630939555</v>
+        <v>0.1403531184788882</v>
       </c>
       <c r="O146" t="n">
-        <v>0.06367794750126635</v>
+        <v>0.06327896445203224</v>
       </c>
     </row>
     <row r="147" ht="15" customHeight="1">
       <c r="F147" t="n">
-        <v>0.03648687284931483</v>
+        <v>0.05052083664231389</v>
       </c>
       <c r="G147" t="n">
+        <v>0.0530144172815401</v>
+      </c>
+      <c r="J147" t="n">
+        <v>0.03673324486592973</v>
+      </c>
+      <c r="K147" t="n">
         <v>0.06446409500128199</v>
       </c>
-      <c r="J147" t="n">
-        <v>0.08852875234980559</v>
-      </c>
-      <c r="K147" t="n">
-        <v>0.06417644166888384</v>
-      </c>
       <c r="L147" t="n">
-        <v>0.1472173980259168</v>
+        <v>0.08836529417116135</v>
       </c>
       <c r="M147" t="n">
-        <v>0.06366023463804231</v>
+        <v>0.06373260748668894</v>
       </c>
       <c r="N147" t="n">
-        <v>0.03648687284931483</v>
+        <v>0.1392866418024084</v>
       </c>
       <c r="O147" t="n">
-        <v>0.06446409500128199</v>
+        <v>0.06406018623539066</v>
       </c>
     </row>
     <row r="148" ht="15" customHeight="1">
       <c r="F148" t="n">
-        <v>0.03634792367345491</v>
+        <v>0.05061470416830085</v>
       </c>
       <c r="G148" t="n">
+        <v>0.05366093456546133</v>
+      </c>
+      <c r="J148" t="n">
+        <v>0.03660234981263957</v>
+      </c>
+      <c r="K148" t="n">
         <v>0.06525024250129761</v>
       </c>
-      <c r="J148" t="n">
-        <v>0.08829962204404596</v>
-      </c>
-      <c r="K148" t="n">
-        <v>0.06495908120143119</v>
-      </c>
       <c r="L148" t="n">
-        <v>0.1473559086726134</v>
+        <v>0.08782418880773521</v>
       </c>
       <c r="M148" t="n">
-        <v>0.06443657896289649</v>
+        <v>0.06450983440725831</v>
       </c>
       <c r="N148" t="n">
-        <v>0.03634792367345491</v>
+        <v>0.1380338948593531</v>
       </c>
       <c r="O148" t="n">
-        <v>0.06525024250129761</v>
+        <v>0.06484140801874909</v>
       </c>
     </row>
     <row r="149" ht="15" customHeight="1">
       <c r="F149" t="n">
-        <v>0.03610863511709581</v>
+        <v>0.05070359422589866</v>
       </c>
       <c r="G149" t="n">
+        <v>0.05430745184938255</v>
+      </c>
+      <c r="J149" t="n">
+        <v>0.03657107173564361</v>
+      </c>
+      <c r="K149" t="n">
         <v>0.06603639000131326</v>
       </c>
-      <c r="J149" t="n">
-        <v>0.08827262985430756</v>
-      </c>
-      <c r="K149" t="n">
-        <v>0.06574172073397856</v>
-      </c>
       <c r="L149" t="n">
-        <v>0.1471854870795004</v>
+        <v>0.0880876466489478</v>
       </c>
       <c r="M149" t="n">
-        <v>0.06521292328775066</v>
+        <v>0.06528706132782769</v>
       </c>
       <c r="N149" t="n">
-        <v>0.03610863511709581</v>
+        <v>0.1376980932976187</v>
       </c>
       <c r="O149" t="n">
-        <v>0.06603639000131326</v>
+        <v>0.06562262980210751</v>
       </c>
     </row>
     <row r="150" ht="15" customHeight="1">
       <c r="F150" t="n">
-        <v>0.0360693435155176</v>
+        <v>0.05078741498227114</v>
       </c>
       <c r="G150" t="n">
+        <v>0.05495396913330377</v>
+      </c>
+      <c r="J150" t="n">
+        <v>0.03633972299594816</v>
+      </c>
+      <c r="K150" t="n">
         <v>0.06682253750132888</v>
       </c>
-      <c r="J150" t="n">
-        <v>0.08764906135286379</v>
-      </c>
-      <c r="K150" t="n">
-        <v>0.06652436026652593</v>
-      </c>
       <c r="L150" t="n">
-        <v>0.1454067446810771</v>
+        <v>0.08775719589604211</v>
       </c>
       <c r="M150" t="n">
-        <v>0.06598926761260483</v>
+        <v>0.06606428824839707</v>
       </c>
       <c r="N150" t="n">
-        <v>0.0360693435155176</v>
+        <v>0.1379824527651011</v>
       </c>
       <c r="O150" t="n">
-        <v>0.06682253750132888</v>
+        <v>0.06640385158546594</v>
       </c>
     </row>
     <row r="151" ht="15" customHeight="1">
       <c r="F151" t="n">
-        <v>0.03613038520400033</v>
+        <v>0.050866074604582</v>
       </c>
       <c r="G151" t="n">
+        <v>0.05560048641722499</v>
+      </c>
+      <c r="J151" t="n">
+        <v>0.03610861595455961</v>
+      </c>
+      <c r="K151" t="n">
         <v>0.06760868500134452</v>
       </c>
-      <c r="J151" t="n">
-        <v>0.08753020211198803</v>
-      </c>
-      <c r="K151" t="n">
-        <v>0.06730699979907329</v>
-      </c>
       <c r="L151" t="n">
-        <v>0.1453202929118432</v>
+        <v>0.08713436475026123</v>
       </c>
       <c r="M151" t="n">
-        <v>0.066765611937459</v>
+        <v>0.06684151516896644</v>
       </c>
       <c r="N151" t="n">
-        <v>0.03613038520400033</v>
+        <v>0.1361901889096969</v>
       </c>
       <c r="O151" t="n">
-        <v>0.06760868500134452</v>
+        <v>0.06718507336882436</v>
       </c>
     </row>
     <row r="152" ht="15" customHeight="1">
       <c r="F152" t="n">
-        <v>0.03599209651782405</v>
+        <v>0.05093948125999501</v>
       </c>
       <c r="G152" t="n">
+        <v>0.05624700370114621</v>
+      </c>
+      <c r="J152" t="n">
+        <v>0.03597806297248424</v>
+      </c>
+      <c r="K152" t="n">
         <v>0.06839483250136015</v>
       </c>
-      <c r="J152" t="n">
-        <v>0.08661733770395383</v>
-      </c>
-      <c r="K152" t="n">
-        <v>0.06808963933162065</v>
-      </c>
       <c r="L152" t="n">
-        <v>0.1452267432062983</v>
+        <v>0.08612068141284829</v>
       </c>
       <c r="M152" t="n">
-        <v>0.06754195626231319</v>
+        <v>0.06761874208953582</v>
       </c>
       <c r="N152" t="n">
-        <v>0.03599209651782405</v>
+        <v>0.136124517379302</v>
       </c>
       <c r="O152" t="n">
-        <v>0.06839483250136015</v>
+        <v>0.06796629515218278</v>
       </c>
     </row>
     <row r="153" ht="15" customHeight="1">
       <c r="F153" t="n">
-        <v>0.0356548137922688</v>
+        <v>0.0510075431156739</v>
       </c>
       <c r="G153" t="n">
+        <v>0.05689352098506744</v>
+      </c>
+      <c r="J153" t="n">
+        <v>0.03574837641072845</v>
+      </c>
+      <c r="K153" t="n">
         <v>0.06918098000137579</v>
       </c>
-      <c r="J153" t="n">
-        <v>0.08681175370103453</v>
-      </c>
-      <c r="K153" t="n">
-        <v>0.06887227886416802</v>
-      </c>
       <c r="L153" t="n">
-        <v>0.1440267069989418</v>
+        <v>0.08581767408504626</v>
       </c>
       <c r="M153" t="n">
-        <v>0.06831830058716737</v>
+        <v>0.0683959690101052</v>
       </c>
       <c r="N153" t="n">
-        <v>0.0356548137922688</v>
+        <v>0.1356886538218129</v>
       </c>
       <c r="O153" t="n">
-        <v>0.06918098000137579</v>
+        <v>0.06874751693554119</v>
       </c>
     </row>
     <row r="154" ht="15" customHeight="1">
       <c r="F154" t="n">
-        <v>0.03561887336261466</v>
+        <v>0.05107016833878249</v>
       </c>
       <c r="G154" t="n">
+        <v>0.05754003826898865</v>
+      </c>
+      <c r="J154" t="n">
+        <v>0.03581986863029855</v>
+      </c>
+      <c r="K154" t="n">
         <v>0.06996712750139142</v>
       </c>
-      <c r="J154" t="n">
-        <v>0.08611473567550348</v>
-      </c>
-      <c r="K154" t="n">
-        <v>0.06965491839671538</v>
-      </c>
       <c r="L154" t="n">
-        <v>0.1435207957242733</v>
+        <v>0.08552687096809827</v>
       </c>
       <c r="M154" t="n">
-        <v>0.06909464491202152</v>
+        <v>0.06917319593067457</v>
       </c>
       <c r="N154" t="n">
-        <v>0.03561887336261466</v>
+        <v>0.1350858138851257</v>
       </c>
       <c r="O154" t="n">
-        <v>0.06996712750139142</v>
+        <v>0.06952873871889961</v>
       </c>
     </row>
     <row r="155" ht="15" customHeight="1">
       <c r="F155" t="n">
-        <v>0.03528461156414166</v>
+        <v>0.05112726509648447</v>
       </c>
       <c r="G155" t="n">
+        <v>0.05818655555290988</v>
+      </c>
+      <c r="J155" t="n">
+        <v>0.03579285199220089</v>
+      </c>
+      <c r="K155" t="n">
         <v>0.07075327500140705</v>
       </c>
-      <c r="J155" t="n">
-        <v>0.08552756919963431</v>
-      </c>
-      <c r="K155" t="n">
-        <v>0.07043755792926275</v>
-      </c>
       <c r="L155" t="n">
-        <v>0.1434096208167925</v>
+        <v>0.08524980026324736</v>
       </c>
       <c r="M155" t="n">
-        <v>0.06987098923687571</v>
+        <v>0.06995042285124395</v>
       </c>
       <c r="N155" t="n">
-        <v>0.03528461156414166</v>
+        <v>0.1337192132171369</v>
       </c>
       <c r="O155" t="n">
-        <v>0.07075327500140705</v>
+        <v>0.07030996050225805</v>
       </c>
     </row>
     <row r="156" ht="15" customHeight="1">
       <c r="F156" t="n">
-        <v>0.03545236473212986</v>
+        <v>0.05117874155594365</v>
       </c>
       <c r="G156" t="n">
+        <v>0.0588330728368311</v>
+      </c>
+      <c r="J156" t="n">
+        <v>0.03566763885744183</v>
+      </c>
+      <c r="K156" t="n">
         <v>0.07153942250142269</v>
       </c>
-      <c r="J156" t="n">
-        <v>0.08485153984570024</v>
-      </c>
-      <c r="K156" t="n">
-        <v>0.07122019746181012</v>
-      </c>
       <c r="L156" t="n">
-        <v>0.1429937937109986</v>
+        <v>0.08528799017173655</v>
       </c>
       <c r="M156" t="n">
-        <v>0.07064733356172988</v>
+        <v>0.07072764977181334</v>
       </c>
       <c r="N156" t="n">
-        <v>0.03545236473212986</v>
+        <v>0.1342920674657424</v>
       </c>
       <c r="O156" t="n">
-        <v>0.07153942250142269</v>
+        <v>0.07109118228561646</v>
       </c>
     </row>
     <row r="157" ht="15" customHeight="1">
       <c r="F157" t="n">
-        <v>0.03532244270600085</v>
+        <v>0.05122450588432375</v>
       </c>
       <c r="G157" t="n">
+        <v>0.05947959012075231</v>
+      </c>
+      <c r="J157" t="n">
+        <v>0.03554454158702766</v>
+      </c>
+      <c r="K157" t="n">
         <v>0.07232557000143831</v>
       </c>
-      <c r="J157" t="n">
-        <v>0.08518793318597481</v>
-      </c>
-      <c r="K157" t="n">
-        <v>0.07200283699435747</v>
-      </c>
       <c r="L157" t="n">
-        <v>0.1423739258413915</v>
+        <v>0.08504296889480897</v>
       </c>
       <c r="M157" t="n">
-        <v>0.07142367788658406</v>
+        <v>0.0715048766923827</v>
       </c>
       <c r="N157" t="n">
-        <v>0.03532244270600085</v>
+        <v>0.1324075922788386</v>
       </c>
       <c r="O157" t="n">
-        <v>0.07232557000143831</v>
+        <v>0.0718724040689749</v>
       </c>
     </row>
     <row r="158" ht="15" customHeight="1">
       <c r="F158" t="n">
-        <v>0.03488866381299706</v>
+        <v>0.05126446624878853</v>
       </c>
       <c r="G158" t="n">
+        <v>0.06012610740467354</v>
+      </c>
+      <c r="J158" t="n">
+        <v>0.0351219743874702</v>
+      </c>
+      <c r="K158" t="n">
         <v>0.07311171750145395</v>
       </c>
-      <c r="J158" t="n">
-        <v>0.08483025889035942</v>
-      </c>
-      <c r="K158" t="n">
-        <v>0.07278547652690484</v>
-      </c>
       <c r="L158" t="n">
-        <v>0.1413506286424706</v>
+        <v>0.08411161928813848</v>
       </c>
       <c r="M158" t="n">
-        <v>0.07220002221143823</v>
+        <v>0.07228210361295208</v>
       </c>
       <c r="N158" t="n">
-        <v>0.03488866381299706</v>
+        <v>0.1323584252567596</v>
       </c>
       <c r="O158" t="n">
-        <v>0.07311171750145395</v>
+        <v>0.07265362585233331</v>
       </c>
     </row>
     <row r="159" ht="15" customHeight="1">
       <c r="F159" t="n">
-        <v>0.03504643521244025</v>
+        <v>0.05129853081650176</v>
       </c>
       <c r="G159" t="n">
+        <v>0.06077262468859476</v>
+      </c>
+      <c r="J159" t="n">
+        <v>0.03499686204632987</v>
+      </c>
+      <c r="K159" t="n">
         <v>0.07389786500146958</v>
       </c>
-      <c r="J159" t="n">
-        <v>0.08446923644431931</v>
-      </c>
-      <c r="K159" t="n">
-        <v>0.0735681160594522</v>
-      </c>
       <c r="L159" t="n">
-        <v>0.1423245135487352</v>
+        <v>0.08398643887397927</v>
       </c>
       <c r="M159" t="n">
-        <v>0.0729763665362924</v>
+        <v>0.07305933053352147</v>
       </c>
       <c r="N159" t="n">
-        <v>0.03504643521244025</v>
+        <v>0.1323275528485514</v>
       </c>
       <c r="O159" t="n">
-        <v>0.07389786500146958</v>
+        <v>0.07343484763569173</v>
       </c>
     </row>
     <row r="160" ht="15" customHeight="1">
       <c r="F160" t="n">
-        <v>0.03479624110688799</v>
+        <v>0.05132660775462721</v>
       </c>
       <c r="G160" t="n">
+        <v>0.06141914197251599</v>
+      </c>
+      <c r="J160" t="n">
+        <v>0.03506916889473306</v>
+      </c>
+      <c r="K160" t="n">
         <v>0.07468401250148522</v>
       </c>
-      <c r="J160" t="n">
-        <v>0.08370492021333056</v>
-      </c>
-      <c r="K160" t="n">
-        <v>0.07435075559199956</v>
-      </c>
       <c r="L160" t="n">
-        <v>0.1404961919946852</v>
+        <v>0.0837667522230543</v>
       </c>
       <c r="M160" t="n">
-        <v>0.07375271086114658</v>
+        <v>0.07383655745409085</v>
       </c>
       <c r="N160" t="n">
-        <v>0.03479624110688799</v>
+        <v>0.1319134773605513</v>
       </c>
       <c r="O160" t="n">
-        <v>0.07468401250148522</v>
+        <v>0.07421606941905017</v>
       </c>
     </row>
     <row r="161" ht="15" customHeight="1">
       <c r="F161" t="n">
-        <v>0.03443856569889783</v>
+        <v>0.05134860523032859</v>
       </c>
       <c r="G161" t="n">
+        <v>0.0620656592564372</v>
+      </c>
+      <c r="J161" t="n">
+        <v>0.03503891105740178</v>
+      </c>
+      <c r="K161" t="n">
         <v>0.07547016000150085</v>
       </c>
-      <c r="J161" t="n">
-        <v>0.08343739616730228</v>
-      </c>
-      <c r="K161" t="n">
-        <v>0.07513339512454693</v>
-      </c>
       <c r="L161" t="n">
-        <v>0.1411662754148201</v>
+        <v>0.08375200287525836</v>
       </c>
       <c r="M161" t="n">
-        <v>0.07452905518600075</v>
+        <v>0.07461378437466021</v>
       </c>
       <c r="N161" t="n">
-        <v>0.03443856569889783</v>
+        <v>0.1316149604873795</v>
       </c>
       <c r="O161" t="n">
-        <v>0.07547016000150085</v>
+        <v>0.07499729120240857</v>
       </c>
     </row>
     <row r="162" ht="15" customHeight="1">
       <c r="F162" t="n">
-        <v>0.03447389319102734</v>
+        <v>0.05136443141076971</v>
       </c>
       <c r="G162" t="n">
+        <v>0.06271217654035842</v>
+      </c>
+      <c r="J162" t="n">
+        <v>0.03490610465905795</v>
+      </c>
+      <c r="K162" t="n">
         <v>0.07625630750151649</v>
       </c>
-      <c r="J162" t="n">
-        <v>0.0831667502761437</v>
-      </c>
-      <c r="K162" t="n">
-        <v>0.07591603465709429</v>
-      </c>
       <c r="L162" t="n">
-        <v>0.1396353752436392</v>
+        <v>0.08304163437048628</v>
       </c>
       <c r="M162" t="n">
-        <v>0.07530539951085492</v>
+        <v>0.07539101129522958</v>
       </c>
       <c r="N162" t="n">
-        <v>0.03447389319102734</v>
+        <v>0.1317307639236562</v>
       </c>
       <c r="O162" t="n">
-        <v>0.07625630750151649</v>
+        <v>0.075778512985767</v>
       </c>
     </row>
     <row r="163" ht="15" customHeight="1">
       <c r="F163" t="n">
-        <v>0.03440270778583406</v>
+        <v>0.05137399446311427</v>
       </c>
       <c r="G163" t="n">
+        <v>0.06335869382427965</v>
+      </c>
+      <c r="J163" t="n">
+        <v>0.03467076582442352</v>
+      </c>
+      <c r="K163" t="n">
         <v>0.07704245500153212</v>
       </c>
-      <c r="J163" t="n">
-        <v>0.08279306850976395</v>
-      </c>
-      <c r="K163" t="n">
-        <v>0.07669867418964166</v>
-      </c>
       <c r="L163" t="n">
-        <v>0.1399041029156422</v>
+        <v>0.08283509024863298</v>
       </c>
       <c r="M163" t="n">
-        <v>0.07608174383570911</v>
+        <v>0.07616823821579898</v>
       </c>
       <c r="N163" t="n">
-        <v>0.03440270778583406</v>
+        <v>0.1298596493640012</v>
       </c>
       <c r="O163" t="n">
-        <v>0.07704245500153212</v>
+        <v>0.07655973476912542</v>
       </c>
     </row>
     <row r="164" ht="15" customHeight="1">
       <c r="F164" t="n">
-        <v>0.03422549368587556</v>
+        <v>0.05137720255452605</v>
       </c>
       <c r="G164" t="n">
+        <v>0.06400521110820086</v>
+      </c>
+      <c r="J164" t="n">
+        <v>0.03453291067822045</v>
+      </c>
+      <c r="K164" t="n">
         <v>0.07782860250154776</v>
       </c>
-      <c r="J164" t="n">
-        <v>0.08241643683807215</v>
-      </c>
-      <c r="K164" t="n">
-        <v>0.07748131372218901</v>
-      </c>
       <c r="L164" t="n">
-        <v>0.1394730698653287</v>
+        <v>0.08263181404959322</v>
       </c>
       <c r="M164" t="n">
-        <v>0.07685808816056328</v>
+        <v>0.07694546513636834</v>
       </c>
       <c r="N164" t="n">
-        <v>0.03422549368587556</v>
+        <v>0.1306003785030349</v>
       </c>
       <c r="O164" t="n">
-        <v>0.07782860250154776</v>
+        <v>0.07734095655248385</v>
       </c>
     </row>
     <row r="165" ht="15" customHeight="1">
       <c r="F165" t="n">
-        <v>0.03394273509370942</v>
+        <v>0.05137720255452605</v>
       </c>
       <c r="G165" t="n">
+        <v>0.06400521110820086</v>
+      </c>
+      <c r="J165" t="n">
+        <v>0.03419255534517074</v>
+      </c>
+      <c r="K165" t="n">
         <v>0.07861475000156339</v>
       </c>
-      <c r="J165" t="n">
-        <v>0.08233694123097748</v>
-      </c>
-      <c r="K165" t="n">
-        <v>0.07826395325473638</v>
-      </c>
       <c r="L165" t="n">
-        <v>0.1388428875271981</v>
+        <v>0.08253124931326186</v>
       </c>
       <c r="M165" t="n">
-        <v>0.07763443248541745</v>
+        <v>0.07772269205693771</v>
       </c>
       <c r="N165" t="n">
-        <v>0.03394273509370942</v>
+        <v>0.1294517130353771</v>
       </c>
       <c r="O165" t="n">
-        <v>0.07861475000156339</v>
+        <v>0.07812217833584227</v>
       </c>
     </row>
     <row r="166" ht="15" customHeight="1">
       <c r="F166" t="n">
-        <v>0.03355491621189313</v>
+        <v>0.05051459786918631</v>
       </c>
       <c r="G166" t="n">
+        <v>0.06400494257973684</v>
+      </c>
+      <c r="J166" t="n">
+        <v>0.03424971594999628</v>
+      </c>
+      <c r="K166" t="n">
         <v>0.07940089750157903</v>
       </c>
-      <c r="J166" t="n">
-        <v>0.08185466765838903</v>
-      </c>
-      <c r="K166" t="n">
-        <v>0.07904659278728375</v>
-      </c>
       <c r="L166" t="n">
-        <v>0.1373141673357501</v>
+        <v>0.08143283957953382</v>
       </c>
       <c r="M166" t="n">
-        <v>0.07841077681027163</v>
+        <v>0.0784999189775071</v>
       </c>
       <c r="N166" t="n">
-        <v>0.03355491621189313</v>
+        <v>0.129712414655648</v>
       </c>
       <c r="O166" t="n">
-        <v>0.07940089750157903</v>
+        <v>0.07890340011920069</v>
       </c>
     </row>
     <row r="167" ht="15" customHeight="1">
       <c r="F167" t="n">
-        <v>0.03366252124298431</v>
+        <v>0.04966159400253903</v>
       </c>
       <c r="G167" t="n">
+        <v>0.06400467405127283</v>
+      </c>
+      <c r="J167" t="n">
+        <v>0.03400440861741906</v>
+      </c>
+      <c r="K167" t="n">
         <v>0.08018704500159465</v>
       </c>
-      <c r="J167" t="n">
-        <v>0.08146970209021601</v>
-      </c>
-      <c r="K167" t="n">
-        <v>0.07982923231983112</v>
-      </c>
       <c r="L167" t="n">
-        <v>0.1365875207254841</v>
+        <v>0.08103602838830387</v>
       </c>
       <c r="M167" t="n">
-        <v>0.0791871211351258</v>
+        <v>0.07927714589807648</v>
       </c>
       <c r="N167" t="n">
-        <v>0.03366252124298431</v>
+        <v>0.1284812450584676</v>
       </c>
       <c r="O167" t="n">
-        <v>0.08018704500159465</v>
+        <v>0.07968462190255912</v>
       </c>
     </row>
     <row r="168" ht="15" customHeight="1">
       <c r="F168" t="n">
-        <v>0.03346603438954049</v>
+        <v>0.04881863045595703</v>
       </c>
       <c r="G168" t="n">
+        <v>0.0640044055228088</v>
+      </c>
+      <c r="J168" t="n">
+        <v>0.03375664947216107</v>
+      </c>
+      <c r="K168" t="n">
         <v>0.08097319250161028</v>
       </c>
-      <c r="J168" t="n">
-        <v>0.08118213049636749</v>
-      </c>
-      <c r="K168" t="n">
-        <v>0.08061187185237847</v>
-      </c>
       <c r="L168" t="n">
-        <v>0.1364529938208062</v>
+        <v>0.08114025927946694</v>
       </c>
       <c r="M168" t="n">
-        <v>0.07996346545997998</v>
+        <v>0.08005437281864584</v>
       </c>
       <c r="N168" t="n">
-        <v>0.03346603438954049</v>
+        <v>0.1289569659384561</v>
       </c>
       <c r="O168" t="n">
-        <v>0.08097319250161028</v>
+        <v>0.08046584368591754</v>
       </c>
     </row>
     <row r="169" ht="15" customHeight="1">
       <c r="F169" t="n">
-        <v>0.03316593985411921</v>
+        <v>0.04798614673092282</v>
       </c>
       <c r="G169" t="n">
+        <v>0.06400413699434479</v>
+      </c>
+      <c r="J169" t="n">
+        <v>0.03360645463894422</v>
+      </c>
+      <c r="K169" t="n">
         <v>0.08175934000162592</v>
       </c>
-      <c r="J169" t="n">
-        <v>0.08059203884675273</v>
-      </c>
-      <c r="K169" t="n">
-        <v>0.08139451138492583</v>
-      </c>
       <c r="L169" t="n">
-        <v>0.1360993545116729</v>
+        <v>0.08084497579291774</v>
       </c>
       <c r="M169" t="n">
-        <v>0.08073980978483415</v>
+        <v>0.08083159973921523</v>
       </c>
       <c r="N169" t="n">
-        <v>0.03316593985411921</v>
+        <v>0.1285383389902334</v>
       </c>
       <c r="O169" t="n">
-        <v>0.08175934000162592</v>
+        <v>0.08124706546927596</v>
       </c>
     </row>
     <row r="170" ht="15" customHeight="1">
       <c r="F170" t="n">
-        <v>0.03286272183927809</v>
+        <v>0.04716458232880871</v>
       </c>
       <c r="G170" t="n">
+        <v>0.06400386846588077</v>
+      </c>
+      <c r="J170" t="n">
+        <v>0.03375384024249047</v>
+      </c>
+      <c r="K170" t="n">
         <v>0.08254548750164155</v>
       </c>
-      <c r="J170" t="n">
-        <v>0.07979951311128075</v>
-      </c>
-      <c r="K170" t="n">
-        <v>0.0821771509174732</v>
-      </c>
       <c r="L170" t="n">
-        <v>0.1361262769210073</v>
+        <v>0.08094962146855134</v>
       </c>
       <c r="M170" t="n">
-        <v>0.08151615410968832</v>
+        <v>0.08160882665978461</v>
       </c>
       <c r="N170" t="n">
-        <v>0.03286272183927809</v>
+        <v>0.1288241259084197</v>
       </c>
       <c r="O170" t="n">
-        <v>0.08254548750164155</v>
+        <v>0.08202828725263438</v>
       </c>
     </row>
     <row r="171" ht="15" customHeight="1">
       <c r="F171" t="n">
-        <v>0.03285686454757462</v>
+        <v>0.04635437675102388</v>
       </c>
       <c r="G171" t="n">
+        <v>0.06400359993741676</v>
+      </c>
+      <c r="J171" t="n">
+        <v>0.03359882240752179</v>
+      </c>
+      <c r="K171" t="n">
         <v>0.08333163500165719</v>
       </c>
-      <c r="J171" t="n">
-        <v>0.08010463925986078</v>
-      </c>
-      <c r="K171" t="n">
-        <v>0.08295979045002057</v>
-      </c>
       <c r="L171" t="n">
-        <v>0.1345334377274987</v>
+        <v>0.08075363984626235</v>
       </c>
       <c r="M171" t="n">
-        <v>0.0822924984345425</v>
+        <v>0.08238605358035399</v>
       </c>
       <c r="N171" t="n">
-        <v>0.03285686454757462</v>
+        <v>0.1279130883876349</v>
       </c>
       <c r="O171" t="n">
-        <v>0.08333163500165719</v>
+        <v>0.08280950903599281</v>
       </c>
     </row>
     <row r="172" ht="15" customHeight="1">
       <c r="F172" t="n">
-        <v>0.0323488521815664</v>
+        <v>0.04555596949894302</v>
       </c>
       <c r="G172" t="n">
+        <v>0.06400333140895273</v>
+      </c>
+      <c r="J172" t="n">
+        <v>0.03314141725876014</v>
+      </c>
+      <c r="K172" t="n">
         <v>0.08411778250167283</v>
       </c>
-      <c r="J172" t="n">
-        <v>0.07960750326240193</v>
-      </c>
-      <c r="K172" t="n">
-        <v>0.08374242998256794</v>
-      </c>
       <c r="L172" t="n">
-        <v>0.1345205136098361</v>
+        <v>0.08035647446594579</v>
       </c>
       <c r="M172" t="n">
-        <v>0.08306884275939667</v>
+        <v>0.08316328050092336</v>
       </c>
       <c r="N172" t="n">
-        <v>0.0323488521815664</v>
+        <v>0.1284039881224993</v>
       </c>
       <c r="O172" t="n">
-        <v>0.08411778250167283</v>
+        <v>0.08359073081935123</v>
       </c>
     </row>
     <row r="173" ht="15" customHeight="1">
       <c r="F173" t="n">
-        <v>0.03243916894381095</v>
+        <v>0.04476980007404486</v>
       </c>
       <c r="G173" t="n">
+        <v>0.06400306288048872</v>
+      </c>
+      <c r="J173" t="n">
+        <v>0.03308164092092745</v>
+      </c>
+      <c r="K173" t="n">
         <v>0.08490393000168846</v>
       </c>
-      <c r="J173" t="n">
-        <v>0.07860819108881328</v>
-      </c>
-      <c r="K173" t="n">
-        <v>0.08452506951511529</v>
-      </c>
       <c r="L173" t="n">
-        <v>0.1334871812467083</v>
+        <v>0.07935756886749643</v>
       </c>
       <c r="M173" t="n">
-        <v>0.08384518708425084</v>
+        <v>0.08394050742149274</v>
       </c>
       <c r="N173" t="n">
-        <v>0.03243916894381095</v>
+        <v>0.1266955868076329</v>
       </c>
       <c r="O173" t="n">
-        <v>0.08490393000168846</v>
+        <v>0.08437195260270965</v>
       </c>
     </row>
     <row r="174" ht="15" customHeight="1">
       <c r="F174" t="n">
-        <v>0.03192829903686586</v>
+        <v>0.04399630797770356</v>
       </c>
       <c r="G174" t="n">
+        <v>0.0640027943520247</v>
+      </c>
+      <c r="J174" t="n">
+        <v>0.03311950951874575</v>
+      </c>
+      <c r="K174" t="n">
         <v>0.0856900775017041</v>
       </c>
-      <c r="J174" t="n">
-        <v>0.0780067887090041</v>
-      </c>
-      <c r="K174" t="n">
-        <v>0.08530770904766266</v>
-      </c>
       <c r="L174" t="n">
-        <v>0.1329331173168045</v>
+        <v>0.07895636659080907</v>
       </c>
       <c r="M174" t="n">
-        <v>0.08462153140910503</v>
+        <v>0.08471773434206212</v>
       </c>
       <c r="N174" t="n">
-        <v>0.03192829903686586</v>
+        <v>0.1273866461376557</v>
       </c>
       <c r="O174" t="n">
-        <v>0.0856900775017041</v>
+        <v>0.08515317438606808</v>
       </c>
     </row>
     <row r="175" ht="15" customHeight="1">
       <c r="F175" t="n">
-        <v>0.03201672666328868</v>
+        <v>0.04323593271132831</v>
       </c>
       <c r="G175" t="n">
+        <v>0.0640025258235607</v>
+      </c>
+      <c r="J175" t="n">
+        <v>0.03285503917693691</v>
+      </c>
+      <c r="K175" t="n">
         <v>0.08647622500171974</v>
       </c>
-      <c r="J175" t="n">
-        <v>0.07800338209288352</v>
-      </c>
-      <c r="K175" t="n">
-        <v>0.08609034858021002</v>
-      </c>
       <c r="L175" t="n">
-        <v>0.1323579984988136</v>
+        <v>0.0786523111757787</v>
       </c>
       <c r="M175" t="n">
-        <v>0.0853978757339592</v>
+        <v>0.08549496126263149</v>
       </c>
       <c r="N175" t="n">
-        <v>0.03201672666328868</v>
+        <v>0.1274759278071879</v>
       </c>
       <c r="O175" t="n">
-        <v>0.08647622500171974</v>
+        <v>0.0859343961694265</v>
       </c>
     </row>
     <row r="176" ht="15" customHeight="1">
       <c r="F176" t="n">
-        <v>0.03150493602563696</v>
+        <v>0.04248911377629608</v>
       </c>
       <c r="G176" t="n">
+        <v>0.06400225729509666</v>
+      </c>
+      <c r="J176" t="n">
+        <v>0.03248824602022293</v>
+      </c>
+      <c r="K176" t="n">
         <v>0.08726237250173537</v>
       </c>
-      <c r="J176" t="n">
-        <v>0.0776980572103606</v>
-      </c>
-      <c r="K176" t="n">
-        <v>0.08687298811275738</v>
-      </c>
       <c r="L176" t="n">
-        <v>0.1320615014714246</v>
+        <v>0.07884484616230009</v>
       </c>
       <c r="M176" t="n">
-        <v>0.08617422005881338</v>
+        <v>0.08627218818320087</v>
       </c>
       <c r="N176" t="n">
-        <v>0.03150493602563696</v>
+        <v>0.1261621935108493</v>
       </c>
       <c r="O176" t="n">
-        <v>0.08726237250173537</v>
+        <v>0.08671561795278493</v>
       </c>
     </row>
     <row r="177" ht="15" customHeight="1">
       <c r="F177" t="n">
-        <v>0.03149341132646825</v>
+        <v>0.0417562906740811</v>
       </c>
       <c r="G177" t="n">
+        <v>0.06400198876663266</v>
+      </c>
+      <c r="J177" t="n">
+        <v>0.03231914617332576</v>
+      </c>
+      <c r="K177" t="n">
         <v>0.08804852000175101</v>
       </c>
-      <c r="J177" t="n">
-        <v>0.07689090003134461</v>
-      </c>
-      <c r="K177" t="n">
-        <v>0.08765562764530475</v>
-      </c>
       <c r="L177" t="n">
-        <v>0.1311433029133268</v>
+        <v>0.07893341509026808</v>
       </c>
       <c r="M177" t="n">
-        <v>0.08695056438366755</v>
+        <v>0.08704941510377025</v>
       </c>
       <c r="N177" t="n">
-        <v>0.03149341132646825</v>
+        <v>0.1264442049432603</v>
       </c>
       <c r="O177" t="n">
-        <v>0.08804852000175101</v>
+        <v>0.08749683973614335</v>
       </c>
     </row>
     <row r="178" ht="15" customHeight="1">
       <c r="F178" t="n">
-        <v>0.03128263676834012</v>
+        <v>0.04103790290605975</v>
       </c>
       <c r="G178" t="n">
+        <v>0.06400172023816864</v>
+      </c>
+      <c r="J178" t="n">
+        <v>0.03234775576096736</v>
+      </c>
+      <c r="K178" t="n">
         <v>0.08883466750176663</v>
       </c>
-      <c r="J178" t="n">
-        <v>0.07658199652574454</v>
-      </c>
-      <c r="K178" t="n">
-        <v>0.08843826717785212</v>
-      </c>
       <c r="L178" t="n">
-        <v>0.130403079503209</v>
+        <v>0.07781746149957755</v>
       </c>
       <c r="M178" t="n">
-        <v>0.08772690870852172</v>
+        <v>0.08782664202433962</v>
       </c>
       <c r="N178" t="n">
-        <v>0.03128263676834012</v>
+        <v>0.1261207237990407</v>
       </c>
       <c r="O178" t="n">
-        <v>0.08883466750176663</v>
+        <v>0.08827806151950177</v>
       </c>
     </row>
     <row r="179" ht="15" customHeight="1">
       <c r="F179" t="n">
-        <v>0.03087309655381013</v>
+        <v>0.04033438997364121</v>
       </c>
       <c r="G179" t="n">
+        <v>0.06400145170970462</v>
+      </c>
+      <c r="J179" t="n">
+        <v>0.03227409090786969</v>
+      </c>
+      <c r="K179" t="n">
         <v>0.08962081500178228</v>
       </c>
-      <c r="J179" t="n">
-        <v>0.07617143266346965</v>
-      </c>
-      <c r="K179" t="n">
-        <v>0.08922090671039948</v>
-      </c>
       <c r="L179" t="n">
-        <v>0.1292405079197601</v>
+        <v>0.07759642893012328</v>
       </c>
       <c r="M179" t="n">
-        <v>0.0885032530333759</v>
+        <v>0.08860386894490901</v>
       </c>
       <c r="N179" t="n">
-        <v>0.03087309655381013</v>
+        <v>0.1251905117728108</v>
       </c>
       <c r="O179" t="n">
-        <v>0.08962081500178228</v>
+        <v>0.08905928330286018</v>
       </c>
     </row>
     <row r="180" ht="15" customHeight="1">
       <c r="F180" t="n">
-        <v>0.03076527488543583</v>
+        <v>0.03964619137820507</v>
       </c>
       <c r="G180" t="n">
+        <v>0.0640011831812406</v>
+      </c>
+      <c r="J180" t="n">
+        <v>0.03199816773875469</v>
+      </c>
+      <c r="K180" t="n">
         <v>0.0904069625017979</v>
       </c>
-      <c r="J180" t="n">
-        <v>0.07615929441442909</v>
-      </c>
-      <c r="K180" t="n">
-        <v>0.09000354624294683</v>
-      </c>
       <c r="L180" t="n">
-        <v>0.1282552648416693</v>
+        <v>0.0771697609218002</v>
       </c>
       <c r="M180" t="n">
-        <v>0.08927959735823006</v>
+        <v>0.08938109586547838</v>
       </c>
       <c r="N180" t="n">
-        <v>0.03076527488543583</v>
+        <v>0.1250523305591905</v>
       </c>
       <c r="O180" t="n">
-        <v>0.0904069625017979</v>
+        <v>0.0898405050862186</v>
       </c>
     </row>
     <row r="181" ht="15" customHeight="1">
       <c r="F181" t="n">
-        <v>0.03055965596577477</v>
+        <v>0.03897374662122041</v>
       </c>
       <c r="G181" t="n">
+        <v>0.06400091465277657</v>
+      </c>
+      <c r="J181" t="n">
+        <v>0.03162000237834436</v>
+      </c>
+      <c r="K181" t="n">
         <v>0.09119311000181353</v>
       </c>
-      <c r="J181" t="n">
-        <v>0.07594566774853195</v>
-      </c>
-      <c r="K181" t="n">
-        <v>0.0907861857754942</v>
-      </c>
       <c r="L181" t="n">
-        <v>0.1286470269476256</v>
+        <v>0.07693690101450315</v>
       </c>
       <c r="M181" t="n">
-        <v>0.09005594168308424</v>
+        <v>0.09015832278604775</v>
       </c>
       <c r="N181" t="n">
-        <v>0.03055965596577477</v>
+        <v>0.1248049418528001</v>
       </c>
       <c r="O181" t="n">
-        <v>0.09119311000181353</v>
+        <v>0.09062172686957704</v>
       </c>
     </row>
     <row r="182" ht="15" customHeight="1">
       <c r="F182" t="n">
-        <v>0.03045672399738453</v>
+        <v>0.03831749520406614</v>
       </c>
       <c r="G182" t="n">
+        <v>0.06400064612431257</v>
+      </c>
+      <c r="J182" t="n">
+        <v>0.03143961095136059</v>
+      </c>
+      <c r="K182" t="n">
         <v>0.09197925750182917</v>
       </c>
-      <c r="J182" t="n">
-        <v>0.07543063863568733</v>
-      </c>
-      <c r="K182" t="n">
-        <v>0.09156882530804157</v>
-      </c>
       <c r="L182" t="n">
-        <v>0.126815470916318</v>
+        <v>0.07709729274812693</v>
       </c>
       <c r="M182" t="n">
-        <v>0.09083228600793843</v>
+        <v>0.09093554970661714</v>
       </c>
       <c r="N182" t="n">
-        <v>0.03045672399738453</v>
+        <v>0.1247471073482593</v>
       </c>
       <c r="O182" t="n">
-        <v>0.09197925750182917</v>
+        <v>0.09140294865293545</v>
       </c>
     </row>
     <row r="183" ht="15" customHeight="1">
       <c r="F183" t="n">
-        <v>0.03015696318282264</v>
+        <v>0.03767787662815147</v>
       </c>
       <c r="G183" t="n">
+        <v>0.06400037759584855</v>
+      </c>
+      <c r="J183" t="n">
+        <v>0.0315570095825254</v>
+      </c>
+      <c r="K183" t="n">
         <v>0.0927654050018448</v>
       </c>
-      <c r="J183" t="n">
-        <v>0.07501429304580448</v>
-      </c>
-      <c r="K183" t="n">
-        <v>0.09235146484058894</v>
-      </c>
       <c r="L183" t="n">
-        <v>0.1266602734264354</v>
+        <v>0.07655037966256639</v>
       </c>
       <c r="M183" t="n">
-        <v>0.0916086303327926</v>
+        <v>0.09171277662718652</v>
       </c>
       <c r="N183" t="n">
-        <v>0.03015696318282264</v>
+        <v>0.1240775887401885</v>
       </c>
       <c r="O183" t="n">
-        <v>0.0927654050018448</v>
+        <v>0.09218417043629389</v>
       </c>
     </row>
     <row r="184" ht="15" customHeight="1">
       <c r="F184" t="n">
-        <v>0.02986085772464668</v>
+        <v>0.03705533039485884</v>
       </c>
       <c r="G184" t="n">
+        <v>0.06400010906738453</v>
+      </c>
+      <c r="J184" t="n">
+        <v>0.0311722143965607</v>
+      </c>
+      <c r="K184" t="n">
         <v>0.09355155250186044</v>
       </c>
-      <c r="J184" t="n">
-        <v>0.07459671694879252</v>
-      </c>
-      <c r="K184" t="n">
-        <v>0.09313410437313629</v>
-      </c>
       <c r="L184" t="n">
-        <v>0.125781111156667</v>
+        <v>0.07599560529771643</v>
       </c>
       <c r="M184" t="n">
-        <v>0.09238497465764677</v>
+        <v>0.09249000354775588</v>
       </c>
       <c r="N184" t="n">
-        <v>0.02986085772464668</v>
+        <v>0.1241951477232077</v>
       </c>
       <c r="O184" t="n">
-        <v>0.09355155250186044</v>
+        <v>0.0929653922196523</v>
       </c>
     </row>
     <row r="185" ht="15" customHeight="1">
       <c r="F185" t="n">
-        <v>0.02976889182541417</v>
+        <v>0.03645029600565166</v>
       </c>
       <c r="G185" t="n">
+        <v>0.06399984053892051</v>
+      </c>
+      <c r="J185" t="n">
+        <v>0.03108524151818849</v>
+      </c>
+      <c r="K185" t="n">
         <v>0.09433770000187607</v>
       </c>
-      <c r="J185" t="n">
-        <v>0.07417799631456057</v>
-      </c>
-      <c r="K185" t="n">
-        <v>0.09391674390568366</v>
-      </c>
       <c r="L185" t="n">
-        <v>0.1249776607857017</v>
+        <v>0.07573241319347185</v>
       </c>
       <c r="M185" t="n">
-        <v>0.09316131898250095</v>
+        <v>0.09326723046832526</v>
       </c>
       <c r="N185" t="n">
-        <v>0.02976889182541417</v>
+        <v>0.1225985459919367</v>
       </c>
       <c r="O185" t="n">
-        <v>0.09433770000187607</v>
+        <v>0.09374661400301072</v>
       </c>
     </row>
     <row r="186" ht="15" customHeight="1">
       <c r="F186" t="n">
-        <v>0.02958154968768273</v>
+        <v>0.03586321296191166</v>
       </c>
       <c r="G186" t="n">
+        <v>0.0639995720104565</v>
+      </c>
+      <c r="J186" t="n">
+        <v>0.03079610707213068</v>
+      </c>
+      <c r="K186" t="n">
         <v>0.09512384750189171</v>
       </c>
-      <c r="J186" t="n">
-        <v>0.07395821711301775</v>
-      </c>
-      <c r="K186" t="n">
-        <v>0.09469938343823102</v>
-      </c>
       <c r="L186" t="n">
-        <v>0.1239495989922286</v>
+        <v>0.07576024688972754</v>
       </c>
       <c r="M186" t="n">
-        <v>0.09393766330735512</v>
+        <v>0.09404445738889465</v>
       </c>
       <c r="N186" t="n">
-        <v>0.02958154968768273</v>
+        <v>0.123386545240996</v>
       </c>
       <c r="O186" t="n">
-        <v>0.09512384750189171</v>
+        <v>0.09452783578636914</v>
       </c>
     </row>
     <row r="187" ht="15" customHeight="1">
       <c r="F187" t="n">
-        <v>0.02929931551400985</v>
+        <v>0.03529452076504797</v>
       </c>
       <c r="G187" t="n">
+        <v>0.06399930348199248</v>
+      </c>
+      <c r="J187" t="n">
+        <v>0.03070482718310927</v>
+      </c>
+      <c r="K187" t="n">
         <v>0.09590999500190733</v>
       </c>
-      <c r="J187" t="n">
-        <v>0.07263746531407328</v>
-      </c>
-      <c r="K187" t="n">
-        <v>0.09548202297077839</v>
-      </c>
       <c r="L187" t="n">
-        <v>0.1226966024549367</v>
+        <v>0.07477854992637833</v>
       </c>
       <c r="M187" t="n">
-        <v>0.0947140076322093</v>
+        <v>0.09482168430946403</v>
       </c>
       <c r="N187" t="n">
-        <v>0.02929931551400985</v>
+        <v>0.1229579071650054</v>
       </c>
       <c r="O187" t="n">
-        <v>0.09590999500190733</v>
+        <v>0.09530905756972756</v>
       </c>
     </row>
     <row r="188" ht="15" customHeight="1">
       <c r="F188" t="n">
-        <v>0.02942267350695314</v>
+        <v>0.03474465891644633</v>
       </c>
       <c r="G188" t="n">
+        <v>0.06399903495352846</v>
+      </c>
+      <c r="J188" t="n">
+        <v>0.03041141797584619</v>
+      </c>
+      <c r="K188" t="n">
         <v>0.09669614250192297</v>
       </c>
-      <c r="J188" t="n">
-        <v>0.07281582688763627</v>
-      </c>
-      <c r="K188" t="n">
-        <v>0.09626466250332576</v>
-      </c>
       <c r="L188" t="n">
-        <v>0.121118347852515</v>
+        <v>0.07508676584331908</v>
       </c>
       <c r="M188" t="n">
-        <v>0.09549035195706346</v>
+        <v>0.09559891123003339</v>
       </c>
       <c r="N188" t="n">
-        <v>0.02942267350695314</v>
+        <v>0.1221113934585851</v>
       </c>
       <c r="O188" t="n">
-        <v>0.09669614250192297</v>
+        <v>0.09609027935308599</v>
       </c>
     </row>
     <row r="189" ht="15" customHeight="1">
       <c r="F189" t="n">
-        <v>0.02905210786907012</v>
+        <v>0.03421406691756376</v>
       </c>
       <c r="G189" t="n">
+        <v>0.06399876642506444</v>
+      </c>
+      <c r="J189" t="n">
+        <v>0.03011589557506342</v>
+      </c>
+      <c r="K189" t="n">
         <v>0.0974822900019386</v>
       </c>
-      <c r="J189" t="n">
-        <v>0.07249338780361583</v>
-      </c>
-      <c r="K189" t="n">
-        <v>0.09704730203587313</v>
-      </c>
       <c r="L189" t="n">
-        <v>0.1208145118636524</v>
+        <v>0.07468433818044459</v>
       </c>
       <c r="M189" t="n">
-        <v>0.09626669628191764</v>
+        <v>0.09637613815060278</v>
       </c>
       <c r="N189" t="n">
-        <v>0.02905210786907012</v>
+        <v>0.120945765816355</v>
       </c>
       <c r="O189" t="n">
-        <v>0.0974822900019386</v>
+        <v>0.09687150113644441</v>
       </c>
     </row>
     <row r="190" ht="15" customHeight="1">
       <c r="F190" t="n">
-        <v>0.02898810280291837</v>
+        <v>0.03370138963903075</v>
       </c>
       <c r="G190" t="n">
+        <v>0.06399849789660043</v>
+      </c>
+      <c r="J190" t="n">
+        <v>0.02991827610548289</v>
+      </c>
+      <c r="K190" t="n">
         <v>0.09826843750195424</v>
       </c>
-      <c r="J190" t="n">
-        <v>0.0713701652667342</v>
-      </c>
-      <c r="K190" t="n">
-        <v>0.09782994156842048</v>
-      </c>
       <c r="L190" t="n">
-        <v>0.1198847711670382</v>
+        <v>0.07357071047764976</v>
       </c>
       <c r="M190" t="n">
-        <v>0.09704304060677182</v>
+        <v>0.09715336507117216</v>
       </c>
       <c r="N190" t="n">
-        <v>0.02898810280291837</v>
+        <v>0.1212597859329353</v>
       </c>
       <c r="O190" t="n">
-        <v>0.09826843750195424</v>
+        <v>0.09765272291980284</v>
       </c>
     </row>
     <row r="191" ht="15" customHeight="1">
       <c r="F191" t="n">
-        <v>0.02873114251105544</v>
+        <v>0.03319629879773136</v>
       </c>
       <c r="G191" t="n">
+        <v>0.06399822936813641</v>
+      </c>
+      <c r="J191" t="n">
+        <v>0.03001857569182657</v>
+      </c>
+      <c r="K191" t="n">
         <v>0.09905458500196987</v>
       </c>
-      <c r="J191" t="n">
-        <v>0.07164505891014256</v>
-      </c>
-      <c r="K191" t="n">
-        <v>0.09861258110096784</v>
-      </c>
       <c r="L191" t="n">
-        <v>0.1180288024413612</v>
+        <v>0.07374532627482946</v>
       </c>
       <c r="M191" t="n">
-        <v>0.09781938493162599</v>
+        <v>0.09793059199174153</v>
       </c>
       <c r="N191" t="n">
-        <v>0.02873114251105544</v>
+        <v>0.1206522155029461</v>
       </c>
       <c r="O191" t="n">
-        <v>0.09905458500196987</v>
+        <v>0.09843394470316126</v>
       </c>
     </row>
     <row r="192" ht="15" customHeight="1">
       <c r="F192" t="n">
-        <v>0.02848171119603891</v>
+        <v>0.03269743926429913</v>
       </c>
       <c r="G192" t="n">
+        <v>0.06399796083967239</v>
+      </c>
+      <c r="J192" t="n">
+        <v>0.02951681045881643</v>
+      </c>
+      <c r="K192" t="n">
         <v>0.09984073250198551</v>
       </c>
-      <c r="J192" t="n">
-        <v>0.07101768433102296</v>
-      </c>
-      <c r="K192" t="n">
-        <v>0.0993952206335152</v>
-      </c>
       <c r="L192" t="n">
-        <v>0.1178462823653104</v>
+        <v>0.07310762911187846</v>
       </c>
       <c r="M192" t="n">
-        <v>0.09859572925648016</v>
+        <v>0.09870781891231091</v>
       </c>
       <c r="N192" t="n">
-        <v>0.02848171119603891</v>
+        <v>0.1202218162210075</v>
       </c>
       <c r="O192" t="n">
-        <v>0.09984073250198551</v>
+        <v>0.09921516648651969</v>
       </c>
     </row>
     <row r="193" ht="15" customHeight="1">
       <c r="F193" t="n">
-        <v>0.02844029306042627</v>
+        <v>0.03220525054018667</v>
       </c>
       <c r="G193" t="n">
+        <v>0.06399769231120837</v>
+      </c>
+      <c r="J193" t="n">
+        <v>0.02930578277728775</v>
+      </c>
+      <c r="K193" t="n">
         <v>0.1006268800020011</v>
       </c>
-      <c r="J193" t="n">
-        <v>0.07048807434682941</v>
-      </c>
-      <c r="K193" t="n">
-        <v>0.1001778601660626</v>
-      </c>
       <c r="L193" t="n">
-        <v>0.115817262770443</v>
+        <v>0.07264539999212061</v>
       </c>
       <c r="M193" t="n">
-        <v>0.09937207358133433</v>
+        <v>0.09948504583288029</v>
       </c>
       <c r="N193" t="n">
-        <v>0.02844029306042627</v>
+        <v>0.1191507887173345</v>
       </c>
       <c r="O193" t="n">
-        <v>0.1006268800020011</v>
+        <v>0.09999638826987811</v>
       </c>
     </row>
     <row r="194" ht="15" customHeight="1">
       <c r="F194" t="n">
-        <v>0.02840737230677513</v>
+        <v>0.03172017212678135</v>
       </c>
       <c r="G194" t="n">
+        <v>0.06399742378274435</v>
+      </c>
+      <c r="J194" t="n">
+        <v>0.02937771978822876</v>
+      </c>
+      <c r="K194" t="n">
         <v>0.1014130275020168</v>
       </c>
-      <c r="J194" t="n">
-        <v>0.07025626177501584</v>
-      </c>
-      <c r="K194" t="n">
-        <v>0.1009604996986099</v>
-      </c>
       <c r="L194" t="n">
-        <v>0.1146146351381022</v>
+        <v>0.07154507073801339</v>
       </c>
       <c r="M194" t="n">
-        <v>0.1001484179061885</v>
+        <v>0.1002622727534497</v>
       </c>
       <c r="N194" t="n">
-        <v>0.02840737230677513</v>
+        <v>0.1185208034284007</v>
       </c>
       <c r="O194" t="n">
-        <v>0.1014130275020168</v>
+        <v>0.1007776100532365</v>
       </c>
     </row>
     <row r="195" ht="15" customHeight="1">
       <c r="F195" t="n">
-        <v>0.02808343313764307</v>
+        <v>0.03124264352549231</v>
       </c>
       <c r="G195" t="n">
+        <v>0.06399715525428035</v>
+      </c>
+      <c r="J195" t="n">
+        <v>0.02883377137890852</v>
+      </c>
+      <c r="K195" t="n">
         <v>0.1021991750020324</v>
       </c>
-      <c r="J195" t="n">
-        <v>0.07012227943303614</v>
-      </c>
-      <c r="K195" t="n">
-        <v>0.1017431392311573</v>
-      </c>
       <c r="L195" t="n">
-        <v>0.1138336220192698</v>
+        <v>0.07140879109536202</v>
       </c>
       <c r="M195" t="n">
-        <v>0.1009247622310427</v>
+        <v>0.101039499674019</v>
       </c>
       <c r="N195" t="n">
-        <v>0.02808343313764307</v>
+        <v>0.1182347330654555</v>
       </c>
       <c r="O195" t="n">
-        <v>0.1021991750020324</v>
+        <v>0.1015588318365949</v>
       </c>
     </row>
     <row r="196" ht="15" customHeight="1">
       <c r="F196" t="n">
-        <v>0.0280689597555876</v>
+        <v>0.03077310423770851</v>
       </c>
       <c r="G196" t="n">
+        <v>0.06399688672581631</v>
+      </c>
+      <c r="J196" t="n">
+        <v>0.02857510229562614</v>
+      </c>
+      <c r="K196" t="n">
         <v>0.102985322502048</v>
       </c>
-      <c r="J196" t="n">
-        <v>0.0689861601383443</v>
-      </c>
-      <c r="K196" t="n">
-        <v>0.1025257787637047</v>
-      </c>
       <c r="L196" t="n">
-        <v>0.1115960373696558</v>
+        <v>0.07113876164506636</v>
       </c>
       <c r="M196" t="n">
-        <v>0.1017011065558969</v>
+        <v>0.1018167265945884</v>
       </c>
       <c r="N196" t="n">
-        <v>0.0280689597555876</v>
+        <v>0.1169954888628822</v>
       </c>
       <c r="O196" t="n">
-        <v>0.102985322502048</v>
+        <v>0.1023400536199534</v>
       </c>
     </row>
     <row r="197" ht="15" customHeight="1">
       <c r="F197" t="n">
-        <v>0.02806443636316629</v>
+        <v>0.03031199376488004</v>
       </c>
       <c r="G197" t="n">
+        <v>0.06399661819735231</v>
+      </c>
+      <c r="J197" t="n">
+        <v>0.02850287728468062</v>
+      </c>
+      <c r="K197" t="n">
         <v>0.1037714700020637</v>
       </c>
-      <c r="J197" t="n">
-        <v>0.06874793670839424</v>
-      </c>
-      <c r="K197" t="n">
-        <v>0.103308418296252</v>
-      </c>
       <c r="L197" t="n">
-        <v>0.1105236951449698</v>
+        <v>0.07073718296802628</v>
       </c>
       <c r="M197" t="n">
-        <v>0.102477450880751</v>
+        <v>0.1025939535151578</v>
       </c>
       <c r="N197" t="n">
-        <v>0.02806443636316629</v>
+        <v>0.1164059820550642</v>
       </c>
       <c r="O197" t="n">
-        <v>0.1037714700020637</v>
+        <v>0.1031212754033118</v>
       </c>
     </row>
     <row r="198" ht="15" customHeight="1">
       <c r="F198" t="n">
-        <v>0.02787034716293668</v>
+        <v>0.02985975160839544</v>
       </c>
       <c r="G198" t="n">
+        <v>0.06399634966888829</v>
+      </c>
+      <c r="J198" t="n">
+        <v>0.02811826109237112</v>
+      </c>
+      <c r="K198" t="n">
         <v>0.1045576175020793</v>
       </c>
-      <c r="J198" t="n">
-        <v>0.06820764196063986</v>
-      </c>
-      <c r="K198" t="n">
-        <v>0.1040910578287994</v>
-      </c>
       <c r="L198" t="n">
-        <v>0.1078384093009221</v>
+        <v>0.0692062556451416</v>
       </c>
       <c r="M198" t="n">
-        <v>0.1032537952056052</v>
+        <v>0.1033711804357272</v>
       </c>
       <c r="N198" t="n">
-        <v>0.02787034716293668</v>
+        <v>0.1152691238763852</v>
       </c>
       <c r="O198" t="n">
-        <v>0.1045576175020793</v>
+        <v>0.1039024971866702</v>
       </c>
     </row>
     <row r="199" ht="15" customHeight="1">
       <c r="F199" t="n">
-        <v>0.02768519824657215</v>
+        <v>0.02941681726966392</v>
       </c>
       <c r="G199" t="n">
+        <v>0.06399608114042428</v>
+      </c>
+      <c r="J199" t="n">
+        <v>0.02802241846499666</v>
+      </c>
+      <c r="K199" t="n">
         <v>0.1053437650020949</v>
       </c>
-      <c r="J199" t="n">
-        <v>0.0678653087125351</v>
-      </c>
-      <c r="K199" t="n">
-        <v>0.1048736973613468</v>
-      </c>
       <c r="L199" t="n">
-        <v>0.1058619937932224</v>
+        <v>0.06874818025731233</v>
       </c>
       <c r="M199" t="n">
-        <v>0.1040301395304594</v>
+        <v>0.1041484073562965</v>
       </c>
       <c r="N199" t="n">
-        <v>0.02768519824657215</v>
+        <v>0.1145878255612284</v>
       </c>
       <c r="O199" t="n">
-        <v>0.1053437650020949</v>
+        <v>0.1046837189700286</v>
       </c>
     </row>
     <row r="200" ht="15" customHeight="1">
       <c r="F200" t="n">
-        <v>0.02780606311522343</v>
+        <v>0.028983630250076</v>
       </c>
       <c r="G200" t="n">
+        <v>0.06399581261196025</v>
+      </c>
+      <c r="J200" t="n">
+        <v>0.02741651414885635</v>
+      </c>
+      <c r="K200" t="n">
         <v>0.1061299125021106</v>
       </c>
-      <c r="J200" t="n">
-        <v>0.06722096978153394</v>
-      </c>
-      <c r="K200" t="n">
-        <v>0.1056563368938941</v>
-      </c>
       <c r="L200" t="n">
-        <v>0.1038162625775805</v>
+        <v>0.06816515738543824</v>
       </c>
       <c r="M200" t="n">
-        <v>0.1048064838553136</v>
+        <v>0.1049256342768659</v>
       </c>
       <c r="N200" t="n">
-        <v>0.02780606311522343</v>
+        <v>0.1133649983439774</v>
       </c>
       <c r="O200" t="n">
-        <v>0.1061299125021106</v>
+        <v>0.1054649407533871</v>
       </c>
     </row>
     <row r="201" ht="15" customHeight="1">
       <c r="F201" t="n">
-        <v>0.02773242220460506</v>
+        <v>0.02856063005107862</v>
       </c>
       <c r="G201" t="n">
+        <v>0.06399554408349624</v>
+      </c>
+      <c r="J201" t="n">
+        <v>0.02720171289024921</v>
+      </c>
+      <c r="K201" t="n">
         <v>0.1069160600021262</v>
       </c>
-      <c r="J201" t="n">
-        <v>0.06717465798509029</v>
-      </c>
-      <c r="K201" t="n">
-        <v>0.1064389764264415</v>
-      </c>
       <c r="L201" t="n">
-        <v>0.1019230296097064</v>
+        <v>0.06795938761041928</v>
       </c>
       <c r="M201" t="n">
-        <v>0.1055828281801677</v>
+        <v>0.1057028611974353</v>
       </c>
       <c r="N201" t="n">
-        <v>0.02773242220460506</v>
+        <v>0.1128035534590157</v>
       </c>
       <c r="O201" t="n">
-        <v>0.1069160600021262</v>
+        <v>0.1062461625367455</v>
       </c>
     </row>
     <row r="202" ht="15" customHeight="1">
       <c r="F202" t="n">
-        <v>0.02766377552214203</v>
+        <v>0.02814825617406189</v>
       </c>
       <c r="G202" t="n">
+        <v>0.06399527555503222</v>
+      </c>
+      <c r="J202" t="n">
+        <v>0.02677917943547435</v>
+      </c>
+      <c r="K202" t="n">
         <v>0.1077022075021419</v>
       </c>
-      <c r="J202" t="n">
-        <v>0.0666264061406581</v>
-      </c>
-      <c r="K202" t="n">
-        <v>0.1072216159589889</v>
-      </c>
       <c r="L202" t="n">
-        <v>0.09990410884531004</v>
+        <v>0.06693307151315522</v>
       </c>
       <c r="M202" t="n">
-        <v>0.1063591725050219</v>
+        <v>0.1064800881180047</v>
       </c>
       <c r="N202" t="n">
-        <v>0.02766377552214203</v>
+        <v>0.1120064021407267</v>
       </c>
       <c r="O202" t="n">
-        <v>0.1077022075021419</v>
+        <v>0.1070273843201039</v>
       </c>
     </row>
     <row r="203" ht="15" customHeight="1">
       <c r="F203" t="n">
-        <v>0.02739962307525935</v>
+        <v>0.02774694812043497</v>
       </c>
       <c r="G203" t="n">
+        <v>0.0639950070265682</v>
+      </c>
+      <c r="J203" t="n">
+        <v>0.02665007853083083</v>
+      </c>
+      <c r="K203" t="n">
         <v>0.1084883550021575</v>
       </c>
-      <c r="J203" t="n">
-        <v>0.06587624706569131</v>
-      </c>
-      <c r="K203" t="n">
-        <v>0.1080042554915362</v>
-      </c>
       <c r="L203" t="n">
-        <v>0.09718131424010124</v>
+        <v>0.06648840967454606</v>
       </c>
       <c r="M203" t="n">
-        <v>0.1071355168298761</v>
+        <v>0.1072573150385741</v>
       </c>
       <c r="N203" t="n">
-        <v>0.02739962307525935</v>
+        <v>0.1101764556234938</v>
       </c>
       <c r="O203" t="n">
-        <v>0.1084883550021575</v>
+        <v>0.1078086061034623</v>
       </c>
     </row>
     <row r="204" ht="15" customHeight="1">
       <c r="F204" t="n">
-        <v>0.027339464871382</v>
+        <v>0.02735714539159039</v>
       </c>
       <c r="G204" t="n">
+        <v>0.06399473849810418</v>
+      </c>
+      <c r="J204" t="n">
+        <v>0.02631557492261775</v>
+      </c>
+      <c r="K204" t="n">
         <v>0.1092745025021731</v>
       </c>
-      <c r="J204" t="n">
-        <v>0.06542421357764383</v>
-      </c>
-      <c r="K204" t="n">
-        <v>0.1087868950240836</v>
-      </c>
       <c r="L204" t="n">
-        <v>0.0955764597497899</v>
+        <v>0.06562760267549161</v>
       </c>
       <c r="M204" t="n">
-        <v>0.1079118611547303</v>
+        <v>0.1080345419591434</v>
       </c>
       <c r="N204" t="n">
-        <v>0.027339464871382</v>
+        <v>0.1106166251417006</v>
       </c>
       <c r="O204" t="n">
-        <v>0.1092745025021731</v>
+        <v>0.1085898278868207</v>
       </c>
     </row>
     <row r="205" ht="15" customHeight="1">
       <c r="F205" t="n">
-        <v>0.027282800917935</v>
+        <v>0.02697928748897122</v>
       </c>
       <c r="G205" t="n">
+        <v>0.06399446996964016</v>
+      </c>
+      <c r="J205" t="n">
+        <v>0.02577683335713417</v>
+      </c>
+      <c r="K205" t="n">
         <v>0.1100606500021887</v>
       </c>
-      <c r="J205" t="n">
-        <v>0.06517033849396958</v>
-      </c>
-      <c r="K205" t="n">
-        <v>0.1095695345566309</v>
-      </c>
       <c r="L205" t="n">
-        <v>0.09351135933008597</v>
+        <v>0.06425285109689177</v>
       </c>
       <c r="M205" t="n">
-        <v>0.1086882054795844</v>
+        <v>0.1088117688797128</v>
       </c>
       <c r="N205" t="n">
-        <v>0.027282800917935</v>
+        <v>0.1083298219297305</v>
       </c>
       <c r="O205" t="n">
-        <v>0.1100606500021887</v>
+        <v>0.1093710496701792</v>
       </c>
     </row>
     <row r="206" ht="15" customHeight="1">
       <c r="F206" t="n">
-        <v>0.02732913122234336</v>
+        <v>0.02661381391396945</v>
       </c>
       <c r="G206" t="n">
+        <v>0.06399420144117615</v>
+      </c>
+      <c r="J206" t="n">
+        <v>0.02573501858067916</v>
+      </c>
+      <c r="K206" t="n">
         <v>0.1108467975022044</v>
       </c>
-      <c r="J206" t="n">
-        <v>0.0651146546321226</v>
-      </c>
-      <c r="K206" t="n">
-        <v>0.1103521740891783</v>
-      </c>
       <c r="L206" t="n">
-        <v>0.09160782693669928</v>
+        <v>0.06376635551964643</v>
       </c>
       <c r="M206" t="n">
-        <v>0.1094645498044386</v>
+        <v>0.1095889958002822</v>
       </c>
       <c r="N206" t="n">
-        <v>0.02732913122234336</v>
+        <v>0.1070189572219669</v>
       </c>
       <c r="O206" t="n">
-        <v>0.1108467975022044</v>
+        <v>0.1101522714535376</v>
       </c>
     </row>
     <row r="207" ht="15" customHeight="1">
       <c r="F207" t="n">
-        <v>0.02717795579203208</v>
+        <v>0.02626116416799427</v>
       </c>
       <c r="G207" t="n">
+        <v>0.06399393291271213</v>
+      </c>
+      <c r="J207" t="n">
+        <v>0.02529129533955177</v>
+      </c>
+      <c r="K207" t="n">
         <v>0.11163294500222</v>
       </c>
-      <c r="J207" t="n">
-        <v>0.06405719480955668</v>
-      </c>
-      <c r="K207" t="n">
-        <v>0.1111348136217257</v>
-      </c>
       <c r="L207" t="n">
-        <v>0.09048767652533984</v>
+        <v>0.06287031652465544</v>
       </c>
       <c r="M207" t="n">
-        <v>0.1102408941292928</v>
+        <v>0.1103662227208516</v>
       </c>
       <c r="N207" t="n">
-        <v>0.02717795579203208</v>
+        <v>0.1072869422527933</v>
       </c>
       <c r="O207" t="n">
-        <v>0.11163294500222</v>
+        <v>0.110933493236896</v>
       </c>
     </row>
     <row r="208" ht="15" customHeight="1">
       <c r="F208" t="n">
-        <v>0.02722877463442616</v>
+        <v>0.0259217777524404</v>
       </c>
       <c r="G208" t="n">
+        <v>0.06399366438424811</v>
+      </c>
+      <c r="J208" t="n">
+        <v>0.02494682838005112</v>
+      </c>
+      <c r="K208" t="n">
         <v>0.1124190925022357</v>
       </c>
-      <c r="J208" t="n">
-        <v>0.06419799184372582</v>
-      </c>
-      <c r="K208" t="n">
-        <v>0.111917453154273</v>
-      </c>
       <c r="L208" t="n">
-        <v>0.0880727220517174</v>
+        <v>0.06176693469281869</v>
       </c>
       <c r="M208" t="n">
-        <v>0.111017238454147</v>
+        <v>0.1111434496414209</v>
       </c>
       <c r="N208" t="n">
-        <v>0.02722877463442616</v>
+        <v>0.1056366882565933</v>
       </c>
       <c r="O208" t="n">
-        <v>0.1124190925022357</v>
+        <v>0.1117147150202544</v>
       </c>
     </row>
     <row r="209" ht="15" customHeight="1">
       <c r="F209" t="n">
-        <v>0.02728108775695061</v>
+        <v>0.02559609416874657</v>
       </c>
       <c r="G209" t="n">
+        <v>0.06399339585578409</v>
+      </c>
+      <c r="J209" t="n">
+        <v>0.02440278244847625</v>
+      </c>
+      <c r="K209" t="n">
         <v>0.1132052400022513</v>
       </c>
-      <c r="J209" t="n">
-        <v>0.06363707855208398</v>
-      </c>
-      <c r="K209" t="n">
-        <v>0.1127000926868204</v>
-      </c>
       <c r="L209" t="n">
-        <v>0.08598477747154198</v>
+        <v>0.06185841060503611</v>
       </c>
       <c r="M209" t="n">
-        <v>0.1117935827790011</v>
+        <v>0.1119206765619903</v>
       </c>
       <c r="N209" t="n">
-        <v>0.02728108775695061</v>
+        <v>0.1036711064677502</v>
       </c>
       <c r="O209" t="n">
-        <v>0.1132052400022513</v>
+        <v>0.1124959368036129</v>
       </c>
     </row>
     <row r="210" ht="15" customHeight="1">
       <c r="F210" t="n">
-        <v>0.02733439516703043</v>
+        <v>0.0252845529183069</v>
       </c>
       <c r="G210" t="n">
+        <v>0.06399312732732008</v>
+      </c>
+      <c r="J210" t="n">
+        <v>0.02436032229112624</v>
+      </c>
+      <c r="K210" t="n">
         <v>0.1139913875022669</v>
       </c>
-      <c r="J210" t="n">
-        <v>0.06257448775208507</v>
-      </c>
-      <c r="K210" t="n">
-        <v>0.1134827322193678</v>
-      </c>
       <c r="L210" t="n">
-        <v>0.08404565674052339</v>
+        <v>0.06044694484220747</v>
       </c>
       <c r="M210" t="n">
-        <v>0.1125699271038553</v>
+        <v>0.1126979034825597</v>
       </c>
       <c r="N210" t="n">
-        <v>0.02733439516703043</v>
+        <v>0.1035931081206474</v>
       </c>
       <c r="O210" t="n">
-        <v>0.1139913875022669</v>
+        <v>0.1132771585869713</v>
       </c>
     </row>
     <row r="211" ht="15" customHeight="1">
       <c r="F211" t="n">
-        <v>0.02698819687209063</v>
+        <v>0.02498759350253058</v>
       </c>
       <c r="G211" t="n">
+        <v>0.06399285879885606</v>
+      </c>
+      <c r="J211" t="n">
+        <v>0.02392061265430018</v>
+      </c>
+      <c r="K211" t="n">
         <v>0.1147775350022826</v>
       </c>
-      <c r="J211" t="n">
-        <v>0.06241025226118305</v>
-      </c>
-      <c r="K211" t="n">
-        <v>0.1142653717519151</v>
-      </c>
       <c r="L211" t="n">
-        <v>0.08287717381437154</v>
+        <v>0.0593347379852327</v>
       </c>
       <c r="M211" t="n">
-        <v>0.1133462714287095</v>
+        <v>0.1134751304031291</v>
       </c>
       <c r="N211" t="n">
-        <v>0.02698819687209063</v>
+        <v>0.1016056044496686</v>
       </c>
       <c r="O211" t="n">
-        <v>0.1147775350022826</v>
+        <v>0.1140583803703297</v>
       </c>
     </row>
     <row r="212" ht="15" customHeight="1">
       <c r="F212" t="n">
-        <v>0.0272419928795562</v>
+        <v>0.02470565542281487</v>
       </c>
       <c r="G212" t="n">
+        <v>0.06399259027039204</v>
+      </c>
+      <c r="J212" t="n">
+        <v>0.02358481828429711</v>
+      </c>
+      <c r="K212" t="n">
         <v>0.1155636825022982</v>
       </c>
-      <c r="J212" t="n">
-        <v>0.06164440489683182</v>
-      </c>
-      <c r="K212" t="n">
-        <v>0.1150480112844625</v>
-      </c>
       <c r="L212" t="n">
-        <v>0.08220114264879647</v>
+        <v>0.05912399061501172</v>
       </c>
       <c r="M212" t="n">
-        <v>0.1141226157535637</v>
+        <v>0.1142523573236985</v>
       </c>
       <c r="N212" t="n">
-        <v>0.0272419928795562</v>
+        <v>0.100111506689197</v>
       </c>
       <c r="O212" t="n">
-        <v>0.1155636825022982</v>
+        <v>0.1148396021536881</v>
       </c>
     </row>
     <row r="213" ht="15" customHeight="1">
       <c r="F213" t="n">
-        <v>0.02719528319685216</v>
+        <v>0.02443917818059348</v>
       </c>
       <c r="G213" t="n">
+        <v>0.06399232174192802</v>
+      </c>
+      <c r="J213" t="n">
+        <v>0.02335410392741614</v>
+      </c>
+      <c r="K213" t="n">
         <v>0.1163498300023138</v>
       </c>
-      <c r="J213" t="n">
-        <v>0.06137697847648532</v>
-      </c>
-      <c r="K213" t="n">
-        <v>0.1158306508170098</v>
-      </c>
       <c r="L213" t="n">
-        <v>0.08143937719950789</v>
+        <v>0.05811690331244437</v>
       </c>
       <c r="M213" t="n">
-        <v>0.1148989600784178</v>
+        <v>0.1150295842442678</v>
       </c>
       <c r="N213" t="n">
-        <v>0.02719528319685216</v>
+        <v>0.09881372607361621</v>
       </c>
       <c r="O213" t="n">
-        <v>0.1163498300023138</v>
+        <v>0.1156208239370466</v>
       </c>
     </row>
     <row r="214" ht="15" customHeight="1">
       <c r="F214" t="n">
-        <v>0.02704756783140351</v>
+        <v>0.02418860127726303</v>
       </c>
       <c r="G214" t="n">
+        <v>0.06399205321346402</v>
+      </c>
+      <c r="J214" t="n">
+        <v>0.02302963432995633</v>
+      </c>
+      <c r="K214" t="n">
         <v>0.1171359775023294</v>
       </c>
-      <c r="J214" t="n">
-        <v>0.06120800581759753</v>
-      </c>
-      <c r="K214" t="n">
-        <v>0.1166132903495572</v>
-      </c>
       <c r="L214" t="n">
-        <v>0.08011601408309554</v>
+        <v>0.05771567665843055</v>
       </c>
       <c r="M214" t="n">
-        <v>0.115675304403272</v>
+        <v>0.1158068111648372</v>
       </c>
       <c r="N214" t="n">
-        <v>0.02704756783140351</v>
+        <v>0.0978151738373097</v>
       </c>
       <c r="O214" t="n">
-        <v>0.1171359775023294</v>
+        <v>0.116402045720405</v>
       </c>
     </row>
     <row r="215" ht="15" customHeight="1">
       <c r="F215" t="n">
-        <v>0.02689834679063524</v>
+        <v>0.02418860127726302</v>
       </c>
       <c r="G215" t="n">
+        <v>0.06399205321346402</v>
+      </c>
+      <c r="J215" t="n">
+        <v>0.02251257423821672</v>
+      </c>
+      <c r="K215" t="n">
         <v>0.1179221250023451</v>
       </c>
-      <c r="J215" t="n">
-        <v>0.06053751973762236</v>
-      </c>
-      <c r="K215" t="n">
-        <v>0.1173959298821046</v>
-      </c>
       <c r="L215" t="n">
-        <v>0.07900148452586803</v>
+        <v>0.05682251123387005</v>
       </c>
       <c r="M215" t="n">
-        <v>0.1164516487281262</v>
+        <v>0.1165840380854066</v>
       </c>
       <c r="N215" t="n">
-        <v>0.02689834679063524</v>
+        <v>0.09661876121466095</v>
       </c>
       <c r="O215" t="n">
-        <v>0.1179221250023451</v>
+        <v>0.1171832675037634</v>
       </c>
     </row>
     <row r="216" ht="15" customHeight="1">
       <c r="F216" t="n">
-        <v>0.02684712008197239</v>
+        <v>0.02358251406889206</v>
       </c>
       <c r="G216" t="n">
+        <v>0.06392173663062087</v>
+      </c>
+      <c r="J216" t="n">
+        <v>0.02230408839849644</v>
+      </c>
+      <c r="K216" t="n">
         <v>0.1187082725023607</v>
       </c>
-      <c r="J216" t="n">
-        <v>0.0598655530540137</v>
-      </c>
-      <c r="K216" t="n">
-        <v>0.1181785694146519</v>
-      </c>
       <c r="L216" t="n">
-        <v>0.0791951524195133</v>
+        <v>0.05573960761966293</v>
       </c>
       <c r="M216" t="n">
-        <v>0.1172279930529803</v>
+        <v>0.117361265005976</v>
       </c>
       <c r="N216" t="n">
-        <v>0.02684712008197239</v>
+        <v>0.09632739944005325</v>
       </c>
       <c r="O216" t="n">
-        <v>0.1187082725023607</v>
+        <v>0.1179644892871218</v>
       </c>
     </row>
     <row r="217" ht="15" customHeight="1">
       <c r="F217" t="n">
-        <v>0.02669338771283994</v>
+        <v>0.02298314601494755</v>
       </c>
       <c r="G217" t="n">
+        <v>0.06385142004777772</v>
+      </c>
+      <c r="J217" t="n">
+        <v>0.02190534155709455</v>
+      </c>
+      <c r="K217" t="n">
         <v>0.1194944200023764</v>
       </c>
-      <c r="J217" t="n">
-        <v>0.05919213858422556</v>
-      </c>
-      <c r="K217" t="n">
-        <v>0.1189612089471993</v>
-      </c>
       <c r="L217" t="n">
-        <v>0.07749735829922055</v>
+        <v>0.05506916639670886</v>
       </c>
       <c r="M217" t="n">
-        <v>0.1180043373778345</v>
+        <v>0.1181384919265453</v>
       </c>
       <c r="N217" t="n">
-        <v>0.02669338771283994</v>
+        <v>0.09394399974787032</v>
       </c>
       <c r="O217" t="n">
-        <v>0.1194944200023764</v>
+        <v>0.1187457110704803</v>
       </c>
     </row>
     <row r="218" ht="15" customHeight="1">
       <c r="F218" t="n">
-        <v>0.02693664969066288</v>
+        <v>0.022390799664332</v>
       </c>
       <c r="G218" t="n">
+        <v>0.06378110346493457</v>
+      </c>
+      <c r="J218" t="n">
+        <v>0.0218174984603101</v>
+      </c>
+      <c r="K218" t="n">
         <v>0.120280567502392</v>
       </c>
-      <c r="J218" t="n">
-        <v>0.05941732322505744</v>
-      </c>
-      <c r="K218" t="n">
-        <v>0.1197438484797467</v>
-      </c>
       <c r="L218" t="n">
-        <v>0.07690844270017955</v>
+        <v>0.05411338814590788</v>
       </c>
       <c r="M218" t="n">
-        <v>0.1187806817026887</v>
+        <v>0.1189157188471147</v>
       </c>
       <c r="N218" t="n">
-        <v>0.02693664969066288</v>
+        <v>0.09357147337249544</v>
       </c>
       <c r="O218" t="n">
-        <v>0.120280567502392</v>
+        <v>0.1195269328538387</v>
       </c>
     </row>
     <row r="219" ht="15" customHeight="1">
       <c r="F219" t="n">
-        <v>0.02687640602286624</v>
+        <v>0.02180577756594797</v>
       </c>
       <c r="G219" t="n">
+        <v>0.06371078688209142</v>
+      </c>
+      <c r="J219" t="n">
+        <v>0.02124172385444219</v>
+      </c>
+      <c r="K219" t="n">
         <v>0.1210667150024076</v>
       </c>
-      <c r="J219" t="n">
-        <v>0.05914124921297084</v>
-      </c>
-      <c r="K219" t="n">
-        <v>0.120526488012294</v>
-      </c>
       <c r="L219" t="n">
-        <v>0.07612874615757942</v>
+        <v>0.05337447344815979</v>
       </c>
       <c r="M219" t="n">
-        <v>0.1195570260275429</v>
+        <v>0.1196929457676841</v>
       </c>
       <c r="N219" t="n">
-        <v>0.02687640602286624</v>
+        <v>0.09281273154831204</v>
       </c>
       <c r="O219" t="n">
-        <v>0.1210667150024076</v>
+        <v>0.1203081546371971</v>
       </c>
     </row>
     <row r="220" ht="15" customHeight="1">
       <c r="F220" t="n">
-        <v>0.026612156716875</v>
+        <v>0.02122838226869798</v>
       </c>
       <c r="G220" t="n">
+        <v>0.06364047029924827</v>
+      </c>
+      <c r="J220" t="n">
+        <v>0.02107918248578984</v>
+      </c>
+      <c r="K220" t="n">
         <v>0.1218528625024233</v>
       </c>
-      <c r="J220" t="n">
-        <v>0.05846393919090359</v>
-      </c>
-      <c r="K220" t="n">
-        <v>0.1213091275448414</v>
-      </c>
       <c r="L220" t="n">
-        <v>0.07575860920660965</v>
+        <v>0.05325462288436444</v>
       </c>
       <c r="M220" t="n">
-        <v>0.1203333703523971</v>
+        <v>0.1204701726882535</v>
       </c>
       <c r="N220" t="n">
-        <v>0.026612156716875</v>
+        <v>0.0916706855097037</v>
       </c>
       <c r="O220" t="n">
-        <v>0.1218528625024233</v>
+        <v>0.1210893764205555</v>
       </c>
     </row>
     <row r="221" ht="15" customHeight="1">
       <c r="F221" t="n">
-        <v>0.02644340178011421</v>
+        <v>0.02065891632148457</v>
       </c>
       <c r="G221" t="n">
+        <v>0.06357015371640512</v>
+      </c>
+      <c r="J221" t="n">
+        <v>0.02103103910065221</v>
+      </c>
+      <c r="K221" t="n">
         <v>0.1226390100024389</v>
       </c>
-      <c r="J221" t="n">
-        <v>0.05738538475553503</v>
-      </c>
-      <c r="K221" t="n">
-        <v>0.1220917670773888</v>
-      </c>
       <c r="L221" t="n">
-        <v>0.07569837238245974</v>
+        <v>0.05205603703542183</v>
       </c>
       <c r="M221" t="n">
-        <v>0.1211097146772512</v>
+        <v>0.1212473996088228</v>
       </c>
       <c r="N221" t="n">
-        <v>0.02644340178011421</v>
+        <v>0.08954824649105386</v>
       </c>
       <c r="O221" t="n">
-        <v>0.1226390100024389</v>
+        <v>0.121870598203914</v>
       </c>
     </row>
     <row r="222" ht="15" customHeight="1">
       <c r="F222" t="n">
-        <v>0.02636964122000883</v>
+        <v>0.02009768227321026</v>
       </c>
       <c r="G222" t="n">
+        <v>0.06349983713356197</v>
+      </c>
+      <c r="J222" t="n">
+        <v>0.02059845844532829</v>
+      </c>
+      <c r="K222" t="n">
         <v>0.1234251575024545</v>
       </c>
-      <c r="J222" t="n">
-        <v>0.05720557750354446</v>
-      </c>
-      <c r="K222" t="n">
-        <v>0.1228744066099361</v>
-      </c>
       <c r="L222" t="n">
-        <v>0.07494837622031897</v>
+        <v>0.05178091648223171</v>
       </c>
       <c r="M222" t="n">
-        <v>0.1218860590021054</v>
+        <v>0.1220246265293922</v>
       </c>
       <c r="N222" t="n">
-        <v>0.02636964122000883</v>
+        <v>0.088348325726746</v>
       </c>
       <c r="O222" t="n">
-        <v>0.1234251575024545</v>
+        <v>0.1226518199872724</v>
       </c>
     </row>
     <row r="223" ht="15" customHeight="1">
       <c r="F223" t="n">
-        <v>0.02659037504398387</v>
+        <v>0.01954498267277759</v>
       </c>
       <c r="G223" t="n">
+        <v>0.06342952055071882</v>
+      </c>
+      <c r="J223" t="n">
+        <v>0.02028260526611723</v>
+      </c>
+      <c r="K223" t="n">
         <v>0.1242113050024701</v>
       </c>
-      <c r="J223" t="n">
-        <v>0.05682450903161132</v>
-      </c>
-      <c r="K223" t="n">
-        <v>0.1236570461424835</v>
-      </c>
       <c r="L223" t="n">
-        <v>0.07350896125537698</v>
+        <v>0.05093146180569397</v>
       </c>
       <c r="M223" t="n">
-        <v>0.1226624033269596</v>
+        <v>0.1228018534499616</v>
       </c>
       <c r="N223" t="n">
-        <v>0.02659037504398387</v>
+        <v>0.08837383445116348</v>
       </c>
       <c r="O223" t="n">
-        <v>0.1242113050024701</v>
+        <v>0.1234330417706308</v>
       </c>
     </row>
     <row r="224" ht="15" customHeight="1">
       <c r="F224" t="n">
-        <v>0.02640510325946432</v>
+        <v>0.01900112006908908</v>
       </c>
       <c r="G224" t="n">
+        <v>0.06335920396787569</v>
+      </c>
+      <c r="J224" t="n">
+        <v>0.02028464430931803</v>
+      </c>
+      <c r="K224" t="n">
         <v>0.1249974525024858</v>
       </c>
-      <c r="J224" t="n">
-        <v>0.05634217093641483</v>
-      </c>
-      <c r="K224" t="n">
-        <v>0.1244396856750309</v>
-      </c>
       <c r="L224" t="n">
-        <v>0.07308046802282281</v>
+        <v>0.05040987358670859</v>
       </c>
       <c r="M224" t="n">
-        <v>0.1234387476518137</v>
+        <v>0.123579080370531</v>
       </c>
       <c r="N224" t="n">
-        <v>0.02640510325946432</v>
+        <v>0.08682768389868983</v>
       </c>
       <c r="O224" t="n">
-        <v>0.1249974525024858</v>
+        <v>0.1242142635539892</v>
       </c>
     </row>
     <row r="225" ht="15" customHeight="1">
       <c r="F225" t="n">
-        <v>0.02641327619733379</v>
+        <v>0.01846639701104726</v>
       </c>
       <c r="G225" t="n">
+        <v>0.06328888738503254</v>
+      </c>
+      <c r="J225" t="n">
+        <v>0.02010574032122982</v>
+      </c>
+      <c r="K225" t="n">
         <v>0.1257836000025014</v>
       </c>
-      <c r="J225" t="n">
-        <v>0.05615855481463441</v>
-      </c>
-      <c r="K225" t="n">
-        <v>0.1252223252075782</v>
-      </c>
       <c r="L225" t="n">
-        <v>0.07206323705784623</v>
+        <v>0.04931835240617538</v>
       </c>
       <c r="M225" t="n">
-        <v>0.1242150919766679</v>
+        <v>0.1243563072911004</v>
       </c>
       <c r="N225" t="n">
-        <v>0.02641327619733379</v>
+        <v>0.08561278530370864</v>
       </c>
       <c r="O225" t="n">
-        <v>0.1257836000025014</v>
+        <v>0.1249954853373476</v>
       </c>
     </row>
     <row r="226" ht="15" customHeight="1">
       <c r="F226" t="n">
-        <v>0.02621286079394763</v>
+        <v>0.01794111604755468</v>
       </c>
       <c r="G226" t="n">
+        <v>0.06321857080218939</v>
+      </c>
+      <c r="J226" t="n">
+        <v>0.02004705804815164</v>
+      </c>
+      <c r="K226" t="n">
         <v>0.1265697475025171</v>
       </c>
-      <c r="J226" t="n">
-        <v>0.05537365226294938</v>
-      </c>
-      <c r="K226" t="n">
-        <v>0.1260049647401256</v>
-      </c>
       <c r="L226" t="n">
-        <v>0.07145760889563652</v>
+        <v>0.04935909884499423</v>
       </c>
       <c r="M226" t="n">
-        <v>0.1249914363015221</v>
+        <v>0.1251335342116697</v>
       </c>
       <c r="N226" t="n">
-        <v>0.02621286079394763</v>
+        <v>0.08533204990060311</v>
       </c>
       <c r="O226" t="n">
-        <v>0.1265697475025171</v>
+        <v>0.125776707120706</v>
       </c>
     </row>
     <row r="227" ht="15" customHeight="1">
       <c r="F227" t="n">
-        <v>0.02600311392735107</v>
+        <v>0.01742557972751387</v>
       </c>
       <c r="G227" t="n">
+        <v>0.06314825421934624</v>
+      </c>
+      <c r="J227" t="n">
+        <v>0.01980976223638256</v>
+      </c>
+      <c r="K227" t="n">
         <v>0.1273558950025327</v>
       </c>
-      <c r="J227" t="n">
-        <v>0.05518745487803906</v>
-      </c>
-      <c r="K227" t="n">
-        <v>0.1267876042726729</v>
-      </c>
       <c r="L227" t="n">
-        <v>0.07116392407138311</v>
+        <v>0.048334313484065</v>
       </c>
       <c r="M227" t="n">
-        <v>0.1257677806263763</v>
+        <v>0.1259107611322391</v>
       </c>
       <c r="N227" t="n">
-        <v>0.02600311392735107</v>
+        <v>0.0841883889237568</v>
       </c>
       <c r="O227" t="n">
-        <v>0.1273558950025327</v>
+        <v>0.1265579289040645</v>
       </c>
     </row>
     <row r="228" ht="15" customHeight="1">
       <c r="F228" t="n">
-        <v>0.02598419148264465</v>
+        <v>0.01692009059982734</v>
       </c>
       <c r="G228" t="n">
+        <v>0.06307793763650309</v>
+      </c>
+      <c r="J228" t="n">
+        <v>0.01959501763222167</v>
+      </c>
+      <c r="K228" t="n">
         <v>0.1281420425025483</v>
       </c>
-      <c r="J228" t="n">
-        <v>0.05479995425658271</v>
-      </c>
-      <c r="K228" t="n">
-        <v>0.1275702438052203</v>
-      </c>
       <c r="L228" t="n">
-        <v>0.06988252312027532</v>
+        <v>0.04814619690428756</v>
       </c>
       <c r="M228" t="n">
-        <v>0.1265441249512305</v>
+        <v>0.1266879880528085</v>
       </c>
       <c r="N228" t="n">
-        <v>0.02598419148264465</v>
+        <v>0.08238471360755328</v>
       </c>
       <c r="O228" t="n">
-        <v>0.1281420425025483</v>
+        <v>0.1273391506874229</v>
       </c>
     </row>
     <row r="229" ht="15" customHeight="1">
       <c r="F229" t="n">
-        <v>0.02595624934492899</v>
+        <v>0.01642495121339764</v>
       </c>
       <c r="G229" t="n">
+        <v>0.06300762105365994</v>
+      </c>
+      <c r="J229" t="n">
+        <v>0.01960398898196805</v>
+      </c>
+      <c r="K229" t="n">
         <v>0.128928190002564</v>
       </c>
-      <c r="J229" t="n">
-        <v>0.05401114199525983</v>
-      </c>
-      <c r="K229" t="n">
-        <v>0.1283528833377677</v>
-      </c>
       <c r="L229" t="n">
-        <v>0.06971374657750273</v>
+        <v>0.04759694968656181</v>
       </c>
       <c r="M229" t="n">
-        <v>0.1273204692760846</v>
+        <v>0.1274652149733779</v>
       </c>
       <c r="N229" t="n">
-        <v>0.02595624934492899</v>
+        <v>0.0826239351863759</v>
       </c>
       <c r="O229" t="n">
-        <v>0.128928190002564</v>
+        <v>0.1281203724707813</v>
       </c>
     </row>
     <row r="230" ht="15" customHeight="1">
       <c r="F230" t="n">
-        <v>0.02571944339930465</v>
+        <v>0.0159404641171273</v>
       </c>
       <c r="G230" t="n">
+        <v>0.06293730447081679</v>
+      </c>
+      <c r="J230" t="n">
+        <v>0.01933768780481082</v>
+      </c>
+      <c r="K230" t="n">
         <v>0.1297143375025796</v>
       </c>
-      <c r="J230" t="n">
-        <v>0.05322100969074964</v>
-      </c>
-      <c r="K230" t="n">
-        <v>0.129135522870315</v>
-      </c>
       <c r="L230" t="n">
-        <v>0.06885793497825465</v>
+        <v>0.0473885467830211</v>
       </c>
       <c r="M230" t="n">
-        <v>0.1280968136009388</v>
+        <v>0.1282424418939472</v>
       </c>
       <c r="N230" t="n">
-        <v>0.02571944339930465</v>
+        <v>0.08070865331219174</v>
       </c>
       <c r="O230" t="n">
-        <v>0.1297143375025796</v>
+        <v>0.1289015942541397</v>
       </c>
     </row>
     <row r="231" ht="15" customHeight="1">
       <c r="F231" t="n">
-        <v>0.02567392953087223</v>
+        <v>0.01546693185991883</v>
       </c>
       <c r="G231" t="n">
+        <v>0.06286698788797364</v>
+      </c>
+      <c r="J231" t="n">
+        <v>0.01938210127624941</v>
+      </c>
+      <c r="K231" t="n">
         <v>0.1305004850025952</v>
       </c>
-      <c r="J231" t="n">
-        <v>0.05262954893973149</v>
-      </c>
-      <c r="K231" t="n">
-        <v>0.1299181624028624</v>
-      </c>
       <c r="L231" t="n">
-        <v>0.06871542885772053</v>
+        <v>0.04669849998020897</v>
       </c>
       <c r="M231" t="n">
-        <v>0.128873157925793</v>
+        <v>0.1290196688145166</v>
       </c>
       <c r="N231" t="n">
-        <v>0.02567392953087223</v>
+        <v>0.08131556150968594</v>
       </c>
       <c r="O231" t="n">
-        <v>0.1305004850025952</v>
+        <v>0.1296828160374982</v>
       </c>
     </row>
     <row r="232" ht="15" customHeight="1">
       <c r="F232" t="n">
-        <v>0.02531986362473233</v>
+        <v>0.0150046569906748</v>
       </c>
       <c r="G232" t="n">
+        <v>0.06279667130513049</v>
+      </c>
+      <c r="J232" t="n">
+        <v>0.01942754361866314</v>
+      </c>
+      <c r="K232" t="n">
         <v>0.1312866325026109</v>
       </c>
-      <c r="J232" t="n">
-        <v>0.05193675133888473</v>
-      </c>
-      <c r="K232" t="n">
-        <v>0.1307008019354098</v>
-      </c>
       <c r="L232" t="n">
-        <v>0.06748656875108977</v>
+        <v>0.0462110465549759</v>
       </c>
       <c r="M232" t="n">
-        <v>0.1296495022506471</v>
+        <v>0.129796895735086</v>
       </c>
       <c r="N232" t="n">
-        <v>0.02531986362473233</v>
+        <v>0.07992886540402738</v>
       </c>
       <c r="O232" t="n">
-        <v>0.1312866325026109</v>
+        <v>0.1304640378208566</v>
       </c>
     </row>
     <row r="233" ht="15" customHeight="1">
       <c r="F233" t="n">
-        <v>0.02515740156598552</v>
+        <v>0.01455394205829771</v>
       </c>
       <c r="G233" t="n">
+        <v>0.06272635472228734</v>
+      </c>
+      <c r="J233" t="n">
+        <v>0.01927405363061456</v>
+      </c>
+      <c r="K233" t="n">
         <v>0.1320727800026265</v>
       </c>
-      <c r="J233" t="n">
-        <v>0.05234260848488875</v>
-      </c>
-      <c r="K233" t="n">
-        <v>0.1314834414679571</v>
-      </c>
       <c r="L233" t="n">
-        <v>0.06677169519355175</v>
+        <v>0.04632658468887646</v>
       </c>
       <c r="M233" t="n">
-        <v>0.1304258465755013</v>
+        <v>0.1305741226556554</v>
       </c>
       <c r="N233" t="n">
-        <v>0.02515740156598552</v>
+        <v>0.07934872984956665</v>
       </c>
       <c r="O233" t="n">
-        <v>0.1320727800026265</v>
+        <v>0.131245259604215</v>
       </c>
     </row>
     <row r="234" ht="15" customHeight="1">
       <c r="F234" t="n">
-        <v>0.02508669923973242</v>
+        <v>0.0141150896116901</v>
       </c>
       <c r="G234" t="n">
+        <v>0.0626560381394442</v>
+      </c>
+      <c r="J234" t="n">
+        <v>0.01922167011066626</v>
+      </c>
+      <c r="K234" t="n">
         <v>0.1328589275026421</v>
       </c>
-      <c r="J234" t="n">
-        <v>0.05154711197442277</v>
-      </c>
-      <c r="K234" t="n">
-        <v>0.1322660810005045</v>
-      </c>
       <c r="L234" t="n">
-        <v>0.06657114872029596</v>
+        <v>0.04544551256346532</v>
       </c>
       <c r="M234" t="n">
-        <v>0.1312021909003555</v>
+        <v>0.1313513495762248</v>
       </c>
       <c r="N234" t="n">
-        <v>0.02508669923973242</v>
+        <v>0.07887531970065448</v>
       </c>
       <c r="O234" t="n">
-        <v>0.1328589275026421</v>
+        <v>0.1320264813875734</v>
       </c>
     </row>
     <row r="235" ht="15" customHeight="1">
       <c r="F235" t="n">
-        <v>0.02490791253107359</v>
+        <v>0.01368840219975451</v>
       </c>
       <c r="G235" t="n">
+        <v>0.06258572155660105</v>
+      </c>
+      <c r="J235" t="n">
+        <v>0.01917043185738079</v>
+      </c>
+      <c r="K235" t="n">
         <v>0.1336450750026578</v>
       </c>
-      <c r="J235" t="n">
-        <v>0.05115025340416626</v>
-      </c>
-      <c r="K235" t="n">
-        <v>0.1330487205330519</v>
-      </c>
       <c r="L235" t="n">
-        <v>0.06498526986651171</v>
+        <v>0.04526822836029706</v>
       </c>
       <c r="M235" t="n">
-        <v>0.1319785352252097</v>
+        <v>0.1321285764967941</v>
       </c>
       <c r="N235" t="n">
-        <v>0.02490791253107359</v>
+        <v>0.07760879981164137</v>
       </c>
       <c r="O235" t="n">
-        <v>0.1336450750026578</v>
+        <v>0.1328077031709319</v>
       </c>
     </row>
     <row r="236" ht="15" customHeight="1">
       <c r="F236" t="n">
-        <v>0.02452119732510964</v>
+        <v>0.01327418237139346</v>
       </c>
       <c r="G236" t="n">
+        <v>0.0625154049737579</v>
+      </c>
+      <c r="J236" t="n">
+        <v>0.01912037766932076</v>
+      </c>
+      <c r="K236" t="n">
         <v>0.1344312225026734</v>
       </c>
-      <c r="J236" t="n">
-        <v>0.04995202437079846</v>
-      </c>
-      <c r="K236" t="n">
-        <v>0.1338313600655992</v>
-      </c>
       <c r="L236" t="n">
-        <v>0.0644143991673885</v>
+        <v>0.04459513026092643</v>
       </c>
       <c r="M236" t="n">
-        <v>0.1327548795500638</v>
+        <v>0.1329058034173635</v>
       </c>
       <c r="N236" t="n">
-        <v>0.02452119732510964</v>
+        <v>0.07684933503687813</v>
       </c>
       <c r="O236" t="n">
-        <v>0.1344312225026734</v>
+        <v>0.1335889249542903</v>
       </c>
     </row>
     <row r="237" ht="15" customHeight="1">
       <c r="F237" t="n">
-        <v>0.02442670950694113</v>
+        <v>0.01287273267550949</v>
       </c>
       <c r="G237" t="n">
+        <v>0.06244508839091475</v>
+      </c>
+      <c r="J237" t="n">
+        <v>0.01907154634504872</v>
+      </c>
+      <c r="K237" t="n">
         <v>0.135217370002689</v>
       </c>
-      <c r="J237" t="n">
-        <v>0.05005241647099873</v>
-      </c>
-      <c r="K237" t="n">
-        <v>0.1346139995981466</v>
-      </c>
       <c r="L237" t="n">
-        <v>0.06405887715811587</v>
+        <v>0.044326616446908</v>
       </c>
       <c r="M237" t="n">
-        <v>0.133531223874918</v>
+        <v>0.1336830303379329</v>
       </c>
       <c r="N237" t="n">
-        <v>0.02442670950694113</v>
+        <v>0.07629709023071529</v>
       </c>
       <c r="O237" t="n">
-        <v>0.135217370002689</v>
+        <v>0.1343701467376487</v>
       </c>
     </row>
     <row r="238" ht="15" customHeight="1">
       <c r="F238" t="n">
-        <v>0.02412460496166868</v>
+        <v>0.01248435566100512</v>
       </c>
       <c r="G238" t="n">
+        <v>0.06237477180807161</v>
+      </c>
+      <c r="J238" t="n">
+        <v>0.01922397668312727</v>
+      </c>
+      <c r="K238" t="n">
         <v>0.1360035175027047</v>
       </c>
-      <c r="J238" t="n">
-        <v>0.04975142130144647</v>
-      </c>
-      <c r="K238" t="n">
-        <v>0.1353966391306939</v>
-      </c>
       <c r="L238" t="n">
-        <v>0.06361904437388294</v>
+        <v>0.04406308509979637</v>
       </c>
       <c r="M238" t="n">
-        <v>0.1343075681997722</v>
+        <v>0.1344602572585022</v>
       </c>
       <c r="N238" t="n">
-        <v>0.02412460496166868</v>
+        <v>0.07555223024750363</v>
       </c>
       <c r="O238" t="n">
-        <v>0.1360035175027047</v>
+        <v>0.1351513685210071</v>
       </c>
     </row>
     <row r="239" ht="15" customHeight="1">
       <c r="F239" t="n">
-        <v>0.02391503957439289</v>
+        <v>0.0121093538767829</v>
       </c>
       <c r="G239" t="n">
+        <v>0.06230445522522846</v>
+      </c>
+      <c r="J239" t="n">
+        <v>0.01917770748211894</v>
+      </c>
+      <c r="K239" t="n">
         <v>0.1367896650027203</v>
       </c>
-      <c r="J239" t="n">
-        <v>0.0492490304588209</v>
-      </c>
-      <c r="K239" t="n">
-        <v>0.1361792786632413</v>
-      </c>
       <c r="L239" t="n">
-        <v>0.06309524134987932</v>
+        <v>0.04340493440114626</v>
       </c>
       <c r="M239" t="n">
-        <v>0.1350839125246264</v>
+        <v>0.1352374841790716</v>
       </c>
       <c r="N239" t="n">
-        <v>0.02391503957439289</v>
+        <v>0.07381491994159367</v>
       </c>
       <c r="O239" t="n">
-        <v>0.1367896650027203</v>
+        <v>0.1359325903043656</v>
       </c>
     </row>
     <row r="240" ht="15" customHeight="1">
       <c r="F240" t="n">
-        <v>0.02389816923021428</v>
+        <v>0.01174679446372661</v>
       </c>
       <c r="G240" t="n">
+        <v>0.0622341386423853</v>
+      </c>
+      <c r="J240" t="n">
+        <v>0.01893277754058635</v>
+      </c>
+      <c r="K240" t="n">
         <v>0.1375758125027359</v>
       </c>
-      <c r="J240" t="n">
-        <v>0.04874523553980142</v>
-      </c>
-      <c r="K240" t="n">
-        <v>0.1369619181957887</v>
-      </c>
       <c r="L240" t="n">
-        <v>0.06328780862129435</v>
+        <v>0.04385256253251224</v>
       </c>
       <c r="M240" t="n">
-        <v>0.1358602568494805</v>
+        <v>0.136014711099641</v>
       </c>
       <c r="N240" t="n">
-        <v>0.02389816923021428</v>
+        <v>0.07318532416733614</v>
       </c>
       <c r="O240" t="n">
-        <v>0.1375758125027359</v>
+        <v>0.136713812087724</v>
       </c>
     </row>
     <row r="241" ht="15" customHeight="1">
       <c r="F241" t="n">
-        <v>0.02367414981423349</v>
+        <v>0.0113895675226269</v>
       </c>
       <c r="G241" t="n">
+        <v>0.06216382205954215</v>
+      </c>
+      <c r="J241" t="n">
+        <v>0.01908922565709205</v>
+      </c>
+      <c r="K241" t="n">
         <v>0.1383619600027516</v>
       </c>
-      <c r="J241" t="n">
-        <v>0.04764002814106738</v>
-      </c>
-      <c r="K241" t="n">
-        <v>0.137744557728336</v>
-      </c>
       <c r="L241" t="n">
-        <v>0.06189708672331751</v>
+        <v>0.04320636767544897</v>
       </c>
       <c r="M241" t="n">
-        <v>0.1366366011743347</v>
+        <v>0.1367919380202104</v>
       </c>
       <c r="N241" t="n">
-        <v>0.02367414981423349</v>
+        <v>0.07236360777908168</v>
       </c>
       <c r="O241" t="n">
-        <v>0.1383619600027516</v>
+        <v>0.1374950338710824</v>
       </c>
     </row>
     <row r="242" ht="15" customHeight="1">
       <c r="F242" t="n">
-        <v>0.02334313721155112</v>
+        <v>0.01103674019436756</v>
       </c>
       <c r="G242" t="n">
+        <v>0.062093505476699</v>
+      </c>
+      <c r="J242" t="n">
+        <v>0.01894709063019862</v>
+      </c>
+      <c r="K242" t="n">
         <v>0.1391481075027672</v>
       </c>
-      <c r="J242" t="n">
-        <v>0.0478333998592981</v>
-      </c>
-      <c r="K242" t="n">
-        <v>0.1385271972608834</v>
-      </c>
       <c r="L242" t="n">
-        <v>0.06202341619113821</v>
+        <v>0.04256674801151109</v>
       </c>
       <c r="M242" t="n">
-        <v>0.1374129454991889</v>
+        <v>0.1375691649407798</v>
       </c>
       <c r="N242" t="n">
-        <v>0.02334313721155112</v>
+        <v>0.07304993563118095</v>
       </c>
       <c r="O242" t="n">
-        <v>0.1391481075027672</v>
+        <v>0.1382762556544408</v>
       </c>
     </row>
     <row r="243" ht="15" customHeight="1">
       <c r="F243" t="n">
-        <v>0.02310528730726776</v>
+        <v>0.01068861502785112</v>
       </c>
       <c r="G243" t="n">
+        <v>0.06202318889385585</v>
+      </c>
+      <c r="J243" t="n">
+        <v>0.01870641125846861</v>
+      </c>
+      <c r="K243" t="n">
         <v>0.1399342550027828</v>
       </c>
-      <c r="J243" t="n">
-        <v>0.0469253422911729</v>
-      </c>
-      <c r="K243" t="n">
-        <v>0.1393098367934308</v>
-      </c>
       <c r="L243" t="n">
-        <v>0.06166713755994579</v>
+        <v>0.0424341017222532</v>
       </c>
       <c r="M243" t="n">
-        <v>0.138189289824043</v>
+        <v>0.1383463918613491</v>
       </c>
       <c r="N243" t="n">
-        <v>0.02310528730726776</v>
+        <v>0.07214447257798473</v>
       </c>
       <c r="O243" t="n">
-        <v>0.1399342550027828</v>
+        <v>0.1390574774377992</v>
       </c>
     </row>
     <row r="244" ht="15" customHeight="1">
       <c r="F244" t="n">
-        <v>0.02306075598648395</v>
+        <v>0.01034549457198012</v>
       </c>
       <c r="G244" t="n">
+        <v>0.06195287231101271</v>
+      </c>
+      <c r="J244" t="n">
+        <v>0.01866722634046465</v>
+      </c>
+      <c r="K244" t="n">
         <v>0.1407204025027985</v>
       </c>
-      <c r="J244" t="n">
-        <v>0.04611584703337115</v>
-      </c>
-      <c r="K244" t="n">
-        <v>0.1400924763259781</v>
-      </c>
       <c r="L244" t="n">
-        <v>0.06082859136492968</v>
+        <v>0.04190882698923004</v>
       </c>
       <c r="M244" t="n">
-        <v>0.1389656341488973</v>
+        <v>0.1391236187819185</v>
       </c>
       <c r="N244" t="n">
-        <v>0.02306075598648395</v>
+        <v>0.07014738347384331</v>
       </c>
       <c r="O244" t="n">
-        <v>0.1407204025027985</v>
+        <v>0.1398386992211577</v>
       </c>
     </row>
     <row r="245" ht="15" customHeight="1">
       <c r="F245" t="n">
-        <v>0.02280969913430032</v>
+        <v>0.01000768137565708</v>
       </c>
       <c r="G245" t="n">
+        <v>0.06188255572816956</v>
+      </c>
+      <c r="J245" t="n">
+        <v>0.01892957467474925</v>
+      </c>
+      <c r="K245" t="n">
         <v>0.1415065500028141</v>
       </c>
-      <c r="J245" t="n">
-        <v>0.04570490568257221</v>
-      </c>
-      <c r="K245" t="n">
-        <v>0.1408751158585255</v>
-      </c>
       <c r="L245" t="n">
-        <v>0.06040811814127944</v>
+        <v>0.04159132199399615</v>
       </c>
       <c r="M245" t="n">
-        <v>0.1397419784737514</v>
+        <v>0.1399008457024879</v>
       </c>
       <c r="N245" t="n">
-        <v>0.02280969913430032</v>
+        <v>0.07015883317310762</v>
       </c>
       <c r="O245" t="n">
-        <v>0.1415065500028141</v>
+        <v>0.1406199210045161</v>
       </c>
     </row>
     <row r="246" ht="15" customHeight="1">
       <c r="F246" t="n">
-        <v>0.02245227263581745</v>
+        <v>0.00967547798778455</v>
       </c>
       <c r="G246" t="n">
+        <v>0.06181223914532641</v>
+      </c>
+      <c r="J246" t="n">
+        <v>0.01869349505988505</v>
+      </c>
+      <c r="K246" t="n">
         <v>0.1422926975028297</v>
       </c>
-      <c r="J246" t="n">
-        <v>0.04579250983545533</v>
-      </c>
-      <c r="K246" t="n">
-        <v>0.1416577553910729</v>
-      </c>
       <c r="L246" t="n">
-        <v>0.05970605842418431</v>
+        <v>0.04148198491810617</v>
       </c>
       <c r="M246" t="n">
-        <v>0.1405183227986056</v>
+        <v>0.1406780726230573</v>
       </c>
       <c r="N246" t="n">
-        <v>0.02245227263581745</v>
+        <v>0.06897898653012841</v>
       </c>
       <c r="O246" t="n">
-        <v>0.1422926975028297</v>
+        <v>0.1414011427878745</v>
       </c>
     </row>
     <row r="247" ht="15" customHeight="1">
       <c r="F247" t="n">
-        <v>0.02218863237613593</v>
+        <v>0.00934918695726504</v>
       </c>
       <c r="G247" t="n">
+        <v>0.06174192256248326</v>
+      </c>
+      <c r="J247" t="n">
+        <v>0.01875902629443457</v>
+      </c>
+      <c r="K247" t="n">
         <v>0.1430788450028454</v>
       </c>
-      <c r="J247" t="n">
-        <v>0.04487865108869987</v>
-      </c>
-      <c r="K247" t="n">
-        <v>0.1424403949236202</v>
-      </c>
       <c r="L247" t="n">
-        <v>0.05902275274883367</v>
+        <v>0.04108121394311479</v>
       </c>
       <c r="M247" t="n">
-        <v>0.1412946671234598</v>
+        <v>0.1414552995436267</v>
       </c>
       <c r="N247" t="n">
-        <v>0.02218863237613593</v>
+        <v>0.06900800839925608</v>
       </c>
       <c r="O247" t="n">
-        <v>0.1430788450028454</v>
+        <v>0.1421823645712329</v>
       </c>
     </row>
     <row r="248" ht="15" customHeight="1">
       <c r="F248" t="n">
-        <v>0.02191893424035635</v>
+        <v>0.009029110833001106</v>
       </c>
       <c r="G248" t="n">
+        <v>0.06167160597964011</v>
+      </c>
+      <c r="J248" t="n">
+        <v>0.01872620717696041</v>
+      </c>
+      <c r="K248" t="n">
         <v>0.143864992502861</v>
       </c>
-      <c r="J248" t="n">
-        <v>0.04426332103898525</v>
-      </c>
-      <c r="K248" t="n">
-        <v>0.1432230344561676</v>
-      </c>
       <c r="L248" t="n">
-        <v>0.05885854165041715</v>
+        <v>0.04068940725057663</v>
       </c>
       <c r="M248" t="n">
-        <v>0.1420710114483139</v>
+        <v>0.142232526464196</v>
       </c>
       <c r="N248" t="n">
-        <v>0.02191893424035635</v>
+        <v>0.06864606363484133</v>
       </c>
       <c r="O248" t="n">
-        <v>0.143864992502861</v>
+        <v>0.1429635863545914</v>
       </c>
     </row>
     <row r="249" ht="15" customHeight="1">
       <c r="F249" t="n">
-        <v>0.02164333411357929</v>
+        <v>0.008715552163895246</v>
       </c>
       <c r="G249" t="n">
+        <v>0.06160128939679697</v>
+      </c>
+      <c r="J249" t="n">
+        <v>0.01879507650602516</v>
+      </c>
+      <c r="K249" t="n">
         <v>0.1446511400028766</v>
       </c>
-      <c r="J249" t="n">
-        <v>0.04414651128299071</v>
-      </c>
-      <c r="K249" t="n">
-        <v>0.1440056739887149</v>
-      </c>
       <c r="L249" t="n">
-        <v>0.05961376566412407</v>
+        <v>0.04020696302204629</v>
       </c>
       <c r="M249" t="n">
-        <v>0.1428473557731681</v>
+        <v>0.1430097533847654</v>
       </c>
       <c r="N249" t="n">
-        <v>0.02164333411357929</v>
+        <v>0.06769331709123494</v>
       </c>
       <c r="O249" t="n">
-        <v>0.1446511400028766</v>
+        <v>0.1437448081379498</v>
       </c>
     </row>
     <row r="250" ht="15" customHeight="1">
       <c r="F250" t="n">
-        <v>0.02126198788090534</v>
+        <v>0.008408813498850018</v>
       </c>
       <c r="G250" t="n">
+        <v>0.06153097281395382</v>
+      </c>
+      <c r="J250" t="n">
+        <v>0.01856567308019134</v>
+      </c>
+      <c r="K250" t="n">
         <v>0.1454372875028923</v>
       </c>
-      <c r="J250" t="n">
-        <v>0.04362821341739562</v>
-      </c>
-      <c r="K250" t="n">
-        <v>0.1447883135212623</v>
-      </c>
       <c r="L250" t="n">
-        <v>0.0593887653251437</v>
+        <v>0.04043427943907846</v>
       </c>
       <c r="M250" t="n">
-        <v>0.1436237000980223</v>
+        <v>0.1437869803053348</v>
       </c>
       <c r="N250" t="n">
-        <v>0.02126198788090534</v>
+        <v>0.06694993362278751</v>
       </c>
       <c r="O250" t="n">
-        <v>0.1454372875028923</v>
+        <v>0.1445260299213082</v>
       </c>
     </row>
     <row r="251" ht="15" customHeight="1">
       <c r="F251" t="n">
-        <v>0.02117505142743512</v>
+        <v>0.00810919738676795</v>
       </c>
       <c r="G251" t="n">
+        <v>0.06146065623111067</v>
+      </c>
+      <c r="J251" t="n">
+        <v>0.0186380356980216</v>
+      </c>
+      <c r="K251" t="n">
         <v>0.1462234350029079</v>
       </c>
-      <c r="J251" t="n">
-        <v>0.04310841903887933</v>
-      </c>
-      <c r="K251" t="n">
-        <v>0.1455709530538097</v>
-      </c>
       <c r="L251" t="n">
-        <v>0.05848388116866565</v>
+        <v>0.03977175468322769</v>
       </c>
       <c r="M251" t="n">
-        <v>0.1444000444228765</v>
+        <v>0.1445642072259042</v>
       </c>
       <c r="N251" t="n">
-        <v>0.02117505142743512</v>
+        <v>0.06611607808384962</v>
       </c>
       <c r="O251" t="n">
-        <v>0.1462234350029079</v>
+        <v>0.1453072517046666</v>
       </c>
     </row>
     <row r="252" ht="15" customHeight="1">
       <c r="F252" t="n">
-        <v>0.02058268063826918</v>
+        <v>0.007817006376551569</v>
       </c>
       <c r="G252" t="n">
+        <v>0.06139033964826752</v>
+      </c>
+      <c r="J252" t="n">
+        <v>0.01861220315807846</v>
+      </c>
+      <c r="K252" t="n">
         <v>0.1470095825029235</v>
       </c>
-      <c r="J252" t="n">
-        <v>0.04218711974412118</v>
-      </c>
-      <c r="K252" t="n">
-        <v>0.1463535925863571</v>
-      </c>
       <c r="L252" t="n">
-        <v>0.05829945372987927</v>
+        <v>0.04011978693604873</v>
       </c>
       <c r="M252" t="n">
-        <v>0.1451763887477306</v>
+        <v>0.1453414341464735</v>
       </c>
       <c r="N252" t="n">
-        <v>0.02058268063826918</v>
+        <v>0.06499191532877202</v>
       </c>
       <c r="O252" t="n">
-        <v>0.1470095825029235</v>
+        <v>0.1460884734880251</v>
       </c>
     </row>
     <row r="253" ht="15" customHeight="1">
       <c r="F253" t="n">
-        <v>0.02048503139850812</v>
+        <v>0.007532543017103405</v>
       </c>
       <c r="G253" t="n">
+        <v>0.06132002306542437</v>
+      </c>
+      <c r="J253" t="n">
+        <v>0.01858821425892451</v>
+      </c>
+      <c r="K253" t="n">
         <v>0.1477957300029392</v>
       </c>
-      <c r="J253" t="n">
-        <v>0.04186430712980047</v>
-      </c>
-      <c r="K253" t="n">
-        <v>0.1471362321189044</v>
-      </c>
       <c r="L253" t="n">
-        <v>0.05783582354397387</v>
+        <v>0.03957877437909615</v>
       </c>
       <c r="M253" t="n">
-        <v>0.1459527330725848</v>
+        <v>0.1461186610670429</v>
       </c>
       <c r="N253" t="n">
-        <v>0.02048503139850812</v>
+        <v>0.06457761021190533</v>
       </c>
       <c r="O253" t="n">
-        <v>0.1477957300029392</v>
+        <v>0.1468696952713835</v>
       </c>
     </row>
     <row r="254" ht="15" customHeight="1">
       <c r="F254" t="n">
-        <v>0.01998225959325253</v>
+        <v>0.007256109857325992</v>
       </c>
       <c r="G254" t="n">
+        <v>0.06124970648258123</v>
+      </c>
+      <c r="J254" t="n">
+        <v>0.01846610779912232</v>
+      </c>
+      <c r="K254" t="n">
         <v>0.1485818775029548</v>
       </c>
-      <c r="J254" t="n">
-        <v>0.04093997279259654</v>
-      </c>
-      <c r="K254" t="n">
-        <v>0.1479188716514518</v>
-      </c>
       <c r="L254" t="n">
-        <v>0.05819333114613912</v>
+        <v>0.03944911519392461</v>
       </c>
       <c r="M254" t="n">
-        <v>0.146729077397439</v>
+        <v>0.1468958879876123</v>
       </c>
       <c r="N254" t="n">
-        <v>0.01998225959325253</v>
+        <v>0.06427332758760013</v>
       </c>
       <c r="O254" t="n">
-        <v>0.1485818775029548</v>
+        <v>0.1476509170547419</v>
       </c>
     </row>
     <row r="255" ht="15" customHeight="1">
       <c r="F255" t="n">
-        <v>0.019974521107603</v>
+        <v>0.006988009446121844</v>
       </c>
       <c r="G255" t="n">
+        <v>0.06117938989973808</v>
+      </c>
+      <c r="J255" t="n">
+        <v>0.01844592257723447</v>
+      </c>
+      <c r="K255" t="n">
         <v>0.1493680250029704</v>
       </c>
-      <c r="J255" t="n">
-        <v>0.04081410832918883</v>
-      </c>
-      <c r="K255" t="n">
-        <v>0.1487015111839991</v>
-      </c>
       <c r="L255" t="n">
-        <v>0.05737231707156415</v>
+        <v>0.03893120756208873</v>
       </c>
       <c r="M255" t="n">
-        <v>0.1475054217222932</v>
+        <v>0.1476731149081817</v>
       </c>
       <c r="N255" t="n">
-        <v>0.019974521107603</v>
+        <v>0.06397923231020719</v>
       </c>
       <c r="O255" t="n">
-        <v>0.1493680250029704</v>
+        <v>0.1484321388381003</v>
       </c>
     </row>
     <row r="256" ht="15" customHeight="1">
       <c r="F256" t="n">
-        <v>0.01966197182666012</v>
+        <v>0.006728544332393525</v>
       </c>
       <c r="G256" t="n">
+        <v>0.06110907331689493</v>
+      </c>
+      <c r="J256" t="n">
+        <v>0.01862769739182353</v>
+      </c>
+      <c r="K256" t="n">
         <v>0.1501541725029861</v>
       </c>
-      <c r="J256" t="n">
-        <v>0.0402867053362565</v>
-      </c>
-      <c r="K256" t="n">
-        <v>0.1494841507165465</v>
-      </c>
       <c r="L256" t="n">
-        <v>0.05747312185543857</v>
+        <v>0.03932544966514315</v>
       </c>
       <c r="M256" t="n">
-        <v>0.1482817660471473</v>
+        <v>0.1484503418287511</v>
       </c>
       <c r="N256" t="n">
-        <v>0.01966197182666012</v>
+        <v>0.06289548923407706</v>
       </c>
       <c r="O256" t="n">
-        <v>0.1501541725029861</v>
+        <v>0.1492133606214587</v>
       </c>
     </row>
     <row r="257" ht="15" customHeight="1">
       <c r="F257" t="n">
-        <v>0.0190447676355245</v>
+        <v>0.00647801706504355</v>
       </c>
       <c r="G257" t="n">
+        <v>0.06103875673405178</v>
+      </c>
+      <c r="J257" t="n">
+        <v>0.01841147104145208</v>
+      </c>
+      <c r="K257" t="n">
         <v>0.1509403200030017</v>
       </c>
-      <c r="J257" t="n">
-        <v>0.04005775541047901</v>
-      </c>
-      <c r="K257" t="n">
-        <v>0.1502667902490939</v>
-      </c>
       <c r="L257" t="n">
-        <v>0.05689608603295165</v>
+        <v>0.03863223968464252</v>
       </c>
       <c r="M257" t="n">
-        <v>0.1490581103720015</v>
+        <v>0.1492275687493204</v>
       </c>
       <c r="N257" t="n">
-        <v>0.0190447676355245</v>
+        <v>0.06342226321356048</v>
       </c>
       <c r="O257" t="n">
-        <v>0.1509403200030017</v>
+        <v>0.1499945824048171</v>
       </c>
     </row>
     <row r="258" ht="15" customHeight="1">
       <c r="F258" t="n">
-        <v>0.01892306441929667</v>
+        <v>0.006236730192974445</v>
       </c>
       <c r="G258" t="n">
+        <v>0.06096844015120863</v>
+      </c>
+      <c r="J258" t="n">
+        <v>0.0183972823246827</v>
+      </c>
+      <c r="K258" t="n">
         <v>0.1517264675030173</v>
       </c>
-      <c r="J258" t="n">
-        <v>0.03912725014853566</v>
-      </c>
-      <c r="K258" t="n">
-        <v>0.1510494297816412</v>
-      </c>
       <c r="L258" t="n">
-        <v>0.05764155013929295</v>
+        <v>0.03895197580214146</v>
       </c>
       <c r="M258" t="n">
-        <v>0.1498344546968557</v>
+        <v>0.1500047956698898</v>
       </c>
       <c r="N258" t="n">
-        <v>0.01892306441929667</v>
+        <v>0.062559719103008</v>
       </c>
       <c r="O258" t="n">
-        <v>0.1517264675030173</v>
+        <v>0.1507758041881756</v>
       </c>
     </row>
     <row r="259" ht="15" customHeight="1">
       <c r="F259" t="n">
-        <v>0.01839701806307728</v>
+        <v>0.00600498626508876</v>
       </c>
       <c r="G259" t="n">
+        <v>0.06089812356836549</v>
+      </c>
+      <c r="J259" t="n">
+        <v>0.01858517004007795</v>
+      </c>
+      <c r="K259" t="n">
         <v>0.152512615003033</v>
       </c>
-      <c r="J259" t="n">
-        <v>0.03809518114710581</v>
-      </c>
-      <c r="K259" t="n">
-        <v>0.1518320693141886</v>
-      </c>
       <c r="L259" t="n">
-        <v>0.05700985470965175</v>
+        <v>0.03808505619919464</v>
       </c>
       <c r="M259" t="n">
-        <v>0.1506107990217098</v>
+        <v>0.1507820225904592</v>
       </c>
       <c r="N259" t="n">
-        <v>0.01839701806307728</v>
+        <v>0.06100802175677045</v>
       </c>
       <c r="O259" t="n">
-        <v>0.152512615003033</v>
+        <v>0.151557025971534</v>
       </c>
     </row>
     <row r="260" ht="15" customHeight="1">
       <c r="F260" t="n">
-        <v>0.01826678445196687</v>
+        <v>0.005783087830289003</v>
       </c>
       <c r="G260" t="n">
+        <v>0.06082780698552234</v>
+      </c>
+      <c r="J260" t="n">
+        <v>0.01857517298620041</v>
+      </c>
+      <c r="K260" t="n">
         <v>0.1532987625030486</v>
       </c>
-      <c r="J260" t="n">
-        <v>0.03836154000286882</v>
-      </c>
-      <c r="K260" t="n">
-        <v>0.1526147088467359</v>
-      </c>
       <c r="L260" t="n">
-        <v>0.05610134027921754</v>
+        <v>0.03863187905735668</v>
       </c>
       <c r="M260" t="n">
-        <v>0.151387143346564</v>
+        <v>0.1515592495110286</v>
       </c>
       <c r="N260" t="n">
-        <v>0.01826678445196687</v>
+        <v>0.06056733602919834</v>
       </c>
       <c r="O260" t="n">
-        <v>0.1532987625030486</v>
+        <v>0.1523382477548924</v>
       </c>
     </row>
     <row r="261" ht="15" customHeight="1">
       <c r="F261" t="n">
-        <v>0.0177325194710661</v>
+        <v>0.005571337437477716</v>
       </c>
       <c r="G261" t="n">
+        <v>0.06075749040267919</v>
+      </c>
+      <c r="J261" t="n">
+        <v>0.01846732996161266</v>
+      </c>
+      <c r="K261" t="n">
         <v>0.1540849100030642</v>
       </c>
-      <c r="J261" t="n">
-        <v>0.03772631831250389</v>
-      </c>
-      <c r="K261" t="n">
-        <v>0.1533973483792833</v>
-      </c>
       <c r="L261" t="n">
-        <v>0.0569163473831798</v>
+        <v>0.03779284255818216</v>
       </c>
       <c r="M261" t="n">
-        <v>0.1521634876714182</v>
+        <v>0.152336476431598</v>
       </c>
       <c r="N261" t="n">
-        <v>0.0177325194710661</v>
+        <v>0.06043782677464227</v>
       </c>
       <c r="O261" t="n">
-        <v>0.1540849100030642</v>
+        <v>0.1531194695382508</v>
       </c>
     </row>
     <row r="262" ht="15" customHeight="1">
       <c r="F262" t="n">
-        <v>0.01739437900547551</v>
+        <v>0.005370037635557434</v>
       </c>
       <c r="G262" t="n">
+        <v>0.06068717381983604</v>
+      </c>
+      <c r="J262" t="n">
+        <v>0.01826167976487728</v>
+      </c>
+      <c r="K262" t="n">
         <v>0.1548710575030799</v>
       </c>
-      <c r="J262" t="n">
-        <v>0.0366895076726905</v>
-      </c>
-      <c r="K262" t="n">
-        <v>0.1541799879118307</v>
-      </c>
       <c r="L262" t="n">
-        <v>0.05705521655672779</v>
+        <v>0.03756834488322583</v>
       </c>
       <c r="M262" t="n">
-        <v>0.1529398319962724</v>
+        <v>0.1531137033521673</v>
       </c>
       <c r="N262" t="n">
-        <v>0.01739437900547551</v>
+        <v>0.06051965884745308</v>
       </c>
       <c r="O262" t="n">
-        <v>0.1548710575030799</v>
+        <v>0.1539006913216093</v>
       </c>
     </row>
     <row r="263" ht="15" customHeight="1">
       <c r="F263" t="n">
-        <v>0.01725251894029564</v>
+        <v>0.005179490973430685</v>
       </c>
       <c r="G263" t="n">
+        <v>0.06061685723699289</v>
+      </c>
+      <c r="J263" t="n">
+        <v>0.0184582611945568</v>
+      </c>
+      <c r="K263" t="n">
         <v>0.1556572050030955</v>
       </c>
-      <c r="J263" t="n">
-        <v>0.03635109968010797</v>
-      </c>
-      <c r="K263" t="n">
-        <v>0.154962627444378</v>
-      </c>
       <c r="L263" t="n">
-        <v>0.05681828833505104</v>
+        <v>0.03795878421404222</v>
       </c>
       <c r="M263" t="n">
-        <v>0.1537161763211266</v>
+        <v>0.1538909302727367</v>
       </c>
       <c r="N263" t="n">
-        <v>0.01725251894029564</v>
+        <v>0.05871299710198119</v>
       </c>
       <c r="O263" t="n">
-        <v>0.1556572050030955</v>
+        <v>0.1546819131049677</v>
       </c>
     </row>
     <row r="264" ht="15" customHeight="1">
       <c r="F264" t="n">
-        <v>0.01690709516062719</v>
+        <v>0.004999999999999998</v>
       </c>
       <c r="G264" t="n">
+        <v>0.06054654065414974</v>
+      </c>
+      <c r="J264" t="n">
+        <v>0.01835711304921385</v>
+      </c>
+      <c r="K264" t="n">
         <v>0.1564433525031111</v>
       </c>
-      <c r="J264" t="n">
-        <v>0.03561108593143555</v>
-      </c>
-      <c r="K264" t="n">
-        <v>0.1557452669769254</v>
-      </c>
       <c r="L264" t="n">
-        <v>0.05610590325333897</v>
+        <v>0.03766455873218602</v>
       </c>
       <c r="M264" t="n">
-        <v>0.1544925206459807</v>
+        <v>0.1546681571933061</v>
       </c>
       <c r="N264" t="n">
-        <v>0.01690709516062719</v>
+        <v>0.05931800639257745</v>
       </c>
       <c r="O264" t="n">
-        <v>0.1564433525031111</v>
-      </c>
-    </row>
-    <row r="265" ht="15" customHeight="1"/>
-    <row r="266" ht="15" customHeight="1"/>
-    <row r="267" ht="15" customHeight="1"/>
-    <row r="268" ht="15" customHeight="1"/>
-    <row r="269" ht="15" customHeight="1"/>
-    <row r="270" ht="15" customHeight="1"/>
-    <row r="271" ht="15" customHeight="1"/>
-    <row r="272" ht="15" customHeight="1"/>
-    <row r="273" ht="15" customHeight="1"/>
-    <row r="274" ht="15" customHeight="1"/>
-    <row r="275" ht="15" customHeight="1"/>
-    <row r="276" ht="15" customHeight="1"/>
-    <row r="277" ht="15" customHeight="1"/>
-    <row r="278" ht="15" customHeight="1"/>
-    <row r="279" ht="15" customHeight="1"/>
-    <row r="280" ht="15" customHeight="1"/>
-    <row r="281" ht="15" customHeight="1"/>
-    <row r="282" ht="15" customHeight="1"/>
-    <row r="283" ht="15" customHeight="1"/>
-    <row r="284" ht="15" customHeight="1"/>
-    <row r="285" ht="15" customHeight="1"/>
-    <row r="286" ht="15" customHeight="1"/>
-    <row r="287" ht="15" customHeight="1"/>
-    <row r="288" ht="15" customHeight="1"/>
-    <row r="289" ht="15" customHeight="1"/>
-    <row r="290" ht="15" customHeight="1"/>
-    <row r="291" ht="15" customHeight="1"/>
-    <row r="292" ht="15" customHeight="1"/>
-    <row r="293" ht="15" customHeight="1"/>
-    <row r="294" ht="15" customHeight="1"/>
-    <row r="295" ht="15" customHeight="1"/>
-    <row r="296" ht="15" customHeight="1"/>
-    <row r="297" ht="15" customHeight="1"/>
-    <row r="298" ht="15" customHeight="1"/>
-    <row r="299" ht="15" customHeight="1"/>
-    <row r="300" ht="15" customHeight="1"/>
-    <row r="301" ht="15" customHeight="1"/>
-    <row r="302" ht="15" customHeight="1"/>
-    <row r="303" ht="15" customHeight="1"/>
-    <row r="304" ht="15" customHeight="1"/>
-    <row r="305" ht="15" customHeight="1"/>
-    <row r="306" ht="15" customHeight="1"/>
-    <row r="307" ht="15" customHeight="1"/>
-    <row r="308" ht="15" customHeight="1"/>
-    <row r="309" ht="15" customHeight="1"/>
-    <row r="310" ht="15" customHeight="1"/>
-    <row r="311" ht="15" customHeight="1"/>
-    <row r="312" ht="15" customHeight="1"/>
-    <row r="313" ht="15" customHeight="1"/>
-    <row r="314" ht="15" customHeight="1"/>
-    <row r="315" ht="15" customHeight="1"/>
-    <row r="316" ht="15" customHeight="1"/>
-    <row r="317" ht="15" customHeight="1"/>
-    <row r="318" ht="15" customHeight="1"/>
-    <row r="319" ht="15" customHeight="1"/>
-    <row r="320" ht="15" customHeight="1"/>
-    <row r="321" ht="15" customHeight="1"/>
-    <row r="322" ht="15" customHeight="1"/>
-    <row r="323" ht="15" customHeight="1"/>
-    <row r="324" ht="15" customHeight="1"/>
-    <row r="325" ht="15" customHeight="1"/>
-    <row r="326" ht="15" customHeight="1"/>
-    <row r="327" ht="15" customHeight="1"/>
-    <row r="328" ht="15" customHeight="1"/>
-    <row r="329" ht="15" customHeight="1"/>
-    <row r="330" ht="15" customHeight="1"/>
-    <row r="331" ht="15" customHeight="1"/>
-    <row r="332" ht="15" customHeight="1"/>
-    <row r="333" ht="15" customHeight="1"/>
-    <row r="334" ht="15" customHeight="1"/>
-    <row r="335" ht="15" customHeight="1"/>
-    <row r="336" ht="15" customHeight="1"/>
-    <row r="337" ht="15" customHeight="1"/>
-    <row r="338" ht="15" customHeight="1"/>
-    <row r="339" ht="15" customHeight="1"/>
-    <row r="340" ht="15" customHeight="1"/>
-    <row r="341" ht="15" customHeight="1"/>
-    <row r="342" ht="15" customHeight="1"/>
-    <row r="343" ht="15" customHeight="1"/>
-    <row r="344" ht="15" customHeight="1"/>
-    <row r="345" ht="15" customHeight="1"/>
-    <row r="346" ht="15" customHeight="1"/>
-    <row r="347" ht="15" customHeight="1"/>
-    <row r="348" ht="15" customHeight="1"/>
-    <row r="349" ht="15" customHeight="1"/>
-    <row r="350" ht="15" customHeight="1"/>
-    <row r="351" ht="15" customHeight="1"/>
-    <row r="352" ht="15" customHeight="1"/>
-    <row r="353" ht="15" customHeight="1"/>
-    <row r="354" ht="15" customHeight="1"/>
-    <row r="355" ht="15" customHeight="1"/>
-    <row r="356" ht="15" customHeight="1"/>
-    <row r="357" ht="15" customHeight="1"/>
-    <row r="358" ht="15" customHeight="1"/>
-    <row r="359" ht="15" customHeight="1"/>
-    <row r="360" ht="15" customHeight="1"/>
-    <row r="361" ht="15" customHeight="1"/>
-    <row r="362" ht="15" customHeight="1"/>
-    <row r="363" ht="15" customHeight="1"/>
-    <row r="364" ht="15" customHeight="1"/>
-    <row r="365" ht="15" customHeight="1"/>
-    <row r="366" ht="15" customHeight="1"/>
-    <row r="367" ht="15" customHeight="1"/>
-    <row r="368" ht="15" customHeight="1"/>
-    <row r="369" ht="15" customHeight="1"/>
-    <row r="370" ht="15" customHeight="1"/>
-    <row r="371" ht="15" customHeight="1"/>
-    <row r="372" ht="15" customHeight="1"/>
-    <row r="373" ht="15" customHeight="1"/>
-    <row r="374" ht="15" customHeight="1"/>
-    <row r="375" ht="15" customHeight="1"/>
-    <row r="376" ht="15" customHeight="1"/>
-    <row r="377" ht="15" customHeight="1"/>
-    <row r="378" ht="15" customHeight="1"/>
-    <row r="379" ht="15" customHeight="1"/>
-    <row r="380" ht="15" customHeight="1"/>
-    <row r="381" ht="15" customHeight="1"/>
-    <row r="382" ht="15" customHeight="1"/>
-    <row r="383" ht="15" customHeight="1"/>
-    <row r="384" ht="15" customHeight="1"/>
-    <row r="385" ht="15" customHeight="1"/>
-    <row r="386" ht="15" customHeight="1"/>
-    <row r="387" ht="15" customHeight="1"/>
-    <row r="388" ht="15" customHeight="1"/>
-    <row r="389" ht="15" customHeight="1"/>
-    <row r="390" ht="15" customHeight="1"/>
-    <row r="391" ht="15" customHeight="1"/>
-    <row r="392" ht="15" customHeight="1"/>
-    <row r="393" ht="15" customHeight="1"/>
-    <row r="394" ht="15" customHeight="1"/>
-    <row r="395" ht="15" customHeight="1"/>
-    <row r="396" ht="15" customHeight="1"/>
-    <row r="397" ht="15" customHeight="1"/>
-    <row r="398" ht="15" customHeight="1"/>
-    <row r="399" ht="15" customHeight="1"/>
-    <row r="400" ht="15" customHeight="1"/>
-    <row r="401" ht="15" customHeight="1"/>
-    <row r="402" ht="15" customHeight="1"/>
-    <row r="403" ht="15" customHeight="1"/>
-    <row r="404" ht="15" customHeight="1"/>
-    <row r="405" ht="15" customHeight="1"/>
-    <row r="406" ht="15" customHeight="1"/>
-    <row r="407" ht="15" customHeight="1"/>
-    <row r="408" ht="15" customHeight="1"/>
-    <row r="409" ht="15" customHeight="1"/>
-    <row r="410" ht="15" customHeight="1"/>
-    <row r="411" ht="15" customHeight="1"/>
-    <row r="412" ht="15" customHeight="1"/>
-    <row r="413" ht="15" customHeight="1"/>
-    <row r="414" ht="15" customHeight="1"/>
-    <row r="415" ht="15" customHeight="1"/>
-    <row r="416" ht="15" customHeight="1"/>
-    <row r="417" ht="15" customHeight="1"/>
-    <row r="418" ht="15" customHeight="1"/>
-    <row r="419" ht="15" customHeight="1"/>
-    <row r="420" ht="15" customHeight="1"/>
-    <row r="421" ht="15" customHeight="1"/>
-    <row r="422" ht="15" customHeight="1"/>
-    <row r="423" ht="15" customHeight="1"/>
-    <row r="424" ht="15" customHeight="1"/>
-    <row r="425" ht="15" customHeight="1"/>
-    <row r="426" ht="15" customHeight="1"/>
-    <row r="427" ht="15" customHeight="1"/>
-    <row r="428" ht="15" customHeight="1"/>
-    <row r="429" ht="15" customHeight="1"/>
-    <row r="430" ht="15" customHeight="1"/>
-    <row r="431" ht="15" customHeight="1"/>
-    <row r="432" ht="15" customHeight="1"/>
-    <row r="433" ht="15" customHeight="1"/>
-    <row r="434" ht="15" customHeight="1"/>
-    <row r="435" ht="15" customHeight="1"/>
-    <row r="436" ht="15" customHeight="1"/>
-    <row r="437" ht="15" customHeight="1"/>
-    <row r="438" ht="15" customHeight="1"/>
-    <row r="439" ht="15" customHeight="1"/>
-    <row r="440" ht="15" customHeight="1"/>
-    <row r="441" ht="15" customHeight="1"/>
-    <row r="442" ht="15" customHeight="1"/>
-    <row r="443" ht="15" customHeight="1"/>
-    <row r="444" ht="15" customHeight="1"/>
-    <row r="445" ht="15" customHeight="1"/>
-    <row r="446" ht="15" customHeight="1"/>
-    <row r="447" ht="15" customHeight="1"/>
-    <row r="448" ht="15" customHeight="1"/>
-    <row r="449" ht="15" customHeight="1"/>
-    <row r="450" ht="15" customHeight="1"/>
-    <row r="451" ht="15" customHeight="1"/>
-    <row r="452" ht="15" customHeight="1"/>
-    <row r="453" ht="15" customHeight="1"/>
-    <row r="454" ht="15" customHeight="1"/>
-    <row r="455" ht="15" customHeight="1"/>
-    <row r="456" ht="15" customHeight="1"/>
-    <row r="457" ht="15" customHeight="1"/>
-    <row r="458" ht="15" customHeight="1"/>
-    <row r="459" ht="15" customHeight="1"/>
-    <row r="460" ht="15" customHeight="1"/>
-    <row r="461" ht="15" customHeight="1"/>
-    <row r="462" ht="15" customHeight="1"/>
-    <row r="463" ht="15" customHeight="1"/>
-    <row r="464" ht="15" customHeight="1"/>
+        <v>0.1554631348883261</v>
+      </c>
+    </row>
+    <row r="265" ht="15" customHeight="1">
+      <c r="F265" t="n">
+        <v>0.004999999999999998</v>
+      </c>
+      <c r="G265" t="n">
+        <v>0.0605333827594129</v>
+      </c>
+    </row>
+    <row r="266" ht="15" customHeight="1">
+      <c r="F266" t="n">
+        <v>0.005646740624024274</v>
+      </c>
+      <c r="G266" t="n">
+        <v>0.06053365128787691</v>
+      </c>
+    </row>
+    <row r="267" ht="15" customHeight="1">
+      <c r="F267" t="n">
+        <v>0.006289942661583427</v>
+      </c>
+      <c r="G267" t="n">
+        <v>0.06053391981634092</v>
+      </c>
+    </row>
+    <row r="268" ht="15" customHeight="1">
+      <c r="F268" t="n">
+        <v>0.006929566633017602</v>
+      </c>
+      <c r="G268" t="n">
+        <v>0.06053418834480495</v>
+      </c>
+    </row>
+    <row r="269" ht="15" customHeight="1">
+      <c r="F269" t="n">
+        <v>0.007565573058583519</v>
+      </c>
+      <c r="G269" t="n">
+        <v>0.06053445687326896</v>
+      </c>
+    </row>
+    <row r="270" ht="15" customHeight="1">
+      <c r="F270" t="n">
+        <v>0.008197922458621491</v>
+      </c>
+      <c r="G270" t="n">
+        <v>0.06053472540173298</v>
+      </c>
+    </row>
+    <row r="271" ht="15" customHeight="1">
+      <c r="F271" t="n">
+        <v>0.008826575353443923</v>
+      </c>
+      <c r="G271" t="n">
+        <v>0.06053499393019699</v>
+      </c>
+    </row>
+    <row r="272" ht="15" customHeight="1">
+      <c r="F272" t="n">
+        <v>0.009451492263390322</v>
+      </c>
+      <c r="G272" t="n">
+        <v>0.06053526245866102</v>
+      </c>
+    </row>
+    <row r="273" ht="15" customHeight="1">
+      <c r="F273" t="n">
+        <v>0.01007263370871868</v>
+      </c>
+      <c r="G273" t="n">
+        <v>0.06053553098712503</v>
+      </c>
+    </row>
+    <row r="274" ht="15" customHeight="1">
+      <c r="F274" t="n">
+        <v>0.01068996020976869</v>
+      </c>
+      <c r="G274" t="n">
+        <v>0.06053579951558905</v>
+      </c>
+    </row>
+    <row r="275" ht="15" customHeight="1">
+      <c r="F275" t="n">
+        <v>0.01130343228685272</v>
+      </c>
+      <c r="G275" t="n">
+        <v>0.06053606804405307</v>
+      </c>
+    </row>
+    <row r="276" ht="15" customHeight="1">
+      <c r="F276" t="n">
+        <v>0.01191301046030963</v>
+      </c>
+      <c r="G276" t="n">
+        <v>0.06053633657251709</v>
+      </c>
+    </row>
+    <row r="277" ht="15" customHeight="1">
+      <c r="F277" t="n">
+        <v>0.01251865525039876</v>
+      </c>
+      <c r="G277" t="n">
+        <v>0.06053660510098111</v>
+      </c>
+    </row>
+    <row r="278" ht="15" customHeight="1">
+      <c r="F278" t="n">
+        <v>0.01312032717745911</v>
+      </c>
+      <c r="G278" t="n">
+        <v>0.06053687362944512</v>
+      </c>
+    </row>
+    <row r="279" ht="15" customHeight="1">
+      <c r="F279" t="n">
+        <v>0.01371798676180307</v>
+      </c>
+      <c r="G279" t="n">
+        <v>0.06053714215790913</v>
+      </c>
+    </row>
+    <row r="280" ht="15" customHeight="1">
+      <c r="F280" t="n">
+        <v>0.0143115945237688</v>
+      </c>
+      <c r="G280" t="n">
+        <v>0.06053741068637316</v>
+      </c>
+    </row>
+    <row r="281" ht="15" customHeight="1">
+      <c r="F281" t="n">
+        <v>0.01490111098361702</v>
+      </c>
+      <c r="G281" t="n">
+        <v>0.06053767921483717</v>
+      </c>
+    </row>
+    <row r="282" ht="15" customHeight="1">
+      <c r="F282" t="n">
+        <v>0.01548649666168603</v>
+      </c>
+      <c r="G282" t="n">
+        <v>0.06053794774330119</v>
+      </c>
+    </row>
+    <row r="283" ht="15" customHeight="1">
+      <c r="F283" t="n">
+        <v>0.01606771207828826</v>
+      </c>
+      <c r="G283" t="n">
+        <v>0.0605382162717652</v>
+      </c>
+    </row>
+    <row r="284" ht="15" customHeight="1">
+      <c r="F284" t="n">
+        <v>0.01664471775376109</v>
+      </c>
+      <c r="G284" t="n">
+        <v>0.06053848480022923</v>
+      </c>
+    </row>
+    <row r="285" ht="15" customHeight="1">
+      <c r="F285" t="n">
+        <v>0.01721747420836671</v>
+      </c>
+      <c r="G285" t="n">
+        <v>0.06053875332869324</v>
+      </c>
+    </row>
+    <row r="286" ht="15" customHeight="1">
+      <c r="F286" t="n">
+        <v>0.01778594196244273</v>
+      </c>
+      <c r="G286" t="n">
+        <v>0.06053902185715726</v>
+      </c>
+    </row>
+    <row r="287" ht="15" customHeight="1">
+      <c r="F287" t="n">
+        <v>0.01835008153630153</v>
+      </c>
+      <c r="G287" t="n">
+        <v>0.06053929038562127</v>
+      </c>
+    </row>
+    <row r="288" ht="15" customHeight="1">
+      <c r="F288" t="n">
+        <v>0.01890985345027977</v>
+      </c>
+      <c r="G288" t="n">
+        <v>0.0605395589140853</v>
+      </c>
+    </row>
+    <row r="289" ht="15" customHeight="1">
+      <c r="F289" t="n">
+        <v>0.01946521822464113</v>
+      </c>
+      <c r="G289" t="n">
+        <v>0.06053982744254931</v>
+      </c>
+    </row>
+    <row r="290" ht="15" customHeight="1">
+      <c r="F290" t="n">
+        <v>0.02001629758844686</v>
+      </c>
+      <c r="G290" t="n">
+        <v>0.06054009597101333</v>
+      </c>
+    </row>
+    <row r="291" ht="15" customHeight="1">
+      <c r="F291" t="n">
+        <v>0.02056401931435566</v>
+      </c>
+      <c r="G291" t="n">
+        <v>0.06054036449947734</v>
+      </c>
+    </row>
+    <row r="292" ht="15" customHeight="1">
+      <c r="F292" t="n">
+        <v>0.02110850513142792</v>
+      </c>
+      <c r="G292" t="n">
+        <v>0.06054063302794137</v>
+      </c>
+    </row>
+    <row r="293" ht="15" customHeight="1">
+      <c r="F293" t="n">
+        <v>0.02164971555992864</v>
+      </c>
+      <c r="G293" t="n">
+        <v>0.06054090155640538</v>
+      </c>
+    </row>
+    <row r="294" ht="15" customHeight="1">
+      <c r="F294" t="n">
+        <v>0.02218761112019398</v>
+      </c>
+      <c r="G294" t="n">
+        <v>0.06054117008486939</v>
+      </c>
+    </row>
+    <row r="295" ht="15" customHeight="1">
+      <c r="F295" t="n">
+        <v>0.02272215233253636</v>
+      </c>
+      <c r="G295" t="n">
+        <v>0.06054143861333341</v>
+      </c>
+    </row>
+    <row r="296" ht="15" customHeight="1">
+      <c r="F296" t="n">
+        <v>0.0232532997172912</v>
+      </c>
+      <c r="G296" t="n">
+        <v>0.06054170714179744</v>
+      </c>
+    </row>
+    <row r="297" ht="15" customHeight="1">
+      <c r="F297" t="n">
+        <v>0.02378101379472466</v>
+      </c>
+      <c r="G297" t="n">
+        <v>0.06054197567026145</v>
+      </c>
+    </row>
+    <row r="298" ht="15" customHeight="1">
+      <c r="F298" t="n">
+        <v>0.02430525508517232</v>
+      </c>
+      <c r="G298" t="n">
+        <v>0.06054224419872547</v>
+      </c>
+    </row>
+    <row r="299" ht="15" customHeight="1">
+      <c r="F299" t="n">
+        <v>0.02482598410894658</v>
+      </c>
+      <c r="G299" t="n">
+        <v>0.06054251272718948</v>
+      </c>
+    </row>
+    <row r="300" ht="15" customHeight="1">
+      <c r="F300" t="n">
+        <v>0.02534316138638228</v>
+      </c>
+      <c r="G300" t="n">
+        <v>0.06054278125565351</v>
+      </c>
+    </row>
+    <row r="301" ht="15" customHeight="1">
+      <c r="F301" t="n">
+        <v>0.0258567474377468</v>
+      </c>
+      <c r="G301" t="n">
+        <v>0.06054304978411752</v>
+      </c>
+    </row>
+    <row r="302" ht="15" customHeight="1">
+      <c r="F302" t="n">
+        <v>0.0263667027833751</v>
+      </c>
+      <c r="G302" t="n">
+        <v>0.06054331831258154</v>
+      </c>
+    </row>
+    <row r="303" ht="15" customHeight="1">
+      <c r="F303" t="n">
+        <v>0.0268729879435796</v>
+      </c>
+      <c r="G303" t="n">
+        <v>0.06054358684104555</v>
+      </c>
+    </row>
+    <row r="304" ht="15" customHeight="1">
+      <c r="F304" t="n">
+        <v>0.02737556343869445</v>
+      </c>
+      <c r="G304" t="n">
+        <v>0.06054385536950958</v>
+      </c>
+    </row>
+    <row r="305" ht="15" customHeight="1">
+      <c r="F305" t="n">
+        <v>0.02787438978898835</v>
+      </c>
+      <c r="G305" t="n">
+        <v>0.06054412389797359</v>
+      </c>
+    </row>
+    <row r="306" ht="15" customHeight="1">
+      <c r="F306" t="n">
+        <v>0.02836942751479562</v>
+      </c>
+      <c r="G306" t="n">
+        <v>0.0605443924264376</v>
+      </c>
+    </row>
+    <row r="307" ht="15" customHeight="1">
+      <c r="F307" t="n">
+        <v>0.02886063713642866</v>
+      </c>
+      <c r="G307" t="n">
+        <v>0.06054466095490162</v>
+      </c>
+    </row>
+    <row r="308" ht="15" customHeight="1">
+      <c r="F308" t="n">
+        <v>0.02934797917422102</v>
+      </c>
+      <c r="G308" t="n">
+        <v>0.06054492948336564</v>
+      </c>
+    </row>
+    <row r="309" ht="15" customHeight="1">
+      <c r="F309" t="n">
+        <v>0.02983141414844261</v>
+      </c>
+      <c r="G309" t="n">
+        <v>0.06054519801182966</v>
+      </c>
+    </row>
+    <row r="310" ht="15" customHeight="1">
+      <c r="F310" t="n">
+        <v>0.03031090257942718</v>
+      </c>
+      <c r="G310" t="n">
+        <v>0.06054546654029367</v>
+      </c>
+    </row>
+    <row r="311" ht="15" customHeight="1">
+      <c r="F311" t="n">
+        <v>0.0307864049874871</v>
+      </c>
+      <c r="G311" t="n">
+        <v>0.06054573506875769</v>
+      </c>
+    </row>
+    <row r="312" ht="15" customHeight="1">
+      <c r="F312" t="n">
+        <v>0.0312578818929552</v>
+      </c>
+      <c r="G312" t="n">
+        <v>0.06054600359722171</v>
+      </c>
+    </row>
+    <row r="313" ht="15" customHeight="1">
+      <c r="F313" t="n">
+        <v>0.03172529381610286</v>
+      </c>
+      <c r="G313" t="n">
+        <v>0.06054627212568573</v>
+      </c>
+    </row>
+    <row r="314" ht="15" customHeight="1">
+      <c r="F314" t="n">
+        <v>0.03218860127726304</v>
+      </c>
+      <c r="G314" t="n">
+        <v>0.06054654065414974</v>
+      </c>
+    </row>
+    <row r="315" ht="15" customHeight="1">
+      <c r="F315" t="n">
+        <v>0.03218860127726304</v>
+      </c>
+      <c r="G315" t="n">
+        <v>0.0605333827594129</v>
+      </c>
+    </row>
+    <row r="316" ht="15" customHeight="1">
+      <c r="F316" t="n">
+        <v>0.032688250664907</v>
+      </c>
+      <c r="G316" t="n">
+        <v>0.06060423639918409</v>
+      </c>
+    </row>
+    <row r="317" ht="15" customHeight="1">
+      <c r="F317" t="n">
+        <v>0.03318339039017001</v>
+      </c>
+      <c r="G317" t="n">
+        <v>0.06067509003895526</v>
+      </c>
+    </row>
+    <row r="318" ht="15" customHeight="1">
+      <c r="F318" t="n">
+        <v>0.03367390550347722</v>
+      </c>
+      <c r="G318" t="n">
+        <v>0.06074594367872645</v>
+      </c>
+    </row>
+    <row r="319" ht="15" customHeight="1">
+      <c r="F319" t="n">
+        <v>0.03415968105525346</v>
+      </c>
+      <c r="G319" t="n">
+        <v>0.06081679731849763</v>
+      </c>
+    </row>
+    <row r="320" ht="15" customHeight="1">
+      <c r="F320" t="n">
+        <v>0.03464060209592389</v>
+      </c>
+      <c r="G320" t="n">
+        <v>0.06088765095826881</v>
+      </c>
+    </row>
+    <row r="321" ht="15" customHeight="1">
+      <c r="F321" t="n">
+        <v>0.03511655367591337</v>
+      </c>
+      <c r="G321" t="n">
+        <v>0.06095850459804</v>
+      </c>
+    </row>
+    <row r="322" ht="15" customHeight="1">
+      <c r="F322" t="n">
+        <v>0.03558742084564704</v>
+      </c>
+      <c r="G322" t="n">
+        <v>0.06102935823781118</v>
+      </c>
+    </row>
+    <row r="323" ht="15" customHeight="1">
+      <c r="F323" t="n">
+        <v>0.03605308865554976</v>
+      </c>
+      <c r="G323" t="n">
+        <v>0.06110021187758236</v>
+      </c>
+    </row>
+    <row r="324" ht="15" customHeight="1">
+      <c r="F324" t="n">
+        <v>0.03651344215604665</v>
+      </c>
+      <c r="G324" t="n">
+        <v>0.06117106551735355</v>
+      </c>
+    </row>
+    <row r="325" ht="15" customHeight="1">
+      <c r="F325" t="n">
+        <v>0.03696836639756259</v>
+      </c>
+      <c r="G325" t="n">
+        <v>0.06124191915712472</v>
+      </c>
+    </row>
+    <row r="326" ht="15" customHeight="1">
+      <c r="F326" t="n">
+        <v>0.03741774643052271</v>
+      </c>
+      <c r="G326" t="n">
+        <v>0.06131277279689591</v>
+      </c>
+    </row>
+    <row r="327" ht="15" customHeight="1">
+      <c r="F327" t="n">
+        <v>0.03786146730535189</v>
+      </c>
+      <c r="G327" t="n">
+        <v>0.06138362643666709</v>
+      </c>
+    </row>
+    <row r="328" ht="15" customHeight="1">
+      <c r="F328" t="n">
+        <v>0.03829941407247523</v>
+      </c>
+      <c r="G328" t="n">
+        <v>0.06145448007643828</v>
+      </c>
+    </row>
+    <row r="329" ht="15" customHeight="1">
+      <c r="F329" t="n">
+        <v>0.03873147178231764</v>
+      </c>
+      <c r="G329" t="n">
+        <v>0.06152533371620945</v>
+      </c>
+    </row>
+    <row r="330" ht="15" customHeight="1">
+      <c r="F330" t="n">
+        <v>0.03915752548530422</v>
+      </c>
+      <c r="G330" t="n">
+        <v>0.06159618735598064</v>
+      </c>
+    </row>
+    <row r="331" ht="15" customHeight="1">
+      <c r="F331" t="n">
+        <v>0.03957746023185984</v>
+      </c>
+      <c r="G331" t="n">
+        <v>0.06166704099575182</v>
+      </c>
+    </row>
+    <row r="332" ht="15" customHeight="1">
+      <c r="F332" t="n">
+        <v>0.03999116107240964</v>
+      </c>
+      <c r="G332" t="n">
+        <v>0.06173789463552301</v>
+      </c>
+    </row>
+    <row r="333" ht="15" customHeight="1">
+      <c r="F333" t="n">
+        <v>0.04039851305737848</v>
+      </c>
+      <c r="G333" t="n">
+        <v>0.06180874827529419</v>
+      </c>
+    </row>
+    <row r="334" ht="15" customHeight="1">
+      <c r="F334" t="n">
+        <v>0.04079940123719151</v>
+      </c>
+      <c r="G334" t="n">
+        <v>0.06187960191506538</v>
+      </c>
+    </row>
+    <row r="335" ht="15" customHeight="1">
+      <c r="F335" t="n">
+        <v>0.04119371066227358</v>
+      </c>
+      <c r="G335" t="n">
+        <v>0.06195045555483655</v>
+      </c>
+    </row>
+    <row r="336" ht="15" customHeight="1">
+      <c r="F336" t="n">
+        <v>0.04158132638304982</v>
+      </c>
+      <c r="G336" t="n">
+        <v>0.06202130919460774</v>
+      </c>
+    </row>
+    <row r="337" ht="15" customHeight="1">
+      <c r="F337" t="n">
+        <v>0.04196213344994513</v>
+      </c>
+      <c r="G337" t="n">
+        <v>0.06209216283437892</v>
+      </c>
+    </row>
+    <row r="338" ht="15" customHeight="1">
+      <c r="F338" t="n">
+        <v>0.04233601691338457</v>
+      </c>
+      <c r="G338" t="n">
+        <v>0.0621630164741501</v>
+      </c>
+    </row>
+    <row r="339" ht="15" customHeight="1">
+      <c r="F339" t="n">
+        <v>0.04270286182379309</v>
+      </c>
+      <c r="G339" t="n">
+        <v>0.06223387011392129</v>
+      </c>
+    </row>
+    <row r="340" ht="15" customHeight="1">
+      <c r="F340" t="n">
+        <v>0.04306302260902701</v>
+      </c>
+      <c r="G340" t="n">
+        <v>0.06230472375369247</v>
+      </c>
+    </row>
+    <row r="341" ht="15" customHeight="1">
+      <c r="F341" t="n">
+        <v>0.04341920058409875</v>
+      </c>
+      <c r="G341" t="n">
+        <v>0.06237557739346365</v>
+      </c>
+    </row>
+    <row r="342" ht="15" customHeight="1">
+      <c r="F342" t="n">
+        <v>0.04377175017686467</v>
+      </c>
+      <c r="G342" t="n">
+        <v>0.06244643103323484</v>
+      </c>
+    </row>
+    <row r="343" ht="15" customHeight="1">
+      <c r="F343" t="n">
+        <v>0.04412055643774965</v>
+      </c>
+      <c r="G343" t="n">
+        <v>0.06251728467300602</v>
+      </c>
+    </row>
+    <row r="344" ht="15" customHeight="1">
+      <c r="F344" t="n">
+        <v>0.0444655044171788</v>
+      </c>
+      <c r="G344" t="n">
+        <v>0.06258813831277721</v>
+      </c>
+    </row>
+    <row r="345" ht="15" customHeight="1">
+      <c r="F345" t="n">
+        <v>0.04480647916557703</v>
+      </c>
+      <c r="G345" t="n">
+        <v>0.06265899195254838</v>
+      </c>
+    </row>
+    <row r="346" ht="15" customHeight="1">
+      <c r="F346" t="n">
+        <v>0.04514336573336943</v>
+      </c>
+      <c r="G346" t="n">
+        <v>0.06272984559231957</v>
+      </c>
+    </row>
+    <row r="347" ht="15" customHeight="1">
+      <c r="F347" t="n">
+        <v>0.04547604917098089</v>
+      </c>
+      <c r="G347" t="n">
+        <v>0.06280069923209075</v>
+      </c>
+    </row>
+    <row r="348" ht="15" customHeight="1">
+      <c r="F348" t="n">
+        <v>0.04580441452883652</v>
+      </c>
+      <c r="G348" t="n">
+        <v>0.06287155287186193</v>
+      </c>
+    </row>
+    <row r="349" ht="15" customHeight="1">
+      <c r="F349" t="n">
+        <v>0.04612834685736122</v>
+      </c>
+      <c r="G349" t="n">
+        <v>0.06294240651163312</v>
+      </c>
+    </row>
+    <row r="350" ht="15" customHeight="1">
+      <c r="F350" t="n">
+        <v>0.0464477312069801</v>
+      </c>
+      <c r="G350" t="n">
+        <v>0.06301326015140429</v>
+      </c>
+    </row>
+    <row r="351" ht="15" customHeight="1">
+      <c r="F351" t="n">
+        <v>0.04676245262811803</v>
+      </c>
+      <c r="G351" t="n">
+        <v>0.06308411379117547</v>
+      </c>
+    </row>
+    <row r="352" ht="15" customHeight="1">
+      <c r="F352" t="n">
+        <v>0.04707239617120013</v>
+      </c>
+      <c r="G352" t="n">
+        <v>0.06315496743094666</v>
+      </c>
+    </row>
+    <row r="353" ht="15" customHeight="1">
+      <c r="F353" t="n">
+        <v>0.04737744688665132</v>
+      </c>
+      <c r="G353" t="n">
+        <v>0.06322582107071784</v>
+      </c>
+    </row>
+    <row r="354" ht="15" customHeight="1">
+      <c r="F354" t="n">
+        <v>0.04767748982489663</v>
+      </c>
+      <c r="G354" t="n">
+        <v>0.06329667471048903</v>
+      </c>
+    </row>
+    <row r="355" ht="15" customHeight="1">
+      <c r="F355" t="n">
+        <v>0.04797241003636104</v>
+      </c>
+      <c r="G355" t="n">
+        <v>0.0633675283502602</v>
+      </c>
+    </row>
+    <row r="356" ht="15" customHeight="1">
+      <c r="F356" t="n">
+        <v>0.04826209257146962</v>
+      </c>
+      <c r="G356" t="n">
+        <v>0.06343838199003139</v>
+      </c>
+    </row>
+    <row r="357" ht="15" customHeight="1">
+      <c r="F357" t="n">
+        <v>0.04854642248064726</v>
+      </c>
+      <c r="G357" t="n">
+        <v>0.06350923562980257</v>
+      </c>
+    </row>
+    <row r="358" ht="15" customHeight="1">
+      <c r="F358" t="n">
+        <v>0.04882528481431905</v>
+      </c>
+      <c r="G358" t="n">
+        <v>0.06358008926957376</v>
+      </c>
+    </row>
+    <row r="359" ht="15" customHeight="1">
+      <c r="F359" t="n">
+        <v>0.04909856462290992</v>
+      </c>
+      <c r="G359" t="n">
+        <v>0.06365094290934493</v>
+      </c>
+    </row>
+    <row r="360" ht="15" customHeight="1">
+      <c r="F360" t="n">
+        <v>0.04936614695684493</v>
+      </c>
+      <c r="G360" t="n">
+        <v>0.06372179654911612</v>
+      </c>
+    </row>
+    <row r="361" ht="15" customHeight="1">
+      <c r="F361" t="n">
+        <v>0.04962791686654903</v>
+      </c>
+      <c r="G361" t="n">
+        <v>0.0637926501888873</v>
+      </c>
+    </row>
+    <row r="362" ht="15" customHeight="1">
+      <c r="F362" t="n">
+        <v>0.04988375940244728</v>
+      </c>
+      <c r="G362" t="n">
+        <v>0.06386350382865849</v>
+      </c>
+    </row>
+    <row r="363" ht="15" customHeight="1">
+      <c r="F363" t="n">
+        <v>0.05013355961496464</v>
+      </c>
+      <c r="G363" t="n">
+        <v>0.06393435746842968</v>
+      </c>
+    </row>
+    <row r="364" ht="15" customHeight="1">
+      <c r="F364" t="n">
+        <v>0.05037720255452607</v>
+      </c>
+      <c r="G364" t="n">
+        <v>0.06400521110820086</v>
+      </c>
+    </row>
+    <row r="365" ht="15" customHeight="1">
+      <c r="F365" t="n">
+        <v>0.04525146836968404</v>
+      </c>
+      <c r="G365" t="n">
+        <v>0.06400521110820086</v>
+      </c>
+    </row>
+    <row r="366" ht="15" customHeight="1">
+      <c r="F366" t="n">
+        <v>0.05048695629766749</v>
+      </c>
+      <c r="G366" t="n">
+        <v>0.06576481064478756</v>
+      </c>
+    </row>
+    <row r="367" ht="15" customHeight="1">
+      <c r="F367" t="n">
+        <v>0.05058837049066611</v>
+      </c>
+      <c r="G367" t="n">
+        <v>0.06752441018137424</v>
+      </c>
+    </row>
+    <row r="368" ht="15" customHeight="1">
+      <c r="F368" t="n">
+        <v>0.05068177465462529</v>
+      </c>
+      <c r="G368" t="n">
+        <v>0.06928400971796095</v>
+      </c>
+    </row>
+    <row r="369" ht="15" customHeight="1">
+      <c r="F369" t="n">
+        <v>0.05076749831064831</v>
+      </c>
+      <c r="G369" t="n">
+        <v>0.07104360925454763</v>
+      </c>
+    </row>
+    <row r="370" ht="15" customHeight="1">
+      <c r="F370" t="n">
+        <v>0.05084587097983851</v>
+      </c>
+      <c r="G370" t="n">
+        <v>0.07280320879113433</v>
+      </c>
+    </row>
+    <row r="371" ht="15" customHeight="1">
+      <c r="F371" t="n">
+        <v>0.0509172221832992</v>
+      </c>
+      <c r="G371" t="n">
+        <v>0.07456280832772103</v>
+      </c>
+    </row>
+    <row r="372" ht="15" customHeight="1">
+      <c r="F372" t="n">
+        <v>0.05098188144213373</v>
+      </c>
+      <c r="G372" t="n">
+        <v>0.07632240786430772</v>
+      </c>
+    </row>
+    <row r="373" ht="15" customHeight="1">
+      <c r="F373" t="n">
+        <v>0.0510401782774454</v>
+      </c>
+      <c r="G373" t="n">
+        <v>0.07808200740089442</v>
+      </c>
+    </row>
+    <row r="374" ht="15" customHeight="1">
+      <c r="F374" t="n">
+        <v>0.05109244221033755</v>
+      </c>
+      <c r="G374" t="n">
+        <v>0.0798416069374811</v>
+      </c>
+    </row>
+    <row r="375" ht="15" customHeight="1">
+      <c r="F375" t="n">
+        <v>0.05113900276191347</v>
+      </c>
+      <c r="G375" t="n">
+        <v>0.08160120647406779</v>
+      </c>
+    </row>
+    <row r="376" ht="15" customHeight="1">
+      <c r="F376" t="n">
+        <v>0.05118018945327652</v>
+      </c>
+      <c r="G376" t="n">
+        <v>0.0833608060106545</v>
+      </c>
+    </row>
+    <row r="377" ht="15" customHeight="1">
+      <c r="F377" t="n">
+        <v>0.05121633180553001</v>
+      </c>
+      <c r="G377" t="n">
+        <v>0.08512040554724119</v>
+      </c>
+    </row>
+    <row r="378" ht="15" customHeight="1">
+      <c r="F378" t="n">
+        <v>0.05124775933977727</v>
+      </c>
+      <c r="G378" t="n">
+        <v>0.08688000508382789</v>
+      </c>
+    </row>
+    <row r="379" ht="15" customHeight="1">
+      <c r="F379" t="n">
+        <v>0.05127480157712162</v>
+      </c>
+      <c r="G379" t="n">
+        <v>0.08863960462041458</v>
+      </c>
+    </row>
+    <row r="380" ht="15" customHeight="1">
+      <c r="F380" t="n">
+        <v>0.05129778803866634</v>
+      </c>
+      <c r="G380" t="n">
+        <v>0.09039920415700127</v>
+      </c>
+    </row>
+    <row r="381" ht="15" customHeight="1">
+      <c r="F381" t="n">
+        <v>0.05131704824551483</v>
+      </c>
+      <c r="G381" t="n">
+        <v>0.09215880369358798</v>
+      </c>
+    </row>
+    <row r="382" ht="15" customHeight="1">
+      <c r="F382" t="n">
+        <v>0.05133291171877035</v>
+      </c>
+      <c r="G382" t="n">
+        <v>0.09391840323017467</v>
+      </c>
+    </row>
+    <row r="383" ht="15" customHeight="1">
+      <c r="F383" t="n">
+        <v>0.05134570797953624</v>
+      </c>
+      <c r="G383" t="n">
+        <v>0.09567800276676136</v>
+      </c>
+    </row>
+    <row r="384" ht="15" customHeight="1">
+      <c r="F384" t="n">
+        <v>0.05135576654891585</v>
+      </c>
+      <c r="G384" t="n">
+        <v>0.09743760230334804</v>
+      </c>
+    </row>
+    <row r="385" ht="15" customHeight="1">
+      <c r="F385" t="n">
+        <v>0.05136341694801248</v>
+      </c>
+      <c r="G385" t="n">
+        <v>0.09919720183993475</v>
+      </c>
+    </row>
+    <row r="386" ht="15" customHeight="1">
+      <c r="F386" t="n">
+        <v>0.05136898869792945</v>
+      </c>
+      <c r="G386" t="n">
+        <v>0.1009568013765215</v>
+      </c>
+    </row>
+    <row r="387" ht="15" customHeight="1">
+      <c r="F387" t="n">
+        <v>0.05137281131977008</v>
+      </c>
+      <c r="G387" t="n">
+        <v>0.1027164009131081</v>
+      </c>
+    </row>
+    <row r="388" ht="15" customHeight="1">
+      <c r="F388" t="n">
+        <v>0.0513752143346377</v>
+      </c>
+      <c r="G388" t="n">
+        <v>0.1044760004496948</v>
+      </c>
+    </row>
+    <row r="389" ht="15" customHeight="1">
+      <c r="F389" t="n">
+        <v>0.05137652726363565</v>
+      </c>
+      <c r="G389" t="n">
+        <v>0.1062355999862815</v>
+      </c>
+    </row>
+    <row r="390" ht="15" customHeight="1">
+      <c r="F390" t="n">
+        <v>0.05137707962786723</v>
+      </c>
+      <c r="G390" t="n">
+        <v>0.1079951995228682</v>
+      </c>
+    </row>
+    <row r="391" ht="15" customHeight="1">
+      <c r="F391" t="n">
+        <v>0.05137720094843577</v>
+      </c>
+      <c r="G391" t="n">
+        <v>0.1097547990594549</v>
+      </c>
+    </row>
+    <row r="392" ht="15" customHeight="1">
+      <c r="F392" t="n">
+        <v>0.05136255188353885</v>
+      </c>
+      <c r="G392" t="n">
+        <v>0.1115143985960416</v>
+      </c>
+    </row>
+    <row r="393" ht="15" customHeight="1">
+      <c r="F393" t="n">
+        <v>0.05129138057297313</v>
+      </c>
+      <c r="G393" t="n">
+        <v>0.1132739981326283</v>
+      </c>
+    </row>
+    <row r="394" ht="15" customHeight="1">
+      <c r="F394" t="n">
+        <v>0.05116445563030302</v>
+      </c>
+      <c r="G394" t="n">
+        <v>0.115033597669215</v>
+      </c>
+    </row>
+    <row r="395" ht="15" customHeight="1">
+      <c r="F395" t="n">
+        <v>0.05098550790015444</v>
+      </c>
+      <c r="G395" t="n">
+        <v>0.1167931972058017</v>
+      </c>
+    </row>
+    <row r="396" ht="15" customHeight="1">
+      <c r="F396" t="n">
+        <v>0.0507582682271533</v>
+      </c>
+      <c r="G396" t="n">
+        <v>0.1185527967423884</v>
+      </c>
+    </row>
+    <row r="397" ht="15" customHeight="1">
+      <c r="F397" t="n">
+        <v>0.05048646745592549</v>
+      </c>
+      <c r="G397" t="n">
+        <v>0.1203123962789751</v>
+      </c>
+    </row>
+    <row r="398" ht="15" customHeight="1">
+      <c r="F398" t="n">
+        <v>0.05017383643109691</v>
+      </c>
+      <c r="G398" t="n">
+        <v>0.1220719958155618</v>
+      </c>
+    </row>
+    <row r="399" ht="15" customHeight="1">
+      <c r="F399" t="n">
+        <v>0.0498241059972935</v>
+      </c>
+      <c r="G399" t="n">
+        <v>0.1238315953521485</v>
+      </c>
+    </row>
+    <row r="400" ht="15" customHeight="1">
+      <c r="F400" t="n">
+        <v>0.04944100699914113</v>
+      </c>
+      <c r="G400" t="n">
+        <v>0.1255911948887352</v>
+      </c>
+    </row>
+    <row r="401" ht="15" customHeight="1">
+      <c r="F401" t="n">
+        <v>0.04902827028126571</v>
+      </c>
+      <c r="G401" t="n">
+        <v>0.1273507944253219</v>
+      </c>
+    </row>
+    <row r="402" ht="15" customHeight="1">
+      <c r="F402" t="n">
+        <v>0.04858962668829315</v>
+      </c>
+      <c r="G402" t="n">
+        <v>0.1291103939619085</v>
+      </c>
+    </row>
+    <row r="403" ht="15" customHeight="1">
+      <c r="F403" t="n">
+        <v>0.04812880706484935</v>
+      </c>
+      <c r="G403" t="n">
+        <v>0.1308699934984952</v>
+      </c>
+    </row>
+    <row r="404" ht="15" customHeight="1">
+      <c r="F404" t="n">
+        <v>0.04764954225556022</v>
+      </c>
+      <c r="G404" t="n">
+        <v>0.132629593035082</v>
+      </c>
+    </row>
+    <row r="405" ht="15" customHeight="1">
+      <c r="F405" t="n">
+        <v>0.04715556310505167</v>
+      </c>
+      <c r="G405" t="n">
+        <v>0.1343891925716686</v>
+      </c>
+    </row>
+    <row r="406" ht="15" customHeight="1">
+      <c r="F406" t="n">
+        <v>0.04665060045794959</v>
+      </c>
+      <c r="G406" t="n">
+        <v>0.1361487921082553</v>
+      </c>
+    </row>
+    <row r="407" ht="15" customHeight="1">
+      <c r="F407" t="n">
+        <v>0.04613838515887989</v>
+      </c>
+      <c r="G407" t="n">
+        <v>0.137908391644842</v>
+      </c>
+    </row>
+    <row r="408" ht="15" customHeight="1">
+      <c r="F408" t="n">
+        <v>0.04562264805246848</v>
+      </c>
+      <c r="G408" t="n">
+        <v>0.1396679911814287</v>
+      </c>
+    </row>
+    <row r="409" ht="15" customHeight="1">
+      <c r="F409" t="n">
+        <v>0.04510711998334126</v>
+      </c>
+      <c r="G409" t="n">
+        <v>0.1414275907180154</v>
+      </c>
+    </row>
+    <row r="410" ht="15" customHeight="1">
+      <c r="F410" t="n">
+        <v>0.04459553179612415</v>
+      </c>
+      <c r="G410" t="n">
+        <v>0.1431871902546021</v>
+      </c>
+    </row>
+    <row r="411" ht="15" customHeight="1">
+      <c r="F411" t="n">
+        <v>0.04409161433544301</v>
+      </c>
+      <c r="G411" t="n">
+        <v>0.1449467897911888</v>
+      </c>
+    </row>
+    <row r="412" ht="15" customHeight="1">
+      <c r="F412" t="n">
+        <v>0.04359909844592382</v>
+      </c>
+      <c r="G412" t="n">
+        <v>0.1467063893277755</v>
+      </c>
+    </row>
+    <row r="413" ht="15" customHeight="1">
+      <c r="F413" t="n">
+        <v>0.04312171497219241</v>
+      </c>
+      <c r="G413" t="n">
+        <v>0.1484659888643622</v>
+      </c>
+    </row>
+    <row r="414" ht="15" customHeight="1">
+      <c r="F414" t="n">
+        <v>0.04266319475887472</v>
+      </c>
+      <c r="G414" t="n">
+        <v>0.15</v>
+      </c>
+    </row>
+    <row r="415" ht="15" customHeight="1">
+      <c r="F415" t="n">
+        <v>0.04222726865059667</v>
+      </c>
+      <c r="G415" t="n">
+        <v>0.1519851879375356</v>
+      </c>
+    </row>
+    <row r="416" ht="15" customHeight="1">
+      <c r="F416" t="n">
+        <v>0.04178703596390151</v>
+      </c>
+      <c r="G416" t="n">
+        <v>0.1537447874741223</v>
+      </c>
+    </row>
+    <row r="417" ht="15" customHeight="1">
+      <c r="F417" t="n">
+        <v>0.04130823778399655</v>
+      </c>
+      <c r="G417" t="n">
+        <v>0.155504387010709</v>
+      </c>
+    </row>
+    <row r="418" ht="15" customHeight="1">
+      <c r="F418" t="n">
+        <v>0.04079536751692493</v>
+      </c>
+      <c r="G418" t="n">
+        <v>0.1572639865472957</v>
+      </c>
+    </row>
+    <row r="419" ht="15" customHeight="1">
+      <c r="F419" t="n">
+        <v>0.04025304294294076</v>
+      </c>
+      <c r="G419" t="n">
+        <v>0.1590235860838824</v>
+      </c>
+    </row>
+    <row r="420" ht="15" customHeight="1">
+      <c r="F420" t="n">
+        <v>0.03968588184229823</v>
+      </c>
+      <c r="G420" t="n">
+        <v>0.160783185620469</v>
+      </c>
+    </row>
+    <row r="421" ht="15" customHeight="1">
+      <c r="F421" t="n">
+        <v>0.03909850199525141</v>
+      </c>
+      <c r="G421" t="n">
+        <v>0.1625427851570558</v>
+      </c>
+    </row>
+    <row r="422" ht="15" customHeight="1">
+      <c r="F422" t="n">
+        <v>0.03849552118205448</v>
+      </c>
+      <c r="G422" t="n">
+        <v>0.1643023846936424</v>
+      </c>
+    </row>
+    <row r="423" ht="15" customHeight="1">
+      <c r="F423" t="n">
+        <v>0.03788155718296155</v>
+      </c>
+      <c r="G423" t="n">
+        <v>0.1660619842302291</v>
+      </c>
+    </row>
+    <row r="424" ht="15" customHeight="1">
+      <c r="F424" t="n">
+        <v>0.03726122777822678</v>
+      </c>
+      <c r="G424" t="n">
+        <v>0.1678215837668159</v>
+      </c>
+    </row>
+    <row r="425" ht="15" customHeight="1">
+      <c r="F425" t="n">
+        <v>0.03663915074810429</v>
+      </c>
+      <c r="G425" t="n">
+        <v>0.1695811833034025</v>
+      </c>
+    </row>
+    <row r="426" ht="15" customHeight="1">
+      <c r="F426" t="n">
+        <v>0.03601994387284819</v>
+      </c>
+      <c r="G426" t="n">
+        <v>0.1713407828399892</v>
+      </c>
+    </row>
+    <row r="427" ht="15" customHeight="1">
+      <c r="F427" t="n">
+        <v>0.03540822493271267</v>
+      </c>
+      <c r="G427" t="n">
+        <v>0.1731003823765759</v>
+      </c>
+    </row>
+    <row r="428" ht="15" customHeight="1">
+      <c r="F428" t="n">
+        <v>0.03480861170795182</v>
+      </c>
+      <c r="G428" t="n">
+        <v>0.1748599819131626</v>
+      </c>
+    </row>
+    <row r="429" ht="15" customHeight="1">
+      <c r="F429" t="n">
+        <v>0.03422572197881978</v>
+      </c>
+      <c r="G429" t="n">
+        <v>0.1766195814497493</v>
+      </c>
+    </row>
+    <row r="430" ht="15" customHeight="1">
+      <c r="F430" t="n">
+        <v>0.03366417352557071</v>
+      </c>
+      <c r="G430" t="n">
+        <v>0.178379180986336</v>
+      </c>
+    </row>
+    <row r="431" ht="15" customHeight="1">
+      <c r="F431" t="n">
+        <v>0.0331285841284587</v>
+      </c>
+      <c r="G431" t="n">
+        <v>0.1801387805229227</v>
+      </c>
+    </row>
+    <row r="432" ht="15" customHeight="1">
+      <c r="F432" t="n">
+        <v>0.03262357156773796</v>
+      </c>
+      <c r="G432" t="n">
+        <v>0.1818983800595094</v>
+      </c>
+    </row>
+    <row r="433" ht="15" customHeight="1">
+      <c r="F433" t="n">
+        <v>0.03215375362366255</v>
+      </c>
+      <c r="G433" t="n">
+        <v>0.1836579795960961</v>
+      </c>
+    </row>
+    <row r="434" ht="15" customHeight="1">
+      <c r="F434" t="n">
+        <v>0.03172374807648664</v>
+      </c>
+      <c r="G434" t="n">
+        <v>0.1854175791326828</v>
+      </c>
+    </row>
+    <row r="435" ht="15" customHeight="1">
+      <c r="F435" t="n">
+        <v>0.03133817270646434</v>
+      </c>
+      <c r="G435" t="n">
+        <v>0.1871771786692695</v>
+      </c>
+    </row>
+    <row r="436" ht="15" customHeight="1">
+      <c r="F436" t="n">
+        <v>0.03100164529384982</v>
+      </c>
+      <c r="G436" t="n">
+        <v>0.1889367782058561</v>
+      </c>
+    </row>
+    <row r="437" ht="15" customHeight="1">
+      <c r="F437" t="n">
+        <v>0.03071878361889719</v>
+      </c>
+      <c r="G437" t="n">
+        <v>0.1906963777424429</v>
+      </c>
+    </row>
+    <row r="438" ht="15" customHeight="1">
+      <c r="F438" t="n">
+        <v>0.03049420546186058</v>
+      </c>
+      <c r="G438" t="n">
+        <v>0.1924559772790295</v>
+      </c>
+    </row>
+    <row r="439" ht="15" customHeight="1">
+      <c r="F439" t="n">
+        <v>0.03033252860299416</v>
+      </c>
+      <c r="G439" t="n">
+        <v>0.1942155768156163</v>
+      </c>
+    </row>
+    <row r="440" ht="15" customHeight="1">
+      <c r="F440" t="n">
+        <v>0.03023837082255203</v>
+      </c>
+      <c r="G440" t="n">
+        <v>0.1959751763522029</v>
+      </c>
+    </row>
+    <row r="441" ht="15" customHeight="1">
+      <c r="F441" t="n">
+        <v>0.03021476304349582</v>
+      </c>
+      <c r="G441" t="n">
+        <v>0.1977347758887896</v>
+      </c>
+    </row>
+    <row r="442" ht="15" customHeight="1">
+      <c r="F442" t="n">
+        <v>0.03021522573955782</v>
+      </c>
+      <c r="G442" t="n">
+        <v>0.1994943754253763</v>
+      </c>
+    </row>
+    <row r="443" ht="15" customHeight="1">
+      <c r="F443" t="n">
+        <v>0.03021761189608679</v>
+      </c>
+      <c r="G443" t="n">
+        <v>0.201253974961963</v>
+      </c>
+    </row>
+    <row r="444" ht="15" customHeight="1">
+      <c r="F444" t="n">
+        <v>0.03022351863578213</v>
+      </c>
+      <c r="G444" t="n">
+        <v>0.2030135744985497</v>
+      </c>
+    </row>
+    <row r="445" ht="15" customHeight="1">
+      <c r="F445" t="n">
+        <v>0.03023454308134326</v>
+      </c>
+      <c r="G445" t="n">
+        <v>0.2047731740351364</v>
+      </c>
+    </row>
+    <row r="446" ht="15" customHeight="1">
+      <c r="F446" t="n">
+        <v>0.03025228235546958</v>
+      </c>
+      <c r="G446" t="n">
+        <v>0.2065327735717231</v>
+      </c>
+    </row>
+    <row r="447" ht="15" customHeight="1">
+      <c r="F447" t="n">
+        <v>0.03027833358086051</v>
+      </c>
+      <c r="G447" t="n">
+        <v>0.2082923731083098</v>
+      </c>
+    </row>
+    <row r="448" ht="15" customHeight="1">
+      <c r="F448" t="n">
+        <v>0.03031429388021544</v>
+      </c>
+      <c r="G448" t="n">
+        <v>0.2100519726448965</v>
+      </c>
+    </row>
+    <row r="449" ht="15" customHeight="1">
+      <c r="F449" t="n">
+        <v>0.0303617603762338</v>
+      </c>
+      <c r="G449" t="n">
+        <v>0.2118115721814832</v>
+      </c>
+    </row>
+    <row r="450" ht="15" customHeight="1">
+      <c r="F450" t="n">
+        <v>0.03042233019161499</v>
+      </c>
+      <c r="G450" t="n">
+        <v>0.2135711717180699</v>
+      </c>
+    </row>
+    <row r="451" ht="15" customHeight="1">
+      <c r="F451" t="n">
+        <v>0.03049760044905842</v>
+      </c>
+      <c r="G451" t="n">
+        <v>0.2153307712546566</v>
+      </c>
+    </row>
+    <row r="452" ht="15" customHeight="1">
+      <c r="F452" t="n">
+        <v>0.0305891682712635</v>
+      </c>
+      <c r="G452" t="n">
+        <v>0.2170903707912433</v>
+      </c>
+    </row>
+    <row r="453" ht="15" customHeight="1">
+      <c r="F453" t="n">
+        <v>0.03069863078092964</v>
+      </c>
+      <c r="G453" t="n">
+        <v>0.21884997032783</v>
+      </c>
+    </row>
+    <row r="454" ht="15" customHeight="1">
+      <c r="F454" t="n">
+        <v>0.03082758510075623</v>
+      </c>
+      <c r="G454" t="n">
+        <v>0.2206095698644167</v>
+      </c>
+    </row>
+    <row r="455" ht="15" customHeight="1">
+      <c r="F455" t="n">
+        <v>0.03097762835344272</v>
+      </c>
+      <c r="G455" t="n">
+        <v>0.2223691694010034</v>
+      </c>
+    </row>
+    <row r="456" ht="15" customHeight="1">
+      <c r="F456" t="n">
+        <v>0.03115035766168848</v>
+      </c>
+      <c r="G456" t="n">
+        <v>0.22412876893759</v>
+      </c>
+    </row>
+    <row r="457" ht="15" customHeight="1">
+      <c r="F457" t="n">
+        <v>0.03134737014819294</v>
+      </c>
+      <c r="G457" t="n">
+        <v>0.2258883684741768</v>
+      </c>
+    </row>
+    <row r="458" ht="15" customHeight="1">
+      <c r="F458" t="n">
+        <v>0.03157026293565549</v>
+      </c>
+      <c r="G458" t="n">
+        <v>0.2276479680107635</v>
+      </c>
+    </row>
+    <row r="459" ht="15" customHeight="1">
+      <c r="F459" t="n">
+        <v>0.03182063314677556</v>
+      </c>
+      <c r="G459" t="n">
+        <v>0.2294075675473501</v>
+      </c>
+    </row>
+    <row r="460" ht="15" customHeight="1">
+      <c r="F460" t="n">
+        <v>0.03210007790425255</v>
+      </c>
+      <c r="G460" t="n">
+        <v>0.2311671670839368</v>
+      </c>
+    </row>
+    <row r="461" ht="15" customHeight="1">
+      <c r="F461" t="n">
+        <v>0.03241019433078587</v>
+      </c>
+      <c r="G461" t="n">
+        <v>0.2329267666205235</v>
+      </c>
+    </row>
+    <row r="462" ht="15" customHeight="1">
+      <c r="F462" t="n">
+        <v>0.03275257954907494</v>
+      </c>
+      <c r="G462" t="n">
+        <v>0.2346863661571102</v>
+      </c>
+    </row>
+    <row r="463" ht="15" customHeight="1">
+      <c r="F463" t="n">
+        <v>0.03312883068181913</v>
+      </c>
+      <c r="G463" t="n">
+        <v>0.2364459656936969</v>
+      </c>
+    </row>
+    <row r="464" ht="15" customHeight="1">
+      <c r="F464" t="n">
+        <v>0.0335405448517179</v>
+      </c>
+      <c r="G464" t="n">
+        <v>0.2382055652302836</v>
+      </c>
+    </row>
     <row r="465" ht="15" customHeight="1"/>
     <row r="466" ht="15" customHeight="1"/>
     <row r="467" ht="15" customHeight="1"/>

--- a/prot/ООО Регионстрой/Трехосные_КД_ПП/1252.xlsx
+++ b/prot/ООО Регионстрой/Трехосные_КД_ПП/1252.xlsx
@@ -4884,7 +4884,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A1:BF464"/>
+  <dimension ref="A1:BF264"/>
   <sheetViews>
     <sheetView tabSelected="1" view="pageBreakPreview" topLeftCell="A3" zoomScale="70" zoomScaleNormal="40" zoomScaleSheetLayoutView="85" workbookViewId="0">
       <selection activeCell="J22" sqref="J22"/>
@@ -8811,7 +8811,7 @@
       <c r="H51" s="144" t="n"/>
       <c r="I51" s="144" t="n"/>
       <c r="J51" s="144" t="n">
-        <v>0.08425146836968406</v>
+        <v>0.06220702089408412</v>
       </c>
       <c r="K51" s="144" t="n"/>
       <c r="L51" s="144" t="n"/>
@@ -9258,10 +9258,10 @@
     </row>
     <row r="65">
       <c r="A65" t="n">
-        <v>0.03425146836968405</v>
+        <v>0.01220702089408412</v>
       </c>
       <c r="B65" t="n">
-        <v>0.01404271110820086</v>
+        <v>0.00757631405491525</v>
       </c>
       <c r="C65" s="151">
         <f>MATCH(A65,F65:F1000,1)-A67</f>
@@ -9318,29 +9318,29 @@
         </is>
       </c>
       <c r="F66" s="170" t="n">
-        <v>0.001278708602455124</v>
+        <v>0.004030029482931352</v>
       </c>
       <c r="G66" s="171" t="n">
-        <v>0.0006465172839212208</v>
+        <v>0.001620294083277215</v>
       </c>
       <c r="H66" s="171" t="n"/>
       <c r="J66" s="170" t="n">
-        <v>0.00214352102779064</v>
+        <v>0.003708918726183598</v>
       </c>
       <c r="K66" s="171" t="n">
-        <v>0.0007861475000156339</v>
+        <v>0.001631344121891361</v>
       </c>
       <c r="L66" s="172" t="n">
-        <v>0.006586426989993177</v>
+        <v>0.01314613729444458</v>
       </c>
       <c r="M66" s="170" t="n">
-        <v>0.0007772269205693772</v>
+        <v>0.001627288179534984</v>
       </c>
       <c r="N66" s="171" t="n">
-        <v>0.01019085979817219</v>
+        <v>0.02074413613542031</v>
       </c>
       <c r="O66" s="172" t="n">
-        <v>0.0007812217833584227</v>
+        <v>0.001629004980532393</v>
       </c>
       <c r="Q66" s="151" t="inlineStr">
         <is>
@@ -9358,29 +9358,29 @@
         <v>2</v>
       </c>
       <c r="F67" s="170" t="n">
-        <v>0.002592903065693174</v>
+        <v>0.005812867092421008</v>
       </c>
       <c r="G67" s="171" t="n">
-        <v>0.001293034567842442</v>
+        <v>0.002525438018305083</v>
       </c>
       <c r="H67" s="171" t="n"/>
       <c r="J67" s="170" t="n">
-        <v>0.004291515908966904</v>
+        <v>0.007499999999999993</v>
       </c>
       <c r="K67" s="171" t="n">
-        <v>0.001572295000031268</v>
+        <v>0.003258423913043476</v>
       </c>
       <c r="L67" s="172" t="n">
-        <v>0.01402552154825415</v>
+        <v>0.02249999999999999</v>
       </c>
       <c r="M67" s="170" t="n">
-        <v>0.001554453841138754</v>
+        <v>0.002989379736737134</v>
       </c>
       <c r="N67" s="171" t="n">
-        <v>0.02109314901665393</v>
+        <v>0.03749999999999998</v>
       </c>
       <c r="O67" s="172" t="n">
-        <v>0.001562443566716845</v>
+        <v>0.003103260869565216</v>
       </c>
       <c r="Q67" s="151" t="inlineStr">
         <is>
@@ -9400,29 +9400,29 @@
         </is>
       </c>
       <c r="F68" s="170" t="n">
-        <v>0.003941075097386199</v>
+        <v>0.007358967290252677</v>
       </c>
       <c r="G68" s="171" t="n">
-        <v>0.001939551851763663</v>
+        <v>0.004860882249831644</v>
       </c>
       <c r="H68" s="171" t="n"/>
       <c r="J68" s="170" t="n">
-        <v>0.006318039019363474</v>
+        <v>0.0109508104568768</v>
       </c>
       <c r="K68" s="171" t="n">
-        <v>0.002358442500046902</v>
+        <v>0.004894032365674083</v>
       </c>
       <c r="L68" s="172" t="n">
-        <v>0.02028910608090553</v>
+        <v>0.03237606530281056</v>
       </c>
       <c r="M68" s="170" t="n">
-        <v>0.002331680761708132</v>
+        <v>0.004881864538604953</v>
       </c>
       <c r="N68" s="171" t="n">
-        <v>0.03178424384496675</v>
+        <v>0.05055303472665224</v>
       </c>
       <c r="O68" s="172" t="n">
-        <v>0.002343665350075268</v>
+        <v>0.004887014941597177</v>
       </c>
       <c r="Q68" s="151" t="inlineStr">
         <is>
@@ -9447,29 +9447,29 @@
         </is>
       </c>
       <c r="F69" s="170" t="n">
-        <v>0.005321716405206227</v>
+        <v>0.01125165482762912</v>
       </c>
       <c r="G69" s="171" t="n">
-        <v>0.002586069135684883</v>
+        <v>0.006481176333108858</v>
       </c>
       <c r="H69" s="171" t="n"/>
       <c r="J69" s="170" t="n">
-        <v>0.007997144734815047</v>
+        <v>0.01400557351546197</v>
       </c>
       <c r="K69" s="171" t="n">
-        <v>0.003144590000062536</v>
+        <v>0.006525376487565445</v>
       </c>
       <c r="L69" s="172" t="n">
-        <v>0.02594900299407008</v>
+        <v>0.03928930770620315</v>
       </c>
       <c r="M69" s="170" t="n">
-        <v>0.003108907682277509</v>
+        <v>0.006509152718139937</v>
       </c>
       <c r="N69" s="171" t="n">
-        <v>0.04094152047263228</v>
+        <v>0.06252994386860428</v>
       </c>
       <c r="O69" s="172" t="n">
-        <v>0.003124887133433691</v>
+        <v>0.00651601992212957</v>
       </c>
       <c r="Q69" s="151" t="inlineStr">
         <is>
@@ -9484,62 +9484,62 @@
     </row>
     <row r="70" ht="15" customHeight="1">
       <c r="A70" t="n">
-        <v>0.01010175207322034</v>
+        <v>0.002525438018305083</v>
       </c>
       <c r="B70" t="n">
-        <v>0.02325146836968405</v>
+        <v>0.005812867092421008</v>
       </c>
       <c r="F70" s="170" t="n">
-        <v>0.00673331869682528</v>
+        <v>0.01220702089408412</v>
       </c>
       <c r="G70" s="171" t="n">
-        <v>0.003232586419606104</v>
+        <v>0.00757631405491525</v>
       </c>
       <c r="H70" s="171" t="n"/>
       <c r="J70" s="170" t="n">
-        <v>0.009802887431156301</v>
+        <v>0.01697356030660309</v>
       </c>
       <c r="K70" s="171" t="n">
-        <v>0.00393073750007817</v>
+        <v>0.008156720609456807</v>
       </c>
       <c r="L70" s="172" t="n">
-        <v>0.03007703469387046</v>
+        <v>0.04574983338483246</v>
       </c>
       <c r="M70" s="170" t="n">
-        <v>0.003886134602846886</v>
+        <v>0.008136440897674922</v>
       </c>
       <c r="N70" s="171" t="n">
-        <v>0.04864235508917197</v>
+        <v>0.07062938003768338</v>
       </c>
       <c r="O70" s="172" t="n">
-        <v>0.003906108916792113</v>
+        <v>0.008145024902661963</v>
       </c>
     </row>
     <row r="71">
       <c r="F71" s="170" t="n">
-        <v>0.008174373679915421</v>
+        <v>0.01173242596243541</v>
       </c>
       <c r="G71" s="171" t="n">
-        <v>0.003879103703527325</v>
+        <v>0.009721764499663289</v>
       </c>
       <c r="H71" s="171" t="n"/>
       <c r="J71" s="170" t="n">
-        <v>0.01140932148422191</v>
+        <v>0.01954074392490505</v>
       </c>
       <c r="K71" s="171" t="n">
-        <v>0.004716885000093803</v>
+        <v>0.009775271739130427</v>
       </c>
       <c r="L71" s="172" t="n">
-        <v>0.03399999999999997</v>
+        <v>0.04856485338336355</v>
       </c>
       <c r="M71" s="170" t="n">
-        <v>0.00455911164787976</v>
+        <v>0.008968139210211404</v>
       </c>
       <c r="N71" s="171" t="n">
-        <v>0.05566412388410752</v>
+        <v>0.07758896284182204</v>
       </c>
       <c r="O71" s="172" t="n">
-        <v>0.004687330700150536</v>
+        <v>0.009309782608695649</v>
       </c>
     </row>
     <row r="72">
@@ -9554,29 +9554,29 @@
         </is>
       </c>
       <c r="F72" s="170" t="n">
-        <v>0.009643373062148658</v>
+        <v>0.01479935743702972</v>
       </c>
       <c r="G72" s="171" t="n">
-        <v>0.004525620987448546</v>
+        <v>0.0113420585829405</v>
       </c>
       <c r="H72" s="171" t="n"/>
       <c r="J72" s="170" t="n">
-        <v>0.013</v>
+        <v>0.02135423542584997</v>
       </c>
       <c r="K72" s="171" t="n">
-        <v>0.005647934782608695</v>
+        <v>0.01141940885323953</v>
       </c>
       <c r="L72" s="172" t="n">
-        <v>0.03748461637149406</v>
+        <v>0.05424695465489915</v>
       </c>
       <c r="M72" s="170" t="n">
-        <v>0.00544058844398564</v>
+        <v>0.01139101725674489</v>
       </c>
       <c r="N72" s="171" t="n">
-        <v>0.06058420304696044</v>
+        <v>0.08625233418970163</v>
       </c>
       <c r="O72" s="172" t="n">
-        <v>0.005468552483508959</v>
+        <v>0.01140303486372675</v>
       </c>
     </row>
     <row r="73">
@@ -9600,29 +9600,29 @@
         <v/>
       </c>
       <c r="F73" s="170" t="n">
-        <v>0.01113880855119704</v>
+        <v>0.01579373962994456</v>
       </c>
       <c r="G73" s="171" t="n">
-        <v>0.005172138271369767</v>
+        <v>0.01296235266621772</v>
       </c>
       <c r="H73" s="171" t="n"/>
       <c r="J73" s="170" t="n">
-        <v>0.01357012689385495</v>
+        <v>0.02305861586884626</v>
       </c>
       <c r="K73" s="171" t="n">
-        <v>0.006289180000125071</v>
+        <v>0.01305075297513089</v>
       </c>
       <c r="L73" s="172" t="n">
-        <v>0.04004829539806123</v>
+        <v>0.05822862094848549</v>
       </c>
       <c r="M73" s="170" t="n">
-        <v>0.006217815364555018</v>
+        <v>0.01301830543627987</v>
       </c>
       <c r="N73" s="171" t="n">
-        <v>0.066</v>
+        <v>0.0922412912978412</v>
       </c>
       <c r="O73" s="172" t="n">
-        <v>0.006302006688963212</v>
+        <v>0.01303203984425914</v>
       </c>
     </row>
     <row r="74">
@@ -9637,29 +9637,29 @@
         </is>
       </c>
       <c r="F74" s="170" t="n">
-        <v>0.01265917185473259</v>
+        <v>0.01471618111292508</v>
       </c>
       <c r="G74" s="171" t="n">
-        <v>0.005818655555290988</v>
+        <v>0.01458264674949493</v>
       </c>
       <c r="H74" s="171" t="n"/>
       <c r="J74" s="170" t="n">
-        <v>0.01484160648353623</v>
+        <v>0.02436614167044393</v>
       </c>
       <c r="K74" s="171" t="n">
-        <v>0.007075327500140705</v>
+        <v>0.01468209709702225</v>
       </c>
       <c r="L74" s="172" t="n">
-        <v>0.04258759836018897</v>
+        <v>0.06278265126645383</v>
       </c>
       <c r="M74" s="170" t="n">
-        <v>0.006995042285124395</v>
+        <v>0.01464559361581486</v>
       </c>
       <c r="N74" s="171" t="n">
-        <v>0.06750984834171508</v>
+        <v>0.09861825698311733</v>
       </c>
       <c r="O74" s="172" t="n">
-        <v>0.007030996050225805</v>
+        <v>0.01466104482479153</v>
       </c>
     </row>
     <row r="75">
@@ -9681,29 +9681,29 @@
         </is>
       </c>
       <c r="F75" s="170" t="n">
-        <v>0.01420295468042736</v>
+        <v>0.01756729045771643</v>
       </c>
       <c r="G75" s="171" t="n">
-        <v>0.006465172839212208</v>
+        <v>0.01620294083277215</v>
       </c>
       <c r="H75" s="171" t="n"/>
       <c r="J75" s="170" t="n">
-        <v>0.01572188423458902</v>
+        <v>0.02587459327322164</v>
       </c>
       <c r="K75" s="171" t="n">
-        <v>0.00786147500015634</v>
+        <v>0.01631344121891361</v>
       </c>
       <c r="L75" s="172" t="n">
-        <v>0.04464815247310919</v>
+        <v>0.06610120564335301</v>
       </c>
       <c r="M75" s="170" t="n">
-        <v>0.007772269205693772</v>
+        <v>0.01627288179534984</v>
       </c>
       <c r="N75" s="171" t="n">
-        <v>0.07054623378157188</v>
+        <v>0.1044627689608533</v>
       </c>
       <c r="O75" s="172" t="n">
-        <v>0.007812217833584227</v>
+        <v>0.01629004980532393</v>
       </c>
     </row>
     <row r="76">
@@ -9723,29 +9723,29 @@
         <v>0</v>
       </c>
       <c r="F76" s="170" t="n">
-        <v>0.01576864873595336</v>
+        <v>0.01634767623606378</v>
       </c>
       <c r="G76" s="171" t="n">
-        <v>0.00711169012313343</v>
+        <v>0.01782323491604936</v>
       </c>
       <c r="H76" s="171" t="n"/>
       <c r="J76" s="170" t="n">
-        <v>0.01642559910820766</v>
+        <v>0.0274817511197581</v>
       </c>
       <c r="K76" s="171" t="n">
-        <v>0.008647622500171974</v>
+        <v>0.01794478534080497</v>
       </c>
       <c r="L76" s="172" t="n">
-        <v>0.04657558495205377</v>
+        <v>0.06937644411373195</v>
       </c>
       <c r="M76" s="170" t="n">
-        <v>0.008549496126263149</v>
+        <v>0.01790016997488483</v>
       </c>
       <c r="N76" s="171" t="n">
-        <v>0.0714938186793761</v>
+        <v>0.1094543649463723</v>
       </c>
       <c r="O76" s="172" t="n">
-        <v>0.008593439616942649</v>
+        <v>0.01791905478585632</v>
       </c>
     </row>
     <row r="77" ht="15" customHeight="1">
@@ -9760,28 +9760,28 @@
         </is>
       </c>
       <c r="F77" t="n">
-        <v>0.01735474572898266</v>
+        <v>0.01805794701971225</v>
       </c>
       <c r="G77" t="n">
-        <v>0.00775820740705465</v>
+        <v>0.01944352899932658</v>
       </c>
       <c r="J77" t="n">
-        <v>0.01696739006558649</v>
+        <v>0.02858539565263206</v>
       </c>
       <c r="K77" t="n">
-        <v>0.009433770000187606</v>
+        <v>0.01957612946269633</v>
       </c>
       <c r="L77" t="n">
-        <v>0.04856485338336355</v>
+        <v>0.07220052671213945</v>
       </c>
       <c r="M77" t="n">
-        <v>0.009303049946960743</v>
+        <v>0.01952745815441981</v>
       </c>
       <c r="N77" t="n">
-        <v>0.07475558298026286</v>
+        <v>0.1154725826549977</v>
       </c>
       <c r="O77" t="n">
-        <v>0.009374661400301071</v>
+        <v>0.01954805976638871</v>
       </c>
     </row>
     <row r="78" ht="15" customHeight="1">
@@ -9800,28 +9800,28 @@
         <v/>
       </c>
       <c r="F78" t="n">
-        <v>0.01895973736718726</v>
+        <v>0.01769871138040702</v>
       </c>
       <c r="G78" t="n">
-        <v>0.008404724690975871</v>
+        <v>0.02106382308260379</v>
       </c>
       <c r="J78" t="n">
-        <v>0.01766189606791987</v>
+        <v>0.0300833073144222</v>
       </c>
       <c r="K78" t="n">
-        <v>0.01021991750020324</v>
+        <v>0.0212074735845877</v>
       </c>
       <c r="L78" t="n">
-        <v>0.04968073566781694</v>
+        <v>0.07516561347312459</v>
       </c>
       <c r="M78" t="n">
-        <v>0.0101039499674019</v>
+        <v>0.0211547463339548</v>
       </c>
       <c r="N78" t="n">
-        <v>0.07633450662936725</v>
+        <v>0.1189969598020525</v>
       </c>
       <c r="O78" t="n">
-        <v>0.01015588318365949</v>
+        <v>0.0211770647469211</v>
       </c>
     </row>
     <row r="79" ht="15" customHeight="1">
@@ -9842,28 +9842,28 @@
         <v/>
       </c>
       <c r="F79" t="n">
-        <v>0.02058211535823921</v>
+        <v>0.02027057788989323</v>
       </c>
       <c r="G79" t="n">
-        <v>0.009051241974897092</v>
+        <v>0.02268411716588101</v>
       </c>
       <c r="J79" t="n">
-        <v>0.01832375607640216</v>
+        <v>0.03087326654770726</v>
       </c>
       <c r="K79" t="n">
-        <v>0.01100606500021888</v>
+        <v>0.02283881770647906</v>
       </c>
       <c r="L79" t="n">
-        <v>0.05154358888532526</v>
+        <v>0.07786386443123608</v>
       </c>
       <c r="M79" t="n">
-        <v>0.01088117688797128</v>
+        <v>0.02278203451348978</v>
       </c>
       <c r="N79" t="n">
-        <v>0.07758896284182204</v>
+        <v>0.1243070341028602</v>
       </c>
       <c r="O79" t="n">
-        <v>0.01058368317789785</v>
+        <v>0.0228060697274535</v>
       </c>
     </row>
     <row r="80" ht="15" customHeight="1">
@@ -9873,28 +9873,28 @@
         </is>
       </c>
       <c r="F80" t="n">
-        <v>0.02222037140981056</v>
+        <v>0.02077415511991605</v>
       </c>
       <c r="G80" t="n">
-        <v>0.009697759258818313</v>
+        <v>0.02430441124915822</v>
       </c>
       <c r="J80" t="n">
-        <v>0.01954074392490505</v>
+        <v>0.03205305379506593</v>
       </c>
       <c r="K80" t="n">
-        <v>0.01212800519687042</v>
+        <v>0.02447016182837042</v>
       </c>
       <c r="L80" t="n">
-        <v>0.05270244345716549</v>
+        <v>0.08038743962102285</v>
       </c>
       <c r="M80" t="n">
-        <v>0.01165840380854066</v>
+        <v>0.02440932269302476</v>
       </c>
       <c r="N80" t="n">
-        <v>0.08047638690577308</v>
+        <v>0.1269823432727439</v>
       </c>
       <c r="O80" t="n">
-        <v>0.01171832675037634</v>
+        <v>0.02443507470798589</v>
       </c>
     </row>
     <row r="81" ht="15" customHeight="1">
@@ -9910,28 +9910,28 @@
         </is>
       </c>
       <c r="F81" t="n">
-        <v>0.02325146836968405</v>
+        <v>0.0212100516422206</v>
       </c>
       <c r="G81" t="n">
-        <v>0.01010175207322034</v>
+        <v>0.02592470533243543</v>
       </c>
       <c r="J81" t="n">
-        <v>0.01980871947262423</v>
+        <v>0.03302044949907694</v>
       </c>
       <c r="K81" t="n">
-        <v>0.01257836000025014</v>
+        <v>0.02610150595026178</v>
       </c>
       <c r="L81" t="n">
-        <v>0.05455559419660974</v>
+        <v>0.08222849907703381</v>
       </c>
       <c r="M81" t="n">
-        <v>0.01243563072911004</v>
+        <v>0.02603661087255975</v>
       </c>
       <c r="N81" t="n">
-        <v>0.08121322423473054</v>
+        <v>0.1315024250270269</v>
       </c>
       <c r="O81" t="n">
-        <v>0.01249954853373476</v>
+        <v>0.02606407968851828</v>
       </c>
     </row>
     <row r="82" ht="15" customHeight="1">
@@ -9944,28 +9944,28 @@
         <v/>
       </c>
       <c r="F82" t="n">
-        <v>0.0258519364119533</v>
+        <v>0.02157887602855205</v>
       </c>
       <c r="G82" t="n">
-        <v>0.01099079382666075</v>
+        <v>0.02754499941571265</v>
       </c>
       <c r="J82" t="n">
-        <v>0.02045799439965491</v>
+        <v>0.03357323410231898</v>
       </c>
       <c r="K82" t="n">
-        <v>0.01336450750026578</v>
+        <v>0.02773285007215314</v>
       </c>
       <c r="L82" t="n">
-        <v>0.05660133591693028</v>
+        <v>0.08437920283381789</v>
       </c>
       <c r="M82" t="n">
-        <v>0.01321285764967941</v>
+        <v>0.02766389905209473</v>
       </c>
       <c r="N82" t="n">
-        <v>0.08410866449293664</v>
+        <v>0.1339468170810323</v>
       </c>
       <c r="O82" t="n">
-        <v>0.01328077031709319</v>
+        <v>0.02769308466905067</v>
       </c>
     </row>
     <row r="83" ht="15" customHeight="1">
@@ -9975,28 +9975,28 @@
         </is>
       </c>
       <c r="F83" t="n">
-        <v>0.02797558692780403</v>
+        <v>0.01988475755140014</v>
       </c>
       <c r="G83" t="n">
-        <v>0.01163731111058198</v>
+        <v>0.02916529349898986</v>
       </c>
       <c r="J83" t="n">
-        <v>0.02091496893676048</v>
+        <v>0.0344091880473708</v>
       </c>
       <c r="K83" t="n">
-        <v>0.01415065500028141</v>
+        <v>0.0293641941940445</v>
       </c>
       <c r="L83" t="n">
-        <v>0.05853796343139933</v>
+        <v>0.08583171092592393</v>
       </c>
       <c r="M83" t="n">
-        <v>0.01399008457024879</v>
+        <v>0.02929118723162972</v>
       </c>
       <c r="N83" t="n">
-        <v>0.08565697797134608</v>
+        <v>0.1357950571500836</v>
       </c>
       <c r="O83" t="n">
-        <v>0.01406199210045161</v>
+        <v>0.02932208964958307</v>
       </c>
     </row>
     <row r="84" ht="15" customHeight="1">
@@ -10011,28 +10011,28 @@
         </is>
       </c>
       <c r="F84" t="n">
-        <v>0.03008416630800347</v>
+        <v>0.02217071435427859</v>
       </c>
       <c r="G84" t="n">
-        <v>0.0122838283945032</v>
+        <v>0.03078558758226708</v>
       </c>
       <c r="J84" t="n">
-        <v>0.02177834585147369</v>
+        <v>0.03462683385213872</v>
       </c>
       <c r="K84" t="n">
-        <v>0.01493680250029704</v>
+        <v>0.03099553831593586</v>
       </c>
       <c r="L84" t="n">
-        <v>0.05946377155328916</v>
+        <v>0.08722349021062153</v>
       </c>
       <c r="M84" t="n">
-        <v>0.01476731149081817</v>
+        <v>0.0309184754111647</v>
       </c>
       <c r="N84" t="n">
-        <v>0.0888524349609135</v>
+        <v>0.1376610180054199</v>
       </c>
       <c r="O84" t="n">
-        <v>0.01484321388381003</v>
+        <v>0.03095109463011546</v>
       </c>
     </row>
     <row r="85" ht="15" customHeight="1">
@@ -10051,28 +10051,28 @@
         <v/>
       </c>
       <c r="F85" t="n">
-        <v>0.0319902048568013</v>
+        <v>0.02244786003578699</v>
       </c>
       <c r="G85" t="n">
-        <v>0.01293034567842442</v>
+        <v>0.03240588166554429</v>
       </c>
       <c r="J85" t="n">
-        <v>0.02224682791132737</v>
+        <v>0.0350904812333728</v>
       </c>
       <c r="K85" t="n">
-        <v>0.01572295000031268</v>
+        <v>0.03262688243782723</v>
       </c>
       <c r="L85" t="n">
-        <v>0.06147705509587192</v>
+        <v>0.08755877714025653</v>
       </c>
       <c r="M85" t="n">
-        <v>0.01554453841138754</v>
+        <v>0.03254576359069969</v>
       </c>
       <c r="N85" t="n">
-        <v>0.09078930575259359</v>
+        <v>0.140086582106734</v>
       </c>
       <c r="O85" t="n">
-        <v>0.01562443566716845</v>
+        <v>0.03258009961064785</v>
       </c>
     </row>
     <row r="86" ht="15" customHeight="1">
@@ -10093,28 +10093,28 @@
         <v/>
       </c>
       <c r="F86" t="n">
-        <v>0.03350623287844724</v>
+        <v>0.02271434274772374</v>
       </c>
       <c r="G86" t="n">
-        <v>0.01357686296234564</v>
+        <v>0.03402617574882151</v>
       </c>
       <c r="J86" t="n">
-        <v>0.0231191178838543</v>
+        <v>0.03554049423412922</v>
       </c>
       <c r="K86" t="n">
-        <v>0.01650909750032831</v>
+        <v>0.03425822655971859</v>
       </c>
       <c r="L86" t="n">
-        <v>0.06327610887241991</v>
+        <v>0.08945701692517782</v>
       </c>
       <c r="M86" t="n">
-        <v>0.01632176533195692</v>
+        <v>0.03417305177023467</v>
       </c>
       <c r="N86" t="n">
-        <v>0.09366186063734094</v>
+        <v>0.1425550898814379</v>
       </c>
       <c r="O86" t="n">
-        <v>0.01640565745052688</v>
+        <v>0.03420910459118024</v>
       </c>
     </row>
     <row r="87" ht="15" customHeight="1">
@@ -10124,28 +10124,28 @@
         </is>
       </c>
       <c r="F87" t="n">
-        <v>0.03425146836968405</v>
+        <v>0.02296831064188724</v>
       </c>
       <c r="G87" t="n">
-        <v>0.01404271110820086</v>
+        <v>0.03564646983209872</v>
       </c>
       <c r="J87" t="n">
-        <v>0.02369391853658728</v>
+        <v>0.03617384739034556</v>
       </c>
       <c r="K87" t="n">
-        <v>0.01729524500034395</v>
+        <v>0.03588957068160994</v>
       </c>
       <c r="L87" t="n">
-        <v>0.06485922769620528</v>
+        <v>0.09031074628686744</v>
       </c>
       <c r="M87" t="n">
-        <v>0.0170989922525263</v>
+        <v>0.03580033994976965</v>
       </c>
       <c r="N87" t="n">
-        <v>0.09536436990611025</v>
+        <v>0.1431545799480693</v>
       </c>
       <c r="O87" t="n">
-        <v>0.0171868792338853</v>
+        <v>0.03583810957171264</v>
       </c>
     </row>
     <row r="88" ht="15" customHeight="1">
@@ -10159,28 +10159,28 @@
       <c r="C88" s="139" t="n"/>
       <c r="D88" s="139" t="n"/>
       <c r="F88" t="n">
-        <v>0.03523263919763863</v>
+        <v>0.02320791187007589</v>
       </c>
       <c r="G88" t="n">
-        <v>0.01486989753018808</v>
+        <v>0.03726676391537594</v>
       </c>
       <c r="J88" t="n">
-        <v>0.02426993263705909</v>
+        <v>0.03638751523795948</v>
       </c>
       <c r="K88" t="n">
-        <v>0.01808139250035958</v>
+        <v>0.03752091480350131</v>
       </c>
       <c r="L88" t="n">
-        <v>0.06592470638050035</v>
+        <v>0.09101250194680771</v>
       </c>
       <c r="M88" t="n">
-        <v>0.01787621917309568</v>
+        <v>0.03742762812930464</v>
       </c>
       <c r="N88" t="n">
-        <v>0.09829110384985607</v>
+        <v>0.1456730909251662</v>
       </c>
       <c r="O88" t="n">
-        <v>0.01796810101724372</v>
+        <v>0.03746711455224503</v>
       </c>
     </row>
     <row r="89" ht="15" customHeight="1">
@@ -10193,6180 +10193,4780 @@
         <v/>
       </c>
       <c r="F89" t="n">
-        <v>0.03595292404360512</v>
+        <v>0.02243129458408809</v>
       </c>
       <c r="G89" t="n">
-        <v>0.0155164148141093</v>
+        <v>0.03888705799865316</v>
       </c>
       <c r="J89" t="n">
-        <v>0.02504586295280251</v>
+        <v>0.03697847231290854</v>
       </c>
       <c r="K89" t="n">
-        <v>0.01886754000037521</v>
+        <v>0.03915225892539267</v>
       </c>
       <c r="L89" t="n">
-        <v>0.06757083973857722</v>
+        <v>0.09245482062648075</v>
       </c>
       <c r="M89" t="n">
-        <v>0.01865344609366505</v>
+        <v>0.03905491630883962</v>
       </c>
       <c r="N89" t="n">
-        <v>0.1014363327595331</v>
+        <v>0.1470986614312662</v>
       </c>
       <c r="O89" t="n">
-        <v>0.01874932280060214</v>
+        <v>0.03909611953277742</v>
       </c>
     </row>
     <row r="90" ht="15" customHeight="1">
       <c r="F90" t="n">
-        <v>0.03663401281439708</v>
+        <v>0.02163660693572226</v>
       </c>
       <c r="G90" t="n">
-        <v>0.01616293209803052</v>
+        <v>0.04050735208193037</v>
       </c>
       <c r="J90" t="n">
-        <v>0.02592041225135037</v>
+        <v>0.03724369315113032</v>
       </c>
       <c r="K90" t="n">
-        <v>0.01965368750039085</v>
+        <v>0.04078360304728403</v>
       </c>
       <c r="L90" t="n">
-        <v>0.06909592258370825</v>
+        <v>0.09333023904736876</v>
       </c>
       <c r="M90" t="n">
-        <v>0.01943067301423443</v>
+        <v>0.0406822044883746</v>
       </c>
       <c r="N90" t="n">
-        <v>0.1029943269260959</v>
+        <v>0.1486193300849069</v>
       </c>
       <c r="O90" t="n">
-        <v>0.01953054458396057</v>
+        <v>0.04072512451330981</v>
       </c>
     </row>
     <row r="91" ht="15" customHeight="1">
       <c r="F91" t="n">
-        <v>0.03727743994911149</v>
+        <v>0.02282199707677681</v>
       </c>
       <c r="G91" t="n">
-        <v>0.01680944938195174</v>
+        <v>0.04212764616520758</v>
       </c>
       <c r="J91" t="n">
-        <v>0.02659228330023541</v>
+        <v>0.03768015228856249</v>
       </c>
       <c r="K91" t="n">
-        <v>0.02043983500040648</v>
+        <v>0.0424149471691754</v>
       </c>
       <c r="L91" t="n">
-        <v>0.07089824972916559</v>
+        <v>0.09403129393095386</v>
       </c>
       <c r="M91" t="n">
-        <v>0.02020789993480381</v>
+        <v>0.04230949266790959</v>
       </c>
       <c r="N91" t="n">
-        <v>0.1049593566404992</v>
+        <v>0.1493231355046261</v>
       </c>
       <c r="O91" t="n">
-        <v>0.02031176636731899</v>
+        <v>0.04235412949384221</v>
       </c>
     </row>
     <row r="92" ht="15" customHeight="1">
       <c r="F92" t="n">
-        <v>0.0378847398868454</v>
+        <v>0.0219856131590501</v>
       </c>
       <c r="G92" t="n">
-        <v>0.01745596666587296</v>
+        <v>0.04374794024848479</v>
       </c>
       <c r="J92" t="n">
-        <v>0.02696017886699047</v>
+        <v>0.0377848242611426</v>
       </c>
       <c r="K92" t="n">
-        <v>0.02122598250042211</v>
+        <v>0.04404629129106676</v>
       </c>
       <c r="L92" t="n">
-        <v>0.07237611598822147</v>
+        <v>0.09405052199871827</v>
       </c>
       <c r="M92" t="n">
-        <v>0.02098512685537319</v>
+        <v>0.04393678084744457</v>
       </c>
       <c r="N92" t="n">
-        <v>0.1084256921936977</v>
+        <v>0.1504981163089614</v>
       </c>
       <c r="O92" t="n">
-        <v>0.02109298815067741</v>
+        <v>0.0439831344743746</v>
       </c>
     </row>
     <row r="93" ht="15" customHeight="1">
       <c r="F93" t="n">
-        <v>0.03845744706669581</v>
+        <v>0.02412560333434057</v>
       </c>
       <c r="G93" t="n">
-        <v>0.01810248394979418</v>
+        <v>0.04536823433176201</v>
       </c>
       <c r="J93" t="n">
-        <v>0.02782280171914833</v>
+        <v>0.03835468360480827</v>
       </c>
       <c r="K93" t="n">
-        <v>0.02201213000043775</v>
+        <v>0.04567763541295811</v>
       </c>
       <c r="L93" t="n">
-        <v>0.07392781617414818</v>
+        <v>0.09508045997214418</v>
       </c>
       <c r="M93" t="n">
-        <v>0.02176235377594256</v>
+        <v>0.04556406902697956</v>
       </c>
       <c r="N93" t="n">
-        <v>0.111287603876646</v>
+        <v>0.1524323111164508</v>
       </c>
       <c r="O93" t="n">
-        <v>0.02187420993403584</v>
+        <v>0.04561213945490699</v>
       </c>
     </row>
     <row r="94" ht="15" customHeight="1">
       <c r="F94" t="n">
-        <v>0.03899709592775973</v>
+        <v>0.02424011575444662</v>
       </c>
       <c r="G94" t="n">
-        <v>0.0187490012337154</v>
+        <v>0.04698852841503922</v>
       </c>
       <c r="J94" t="n">
-        <v>0.02837885462424176</v>
+        <v>0.03828670485549711</v>
       </c>
       <c r="K94" t="n">
-        <v>0.02279827750045338</v>
+        <v>0.04730897953484948</v>
       </c>
       <c r="L94" t="n">
-        <v>0.07455164510021783</v>
+        <v>0.0954136445727137</v>
       </c>
       <c r="M94" t="n">
-        <v>0.02253958069651194</v>
+        <v>0.04719135720651454</v>
       </c>
       <c r="N94" t="n">
-        <v>0.1134393619802986</v>
+        <v>0.1522137585456318</v>
       </c>
       <c r="O94" t="n">
-        <v>0.02265543171739426</v>
+        <v>0.04724114443543938</v>
       </c>
     </row>
     <row r="95" ht="15" customHeight="1">
       <c r="F95" t="n">
-        <v>0.03950522090913421</v>
+        <v>0.02332729857116665</v>
       </c>
       <c r="G95" t="n">
-        <v>0.01939551851763663</v>
+        <v>0.04860882249831644</v>
       </c>
       <c r="J95" t="n">
-        <v>0.0289270403498036</v>
+        <v>0.03867786254914668</v>
       </c>
       <c r="K95" t="n">
-        <v>0.02358442500046902</v>
+        <v>0.04894032365674084</v>
       </c>
       <c r="L95" t="n">
-        <v>0.07674589757970279</v>
+        <v>0.09584261252190907</v>
       </c>
       <c r="M95" t="n">
-        <v>0.02331680761708132</v>
+        <v>0.04881864538604953</v>
       </c>
       <c r="N95" t="n">
-        <v>0.1157752367956104</v>
+        <v>0.1534304972150423</v>
       </c>
       <c r="O95" t="n">
-        <v>0.02343665350075268</v>
+        <v>0.04887014941597177</v>
       </c>
     </row>
     <row r="96" ht="15" customHeight="1">
       <c r="F96" t="n">
-        <v>0.03998335644991626</v>
+        <v>0.02441404178816824</v>
       </c>
       <c r="G96" t="n">
-        <v>0.02004203580155784</v>
+        <v>0.05022911658159365</v>
       </c>
       <c r="J96" t="n">
-        <v>0.02966606166336658</v>
+        <v>0.03882513122169462</v>
       </c>
       <c r="K96" t="n">
-        <v>0.02437057250048465</v>
+        <v>0.0505716677786322</v>
       </c>
       <c r="L96" t="n">
-        <v>0.07790886842587516</v>
+        <v>0.09635990054121243</v>
       </c>
       <c r="M96" t="n">
-        <v>0.0240940345376507</v>
+        <v>0.05044593356558452</v>
       </c>
       <c r="N96" t="n">
-        <v>0.1174894986135359</v>
+        <v>0.1539705657432199</v>
       </c>
       <c r="O96" t="n">
-        <v>0.0242178752841111</v>
+        <v>0.05049915439650417</v>
       </c>
     </row>
     <row r="97" ht="15" customHeight="1">
       <c r="F97" t="n">
-        <v>0.04043303698920286</v>
+        <v>0.02441226800164225</v>
       </c>
       <c r="G97" t="n">
-        <v>0.02068855308547907</v>
+        <v>0.05184941066487087</v>
       </c>
       <c r="J97" t="n">
-        <v>0.03049462133246354</v>
+        <v>0.03882548540907853</v>
       </c>
       <c r="K97" t="n">
-        <v>0.02515672000050028</v>
+        <v>0.05220301190052356</v>
       </c>
       <c r="L97" t="n">
-        <v>0.07913885245200719</v>
+        <v>0.09712970676672711</v>
       </c>
       <c r="M97" t="n">
-        <v>0.02487126145822007</v>
+        <v>0.0520732217451195</v>
       </c>
       <c r="N97" t="n">
-        <v>0.1205764177250296</v>
+        <v>0.155177925683644</v>
       </c>
       <c r="O97" t="n">
-        <v>0.02499909706746953</v>
+        <v>0.05212815937703656</v>
       </c>
     </row>
     <row r="98" ht="15" customHeight="1">
       <c r="F98" t="n">
-        <v>0.04085579696609105</v>
+        <v>0.02341036817326098</v>
       </c>
       <c r="G98" t="n">
-        <v>0.02133507036940029</v>
+        <v>0.05346970474814808</v>
       </c>
       <c r="J98" t="n">
-        <v>0.03111142212462725</v>
+        <v>0.03908148784981012</v>
       </c>
       <c r="K98" t="n">
-        <v>0.02594286750051592</v>
+        <v>0.05383435602241492</v>
       </c>
       <c r="L98" t="n">
-        <v>0.08033414447137116</v>
+        <v>0.09702958367607198</v>
       </c>
       <c r="M98" t="n">
-        <v>0.02564848837878945</v>
+        <v>0.05370050992465448</v>
       </c>
       <c r="N98" t="n">
-        <v>0.1223302644210465</v>
+        <v>0.1550728468500274</v>
       </c>
       <c r="O98" t="n">
-        <v>0.02578031885082795</v>
+        <v>0.05375716435756896</v>
       </c>
     </row>
     <row r="99" ht="15" customHeight="1">
       <c r="F99" t="n">
-        <v>0.04125317081967784</v>
+        <v>0.02439181785867959</v>
       </c>
       <c r="G99" t="n">
-        <v>0.02198158765332151</v>
+        <v>0.0550899988314253</v>
       </c>
       <c r="J99" t="n">
-        <v>0.0315151668073905</v>
+        <v>0.03887758130889493</v>
       </c>
       <c r="K99" t="n">
-        <v>0.02672901500053155</v>
+        <v>0.05546570014430627</v>
       </c>
       <c r="L99" t="n">
-        <v>0.08159303929723929</v>
+        <v>0.09680010732230021</v>
       </c>
       <c r="M99" t="n">
-        <v>0.02642571529935882</v>
+        <v>0.05532779810418946</v>
       </c>
       <c r="N99" t="n">
-        <v>0.1242453089925409</v>
+        <v>0.1537461609818485</v>
       </c>
       <c r="O99" t="n">
-        <v>0.02656154063418637</v>
+        <v>0.05538616933810134</v>
       </c>
     </row>
     <row r="100" ht="15" customHeight="1">
       <c r="F100" t="n">
-        <v>0.04162669298906026</v>
+        <v>0.02335848650966738</v>
       </c>
       <c r="G100" t="n">
-        <v>0.02262810493724273</v>
+        <v>0.05671029291470251</v>
       </c>
       <c r="J100" t="n">
-        <v>0.0322045581482861</v>
+        <v>0.03905069509196042</v>
       </c>
       <c r="K100" t="n">
-        <v>0.02751516250054719</v>
+        <v>0.05709704426619764</v>
       </c>
       <c r="L100" t="n">
-        <v>0.08281383174288376</v>
+        <v>0.09610846470850731</v>
       </c>
       <c r="M100" t="n">
-        <v>0.0272029422199282</v>
+        <v>0.05695508628372446</v>
       </c>
       <c r="N100" t="n">
-        <v>0.1266158217304676</v>
+        <v>0.1546163818726697</v>
       </c>
       <c r="O100" t="n">
-        <v>0.02734276241754479</v>
+        <v>0.05701517431863374</v>
       </c>
     </row>
     <row r="101" ht="15" customHeight="1">
       <c r="F101" t="n">
-        <v>0.0419778979133353</v>
+        <v>0.02431135010363095</v>
       </c>
       <c r="G101" t="n">
-        <v>0.02327462222116395</v>
+        <v>0.05833058699797972</v>
       </c>
       <c r="J101" t="n">
-        <v>0.03277829891484683</v>
+        <v>0.03899963629722261</v>
       </c>
       <c r="K101" t="n">
-        <v>0.02830131000056282</v>
+        <v>0.058728388388089</v>
       </c>
       <c r="L101" t="n">
-        <v>0.08359481662157681</v>
+        <v>0.09615865185833428</v>
       </c>
       <c r="M101" t="n">
-        <v>0.02798016914049758</v>
+        <v>0.05858237446325944</v>
       </c>
       <c r="N101" t="n">
-        <v>0.1292360729257813</v>
+        <v>0.1543923821217011</v>
       </c>
       <c r="O101" t="n">
-        <v>0.02812398420090322</v>
+        <v>0.05864417929916613</v>
       </c>
     </row>
     <row r="102" ht="15" customHeight="1">
       <c r="F102" t="n">
-        <v>0.04230832003160003</v>
+        <v>0.02425138461797686</v>
       </c>
       <c r="G102" t="n">
-        <v>0.02392113950508517</v>
+        <v>0.05995088108125694</v>
       </c>
       <c r="J102" t="n">
-        <v>0.03313509187460549</v>
+        <v>0.03872599943149194</v>
       </c>
       <c r="K102" t="n">
-        <v>0.02908745750057845</v>
+        <v>0.06035973250998036</v>
       </c>
       <c r="L102" t="n">
-        <v>0.08513428874659071</v>
+        <v>0.09605460213478903</v>
       </c>
       <c r="M102" t="n">
-        <v>0.02875739606106696</v>
+        <v>0.06020966264279442</v>
       </c>
       <c r="N102" t="n">
-        <v>0.1322003328694365</v>
+        <v>0.1533804657219204</v>
       </c>
       <c r="O102" t="n">
-        <v>0.02890520598426164</v>
+        <v>0.06027318427969853</v>
       </c>
     </row>
     <row r="103" ht="15" customHeight="1">
       <c r="F103" t="n">
-        <v>0.0426194937829514</v>
+        <v>0.02417956603011173</v>
       </c>
       <c r="G103" t="n">
-        <v>0.02456765678900639</v>
+        <v>0.06157117516453416</v>
       </c>
       <c r="J103" t="n">
-        <v>0.03387363979509485</v>
+        <v>0.0386313790015788</v>
       </c>
       <c r="K103" t="n">
-        <v>0.02987360500059409</v>
+        <v>0.06199107663187173</v>
       </c>
       <c r="L103" t="n">
-        <v>0.08623054293119764</v>
+        <v>0.09560024890087945</v>
       </c>
       <c r="M103" t="n">
-        <v>0.02953462298163633</v>
+        <v>0.0618369508223294</v>
       </c>
       <c r="N103" t="n">
-        <v>0.134102871852388</v>
+        <v>0.1538869366663052</v>
       </c>
       <c r="O103" t="n">
-        <v>0.02968642776762007</v>
+        <v>0.06190218926023092</v>
       </c>
     </row>
     <row r="104" ht="15" customHeight="1">
       <c r="F104" t="n">
-        <v>0.04291295360648647</v>
+        <v>0.02209687031744211</v>
       </c>
       <c r="G104" t="n">
-        <v>0.02521417407292761</v>
+        <v>0.06319146924781137</v>
       </c>
       <c r="J104" t="n">
-        <v>0.03449264544384772</v>
+        <v>0.03851736951429369</v>
       </c>
       <c r="K104" t="n">
-        <v>0.03065975250060972</v>
+        <v>0.06362242075376309</v>
       </c>
       <c r="L104" t="n">
-        <v>0.08718187398866986</v>
+        <v>0.09599952551961347</v>
       </c>
       <c r="M104" t="n">
-        <v>0.03031184990220571</v>
+        <v>0.06346423900186438</v>
       </c>
       <c r="N104" t="n">
-        <v>0.1358379601655903</v>
+        <v>0.1530180989478334</v>
       </c>
       <c r="O104" t="n">
-        <v>0.03046764955097849</v>
+        <v>0.06353119424076331</v>
       </c>
     </row>
     <row r="105" ht="15" customHeight="1">
       <c r="F105" t="n">
-        <v>0.04319023394130223</v>
+        <v>0.02300427345737461</v>
       </c>
       <c r="G105" t="n">
-        <v>0.02586069135684883</v>
+        <v>0.06481176333108858</v>
       </c>
       <c r="J105" t="n">
-        <v>0.03489081158839688</v>
+        <v>0.03838556547644698</v>
       </c>
       <c r="K105" t="n">
-        <v>0.03144590000062536</v>
+        <v>0.06525376487565446</v>
       </c>
       <c r="L105" t="n">
-        <v>0.08798657673227953</v>
+        <v>0.095556365353999</v>
       </c>
       <c r="M105" t="n">
-        <v>0.03108907682277509</v>
+        <v>0.06509152718139938</v>
       </c>
       <c r="N105" t="n">
-        <v>0.137999868099998</v>
+        <v>0.1515802565594825</v>
       </c>
       <c r="O105" t="n">
-        <v>0.03124887133433691</v>
+        <v>0.06516019922129571</v>
       </c>
     </row>
     <row r="106" ht="15" customHeight="1">
       <c r="F106" t="n">
-        <v>0.04345286922649574</v>
+        <v>0.02190275142731577</v>
       </c>
       <c r="G106" t="n">
-        <v>0.02650720864077005</v>
+        <v>0.06643205741436579</v>
       </c>
       <c r="J106" t="n">
-        <v>0.03516684099627518</v>
+        <v>0.03833756139484915</v>
       </c>
       <c r="K106" t="n">
-        <v>0.03223204750064099</v>
+        <v>0.06688510899754581</v>
       </c>
       <c r="L106" t="n">
-        <v>0.08954294597529894</v>
+        <v>0.09467470176704396</v>
       </c>
       <c r="M106" t="n">
-        <v>0.03186630374334447</v>
+        <v>0.06671881536093435</v>
       </c>
       <c r="N106" t="n">
-        <v>0.139882865946566</v>
+        <v>0.1513797134942304</v>
       </c>
       <c r="O106" t="n">
-        <v>0.03203009311769533</v>
+        <v>0.06678920420182809</v>
       </c>
     </row>
     <row r="107" ht="15" customHeight="1">
       <c r="F107" t="n">
-        <v>0.04370239390116396</v>
+        <v>0.0237932802046722</v>
       </c>
       <c r="G107" t="n">
-        <v>0.02715372592469128</v>
+        <v>0.06805235149764302</v>
       </c>
       <c r="J107" t="n">
-        <v>0.0359194364350153</v>
+        <v>0.03827495177631059</v>
       </c>
       <c r="K107" t="n">
-        <v>0.03301819500065663</v>
+        <v>0.06851645311943717</v>
       </c>
       <c r="L107" t="n">
-        <v>0.0901492765310003</v>
+        <v>0.09445846812175623</v>
       </c>
       <c r="M107" t="n">
-        <v>0.03264353066391384</v>
+        <v>0.06834610354046934</v>
       </c>
       <c r="N107" t="n">
-        <v>0.1409812239962488</v>
+        <v>0.1518227737450549</v>
       </c>
       <c r="O107" t="n">
-        <v>0.03281131490105375</v>
+        <v>0.06841820918236048</v>
       </c>
     </row>
     <row r="108" ht="15" customHeight="1">
       <c r="F108" t="n">
-        <v>0.04394034240440394</v>
+        <v>0.02267683576685049</v>
       </c>
       <c r="G108" t="n">
-        <v>0.02780024320861249</v>
+        <v>0.06967264558092023</v>
       </c>
       <c r="J108" t="n">
-        <v>0.03614730067215015</v>
+        <v>0.03789933112764171</v>
       </c>
       <c r="K108" t="n">
-        <v>0.03380434250067226</v>
+        <v>0.07014779724132854</v>
       </c>
       <c r="L108" t="n">
-        <v>0.09100386321265586</v>
+        <v>0.09431159778114376</v>
       </c>
       <c r="M108" t="n">
-        <v>0.03342075758448322</v>
+        <v>0.06997339172000432</v>
       </c>
       <c r="N108" t="n">
-        <v>0.1431892125400009</v>
+        <v>0.1506157413049336</v>
       </c>
       <c r="O108" t="n">
-        <v>0.03359253668441218</v>
+        <v>0.07004721416289288</v>
       </c>
     </row>
     <row r="109" ht="15" customHeight="1">
       <c r="F109" t="n">
-        <v>0.04416824917531268</v>
+        <v>0.02355439409125722</v>
       </c>
       <c r="G109" t="n">
-        <v>0.02844676049253372</v>
+        <v>0.07129293966419743</v>
       </c>
       <c r="J109" t="n">
-        <v>0.03644913647521243</v>
+        <v>0.03761229395565302</v>
       </c>
       <c r="K109" t="n">
-        <v>0.0345904900006879</v>
+        <v>0.07177914136321989</v>
       </c>
       <c r="L109" t="n">
-        <v>0.0922050008335378</v>
+        <v>0.09393802410821445</v>
       </c>
       <c r="M109" t="n">
-        <v>0.0341979845050526</v>
+        <v>0.0716006798995393</v>
       </c>
       <c r="N109" t="n">
-        <v>0.1439011018687772</v>
+        <v>0.1497649201668442</v>
       </c>
       <c r="O109" t="n">
-        <v>0.0343737584677706</v>
+        <v>0.07167621914342527</v>
       </c>
     </row>
     <row r="110" ht="15" customHeight="1">
       <c r="F110" t="n">
-        <v>0.04438764865298723</v>
+        <v>0.02242693115529894</v>
       </c>
       <c r="G110" t="n">
-        <v>0.02909327777645494</v>
+        <v>0.07291323374747466</v>
       </c>
       <c r="J110" t="n">
-        <v>0.03692364661173497</v>
+        <v>0.03771543476715486</v>
       </c>
       <c r="K110" t="n">
-        <v>0.03537663750070352</v>
+        <v>0.07341048548511125</v>
       </c>
       <c r="L110" t="n">
-        <v>0.09225098420691838</v>
+        <v>0.09354168046597619</v>
       </c>
       <c r="M110" t="n">
-        <v>0.03497521142562197</v>
+        <v>0.07322796807907428</v>
       </c>
       <c r="N110" t="n">
-        <v>0.1455111622735322</v>
+        <v>0.1490766143237646</v>
       </c>
       <c r="O110" t="n">
-        <v>0.03515498025112902</v>
+        <v>0.07330522412395767</v>
       </c>
     </row>
     <row r="111" ht="15" customHeight="1">
       <c r="F111" t="n">
-        <v>0.04460131356618046</v>
+        <v>0.02129542293638228</v>
       </c>
       <c r="G111" t="n">
-        <v>0.02973979506037615</v>
+        <v>0.07453352783075187</v>
       </c>
       <c r="J111" t="n">
-        <v>0.0373695338492506</v>
+        <v>0.03731034806895772</v>
       </c>
       <c r="K111" t="n">
-        <v>0.03616278500071916</v>
+        <v>0.07504182960700262</v>
       </c>
       <c r="L111" t="n">
-        <v>0.09304010814606981</v>
+        <v>0.09302650021743691</v>
       </c>
       <c r="M111" t="n">
-        <v>0.03575243834619135</v>
+        <v>0.07485525625860928</v>
       </c>
       <c r="N111" t="n">
-        <v>0.1477136640452206</v>
+        <v>0.1487571277686725</v>
       </c>
       <c r="O111" t="n">
-        <v>0.03593620203448745</v>
+        <v>0.07493422910449006</v>
       </c>
     </row>
     <row r="112" ht="15" customHeight="1">
       <c r="F112" t="n">
-        <v>0.04481320928523754</v>
+        <v>0.02316084541191379</v>
       </c>
       <c r="G112" t="n">
-        <v>0.03038631234429738</v>
+        <v>0.07615382191402909</v>
       </c>
       <c r="J112" t="n">
-        <v>0.03748550095529206</v>
+        <v>0.03729862836787201</v>
       </c>
       <c r="K112" t="n">
-        <v>0.03694893250073479</v>
+        <v>0.07667317372889397</v>
       </c>
       <c r="L112" t="n">
-        <v>0.09437066746426429</v>
+        <v>0.09189641672560456</v>
       </c>
       <c r="M112" t="n">
-        <v>0.03652966526676073</v>
+        <v>0.07648254443814426</v>
       </c>
       <c r="N112" t="n">
-        <v>0.1492028774747969</v>
+        <v>0.1476127644945455</v>
       </c>
       <c r="O112" t="n">
-        <v>0.03671742381784587</v>
+        <v>0.07656323408502246</v>
       </c>
     </row>
     <row r="113" ht="15" customHeight="1">
       <c r="F113" t="n">
-        <v>0.04502343351801024</v>
+        <v>0.02102417455930007</v>
       </c>
       <c r="G113" t="n">
-        <v>0.0310328296282186</v>
+        <v>0.07777411599730631</v>
       </c>
       <c r="J113" t="n">
-        <v>0.03787025069739214</v>
+        <v>0.03688187017070815</v>
       </c>
       <c r="K113" t="n">
-        <v>0.03773508000075042</v>
+        <v>0.07830451785078534</v>
       </c>
       <c r="L113" t="n">
-        <v>0.09474095697477411</v>
+        <v>0.09125536335348697</v>
       </c>
       <c r="M113" t="n">
-        <v>0.0373068921873301</v>
+        <v>0.07810983261767925</v>
       </c>
       <c r="N113" t="n">
-        <v>0.1503730728532159</v>
+        <v>0.1463498284943615</v>
       </c>
       <c r="O113" t="n">
-        <v>0.03749864560120428</v>
+        <v>0.07819223906555484</v>
       </c>
     </row>
     <row r="114" ht="15" customHeight="1">
       <c r="F114" t="n">
-        <v>0.04523189443166236</v>
+        <v>0.02088638635594769</v>
       </c>
       <c r="G114" t="n">
-        <v>0.03167934691213983</v>
+        <v>0.07939441008058351</v>
       </c>
       <c r="J114" t="n">
-        <v>0.03822248584308366</v>
+        <v>0.03676166798427659</v>
       </c>
       <c r="K114" t="n">
-        <v>0.03852122750076606</v>
+        <v>0.0799358619726767</v>
       </c>
       <c r="L114" t="n">
-        <v>0.09454927149087144</v>
+        <v>0.09120727346409213</v>
       </c>
       <c r="M114" t="n">
-        <v>0.03808411910789949</v>
+        <v>0.07973712079721422</v>
       </c>
       <c r="N114" t="n">
-        <v>0.1504185204714323</v>
+        <v>0.1456746237610981</v>
       </c>
       <c r="O114" t="n">
-        <v>0.03827986738456271</v>
+        <v>0.07982124404608723</v>
       </c>
     </row>
     <row r="115" ht="15" customHeight="1">
       <c r="F115" t="n">
-        <v>0.04543850019335764</v>
+        <v>0.02074845677926324</v>
       </c>
       <c r="G115" t="n">
-        <v>0.03232586419606104</v>
+        <v>0.08101470416386074</v>
       </c>
       <c r="J115" t="n">
-        <v>0.0385409091598994</v>
+        <v>0.03643961631538774</v>
       </c>
       <c r="K115" t="n">
-        <v>0.03930737500078169</v>
+        <v>0.08156720609456806</v>
       </c>
       <c r="L115" t="n">
-        <v>0.09589390582582857</v>
+        <v>0.09055608042042793</v>
       </c>
       <c r="M115" t="n">
-        <v>0.03886134602846886</v>
+        <v>0.08136440897674921</v>
       </c>
       <c r="N115" t="n">
-        <v>0.1515334906204005</v>
+        <v>0.1452934542877331</v>
       </c>
       <c r="O115" t="n">
-        <v>0.03906108916792114</v>
+        <v>0.08145024902661963</v>
       </c>
     </row>
     <row r="116" ht="15" customHeight="1">
       <c r="F116" t="n">
-        <v>0.04564315897025983</v>
+        <v>0.0226113618066533</v>
       </c>
       <c r="G116" t="n">
-        <v>0.03297238147998226</v>
+        <v>0.08263499824713795</v>
       </c>
       <c r="J116" t="n">
-        <v>0.03842422341537215</v>
+        <v>0.03641730967085205</v>
       </c>
       <c r="K116" t="n">
-        <v>0.04009352250079733</v>
+        <v>0.08319855021645943</v>
       </c>
       <c r="L116" t="n">
-        <v>0.09627315479291759</v>
+        <v>0.09010571758550226</v>
       </c>
       <c r="M116" t="n">
-        <v>0.03963857294903824</v>
+        <v>0.0829916971562842</v>
       </c>
       <c r="N116" t="n">
-        <v>0.1526122535910753</v>
+        <v>0.1431126240672442</v>
       </c>
       <c r="O116" t="n">
-        <v>0.03984231095127956</v>
+        <v>0.08307925400715202</v>
       </c>
     </row>
     <row r="117" ht="15" customHeight="1">
       <c r="F117" t="n">
-        <v>0.04584577892953268</v>
+        <v>0.02147528786840835</v>
       </c>
       <c r="G117" t="n">
-        <v>0.03361889876390348</v>
+        <v>0.08425529233041516</v>
       </c>
       <c r="J117" t="n">
-        <v>0.03877113137703472</v>
+        <v>0.03599634255747992</v>
       </c>
       <c r="K117" t="n">
-        <v>0.04087967000081296</v>
+        <v>0.08482989433835079</v>
       </c>
       <c r="L117" t="n">
-        <v>0.09608531320541092</v>
+        <v>0.08886011832232305</v>
       </c>
       <c r="M117" t="n">
-        <v>0.04041579986960762</v>
+        <v>0.08461898533581919</v>
       </c>
       <c r="N117" t="n">
-        <v>0.1530490796744114</v>
+        <v>0.1423384370926092</v>
       </c>
       <c r="O117" t="n">
-        <v>0.04062353273463798</v>
+        <v>0.08470825898768441</v>
       </c>
     </row>
     <row r="118" ht="15" customHeight="1">
       <c r="F118" t="n">
-        <v>0.04604626823833998</v>
+        <v>0.02232448181879065</v>
       </c>
       <c r="G118" t="n">
-        <v>0.0342654160478247</v>
+        <v>0.08587558641369238</v>
       </c>
       <c r="J118" t="n">
-        <v>0.03868033581241986</v>
+        <v>0.03577700186355529</v>
       </c>
       <c r="K118" t="n">
-        <v>0.04166581750082859</v>
+        <v>0.08646123846024215</v>
       </c>
       <c r="L118" t="n">
-        <v>0.0963286758765807</v>
+        <v>0.0884041666003238</v>
       </c>
       <c r="M118" t="n">
-        <v>0.04119302679017699</v>
+        <v>0.08624627351535416</v>
       </c>
       <c r="N118" t="n">
-        <v>0.1534382391613634</v>
+        <v>0.1423599718377862</v>
       </c>
       <c r="O118" t="n">
-        <v>0.0414047545179964</v>
+        <v>0.08633726396821681</v>
       </c>
     </row>
     <row r="119" ht="15" customHeight="1">
       <c r="F119" t="n">
-        <v>0.04624453506384548</v>
+        <v>0.02015485114183592</v>
       </c>
       <c r="G119" t="n">
-        <v>0.03491193333174593</v>
+        <v>0.08749588049696959</v>
       </c>
       <c r="J119" t="n">
-        <v>0.03908148784981012</v>
+        <v>0.03573369732302215</v>
       </c>
       <c r="K119" t="n">
-        <v>0.04245196500084423</v>
+        <v>0.08809258258213351</v>
       </c>
       <c r="L119" t="n">
-        <v>0.09610153761969908</v>
+        <v>0.08787214929497186</v>
       </c>
       <c r="M119" t="n">
-        <v>0.04197025371074637</v>
+        <v>0.08787356169488915</v>
       </c>
       <c r="N119" t="n">
-        <v>0.1549740023428858</v>
+        <v>0.1405683626661772</v>
       </c>
       <c r="O119" t="n">
-        <v>0.04218597630135482</v>
+        <v>0.0879662689487492</v>
       </c>
     </row>
     <row r="120" ht="15" customHeight="1">
       <c r="F120" t="n">
-        <v>0.04644048757321289</v>
+        <v>0.02196957568859847</v>
       </c>
       <c r="G120" t="n">
-        <v>0.03555845061566715</v>
+        <v>0.0891161745802468</v>
       </c>
       <c r="J120" t="n">
-        <v>0.03908044517448914</v>
+        <v>0.0353599037403184</v>
       </c>
       <c r="K120" t="n">
-        <v>0.04323811250085987</v>
+        <v>0.08972392670402488</v>
       </c>
       <c r="L120" t="n">
-        <v>0.09712970676672711</v>
+        <v>0.08776936506763414</v>
       </c>
       <c r="M120" t="n">
-        <v>0.04274748063131575</v>
+        <v>0.08950084987442412</v>
       </c>
       <c r="N120" t="n">
-        <v>0.155177925683644</v>
+        <v>0.1392603163328539</v>
       </c>
       <c r="O120" t="n">
-        <v>0.04296719808471325</v>
+        <v>0.0895952739292816</v>
       </c>
     </row>
     <row r="121" ht="15" customHeight="1">
       <c r="F121" t="n">
-        <v>0.04663403393360602</v>
+        <v>0.01977183531013264</v>
       </c>
       <c r="G121" t="n">
-        <v>0.03620496789958837</v>
+        <v>0.09073646866352403</v>
       </c>
       <c r="J121" t="n">
-        <v>0.0387787802739588</v>
+        <v>0.03516081620923221</v>
       </c>
       <c r="K121" t="n">
-        <v>0.0440242600008755</v>
+        <v>0.09135527082591623</v>
       </c>
       <c r="L121" t="n">
-        <v>0.09642933117614763</v>
+        <v>0.08630862928516575</v>
       </c>
       <c r="M121" t="n">
-        <v>0.04352470755188512</v>
+        <v>0.09112813805395911</v>
       </c>
       <c r="N121" t="n">
-        <v>0.1542714286573268</v>
+        <v>0.1387563720004871</v>
       </c>
       <c r="O121" t="n">
-        <v>0.04374841986807167</v>
+        <v>0.09122427890981398</v>
       </c>
     </row>
     <row r="122" ht="15" customHeight="1">
       <c r="F122" t="n">
-        <v>0.04682508231218859</v>
+        <v>0.02156480985749275</v>
       </c>
       <c r="G122" t="n">
-        <v>0.03685148518350959</v>
+        <v>0.09235676274680124</v>
       </c>
       <c r="J122" t="n">
-        <v>0.03906748255024566</v>
+        <v>0.03464162982355161</v>
       </c>
       <c r="K122" t="n">
-        <v>0.04481040750089114</v>
+        <v>0.09298661494780759</v>
       </c>
       <c r="L122" t="n">
-        <v>0.09630598112843064</v>
+        <v>0.08570275731442198</v>
       </c>
       <c r="M122" t="n">
-        <v>0.04430193447245451</v>
+        <v>0.0927554262334941</v>
       </c>
       <c r="N122" t="n">
-        <v>0.1547067942115142</v>
+        <v>0.1367770688317472</v>
       </c>
       <c r="O122" t="n">
-        <v>0.04452964165143009</v>
+        <v>0.09285328389034637</v>
       </c>
     </row>
     <row r="123" ht="15" customHeight="1">
       <c r="F123" t="n">
-        <v>0.04701354087612439</v>
+        <v>0.01935167918173312</v>
       </c>
       <c r="G123" t="n">
-        <v>0.0374980024674308</v>
+        <v>0.09397705683007844</v>
       </c>
       <c r="J123" t="n">
-        <v>0.03894768041666181</v>
+        <v>0.03450753967706478</v>
       </c>
       <c r="K123" t="n">
-        <v>0.04559655500090676</v>
+        <v>0.09461795906969896</v>
       </c>
       <c r="L123" t="n">
-        <v>0.0969474610530327</v>
+        <v>0.08516456452225804</v>
       </c>
       <c r="M123" t="n">
-        <v>0.04507916139302388</v>
+        <v>0.09438271441302909</v>
       </c>
       <c r="N123" t="n">
-        <v>0.1546754983017201</v>
+        <v>0.1363429459893051</v>
       </c>
       <c r="O123" t="n">
-        <v>0.04531086343478852</v>
+        <v>0.09448228887087877</v>
       </c>
     </row>
     <row r="124" ht="15" customHeight="1">
       <c r="F124" t="n">
-        <v>0.04719931779257714</v>
+        <v>0.02113562313390808</v>
       </c>
       <c r="G124" t="n">
-        <v>0.03814451975135203</v>
+        <v>0.09559735091335567</v>
       </c>
       <c r="J124" t="n">
-        <v>0.03881968623421364</v>
+        <v>0.0338637408635598</v>
       </c>
       <c r="K124" t="n">
-        <v>0.0463827025009224</v>
+        <v>0.09624930319159032</v>
       </c>
       <c r="L124" t="n">
-        <v>0.09615529915119686</v>
+        <v>0.08430686627552908</v>
       </c>
       <c r="M124" t="n">
-        <v>0.04585638831359326</v>
+        <v>0.09601000259256406</v>
       </c>
       <c r="N124" t="n">
-        <v>0.1547807565758406</v>
+        <v>0.1347745426358314</v>
       </c>
       <c r="O124" t="n">
-        <v>0.04609208521814694</v>
+        <v>0.09611129385141115</v>
       </c>
     </row>
     <row r="125" ht="15" customHeight="1">
       <c r="F125" t="n">
-        <v>0.04738232122871065</v>
+        <v>0.01891982156507195</v>
       </c>
       <c r="G125" t="n">
-        <v>0.03879103703527325</v>
+        <v>0.09721764499663288</v>
       </c>
       <c r="J125" t="n">
-        <v>0.03898381236390744</v>
+        <v>0.03361542847682476</v>
       </c>
       <c r="K125" t="n">
-        <v>0.04716885000093803</v>
+        <v>0.09788064731348167</v>
       </c>
       <c r="L125" t="n">
-        <v>0.09603102362416621</v>
+        <v>0.08344247794109036</v>
       </c>
       <c r="M125" t="n">
-        <v>0.04663361523416263</v>
+        <v>0.09763729077209905</v>
       </c>
       <c r="N125" t="n">
-        <v>0.1533257846817719</v>
+        <v>0.1326923979339969</v>
       </c>
       <c r="O125" t="n">
-        <v>0.04687330700150536</v>
+        <v>0.09774029883194355</v>
       </c>
     </row>
     <row r="126" ht="15" customHeight="1">
       <c r="F126" t="n">
-        <v>0.0475624593516886</v>
+        <v>0.01870745432627905</v>
       </c>
       <c r="G126" t="n">
-        <v>0.03943755431919447</v>
+        <v>0.09883793907991009</v>
       </c>
       <c r="J126" t="n">
-        <v>0.03884037116674957</v>
+        <v>0.03336779761064781</v>
       </c>
       <c r="K126" t="n">
-        <v>0.04795499750095367</v>
+        <v>0.09951199143537304</v>
       </c>
       <c r="L126" t="n">
-        <v>0.09667616267318377</v>
+        <v>0.08248421488579705</v>
       </c>
       <c r="M126" t="n">
-        <v>0.04741084215473201</v>
+        <v>0.09926457895163403</v>
       </c>
       <c r="N126" t="n">
-        <v>0.1539137982674103</v>
+        <v>0.1320170510464722</v>
       </c>
       <c r="O126" t="n">
-        <v>0.04765452878486378</v>
+        <v>0.09936930381247594</v>
       </c>
     </row>
     <row r="127" ht="15" customHeight="1">
       <c r="F127" t="n">
-        <v>0.04773964032867482</v>
+        <v>0.0185017012685837</v>
       </c>
       <c r="G127" t="n">
-        <v>0.04008407160311569</v>
+        <v>0.1004582331631873</v>
       </c>
       <c r="J127" t="n">
-        <v>0.0385896750037464</v>
+        <v>0.03292604335881703</v>
       </c>
       <c r="K127" t="n">
-        <v>0.0487411450009693</v>
+        <v>0.1011433355572644</v>
       </c>
       <c r="L127" t="n">
-        <v>0.09599224449949265</v>
+        <v>0.0812448924765044</v>
       </c>
       <c r="M127" t="n">
-        <v>0.04818806907530139</v>
+        <v>0.100891867131169</v>
       </c>
       <c r="N127" t="n">
-        <v>0.1535480129806521</v>
+        <v>0.1300690411359278</v>
       </c>
       <c r="O127" t="n">
-        <v>0.04843575056822221</v>
+        <v>0.1009983087930083</v>
       </c>
     </row>
     <row r="128" ht="15" customHeight="1">
       <c r="F128" t="n">
-        <v>0.04791377232683302</v>
+        <v>0.01830564567462536</v>
       </c>
       <c r="G128" t="n">
-        <v>0.04073058888703691</v>
+        <v>0.1020785272464645</v>
       </c>
       <c r="J128" t="n">
-        <v>0.0387320362359042</v>
+        <v>0.03249536081512056</v>
       </c>
       <c r="K128" t="n">
-        <v>0.04952729250098493</v>
+        <v>0.1027746796791558</v>
       </c>
       <c r="L128" t="n">
-        <v>0.09568079730433593</v>
+        <v>0.08033732608006755</v>
       </c>
       <c r="M128" t="n">
-        <v>0.04896529599587077</v>
+        <v>0.102519155310704</v>
       </c>
       <c r="N128" t="n">
-        <v>0.1529316444693934</v>
+        <v>0.1288689073650345</v>
       </c>
       <c r="O128" t="n">
-        <v>0.04921697235158063</v>
+        <v>0.1026273137735407</v>
       </c>
     </row>
     <row r="129" ht="15" customHeight="1">
       <c r="F129" t="n">
-        <v>0.04808476351332697</v>
+        <v>0.01910259681033762</v>
       </c>
       <c r="G129" t="n">
-        <v>0.04137710617095813</v>
+        <v>0.1036988213297417</v>
       </c>
       <c r="J129" t="n">
-        <v>0.03856776722422939</v>
+        <v>0.03218028057450968</v>
       </c>
       <c r="K129" t="n">
-        <v>0.05031344000100057</v>
+        <v>0.1044060238010471</v>
       </c>
       <c r="L129" t="n">
-        <v>0.09584334928895655</v>
+        <v>0.0800574276399571</v>
       </c>
       <c r="M129" t="n">
-        <v>0.04974252291644014</v>
+        <v>0.104146443490239</v>
       </c>
       <c r="N129" t="n">
-        <v>0.1529679083815306</v>
+        <v>0.1273235986543683</v>
       </c>
       <c r="O129" t="n">
-        <v>0.04999819413493906</v>
+        <v>0.1042563187540731</v>
       </c>
     </row>
     <row r="130" ht="15" customHeight="1">
       <c r="F130" t="n">
-        <v>0.04825252205532043</v>
+        <v>0.01888171776883314</v>
       </c>
       <c r="G130" t="n">
-        <v>0.04202362345487935</v>
+        <v>0.105319115413019</v>
       </c>
       <c r="J130" t="n">
-        <v>0.03859718032972824</v>
+        <v>0.03185037561179881</v>
       </c>
       <c r="K130" t="n">
-        <v>0.0510995875010162</v>
+        <v>0.1060373679229385</v>
       </c>
       <c r="L130" t="n">
-        <v>0.09578142865459774</v>
+        <v>0.07881403513519958</v>
       </c>
       <c r="M130" t="n">
-        <v>0.05051974983700952</v>
+        <v>0.105773731669774</v>
       </c>
       <c r="N130" t="n">
-        <v>0.1513600203649599</v>
+        <v>0.1264916124171326</v>
       </c>
       <c r="O130" t="n">
-        <v>0.05077941591829747</v>
+        <v>0.1058853237346055</v>
       </c>
     </row>
     <row r="131" ht="15" customHeight="1">
       <c r="F131" t="n">
-        <v>0.04841695611997716</v>
+        <v>0.01964756050782771</v>
       </c>
       <c r="G131" t="n">
-        <v>0.04267014073880058</v>
+        <v>0.1069394094962962</v>
       </c>
       <c r="J131" t="n">
-        <v>0.03852058791340715</v>
+        <v>0.03159217418560802</v>
       </c>
       <c r="K131" t="n">
-        <v>0.05188573500103184</v>
+        <v>0.1076687120448298</v>
       </c>
       <c r="L131" t="n">
-        <v>0.09459656360250246</v>
+        <v>0.07840679343341742</v>
       </c>
       <c r="M131" t="n">
-        <v>0.0512969767575789</v>
+        <v>0.107401019849309</v>
       </c>
       <c r="N131" t="n">
-        <v>0.1515111960675775</v>
+        <v>0.124653250863151</v>
       </c>
       <c r="O131" t="n">
-        <v>0.0515606377016559</v>
+        <v>0.1075143287151379</v>
       </c>
     </row>
     <row r="132" ht="15" customHeight="1">
       <c r="F132" t="n">
-        <v>0.0485779738744609</v>
+        <v>0.01840467698503717</v>
       </c>
       <c r="G132" t="n">
-        <v>0.0433166580227218</v>
+        <v>0.1085597035795734</v>
       </c>
       <c r="J132" t="n">
-        <v>0.03823830233627246</v>
+        <v>0.0313131130742169</v>
       </c>
       <c r="K132" t="n">
-        <v>0.05267188250104747</v>
+        <v>0.1093000561667212</v>
       </c>
       <c r="L132" t="n">
-        <v>0.09459028233391381</v>
+        <v>0.07725404773601816</v>
       </c>
       <c r="M132" t="n">
-        <v>0.05207420367814827</v>
+        <v>0.1090283080288439</v>
       </c>
       <c r="N132" t="n">
-        <v>0.1506246511372798</v>
+        <v>0.1240379158098036</v>
       </c>
       <c r="O132" t="n">
-        <v>0.05234185948501432</v>
+        <v>0.1091433336956703</v>
       </c>
     </row>
     <row r="133" ht="15" customHeight="1">
       <c r="F133" t="n">
-        <v>0.04873548348593542</v>
+        <v>0.0191576191581773</v>
       </c>
       <c r="G133" t="n">
-        <v>0.04396317530664302</v>
+        <v>0.1101799976628506</v>
       </c>
       <c r="J133" t="n">
-        <v>0.03845063595933046</v>
+        <v>0.03082062905590505</v>
       </c>
       <c r="K133" t="n">
-        <v>0.0534580300010631</v>
+        <v>0.1109314002886125</v>
       </c>
       <c r="L133" t="n">
-        <v>0.09396411305007482</v>
+        <v>0.07637414324440925</v>
       </c>
       <c r="M133" t="n">
-        <v>0.05285143059871764</v>
+        <v>0.1106555962083789</v>
       </c>
       <c r="N133" t="n">
-        <v>0.1496036012219628</v>
+        <v>0.1215750090744702</v>
       </c>
       <c r="O133" t="n">
-        <v>0.05312308126837274</v>
+        <v>0.1107723386762027</v>
       </c>
     </row>
     <row r="134" ht="15" customHeight="1">
       <c r="F134" t="n">
-        <v>0.04888939312156448</v>
+        <v>0.01891093898496391</v>
       </c>
       <c r="G134" t="n">
-        <v>0.04460969259056424</v>
+        <v>0.1118002917461278</v>
       </c>
       <c r="J134" t="n">
-        <v>0.03815790114358752</v>
+        <v>0.03042215890895207</v>
       </c>
       <c r="K134" t="n">
-        <v>0.05424417750107874</v>
+        <v>0.1125627444105039</v>
       </c>
       <c r="L134" t="n">
-        <v>0.09411958395222858</v>
+        <v>0.07578542515999834</v>
       </c>
       <c r="M134" t="n">
-        <v>0.05362865751928703</v>
+        <v>0.1122828843879139</v>
       </c>
       <c r="N134" t="n">
-        <v>0.1500512619695228</v>
+        <v>0.1206939324745312</v>
       </c>
       <c r="O134" t="n">
-        <v>0.05390430305173117</v>
+        <v>0.1124013436567351</v>
       </c>
     </row>
     <row r="135" ht="15" customHeight="1">
       <c r="F135" t="n">
-        <v>0.04903961094851183</v>
+        <v>0.01666918842311282</v>
       </c>
       <c r="G135" t="n">
-        <v>0.04525620987448546</v>
+        <v>0.113420585829405</v>
       </c>
       <c r="J135" t="n">
-        <v>0.03806041025005</v>
+        <v>0.0302251394116375</v>
       </c>
       <c r="K135" t="n">
-        <v>0.05503032500109437</v>
+        <v>0.1141940885323953</v>
       </c>
       <c r="L135" t="n">
-        <v>0.09355822324161819</v>
+        <v>0.07470623868419282</v>
       </c>
       <c r="M135" t="n">
-        <v>0.05440588443985641</v>
+        <v>0.1139101725674489</v>
       </c>
       <c r="N135" t="n">
-        <v>0.1493708490278562</v>
+        <v>0.1186240878273663</v>
       </c>
       <c r="O135" t="n">
-        <v>0.05468552483508959</v>
+        <v>0.1140303486372675</v>
       </c>
     </row>
     <row r="136" ht="15" customHeight="1">
       <c r="F136" t="n">
-        <v>0.04918604513394121</v>
+        <v>0.01743691943033982</v>
       </c>
       <c r="G136" t="n">
-        <v>0.04590272715840668</v>
+        <v>0.1150408799126822</v>
       </c>
       <c r="J136" t="n">
-        <v>0.03805847563972424</v>
+        <v>0.02983700734224097</v>
       </c>
       <c r="K136" t="n">
-        <v>0.05581647250111001</v>
+        <v>0.1158254326542866</v>
       </c>
       <c r="L136" t="n">
-        <v>0.09338155911948662</v>
+        <v>0.07295492901840017</v>
       </c>
       <c r="M136" t="n">
-        <v>0.05518311136042579</v>
+        <v>0.1155374607469839</v>
       </c>
       <c r="N136" t="n">
-        <v>0.1475655780448592</v>
+        <v>0.1177948769503558</v>
       </c>
       <c r="O136" t="n">
-        <v>0.05546674661844802</v>
+        <v>0.1156593536177999</v>
       </c>
     </row>
     <row r="137" ht="15" customHeight="1">
       <c r="F137" t="n">
-        <v>0.04932860384501641</v>
+        <v>0.01821868396436072</v>
       </c>
       <c r="G137" t="n">
-        <v>0.0465492444423279</v>
+        <v>0.1166611739959594</v>
       </c>
       <c r="J137" t="n">
-        <v>0.03805240967361656</v>
+        <v>0.02916519947904207</v>
       </c>
       <c r="K137" t="n">
-        <v>0.05660262000112564</v>
+        <v>0.117456776776178</v>
       </c>
       <c r="L137" t="n">
-        <v>0.09309111978707704</v>
+        <v>0.07204984136402806</v>
       </c>
       <c r="M137" t="n">
-        <v>0.05596033828099516</v>
+        <v>0.1171647489265189</v>
       </c>
       <c r="N137" t="n">
-        <v>0.147138664668428</v>
+        <v>0.1155357016608795</v>
       </c>
       <c r="O137" t="n">
-        <v>0.05624796840180644</v>
+        <v>0.1172883585983323</v>
       </c>
     </row>
     <row r="138" ht="15" customHeight="1">
       <c r="F138" t="n">
-        <v>0.04946719524890115</v>
+        <v>0.01801903398289133</v>
       </c>
       <c r="G138" t="n">
-        <v>0.04719576172624912</v>
+        <v>0.1182814680792367</v>
       </c>
       <c r="J138" t="n">
-        <v>0.03794252471273329</v>
+        <v>0.02911715260032034</v>
       </c>
       <c r="K138" t="n">
-        <v>0.05738876750114128</v>
+        <v>0.1190881208980694</v>
       </c>
       <c r="L138" t="n">
-        <v>0.09208843344563239</v>
+        <v>0.07170932092248383</v>
       </c>
       <c r="M138" t="n">
-        <v>0.05673756520156453</v>
+        <v>0.1187920371060538</v>
       </c>
       <c r="N138" t="n">
-        <v>0.1458933245464588</v>
+        <v>0.1153759637763177</v>
       </c>
       <c r="O138" t="n">
-        <v>0.05702919018516486</v>
+        <v>0.1189173635788646</v>
       </c>
     </row>
     <row r="139" ht="15" customHeight="1">
       <c r="F139" t="n">
-        <v>0.04960172751275922</v>
+        <v>0.01584252144364746</v>
       </c>
       <c r="G139" t="n">
-        <v>0.04784227901017034</v>
+        <v>0.1199017621625139</v>
       </c>
       <c r="J139" t="n">
-        <v>0.03752913311808082</v>
+        <v>0.02850030348435542</v>
       </c>
       <c r="K139" t="n">
-        <v>0.05817491500115691</v>
+        <v>0.1207194650199607</v>
       </c>
       <c r="L139" t="n">
-        <v>0.09197502829639589</v>
+        <v>0.07115171289517508</v>
       </c>
       <c r="M139" t="n">
-        <v>0.05751479212213392</v>
+        <v>0.1204193252855888</v>
       </c>
       <c r="N139" t="n">
-        <v>0.1451327733268478</v>
+        <v>0.1140450651140504</v>
       </c>
       <c r="O139" t="n">
-        <v>0.05781041196852328</v>
+        <v>0.1205463685593971</v>
       </c>
     </row>
     <row r="140" ht="15" customHeight="1">
       <c r="F140" t="n">
-        <v>0.04973210880375436</v>
+        <v>0.0156936983043449</v>
       </c>
       <c r="G140" t="n">
-        <v>0.04848879629409156</v>
+        <v>0.1215220562457911</v>
       </c>
       <c r="J140" t="n">
-        <v>0.03741254725066545</v>
+        <v>0.02822208890942686</v>
       </c>
       <c r="K140" t="n">
-        <v>0.05896106250117255</v>
+        <v>0.1223508091418521</v>
       </c>
       <c r="L140" t="n">
-        <v>0.09215243254061045</v>
+        <v>0.07009536248350928</v>
       </c>
       <c r="M140" t="n">
-        <v>0.05829201904270329</v>
+        <v>0.1220466134651238</v>
       </c>
       <c r="N140" t="n">
-        <v>0.1454602266574915</v>
+        <v>0.1124724074914574</v>
       </c>
       <c r="O140" t="n">
-        <v>0.0585916337518817</v>
+        <v>0.1221753735399294</v>
       </c>
     </row>
     <row r="141" ht="15" customHeight="1">
       <c r="F141" t="n">
-        <v>0.04985824728905034</v>
+        <v>0.01657711652269947</v>
       </c>
       <c r="G141" t="n">
-        <v>0.04913531357801278</v>
+        <v>0.1231423503290683</v>
       </c>
       <c r="J141" t="n">
-        <v>0.03739307947149352</v>
+        <v>0.02818994565381426</v>
       </c>
       <c r="K141" t="n">
-        <v>0.05974721000118818</v>
+        <v>0.1239821532637435</v>
       </c>
       <c r="L141" t="n">
-        <v>0.09102217437951921</v>
+        <v>0.07015861488889394</v>
       </c>
       <c r="M141" t="n">
-        <v>0.05906924596327266</v>
+        <v>0.1236739016446588</v>
       </c>
       <c r="N141" t="n">
-        <v>0.1441789001862859</v>
+        <v>0.111787392725919</v>
       </c>
       <c r="O141" t="n">
-        <v>0.05937285553524013</v>
+        <v>0.1238043785204618</v>
       </c>
     </row>
     <row r="142" ht="15" customHeight="1">
       <c r="F142" t="n">
-        <v>0.04998005113581088</v>
+        <v>0.01549732805642696</v>
       </c>
       <c r="G142" t="n">
-        <v>0.049781830861934</v>
+        <v>0.1247626444123455</v>
       </c>
       <c r="J142" t="n">
-        <v>0.03747104214157142</v>
+        <v>0.02781131049579723</v>
       </c>
       <c r="K142" t="n">
-        <v>0.0605333575012038</v>
+        <v>0.1256134973856348</v>
       </c>
       <c r="L142" t="n">
-        <v>0.09078578201436521</v>
+        <v>0.06895981531273659</v>
       </c>
       <c r="M142" t="n">
-        <v>0.05984647288384205</v>
+        <v>0.1253011898241938</v>
       </c>
       <c r="N142" t="n">
-        <v>0.1430920095611273</v>
+        <v>0.1110194226348151</v>
       </c>
       <c r="O142" t="n">
-        <v>0.06015407731859854</v>
+        <v>0.1254333835009942</v>
       </c>
     </row>
     <row r="143" ht="15" customHeight="1">
       <c r="F143" t="n">
-        <v>0.05009742851119977</v>
+        <v>0.01645888486324321</v>
       </c>
       <c r="G143" t="n">
-        <v>0.05042834814585523</v>
+        <v>0.1263829384956227</v>
       </c>
       <c r="J143" t="n">
-        <v>0.03704674762190543</v>
+        <v>0.02789362021365532</v>
       </c>
       <c r="K143" t="n">
-        <v>0.06131950500121944</v>
+        <v>0.1272448415075262</v>
       </c>
       <c r="L143" t="n">
-        <v>0.09044478364639155</v>
+        <v>0.06891730895644474</v>
       </c>
       <c r="M143" t="n">
-        <v>0.06062369980441142</v>
+        <v>0.1269284780037288</v>
       </c>
       <c r="N143" t="n">
-        <v>0.141802770429912</v>
+        <v>0.110897899035526</v>
       </c>
       <c r="O143" t="n">
-        <v>0.06093529910195698</v>
+        <v>0.1270623884815266</v>
       </c>
     </row>
     <row r="144" ht="15" customHeight="1">
       <c r="F144" t="n">
-        <v>0.05021028758238078</v>
+        <v>0.01645749558669263</v>
       </c>
       <c r="G144" t="n">
-        <v>0.05107486542977644</v>
+        <v>0.1280032325789</v>
       </c>
       <c r="J144" t="n">
-        <v>0.03702050827350194</v>
+        <v>0.02774431158566815</v>
       </c>
       <c r="K144" t="n">
-        <v>0.06210565250123507</v>
+        <v>0.1288761856294175</v>
       </c>
       <c r="L144" t="n">
-        <v>0.0898007074768413</v>
+        <v>0.06874798674181384</v>
       </c>
       <c r="M144" t="n">
-        <v>0.06140092672498081</v>
+        <v>0.1285557661832638</v>
       </c>
       <c r="N144" t="n">
-        <v>0.1411143984405362</v>
+        <v>0.1096522178669546</v>
       </c>
       <c r="O144" t="n">
-        <v>0.06171652088531539</v>
+        <v>0.128691393462059</v>
       </c>
     </row>
     <row r="145" ht="15" customHeight="1">
       <c r="F145" t="n">
-        <v>0.05031853651651761</v>
+        <v>0.01746523515426502</v>
       </c>
       <c r="G145" t="n">
-        <v>0.05172138271369767</v>
+        <v>0.1296235266621772</v>
       </c>
       <c r="J145" t="n">
-        <v>0.03679263645736726</v>
+        <v>0.02794712420131806</v>
       </c>
       <c r="K145" t="n">
-        <v>0.06289180000125072</v>
+        <v>0.1305075297513089</v>
       </c>
       <c r="L145" t="n">
-        <v>0.08975508170695745</v>
+        <v>0.06906525658172363</v>
       </c>
       <c r="M145" t="n">
-        <v>0.06217815364555018</v>
+        <v>0.1301830543627988</v>
       </c>
       <c r="N145" t="n">
-        <v>0.1408301092408962</v>
+        <v>0.1104743905477962</v>
       </c>
       <c r="O145" t="n">
-        <v>0.06249774266867381</v>
+        <v>0.1303203984425914</v>
       </c>
     </row>
     <row r="146" ht="15" customHeight="1">
       <c r="F146" t="n">
-        <v>0.05042208348077407</v>
+        <v>0.01547934597759922</v>
       </c>
       <c r="G146" t="n">
-        <v>0.05236789999761889</v>
+        <v>0.1312438207454544</v>
       </c>
       <c r="J146" t="n">
-        <v>0.03676344453450774</v>
+        <v>0.02766160960283549</v>
       </c>
       <c r="K146" t="n">
-        <v>0.06367794750126635</v>
+        <v>0.1321388738732003</v>
       </c>
       <c r="L146" t="n">
-        <v>0.08860943453798309</v>
+        <v>0.0687087828086895</v>
       </c>
       <c r="M146" t="n">
-        <v>0.06295538056611956</v>
+        <v>0.1318103425423337</v>
       </c>
       <c r="N146" t="n">
-        <v>0.1403531184788882</v>
+        <v>0.110638870886129</v>
       </c>
       <c r="O146" t="n">
-        <v>0.06327896445203224</v>
+        <v>0.1319494034231238</v>
       </c>
     </row>
     <row r="147" ht="15" customHeight="1">
       <c r="F147" t="n">
-        <v>0.05052083664231389</v>
+        <v>0.01749949358050042</v>
       </c>
       <c r="G147" t="n">
-        <v>0.0530144172815401</v>
+        <v>0.1328641148287316</v>
       </c>
       <c r="J147" t="n">
-        <v>0.03673324486592973</v>
+        <v>0.02768632758005773</v>
       </c>
       <c r="K147" t="n">
-        <v>0.06446409500128199</v>
+        <v>0.1337702179950916</v>
       </c>
       <c r="L147" t="n">
-        <v>0.08836529417116135</v>
+        <v>0.06927721742399451</v>
       </c>
       <c r="M147" t="n">
-        <v>0.06373260748668894</v>
+        <v>0.1334376307218687</v>
       </c>
       <c r="N147" t="n">
-        <v>0.1392866418024084</v>
+        <v>0.109843498447122</v>
       </c>
       <c r="O147" t="n">
-        <v>0.06406018623539066</v>
+        <v>0.1335784084036562</v>
       </c>
     </row>
     <row r="148" ht="15" customHeight="1">
       <c r="F148" t="n">
-        <v>0.05061470416830085</v>
+        <v>0.01652534348677378</v>
       </c>
       <c r="G148" t="n">
-        <v>0.05366093456546133</v>
+        <v>0.1344844089120088</v>
       </c>
       <c r="J148" t="n">
-        <v>0.03660234981263957</v>
+        <v>0.0278207316812258</v>
       </c>
       <c r="K148" t="n">
-        <v>0.06525024250129761</v>
+        <v>0.135401562116983</v>
       </c>
       <c r="L148" t="n">
-        <v>0.08782418880773521</v>
+        <v>0.06886921242892186</v>
       </c>
       <c r="M148" t="n">
-        <v>0.06450983440725831</v>
+        <v>0.1350649189014037</v>
       </c>
       <c r="N148" t="n">
-        <v>0.1380338948593531</v>
+        <v>0.1109861127959444</v>
       </c>
       <c r="O148" t="n">
-        <v>0.06484140801874909</v>
+        <v>0.1352074133841886</v>
       </c>
     </row>
     <row r="149" ht="15" customHeight="1">
       <c r="F149" t="n">
-        <v>0.05070359422589866</v>
+        <v>0.01555656122022449</v>
       </c>
       <c r="G149" t="n">
-        <v>0.05430745184938255</v>
+        <v>0.136104702995286</v>
       </c>
       <c r="J149" t="n">
-        <v>0.03657107173564361</v>
+        <v>0.0279642754545807</v>
       </c>
       <c r="K149" t="n">
-        <v>0.06603639000131326</v>
+        <v>0.1370329062388743</v>
       </c>
       <c r="L149" t="n">
-        <v>0.0880876466489478</v>
+        <v>0.06938341982475463</v>
       </c>
       <c r="M149" t="n">
-        <v>0.06528706132782769</v>
+        <v>0.1366922070809387</v>
       </c>
       <c r="N149" t="n">
-        <v>0.1376980932976187</v>
+        <v>0.1113645534977653</v>
       </c>
       <c r="O149" t="n">
-        <v>0.06562262980210751</v>
+        <v>0.136836418364721</v>
       </c>
     </row>
     <row r="150" ht="15" customHeight="1">
       <c r="F150" t="n">
-        <v>0.05078741498227114</v>
+        <v>0.01559281230465771</v>
       </c>
       <c r="G150" t="n">
-        <v>0.05495396913330377</v>
+        <v>0.1377249970785633</v>
       </c>
       <c r="J150" t="n">
-        <v>0.03633972299594816</v>
+        <v>0.02781641244836343</v>
       </c>
       <c r="K150" t="n">
-        <v>0.06682253750132888</v>
+        <v>0.1386642503607657</v>
       </c>
       <c r="L150" t="n">
-        <v>0.08775719589604211</v>
+        <v>0.0690184916127761</v>
       </c>
       <c r="M150" t="n">
-        <v>0.06606428824839707</v>
+        <v>0.1383194952604737</v>
       </c>
       <c r="N150" t="n">
-        <v>0.1379824527651011</v>
+        <v>0.1110766601177534</v>
       </c>
       <c r="O150" t="n">
-        <v>0.06640385158546594</v>
+        <v>0.1384654233452534</v>
       </c>
     </row>
     <row r="151" ht="15" customHeight="1">
       <c r="F151" t="n">
-        <v>0.050866074604582</v>
+        <v>0.01663376226387862</v>
       </c>
       <c r="G151" t="n">
-        <v>0.05560048641722499</v>
+        <v>0.1393452911618405</v>
       </c>
       <c r="J151" t="n">
-        <v>0.03610861595455961</v>
+        <v>0.02797659621081496</v>
       </c>
       <c r="K151" t="n">
-        <v>0.06760868500134452</v>
+        <v>0.1402955944826571</v>
       </c>
       <c r="L151" t="n">
-        <v>0.08713436475026123</v>
+        <v>0.06917307979426929</v>
       </c>
       <c r="M151" t="n">
-        <v>0.06684151516896644</v>
+        <v>0.1399467834400086</v>
       </c>
       <c r="N151" t="n">
-        <v>0.1361901889096969</v>
+        <v>0.1111202722210781</v>
       </c>
       <c r="O151" t="n">
-        <v>0.06718507336882436</v>
+        <v>0.1400944283257858</v>
       </c>
     </row>
     <row r="152" ht="15" customHeight="1">
       <c r="F152" t="n">
-        <v>0.05093948125999501</v>
+        <v>0.0156790766216924</v>
       </c>
       <c r="G152" t="n">
-        <v>0.05624700370114621</v>
+        <v>0.1409655852451177</v>
       </c>
       <c r="J152" t="n">
-        <v>0.03597806297248424</v>
+        <v>0.02794428029017632</v>
       </c>
       <c r="K152" t="n">
-        <v>0.06839483250136015</v>
+        <v>0.1419269386045484</v>
       </c>
       <c r="L152" t="n">
-        <v>0.08612068141284829</v>
+        <v>0.06964583637051747</v>
       </c>
       <c r="M152" t="n">
-        <v>0.06761874208953582</v>
+        <v>0.1415740716195436</v>
       </c>
       <c r="N152" t="n">
-        <v>0.136124517379302</v>
+        <v>0.1120932293729085</v>
       </c>
       <c r="O152" t="n">
-        <v>0.06796629515218278</v>
+        <v>0.1417234333063181</v>
       </c>
     </row>
     <row r="153" ht="15" customHeight="1">
       <c r="F153" t="n">
-        <v>0.0510075431156739</v>
+        <v>0.01772842090190423</v>
       </c>
       <c r="G153" t="n">
-        <v>0.05689352098506744</v>
+        <v>0.1425858793283949</v>
       </c>
       <c r="J153" t="n">
-        <v>0.03574837641072845</v>
+        <v>0.02811891823468846</v>
       </c>
       <c r="K153" t="n">
-        <v>0.06918098000137579</v>
+        <v>0.1435582827264398</v>
       </c>
       <c r="L153" t="n">
-        <v>0.08581767408504626</v>
+        <v>0.07003541334280361</v>
       </c>
       <c r="M153" t="n">
-        <v>0.0683959690101052</v>
+        <v>0.1432013597990786</v>
       </c>
       <c r="N153" t="n">
-        <v>0.1356886538218129</v>
+        <v>0.1114933711384134</v>
       </c>
       <c r="O153" t="n">
-        <v>0.06874751693554119</v>
+        <v>0.1433524382868505</v>
       </c>
     </row>
     <row r="154" ht="15" customHeight="1">
       <c r="F154" t="n">
-        <v>0.05107016833878249</v>
+        <v>0.01678146062831926</v>
       </c>
       <c r="G154" t="n">
-        <v>0.05754003826898865</v>
+        <v>0.1442061734116721</v>
       </c>
       <c r="J154" t="n">
-        <v>0.03581986863029855</v>
+        <v>0.02819996359259241</v>
       </c>
       <c r="K154" t="n">
-        <v>0.06996712750139142</v>
+        <v>0.1451896268483312</v>
       </c>
       <c r="L154" t="n">
-        <v>0.08552687096809827</v>
+        <v>0.07034046271241107</v>
       </c>
       <c r="M154" t="n">
-        <v>0.06917319593067457</v>
+        <v>0.1448286479786136</v>
       </c>
       <c r="N154" t="n">
-        <v>0.1350858138851257</v>
+        <v>0.111818537082762</v>
       </c>
       <c r="O154" t="n">
-        <v>0.06952873871889961</v>
+        <v>0.1449814432673829</v>
       </c>
     </row>
     <row r="155" ht="15" customHeight="1">
       <c r="F155" t="n">
-        <v>0.05112726509648447</v>
+        <v>0.0178378613247427</v>
       </c>
       <c r="G155" t="n">
-        <v>0.05818655555290988</v>
+        <v>0.1458264674949493</v>
       </c>
       <c r="J155" t="n">
-        <v>0.03579285199220089</v>
+        <v>0.02838686991212919</v>
       </c>
       <c r="K155" t="n">
-        <v>0.07075327500140705</v>
+        <v>0.1468209709702225</v>
       </c>
       <c r="L155" t="n">
-        <v>0.08524980026324736</v>
+        <v>0.0700596364806228</v>
       </c>
       <c r="M155" t="n">
-        <v>0.06995042285124395</v>
+        <v>0.1464559361581486</v>
       </c>
       <c r="N155" t="n">
-        <v>0.1337192132171369</v>
+        <v>0.1116665667711234</v>
       </c>
       <c r="O155" t="n">
-        <v>0.07030996050225805</v>
+        <v>0.1466104482479153</v>
       </c>
     </row>
     <row r="156" ht="15" customHeight="1">
       <c r="F156" t="n">
-        <v>0.05117874155594365</v>
+        <v>0.01590512449640633</v>
       </c>
       <c r="G156" t="n">
-        <v>0.0588330728368311</v>
+        <v>0.1474467615782265</v>
       </c>
       <c r="J156" t="n">
-        <v>0.03566763885744183</v>
+        <v>0.02837909074153976</v>
       </c>
       <c r="K156" t="n">
-        <v>0.07153942250142269</v>
+        <v>0.1484523150921139</v>
       </c>
       <c r="L156" t="n">
-        <v>0.08528799017173655</v>
+        <v>0.07059189772584423</v>
       </c>
       <c r="M156" t="n">
-        <v>0.07072764977181334</v>
+        <v>0.1480832243376836</v>
       </c>
       <c r="N156" t="n">
-        <v>0.1342920674657424</v>
+        <v>0.1127352997686665</v>
       </c>
       <c r="O156" t="n">
-        <v>0.07109118228561646</v>
+        <v>0.1482394532284477</v>
       </c>
     </row>
     <row r="157" ht="15" customHeight="1">
       <c r="F157" t="n">
-        <v>0.05122450588432375</v>
+        <v>0.0160230943941825</v>
       </c>
       <c r="G157" t="n">
-        <v>0.05947959012075231</v>
+        <v>0.1490670556615037</v>
       </c>
       <c r="J157" t="n">
-        <v>0.03554454158702766</v>
+        <v>0.02870472302635606</v>
       </c>
       <c r="K157" t="n">
-        <v>0.07232557000143831</v>
+        <v>0.1500836592140052</v>
       </c>
       <c r="L157" t="n">
-        <v>0.08504296889480897</v>
+        <v>0.07146088339604043</v>
       </c>
       <c r="M157" t="n">
-        <v>0.0715048766923827</v>
+        <v>0.1497105125172186</v>
       </c>
       <c r="N157" t="n">
-        <v>0.1324075922788386</v>
+        <v>0.1140838856008972</v>
       </c>
       <c r="O157" t="n">
-        <v>0.0718724040689749</v>
+        <v>0.1498684582089801</v>
       </c>
     </row>
     <row r="158" ht="15" customHeight="1">
       <c r="F158" t="n">
-        <v>0.05126446624878853</v>
+        <v>0.01818888175026193</v>
       </c>
       <c r="G158" t="n">
-        <v>0.06012610740467354</v>
+        <v>0.150687349744781</v>
       </c>
       <c r="J158" t="n">
-        <v>0.0351219743874702</v>
+        <v>0.02891755566050999</v>
       </c>
       <c r="K158" t="n">
-        <v>0.07311171750145395</v>
+        <v>0.1517150033358966</v>
       </c>
       <c r="L158" t="n">
-        <v>0.08411161928813848</v>
+        <v>0.07184046776276642</v>
       </c>
       <c r="M158" t="n">
-        <v>0.07228210361295208</v>
+        <v>0.1513378006967535</v>
       </c>
       <c r="N158" t="n">
-        <v>0.1323584252567596</v>
+        <v>0.1134762231082334</v>
       </c>
       <c r="O158" t="n">
-        <v>0.07265362585233331</v>
+        <v>0.1514974631895125</v>
       </c>
     </row>
     <row r="159" ht="15" customHeight="1">
       <c r="F159" t="n">
-        <v>0.05129853081650176</v>
+        <v>0.01639238953560997</v>
       </c>
       <c r="G159" t="n">
-        <v>0.06077262468859476</v>
+        <v>0.1523076438280582</v>
       </c>
       <c r="J159" t="n">
-        <v>0.03499686204632987</v>
+        <v>0.02890344092285428</v>
       </c>
       <c r="K159" t="n">
-        <v>0.07389786500146958</v>
+        <v>0.1533463474577879</v>
       </c>
       <c r="L159" t="n">
-        <v>0.08398643887397927</v>
+        <v>0.07268995799827135</v>
       </c>
       <c r="M159" t="n">
-        <v>0.07305933053352147</v>
+        <v>0.1529650888762885</v>
       </c>
       <c r="N159" t="n">
-        <v>0.1323275528485514</v>
+        <v>0.1151478671539133</v>
       </c>
       <c r="O159" t="n">
-        <v>0.07343484763569173</v>
+        <v>0.1531264681700449</v>
       </c>
     </row>
     <row r="160" ht="15" customHeight="1">
       <c r="F160" t="n">
-        <v>0.05132660775462721</v>
+        <v>0.01762352072119194</v>
       </c>
       <c r="G160" t="n">
-        <v>0.06141914197251599</v>
+        <v>0.1539279379113354</v>
       </c>
       <c r="J160" t="n">
-        <v>0.03506916889473306</v>
+        <v>0.02944588275369292</v>
       </c>
       <c r="K160" t="n">
-        <v>0.07468401250148522</v>
+        <v>0.1549776915796793</v>
       </c>
       <c r="L160" t="n">
-        <v>0.0837667522230543</v>
+        <v>0.07286866127480432</v>
       </c>
       <c r="M160" t="n">
-        <v>0.07383655745409085</v>
+        <v>0.1545923770558235</v>
       </c>
       <c r="N160" t="n">
-        <v>0.1319134773605513</v>
+        <v>0.1161335994247861</v>
       </c>
       <c r="O160" t="n">
-        <v>0.07421606941905017</v>
+        <v>0.1547554731505773</v>
       </c>
     </row>
     <row r="161" ht="15" customHeight="1">
       <c r="F161" t="n">
-        <v>0.05134860523032859</v>
+        <v>0.01887217827797315</v>
       </c>
       <c r="G161" t="n">
-        <v>0.0620656592564372</v>
+        <v>0.1555482319946126</v>
       </c>
       <c r="J161" t="n">
-        <v>0.03503891105740178</v>
+        <v>0.02972838509332999</v>
       </c>
       <c r="K161" t="n">
-        <v>0.07547016000150085</v>
+        <v>0.1566090357015707</v>
       </c>
       <c r="L161" t="n">
-        <v>0.08375200287525836</v>
+        <v>0.07413588476461444</v>
       </c>
       <c r="M161" t="n">
-        <v>0.07461378437466021</v>
+        <v>0.1562196652353585</v>
       </c>
       <c r="N161" t="n">
-        <v>0.1316149604873795</v>
+        <v>0.117968201607701</v>
       </c>
       <c r="O161" t="n">
-        <v>0.07499729120240857</v>
+        <v>0.1563844781311097</v>
       </c>
     </row>
     <row r="162" ht="15" customHeight="1">
       <c r="F162" t="n">
-        <v>0.05136443141076971</v>
+        <v>0.01712826517691893</v>
       </c>
       <c r="G162" t="n">
-        <v>0.06271217654035842</v>
+        <v>0.1571685260778898</v>
       </c>
       <c r="J162" t="n">
-        <v>0.03490610465905795</v>
+        <v>0.03023445188206952</v>
       </c>
       <c r="K162" t="n">
-        <v>0.07625630750151649</v>
+        <v>0.158240379823462</v>
       </c>
       <c r="L162" t="n">
-        <v>0.08304163437048628</v>
+        <v>0.07555093563995091</v>
       </c>
       <c r="M162" t="n">
-        <v>0.07539101129522958</v>
+        <v>0.1578469534148935</v>
       </c>
       <c r="N162" t="n">
-        <v>0.1317307639236562</v>
+        <v>0.1205864553895072</v>
       </c>
       <c r="O162" t="n">
-        <v>0.075778512985767</v>
+        <v>0.1580134831116421</v>
       </c>
     </row>
     <row r="163" ht="15" customHeight="1">
       <c r="F163" t="n">
-        <v>0.05137399446311427</v>
+        <v>0.01738168438899462</v>
       </c>
       <c r="G163" t="n">
-        <v>0.06335869382427965</v>
+        <v>0.158788820161167</v>
       </c>
       <c r="J163" t="n">
-        <v>0.03467076582442352</v>
+        <v>0.03054758706021556</v>
       </c>
       <c r="K163" t="n">
-        <v>0.07704245500153212</v>
+        <v>0.1598717239453534</v>
       </c>
       <c r="L163" t="n">
-        <v>0.08283509024863298</v>
+        <v>0.07617312107306276</v>
       </c>
       <c r="M163" t="n">
-        <v>0.07616823821579898</v>
+        <v>0.1594742415944284</v>
       </c>
       <c r="N163" t="n">
-        <v>0.1298596493640012</v>
+        <v>0.1219231424570541</v>
       </c>
       <c r="O163" t="n">
-        <v>0.07655973476912542</v>
+        <v>0.1596424880921745</v>
       </c>
     </row>
     <row r="164" ht="15" customHeight="1">
       <c r="F164" t="n">
-        <v>0.05137720255452605</v>
+        <v>0.01862233888516554</v>
       </c>
       <c r="G164" t="n">
-        <v>0.06400521110820086</v>
+        <v>0.1604091142444442</v>
       </c>
       <c r="J164" t="n">
-        <v>0.03453291067822045</v>
+        <v>0.03085129456807215</v>
       </c>
       <c r="K164" t="n">
-        <v>0.07782860250154776</v>
+        <v>0.1615030680672448</v>
       </c>
       <c r="L164" t="n">
-        <v>0.08263181404959322</v>
+        <v>0.07686174823619921</v>
       </c>
       <c r="M164" t="n">
-        <v>0.07694546513636834</v>
+        <v>0.1611015297739634</v>
       </c>
       <c r="N164" t="n">
-        <v>0.1306003785030349</v>
+        <v>0.1236130444971908</v>
       </c>
       <c r="O164" t="n">
-        <v>0.07734095655248385</v>
+        <v>0.1612714930727069</v>
       </c>
     </row>
     <row r="165" ht="15" customHeight="1">
       <c r="F165" t="n">
-        <v>0.05137720255452605</v>
+        <v>0.01984013163639702</v>
       </c>
       <c r="G165" t="n">
-        <v>0.06400521110820086</v>
+        <v>0.1620294083277215</v>
       </c>
       <c r="J165" t="n">
-        <v>0.03419255534517074</v>
+        <v>0.03142907834594329</v>
       </c>
       <c r="K165" t="n">
-        <v>0.07861475000156339</v>
+        <v>0.1631344121891361</v>
       </c>
       <c r="L165" t="n">
-        <v>0.08253124931326186</v>
+        <v>0.07777612430160938</v>
       </c>
       <c r="M165" t="n">
-        <v>0.07772269205693771</v>
+        <v>0.1627288179534984</v>
       </c>
       <c r="N165" t="n">
-        <v>0.1294517130353771</v>
+        <v>0.1244909431967666</v>
       </c>
       <c r="O165" t="n">
-        <v>0.07812217833584227</v>
+        <v>0.1629004980532393</v>
       </c>
     </row>
     <row r="166" ht="15" customHeight="1">
       <c r="F166" t="n">
-        <v>0.05051459786918631</v>
+        <v>0.01802797384977085</v>
       </c>
       <c r="G166" t="n">
-        <v>0.06400494257973684</v>
+        <v>0.1636497024109987</v>
       </c>
       <c r="J166" t="n">
-        <v>0.03424971594999628</v>
+        <v>0.03176444233413304</v>
       </c>
       <c r="K166" t="n">
-        <v>0.07940089750157903</v>
+        <v>0.1647657563110275</v>
       </c>
       <c r="L166" t="n">
-        <v>0.08143283957953382</v>
+        <v>0.07917555644154231</v>
       </c>
       <c r="M166" t="n">
-        <v>0.0784999189775071</v>
+        <v>0.1643561061330334</v>
       </c>
       <c r="N166" t="n">
-        <v>0.129712414655648</v>
+        <v>0.1265916202426307</v>
       </c>
       <c r="O166" t="n">
-        <v>0.07890340011920069</v>
+        <v>0.1645295030337716</v>
       </c>
     </row>
     <row r="167" ht="15" customHeight="1">
       <c r="F167" t="n">
-        <v>0.04966159400253903</v>
+        <v>0.02020563061993971</v>
       </c>
       <c r="G167" t="n">
-        <v>0.06400467405127283</v>
+        <v>0.1652699964942759</v>
       </c>
       <c r="J167" t="n">
-        <v>0.03400440861741906</v>
+        <v>0.03185742499127728</v>
       </c>
       <c r="K167" t="n">
-        <v>0.08018704500159465</v>
+        <v>0.1663971004329189</v>
       </c>
       <c r="L167" t="n">
-        <v>0.08103602838830387</v>
+        <v>0.07979302673879166</v>
       </c>
       <c r="M167" t="n">
-        <v>0.07927714589807648</v>
+        <v>0.1659833943125684</v>
       </c>
       <c r="N167" t="n">
-        <v>0.1284812450584676</v>
+        <v>0.1263435497436671</v>
       </c>
       <c r="O167" t="n">
-        <v>0.07968462190255912</v>
+        <v>0.166158508014304</v>
       </c>
     </row>
     <row r="168" ht="15" customHeight="1">
       <c r="F168" t="n">
-        <v>0.04881863045595703</v>
+        <v>0.01937898754400647</v>
       </c>
       <c r="G168" t="n">
-        <v>0.0640044055228088</v>
+        <v>0.1668902905775531</v>
       </c>
       <c r="J168" t="n">
-        <v>0.03375664947216107</v>
+        <v>0.03234132659725127</v>
       </c>
       <c r="K168" t="n">
-        <v>0.08097319250161028</v>
+        <v>0.1680284445548102</v>
       </c>
       <c r="L168" t="n">
-        <v>0.08114025927946694</v>
+        <v>0.08079269472555517</v>
       </c>
       <c r="M168" t="n">
-        <v>0.08005437281864584</v>
+        <v>0.1676106824921034</v>
       </c>
       <c r="N168" t="n">
-        <v>0.1289569659384561</v>
+        <v>0.1284653467692558</v>
       </c>
       <c r="O168" t="n">
-        <v>0.08046584368591754</v>
+        <v>0.1677875129948364</v>
       </c>
     </row>
     <row r="169" ht="15" customHeight="1">
       <c r="F169" t="n">
-        <v>0.04798614673092282</v>
+        <v>0.018548364930122</v>
       </c>
       <c r="G169" t="n">
-        <v>0.06400413699434479</v>
+        <v>0.1685105846608303</v>
       </c>
       <c r="J169" t="n">
-        <v>0.03360645463894422</v>
+        <v>0.03251843037094637</v>
       </c>
       <c r="K169" t="n">
-        <v>0.08175934000162592</v>
+        <v>0.1696597886767016</v>
       </c>
       <c r="L169" t="n">
-        <v>0.08084497579291774</v>
+        <v>0.08137586076102174</v>
       </c>
       <c r="M169" t="n">
-        <v>0.08083159973921523</v>
+        <v>0.1692379706716384</v>
       </c>
       <c r="N169" t="n">
-        <v>0.1285383389902334</v>
+        <v>0.128760514702797</v>
       </c>
       <c r="O169" t="n">
-        <v>0.08124706546927596</v>
+        <v>0.1694165179753688</v>
       </c>
     </row>
     <row r="170" ht="15" customHeight="1">
       <c r="F170" t="n">
-        <v>0.04716458232880871</v>
+        <v>0.01971408308643716</v>
       </c>
       <c r="G170" t="n">
-        <v>0.06400386846588077</v>
+        <v>0.1701308787441075</v>
       </c>
       <c r="J170" t="n">
-        <v>0.03375384024249047</v>
+        <v>0.03268925961702579</v>
       </c>
       <c r="K170" t="n">
-        <v>0.08254548750164155</v>
+        <v>0.1712911327985929</v>
       </c>
       <c r="L170" t="n">
-        <v>0.08094962146855134</v>
+        <v>0.08154381574416417</v>
       </c>
       <c r="M170" t="n">
-        <v>0.08160882665978461</v>
+        <v>0.1708652588511733</v>
       </c>
       <c r="N170" t="n">
-        <v>0.1288241259084197</v>
+        <v>0.1305311224654768</v>
       </c>
       <c r="O170" t="n">
-        <v>0.08202828725263438</v>
+        <v>0.1710455229559012</v>
       </c>
     </row>
     <row r="171" ht="15" customHeight="1">
       <c r="F171" t="n">
-        <v>0.04635437675102388</v>
+        <v>0.01887646232110278</v>
       </c>
       <c r="G171" t="n">
-        <v>0.06400359993741676</v>
+        <v>0.1717511728273848</v>
       </c>
       <c r="J171" t="n">
-        <v>0.03359882240752179</v>
+        <v>0.03305433764015256</v>
       </c>
       <c r="K171" t="n">
-        <v>0.08333163500165719</v>
+        <v>0.1729224769204843</v>
       </c>
       <c r="L171" t="n">
-        <v>0.08075363984626235</v>
+        <v>0.08219785057395543</v>
       </c>
       <c r="M171" t="n">
-        <v>0.08238605358035399</v>
+        <v>0.1724925470307083</v>
       </c>
       <c r="N171" t="n">
-        <v>0.1279130883876349</v>
+        <v>0.1306792389784814</v>
       </c>
       <c r="O171" t="n">
-        <v>0.08280950903599281</v>
+        <v>0.1726745279364336</v>
       </c>
     </row>
     <row r="172" ht="15" customHeight="1">
       <c r="F172" t="n">
-        <v>0.04555596949894302</v>
+        <v>0.02103582294226973</v>
       </c>
       <c r="G172" t="n">
-        <v>0.06400333140895273</v>
+        <v>0.173371466910662</v>
       </c>
       <c r="J172" t="n">
-        <v>0.03314141725876014</v>
+        <v>0.03341418774498987</v>
       </c>
       <c r="K172" t="n">
-        <v>0.08411778250167283</v>
+        <v>0.1745538210423757</v>
       </c>
       <c r="L172" t="n">
-        <v>0.08035647446594579</v>
+        <v>0.08343925614936828</v>
       </c>
       <c r="M172" t="n">
-        <v>0.08316328050092336</v>
+        <v>0.1741198352102433</v>
       </c>
       <c r="N172" t="n">
-        <v>0.1284039881224993</v>
+        <v>0.132306933162997</v>
       </c>
       <c r="O172" t="n">
-        <v>0.08359073081935123</v>
+        <v>0.174303532916966</v>
       </c>
     </row>
     <row r="173" ht="15" customHeight="1">
       <c r="F173" t="n">
-        <v>0.04476980007404486</v>
+        <v>0.01919248525808884</v>
       </c>
       <c r="G173" t="n">
-        <v>0.06400306288048872</v>
+        <v>0.1749917609939392</v>
       </c>
       <c r="J173" t="n">
-        <v>0.03308164092092745</v>
+        <v>0.03376933323620084</v>
       </c>
       <c r="K173" t="n">
-        <v>0.08490393000168846</v>
+        <v>0.176185165164267</v>
       </c>
       <c r="L173" t="n">
-        <v>0.07935756886749643</v>
+        <v>0.08336932336937569</v>
       </c>
       <c r="M173" t="n">
-        <v>0.08394050742149274</v>
+        <v>0.1757471233897783</v>
       </c>
       <c r="N173" t="n">
-        <v>0.1266955868076329</v>
+        <v>0.1340162739402097</v>
       </c>
       <c r="O173" t="n">
-        <v>0.08437195260270965</v>
+        <v>0.1759325378974984</v>
       </c>
     </row>
     <row r="174" ht="15" customHeight="1">
       <c r="F174" t="n">
-        <v>0.04399630797770356</v>
+        <v>0.021346769576711</v>
       </c>
       <c r="G174" t="n">
-        <v>0.0640027943520247</v>
+        <v>0.1766120550772164</v>
       </c>
       <c r="J174" t="n">
-        <v>0.03311950951874575</v>
+        <v>0.03372029741844856</v>
       </c>
       <c r="K174" t="n">
-        <v>0.0856900775017041</v>
+        <v>0.1778165092861584</v>
       </c>
       <c r="L174" t="n">
-        <v>0.07895636659080907</v>
+        <v>0.08418934313295046</v>
       </c>
       <c r="M174" t="n">
-        <v>0.08471773434206212</v>
+        <v>0.1773744115693133</v>
       </c>
       <c r="N174" t="n">
-        <v>0.1273866461376557</v>
+        <v>0.1351093302313055</v>
       </c>
       <c r="O174" t="n">
-        <v>0.08515317438606808</v>
+        <v>0.1775615428780308</v>
       </c>
     </row>
     <row r="175" ht="15" customHeight="1">
       <c r="F175" t="n">
-        <v>0.04323593271132831</v>
+        <v>0.02049899620628703</v>
       </c>
       <c r="G175" t="n">
-        <v>0.0640025258235607</v>
+        <v>0.1782323491604936</v>
       </c>
       <c r="J175" t="n">
-        <v>0.03285503917693691</v>
+        <v>0.03406760359639618</v>
       </c>
       <c r="K175" t="n">
-        <v>0.08647622500171974</v>
+        <v>0.1794478534080498</v>
       </c>
       <c r="L175" t="n">
-        <v>0.0786523111757787</v>
+        <v>0.08530060633906544</v>
       </c>
       <c r="M175" t="n">
-        <v>0.08549496126263149</v>
+        <v>0.1790016997488482</v>
       </c>
       <c r="N175" t="n">
-        <v>0.1274759278071879</v>
+        <v>0.1361881709574708</v>
       </c>
       <c r="O175" t="n">
-        <v>0.0859343961694265</v>
+        <v>0.1791905478585632</v>
       </c>
     </row>
     <row r="176" ht="15" customHeight="1">
       <c r="F176" t="n">
-        <v>0.04248911377629608</v>
+        <v>0.0206494854549678</v>
       </c>
       <c r="G176" t="n">
-        <v>0.06400225729509666</v>
+        <v>0.1798526432437708</v>
       </c>
       <c r="J176" t="n">
-        <v>0.03248824602022293</v>
+        <v>0.03441177507470686</v>
       </c>
       <c r="K176" t="n">
-        <v>0.08726237250173537</v>
+        <v>0.1810791975299411</v>
       </c>
       <c r="L176" t="n">
-        <v>0.07884484616230009</v>
+        <v>0.08520440388669351</v>
       </c>
       <c r="M176" t="n">
-        <v>0.08627218818320087</v>
+        <v>0.1806289879283833</v>
       </c>
       <c r="N176" t="n">
-        <v>0.1261621935108493</v>
+        <v>0.1359548650398917</v>
       </c>
       <c r="O176" t="n">
-        <v>0.08671561795278493</v>
+        <v>0.1808195528390956</v>
       </c>
     </row>
     <row r="177" ht="15" customHeight="1">
       <c r="F177" t="n">
-        <v>0.0417562906740811</v>
+        <v>0.0217985632350543</v>
       </c>
       <c r="G177" t="n">
-        <v>0.06400198876663266</v>
+        <v>0.1814729373270481</v>
       </c>
       <c r="J177" t="n">
-        <v>0.03231914617332576</v>
+        <v>0.03455333515804368</v>
       </c>
       <c r="K177" t="n">
-        <v>0.08804852000175101</v>
+        <v>0.1827105416518325</v>
       </c>
       <c r="L177" t="n">
-        <v>0.07893341509026808</v>
+        <v>0.08630202667480757</v>
       </c>
       <c r="M177" t="n">
-        <v>0.08704941510377025</v>
+        <v>0.1822562761079182</v>
       </c>
       <c r="N177" t="n">
-        <v>0.1264442049432603</v>
+        <v>0.1373114813997542</v>
       </c>
       <c r="O177" t="n">
-        <v>0.08749683973614335</v>
+        <v>0.182448557819628</v>
       </c>
     </row>
     <row r="178" ht="15" customHeight="1">
       <c r="F178" t="n">
-        <v>0.04103790290605975</v>
+        <v>0.02195311532569959</v>
       </c>
       <c r="G178" t="n">
-        <v>0.06400172023816864</v>
+        <v>0.1830932314103253</v>
       </c>
       <c r="J178" t="n">
-        <v>0.03234775576096736</v>
+        <v>0.03469492764290687</v>
       </c>
       <c r="K178" t="n">
-        <v>0.08883466750176663</v>
+        <v>0.1843418857737238</v>
       </c>
       <c r="L178" t="n">
-        <v>0.07781746149957755</v>
+        <v>0.08630607145061353</v>
       </c>
       <c r="M178" t="n">
-        <v>0.08782664202433962</v>
+        <v>0.1838835642874532</v>
       </c>
       <c r="N178" t="n">
-        <v>0.1261207237990407</v>
+        <v>0.1375736663050877</v>
       </c>
       <c r="O178" t="n">
-        <v>0.08827806151950177</v>
+        <v>0.1840775628001604</v>
       </c>
     </row>
     <row r="179" ht="15" customHeight="1">
       <c r="F179" t="n">
-        <v>0.04033438997364121</v>
+        <v>0.02011536056479587</v>
       </c>
       <c r="G179" t="n">
-        <v>0.06400145170970462</v>
+        <v>0.1847135254936025</v>
       </c>
       <c r="J179" t="n">
-        <v>0.03227409090786969</v>
+        <v>0.03515026074379529</v>
       </c>
       <c r="K179" t="n">
-        <v>0.08962081500178228</v>
+        <v>0.1859732298956152</v>
       </c>
       <c r="L179" t="n">
-        <v>0.07759642893012328</v>
+        <v>0.08764554715815775</v>
       </c>
       <c r="M179" t="n">
-        <v>0.08860386894490901</v>
+        <v>0.1855108524669882</v>
       </c>
       <c r="N179" t="n">
-        <v>0.1251905117728108</v>
+        <v>0.1397922096534407</v>
       </c>
       <c r="O179" t="n">
-        <v>0.08905928330286018</v>
+        <v>0.1857065677806927</v>
       </c>
     </row>
     <row r="180" ht="15" customHeight="1">
       <c r="F180" t="n">
-        <v>0.03964619137820507</v>
+        <v>0.02027979662324804</v>
       </c>
       <c r="G180" t="n">
-        <v>0.0640011831812406</v>
+        <v>0.1863338195768797</v>
       </c>
       <c r="J180" t="n">
-        <v>0.03199816773875469</v>
+        <v>0.03531432457430596</v>
       </c>
       <c r="K180" t="n">
-        <v>0.0904069625017979</v>
+        <v>0.1876045740175065</v>
       </c>
       <c r="L180" t="n">
-        <v>0.0771697609218002</v>
+        <v>0.08750191565017038</v>
       </c>
       <c r="M180" t="n">
-        <v>0.08938109586547838</v>
+        <v>0.1871381406465232</v>
       </c>
       <c r="N180" t="n">
-        <v>0.1250523305591905</v>
+        <v>0.1397409822504975</v>
       </c>
       <c r="O180" t="n">
-        <v>0.0898405050862186</v>
+        <v>0.1873355727612251</v>
       </c>
     </row>
     <row r="181" ht="15" customHeight="1">
       <c r="F181" t="n">
-        <v>0.03897374662122041</v>
+        <v>0.02244092117196101</v>
       </c>
       <c r="G181" t="n">
-        <v>0.06400091465277657</v>
+        <v>0.1879541136601569</v>
       </c>
       <c r="J181" t="n">
-        <v>0.03162000237834436</v>
+        <v>0.03567812968329359</v>
       </c>
       <c r="K181" t="n">
-        <v>0.09119311000181353</v>
+        <v>0.1892359181393979</v>
       </c>
       <c r="L181" t="n">
-        <v>0.07693690101450315</v>
+        <v>0.08865300155909259</v>
       </c>
       <c r="M181" t="n">
-        <v>0.09015832278604775</v>
+        <v>0.1887654288260582</v>
       </c>
       <c r="N181" t="n">
-        <v>0.1248049418528001</v>
+        <v>0.1420844436792945</v>
       </c>
       <c r="O181" t="n">
-        <v>0.09062172686957704</v>
+        <v>0.1889645777417575</v>
       </c>
     </row>
     <row r="182" ht="15" customHeight="1">
       <c r="F182" t="n">
-        <v>0.03831749520406614</v>
+        <v>0.02259323188183966</v>
       </c>
       <c r="G182" t="n">
-        <v>0.06400064612431257</v>
+        <v>0.1895744077434341</v>
       </c>
       <c r="J182" t="n">
-        <v>0.03143961095136059</v>
+        <v>0.03593268661961292</v>
       </c>
       <c r="K182" t="n">
-        <v>0.09197925750182917</v>
+        <v>0.1908672622612892</v>
       </c>
       <c r="L182" t="n">
-        <v>0.07709729274812693</v>
+        <v>0.08967662951736571</v>
       </c>
       <c r="M182" t="n">
-        <v>0.09093554970661714</v>
+        <v>0.1903927170055932</v>
       </c>
       <c r="N182" t="n">
-        <v>0.1247471073482593</v>
+        <v>0.1428870535228685</v>
       </c>
       <c r="O182" t="n">
-        <v>0.09140294865293545</v>
+        <v>0.1905935827222899</v>
       </c>
     </row>
     <row r="183" ht="15" customHeight="1">
       <c r="F183" t="n">
-        <v>0.03767787662815147</v>
+        <v>0.02173122642378891</v>
       </c>
       <c r="G183" t="n">
-        <v>0.06400037759584855</v>
+        <v>0.1911947018267113</v>
       </c>
       <c r="J183" t="n">
-        <v>0.0315570095825254</v>
+        <v>0.03596900593211864</v>
       </c>
       <c r="K183" t="n">
-        <v>0.0927654050018448</v>
+        <v>0.1924986063831806</v>
       </c>
       <c r="L183" t="n">
-        <v>0.07655037966256639</v>
+        <v>0.08945062415743091</v>
       </c>
       <c r="M183" t="n">
-        <v>0.09171277662718652</v>
+        <v>0.1920200051851281</v>
       </c>
       <c r="N183" t="n">
-        <v>0.1240775887401885</v>
+        <v>0.1426132713642561</v>
       </c>
       <c r="O183" t="n">
-        <v>0.09218417043629389</v>
+        <v>0.1922225877028223</v>
       </c>
     </row>
     <row r="184" ht="15" customHeight="1">
       <c r="F184" t="n">
-        <v>0.03705533039485884</v>
+        <v>0.02284940246871364</v>
       </c>
       <c r="G184" t="n">
-        <v>0.06400010906738453</v>
+        <v>0.1928149959099885</v>
       </c>
       <c r="J184" t="n">
-        <v>0.0311722143965607</v>
+        <v>0.03617809816966552</v>
       </c>
       <c r="K184" t="n">
-        <v>0.09355155250186044</v>
+        <v>0.194129950505072</v>
       </c>
       <c r="L184" t="n">
-        <v>0.07599560529771643</v>
+        <v>0.09015281011172938</v>
       </c>
       <c r="M184" t="n">
-        <v>0.09249000354775588</v>
+        <v>0.1936472933646631</v>
       </c>
       <c r="N184" t="n">
-        <v>0.1241951477232077</v>
+        <v>0.1439275567864942</v>
       </c>
       <c r="O184" t="n">
-        <v>0.0929653922196523</v>
+        <v>0.1938515926833547</v>
       </c>
     </row>
     <row r="185" ht="15" customHeight="1">
       <c r="F185" t="n">
-        <v>0.03645029600565166</v>
+        <v>0.02194225768751876</v>
       </c>
       <c r="G185" t="n">
-        <v>0.06399984053892051</v>
+        <v>0.1944352899932658</v>
       </c>
       <c r="J185" t="n">
-        <v>0.03108524151818849</v>
+        <v>0.03635097388110826</v>
       </c>
       <c r="K185" t="n">
-        <v>0.09433770000187607</v>
+        <v>0.1957612946269633</v>
       </c>
       <c r="L185" t="n">
-        <v>0.07573241319347185</v>
+        <v>0.09036101201270239</v>
       </c>
       <c r="M185" t="n">
-        <v>0.09326723046832526</v>
+        <v>0.1952745815441981</v>
       </c>
       <c r="N185" t="n">
-        <v>0.1225985459919367</v>
+        <v>0.1441943693726192</v>
       </c>
       <c r="O185" t="n">
-        <v>0.09374661400301072</v>
+        <v>0.1954805976638871</v>
       </c>
     </row>
     <row r="186" ht="15" customHeight="1">
       <c r="F186" t="n">
-        <v>0.03586321296191166</v>
+        <v>0.02300757715644473</v>
       </c>
       <c r="G186" t="n">
-        <v>0.0639995720104565</v>
+        <v>0.196055584076543</v>
       </c>
       <c r="J186" t="n">
-        <v>0.03079610707213068</v>
+        <v>0.0366786436153016</v>
       </c>
       <c r="K186" t="n">
-        <v>0.09512384750189171</v>
+        <v>0.1973926387488547</v>
       </c>
       <c r="L186" t="n">
-        <v>0.07576024688972754</v>
+        <v>0.09105379856299592</v>
       </c>
       <c r="M186" t="n">
-        <v>0.09404445738889465</v>
+        <v>0.1969018697237331</v>
       </c>
       <c r="N186" t="n">
-        <v>0.123386545240996</v>
+        <v>0.1446782290689198</v>
       </c>
       <c r="O186" t="n">
-        <v>0.09452783578636914</v>
+        <v>0.1971096026444195</v>
       </c>
     </row>
     <row r="187" ht="15" customHeight="1">
       <c r="F187" t="n">
-        <v>0.03529452076504797</v>
+        <v>0.02106673114078117</v>
       </c>
       <c r="G187" t="n">
-        <v>0.06399930348199248</v>
+        <v>0.1976758781598202</v>
       </c>
       <c r="J187" t="n">
-        <v>0.03070482718310927</v>
+        <v>0.03687527151984349</v>
       </c>
       <c r="K187" t="n">
-        <v>0.09590999500190733</v>
+        <v>0.1990239828707461</v>
       </c>
       <c r="L187" t="n">
-        <v>0.07477854992637833</v>
+        <v>0.09159186181564</v>
       </c>
       <c r="M187" t="n">
-        <v>0.09482168430946403</v>
+        <v>0.1985291579032681</v>
       </c>
       <c r="N187" t="n">
-        <v>0.1229579071650054</v>
+        <v>0.1457596367052248</v>
       </c>
       <c r="O187" t="n">
-        <v>0.09530905756972756</v>
+        <v>0.1987386076249519</v>
       </c>
     </row>
     <row r="188" ht="15" customHeight="1">
       <c r="F188" t="n">
-        <v>0.03474465891644633</v>
+        <v>0.0231245945013899</v>
       </c>
       <c r="G188" t="n">
-        <v>0.06399903495352846</v>
+        <v>0.1992961722430974</v>
       </c>
       <c r="J188" t="n">
-        <v>0.03041141797584619</v>
+        <v>0.03676961893377195</v>
       </c>
       <c r="K188" t="n">
-        <v>0.09669614250192297</v>
+        <v>0.2006553269926374</v>
       </c>
       <c r="L188" t="n">
-        <v>0.07508676584331908</v>
+        <v>0.09142477298833271</v>
       </c>
       <c r="M188" t="n">
-        <v>0.09559891123003339</v>
+        <v>0.2001564460828031</v>
       </c>
       <c r="N188" t="n">
-        <v>0.1221113934585851</v>
+        <v>0.1467328064295046</v>
       </c>
       <c r="O188" t="n">
-        <v>0.09609027935308599</v>
+        <v>0.2003676126054843</v>
       </c>
     </row>
     <row r="189" ht="15" customHeight="1">
       <c r="F189" t="n">
-        <v>0.03421406691756376</v>
+        <v>0.0231811469889553</v>
       </c>
       <c r="G189" t="n">
-        <v>0.06399876642506444</v>
+        <v>0.2009164663263746</v>
       </c>
       <c r="J189" t="n">
-        <v>0.03011589557506342</v>
+        <v>0.03696185624101403</v>
       </c>
       <c r="K189" t="n">
-        <v>0.0974822900019386</v>
+        <v>0.2022866711145288</v>
       </c>
       <c r="L189" t="n">
-        <v>0.07468433818044459</v>
+        <v>0.09205245047272073</v>
       </c>
       <c r="M189" t="n">
-        <v>0.09637613815060278</v>
+        <v>0.2017837342623381</v>
       </c>
       <c r="N189" t="n">
-        <v>0.120945765816355</v>
+        <v>0.1470976074482155</v>
       </c>
       <c r="O189" t="n">
-        <v>0.09687150113644441</v>
+        <v>0.2019966175860167</v>
       </c>
     </row>
     <row r="190" ht="15" customHeight="1">
       <c r="F190" t="n">
-        <v>0.03370138963903075</v>
+        <v>0.02123636835416174</v>
       </c>
       <c r="G190" t="n">
-        <v>0.06399849789660043</v>
+        <v>0.2025367604096518</v>
       </c>
       <c r="J190" t="n">
-        <v>0.02991827610548289</v>
+        <v>0.03695195035917308</v>
       </c>
       <c r="K190" t="n">
-        <v>0.09826843750195424</v>
+        <v>0.2039180152364202</v>
       </c>
       <c r="L190" t="n">
-        <v>0.07357071047764976</v>
+        <v>0.09187481266045069</v>
       </c>
       <c r="M190" t="n">
-        <v>0.09715336507117216</v>
+        <v>0.203411022441873</v>
       </c>
       <c r="N190" t="n">
-        <v>0.1212597859329353</v>
+        <v>0.1469539089678138</v>
       </c>
       <c r="O190" t="n">
-        <v>0.09765272291980284</v>
+        <v>0.2036256225665491</v>
       </c>
     </row>
     <row r="191" ht="15" customHeight="1">
       <c r="F191" t="n">
-        <v>0.03319629879773136</v>
+        <v>0.02329023834769358</v>
       </c>
       <c r="G191" t="n">
-        <v>0.06399822936813641</v>
+        <v>0.204157054492929</v>
       </c>
       <c r="J191" t="n">
-        <v>0.03001857569182657</v>
+        <v>0.03693986820585247</v>
       </c>
       <c r="K191" t="n">
-        <v>0.09905458500196987</v>
+        <v>0.2055493593583115</v>
       </c>
       <c r="L191" t="n">
-        <v>0.07374532627482946</v>
+        <v>0.09219177794316932</v>
       </c>
       <c r="M191" t="n">
-        <v>0.09793059199174153</v>
+        <v>0.205038310621408</v>
       </c>
       <c r="N191" t="n">
-        <v>0.1206522155029461</v>
+        <v>0.147201580194756</v>
       </c>
       <c r="O191" t="n">
-        <v>0.09843394470316126</v>
+        <v>0.2052546275470815</v>
       </c>
     </row>
     <row r="192" ht="15" customHeight="1">
       <c r="F192" t="n">
-        <v>0.03269743926429913</v>
+        <v>0.02134273672023519</v>
       </c>
       <c r="G192" t="n">
-        <v>0.06399796083967239</v>
+        <v>0.2057773485762062</v>
       </c>
       <c r="J192" t="n">
-        <v>0.02951681045881643</v>
+        <v>0.03702557669865557</v>
       </c>
       <c r="K192" t="n">
-        <v>0.09984073250198551</v>
+        <v>0.2071807034802029</v>
       </c>
       <c r="L192" t="n">
-        <v>0.07310762911187846</v>
+        <v>0.09260326471252334</v>
       </c>
       <c r="M192" t="n">
-        <v>0.09870781891231091</v>
+        <v>0.206665598800943</v>
       </c>
       <c r="N192" t="n">
-        <v>0.1202218162210075</v>
+        <v>0.1478404903354983</v>
       </c>
       <c r="O192" t="n">
-        <v>0.09921516648651969</v>
+        <v>0.2068836325276139</v>
       </c>
     </row>
     <row r="193" ht="15" customHeight="1">
       <c r="F193" t="n">
-        <v>0.03220525054018667</v>
+        <v>0.02339384322247096</v>
       </c>
       <c r="G193" t="n">
-        <v>0.06399769231120837</v>
+        <v>0.2073976426594835</v>
       </c>
       <c r="J193" t="n">
-        <v>0.02930578277728775</v>
+        <v>0.03730904275518571</v>
       </c>
       <c r="K193" t="n">
-        <v>0.1006268800020011</v>
+        <v>0.2088120476020942</v>
       </c>
       <c r="L193" t="n">
-        <v>0.07264539999212061</v>
+        <v>0.09280919136015936</v>
       </c>
       <c r="M193" t="n">
-        <v>0.09948504583288029</v>
+        <v>0.208292886980478</v>
       </c>
       <c r="N193" t="n">
-        <v>0.1191507887173345</v>
+        <v>0.1478705085964971</v>
       </c>
       <c r="O193" t="n">
-        <v>0.09999638826987811</v>
+        <v>0.2085126375081462</v>
       </c>
     </row>
     <row r="194" ht="15" customHeight="1">
       <c r="F194" t="n">
-        <v>0.03172017212678135</v>
+        <v>0.02144353760508525</v>
       </c>
       <c r="G194" t="n">
-        <v>0.06399742378274435</v>
+        <v>0.2090179367427607</v>
       </c>
       <c r="J194" t="n">
-        <v>0.02937771978822876</v>
+        <v>0.03749023329304628</v>
       </c>
       <c r="K194" t="n">
-        <v>0.1014130275020168</v>
+        <v>0.2104433917239856</v>
       </c>
       <c r="L194" t="n">
-        <v>0.07154507073801339</v>
+        <v>0.09260947627772415</v>
       </c>
       <c r="M194" t="n">
-        <v>0.1002622727534497</v>
+        <v>0.209920175160013</v>
       </c>
       <c r="N194" t="n">
-        <v>0.1185208034284007</v>
+        <v>0.1482915041842087</v>
       </c>
       <c r="O194" t="n">
-        <v>0.1007776100532365</v>
+        <v>0.2101416424886786</v>
       </c>
     </row>
     <row r="195" ht="15" customHeight="1">
       <c r="F195" t="n">
-        <v>0.03124264352549231</v>
+        <v>0.02349179961876243</v>
       </c>
       <c r="G195" t="n">
-        <v>0.06399715525428035</v>
+        <v>0.2106382308260379</v>
       </c>
       <c r="J195" t="n">
-        <v>0.02883377137890852</v>
+        <v>0.0373691152298406</v>
       </c>
       <c r="K195" t="n">
-        <v>0.1021991750020324</v>
+        <v>0.2120747358458769</v>
       </c>
       <c r="L195" t="n">
-        <v>0.07140879109536202</v>
+        <v>0.09280403785686425</v>
       </c>
       <c r="M195" t="n">
-        <v>0.101039499674019</v>
+        <v>0.211547463339548</v>
       </c>
       <c r="N195" t="n">
-        <v>0.1182347330654555</v>
+        <v>0.1482033463050896</v>
       </c>
       <c r="O195" t="n">
-        <v>0.1015588318365949</v>
+        <v>0.211770647469211</v>
       </c>
     </row>
     <row r="196" ht="15" customHeight="1">
       <c r="F196" t="n">
-        <v>0.03077310423770851</v>
+        <v>0.02153860901418687</v>
       </c>
       <c r="G196" t="n">
-        <v>0.06399688672581631</v>
+        <v>0.2122585249093151</v>
       </c>
       <c r="J196" t="n">
-        <v>0.02857510229562614</v>
+        <v>0.03754565548317208</v>
       </c>
       <c r="K196" t="n">
-        <v>0.102985322502048</v>
+        <v>0.2137060799677684</v>
       </c>
       <c r="L196" t="n">
-        <v>0.07113876164506636</v>
+        <v>0.09309279448922639</v>
       </c>
       <c r="M196" t="n">
-        <v>0.1018167265945884</v>
+        <v>0.2131747515190829</v>
       </c>
       <c r="N196" t="n">
-        <v>0.1169954888628822</v>
+        <v>0.149205904165596</v>
       </c>
       <c r="O196" t="n">
-        <v>0.1023400536199534</v>
+        <v>0.2133996524497434</v>
       </c>
     </row>
     <row r="197" ht="15" customHeight="1">
       <c r="F197" t="n">
-        <v>0.03031199376488004</v>
+        <v>0.02258394554204295</v>
       </c>
       <c r="G197" t="n">
-        <v>0.06399661819735231</v>
+        <v>0.2138788189925923</v>
       </c>
       <c r="J197" t="n">
-        <v>0.02850287728468062</v>
+        <v>0.03741982097064406</v>
       </c>
       <c r="K197" t="n">
-        <v>0.1037714700020637</v>
+        <v>0.2153374240896597</v>
       </c>
       <c r="L197" t="n">
-        <v>0.07073718296802628</v>
+        <v>0.09287566456645727</v>
       </c>
       <c r="M197" t="n">
-        <v>0.1025939535151578</v>
+        <v>0.2148020396986179</v>
       </c>
       <c r="N197" t="n">
-        <v>0.1164059820550642</v>
+        <v>0.1484990469721844</v>
       </c>
       <c r="O197" t="n">
-        <v>0.1031212754033118</v>
+        <v>0.2150286574302758</v>
       </c>
     </row>
     <row r="198" ht="15" customHeight="1">
       <c r="F198" t="n">
-        <v>0.02985975160839544</v>
+        <v>0.02362778895301503</v>
       </c>
       <c r="G198" t="n">
-        <v>0.06399634966888829</v>
+        <v>0.2154991130758696</v>
       </c>
       <c r="J198" t="n">
-        <v>0.02811826109237112</v>
+        <v>0.0374915786098599</v>
       </c>
       <c r="K198" t="n">
-        <v>0.1045576175020793</v>
+        <v>0.2169687682115511</v>
       </c>
       <c r="L198" t="n">
-        <v>0.0692062556451416</v>
+        <v>0.09305256648020363</v>
       </c>
       <c r="M198" t="n">
-        <v>0.1033711804357272</v>
+        <v>0.2164293278781529</v>
       </c>
       <c r="N198" t="n">
-        <v>0.1152691238763852</v>
+        <v>0.148882643931311</v>
       </c>
       <c r="O198" t="n">
-        <v>0.1039024971866702</v>
+        <v>0.2166576624108082</v>
       </c>
     </row>
     <row r="199" ht="15" customHeight="1">
       <c r="F199" t="n">
-        <v>0.02941681726966392</v>
+        <v>0.02267011899778749</v>
       </c>
       <c r="G199" t="n">
-        <v>0.06399608114042428</v>
+        <v>0.2171194071591468</v>
       </c>
       <c r="J199" t="n">
-        <v>0.02802241846499666</v>
+        <v>0.03756089531842292</v>
       </c>
       <c r="K199" t="n">
-        <v>0.1053437650020949</v>
+        <v>0.2186001123334424</v>
       </c>
       <c r="L199" t="n">
-        <v>0.06874818025731233</v>
+        <v>0.09322341862211206</v>
       </c>
       <c r="M199" t="n">
-        <v>0.1041484073562965</v>
+        <v>0.2180566160576879</v>
       </c>
       <c r="N199" t="n">
-        <v>0.1145878255612284</v>
+        <v>0.1496565642494322</v>
       </c>
       <c r="O199" t="n">
-        <v>0.1046837189700286</v>
+        <v>0.2182866673913406</v>
       </c>
     </row>
     <row r="200" ht="15" customHeight="1">
       <c r="F200" t="n">
-        <v>0.028983630250076</v>
+        <v>0.0237109154270447</v>
       </c>
       <c r="G200" t="n">
-        <v>0.06399581261196025</v>
+        <v>0.218739701242424</v>
       </c>
       <c r="J200" t="n">
-        <v>0.02741651414885635</v>
+        <v>0.03782773801393655</v>
       </c>
       <c r="K200" t="n">
-        <v>0.1061299125021106</v>
+        <v>0.2202314564553338</v>
       </c>
       <c r="L200" t="n">
-        <v>0.06816515738543824</v>
+        <v>0.09418813938382925</v>
       </c>
       <c r="M200" t="n">
-        <v>0.1049256342768659</v>
+        <v>0.2196839042372229</v>
       </c>
       <c r="N200" t="n">
-        <v>0.1133649983439774</v>
+        <v>0.1491206771330044</v>
       </c>
       <c r="O200" t="n">
-        <v>0.1054649407533871</v>
+        <v>0.219915672371873</v>
       </c>
     </row>
     <row r="201" ht="15" customHeight="1">
       <c r="F201" t="n">
-        <v>0.02856063005107862</v>
+        <v>0.02175015799147102</v>
       </c>
       <c r="G201" t="n">
-        <v>0.06399554408349624</v>
+        <v>0.2203599953257012</v>
       </c>
       <c r="J201" t="n">
-        <v>0.02720171289024921</v>
+        <v>0.03799207361400408</v>
       </c>
       <c r="K201" t="n">
-        <v>0.1069160600021262</v>
+        <v>0.2218628005772251</v>
       </c>
       <c r="L201" t="n">
-        <v>0.06795938761041928</v>
+        <v>0.09394664715700191</v>
       </c>
       <c r="M201" t="n">
-        <v>0.1057028611974353</v>
+        <v>0.2213111924167578</v>
       </c>
       <c r="N201" t="n">
-        <v>0.1128035534590157</v>
+        <v>0.1501748517884839</v>
       </c>
       <c r="O201" t="n">
-        <v>0.1062461625367455</v>
+        <v>0.2215446773524054</v>
       </c>
     </row>
     <row r="202" ht="15" customHeight="1">
       <c r="F202" t="n">
-        <v>0.02814825617406189</v>
+        <v>0.02178782644175085</v>
       </c>
       <c r="G202" t="n">
-        <v>0.06399527555503222</v>
+        <v>0.2219802894089784</v>
       </c>
       <c r="J202" t="n">
-        <v>0.02677917943547435</v>
+        <v>0.03775386903622892</v>
       </c>
       <c r="K202" t="n">
-        <v>0.1077022075021419</v>
+        <v>0.2234941446991165</v>
       </c>
       <c r="L202" t="n">
-        <v>0.06693307151315522</v>
+        <v>0.09439886033327666</v>
       </c>
       <c r="M202" t="n">
-        <v>0.1064800881180047</v>
+        <v>0.2229384805962928</v>
       </c>
       <c r="N202" t="n">
-        <v>0.1120064021407267</v>
+        <v>0.149818957422327</v>
       </c>
       <c r="O202" t="n">
-        <v>0.1070273843201039</v>
+        <v>0.2231736823329378</v>
       </c>
     </row>
     <row r="203" ht="15" customHeight="1">
       <c r="F203" t="n">
-        <v>0.02774694812043497</v>
+        <v>0.02182390052856851</v>
       </c>
       <c r="G203" t="n">
-        <v>0.0639950070265682</v>
+        <v>0.2236005834922556</v>
       </c>
       <c r="J203" t="n">
-        <v>0.02665007853083083</v>
+        <v>0.03781309119821442</v>
       </c>
       <c r="K203" t="n">
-        <v>0.1084883550021575</v>
+        <v>0.2251254888210079</v>
       </c>
       <c r="L203" t="n">
-        <v>0.06648840967454606</v>
+        <v>0.09444469730430027</v>
       </c>
       <c r="M203" t="n">
-        <v>0.1072573150385741</v>
+        <v>0.2245657687758278</v>
       </c>
       <c r="N203" t="n">
-        <v>0.1101764556234938</v>
+        <v>0.1506528632409903</v>
       </c>
       <c r="O203" t="n">
-        <v>0.1078086061034623</v>
+        <v>0.2248026873134702</v>
       </c>
     </row>
     <row r="204" ht="15" customHeight="1">
       <c r="F204" t="n">
-        <v>0.02735714539159039</v>
+        <v>0.02385836000260844</v>
       </c>
       <c r="G204" t="n">
-        <v>0.06399473849810418</v>
+        <v>0.2252208775755328</v>
       </c>
       <c r="J204" t="n">
-        <v>0.02631557492261775</v>
+        <v>0.03816970701756392</v>
       </c>
       <c r="K204" t="n">
-        <v>0.1092745025021731</v>
+        <v>0.2267568329428992</v>
       </c>
       <c r="L204" t="n">
-        <v>0.06562760267549161</v>
+        <v>0.09428407646171935</v>
       </c>
       <c r="M204" t="n">
-        <v>0.1080345419591434</v>
+        <v>0.2261930569553628</v>
       </c>
       <c r="N204" t="n">
-        <v>0.1106166251417006</v>
+        <v>0.1504764384509298</v>
       </c>
       <c r="O204" t="n">
-        <v>0.1085898278868207</v>
+        <v>0.2264316922940026</v>
       </c>
     </row>
     <row r="205" ht="15" customHeight="1">
       <c r="F205" t="n">
-        <v>0.02697928748897122</v>
+        <v>0.02289118461455494</v>
       </c>
       <c r="G205" t="n">
-        <v>0.06399446996964016</v>
+        <v>0.22684117165881</v>
       </c>
       <c r="J205" t="n">
-        <v>0.02577683335713417</v>
+        <v>0.03822368341188079</v>
       </c>
       <c r="K205" t="n">
-        <v>0.1100606500021887</v>
+        <v>0.2283881770647906</v>
       </c>
       <c r="L205" t="n">
-        <v>0.06425285109689177</v>
+        <v>0.09471691619718062</v>
       </c>
       <c r="M205" t="n">
-        <v>0.1088117688797128</v>
+        <v>0.2278203451348978</v>
       </c>
       <c r="N205" t="n">
-        <v>0.1083298219297305</v>
+        <v>0.1514895522586022</v>
       </c>
       <c r="O205" t="n">
-        <v>0.1093710496701792</v>
+        <v>0.228060697274535</v>
       </c>
     </row>
     <row r="206" ht="15" customHeight="1">
       <c r="F206" t="n">
-        <v>0.02661381391396945</v>
+        <v>0.02292235411509243</v>
       </c>
       <c r="G206" t="n">
-        <v>0.06399420144117615</v>
+        <v>0.2284614657420873</v>
       </c>
       <c r="J206" t="n">
-        <v>0.02573501858067916</v>
+        <v>0.0382749872987684</v>
       </c>
       <c r="K206" t="n">
-        <v>0.1108467975022044</v>
+        <v>0.2300195211866819</v>
       </c>
       <c r="L206" t="n">
-        <v>0.06376635551964643</v>
+        <v>0.09444313490233072</v>
       </c>
       <c r="M206" t="n">
-        <v>0.1095889958002822</v>
+        <v>0.2294476333144328</v>
       </c>
       <c r="N206" t="n">
-        <v>0.1070189572219669</v>
+        <v>0.1512920738704635</v>
       </c>
       <c r="O206" t="n">
-        <v>0.1101522714535376</v>
+        <v>0.2296897022550674</v>
       </c>
     </row>
     <row r="207" ht="15" customHeight="1">
       <c r="F207" t="n">
-        <v>0.02626116416799427</v>
+        <v>0.02395184825490528</v>
       </c>
       <c r="G207" t="n">
-        <v>0.06399393291271213</v>
+        <v>0.2300817598253645</v>
       </c>
       <c r="J207" t="n">
-        <v>0.02529129533955177</v>
+        <v>0.03832358559583011</v>
       </c>
       <c r="K207" t="n">
-        <v>0.11163294500222</v>
+        <v>0.2316508653085733</v>
       </c>
       <c r="L207" t="n">
-        <v>0.06287031652465544</v>
+        <v>0.09456265096881633</v>
       </c>
       <c r="M207" t="n">
-        <v>0.1103662227208516</v>
+        <v>0.2310749214939677</v>
       </c>
       <c r="N207" t="n">
-        <v>0.1072869422527933</v>
+        <v>0.1521838724929703</v>
       </c>
       <c r="O207" t="n">
-        <v>0.110933493236896</v>
+        <v>0.2313187072355997</v>
       </c>
     </row>
     <row r="208" ht="15" customHeight="1">
       <c r="F208" t="n">
-        <v>0.0259217777524404</v>
+        <v>0.02297964678467784</v>
       </c>
       <c r="G208" t="n">
-        <v>0.06399366438424811</v>
+        <v>0.2317020539086417</v>
       </c>
       <c r="J208" t="n">
-        <v>0.02494682838005112</v>
+        <v>0.03836944522066928</v>
       </c>
       <c r="K208" t="n">
-        <v>0.1124190925022357</v>
+        <v>0.2332822094304647</v>
       </c>
       <c r="L208" t="n">
-        <v>0.06176693469281869</v>
+        <v>0.09447538278828416</v>
       </c>
       <c r="M208" t="n">
-        <v>0.1111434496414209</v>
+        <v>0.2327022096735027</v>
       </c>
       <c r="N208" t="n">
-        <v>0.1056366882565933</v>
+        <v>0.1519648173325789</v>
       </c>
       <c r="O208" t="n">
-        <v>0.1117147150202544</v>
+        <v>0.2329477122161322</v>
       </c>
     </row>
     <row r="209" ht="15" customHeight="1">
       <c r="F209" t="n">
-        <v>0.02559609416874657</v>
+        <v>0.02300572945509449</v>
       </c>
       <c r="G209" t="n">
-        <v>0.06399339585578409</v>
+        <v>0.2333223479919189</v>
       </c>
       <c r="J209" t="n">
-        <v>0.02440278244847625</v>
+        <v>0.03831253309088922</v>
       </c>
       <c r="K209" t="n">
-        <v>0.1132052400022513</v>
+        <v>0.234913553552356</v>
       </c>
       <c r="L209" t="n">
-        <v>0.06185841060503611</v>
+        <v>0.09488124875238091</v>
       </c>
       <c r="M209" t="n">
-        <v>0.1119206765619903</v>
+        <v>0.2343294978530377</v>
       </c>
       <c r="N209" t="n">
-        <v>0.1036711064677502</v>
+        <v>0.1523347775957455</v>
       </c>
       <c r="O209" t="n">
-        <v>0.1124959368036129</v>
+        <v>0.2345767171966645</v>
       </c>
     </row>
     <row r="210" ht="15" customHeight="1">
       <c r="F210" t="n">
-        <v>0.0252845529183069</v>
+        <v>0.02203007601683957</v>
       </c>
       <c r="G210" t="n">
-        <v>0.06399312732732008</v>
+        <v>0.2349426420751961</v>
       </c>
       <c r="J210" t="n">
-        <v>0.02436032229112624</v>
+        <v>0.03825281612409336</v>
       </c>
       <c r="K210" t="n">
-        <v>0.1139913875022669</v>
+        <v>0.2365448976742474</v>
       </c>
       <c r="L210" t="n">
-        <v>0.06044694484220747</v>
+        <v>0.09518016725275322</v>
       </c>
       <c r="M210" t="n">
-        <v>0.1126979034825597</v>
+        <v>0.2359567860325727</v>
       </c>
       <c r="N210" t="n">
-        <v>0.1035931081206474</v>
+        <v>0.1525936224889268</v>
       </c>
       <c r="O210" t="n">
-        <v>0.1132771585869713</v>
+        <v>0.2362057221771969</v>
       </c>
     </row>
     <row r="211" ht="15" customHeight="1">
       <c r="F211" t="n">
-        <v>0.02498759350253058</v>
+        <v>0.0230526662205975</v>
       </c>
       <c r="G211" t="n">
-        <v>0.06399285879885606</v>
+        <v>0.2365629361584733</v>
       </c>
       <c r="J211" t="n">
-        <v>0.02392061265430018</v>
+        <v>0.03849026123788503</v>
       </c>
       <c r="K211" t="n">
-        <v>0.1147775350022826</v>
+        <v>0.2381762417961387</v>
       </c>
       <c r="L211" t="n">
-        <v>0.0593347379852327</v>
+        <v>0.09537205668104776</v>
       </c>
       <c r="M211" t="n">
-        <v>0.1134751304031291</v>
+        <v>0.2375840742121077</v>
       </c>
       <c r="N211" t="n">
-        <v>0.1016056044496686</v>
+        <v>0.1526412212185788</v>
       </c>
       <c r="O211" t="n">
-        <v>0.1140583803703297</v>
+        <v>0.2378347271577293</v>
       </c>
     </row>
     <row r="212" ht="15" customHeight="1">
       <c r="F212" t="n">
-        <v>0.02470565542281487</v>
+        <v>0.02407347981705264</v>
       </c>
       <c r="G212" t="n">
-        <v>0.06399259027039204</v>
+        <v>0.2381832302417506</v>
       </c>
       <c r="J212" t="n">
-        <v>0.02358481828429711</v>
+        <v>0.03852483534986757</v>
       </c>
       <c r="K212" t="n">
-        <v>0.1155636825022982</v>
+        <v>0.2398075859180301</v>
       </c>
       <c r="L212" t="n">
-        <v>0.05912399061501172</v>
+        <v>0.0957568354289112</v>
       </c>
       <c r="M212" t="n">
-        <v>0.1142523573236985</v>
+        <v>0.2392113623916427</v>
       </c>
       <c r="N212" t="n">
-        <v>0.100111506689197</v>
+        <v>0.152677442991158</v>
       </c>
       <c r="O212" t="n">
-        <v>0.1148396021536881</v>
+        <v>0.2394637321382617</v>
       </c>
     </row>
     <row r="213" ht="15" customHeight="1">
       <c r="F213" t="n">
-        <v>0.02443917818059348</v>
+        <v>0.02309249655688937</v>
       </c>
       <c r="G213" t="n">
-        <v>0.06399232174192802</v>
+        <v>0.2398035243250278</v>
       </c>
       <c r="J213" t="n">
-        <v>0.02335410392741614</v>
+        <v>0.03845650537764439</v>
       </c>
       <c r="K213" t="n">
-        <v>0.1163498300023138</v>
+        <v>0.2414389300399215</v>
       </c>
       <c r="L213" t="n">
-        <v>0.05811690331244437</v>
+        <v>0.09573442188799028</v>
       </c>
       <c r="M213" t="n">
-        <v>0.1150295842442678</v>
+        <v>0.2408386505711777</v>
       </c>
       <c r="N213" t="n">
-        <v>0.09881372607361621</v>
+        <v>0.1520021570131208</v>
       </c>
       <c r="O213" t="n">
-        <v>0.1156208239370466</v>
+        <v>0.2410927371187941</v>
       </c>
     </row>
     <row r="214" ht="15" customHeight="1">
       <c r="F214" t="n">
-        <v>0.02418860127726303</v>
+        <v>0.02310969619079201</v>
       </c>
       <c r="G214" t="n">
-        <v>0.06399205321346402</v>
+        <v>0.241423818408305</v>
       </c>
       <c r="J214" t="n">
-        <v>0.02302963432995633</v>
+        <v>0.03838523823881879</v>
       </c>
       <c r="K214" t="n">
-        <v>0.1171359775023294</v>
+        <v>0.2430702741618128</v>
       </c>
       <c r="L214" t="n">
-        <v>0.05771567665843055</v>
+        <v>0.09510473444993159</v>
       </c>
       <c r="M214" t="n">
-        <v>0.1158068111648372</v>
+        <v>0.2424659387507127</v>
       </c>
       <c r="N214" t="n">
-        <v>0.0978151738373097</v>
+        <v>0.1532152324909234</v>
       </c>
       <c r="O214" t="n">
-        <v>0.116402045720405</v>
+        <v>0.2427217420993265</v>
       </c>
     </row>
     <row r="215" ht="15" customHeight="1">
       <c r="F215" t="n">
-        <v>0.02418860127726302</v>
+        <v>0.02312505846944499</v>
       </c>
       <c r="G215" t="n">
-        <v>0.06399205321346402</v>
+        <v>0.2430441124915822</v>
       </c>
       <c r="J215" t="n">
-        <v>0.02251257423821672</v>
+        <v>0.03851100085099418</v>
       </c>
       <c r="K215" t="n">
-        <v>0.1179221250023451</v>
+        <v>0.2447016182837042</v>
       </c>
       <c r="L215" t="n">
-        <v>0.05682251123387005</v>
+        <v>0.09586769150638191</v>
       </c>
       <c r="M215" t="n">
-        <v>0.1165840380854066</v>
+        <v>0.2440932269302477</v>
       </c>
       <c r="N215" t="n">
-        <v>0.09661876121466095</v>
+        <v>0.1519165386310222</v>
       </c>
       <c r="O215" t="n">
-        <v>0.1171832675037634</v>
+        <v>0.2443507470798589</v>
       </c>
     </row>
     <row r="216" ht="15" customHeight="1">
       <c r="F216" t="n">
-        <v>0.02358251406889206</v>
+        <v>0.02413856314353265</v>
       </c>
       <c r="G216" t="n">
-        <v>0.06392173663062087</v>
+        <v>0.2446644065748594</v>
       </c>
       <c r="J216" t="n">
-        <v>0.02230408839849644</v>
+        <v>0.03843376013177388</v>
       </c>
       <c r="K216" t="n">
-        <v>0.1187082725023607</v>
+        <v>0.2463329624055955</v>
       </c>
       <c r="L216" t="n">
-        <v>0.05573960761966293</v>
+        <v>0.09522321144898785</v>
       </c>
       <c r="M216" t="n">
-        <v>0.117361265005976</v>
+        <v>0.2457205151097826</v>
       </c>
       <c r="N216" t="n">
-        <v>0.09632739944005325</v>
+        <v>0.1532059446398737</v>
       </c>
       <c r="O216" t="n">
-        <v>0.1179644892871218</v>
+        <v>0.2459797520603912</v>
       </c>
     </row>
     <row r="217" ht="15" customHeight="1">
       <c r="F217" t="n">
-        <v>0.02298314601494755</v>
+        <v>0.02215018996373937</v>
       </c>
       <c r="G217" t="n">
-        <v>0.06385142004777772</v>
+        <v>0.2462847006581367</v>
       </c>
       <c r="J217" t="n">
-        <v>0.02190534155709455</v>
+        <v>0.03845348299876129</v>
       </c>
       <c r="K217" t="n">
-        <v>0.1194944200023764</v>
+        <v>0.2479643065274869</v>
       </c>
       <c r="L217" t="n">
-        <v>0.05506916639670886</v>
+        <v>0.09577121266939609</v>
       </c>
       <c r="M217" t="n">
-        <v>0.1181384919265453</v>
+        <v>0.2473478032893176</v>
       </c>
       <c r="N217" t="n">
-        <v>0.09394399974787032</v>
+        <v>0.1528833197239342</v>
       </c>
       <c r="O217" t="n">
-        <v>0.1187457110704803</v>
+        <v>0.2476087570409237</v>
       </c>
     </row>
     <row r="218" ht="15" customHeight="1">
       <c r="F218" t="n">
-        <v>0.022390799664332</v>
+        <v>0.02315991868074952</v>
       </c>
       <c r="G218" t="n">
-        <v>0.06378110346493457</v>
+        <v>0.2479049947414139</v>
       </c>
       <c r="J218" t="n">
-        <v>0.0218174984603101</v>
+        <v>0.03867013636955974</v>
       </c>
       <c r="K218" t="n">
-        <v>0.120280567502392</v>
+        <v>0.2495956506493782</v>
       </c>
       <c r="L218" t="n">
-        <v>0.05411338814590788</v>
+        <v>0.09561161355925332</v>
       </c>
       <c r="M218" t="n">
-        <v>0.1189157188471147</v>
+        <v>0.2489750914688526</v>
       </c>
       <c r="N218" t="n">
-        <v>0.09357147337249544</v>
+        <v>0.1531485330896598</v>
       </c>
       <c r="O218" t="n">
-        <v>0.1195269328538387</v>
+        <v>0.2492377620214561</v>
       </c>
     </row>
     <row r="219" ht="15" customHeight="1">
       <c r="F219" t="n">
-        <v>0.02180577756594797</v>
+        <v>0.02316772904524748</v>
       </c>
       <c r="G219" t="n">
-        <v>0.06371078688209142</v>
+        <v>0.2495252888246911</v>
       </c>
       <c r="J219" t="n">
-        <v>0.02124172385444219</v>
+        <v>0.03868368716177258</v>
       </c>
       <c r="K219" t="n">
-        <v>0.1210667150024076</v>
+        <v>0.2512269947712696</v>
       </c>
       <c r="L219" t="n">
-        <v>0.05337447344815979</v>
+        <v>0.09564433251020624</v>
       </c>
       <c r="M219" t="n">
-        <v>0.1196929457676841</v>
+        <v>0.2506023796483876</v>
       </c>
       <c r="N219" t="n">
-        <v>0.09281273154831204</v>
+        <v>0.1531014539435072</v>
       </c>
       <c r="O219" t="n">
-        <v>0.1203081546371971</v>
+        <v>0.2508667670019885</v>
       </c>
     </row>
     <row r="220" ht="15" customHeight="1">
       <c r="F220" t="n">
-        <v>0.02122838226869798</v>
+        <v>0.0231736008079176</v>
       </c>
       <c r="G220" t="n">
-        <v>0.06364047029924827</v>
+        <v>0.2511455829079683</v>
       </c>
       <c r="J220" t="n">
-        <v>0.02107918248578984</v>
+        <v>0.03849410229300319</v>
       </c>
       <c r="K220" t="n">
-        <v>0.1218528625024233</v>
+        <v>0.252858338893161</v>
       </c>
       <c r="L220" t="n">
-        <v>0.05325462288436444</v>
+        <v>0.09556928791390154</v>
       </c>
       <c r="M220" t="n">
-        <v>0.1204701726882535</v>
+        <v>0.2522296678279226</v>
       </c>
       <c r="N220" t="n">
-        <v>0.0916706855097037</v>
+        <v>0.1533419514919325</v>
       </c>
       <c r="O220" t="n">
-        <v>0.1210893764205555</v>
+        <v>0.2524957719825208</v>
       </c>
     </row>
     <row r="221" ht="15" customHeight="1">
       <c r="F221" t="n">
-        <v>0.02065891632148457</v>
+        <v>0.02217751371944426</v>
       </c>
       <c r="G221" t="n">
-        <v>0.06357015371640512</v>
+        <v>0.2527658769912455</v>
       </c>
       <c r="J221" t="n">
-        <v>0.02103103910065221</v>
+        <v>0.03860134868085494</v>
       </c>
       <c r="K221" t="n">
-        <v>0.1226390100024389</v>
+        <v>0.2544896830150524</v>
       </c>
       <c r="L221" t="n">
-        <v>0.05205603703542183</v>
+        <v>0.09538639816198585</v>
       </c>
       <c r="M221" t="n">
-        <v>0.1212473996088228</v>
+        <v>0.2538569560074575</v>
       </c>
       <c r="N221" t="n">
-        <v>0.08954824649105386</v>
+        <v>0.1525698949413922</v>
       </c>
       <c r="O221" t="n">
-        <v>0.121870598203914</v>
+        <v>0.2541247769630532</v>
       </c>
     </row>
     <row r="222" ht="15" customHeight="1">
       <c r="F222" t="n">
-        <v>0.02009768227321026</v>
+        <v>0.02317944753051186</v>
       </c>
       <c r="G222" t="n">
-        <v>0.06349983713356197</v>
+        <v>0.2543861710745227</v>
       </c>
       <c r="J222" t="n">
-        <v>0.02059845844532829</v>
+        <v>0.03870539324293118</v>
       </c>
       <c r="K222" t="n">
-        <v>0.1234251575024545</v>
+        <v>0.2561210271369437</v>
       </c>
       <c r="L222" t="n">
-        <v>0.05178091648223171</v>
+        <v>0.09539558164610584</v>
       </c>
       <c r="M222" t="n">
-        <v>0.1220246265293922</v>
+        <v>0.2554842441869926</v>
       </c>
       <c r="N222" t="n">
-        <v>0.088348325726746</v>
+        <v>0.1531851534983427</v>
       </c>
       <c r="O222" t="n">
-        <v>0.1226518199872724</v>
+        <v>0.2557537819435856</v>
       </c>
     </row>
     <row r="223" ht="15" customHeight="1">
       <c r="F223" t="n">
-        <v>0.01954498267277759</v>
+        <v>0.02317082308354976</v>
       </c>
       <c r="G223" t="n">
-        <v>0.06342952055071882</v>
+        <v>0.2560064651577999</v>
       </c>
       <c r="J223" t="n">
-        <v>0.02028260526611723</v>
+        <v>0.03840308651147384</v>
       </c>
       <c r="K223" t="n">
-        <v>0.1242113050024701</v>
+        <v>0.257752371258835</v>
       </c>
       <c r="L223" t="n">
-        <v>0.05093146180569397</v>
+        <v>0.09588149322933556</v>
       </c>
       <c r="M223" t="n">
-        <v>0.1228018534499616</v>
+        <v>0.2571115323665275</v>
       </c>
       <c r="N223" t="n">
-        <v>0.08837383445116348</v>
+        <v>0.1536687822563808</v>
       </c>
       <c r="O223" t="n">
-        <v>0.1234330417706308</v>
+        <v>0.257382786924118</v>
       </c>
     </row>
     <row r="224" ht="15" customHeight="1">
       <c r="F224" t="n">
-        <v>0.01900112006908908</v>
+        <v>0.0231088333917539</v>
       </c>
       <c r="G224" t="n">
-        <v>0.06335920396787569</v>
+        <v>0.2576267592410771</v>
       </c>
       <c r="J224" t="n">
-        <v>0.02028464430931803</v>
+        <v>0.03852896898496126</v>
       </c>
       <c r="K224" t="n">
-        <v>0.1249974525024858</v>
+        <v>0.2593837153807264</v>
       </c>
       <c r="L224" t="n">
-        <v>0.05040987358670859</v>
+        <v>0.09537405338433347</v>
       </c>
       <c r="M224" t="n">
-        <v>0.123579080370531</v>
+        <v>0.2587388205460625</v>
       </c>
       <c r="N224" t="n">
-        <v>0.08682768389868983</v>
+        <v>0.1523530076116627</v>
       </c>
       <c r="O224" t="n">
-        <v>0.1242142635539892</v>
+        <v>0.2590117919046504</v>
       </c>
     </row>
     <row r="225" ht="15" customHeight="1">
       <c r="F225" t="n">
-        <v>0.01846639701104726</v>
+        <v>0.02199294722379559</v>
       </c>
       <c r="G225" t="n">
-        <v>0.06328888738503254</v>
+        <v>0.2592470533243543</v>
       </c>
       <c r="J225" t="n">
-        <v>0.02010574032122982</v>
+        <v>0.03816460002678848</v>
       </c>
       <c r="K225" t="n">
-        <v>0.1257836000025014</v>
+        <v>0.2610150595026178</v>
       </c>
       <c r="L225" t="n">
-        <v>0.04931835240617538</v>
+        <v>0.09484596090815109</v>
       </c>
       <c r="M225" t="n">
-        <v>0.1243563072911004</v>
+        <v>0.2603661087255975</v>
       </c>
       <c r="N225" t="n">
-        <v>0.08561278530370864</v>
+        <v>0.1519822472757719</v>
       </c>
       <c r="O225" t="n">
-        <v>0.1249954853373476</v>
+        <v>0.2606407968851828</v>
       </c>
     </row>
     <row r="226" ht="15" customHeight="1">
       <c r="F226" t="n">
-        <v>0.01794111604755468</v>
+        <v>0.02282947716982241</v>
       </c>
       <c r="G226" t="n">
-        <v>0.06321857080218939</v>
+        <v>0.2608673474076316</v>
       </c>
       <c r="J226" t="n">
-        <v>0.02004705804815164</v>
+        <v>0.03802029285518559</v>
       </c>
       <c r="K226" t="n">
-        <v>0.1265697475025171</v>
+        <v>0.2626464036245092</v>
       </c>
       <c r="L226" t="n">
-        <v>0.04935909884499423</v>
+        <v>0.09432265666489367</v>
       </c>
       <c r="M226" t="n">
-        <v>0.1251335342116697</v>
+        <v>0.2619933969051325</v>
       </c>
       <c r="N226" t="n">
-        <v>0.08533204990060311</v>
+        <v>0.1504972752704154</v>
       </c>
       <c r="O226" t="n">
-        <v>0.125776707120706</v>
+        <v>0.2622698018657152</v>
       </c>
     </row>
     <row r="227" ht="15" customHeight="1">
       <c r="F227" t="n">
-        <v>0.01742557972751387</v>
+        <v>0.02262473581998194</v>
       </c>
       <c r="G227" t="n">
-        <v>0.06314825421934624</v>
+        <v>0.2624876414909088</v>
       </c>
       <c r="J227" t="n">
-        <v>0.01980976223638256</v>
+        <v>0.03770636068838269</v>
       </c>
       <c r="K227" t="n">
-        <v>0.1273558950025327</v>
+        <v>0.2642777477464005</v>
       </c>
       <c r="L227" t="n">
-        <v>0.048334313484065</v>
+        <v>0.09402958151866633</v>
       </c>
       <c r="M227" t="n">
-        <v>0.1259107611322391</v>
+        <v>0.2636206850846675</v>
       </c>
       <c r="N227" t="n">
-        <v>0.0841883889237568</v>
+        <v>0.1502388656173003</v>
       </c>
       <c r="O227" t="n">
-        <v>0.1265579289040645</v>
+        <v>0.2638988068462476</v>
       </c>
     </row>
     <row r="228" ht="15" customHeight="1">
       <c r="F228" t="n">
-        <v>0.01692009059982734</v>
+        <v>0.02138503576442174</v>
       </c>
       <c r="G228" t="n">
-        <v>0.06307793763650309</v>
+        <v>0.264107935574186</v>
       </c>
       <c r="J228" t="n">
-        <v>0.01959501763222167</v>
+        <v>0.03723311674460994</v>
       </c>
       <c r="K228" t="n">
-        <v>0.1281420425025483</v>
+        <v>0.2659090918682919</v>
       </c>
       <c r="L228" t="n">
-        <v>0.04814619690428756</v>
+        <v>0.09269217633357421</v>
       </c>
       <c r="M228" t="n">
-        <v>0.1266879880528085</v>
+        <v>0.2652479732642024</v>
       </c>
       <c r="N228" t="n">
-        <v>0.08238471360755328</v>
+        <v>0.1484477923381337</v>
       </c>
       <c r="O228" t="n">
-        <v>0.1273391506874229</v>
+        <v>0.26552781182678</v>
       </c>
     </row>
     <row r="229" ht="15" customHeight="1">
       <c r="F229" t="n">
-        <v>0.01642495121339764</v>
+        <v>0.02111668959328939</v>
       </c>
       <c r="G229" t="n">
-        <v>0.06300762105365994</v>
+        <v>0.2657282296574632</v>
       </c>
       <c r="J229" t="n">
-        <v>0.01960398898196805</v>
+        <v>0.03681087424209745</v>
       </c>
       <c r="K229" t="n">
-        <v>0.128928190002564</v>
+        <v>0.2675404359901832</v>
       </c>
       <c r="L229" t="n">
-        <v>0.04759694968656181</v>
+        <v>0.0917358819737224</v>
       </c>
       <c r="M229" t="n">
-        <v>0.1274652149733779</v>
+        <v>0.2668752614437374</v>
       </c>
       <c r="N229" t="n">
-        <v>0.0826239351863759</v>
+        <v>0.1472648294546226</v>
       </c>
       <c r="O229" t="n">
-        <v>0.1281203724707813</v>
+        <v>0.2671568168073123</v>
       </c>
     </row>
     <row r="230" ht="15" customHeight="1">
       <c r="F230" t="n">
-        <v>0.0159404641171273</v>
+        <v>0.02182600989673245</v>
       </c>
       <c r="G230" t="n">
-        <v>0.06293730447081679</v>
+        <v>0.2673485237407404</v>
       </c>
       <c r="J230" t="n">
-        <v>0.01933768780481082</v>
+        <v>0.0364499463990753</v>
       </c>
       <c r="K230" t="n">
-        <v>0.1297143375025796</v>
+        <v>0.2691717801120746</v>
       </c>
       <c r="L230" t="n">
-        <v>0.0473885467830211</v>
+        <v>0.09028613930321619</v>
       </c>
       <c r="M230" t="n">
-        <v>0.1282424418939472</v>
+        <v>0.2685025496232724</v>
       </c>
       <c r="N230" t="n">
-        <v>0.08070865331219174</v>
+        <v>0.145030750988474</v>
       </c>
       <c r="O230" t="n">
-        <v>0.1289015942541397</v>
+        <v>0.2687858217878448</v>
       </c>
     </row>
     <row r="231" ht="15" customHeight="1">
       <c r="F231" t="n">
-        <v>0.01546693185991883</v>
+        <v>0.02151930926489848</v>
       </c>
       <c r="G231" t="n">
-        <v>0.06286698788797364</v>
+        <v>0.2689688178240177</v>
       </c>
       <c r="J231" t="n">
-        <v>0.01938210127624941</v>
+        <v>0.03616064643377363</v>
       </c>
       <c r="K231" t="n">
-        <v>0.1305004850025952</v>
+        <v>0.270803124233966</v>
       </c>
       <c r="L231" t="n">
-        <v>0.04669849998020897</v>
+        <v>0.08976838918616062</v>
       </c>
       <c r="M231" t="n">
-        <v>0.1290196688145166</v>
+        <v>0.2701298378028074</v>
       </c>
       <c r="N231" t="n">
-        <v>0.08131556150968594</v>
+        <v>0.1434863309613951</v>
       </c>
       <c r="O231" t="n">
-        <v>0.1296828160374982</v>
+        <v>0.2704148267683772</v>
       </c>
     </row>
     <row r="232" ht="15" customHeight="1">
       <c r="F232" t="n">
-        <v>0.0150046569906748</v>
+        <v>0.02220290028793506</v>
       </c>
       <c r="G232" t="n">
-        <v>0.06279667130513049</v>
+        <v>0.2705891119072948</v>
       </c>
       <c r="J232" t="n">
-        <v>0.01942754361866314</v>
+        <v>0.03555328756442259</v>
       </c>
       <c r="K232" t="n">
-        <v>0.1312866325026109</v>
+        <v>0.2724344683558573</v>
       </c>
       <c r="L232" t="n">
-        <v>0.0462110465549759</v>
+        <v>0.08830807248666084</v>
       </c>
       <c r="M232" t="n">
-        <v>0.129796895735086</v>
+        <v>0.2717571259823424</v>
       </c>
       <c r="N232" t="n">
-        <v>0.07992886540402738</v>
+        <v>0.140372343395093</v>
       </c>
       <c r="O232" t="n">
-        <v>0.1304640378208566</v>
+        <v>0.2720438317489096</v>
       </c>
     </row>
     <row r="233" ht="15" customHeight="1">
       <c r="F233" t="n">
-        <v>0.01455394205829771</v>
+        <v>0.02088309555598975</v>
       </c>
       <c r="G233" t="n">
-        <v>0.06272635472228734</v>
+        <v>0.2722094059905721</v>
       </c>
       <c r="J233" t="n">
-        <v>0.01927405363061456</v>
+        <v>0.03513818300925227</v>
       </c>
       <c r="K233" t="n">
-        <v>0.1320727800026265</v>
+        <v>0.2740658124777487</v>
       </c>
       <c r="L233" t="n">
-        <v>0.04632658468887646</v>
+        <v>0.08633063006882208</v>
       </c>
       <c r="M233" t="n">
-        <v>0.1305741226556554</v>
+        <v>0.2733844141618774</v>
       </c>
       <c r="N233" t="n">
-        <v>0.07934872984956665</v>
+        <v>0.1388295623112746</v>
       </c>
       <c r="O233" t="n">
-        <v>0.131245259604215</v>
+        <v>0.2736728367294419</v>
       </c>
     </row>
     <row r="234" ht="15" customHeight="1">
       <c r="F234" t="n">
-        <v>0.0141150896116901</v>
+        <v>0.02156620765921013</v>
       </c>
       <c r="G234" t="n">
-        <v>0.0626560381394442</v>
+        <v>0.2738297000738493</v>
       </c>
       <c r="J234" t="n">
-        <v>0.01922167011066626</v>
+        <v>0.03432564598649281</v>
       </c>
       <c r="K234" t="n">
-        <v>0.1328589275026421</v>
+        <v>0.2756971565996401</v>
       </c>
       <c r="L234" t="n">
-        <v>0.04544551256346532</v>
+        <v>0.08526150279674941</v>
       </c>
       <c r="M234" t="n">
-        <v>0.1313513495762248</v>
+        <v>0.2750117023414123</v>
       </c>
       <c r="N234" t="n">
-        <v>0.07887531970065448</v>
+        <v>0.1363987617316469</v>
       </c>
       <c r="O234" t="n">
-        <v>0.1320264813875734</v>
+        <v>0.2753018417099743</v>
       </c>
     </row>
     <row r="235" ht="15" customHeight="1">
       <c r="F235" t="n">
-        <v>0.01368840219975451</v>
+        <v>0.01925854918774377</v>
       </c>
       <c r="G235" t="n">
-        <v>0.06258572155660105</v>
+        <v>0.2754499941571265</v>
       </c>
       <c r="J235" t="n">
-        <v>0.01917043185738079</v>
+        <v>0.03402598971437427</v>
       </c>
       <c r="K235" t="n">
-        <v>0.1336450750026578</v>
+        <v>0.2773285007215314</v>
       </c>
       <c r="L235" t="n">
-        <v>0.04526822836029706</v>
+        <v>0.08412613153454807</v>
       </c>
       <c r="M235" t="n">
-        <v>0.1321285764967941</v>
+        <v>0.2766389905209473</v>
       </c>
       <c r="N235" t="n">
-        <v>0.07760879981164137</v>
+        <v>0.1352207156779172</v>
       </c>
       <c r="O235" t="n">
-        <v>0.1328077031709319</v>
+        <v>0.2769308466905067</v>
       </c>
     </row>
     <row r="236" ht="15" customHeight="1">
       <c r="F236" t="n">
-        <v>0.01327418237139346</v>
+        <v>0.01896643273173823</v>
       </c>
       <c r="G236" t="n">
-        <v>0.0625154049737579</v>
+        <v>0.2770702882404037</v>
       </c>
       <c r="J236" t="n">
-        <v>0.01912037766932076</v>
+        <v>0.03364952741112684</v>
       </c>
       <c r="K236" t="n">
-        <v>0.1344312225026734</v>
+        <v>0.2789598448434227</v>
       </c>
       <c r="L236" t="n">
-        <v>0.04459513026092643</v>
+        <v>0.08354995714632305</v>
       </c>
       <c r="M236" t="n">
-        <v>0.1329058034173635</v>
+        <v>0.2782662787004823</v>
       </c>
       <c r="N236" t="n">
-        <v>0.07684933503687813</v>
+        <v>0.1323361981717925</v>
       </c>
       <c r="O236" t="n">
-        <v>0.1335889249542903</v>
+        <v>0.2785598516710391</v>
       </c>
     </row>
     <row r="237" ht="15" customHeight="1">
       <c r="F237" t="n">
-        <v>0.01287273267550949</v>
+        <v>0.02069617088134109</v>
       </c>
       <c r="G237" t="n">
-        <v>0.06244508839091475</v>
+        <v>0.2786905823236809</v>
       </c>
       <c r="J237" t="n">
-        <v>0.01907154634504872</v>
+        <v>0.03300657229498059</v>
       </c>
       <c r="K237" t="n">
-        <v>0.135217370002689</v>
+        <v>0.2805911889653142</v>
       </c>
       <c r="L237" t="n">
-        <v>0.044326616446908</v>
+        <v>0.08215842049617966</v>
       </c>
       <c r="M237" t="n">
-        <v>0.1336830303379329</v>
+        <v>0.2798935668800173</v>
       </c>
       <c r="N237" t="n">
-        <v>0.07629709023071529</v>
+        <v>0.1309859832349796</v>
       </c>
       <c r="O237" t="n">
-        <v>0.1343701467376487</v>
+        <v>0.2801888566515715</v>
       </c>
     </row>
     <row r="238" ht="15" customHeight="1">
       <c r="F238" t="n">
-        <v>0.01248435566100512</v>
+        <v>0.01944459399907151</v>
       </c>
       <c r="G238" t="n">
-        <v>0.06237477180807161</v>
+        <v>0.2803108764069582</v>
       </c>
       <c r="J238" t="n">
-        <v>0.01922397668312727</v>
+        <v>0.03279856492964528</v>
       </c>
       <c r="K238" t="n">
-        <v>0.1360035175027047</v>
+        <v>0.2822225330872055</v>
       </c>
       <c r="L238" t="n">
-        <v>0.04406308509979637</v>
+        <v>0.08084966399926594</v>
       </c>
       <c r="M238" t="n">
-        <v>0.1344602572585022</v>
+        <v>0.2815208550595523</v>
       </c>
       <c r="N238" t="n">
-        <v>0.07555223024750363</v>
+        <v>0.1298708936734294</v>
       </c>
       <c r="O238" t="n">
-        <v>0.1351513685210071</v>
+        <v>0.2818178616321039</v>
       </c>
     </row>
     <row r="239" ht="15" customHeight="1">
       <c r="F239" t="n">
-        <v>0.0121093538767829</v>
+        <v>0.01919289191674085</v>
       </c>
       <c r="G239" t="n">
-        <v>0.06230445522522846</v>
+        <v>0.2819311704902353</v>
       </c>
       <c r="J239" t="n">
-        <v>0.01917770748211894</v>
+        <v>0.03239316187802917</v>
       </c>
       <c r="K239" t="n">
-        <v>0.1367896650027203</v>
+        <v>0.2838538772090969</v>
       </c>
       <c r="L239" t="n">
-        <v>0.04340493440114626</v>
+        <v>0.08024437559611683</v>
       </c>
       <c r="M239" t="n">
-        <v>0.1352374841790716</v>
+        <v>0.2831481432390873</v>
       </c>
       <c r="N239" t="n">
-        <v>0.07381491994159367</v>
+        <v>0.1279632768576133</v>
       </c>
       <c r="O239" t="n">
-        <v>0.1359325903043656</v>
+        <v>0.2834468666126363</v>
       </c>
     </row>
     <row r="240" ht="15" customHeight="1">
       <c r="F240" t="n">
-        <v>0.01174679446372661</v>
+        <v>0.01794023837937796</v>
       </c>
       <c r="G240" t="n">
-        <v>0.0622341386423853</v>
+        <v>0.2835514645735125</v>
       </c>
       <c r="J240" t="n">
-        <v>0.01893277754058635</v>
+        <v>0.03188621904963933</v>
       </c>
       <c r="K240" t="n">
-        <v>0.1375758125027359</v>
+        <v>0.2854852213309882</v>
       </c>
       <c r="L240" t="n">
-        <v>0.04385256253251224</v>
+        <v>0.0785352756164143</v>
       </c>
       <c r="M240" t="n">
-        <v>0.136014711099641</v>
+        <v>0.2847754314186222</v>
       </c>
       <c r="N240" t="n">
-        <v>0.07318532416733614</v>
+        <v>0.1268495602187985</v>
       </c>
       <c r="O240" t="n">
-        <v>0.136713812087724</v>
+        <v>0.2850758715931687</v>
       </c>
     </row>
     <row r="241" ht="15" customHeight="1">
       <c r="F241" t="n">
-        <v>0.0113895675226269</v>
+        <v>0.01768661843222273</v>
       </c>
       <c r="G241" t="n">
-        <v>0.06216382205954215</v>
+        <v>0.2851717586567897</v>
       </c>
       <c r="J241" t="n">
-        <v>0.01908922565709205</v>
+        <v>0.03127771201207934</v>
       </c>
       <c r="K241" t="n">
-        <v>0.1383619600027516</v>
+        <v>0.2871165654528796</v>
       </c>
       <c r="L241" t="n">
-        <v>0.04320636767544897</v>
+        <v>0.07832230378980784</v>
       </c>
       <c r="M241" t="n">
-        <v>0.1367919380202104</v>
+        <v>0.2864027195981572</v>
       </c>
       <c r="N241" t="n">
-        <v>0.07236360777908168</v>
+        <v>0.1250296471618152</v>
       </c>
       <c r="O241" t="n">
-        <v>0.1374950338710824</v>
+        <v>0.2867048765737011</v>
       </c>
     </row>
     <row r="242" ht="15" customHeight="1">
       <c r="F242" t="n">
-        <v>0.01103674019436756</v>
+        <v>0.018432017120515</v>
       </c>
       <c r="G242" t="n">
-        <v>0.062093505476699</v>
+        <v>0.286792052740067</v>
       </c>
       <c r="J242" t="n">
-        <v>0.01894709063019862</v>
+        <v>0.03106761633295273</v>
       </c>
       <c r="K242" t="n">
-        <v>0.1391481075027672</v>
+        <v>0.2887479095747709</v>
       </c>
       <c r="L242" t="n">
-        <v>0.04256674801151109</v>
+        <v>0.07690539984594683</v>
       </c>
       <c r="M242" t="n">
-        <v>0.1375691649407798</v>
+        <v>0.2880300077776922</v>
       </c>
       <c r="N242" t="n">
-        <v>0.07304993563118095</v>
+        <v>0.1236034410914945</v>
       </c>
       <c r="O242" t="n">
-        <v>0.1382762556544408</v>
+        <v>0.2883338815542335</v>
       </c>
     </row>
     <row r="243" ht="15" customHeight="1">
       <c r="F243" t="n">
-        <v>0.01068861502785112</v>
+        <v>0.0171764194894946</v>
       </c>
       <c r="G243" t="n">
-        <v>0.06202318889385585</v>
+        <v>0.2884123468233442</v>
       </c>
       <c r="J243" t="n">
-        <v>0.01870641125846861</v>
+        <v>0.03065590757986308</v>
       </c>
       <c r="K243" t="n">
-        <v>0.1399342550027828</v>
+        <v>0.2903792536966623</v>
       </c>
       <c r="L243" t="n">
-        <v>0.0424341017222532</v>
+        <v>0.07628450351448091</v>
       </c>
       <c r="M243" t="n">
-        <v>0.1383463918613491</v>
+        <v>0.2896572959572272</v>
       </c>
       <c r="N243" t="n">
-        <v>0.07214447257798473</v>
+        <v>0.1220708454126664</v>
       </c>
       <c r="O243" t="n">
-        <v>0.1390574774377992</v>
+        <v>0.2899628865347659</v>
       </c>
     </row>
     <row r="244" ht="15" customHeight="1">
       <c r="F244" t="n">
-        <v>0.01034549457198012</v>
+        <v>0.01791981058440138</v>
       </c>
       <c r="G244" t="n">
-        <v>0.06195287231101271</v>
+        <v>0.2900326409066214</v>
       </c>
       <c r="J244" t="n">
-        <v>0.01866722634046465</v>
+        <v>0.030042561320414</v>
       </c>
       <c r="K244" t="n">
-        <v>0.1407204025027985</v>
+        <v>0.2920105978185537</v>
       </c>
       <c r="L244" t="n">
-        <v>0.04190882698923004</v>
+        <v>0.0745595545250595</v>
       </c>
       <c r="M244" t="n">
-        <v>0.1391236187819185</v>
+        <v>0.2912845841367622</v>
       </c>
       <c r="N244" t="n">
-        <v>0.07014738347384331</v>
+        <v>0.1191317635301616</v>
       </c>
       <c r="O244" t="n">
-        <v>0.1398386992211577</v>
+        <v>0.2915918915152982</v>
       </c>
     </row>
     <row r="245" ht="15" customHeight="1">
       <c r="F245" t="n">
-        <v>0.01000768137565708</v>
+        <v>0.01666217545047521</v>
       </c>
       <c r="G245" t="n">
-        <v>0.06188255572816956</v>
+        <v>0.2916529349898986</v>
       </c>
       <c r="J245" t="n">
-        <v>0.01892957467474925</v>
+        <v>0.02992755312220897</v>
       </c>
       <c r="K245" t="n">
-        <v>0.1415065500028141</v>
+        <v>0.293641941940445</v>
       </c>
       <c r="L245" t="n">
-        <v>0.04159132199399615</v>
+        <v>0.0743304926073321</v>
       </c>
       <c r="M245" t="n">
-        <v>0.1399008457024879</v>
+        <v>0.2929118723162971</v>
       </c>
       <c r="N245" t="n">
-        <v>0.07015883317310762</v>
+        <v>0.1179860988488108</v>
       </c>
       <c r="O245" t="n">
-        <v>0.1406199210045161</v>
+        <v>0.2932208964958307</v>
       </c>
     </row>
     <row r="246" ht="15" customHeight="1">
       <c r="F246" t="n">
-        <v>0.00967547798778455</v>
+        <v>0.01840349913295593</v>
       </c>
       <c r="G246" t="n">
-        <v>0.06181223914532641</v>
+        <v>0.2932732290731758</v>
       </c>
       <c r="J246" t="n">
-        <v>0.01869349505988505</v>
+        <v>0.02951085855285163</v>
       </c>
       <c r="K246" t="n">
-        <v>0.1422926975028297</v>
+        <v>0.2952732860623364</v>
       </c>
       <c r="L246" t="n">
-        <v>0.04148198491810617</v>
+        <v>0.07269725749094824</v>
       </c>
       <c r="M246" t="n">
-        <v>0.1406780726230573</v>
+        <v>0.2945391604958322</v>
       </c>
       <c r="N246" t="n">
-        <v>0.06897898653012841</v>
+        <v>0.1157337547734444</v>
       </c>
       <c r="O246" t="n">
-        <v>0.1414011427878745</v>
+        <v>0.294849901476363</v>
       </c>
     </row>
     <row r="247" ht="15" customHeight="1">
       <c r="F247" t="n">
-        <v>0.00934918695726504</v>
+        <v>0.01814376667708337</v>
       </c>
       <c r="G247" t="n">
-        <v>0.06174192256248326</v>
+        <v>0.2948935231564531</v>
       </c>
       <c r="J247" t="n">
-        <v>0.01875902629443457</v>
+        <v>0.02889245317994549</v>
       </c>
       <c r="K247" t="n">
-        <v>0.1430788450028454</v>
+        <v>0.2969046301842277</v>
       </c>
       <c r="L247" t="n">
-        <v>0.04108121394311479</v>
+        <v>0.0717597889055574</v>
       </c>
       <c r="M247" t="n">
-        <v>0.1414552995436267</v>
+        <v>0.2961664486753671</v>
       </c>
       <c r="N247" t="n">
-        <v>0.06900800839925608</v>
+        <v>0.1143746347088929</v>
       </c>
       <c r="O247" t="n">
-        <v>0.1421823645712329</v>
+        <v>0.2964789064568955</v>
       </c>
     </row>
     <row r="248" ht="15" customHeight="1">
       <c r="F248" t="n">
-        <v>0.009029110833001106</v>
+        <v>0.01688296312809739</v>
       </c>
       <c r="G248" t="n">
-        <v>0.06167160597964011</v>
+        <v>0.2965138172397303</v>
       </c>
       <c r="J248" t="n">
-        <v>0.01872620717696041</v>
+        <v>0.02867231257109412</v>
       </c>
       <c r="K248" t="n">
-        <v>0.143864992502861</v>
+        <v>0.2985359743061191</v>
       </c>
       <c r="L248" t="n">
-        <v>0.04068940725057663</v>
+        <v>0.07111802658080912</v>
       </c>
       <c r="M248" t="n">
-        <v>0.142232526464196</v>
+        <v>0.2977937368549021</v>
       </c>
       <c r="N248" t="n">
-        <v>0.06864606363484133</v>
+        <v>0.1137086420599869</v>
       </c>
       <c r="O248" t="n">
-        <v>0.1429635863545914</v>
+        <v>0.2981079114374278</v>
       </c>
     </row>
     <row r="249" ht="15" customHeight="1">
       <c r="F249" t="n">
-        <v>0.008715552163895246</v>
+        <v>0.01562107353123784</v>
       </c>
       <c r="G249" t="n">
-        <v>0.06160128939679697</v>
+        <v>0.2981341113230075</v>
       </c>
       <c r="J249" t="n">
-        <v>0.01879507650602516</v>
+        <v>0.02805041229390109</v>
       </c>
       <c r="K249" t="n">
-        <v>0.1446511400028766</v>
+        <v>0.3001673184280105</v>
       </c>
       <c r="L249" t="n">
-        <v>0.04020696302204629</v>
+        <v>0.06967191024635278</v>
       </c>
       <c r="M249" t="n">
-        <v>0.1430097533847654</v>
+        <v>0.2994210250344371</v>
       </c>
       <c r="N249" t="n">
-        <v>0.06769331709123494</v>
+        <v>0.111635680231557</v>
       </c>
       <c r="O249" t="n">
-        <v>0.1437448081379498</v>
+        <v>0.2997369164179602</v>
       </c>
     </row>
     <row r="250" ht="15" customHeight="1">
       <c r="F250" t="n">
-        <v>0.008408813498850018</v>
+        <v>0.01635808293174457</v>
       </c>
       <c r="G250" t="n">
-        <v>0.06153097281395382</v>
+        <v>0.2997544054062847</v>
       </c>
       <c r="J250" t="n">
-        <v>0.01856567308019134</v>
+        <v>0.02772672791596997</v>
       </c>
       <c r="K250" t="n">
-        <v>0.1454372875028923</v>
+        <v>0.3017986625499018</v>
       </c>
       <c r="L250" t="n">
-        <v>0.04043427943907846</v>
+        <v>0.06912137963183801</v>
       </c>
       <c r="M250" t="n">
-        <v>0.1437869803053348</v>
+        <v>0.3010483132139721</v>
       </c>
       <c r="N250" t="n">
-        <v>0.06694993362278751</v>
+        <v>0.1104556526284335</v>
       </c>
       <c r="O250" t="n">
-        <v>0.1445260299213082</v>
+        <v>0.3013659213984926</v>
       </c>
     </row>
     <row r="251" ht="15" customHeight="1">
       <c r="F251" t="n">
-        <v>0.00810919738676795</v>
+        <v>0.01609397637485742</v>
       </c>
       <c r="G251" t="n">
-        <v>0.06146065623111067</v>
+        <v>0.3013746994895619</v>
       </c>
       <c r="J251" t="n">
-        <v>0.0186380356980216</v>
+        <v>0.02730123500490433</v>
       </c>
       <c r="K251" t="n">
-        <v>0.1462234350029079</v>
+        <v>0.3034300066717932</v>
       </c>
       <c r="L251" t="n">
-        <v>0.03977175468322769</v>
+        <v>0.06796637446691425</v>
       </c>
       <c r="M251" t="n">
-        <v>0.1445642072259042</v>
+        <v>0.3026756013935071</v>
       </c>
       <c r="N251" t="n">
-        <v>0.06611607808384962</v>
+        <v>0.108768462655447</v>
       </c>
       <c r="O251" t="n">
-        <v>0.1453072517046666</v>
+        <v>0.302994926379025</v>
       </c>
     </row>
     <row r="252" ht="15" customHeight="1">
       <c r="F252" t="n">
-        <v>0.007817006376551569</v>
+        <v>0.01582873890581624</v>
       </c>
       <c r="G252" t="n">
-        <v>0.06139033964826752</v>
+        <v>0.3029949935728392</v>
       </c>
       <c r="J252" t="n">
-        <v>0.01861220315807846</v>
+        <v>0.02667390912830774</v>
       </c>
       <c r="K252" t="n">
-        <v>0.1470095825029235</v>
+        <v>0.3050613507936846</v>
       </c>
       <c r="L252" t="n">
-        <v>0.04011978693604873</v>
+        <v>0.06680683448123098</v>
       </c>
       <c r="M252" t="n">
-        <v>0.1453414341464735</v>
+        <v>0.3043028895730421</v>
       </c>
       <c r="N252" t="n">
-        <v>0.06499191532877202</v>
+        <v>0.1069740137174283</v>
       </c>
       <c r="O252" t="n">
-        <v>0.1460884734880251</v>
+        <v>0.3046239313595574</v>
       </c>
     </row>
     <row r="253" ht="15" customHeight="1">
       <c r="F253" t="n">
-        <v>0.007532543017103405</v>
+        <v>0.01556235556986087</v>
       </c>
       <c r="G253" t="n">
-        <v>0.06132002306542437</v>
+        <v>0.3046152876561163</v>
       </c>
       <c r="J253" t="n">
-        <v>0.01858821425892451</v>
+        <v>0.0265447258537837</v>
       </c>
       <c r="K253" t="n">
-        <v>0.1477957300029392</v>
+        <v>0.3066926949155759</v>
       </c>
       <c r="L253" t="n">
-        <v>0.03957877437909615</v>
+        <v>0.06584269940443779</v>
       </c>
       <c r="M253" t="n">
-        <v>0.1461186610670429</v>
+        <v>0.305930177752577</v>
       </c>
       <c r="N253" t="n">
-        <v>0.06457761021190533</v>
+        <v>0.1045722092192076</v>
       </c>
       <c r="O253" t="n">
-        <v>0.1468696952713835</v>
+        <v>0.3062529363400898</v>
       </c>
     </row>
     <row r="254" ht="15" customHeight="1">
       <c r="F254" t="n">
-        <v>0.007256109857325992</v>
+        <v>0.01429481141223116</v>
       </c>
       <c r="G254" t="n">
-        <v>0.06124970648258123</v>
+        <v>0.3062355817393936</v>
       </c>
       <c r="J254" t="n">
-        <v>0.01846610779912232</v>
+        <v>0.02611366074893584</v>
       </c>
       <c r="K254" t="n">
-        <v>0.1485818775029548</v>
+        <v>0.3083240390374672</v>
       </c>
       <c r="L254" t="n">
-        <v>0.03944911519392461</v>
+        <v>0.06407390896618409</v>
       </c>
       <c r="M254" t="n">
-        <v>0.1468958879876123</v>
+        <v>0.307557465932112</v>
       </c>
       <c r="N254" t="n">
-        <v>0.06427332758760013</v>
+        <v>0.1036629525656158</v>
       </c>
       <c r="O254" t="n">
-        <v>0.1476509170547419</v>
+        <v>0.3078819413206222</v>
       </c>
     </row>
     <row r="255" ht="15" customHeight="1">
       <c r="F255" t="n">
-        <v>0.006988009446121844</v>
+        <v>0.01502609147816698</v>
       </c>
       <c r="G255" t="n">
-        <v>0.06117938989973808</v>
+        <v>0.3078558758226708</v>
       </c>
       <c r="J255" t="n">
-        <v>0.01844592257723447</v>
+        <v>0.0253806893813677</v>
       </c>
       <c r="K255" t="n">
-        <v>0.1493680250029704</v>
+        <v>0.3099553831593587</v>
       </c>
       <c r="L255" t="n">
-        <v>0.03893120756208873</v>
+        <v>0.06320040289611942</v>
       </c>
       <c r="M255" t="n">
-        <v>0.1476731149081817</v>
+        <v>0.309184754111647</v>
       </c>
       <c r="N255" t="n">
-        <v>0.06397923231020719</v>
+        <v>0.101546147161483</v>
       </c>
       <c r="O255" t="n">
-        <v>0.1484321388381003</v>
+        <v>0.3095109463011546</v>
       </c>
     </row>
     <row r="256" ht="15" customHeight="1">
       <c r="F256" t="n">
-        <v>0.006728544332393525</v>
+        <v>0.01375618081290814</v>
       </c>
       <c r="G256" t="n">
-        <v>0.06110907331689493</v>
+        <v>0.309476169905948</v>
       </c>
       <c r="J256" t="n">
-        <v>0.01862769739182353</v>
+        <v>0.02524578731868282</v>
       </c>
       <c r="K256" t="n">
-        <v>0.1501541725029861</v>
+        <v>0.31158672728125</v>
       </c>
       <c r="L256" t="n">
-        <v>0.03932544966514315</v>
+        <v>0.06192212092389321</v>
       </c>
       <c r="M256" t="n">
-        <v>0.1484503418287511</v>
+        <v>0.310812042291182</v>
       </c>
       <c r="N256" t="n">
-        <v>0.06289548923407706</v>
+        <v>0.09882169641164001</v>
       </c>
       <c r="O256" t="n">
-        <v>0.1492133606214587</v>
+        <v>0.311139951281687</v>
       </c>
     </row>
     <row r="257" ht="15" customHeight="1">
       <c r="F257" t="n">
-        <v>0.00647801706504355</v>
+        <v>0.01448506446169452</v>
       </c>
       <c r="G257" t="n">
-        <v>0.06103875673405178</v>
+        <v>0.3110964639892252</v>
       </c>
       <c r="J257" t="n">
-        <v>0.01841147104145208</v>
+        <v>0.0245089301284848</v>
       </c>
       <c r="K257" t="n">
-        <v>0.1509403200030017</v>
+        <v>0.3132180714031413</v>
       </c>
       <c r="L257" t="n">
-        <v>0.03863223968464252</v>
+        <v>0.06143900277915504</v>
       </c>
       <c r="M257" t="n">
-        <v>0.1492275687493204</v>
+        <v>0.312439330470717</v>
       </c>
       <c r="N257" t="n">
-        <v>0.06342226321356048</v>
+        <v>0.09818950372091728</v>
       </c>
       <c r="O257" t="n">
-        <v>0.1499945824048171</v>
+        <v>0.3127689562622193</v>
       </c>
     </row>
     <row r="258" ht="15" customHeight="1">
       <c r="F258" t="n">
-        <v>0.006236730192974445</v>
+        <v>0.01321272746976596</v>
       </c>
       <c r="G258" t="n">
-        <v>0.06096844015120863</v>
+        <v>0.3127167580725024</v>
       </c>
       <c r="J258" t="n">
-        <v>0.0183972823246827</v>
+        <v>0.02417009337837719</v>
       </c>
       <c r="K258" t="n">
-        <v>0.1517264675030173</v>
+        <v>0.3148494155250327</v>
       </c>
       <c r="L258" t="n">
-        <v>0.03895197580214146</v>
+        <v>0.05995098819155442</v>
       </c>
       <c r="M258" t="n">
-        <v>0.1500047956698898</v>
+        <v>0.3140666186502519</v>
       </c>
       <c r="N258" t="n">
-        <v>0.062559719103008</v>
+        <v>0.09554947249414542</v>
       </c>
       <c r="O258" t="n">
-        <v>0.1507758041881756</v>
+        <v>0.3143979612427518</v>
       </c>
     </row>
     <row r="259" ht="15" customHeight="1">
       <c r="F259" t="n">
-        <v>0.00600498626508876</v>
+        <v>0.0139391548823623</v>
       </c>
       <c r="G259" t="n">
-        <v>0.06089812356836549</v>
+        <v>0.3143370521557796</v>
       </c>
       <c r="J259" t="n">
-        <v>0.01858517004007795</v>
+        <v>0.02382925263596355</v>
       </c>
       <c r="K259" t="n">
-        <v>0.152512615003033</v>
+        <v>0.3164807596469241</v>
       </c>
       <c r="L259" t="n">
-        <v>0.03808505619919464</v>
+        <v>0.05915801689074077</v>
       </c>
       <c r="M259" t="n">
-        <v>0.1507820225904592</v>
+        <v>0.315693906829787</v>
       </c>
       <c r="N259" t="n">
-        <v>0.06100802175677045</v>
+        <v>0.09360150613615481</v>
       </c>
       <c r="O259" t="n">
-        <v>0.151557025971534</v>
+        <v>0.3160269662232841</v>
       </c>
     </row>
     <row r="260" ht="15" customHeight="1">
       <c r="F260" t="n">
-        <v>0.005783087830289003</v>
+        <v>0.01366433174472339</v>
       </c>
       <c r="G260" t="n">
-        <v>0.06082780698552234</v>
+        <v>0.3159573462390569</v>
       </c>
       <c r="J260" t="n">
-        <v>0.01857517298620041</v>
+        <v>0.02348638346884743</v>
       </c>
       <c r="K260" t="n">
-        <v>0.1532987625030486</v>
+        <v>0.3181121037688155</v>
       </c>
       <c r="L260" t="n">
-        <v>0.03863187905735668</v>
+        <v>0.05796002860636362</v>
       </c>
       <c r="M260" t="n">
-        <v>0.1515592495110286</v>
+        <v>0.3173211950093219</v>
       </c>
       <c r="N260" t="n">
-        <v>0.06056733602919834</v>
+        <v>0.09244550805177609</v>
       </c>
       <c r="O260" t="n">
-        <v>0.1523382477548924</v>
+        <v>0.3176559712038166</v>
       </c>
     </row>
     <row r="261" ht="15" customHeight="1">
       <c r="F261" t="n">
-        <v>0.005571337437477716</v>
+        <v>0.01238824310208908</v>
       </c>
       <c r="G261" t="n">
-        <v>0.06075749040267919</v>
+        <v>0.317577640322334</v>
       </c>
       <c r="J261" t="n">
-        <v>0.01846732996161266</v>
+        <v>0.02284146144463242</v>
       </c>
       <c r="K261" t="n">
-        <v>0.1540849100030642</v>
+        <v>0.3197434478907068</v>
       </c>
       <c r="L261" t="n">
-        <v>0.03779284255818216</v>
+        <v>0.05655696306807251</v>
       </c>
       <c r="M261" t="n">
-        <v>0.152336476431598</v>
+        <v>0.3189484831888569</v>
       </c>
       <c r="N261" t="n">
-        <v>0.06043782677464227</v>
+        <v>0.09038138164583986</v>
       </c>
       <c r="O261" t="n">
-        <v>0.1531194695382508</v>
+        <v>0.3192849761843489</v>
       </c>
     </row>
     <row r="262" ht="15" customHeight="1">
       <c r="F262" t="n">
-        <v>0.005370037635557434</v>
+        <v>0.01411087399969921</v>
       </c>
       <c r="G262" t="n">
-        <v>0.06068717381983604</v>
+        <v>0.3191979344056113</v>
       </c>
       <c r="J262" t="n">
-        <v>0.01826167976487728</v>
+        <v>0.02229446213092208</v>
       </c>
       <c r="K262" t="n">
-        <v>0.1548710575030799</v>
+        <v>0.3213747920125982</v>
       </c>
       <c r="L262" t="n">
-        <v>0.03756834488322583</v>
+        <v>0.05564876000551691</v>
       </c>
       <c r="M262" t="n">
-        <v>0.1531137033521673</v>
+        <v>0.3205757713683919</v>
       </c>
       <c r="N262" t="n">
-        <v>0.06051965884745308</v>
+        <v>0.08950903032317659</v>
       </c>
       <c r="O262" t="n">
-        <v>0.1539006913216093</v>
+        <v>0.3209139811648813</v>
       </c>
     </row>
     <row r="263" ht="15" customHeight="1">
       <c r="F263" t="n">
-        <v>0.005179490973430685</v>
+        <v>0.01383220948279363</v>
       </c>
       <c r="G263" t="n">
-        <v>0.06061685723699289</v>
+        <v>0.3208182284888885</v>
       </c>
       <c r="J263" t="n">
-        <v>0.0184582611945568</v>
+        <v>0.02194536109531994</v>
       </c>
       <c r="K263" t="n">
-        <v>0.1556572050030955</v>
+        <v>0.3230061361344895</v>
       </c>
       <c r="L263" t="n">
-        <v>0.03795878421404222</v>
+        <v>0.05453535914834634</v>
       </c>
       <c r="M263" t="n">
-        <v>0.1538909302727367</v>
+        <v>0.3222030595479269</v>
       </c>
       <c r="N263" t="n">
-        <v>0.05871299710198119</v>
+        <v>0.08662835748861669</v>
       </c>
       <c r="O263" t="n">
-        <v>0.1546819131049677</v>
+        <v>0.3225429861454137</v>
       </c>
     </row>
     <row r="264" ht="15" customHeight="1">
       <c r="F264" t="n">
-        <v>0.004999999999999998</v>
+        <v>0.01255223459661219</v>
       </c>
       <c r="G264" t="n">
-        <v>0.06054654065414974</v>
+        <v>0.3224385225721657</v>
       </c>
       <c r="J264" t="n">
-        <v>0.01835711304921385</v>
+        <v>0.0213941339054296</v>
       </c>
       <c r="K264" t="n">
-        <v>0.1564433525031111</v>
+        <v>0.3246374802563809</v>
       </c>
       <c r="L264" t="n">
-        <v>0.03766455873218602</v>
+        <v>0.05371670022621022</v>
       </c>
       <c r="M264" t="n">
-        <v>0.1546681571933061</v>
+        <v>0.3238303477274618</v>
       </c>
       <c r="N264" t="n">
-        <v>0.05931800639257745</v>
+        <v>0.08493926654699085</v>
       </c>
       <c r="O264" t="n">
-        <v>0.1554631348883261</v>
-      </c>
-    </row>
-    <row r="265" ht="15" customHeight="1">
-      <c r="F265" t="n">
-        <v>0.004999999999999998</v>
-      </c>
-      <c r="G265" t="n">
-        <v>0.0605333827594129</v>
-      </c>
-    </row>
-    <row r="266" ht="15" customHeight="1">
-      <c r="F266" t="n">
-        <v>0.005646740624024274</v>
-      </c>
-      <c r="G266" t="n">
-        <v>0.06053365128787691</v>
-      </c>
-    </row>
-    <row r="267" ht="15" customHeight="1">
-      <c r="F267" t="n">
-        <v>0.006289942661583427</v>
-      </c>
-      <c r="G267" t="n">
-        <v>0.06053391981634092</v>
-      </c>
-    </row>
-    <row r="268" ht="15" customHeight="1">
-      <c r="F268" t="n">
-        <v>0.006929566633017602</v>
-      </c>
-      <c r="G268" t="n">
-        <v>0.06053418834480495</v>
-      </c>
-    </row>
-    <row r="269" ht="15" customHeight="1">
-      <c r="F269" t="n">
-        <v>0.007565573058583519</v>
-      </c>
-      <c r="G269" t="n">
-        <v>0.06053445687326896</v>
-      </c>
-    </row>
-    <row r="270" ht="15" customHeight="1">
-      <c r="F270" t="n">
-        <v>0.008197922458621491</v>
-      </c>
-      <c r="G270" t="n">
-        <v>0.06053472540173298</v>
-      </c>
-    </row>
-    <row r="271" ht="15" customHeight="1">
-      <c r="F271" t="n">
-        <v>0.008826575353443923</v>
-      </c>
-      <c r="G271" t="n">
-        <v>0.06053499393019699</v>
-      </c>
-    </row>
-    <row r="272" ht="15" customHeight="1">
-      <c r="F272" t="n">
-        <v>0.009451492263390322</v>
-      </c>
-      <c r="G272" t="n">
-        <v>0.06053526245866102</v>
-      </c>
-    </row>
-    <row r="273" ht="15" customHeight="1">
-      <c r="F273" t="n">
-        <v>0.01007263370871868</v>
-      </c>
-      <c r="G273" t="n">
-        <v>0.06053553098712503</v>
-      </c>
-    </row>
-    <row r="274" ht="15" customHeight="1">
-      <c r="F274" t="n">
-        <v>0.01068996020976869</v>
-      </c>
-      <c r="G274" t="n">
-        <v>0.06053579951558905</v>
-      </c>
-    </row>
-    <row r="275" ht="15" customHeight="1">
-      <c r="F275" t="n">
-        <v>0.01130343228685272</v>
-      </c>
-      <c r="G275" t="n">
-        <v>0.06053606804405307</v>
-      </c>
-    </row>
-    <row r="276" ht="15" customHeight="1">
-      <c r="F276" t="n">
-        <v>0.01191301046030963</v>
-      </c>
-      <c r="G276" t="n">
-        <v>0.06053633657251709</v>
-      </c>
-    </row>
-    <row r="277" ht="15" customHeight="1">
-      <c r="F277" t="n">
-        <v>0.01251865525039876</v>
-      </c>
-      <c r="G277" t="n">
-        <v>0.06053660510098111</v>
-      </c>
-    </row>
-    <row r="278" ht="15" customHeight="1">
-      <c r="F278" t="n">
-        <v>0.01312032717745911</v>
-      </c>
-      <c r="G278" t="n">
-        <v>0.06053687362944512</v>
-      </c>
-    </row>
-    <row r="279" ht="15" customHeight="1">
-      <c r="F279" t="n">
-        <v>0.01371798676180307</v>
-      </c>
-      <c r="G279" t="n">
-        <v>0.06053714215790913</v>
-      </c>
-    </row>
-    <row r="280" ht="15" customHeight="1">
-      <c r="F280" t="n">
-        <v>0.0143115945237688</v>
-      </c>
-      <c r="G280" t="n">
-        <v>0.06053741068637316</v>
-      </c>
-    </row>
-    <row r="281" ht="15" customHeight="1">
-      <c r="F281" t="n">
-        <v>0.01490111098361702</v>
-      </c>
-      <c r="G281" t="n">
-        <v>0.06053767921483717</v>
-      </c>
-    </row>
-    <row r="282" ht="15" customHeight="1">
-      <c r="F282" t="n">
-        <v>0.01548649666168603</v>
-      </c>
-      <c r="G282" t="n">
-        <v>0.06053794774330119</v>
-      </c>
-    </row>
-    <row r="283" ht="15" customHeight="1">
-      <c r="F283" t="n">
-        <v>0.01606771207828826</v>
-      </c>
-      <c r="G283" t="n">
-        <v>0.0605382162717652</v>
-      </c>
-    </row>
-    <row r="284" ht="15" customHeight="1">
-      <c r="F284" t="n">
-        <v>0.01664471775376109</v>
-      </c>
-      <c r="G284" t="n">
-        <v>0.06053848480022923</v>
-      </c>
-    </row>
-    <row r="285" ht="15" customHeight="1">
-      <c r="F285" t="n">
-        <v>0.01721747420836671</v>
-      </c>
-      <c r="G285" t="n">
-        <v>0.06053875332869324</v>
-      </c>
-    </row>
-    <row r="286" ht="15" customHeight="1">
-      <c r="F286" t="n">
-        <v>0.01778594196244273</v>
-      </c>
-      <c r="G286" t="n">
-        <v>0.06053902185715726</v>
-      </c>
-    </row>
-    <row r="287" ht="15" customHeight="1">
-      <c r="F287" t="n">
-        <v>0.01835008153630153</v>
-      </c>
-      <c r="G287" t="n">
-        <v>0.06053929038562127</v>
-      </c>
-    </row>
-    <row r="288" ht="15" customHeight="1">
-      <c r="F288" t="n">
-        <v>0.01890985345027977</v>
-      </c>
-      <c r="G288" t="n">
-        <v>0.0605395589140853</v>
-      </c>
-    </row>
-    <row r="289" ht="15" customHeight="1">
-      <c r="F289" t="n">
-        <v>0.01946521822464113</v>
-      </c>
-      <c r="G289" t="n">
-        <v>0.06053982744254931</v>
-      </c>
-    </row>
-    <row r="290" ht="15" customHeight="1">
-      <c r="F290" t="n">
-        <v>0.02001629758844686</v>
-      </c>
-      <c r="G290" t="n">
-        <v>0.06054009597101333</v>
-      </c>
-    </row>
-    <row r="291" ht="15" customHeight="1">
-      <c r="F291" t="n">
-        <v>0.02056401931435566</v>
-      </c>
-      <c r="G291" t="n">
-        <v>0.06054036449947734</v>
-      </c>
-    </row>
-    <row r="292" ht="15" customHeight="1">
-      <c r="F292" t="n">
-        <v>0.02110850513142792</v>
-      </c>
-      <c r="G292" t="n">
-        <v>0.06054063302794137</v>
-      </c>
-    </row>
-    <row r="293" ht="15" customHeight="1">
-      <c r="F293" t="n">
-        <v>0.02164971555992864</v>
-      </c>
-      <c r="G293" t="n">
-        <v>0.06054090155640538</v>
-      </c>
-    </row>
-    <row r="294" ht="15" customHeight="1">
-      <c r="F294" t="n">
-        <v>0.02218761112019398</v>
-      </c>
-      <c r="G294" t="n">
-        <v>0.06054117008486939</v>
-      </c>
-    </row>
-    <row r="295" ht="15" customHeight="1">
-      <c r="F295" t="n">
-        <v>0.02272215233253636</v>
-      </c>
-      <c r="G295" t="n">
-        <v>0.06054143861333341</v>
-      </c>
-    </row>
-    <row r="296" ht="15" customHeight="1">
-      <c r="F296" t="n">
-        <v>0.0232532997172912</v>
-      </c>
-      <c r="G296" t="n">
-        <v>0.06054170714179744</v>
-      </c>
-    </row>
-    <row r="297" ht="15" customHeight="1">
-      <c r="F297" t="n">
-        <v>0.02378101379472466</v>
-      </c>
-      <c r="G297" t="n">
-        <v>0.06054197567026145</v>
-      </c>
-    </row>
-    <row r="298" ht="15" customHeight="1">
-      <c r="F298" t="n">
-        <v>0.02430525508517232</v>
-      </c>
-      <c r="G298" t="n">
-        <v>0.06054224419872547</v>
-      </c>
-    </row>
-    <row r="299" ht="15" customHeight="1">
-      <c r="F299" t="n">
-        <v>0.02482598410894658</v>
-      </c>
-      <c r="G299" t="n">
-        <v>0.06054251272718948</v>
-      </c>
-    </row>
-    <row r="300" ht="15" customHeight="1">
-      <c r="F300" t="n">
-        <v>0.02534316138638228</v>
-      </c>
-      <c r="G300" t="n">
-        <v>0.06054278125565351</v>
-      </c>
-    </row>
-    <row r="301" ht="15" customHeight="1">
-      <c r="F301" t="n">
-        <v>0.0258567474377468</v>
-      </c>
-      <c r="G301" t="n">
-        <v>0.06054304978411752</v>
-      </c>
-    </row>
-    <row r="302" ht="15" customHeight="1">
-      <c r="F302" t="n">
-        <v>0.0263667027833751</v>
-      </c>
-      <c r="G302" t="n">
-        <v>0.06054331831258154</v>
-      </c>
-    </row>
-    <row r="303" ht="15" customHeight="1">
-      <c r="F303" t="n">
-        <v>0.0268729879435796</v>
-      </c>
-      <c r="G303" t="n">
-        <v>0.06054358684104555</v>
-      </c>
-    </row>
-    <row r="304" ht="15" customHeight="1">
-      <c r="F304" t="n">
-        <v>0.02737556343869445</v>
-      </c>
-      <c r="G304" t="n">
-        <v>0.06054385536950958</v>
-      </c>
-    </row>
-    <row r="305" ht="15" customHeight="1">
-      <c r="F305" t="n">
-        <v>0.02787438978898835</v>
-      </c>
-      <c r="G305" t="n">
-        <v>0.06054412389797359</v>
-      </c>
-    </row>
-    <row r="306" ht="15" customHeight="1">
-      <c r="F306" t="n">
-        <v>0.02836942751479562</v>
-      </c>
-      <c r="G306" t="n">
-        <v>0.0605443924264376</v>
-      </c>
-    </row>
-    <row r="307" ht="15" customHeight="1">
-      <c r="F307" t="n">
-        <v>0.02886063713642866</v>
-      </c>
-      <c r="G307" t="n">
-        <v>0.06054466095490162</v>
-      </c>
-    </row>
-    <row r="308" ht="15" customHeight="1">
-      <c r="F308" t="n">
-        <v>0.02934797917422102</v>
-      </c>
-      <c r="G308" t="n">
-        <v>0.06054492948336564</v>
-      </c>
-    </row>
-    <row r="309" ht="15" customHeight="1">
-      <c r="F309" t="n">
-        <v>0.02983141414844261</v>
-      </c>
-      <c r="G309" t="n">
-        <v>0.06054519801182966</v>
-      </c>
-    </row>
-    <row r="310" ht="15" customHeight="1">
-      <c r="F310" t="n">
-        <v>0.03031090257942718</v>
-      </c>
-      <c r="G310" t="n">
-        <v>0.06054546654029367</v>
-      </c>
-    </row>
-    <row r="311" ht="15" customHeight="1">
-      <c r="F311" t="n">
-        <v>0.0307864049874871</v>
-      </c>
-      <c r="G311" t="n">
-        <v>0.06054573506875769</v>
-      </c>
-    </row>
-    <row r="312" ht="15" customHeight="1">
-      <c r="F312" t="n">
-        <v>0.0312578818929552</v>
-      </c>
-      <c r="G312" t="n">
-        <v>0.06054600359722171</v>
-      </c>
-    </row>
-    <row r="313" ht="15" customHeight="1">
-      <c r="F313" t="n">
-        <v>0.03172529381610286</v>
-      </c>
-      <c r="G313" t="n">
-        <v>0.06054627212568573</v>
-      </c>
-    </row>
-    <row r="314" ht="15" customHeight="1">
-      <c r="F314" t="n">
-        <v>0.03218860127726304</v>
-      </c>
-      <c r="G314" t="n">
-        <v>0.06054654065414974</v>
-      </c>
-    </row>
-    <row r="315" ht="15" customHeight="1">
-      <c r="F315" t="n">
-        <v>0.03218860127726304</v>
-      </c>
-      <c r="G315" t="n">
-        <v>0.0605333827594129</v>
-      </c>
-    </row>
-    <row r="316" ht="15" customHeight="1">
-      <c r="F316" t="n">
-        <v>0.032688250664907</v>
-      </c>
-      <c r="G316" t="n">
-        <v>0.06060423639918409</v>
-      </c>
-    </row>
-    <row r="317" ht="15" customHeight="1">
-      <c r="F317" t="n">
-        <v>0.03318339039017001</v>
-      </c>
-      <c r="G317" t="n">
-        <v>0.06067509003895526</v>
-      </c>
-    </row>
-    <row r="318" ht="15" customHeight="1">
-      <c r="F318" t="n">
-        <v>0.03367390550347722</v>
-      </c>
-      <c r="G318" t="n">
-        <v>0.06074594367872645</v>
-      </c>
-    </row>
-    <row r="319" ht="15" customHeight="1">
-      <c r="F319" t="n">
-        <v>0.03415968105525346</v>
-      </c>
-      <c r="G319" t="n">
-        <v>0.06081679731849763</v>
-      </c>
-    </row>
-    <row r="320" ht="15" customHeight="1">
-      <c r="F320" t="n">
-        <v>0.03464060209592389</v>
-      </c>
-      <c r="G320" t="n">
-        <v>0.06088765095826881</v>
-      </c>
-    </row>
-    <row r="321" ht="15" customHeight="1">
-      <c r="F321" t="n">
-        <v>0.03511655367591337</v>
-      </c>
-      <c r="G321" t="n">
-        <v>0.06095850459804</v>
-      </c>
-    </row>
-    <row r="322" ht="15" customHeight="1">
-      <c r="F322" t="n">
-        <v>0.03558742084564704</v>
-      </c>
-      <c r="G322" t="n">
-        <v>0.06102935823781118</v>
-      </c>
-    </row>
-    <row r="323" ht="15" customHeight="1">
-      <c r="F323" t="n">
-        <v>0.03605308865554976</v>
-      </c>
-      <c r="G323" t="n">
-        <v>0.06110021187758236</v>
-      </c>
-    </row>
-    <row r="324" ht="15" customHeight="1">
-      <c r="F324" t="n">
-        <v>0.03651344215604665</v>
-      </c>
-      <c r="G324" t="n">
-        <v>0.06117106551735355</v>
-      </c>
-    </row>
-    <row r="325" ht="15" customHeight="1">
-      <c r="F325" t="n">
-        <v>0.03696836639756259</v>
-      </c>
-      <c r="G325" t="n">
-        <v>0.06124191915712472</v>
-      </c>
-    </row>
-    <row r="326" ht="15" customHeight="1">
-      <c r="F326" t="n">
-        <v>0.03741774643052271</v>
-      </c>
-      <c r="G326" t="n">
-        <v>0.06131277279689591</v>
-      </c>
-    </row>
-    <row r="327" ht="15" customHeight="1">
-      <c r="F327" t="n">
-        <v>0.03786146730535189</v>
-      </c>
-      <c r="G327" t="n">
-        <v>0.06138362643666709</v>
-      </c>
-    </row>
-    <row r="328" ht="15" customHeight="1">
-      <c r="F328" t="n">
-        <v>0.03829941407247523</v>
-      </c>
-      <c r="G328" t="n">
-        <v>0.06145448007643828</v>
-      </c>
-    </row>
-    <row r="329" ht="15" customHeight="1">
-      <c r="F329" t="n">
-        <v>0.03873147178231764</v>
-      </c>
-      <c r="G329" t="n">
-        <v>0.06152533371620945</v>
-      </c>
-    </row>
-    <row r="330" ht="15" customHeight="1">
-      <c r="F330" t="n">
-        <v>0.03915752548530422</v>
-      </c>
-      <c r="G330" t="n">
-        <v>0.06159618735598064</v>
-      </c>
-    </row>
-    <row r="331" ht="15" customHeight="1">
-      <c r="F331" t="n">
-        <v>0.03957746023185984</v>
-      </c>
-      <c r="G331" t="n">
-        <v>0.06166704099575182</v>
-      </c>
-    </row>
-    <row r="332" ht="15" customHeight="1">
-      <c r="F332" t="n">
-        <v>0.03999116107240964</v>
-      </c>
-      <c r="G332" t="n">
-        <v>0.06173789463552301</v>
-      </c>
-    </row>
-    <row r="333" ht="15" customHeight="1">
-      <c r="F333" t="n">
-        <v>0.04039851305737848</v>
-      </c>
-      <c r="G333" t="n">
-        <v>0.06180874827529419</v>
-      </c>
-    </row>
-    <row r="334" ht="15" customHeight="1">
-      <c r="F334" t="n">
-        <v>0.04079940123719151</v>
-      </c>
-      <c r="G334" t="n">
-        <v>0.06187960191506538</v>
-      </c>
-    </row>
-    <row r="335" ht="15" customHeight="1">
-      <c r="F335" t="n">
-        <v>0.04119371066227358</v>
-      </c>
-      <c r="G335" t="n">
-        <v>0.06195045555483655</v>
-      </c>
-    </row>
-    <row r="336" ht="15" customHeight="1">
-      <c r="F336" t="n">
-        <v>0.04158132638304982</v>
-      </c>
-      <c r="G336" t="n">
-        <v>0.06202130919460774</v>
-      </c>
-    </row>
-    <row r="337" ht="15" customHeight="1">
-      <c r="F337" t="n">
-        <v>0.04196213344994513</v>
-      </c>
-      <c r="G337" t="n">
-        <v>0.06209216283437892</v>
-      </c>
-    </row>
-    <row r="338" ht="15" customHeight="1">
-      <c r="F338" t="n">
-        <v>0.04233601691338457</v>
-      </c>
-      <c r="G338" t="n">
-        <v>0.0621630164741501</v>
-      </c>
-    </row>
-    <row r="339" ht="15" customHeight="1">
-      <c r="F339" t="n">
-        <v>0.04270286182379309</v>
-      </c>
-      <c r="G339" t="n">
-        <v>0.06223387011392129</v>
-      </c>
-    </row>
-    <row r="340" ht="15" customHeight="1">
-      <c r="F340" t="n">
-        <v>0.04306302260902701</v>
-      </c>
-      <c r="G340" t="n">
-        <v>0.06230472375369247</v>
-      </c>
-    </row>
-    <row r="341" ht="15" customHeight="1">
-      <c r="F341" t="n">
-        <v>0.04341920058409875</v>
-      </c>
-      <c r="G341" t="n">
-        <v>0.06237557739346365</v>
-      </c>
-    </row>
-    <row r="342" ht="15" customHeight="1">
-      <c r="F342" t="n">
-        <v>0.04377175017686467</v>
-      </c>
-      <c r="G342" t="n">
-        <v>0.06244643103323484</v>
-      </c>
-    </row>
-    <row r="343" ht="15" customHeight="1">
-      <c r="F343" t="n">
-        <v>0.04412055643774965</v>
-      </c>
-      <c r="G343" t="n">
-        <v>0.06251728467300602</v>
-      </c>
-    </row>
-    <row r="344" ht="15" customHeight="1">
-      <c r="F344" t="n">
-        <v>0.0444655044171788</v>
-      </c>
-      <c r="G344" t="n">
-        <v>0.06258813831277721</v>
-      </c>
-    </row>
-    <row r="345" ht="15" customHeight="1">
-      <c r="F345" t="n">
-        <v>0.04480647916557703</v>
-      </c>
-      <c r="G345" t="n">
-        <v>0.06265899195254838</v>
-      </c>
-    </row>
-    <row r="346" ht="15" customHeight="1">
-      <c r="F346" t="n">
-        <v>0.04514336573336943</v>
-      </c>
-      <c r="G346" t="n">
-        <v>0.06272984559231957</v>
-      </c>
-    </row>
-    <row r="347" ht="15" customHeight="1">
-      <c r="F347" t="n">
-        <v>0.04547604917098089</v>
-      </c>
-      <c r="G347" t="n">
-        <v>0.06280069923209075</v>
-      </c>
-    </row>
-    <row r="348" ht="15" customHeight="1">
-      <c r="F348" t="n">
-        <v>0.04580441452883652</v>
-      </c>
-      <c r="G348" t="n">
-        <v>0.06287155287186193</v>
-      </c>
-    </row>
-    <row r="349" ht="15" customHeight="1">
-      <c r="F349" t="n">
-        <v>0.04612834685736122</v>
-      </c>
-      <c r="G349" t="n">
-        <v>0.06294240651163312</v>
-      </c>
-    </row>
-    <row r="350" ht="15" customHeight="1">
-      <c r="F350" t="n">
-        <v>0.0464477312069801</v>
-      </c>
-      <c r="G350" t="n">
-        <v>0.06301326015140429</v>
-      </c>
-    </row>
-    <row r="351" ht="15" customHeight="1">
-      <c r="F351" t="n">
-        <v>0.04676245262811803</v>
-      </c>
-      <c r="G351" t="n">
-        <v>0.06308411379117547</v>
-      </c>
-    </row>
-    <row r="352" ht="15" customHeight="1">
-      <c r="F352" t="n">
-        <v>0.04707239617120013</v>
-      </c>
-      <c r="G352" t="n">
-        <v>0.06315496743094666</v>
-      </c>
-    </row>
-    <row r="353" ht="15" customHeight="1">
-      <c r="F353" t="n">
-        <v>0.04737744688665132</v>
-      </c>
-      <c r="G353" t="n">
-        <v>0.06322582107071784</v>
-      </c>
-    </row>
-    <row r="354" ht="15" customHeight="1">
-      <c r="F354" t="n">
-        <v>0.04767748982489663</v>
-      </c>
-      <c r="G354" t="n">
-        <v>0.06329667471048903</v>
-      </c>
-    </row>
-    <row r="355" ht="15" customHeight="1">
-      <c r="F355" t="n">
-        <v>0.04797241003636104</v>
-      </c>
-      <c r="G355" t="n">
-        <v>0.0633675283502602</v>
-      </c>
-    </row>
-    <row r="356" ht="15" customHeight="1">
-      <c r="F356" t="n">
-        <v>0.04826209257146962</v>
-      </c>
-      <c r="G356" t="n">
-        <v>0.06343838199003139</v>
-      </c>
-    </row>
-    <row r="357" ht="15" customHeight="1">
-      <c r="F357" t="n">
-        <v>0.04854642248064726</v>
-      </c>
-      <c r="G357" t="n">
-        <v>0.06350923562980257</v>
-      </c>
-    </row>
-    <row r="358" ht="15" customHeight="1">
-      <c r="F358" t="n">
-        <v>0.04882528481431905</v>
-      </c>
-      <c r="G358" t="n">
-        <v>0.06358008926957376</v>
-      </c>
-    </row>
-    <row r="359" ht="15" customHeight="1">
-      <c r="F359" t="n">
-        <v>0.04909856462290992</v>
-      </c>
-      <c r="G359" t="n">
-        <v>0.06365094290934493</v>
-      </c>
-    </row>
-    <row r="360" ht="15" customHeight="1">
-      <c r="F360" t="n">
-        <v>0.04936614695684493</v>
-      </c>
-      <c r="G360" t="n">
-        <v>0.06372179654911612</v>
-      </c>
-    </row>
-    <row r="361" ht="15" customHeight="1">
-      <c r="F361" t="n">
-        <v>0.04962791686654903</v>
-      </c>
-      <c r="G361" t="n">
-        <v>0.0637926501888873</v>
-      </c>
-    </row>
-    <row r="362" ht="15" customHeight="1">
-      <c r="F362" t="n">
-        <v>0.04988375940244728</v>
-      </c>
-      <c r="G362" t="n">
-        <v>0.06386350382865849</v>
-      </c>
-    </row>
-    <row r="363" ht="15" customHeight="1">
-      <c r="F363" t="n">
-        <v>0.05013355961496464</v>
-      </c>
-      <c r="G363" t="n">
-        <v>0.06393435746842968</v>
-      </c>
-    </row>
-    <row r="364" ht="15" customHeight="1">
-      <c r="F364" t="n">
-        <v>0.05037720255452607</v>
-      </c>
-      <c r="G364" t="n">
-        <v>0.06400521110820086</v>
-      </c>
-    </row>
-    <row r="365" ht="15" customHeight="1">
-      <c r="F365" t="n">
-        <v>0.04525146836968404</v>
-      </c>
-      <c r="G365" t="n">
-        <v>0.06400521110820086</v>
-      </c>
-    </row>
-    <row r="366" ht="15" customHeight="1">
-      <c r="F366" t="n">
-        <v>0.05048695629766749</v>
-      </c>
-      <c r="G366" t="n">
-        <v>0.06576481064478756</v>
-      </c>
-    </row>
-    <row r="367" ht="15" customHeight="1">
-      <c r="F367" t="n">
-        <v>0.05058837049066611</v>
-      </c>
-      <c r="G367" t="n">
-        <v>0.06752441018137424</v>
-      </c>
-    </row>
-    <row r="368" ht="15" customHeight="1">
-      <c r="F368" t="n">
-        <v>0.05068177465462529</v>
-      </c>
-      <c r="G368" t="n">
-        <v>0.06928400971796095</v>
-      </c>
-    </row>
-    <row r="369" ht="15" customHeight="1">
-      <c r="F369" t="n">
-        <v>0.05076749831064831</v>
-      </c>
-      <c r="G369" t="n">
-        <v>0.07104360925454763</v>
-      </c>
-    </row>
-    <row r="370" ht="15" customHeight="1">
-      <c r="F370" t="n">
-        <v>0.05084587097983851</v>
-      </c>
-      <c r="G370" t="n">
-        <v>0.07280320879113433</v>
-      </c>
-    </row>
-    <row r="371" ht="15" customHeight="1">
-      <c r="F371" t="n">
-        <v>0.0509172221832992</v>
-      </c>
-      <c r="G371" t="n">
-        <v>0.07456280832772103</v>
-      </c>
-    </row>
-    <row r="372" ht="15" customHeight="1">
-      <c r="F372" t="n">
-        <v>0.05098188144213373</v>
-      </c>
-      <c r="G372" t="n">
-        <v>0.07632240786430772</v>
-      </c>
-    </row>
-    <row r="373" ht="15" customHeight="1">
-      <c r="F373" t="n">
-        <v>0.0510401782774454</v>
-      </c>
-      <c r="G373" t="n">
-        <v>0.07808200740089442</v>
-      </c>
-    </row>
-    <row r="374" ht="15" customHeight="1">
-      <c r="F374" t="n">
-        <v>0.05109244221033755</v>
-      </c>
-      <c r="G374" t="n">
-        <v>0.0798416069374811</v>
-      </c>
-    </row>
-    <row r="375" ht="15" customHeight="1">
-      <c r="F375" t="n">
-        <v>0.05113900276191347</v>
-      </c>
-      <c r="G375" t="n">
-        <v>0.08160120647406779</v>
-      </c>
-    </row>
-    <row r="376" ht="15" customHeight="1">
-      <c r="F376" t="n">
-        <v>0.05118018945327652</v>
-      </c>
-      <c r="G376" t="n">
-        <v>0.0833608060106545</v>
-      </c>
-    </row>
-    <row r="377" ht="15" customHeight="1">
-      <c r="F377" t="n">
-        <v>0.05121633180553001</v>
-      </c>
-      <c r="G377" t="n">
-        <v>0.08512040554724119</v>
-      </c>
-    </row>
-    <row r="378" ht="15" customHeight="1">
-      <c r="F378" t="n">
-        <v>0.05124775933977727</v>
-      </c>
-      <c r="G378" t="n">
-        <v>0.08688000508382789</v>
-      </c>
-    </row>
-    <row r="379" ht="15" customHeight="1">
-      <c r="F379" t="n">
-        <v>0.05127480157712162</v>
-      </c>
-      <c r="G379" t="n">
-        <v>0.08863960462041458</v>
-      </c>
-    </row>
-    <row r="380" ht="15" customHeight="1">
-      <c r="F380" t="n">
-        <v>0.05129778803866634</v>
-      </c>
-      <c r="G380" t="n">
-        <v>0.09039920415700127</v>
-      </c>
-    </row>
-    <row r="381" ht="15" customHeight="1">
-      <c r="F381" t="n">
-        <v>0.05131704824551483</v>
-      </c>
-      <c r="G381" t="n">
-        <v>0.09215880369358798</v>
-      </c>
-    </row>
-    <row r="382" ht="15" customHeight="1">
-      <c r="F382" t="n">
-        <v>0.05133291171877035</v>
-      </c>
-      <c r="G382" t="n">
-        <v>0.09391840323017467</v>
-      </c>
-    </row>
-    <row r="383" ht="15" customHeight="1">
-      <c r="F383" t="n">
-        <v>0.05134570797953624</v>
-      </c>
-      <c r="G383" t="n">
-        <v>0.09567800276676136</v>
-      </c>
-    </row>
-    <row r="384" ht="15" customHeight="1">
-      <c r="F384" t="n">
-        <v>0.05135576654891585</v>
-      </c>
-      <c r="G384" t="n">
-        <v>0.09743760230334804</v>
-      </c>
-    </row>
-    <row r="385" ht="15" customHeight="1">
-      <c r="F385" t="n">
-        <v>0.05136341694801248</v>
-      </c>
-      <c r="G385" t="n">
-        <v>0.09919720183993475</v>
-      </c>
-    </row>
-    <row r="386" ht="15" customHeight="1">
-      <c r="F386" t="n">
-        <v>0.05136898869792945</v>
-      </c>
-      <c r="G386" t="n">
-        <v>0.1009568013765215</v>
-      </c>
-    </row>
-    <row r="387" ht="15" customHeight="1">
-      <c r="F387" t="n">
-        <v>0.05137281131977008</v>
-      </c>
-      <c r="G387" t="n">
-        <v>0.1027164009131081</v>
-      </c>
-    </row>
-    <row r="388" ht="15" customHeight="1">
-      <c r="F388" t="n">
-        <v>0.0513752143346377</v>
-      </c>
-      <c r="G388" t="n">
-        <v>0.1044760004496948</v>
-      </c>
-    </row>
-    <row r="389" ht="15" customHeight="1">
-      <c r="F389" t="n">
-        <v>0.05137652726363565</v>
-      </c>
-      <c r="G389" t="n">
-        <v>0.1062355999862815</v>
-      </c>
-    </row>
-    <row r="390" ht="15" customHeight="1">
-      <c r="F390" t="n">
-        <v>0.05137707962786723</v>
-      </c>
-      <c r="G390" t="n">
-        <v>0.1079951995228682</v>
-      </c>
-    </row>
-    <row r="391" ht="15" customHeight="1">
-      <c r="F391" t="n">
-        <v>0.05137720094843577</v>
-      </c>
-      <c r="G391" t="n">
-        <v>0.1097547990594549</v>
-      </c>
-    </row>
-    <row r="392" ht="15" customHeight="1">
-      <c r="F392" t="n">
-        <v>0.05136255188353885</v>
-      </c>
-      <c r="G392" t="n">
-        <v>0.1115143985960416</v>
-      </c>
-    </row>
-    <row r="393" ht="15" customHeight="1">
-      <c r="F393" t="n">
-        <v>0.05129138057297313</v>
-      </c>
-      <c r="G393" t="n">
-        <v>0.1132739981326283</v>
-      </c>
-    </row>
-    <row r="394" ht="15" customHeight="1">
-      <c r="F394" t="n">
-        <v>0.05116445563030302</v>
-      </c>
-      <c r="G394" t="n">
-        <v>0.115033597669215</v>
-      </c>
-    </row>
-    <row r="395" ht="15" customHeight="1">
-      <c r="F395" t="n">
-        <v>0.05098550790015444</v>
-      </c>
-      <c r="G395" t="n">
-        <v>0.1167931972058017</v>
-      </c>
-    </row>
-    <row r="396" ht="15" customHeight="1">
-      <c r="F396" t="n">
-        <v>0.0507582682271533</v>
-      </c>
-      <c r="G396" t="n">
-        <v>0.1185527967423884</v>
-      </c>
-    </row>
-    <row r="397" ht="15" customHeight="1">
-      <c r="F397" t="n">
-        <v>0.05048646745592549</v>
-      </c>
-      <c r="G397" t="n">
-        <v>0.1203123962789751</v>
-      </c>
-    </row>
-    <row r="398" ht="15" customHeight="1">
-      <c r="F398" t="n">
-        <v>0.05017383643109691</v>
-      </c>
-      <c r="G398" t="n">
-        <v>0.1220719958155618</v>
-      </c>
-    </row>
-    <row r="399" ht="15" customHeight="1">
-      <c r="F399" t="n">
-        <v>0.0498241059972935</v>
-      </c>
-      <c r="G399" t="n">
-        <v>0.1238315953521485</v>
-      </c>
-    </row>
-    <row r="400" ht="15" customHeight="1">
-      <c r="F400" t="n">
-        <v>0.04944100699914113</v>
-      </c>
-      <c r="G400" t="n">
-        <v>0.1255911948887352</v>
-      </c>
-    </row>
-    <row r="401" ht="15" customHeight="1">
-      <c r="F401" t="n">
-        <v>0.04902827028126571</v>
-      </c>
-      <c r="G401" t="n">
-        <v>0.1273507944253219</v>
-      </c>
-    </row>
-    <row r="402" ht="15" customHeight="1">
-      <c r="F402" t="n">
-        <v>0.04858962668829315</v>
-      </c>
-      <c r="G402" t="n">
-        <v>0.1291103939619085</v>
-      </c>
-    </row>
-    <row r="403" ht="15" customHeight="1">
-      <c r="F403" t="n">
-        <v>0.04812880706484935</v>
-      </c>
-      <c r="G403" t="n">
-        <v>0.1308699934984952</v>
-      </c>
-    </row>
-    <row r="404" ht="15" customHeight="1">
-      <c r="F404" t="n">
-        <v>0.04764954225556022</v>
-      </c>
-      <c r="G404" t="n">
-        <v>0.132629593035082</v>
-      </c>
-    </row>
-    <row r="405" ht="15" customHeight="1">
-      <c r="F405" t="n">
-        <v>0.04715556310505167</v>
-      </c>
-      <c r="G405" t="n">
-        <v>0.1343891925716686</v>
-      </c>
-    </row>
-    <row r="406" ht="15" customHeight="1">
-      <c r="F406" t="n">
-        <v>0.04665060045794959</v>
-      </c>
-      <c r="G406" t="n">
-        <v>0.1361487921082553</v>
-      </c>
-    </row>
-    <row r="407" ht="15" customHeight="1">
-      <c r="F407" t="n">
-        <v>0.04613838515887989</v>
-      </c>
-      <c r="G407" t="n">
-        <v>0.137908391644842</v>
-      </c>
-    </row>
-    <row r="408" ht="15" customHeight="1">
-      <c r="F408" t="n">
-        <v>0.04562264805246848</v>
-      </c>
-      <c r="G408" t="n">
-        <v>0.1396679911814287</v>
-      </c>
-    </row>
-    <row r="409" ht="15" customHeight="1">
-      <c r="F409" t="n">
-        <v>0.04510711998334126</v>
-      </c>
-      <c r="G409" t="n">
-        <v>0.1414275907180154</v>
-      </c>
-    </row>
-    <row r="410" ht="15" customHeight="1">
-      <c r="F410" t="n">
-        <v>0.04459553179612415</v>
-      </c>
-      <c r="G410" t="n">
-        <v>0.1431871902546021</v>
-      </c>
-    </row>
-    <row r="411" ht="15" customHeight="1">
-      <c r="F411" t="n">
-        <v>0.04409161433544301</v>
-      </c>
-      <c r="G411" t="n">
-        <v>0.1449467897911888</v>
-      </c>
-    </row>
-    <row r="412" ht="15" customHeight="1">
-      <c r="F412" t="n">
-        <v>0.04359909844592382</v>
-      </c>
-      <c r="G412" t="n">
-        <v>0.1467063893277755</v>
-      </c>
-    </row>
-    <row r="413" ht="15" customHeight="1">
-      <c r="F413" t="n">
-        <v>0.04312171497219241</v>
-      </c>
-      <c r="G413" t="n">
-        <v>0.1484659888643622</v>
-      </c>
-    </row>
-    <row r="414" ht="15" customHeight="1">
-      <c r="F414" t="n">
-        <v>0.04266319475887472</v>
-      </c>
-      <c r="G414" t="n">
-        <v>0.15</v>
-      </c>
-    </row>
-    <row r="415" ht="15" customHeight="1">
-      <c r="F415" t="n">
-        <v>0.04222726865059667</v>
-      </c>
-      <c r="G415" t="n">
-        <v>0.1519851879375356</v>
-      </c>
-    </row>
-    <row r="416" ht="15" customHeight="1">
-      <c r="F416" t="n">
-        <v>0.04178703596390151</v>
-      </c>
-      <c r="G416" t="n">
-        <v>0.1537447874741223</v>
-      </c>
-    </row>
-    <row r="417" ht="15" customHeight="1">
-      <c r="F417" t="n">
-        <v>0.04130823778399655</v>
-      </c>
-      <c r="G417" t="n">
-        <v>0.155504387010709</v>
-      </c>
-    </row>
-    <row r="418" ht="15" customHeight="1">
-      <c r="F418" t="n">
-        <v>0.04079536751692493</v>
-      </c>
-      <c r="G418" t="n">
-        <v>0.1572639865472957</v>
-      </c>
-    </row>
-    <row r="419" ht="15" customHeight="1">
-      <c r="F419" t="n">
-        <v>0.04025304294294076</v>
-      </c>
-      <c r="G419" t="n">
-        <v>0.1590235860838824</v>
-      </c>
-    </row>
-    <row r="420" ht="15" customHeight="1">
-      <c r="F420" t="n">
-        <v>0.03968588184229823</v>
-      </c>
-      <c r="G420" t="n">
-        <v>0.160783185620469</v>
-      </c>
-    </row>
-    <row r="421" ht="15" customHeight="1">
-      <c r="F421" t="n">
-        <v>0.03909850199525141</v>
-      </c>
-      <c r="G421" t="n">
-        <v>0.1625427851570558</v>
-      </c>
-    </row>
-    <row r="422" ht="15" customHeight="1">
-      <c r="F422" t="n">
-        <v>0.03849552118205448</v>
-      </c>
-      <c r="G422" t="n">
-        <v>0.1643023846936424</v>
-      </c>
-    </row>
-    <row r="423" ht="15" customHeight="1">
-      <c r="F423" t="n">
-        <v>0.03788155718296155</v>
-      </c>
-      <c r="G423" t="n">
-        <v>0.1660619842302291</v>
-      </c>
-    </row>
-    <row r="424" ht="15" customHeight="1">
-      <c r="F424" t="n">
-        <v>0.03726122777822678</v>
-      </c>
-      <c r="G424" t="n">
-        <v>0.1678215837668159</v>
-      </c>
-    </row>
-    <row r="425" ht="15" customHeight="1">
-      <c r="F425" t="n">
-        <v>0.03663915074810429</v>
-      </c>
-      <c r="G425" t="n">
-        <v>0.1695811833034025</v>
-      </c>
-    </row>
-    <row r="426" ht="15" customHeight="1">
-      <c r="F426" t="n">
-        <v>0.03601994387284819</v>
-      </c>
-      <c r="G426" t="n">
-        <v>0.1713407828399892</v>
-      </c>
-    </row>
-    <row r="427" ht="15" customHeight="1">
-      <c r="F427" t="n">
-        <v>0.03540822493271267</v>
-      </c>
-      <c r="G427" t="n">
-        <v>0.1731003823765759</v>
-      </c>
-    </row>
-    <row r="428" ht="15" customHeight="1">
-      <c r="F428" t="n">
-        <v>0.03480861170795182</v>
-      </c>
-      <c r="G428" t="n">
-        <v>0.1748599819131626</v>
-      </c>
-    </row>
-    <row r="429" ht="15" customHeight="1">
-      <c r="F429" t="n">
-        <v>0.03422572197881978</v>
-      </c>
-      <c r="G429" t="n">
-        <v>0.1766195814497493</v>
-      </c>
-    </row>
-    <row r="430" ht="15" customHeight="1">
-      <c r="F430" t="n">
-        <v>0.03366417352557071</v>
-      </c>
-      <c r="G430" t="n">
-        <v>0.178379180986336</v>
-      </c>
-    </row>
-    <row r="431" ht="15" customHeight="1">
-      <c r="F431" t="n">
-        <v>0.0331285841284587</v>
-      </c>
-      <c r="G431" t="n">
-        <v>0.1801387805229227</v>
-      </c>
-    </row>
-    <row r="432" ht="15" customHeight="1">
-      <c r="F432" t="n">
-        <v>0.03262357156773796</v>
-      </c>
-      <c r="G432" t="n">
-        <v>0.1818983800595094</v>
-      </c>
-    </row>
-    <row r="433" ht="15" customHeight="1">
-      <c r="F433" t="n">
-        <v>0.03215375362366255</v>
-      </c>
-      <c r="G433" t="n">
-        <v>0.1836579795960961</v>
-      </c>
-    </row>
-    <row r="434" ht="15" customHeight="1">
-      <c r="F434" t="n">
-        <v>0.03172374807648664</v>
-      </c>
-      <c r="G434" t="n">
-        <v>0.1854175791326828</v>
-      </c>
-    </row>
-    <row r="435" ht="15" customHeight="1">
-      <c r="F435" t="n">
-        <v>0.03133817270646434</v>
-      </c>
-      <c r="G435" t="n">
-        <v>0.1871771786692695</v>
-      </c>
-    </row>
-    <row r="436" ht="15" customHeight="1">
-      <c r="F436" t="n">
-        <v>0.03100164529384982</v>
-      </c>
-      <c r="G436" t="n">
-        <v>0.1889367782058561</v>
-      </c>
-    </row>
-    <row r="437" ht="15" customHeight="1">
-      <c r="F437" t="n">
-        <v>0.03071878361889719</v>
-      </c>
-      <c r="G437" t="n">
-        <v>0.1906963777424429</v>
-      </c>
-    </row>
-    <row r="438" ht="15" customHeight="1">
-      <c r="F438" t="n">
-        <v>0.03049420546186058</v>
-      </c>
-      <c r="G438" t="n">
-        <v>0.1924559772790295</v>
-      </c>
-    </row>
-    <row r="439" ht="15" customHeight="1">
-      <c r="F439" t="n">
-        <v>0.03033252860299416</v>
-      </c>
-      <c r="G439" t="n">
-        <v>0.1942155768156163</v>
-      </c>
-    </row>
-    <row r="440" ht="15" customHeight="1">
-      <c r="F440" t="n">
-        <v>0.03023837082255203</v>
-      </c>
-      <c r="G440" t="n">
-        <v>0.1959751763522029</v>
-      </c>
-    </row>
-    <row r="441" ht="15" customHeight="1">
-      <c r="F441" t="n">
-        <v>0.03021476304349582</v>
-      </c>
-      <c r="G441" t="n">
-        <v>0.1977347758887896</v>
-      </c>
-    </row>
-    <row r="442" ht="15" customHeight="1">
-      <c r="F442" t="n">
-        <v>0.03021522573955782</v>
-      </c>
-      <c r="G442" t="n">
-        <v>0.1994943754253763</v>
-      </c>
-    </row>
-    <row r="443" ht="15" customHeight="1">
-      <c r="F443" t="n">
-        <v>0.03021761189608679</v>
-      </c>
-      <c r="G443" t="n">
-        <v>0.201253974961963</v>
-      </c>
-    </row>
-    <row r="444" ht="15" customHeight="1">
-      <c r="F444" t="n">
-        <v>0.03022351863578213</v>
-      </c>
-      <c r="G444" t="n">
-        <v>0.2030135744985497</v>
-      </c>
-    </row>
-    <row r="445" ht="15" customHeight="1">
-      <c r="F445" t="n">
-        <v>0.03023454308134326</v>
-      </c>
-      <c r="G445" t="n">
-        <v>0.2047731740351364</v>
-      </c>
-    </row>
-    <row r="446" ht="15" customHeight="1">
-      <c r="F446" t="n">
-        <v>0.03025228235546958</v>
-      </c>
-      <c r="G446" t="n">
-        <v>0.2065327735717231</v>
-      </c>
-    </row>
-    <row r="447" ht="15" customHeight="1">
-      <c r="F447" t="n">
-        <v>0.03027833358086051</v>
-      </c>
-      <c r="G447" t="n">
-        <v>0.2082923731083098</v>
-      </c>
-    </row>
-    <row r="448" ht="15" customHeight="1">
-      <c r="F448" t="n">
-        <v>0.03031429388021544</v>
-      </c>
-      <c r="G448" t="n">
-        <v>0.2100519726448965</v>
-      </c>
-    </row>
-    <row r="449" ht="15" customHeight="1">
-      <c r="F449" t="n">
-        <v>0.0303617603762338</v>
-      </c>
-      <c r="G449" t="n">
-        <v>0.2118115721814832</v>
-      </c>
-    </row>
-    <row r="450" ht="15" customHeight="1">
-      <c r="F450" t="n">
-        <v>0.03042233019161499</v>
-      </c>
-      <c r="G450" t="n">
-        <v>0.2135711717180699</v>
-      </c>
-    </row>
-    <row r="451" ht="15" customHeight="1">
-      <c r="F451" t="n">
-        <v>0.03049760044905842</v>
-      </c>
-      <c r="G451" t="n">
-        <v>0.2153307712546566</v>
-      </c>
-    </row>
-    <row r="452" ht="15" customHeight="1">
-      <c r="F452" t="n">
-        <v>0.0305891682712635</v>
-      </c>
-      <c r="G452" t="n">
-        <v>0.2170903707912433</v>
-      </c>
-    </row>
-    <row r="453" ht="15" customHeight="1">
-      <c r="F453" t="n">
-        <v>0.03069863078092964</v>
-      </c>
-      <c r="G453" t="n">
-        <v>0.21884997032783</v>
-      </c>
-    </row>
-    <row r="454" ht="15" customHeight="1">
-      <c r="F454" t="n">
-        <v>0.03082758510075623</v>
-      </c>
-      <c r="G454" t="n">
-        <v>0.2206095698644167</v>
-      </c>
-    </row>
-    <row r="455" ht="15" customHeight="1">
-      <c r="F455" t="n">
-        <v>0.03097762835344272</v>
-      </c>
-      <c r="G455" t="n">
-        <v>0.2223691694010034</v>
-      </c>
-    </row>
-    <row r="456" ht="15" customHeight="1">
-      <c r="F456" t="n">
-        <v>0.03115035766168848</v>
-      </c>
-      <c r="G456" t="n">
-        <v>0.22412876893759</v>
-      </c>
-    </row>
-    <row r="457" ht="15" customHeight="1">
-      <c r="F457" t="n">
-        <v>0.03134737014819294</v>
-      </c>
-      <c r="G457" t="n">
-        <v>0.2258883684741768</v>
-      </c>
-    </row>
-    <row r="458" ht="15" customHeight="1">
-      <c r="F458" t="n">
-        <v>0.03157026293565549</v>
-      </c>
-      <c r="G458" t="n">
-        <v>0.2276479680107635</v>
-      </c>
-    </row>
-    <row r="459" ht="15" customHeight="1">
-      <c r="F459" t="n">
-        <v>0.03182063314677556</v>
-      </c>
-      <c r="G459" t="n">
-        <v>0.2294075675473501</v>
-      </c>
-    </row>
-    <row r="460" ht="15" customHeight="1">
-      <c r="F460" t="n">
-        <v>0.03210007790425255</v>
-      </c>
-      <c r="G460" t="n">
-        <v>0.2311671670839368</v>
-      </c>
-    </row>
-    <row r="461" ht="15" customHeight="1">
-      <c r="F461" t="n">
-        <v>0.03241019433078587</v>
-      </c>
-      <c r="G461" t="n">
-        <v>0.2329267666205235</v>
-      </c>
-    </row>
-    <row r="462" ht="15" customHeight="1">
-      <c r="F462" t="n">
-        <v>0.03275257954907494</v>
-      </c>
-      <c r="G462" t="n">
-        <v>0.2346863661571102</v>
-      </c>
-    </row>
-    <row r="463" ht="15" customHeight="1">
-      <c r="F463" t="n">
-        <v>0.03312883068181913</v>
-      </c>
-      <c r="G463" t="n">
-        <v>0.2364459656936969</v>
-      </c>
-    </row>
-    <row r="464" ht="15" customHeight="1">
-      <c r="F464" t="n">
-        <v>0.0335405448517179</v>
-      </c>
-      <c r="G464" t="n">
-        <v>0.2382055652302836</v>
-      </c>
-    </row>
+        <v>0.3241719911259461</v>
+      </c>
+    </row>
+    <row r="265" ht="15" customHeight="1"/>
+    <row r="266" ht="15" customHeight="1"/>
+    <row r="267" ht="15" customHeight="1"/>
+    <row r="268" ht="15" customHeight="1"/>
+    <row r="269" ht="15" customHeight="1"/>
+    <row r="270" ht="15" customHeight="1"/>
+    <row r="271" ht="15" customHeight="1"/>
+    <row r="272" ht="15" customHeight="1"/>
+    <row r="273" ht="15" customHeight="1"/>
+    <row r="274" ht="15" customHeight="1"/>
+    <row r="275" ht="15" customHeight="1"/>
+    <row r="276" ht="15" customHeight="1"/>
+    <row r="277" ht="15" customHeight="1"/>
+    <row r="278" ht="15" customHeight="1"/>
+    <row r="279" ht="15" customHeight="1"/>
+    <row r="280" ht="15" customHeight="1"/>
+    <row r="281" ht="15" customHeight="1"/>
+    <row r="282" ht="15" customHeight="1"/>
+    <row r="283" ht="15" customHeight="1"/>
+    <row r="284" ht="15" customHeight="1"/>
+    <row r="285" ht="15" customHeight="1"/>
+    <row r="286" ht="15" customHeight="1"/>
+    <row r="287" ht="15" customHeight="1"/>
+    <row r="288" ht="15" customHeight="1"/>
+    <row r="289" ht="15" customHeight="1"/>
+    <row r="290" ht="15" customHeight="1"/>
+    <row r="291" ht="15" customHeight="1"/>
+    <row r="292" ht="15" customHeight="1"/>
+    <row r="293" ht="15" customHeight="1"/>
+    <row r="294" ht="15" customHeight="1"/>
+    <row r="295" ht="15" customHeight="1"/>
+    <row r="296" ht="15" customHeight="1"/>
+    <row r="297" ht="15" customHeight="1"/>
+    <row r="298" ht="15" customHeight="1"/>
+    <row r="299" ht="15" customHeight="1"/>
+    <row r="300" ht="15" customHeight="1"/>
+    <row r="301" ht="15" customHeight="1"/>
+    <row r="302" ht="15" customHeight="1"/>
+    <row r="303" ht="15" customHeight="1"/>
+    <row r="304" ht="15" customHeight="1"/>
+    <row r="305" ht="15" customHeight="1"/>
+    <row r="306" ht="15" customHeight="1"/>
+    <row r="307" ht="15" customHeight="1"/>
+    <row r="308" ht="15" customHeight="1"/>
+    <row r="309" ht="15" customHeight="1"/>
+    <row r="310" ht="15" customHeight="1"/>
+    <row r="311" ht="15" customHeight="1"/>
+    <row r="312" ht="15" customHeight="1"/>
+    <row r="313" ht="15" customHeight="1"/>
+    <row r="314" ht="15" customHeight="1"/>
+    <row r="315" ht="15" customHeight="1"/>
+    <row r="316" ht="15" customHeight="1"/>
+    <row r="317" ht="15" customHeight="1"/>
+    <row r="318" ht="15" customHeight="1"/>
+    <row r="319" ht="15" customHeight="1"/>
+    <row r="320" ht="15" customHeight="1"/>
+    <row r="321" ht="15" customHeight="1"/>
+    <row r="322" ht="15" customHeight="1"/>
+    <row r="323" ht="15" customHeight="1"/>
+    <row r="324" ht="15" customHeight="1"/>
+    <row r="325" ht="15" customHeight="1"/>
+    <row r="326" ht="15" customHeight="1"/>
+    <row r="327" ht="15" customHeight="1"/>
+    <row r="328" ht="15" customHeight="1"/>
+    <row r="329" ht="15" customHeight="1"/>
+    <row r="330" ht="15" customHeight="1"/>
+    <row r="331" ht="15" customHeight="1"/>
+    <row r="332" ht="15" customHeight="1"/>
+    <row r="333" ht="15" customHeight="1"/>
+    <row r="334" ht="15" customHeight="1"/>
+    <row r="335" ht="15" customHeight="1"/>
+    <row r="336" ht="15" customHeight="1"/>
+    <row r="337" ht="15" customHeight="1"/>
+    <row r="338" ht="15" customHeight="1"/>
+    <row r="339" ht="15" customHeight="1"/>
+    <row r="340" ht="15" customHeight="1"/>
+    <row r="341" ht="15" customHeight="1"/>
+    <row r="342" ht="15" customHeight="1"/>
+    <row r="343" ht="15" customHeight="1"/>
+    <row r="344" ht="15" customHeight="1"/>
+    <row r="345" ht="15" customHeight="1"/>
+    <row r="346" ht="15" customHeight="1"/>
+    <row r="347" ht="15" customHeight="1"/>
+    <row r="348" ht="15" customHeight="1"/>
+    <row r="349" ht="15" customHeight="1"/>
+    <row r="350" ht="15" customHeight="1"/>
+    <row r="351" ht="15" customHeight="1"/>
+    <row r="352" ht="15" customHeight="1"/>
+    <row r="353" ht="15" customHeight="1"/>
+    <row r="354" ht="15" customHeight="1"/>
+    <row r="355" ht="15" customHeight="1"/>
+    <row r="356" ht="15" customHeight="1"/>
+    <row r="357" ht="15" customHeight="1"/>
+    <row r="358" ht="15" customHeight="1"/>
+    <row r="359" ht="15" customHeight="1"/>
+    <row r="360" ht="15" customHeight="1"/>
+    <row r="361" ht="15" customHeight="1"/>
+    <row r="362" ht="15" customHeight="1"/>
+    <row r="363" ht="15" customHeight="1"/>
+    <row r="364" ht="15" customHeight="1"/>
+    <row r="365" ht="15" customHeight="1"/>
+    <row r="366" ht="15" customHeight="1"/>
+    <row r="367" ht="15" customHeight="1"/>
+    <row r="368" ht="15" customHeight="1"/>
+    <row r="369" ht="15" customHeight="1"/>
+    <row r="370" ht="15" customHeight="1"/>
+    <row r="371" ht="15" customHeight="1"/>
+    <row r="372" ht="15" customHeight="1"/>
+    <row r="373" ht="15" customHeight="1"/>
+    <row r="374" ht="15" customHeight="1"/>
+    <row r="375" ht="15" customHeight="1"/>
+    <row r="376" ht="15" customHeight="1"/>
+    <row r="377" ht="15" customHeight="1"/>
+    <row r="378" ht="15" customHeight="1"/>
+    <row r="379" ht="15" customHeight="1"/>
+    <row r="380" ht="15" customHeight="1"/>
+    <row r="381" ht="15" customHeight="1"/>
+    <row r="382" ht="15" customHeight="1"/>
+    <row r="383" ht="15" customHeight="1"/>
+    <row r="384" ht="15" customHeight="1"/>
+    <row r="385" ht="15" customHeight="1"/>
+    <row r="386" ht="15" customHeight="1"/>
+    <row r="387" ht="15" customHeight="1"/>
+    <row r="388" ht="15" customHeight="1"/>
+    <row r="389" ht="15" customHeight="1"/>
+    <row r="390" ht="15" customHeight="1"/>
+    <row r="391" ht="15" customHeight="1"/>
+    <row r="392" ht="15" customHeight="1"/>
+    <row r="393" ht="15" customHeight="1"/>
+    <row r="394" ht="15" customHeight="1"/>
+    <row r="395" ht="15" customHeight="1"/>
+    <row r="396" ht="15" customHeight="1"/>
+    <row r="397" ht="15" customHeight="1"/>
+    <row r="398" ht="15" customHeight="1"/>
+    <row r="399" ht="15" customHeight="1"/>
+    <row r="400" ht="15" customHeight="1"/>
+    <row r="401" ht="15" customHeight="1"/>
+    <row r="402" ht="15" customHeight="1"/>
+    <row r="403" ht="15" customHeight="1"/>
+    <row r="404" ht="15" customHeight="1"/>
+    <row r="405" ht="15" customHeight="1"/>
+    <row r="406" ht="15" customHeight="1"/>
+    <row r="407" ht="15" customHeight="1"/>
+    <row r="408" ht="15" customHeight="1"/>
+    <row r="409" ht="15" customHeight="1"/>
+    <row r="410" ht="15" customHeight="1"/>
+    <row r="411" ht="15" customHeight="1"/>
+    <row r="412" ht="15" customHeight="1"/>
+    <row r="413" ht="15" customHeight="1"/>
+    <row r="414" ht="15" customHeight="1"/>
+    <row r="415" ht="15" customHeight="1"/>
+    <row r="416" ht="15" customHeight="1"/>
+    <row r="417" ht="15" customHeight="1"/>
+    <row r="418" ht="15" customHeight="1"/>
+    <row r="419" ht="15" customHeight="1"/>
+    <row r="420" ht="15" customHeight="1"/>
+    <row r="421" ht="15" customHeight="1"/>
+    <row r="422" ht="15" customHeight="1"/>
+    <row r="423" ht="15" customHeight="1"/>
+    <row r="424" ht="15" customHeight="1"/>
+    <row r="425" ht="15" customHeight="1"/>
+    <row r="426" ht="15" customHeight="1"/>
+    <row r="427" ht="15" customHeight="1"/>
+    <row r="428" ht="15" customHeight="1"/>
+    <row r="429" ht="15" customHeight="1"/>
+    <row r="430" ht="15" customHeight="1"/>
+    <row r="431" ht="15" customHeight="1"/>
+    <row r="432" ht="15" customHeight="1"/>
+    <row r="433" ht="15" customHeight="1"/>
+    <row r="434" ht="15" customHeight="1"/>
+    <row r="435" ht="15" customHeight="1"/>
+    <row r="436" ht="15" customHeight="1"/>
+    <row r="437" ht="15" customHeight="1"/>
+    <row r="438" ht="15" customHeight="1"/>
+    <row r="439" ht="15" customHeight="1"/>
+    <row r="440" ht="15" customHeight="1"/>
+    <row r="441" ht="15" customHeight="1"/>
+    <row r="442" ht="15" customHeight="1"/>
+    <row r="443" ht="15" customHeight="1"/>
+    <row r="444" ht="15" customHeight="1"/>
+    <row r="445" ht="15" customHeight="1"/>
+    <row r="446" ht="15" customHeight="1"/>
+    <row r="447" ht="15" customHeight="1"/>
+    <row r="448" ht="15" customHeight="1"/>
+    <row r="449" ht="15" customHeight="1"/>
+    <row r="450" ht="15" customHeight="1"/>
+    <row r="451" ht="15" customHeight="1"/>
+    <row r="452" ht="15" customHeight="1"/>
+    <row r="453" ht="15" customHeight="1"/>
+    <row r="454" ht="15" customHeight="1"/>
+    <row r="455" ht="15" customHeight="1"/>
+    <row r="456" ht="15" customHeight="1"/>
+    <row r="457" ht="15" customHeight="1"/>
+    <row r="458" ht="15" customHeight="1"/>
+    <row r="459" ht="15" customHeight="1"/>
+    <row r="460" ht="15" customHeight="1"/>
+    <row r="461" ht="15" customHeight="1"/>
+    <row r="462" ht="15" customHeight="1"/>
+    <row r="463" ht="15" customHeight="1"/>
+    <row r="464" ht="15" customHeight="1"/>
     <row r="465" ht="15" customHeight="1"/>
     <row r="466" ht="15" customHeight="1"/>
     <row r="467" ht="15" customHeight="1"/>

--- a/prot/ООО Регионстрой/Трехосные_КД_ПП/1252.xlsx
+++ b/prot/ООО Регионстрой/Трехосные_КД_ПП/1252.xlsx
@@ -4884,7 +4884,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A1:BF264"/>
+  <dimension ref="A1:BF464"/>
   <sheetViews>
     <sheetView tabSelected="1" view="pageBreakPreview" topLeftCell="A3" zoomScale="70" zoomScaleNormal="40" zoomScaleSheetLayoutView="85" workbookViewId="0">
       <selection activeCell="J22" sqref="J22"/>
@@ -9318,29 +9318,29 @@
         </is>
       </c>
       <c r="F66" s="170" t="n">
-        <v>0.004030029482931352</v>
+        <v>0.001519899672285559</v>
       </c>
       <c r="G66" s="171" t="n">
-        <v>0.001620294083277215</v>
+        <v>0.000581200141968841</v>
       </c>
       <c r="H66" s="171" t="n"/>
       <c r="J66" s="170" t="n">
-        <v>0.003708918726183598</v>
+        <v>0.001855342577523268</v>
       </c>
       <c r="K66" s="171" t="n">
-        <v>0.001631344121891361</v>
+        <v>0.000848141260398959</v>
       </c>
       <c r="L66" s="172" t="n">
-        <v>0.01314613729444458</v>
+        <v>0.006712289711783226</v>
       </c>
       <c r="M66" s="170" t="n">
-        <v>0.001627288179534984</v>
+        <v>0.0008339455053742872</v>
       </c>
       <c r="N66" s="171" t="n">
-        <v>0.02074413613542031</v>
+        <v>0.01083016431676254</v>
       </c>
       <c r="O66" s="172" t="n">
-        <v>0.001629004980532393</v>
+        <v>0.0008332896032330013</v>
       </c>
       <c r="Q66" s="151" t="inlineStr">
         <is>
@@ -9358,29 +9358,29 @@
         <v>2</v>
       </c>
       <c r="F67" s="170" t="n">
-        <v>0.005812867092421008</v>
+        <v>0.002969677627785675</v>
       </c>
       <c r="G67" s="171" t="n">
-        <v>0.002525438018305083</v>
+        <v>0.001162400283937682</v>
       </c>
       <c r="H67" s="171" t="n"/>
       <c r="J67" s="170" t="n">
-        <v>0.007499999999999993</v>
+        <v>0.004224750074390909</v>
       </c>
       <c r="K67" s="171" t="n">
-        <v>0.003258423913043476</v>
+        <v>0.001696282520797918</v>
       </c>
       <c r="L67" s="172" t="n">
-        <v>0.02249999999999999</v>
+        <v>0.01319800796334408</v>
       </c>
       <c r="M67" s="170" t="n">
-        <v>0.002989379736737134</v>
+        <v>0.001667891010748574</v>
       </c>
       <c r="N67" s="171" t="n">
-        <v>0.03749999999999998</v>
+        <v>0.0219535252054629</v>
       </c>
       <c r="O67" s="172" t="n">
-        <v>0.003103260869565216</v>
+        <v>0.001666579206466003</v>
       </c>
       <c r="Q67" s="151" t="inlineStr">
         <is>
@@ -9400,29 +9400,29 @@
         </is>
       </c>
       <c r="F68" s="170" t="n">
-        <v>0.007358967290252677</v>
+        <v>0.004299736864430748</v>
       </c>
       <c r="G68" s="171" t="n">
-        <v>0.004860882249831644</v>
+        <v>0.001743600425906523</v>
       </c>
       <c r="H68" s="171" t="n"/>
       <c r="J68" s="170" t="n">
-        <v>0.0109508104568768</v>
+        <v>0.006115318534446329</v>
       </c>
       <c r="K68" s="171" t="n">
-        <v>0.004894032365674083</v>
+        <v>0.002544423781196877</v>
       </c>
       <c r="L68" s="172" t="n">
-        <v>0.03237606530281056</v>
+        <v>0.01902462049660211</v>
       </c>
       <c r="M68" s="170" t="n">
-        <v>0.004881864538604953</v>
+        <v>0.002501836516122861</v>
       </c>
       <c r="N68" s="171" t="n">
-        <v>0.05055303472665224</v>
+        <v>0.03086171833031959</v>
       </c>
       <c r="O68" s="172" t="n">
-        <v>0.004887014941597177</v>
+        <v>0.002499868809699004</v>
       </c>
       <c r="Q68" s="151" t="inlineStr">
         <is>
@@ -9447,29 +9447,29 @@
         </is>
       </c>
       <c r="F69" s="170" t="n">
-        <v>0.01125165482762912</v>
+        <v>0.005812867092421008</v>
       </c>
       <c r="G69" s="171" t="n">
-        <v>0.006481176333108858</v>
+        <v>0.002525438018305083</v>
       </c>
       <c r="H69" s="171" t="n"/>
       <c r="J69" s="170" t="n">
-        <v>0.01400557351546197</v>
+        <v>0.007499999999999993</v>
       </c>
       <c r="K69" s="171" t="n">
-        <v>0.006525376487565445</v>
+        <v>0.003258423913043476</v>
       </c>
       <c r="L69" s="172" t="n">
-        <v>0.03928930770620315</v>
+        <v>0.02249999999999999</v>
       </c>
       <c r="M69" s="170" t="n">
-        <v>0.006509152718139937</v>
+        <v>0.00301705917874396</v>
       </c>
       <c r="N69" s="171" t="n">
-        <v>0.06252994386860428</v>
+        <v>0.03749999999999998</v>
       </c>
       <c r="O69" s="172" t="n">
-        <v>0.00651601992212957</v>
+        <v>0.003103260869565216</v>
       </c>
       <c r="Q69" s="151" t="inlineStr">
         <is>
@@ -9490,56 +9490,56 @@
         <v>0.005812867092421008</v>
       </c>
       <c r="F70" s="170" t="n">
-        <v>0.01220702089408412</v>
+        <v>0.006457892465232574</v>
       </c>
       <c r="G70" s="171" t="n">
-        <v>0.00757631405491525</v>
+        <v>0.002906000709844205</v>
       </c>
       <c r="H70" s="171" t="n"/>
       <c r="J70" s="170" t="n">
-        <v>0.01697356030660309</v>
+        <v>0.009082393509254744</v>
       </c>
       <c r="K70" s="171" t="n">
-        <v>0.008156720609456807</v>
+        <v>0.004240706301994795</v>
       </c>
       <c r="L70" s="172" t="n">
-        <v>0.04574983338483246</v>
+        <v>0.02850689674287479</v>
       </c>
       <c r="M70" s="170" t="n">
-        <v>0.008136440897674922</v>
+        <v>0.004169727526871436</v>
       </c>
       <c r="N70" s="171" t="n">
-        <v>0.07062938003768338</v>
+        <v>0.04507244776810515</v>
       </c>
       <c r="O70" s="172" t="n">
-        <v>0.008145024902661963</v>
+        <v>0.004166448016165006</v>
       </c>
     </row>
     <row r="71">
       <c r="F71" s="170" t="n">
-        <v>0.01173242596243541</v>
+        <v>0.007441522225402404</v>
       </c>
       <c r="G71" s="171" t="n">
-        <v>0.009721764499663289</v>
+        <v>0.003487200851813046</v>
       </c>
       <c r="H71" s="171" t="n"/>
       <c r="J71" s="170" t="n">
-        <v>0.01954074392490505</v>
+        <v>0.01053801217313603</v>
       </c>
       <c r="K71" s="171" t="n">
-        <v>0.009775271739130427</v>
+        <v>0.005088847562393754</v>
       </c>
       <c r="L71" s="172" t="n">
-        <v>0.04856485338336355</v>
+        <v>0.03214671521312812</v>
       </c>
       <c r="M71" s="170" t="n">
-        <v>0.008968139210211404</v>
+        <v>0.005003673032245723</v>
       </c>
       <c r="N71" s="171" t="n">
-        <v>0.07758896284182204</v>
+        <v>0.0514691735385906</v>
       </c>
       <c r="O71" s="172" t="n">
-        <v>0.009309782608695649</v>
+        <v>0.004999737619398007</v>
       </c>
     </row>
     <row r="72">
@@ -9554,29 +9554,29 @@
         </is>
       </c>
       <c r="F72" s="170" t="n">
-        <v>0.01479935743702972</v>
+        <v>0.00840063736917368</v>
       </c>
       <c r="G72" s="171" t="n">
-        <v>0.0113420585829405</v>
+        <v>0.004068400993781887</v>
       </c>
       <c r="H72" s="171" t="n"/>
       <c r="J72" s="170" t="n">
-        <v>0.02135423542584997</v>
+        <v>0.01181327547336718</v>
       </c>
       <c r="K72" s="171" t="n">
-        <v>0.01141940885323953</v>
+        <v>0.005936988822792712</v>
       </c>
       <c r="L72" s="172" t="n">
-        <v>0.05424695465489915</v>
+        <v>0.03537997613092672</v>
       </c>
       <c r="M72" s="170" t="n">
-        <v>0.01139101725674489</v>
+        <v>0.00583761853762001</v>
       </c>
       <c r="N72" s="171" t="n">
-        <v>0.08625233418970163</v>
+        <v>0.05795042740005596</v>
       </c>
       <c r="O72" s="172" t="n">
-        <v>0.01140303486372675</v>
+        <v>0.005833027222631008</v>
       </c>
     </row>
     <row r="73">
@@ -9600,29 +9600,29 @@
         <v/>
       </c>
       <c r="F73" s="170" t="n">
-        <v>0.01579373962994456</v>
+        <v>0.009309531116234213</v>
       </c>
       <c r="G73" s="171" t="n">
-        <v>0.01296235266621772</v>
+        <v>0.004649601135750728</v>
       </c>
       <c r="H73" s="171" t="n"/>
       <c r="J73" s="170" t="n">
-        <v>0.02305861586884626</v>
+        <v>0.0129172648780508</v>
       </c>
       <c r="K73" s="171" t="n">
-        <v>0.01305075297513089</v>
+        <v>0.006785130083191672</v>
       </c>
       <c r="L73" s="172" t="n">
-        <v>0.05822862094848549</v>
+        <v>0.03913719729967244</v>
       </c>
       <c r="M73" s="170" t="n">
-        <v>0.01301830543627987</v>
+        <v>0.006671564042994298</v>
       </c>
       <c r="N73" s="171" t="n">
-        <v>0.0922412912978412</v>
+        <v>0.06307303818955706</v>
       </c>
       <c r="O73" s="172" t="n">
-        <v>0.01303203984425914</v>
+        <v>0.00666631682586401</v>
       </c>
     </row>
     <row r="74">
@@ -9637,29 +9637,29 @@
         </is>
       </c>
       <c r="F74" s="170" t="n">
-        <v>0.01471618111292508</v>
+        <v>0.01014249668627186</v>
       </c>
       <c r="G74" s="171" t="n">
-        <v>0.01458264674949493</v>
+        <v>0.00523080127771957</v>
       </c>
       <c r="H74" s="171" t="n"/>
       <c r="J74" s="170" t="n">
-        <v>0.02436614167044393</v>
+        <v>0.01405906185528948</v>
       </c>
       <c r="K74" s="171" t="n">
-        <v>0.01468209709702225</v>
+        <v>0.007633271343590631</v>
       </c>
       <c r="L74" s="172" t="n">
-        <v>0.06278265126645383</v>
+        <v>0.04194889652276704</v>
       </c>
       <c r="M74" s="170" t="n">
-        <v>0.01464559361581486</v>
+        <v>0.007505509548368585</v>
       </c>
       <c r="N74" s="171" t="n">
-        <v>0.09861825698311733</v>
+        <v>0.06869383474414958</v>
       </c>
       <c r="O74" s="172" t="n">
-        <v>0.01466104482479153</v>
+        <v>0.007499606429097011</v>
       </c>
     </row>
     <row r="75">
@@ -9681,29 +9681,29 @@
         </is>
       </c>
       <c r="F75" s="170" t="n">
-        <v>0.01756729045771643</v>
+        <v>0.01087382729897442</v>
       </c>
       <c r="G75" s="171" t="n">
-        <v>0.01620294083277215</v>
+        <v>0.005812001419688411</v>
       </c>
       <c r="H75" s="171" t="n"/>
       <c r="J75" s="170" t="n">
-        <v>0.02587459327322164</v>
+        <v>0.01494774787318585</v>
       </c>
       <c r="K75" s="171" t="n">
-        <v>0.01631344121891361</v>
+        <v>0.00848141260398959</v>
       </c>
       <c r="L75" s="172" t="n">
-        <v>0.06610120564335301</v>
+        <v>0.04534559160361218</v>
       </c>
       <c r="M75" s="170" t="n">
-        <v>0.01627288179534984</v>
+        <v>0.008339455053742872</v>
       </c>
       <c r="N75" s="171" t="n">
-        <v>0.1044627689608533</v>
+        <v>0.0721696459008892</v>
       </c>
       <c r="O75" s="172" t="n">
-        <v>0.01629004980532393</v>
+        <v>0.008332896032330011</v>
       </c>
     </row>
     <row r="76">
@@ -9723,29 +9723,29 @@
         <v>0</v>
       </c>
       <c r="F76" s="170" t="n">
-        <v>0.01634767623606378</v>
+        <v>0.01147781617402975</v>
       </c>
       <c r="G76" s="171" t="n">
-        <v>0.01782323491604936</v>
+        <v>0.006393201561657251</v>
       </c>
       <c r="H76" s="171" t="n"/>
       <c r="J76" s="170" t="n">
-        <v>0.0274817511197581</v>
+        <v>0.01599240439984251</v>
       </c>
       <c r="K76" s="171" t="n">
-        <v>0.01794478534080497</v>
+        <v>0.009329553864388548</v>
       </c>
       <c r="L76" s="172" t="n">
-        <v>0.06937644411373195</v>
+        <v>0.04856485338336355</v>
       </c>
       <c r="M76" s="170" t="n">
-        <v>0.01790016997488483</v>
+        <v>0.009303049946960743</v>
       </c>
       <c r="N76" s="171" t="n">
-        <v>0.1094543649463723</v>
+        <v>0.07758896284182204</v>
       </c>
       <c r="O76" s="172" t="n">
-        <v>0.01791905478585632</v>
+        <v>0.009172525420844803</v>
       </c>
     </row>
     <row r="77" ht="15" customHeight="1">
@@ -9760,28 +9760,28 @@
         </is>
       </c>
       <c r="F77" t="n">
-        <v>0.01805794701971225</v>
+        <v>0.01192875653112568</v>
       </c>
       <c r="G77" t="n">
-        <v>0.01944352899932658</v>
+        <v>0.006974401703626091</v>
       </c>
       <c r="J77" t="n">
-        <v>0.02858539565263206</v>
+        <v>0.01720211290336207</v>
       </c>
       <c r="K77" t="n">
-        <v>0.01957612946269633</v>
+        <v>0.01017769512478751</v>
       </c>
       <c r="L77" t="n">
-        <v>0.07220052671213945</v>
+        <v>0.05028087082460478</v>
       </c>
       <c r="M77" t="n">
-        <v>0.01952745815441981</v>
+        <v>0.01000734606449145</v>
       </c>
       <c r="N77" t="n">
-        <v>0.1154725826549977</v>
+        <v>0.08104996974561141</v>
       </c>
       <c r="O77" t="n">
-        <v>0.01954805976638871</v>
+        <v>0.009999475238796015</v>
       </c>
     </row>
     <row r="78" ht="15" customHeight="1">
@@ -9800,28 +9800,28 @@
         <v/>
       </c>
       <c r="F78" t="n">
-        <v>0.01769871138040702</v>
+        <v>0.01220702089408412</v>
       </c>
       <c r="G78" t="n">
-        <v>0.02106382308260379</v>
+        <v>0.00757631405491525</v>
       </c>
       <c r="J78" t="n">
-        <v>0.0300833073144222</v>
+        <v>0.01828595485184713</v>
       </c>
       <c r="K78" t="n">
-        <v>0.0212074735845877</v>
+        <v>0.01102583638518647</v>
       </c>
       <c r="L78" t="n">
-        <v>0.07516561347312459</v>
+        <v>0.05253613865334292</v>
       </c>
       <c r="M78" t="n">
-        <v>0.0211547463339548</v>
+        <v>0.01084129156986573</v>
       </c>
       <c r="N78" t="n">
-        <v>0.1189969598020525</v>
+        <v>0.08559506400462868</v>
       </c>
       <c r="O78" t="n">
-        <v>0.0211770647469211</v>
+        <v>0.01083276484202902</v>
       </c>
     </row>
     <row r="79" ht="15" customHeight="1">
@@ -9842,28 +9842,28 @@
         <v/>
       </c>
       <c r="F79" t="n">
-        <v>0.02027057788989323</v>
+        <v>0.01236670296806643</v>
       </c>
       <c r="G79" t="n">
-        <v>0.02268411716588101</v>
+        <v>0.008136801987563775</v>
       </c>
       <c r="J79" t="n">
-        <v>0.03087326654770726</v>
+        <v>0.01954074392490505</v>
       </c>
       <c r="K79" t="n">
-        <v>0.02283881770647906</v>
+        <v>0.01212800519687042</v>
       </c>
       <c r="L79" t="n">
-        <v>0.07786386443123608</v>
+        <v>0.05521425945372635</v>
       </c>
       <c r="M79" t="n">
-        <v>0.02278203451348978</v>
+        <v>0.01167523707524002</v>
       </c>
       <c r="N79" t="n">
-        <v>0.1243070341028602</v>
+        <v>0.08877392265197137</v>
       </c>
       <c r="O79" t="n">
-        <v>0.0228060697274535</v>
+        <v>0.01166605444526202</v>
       </c>
     </row>
     <row r="80" ht="15" customHeight="1">
@@ -9873,28 +9873,28 @@
         </is>
       </c>
       <c r="F80" t="n">
-        <v>0.02077415511991605</v>
+        <v>0.01252954333764929</v>
       </c>
       <c r="G80" t="n">
-        <v>0.02430441124915822</v>
+        <v>0.008718002129532615</v>
       </c>
       <c r="J80" t="n">
-        <v>0.03205305379506593</v>
+        <v>0.0202214893671443</v>
       </c>
       <c r="K80" t="n">
-        <v>0.02447016182837042</v>
+        <v>0.01272211890598438</v>
       </c>
       <c r="L80" t="n">
-        <v>0.08038743962102285</v>
+        <v>0.05840352184934539</v>
       </c>
       <c r="M80" t="n">
-        <v>0.02440932269302476</v>
+        <v>0.01250918258061431</v>
       </c>
       <c r="N80" t="n">
-        <v>0.1269823432727439</v>
+        <v>0.09366787632388407</v>
       </c>
       <c r="O80" t="n">
-        <v>0.02443507470798589</v>
+        <v>0.01249934404849502</v>
       </c>
     </row>
     <row r="81" ht="15" customHeight="1">
@@ -9910,28 +9910,28 @@
         </is>
       </c>
       <c r="F81" t="n">
-        <v>0.0212100516422206</v>
+        <v>0.01268961137854549</v>
       </c>
       <c r="G81" t="n">
-        <v>0.02592470533243543</v>
+        <v>0.009299202271501456</v>
       </c>
       <c r="J81" t="n">
-        <v>0.03302044949907694</v>
+        <v>0.02101959955887969</v>
       </c>
       <c r="K81" t="n">
-        <v>0.02610150595026178</v>
+        <v>0.01357026016638334</v>
       </c>
       <c r="L81" t="n">
-        <v>0.08222849907703381</v>
+        <v>0.0608922144637904</v>
       </c>
       <c r="M81" t="n">
-        <v>0.02603661087255975</v>
+        <v>0.0133431280859886</v>
       </c>
       <c r="N81" t="n">
-        <v>0.1315024250270269</v>
+        <v>0.09825825565661145</v>
       </c>
       <c r="O81" t="n">
-        <v>0.02606407968851828</v>
+        <v>0.01333263365172802</v>
       </c>
     </row>
     <row r="82" ht="15" customHeight="1">
@@ -9944,28 +9944,28 @@
         <v/>
       </c>
       <c r="F82" t="n">
-        <v>0.02157887602855205</v>
+        <v>0.0128469273358737</v>
       </c>
       <c r="G82" t="n">
-        <v>0.02754499941571265</v>
+        <v>0.009880402413470298</v>
       </c>
       <c r="J82" t="n">
-        <v>0.03357323410231898</v>
+        <v>0.02224323737621514</v>
       </c>
       <c r="K82" t="n">
-        <v>0.02773285007215314</v>
+        <v>0.0144184014267823</v>
       </c>
       <c r="L82" t="n">
-        <v>0.08437920283381789</v>
+        <v>0.06416862592065167</v>
       </c>
       <c r="M82" t="n">
-        <v>0.02766389905209473</v>
+        <v>0.01417707359136288</v>
       </c>
       <c r="N82" t="n">
-        <v>0.1339468170810323</v>
+        <v>0.1021263912863981</v>
       </c>
       <c r="O82" t="n">
-        <v>0.02769308466905067</v>
+        <v>0.01416592325496102</v>
       </c>
     </row>
     <row r="83" ht="15" customHeight="1">
@@ -9975,28 +9975,28 @@
         </is>
       </c>
       <c r="F83" t="n">
-        <v>0.01988475755140014</v>
+        <v>0.01300151145475259</v>
       </c>
       <c r="G83" t="n">
-        <v>0.02916529349898986</v>
+        <v>0.01046160255543914</v>
       </c>
       <c r="J83" t="n">
-        <v>0.0344091880473708</v>
+        <v>0.02328640432409257</v>
       </c>
       <c r="K83" t="n">
-        <v>0.0293641941940445</v>
+        <v>0.01526654268718126</v>
       </c>
       <c r="L83" t="n">
-        <v>0.08583171092592393</v>
+        <v>0.06662104484351966</v>
       </c>
       <c r="M83" t="n">
-        <v>0.02929118723162972</v>
+        <v>0.01501101909673717</v>
       </c>
       <c r="N83" t="n">
-        <v>0.1357950571500836</v>
+        <v>0.1070536138494886</v>
       </c>
       <c r="O83" t="n">
-        <v>0.02932208964958307</v>
+        <v>0.01499921285819402</v>
       </c>
     </row>
     <row r="84" ht="15" customHeight="1">
@@ -10011,28 +10011,28 @@
         </is>
       </c>
       <c r="F84" t="n">
-        <v>0.02217071435427859</v>
+        <v>0.0131533839803008</v>
       </c>
       <c r="G84" t="n">
-        <v>0.03078558758226708</v>
+        <v>0.01104280269740798</v>
       </c>
       <c r="J84" t="n">
-        <v>0.03462683385213872</v>
+        <v>0.02434310190745397</v>
       </c>
       <c r="K84" t="n">
-        <v>0.03099553831593586</v>
+        <v>0.01611468394758022</v>
       </c>
       <c r="L84" t="n">
-        <v>0.08722349021062153</v>
+        <v>0.06903775985598468</v>
       </c>
       <c r="M84" t="n">
-        <v>0.0309184754111647</v>
+        <v>0.01584496460211146</v>
       </c>
       <c r="N84" t="n">
-        <v>0.1376610180054199</v>
+        <v>0.1112212539821278</v>
       </c>
       <c r="O84" t="n">
-        <v>0.03095109463011546</v>
+        <v>0.01583250246142702</v>
       </c>
     </row>
     <row r="85" ht="15" customHeight="1">
@@ -10051,28 +10051,28 @@
         <v/>
       </c>
       <c r="F85" t="n">
-        <v>0.02244786003578699</v>
+        <v>0.013302565157637</v>
       </c>
       <c r="G85" t="n">
-        <v>0.03240588166554429</v>
+        <v>0.01162400283937682</v>
       </c>
       <c r="J85" t="n">
-        <v>0.0350904812333728</v>
+        <v>0.0254073316312413</v>
       </c>
       <c r="K85" t="n">
-        <v>0.03262688243782723</v>
+        <v>0.01696282520797918</v>
       </c>
       <c r="L85" t="n">
-        <v>0.08755877714025653</v>
+        <v>0.07180705958163711</v>
       </c>
       <c r="M85" t="n">
-        <v>0.03254576359069969</v>
+        <v>0.01667891010748574</v>
       </c>
       <c r="N85" t="n">
-        <v>0.140086582106734</v>
+        <v>0.1145106423205602</v>
       </c>
       <c r="O85" t="n">
-        <v>0.03258009961064785</v>
+        <v>0.01666579206466002</v>
       </c>
     </row>
     <row r="86" ht="15" customHeight="1">
@@ -10093,28 +10093,28 @@
         <v/>
       </c>
       <c r="F86" t="n">
-        <v>0.02271434274772374</v>
+        <v>0.01344907523187985</v>
       </c>
       <c r="G86" t="n">
-        <v>0.03402617574882151</v>
+        <v>0.01220520298134566</v>
       </c>
       <c r="J86" t="n">
-        <v>0.03554049423412922</v>
+        <v>0.0261730950003965</v>
       </c>
       <c r="K86" t="n">
-        <v>0.03425822655971859</v>
+        <v>0.01781096646837814</v>
       </c>
       <c r="L86" t="n">
-        <v>0.08945701692517782</v>
+        <v>0.07421723264406729</v>
       </c>
       <c r="M86" t="n">
-        <v>0.03417305177023467</v>
+        <v>0.01751285561286003</v>
       </c>
       <c r="N86" t="n">
-        <v>0.1425550898814379</v>
+        <v>0.1185031095010305</v>
       </c>
       <c r="O86" t="n">
-        <v>0.03420910459118024</v>
+        <v>0.01749908166789303</v>
       </c>
     </row>
     <row r="87" ht="15" customHeight="1">
@@ -10124,28 +10124,28 @@
         </is>
       </c>
       <c r="F87" t="n">
-        <v>0.02296831064188724</v>
+        <v>0.01359293444814798</v>
       </c>
       <c r="G87" t="n">
-        <v>0.03564646983209872</v>
+        <v>0.0127864031233145</v>
       </c>
       <c r="J87" t="n">
-        <v>0.03617384739034556</v>
+        <v>0.02723439351986151</v>
       </c>
       <c r="K87" t="n">
-        <v>0.03588957068160994</v>
+        <v>0.0186591077287771</v>
       </c>
       <c r="L87" t="n">
-        <v>0.09031074628686744</v>
+        <v>0.07635656766686558</v>
       </c>
       <c r="M87" t="n">
-        <v>0.03580033994976965</v>
+        <v>0.01834680111823432</v>
       </c>
       <c r="N87" t="n">
-        <v>0.1431545799480693</v>
+        <v>0.1220799861597833</v>
       </c>
       <c r="O87" t="n">
-        <v>0.03583810957171264</v>
+        <v>0.01833237127112603</v>
       </c>
     </row>
     <row r="88" ht="15" customHeight="1">
@@ -10159,28 +10159,28 @@
       <c r="C88" s="139" t="n"/>
       <c r="D88" s="139" t="n"/>
       <c r="F88" t="n">
-        <v>0.02320791187007589</v>
+        <v>0.01373416305156009</v>
       </c>
       <c r="G88" t="n">
-        <v>0.03726676391537594</v>
+        <v>0.01336760326528334</v>
       </c>
       <c r="J88" t="n">
-        <v>0.03638751523795948</v>
+        <v>0.02838522869457835</v>
       </c>
       <c r="K88" t="n">
-        <v>0.03752091480350131</v>
+        <v>0.01950724898917606</v>
       </c>
       <c r="L88" t="n">
-        <v>0.09101250194680771</v>
+        <v>0.07911335327362232</v>
       </c>
       <c r="M88" t="n">
-        <v>0.03742762812930464</v>
+        <v>0.01918074662360861</v>
       </c>
       <c r="N88" t="n">
-        <v>0.1456730909251662</v>
+        <v>0.1259226029330632</v>
       </c>
       <c r="O88" t="n">
-        <v>0.03746711455224503</v>
+        <v>0.01916566087435903</v>
       </c>
     </row>
     <row r="89" ht="15" customHeight="1">
@@ -10193,4780 +10193,6180 @@
         <v/>
       </c>
       <c r="F89" t="n">
-        <v>0.02243129458408809</v>
+        <v>0.01387278128723481</v>
       </c>
       <c r="G89" t="n">
-        <v>0.03888705799865316</v>
+        <v>0.01394880340725218</v>
       </c>
       <c r="J89" t="n">
-        <v>0.03697847231290854</v>
+        <v>0.02931960202948897</v>
       </c>
       <c r="K89" t="n">
-        <v>0.03915225892539267</v>
+        <v>0.02035539024957501</v>
       </c>
       <c r="L89" t="n">
-        <v>0.09245482062648075</v>
+        <v>0.08077587808792791</v>
       </c>
       <c r="M89" t="n">
-        <v>0.03905491630883962</v>
+        <v>0.02001469212898289</v>
       </c>
       <c r="N89" t="n">
-        <v>0.1470986614312662</v>
+        <v>0.130512290457115</v>
       </c>
       <c r="O89" t="n">
-        <v>0.03909611953277742</v>
+        <v>0.01999895047759203</v>
       </c>
     </row>
     <row r="90" ht="15" customHeight="1">
       <c r="F90" t="n">
-        <v>0.02163660693572226</v>
+        <v>0.01400880940029081</v>
       </c>
       <c r="G90" t="n">
-        <v>0.04050735208193037</v>
+        <v>0.01453000354922102</v>
       </c>
       <c r="J90" t="n">
-        <v>0.03724369315113032</v>
+        <v>0.03053151502953529</v>
       </c>
       <c r="K90" t="n">
-        <v>0.04078360304728403</v>
+        <v>0.02120353150997397</v>
       </c>
       <c r="L90" t="n">
-        <v>0.09333023904736876</v>
+        <v>0.08323243073337269</v>
       </c>
       <c r="M90" t="n">
-        <v>0.0406822044883746</v>
+        <v>0.02084863763435718</v>
       </c>
       <c r="N90" t="n">
-        <v>0.1486193300849069</v>
+        <v>0.1333303793681832</v>
       </c>
       <c r="O90" t="n">
-        <v>0.04072512451330981</v>
+        <v>0.02083224008082503</v>
       </c>
     </row>
     <row r="91" ht="15" customHeight="1">
       <c r="F91" t="n">
-        <v>0.02282199707677681</v>
+        <v>0.01414226763584673</v>
       </c>
       <c r="G91" t="n">
-        <v>0.04212764616520758</v>
+        <v>0.01511120369118987</v>
       </c>
       <c r="J91" t="n">
-        <v>0.03768015228856249</v>
+        <v>0.0316149691996593</v>
       </c>
       <c r="K91" t="n">
-        <v>0.0424149471691754</v>
+        <v>0.02205167277037293</v>
       </c>
       <c r="L91" t="n">
-        <v>0.09403129393095386</v>
+        <v>0.08547129983354698</v>
       </c>
       <c r="M91" t="n">
-        <v>0.04230949266790959</v>
+        <v>0.02168258313973147</v>
       </c>
       <c r="N91" t="n">
-        <v>0.1493231355046261</v>
+        <v>0.1370582003025125</v>
       </c>
       <c r="O91" t="n">
-        <v>0.04235412949384221</v>
+        <v>0.02166552968405803</v>
       </c>
     </row>
     <row r="92" ht="15" customHeight="1">
       <c r="F92" t="n">
-        <v>0.0219856131590501</v>
+        <v>0.01427317623902125</v>
       </c>
       <c r="G92" t="n">
-        <v>0.04374794024848479</v>
+        <v>0.01569240383315871</v>
       </c>
       <c r="J92" t="n">
-        <v>0.0377848242611426</v>
+        <v>0.03256396604480293</v>
       </c>
       <c r="K92" t="n">
-        <v>0.04404629129106676</v>
+        <v>0.02289981403077189</v>
       </c>
       <c r="L92" t="n">
-        <v>0.09405052199871827</v>
+        <v>0.08698077401204118</v>
       </c>
       <c r="M92" t="n">
-        <v>0.04393678084744457</v>
+        <v>0.02251652864510575</v>
       </c>
       <c r="N92" t="n">
-        <v>0.1504981163089614</v>
+        <v>0.1404770838963476</v>
       </c>
       <c r="O92" t="n">
-        <v>0.0439831344743746</v>
+        <v>0.02249881928729103</v>
       </c>
     </row>
     <row r="93" ht="15" customHeight="1">
       <c r="F93" t="n">
-        <v>0.02412560333434057</v>
+        <v>0.01440155545493302</v>
       </c>
       <c r="G93" t="n">
-        <v>0.04536823433176201</v>
+        <v>0.01627360397512755</v>
       </c>
       <c r="J93" t="n">
-        <v>0.03835468360480827</v>
+        <v>0.03347250706990819</v>
       </c>
       <c r="K93" t="n">
-        <v>0.04567763541295811</v>
+        <v>0.02374795529117085</v>
       </c>
       <c r="L93" t="n">
-        <v>0.09508045997214418</v>
+        <v>0.08934914189244564</v>
       </c>
       <c r="M93" t="n">
-        <v>0.04556406902697956</v>
+        <v>0.02335047415048004</v>
       </c>
       <c r="N93" t="n">
-        <v>0.1524323111164508</v>
+        <v>0.1430683607859329</v>
       </c>
       <c r="O93" t="n">
-        <v>0.04561213945490699</v>
+        <v>0.02333210889052403</v>
       </c>
     </row>
     <row r="94" ht="15" customHeight="1">
       <c r="F94" t="n">
-        <v>0.02424011575444662</v>
+        <v>0.0145274255287007</v>
       </c>
       <c r="G94" t="n">
-        <v>0.04698852841503922</v>
+        <v>0.01685480411709639</v>
       </c>
       <c r="J94" t="n">
-        <v>0.03828670485549711</v>
+        <v>0.03403459377991701</v>
       </c>
       <c r="K94" t="n">
-        <v>0.04730897953484948</v>
+        <v>0.02459609655156981</v>
       </c>
       <c r="L94" t="n">
-        <v>0.0954136445727137</v>
+        <v>0.09096469209835073</v>
       </c>
       <c r="M94" t="n">
-        <v>0.04719135720651454</v>
+        <v>0.02418441965585433</v>
       </c>
       <c r="N94" t="n">
-        <v>0.1522137585456318</v>
+        <v>0.1448133616075133</v>
       </c>
       <c r="O94" t="n">
-        <v>0.04724114443543938</v>
+        <v>0.02416539849375704</v>
       </c>
     </row>
     <row r="95" ht="15" customHeight="1">
       <c r="F95" t="n">
-        <v>0.02332729857116665</v>
+        <v>0.01465080670544294</v>
       </c>
       <c r="G95" t="n">
-        <v>0.04860882249831644</v>
+        <v>0.01743600425906523</v>
       </c>
       <c r="J95" t="n">
-        <v>0.03867786254914668</v>
+        <v>0.03494422767977133</v>
       </c>
       <c r="K95" t="n">
-        <v>0.04894032365674084</v>
+        <v>0.02544423781196877</v>
       </c>
       <c r="L95" t="n">
-        <v>0.09584261252190907</v>
+        <v>0.09191571325334674</v>
       </c>
       <c r="M95" t="n">
-        <v>0.04881864538604953</v>
+        <v>0.02501836516122862</v>
       </c>
       <c r="N95" t="n">
-        <v>0.1534304972150423</v>
+        <v>0.1471934169973335</v>
       </c>
       <c r="O95" t="n">
-        <v>0.04887014941597177</v>
+        <v>0.02499868809699004</v>
       </c>
     </row>
     <row r="96" ht="15" customHeight="1">
       <c r="F96" t="n">
-        <v>0.02441404178816824</v>
+        <v>0.0147717192302784</v>
       </c>
       <c r="G96" t="n">
-        <v>0.05022911658159365</v>
+        <v>0.01801720440103407</v>
       </c>
       <c r="J96" t="n">
-        <v>0.03882513122169462</v>
+        <v>0.03559541027441317</v>
       </c>
       <c r="K96" t="n">
-        <v>0.0505716677786322</v>
+        <v>0.02629237907236773</v>
       </c>
       <c r="L96" t="n">
-        <v>0.09635990054121243</v>
+        <v>0.09339049398102414</v>
       </c>
       <c r="M96" t="n">
-        <v>0.05044593356558452</v>
+        <v>0.0258523106666029</v>
       </c>
       <c r="N96" t="n">
-        <v>0.1539705657432199</v>
+        <v>0.1485898575916378</v>
       </c>
       <c r="O96" t="n">
-        <v>0.05049915439650417</v>
+        <v>0.02583197770022304</v>
       </c>
     </row>
     <row r="97" ht="15" customHeight="1">
       <c r="F97" t="n">
-        <v>0.02441226800164225</v>
+        <v>0.01489018334832575</v>
       </c>
       <c r="G97" t="n">
-        <v>0.05184941066487087</v>
+        <v>0.01859840454300291</v>
       </c>
       <c r="J97" t="n">
-        <v>0.03882548540907853</v>
+        <v>0.03658214306878442</v>
       </c>
       <c r="K97" t="n">
-        <v>0.05220301190052356</v>
+        <v>0.02714052033276669</v>
       </c>
       <c r="L97" t="n">
-        <v>0.09712970676672711</v>
+        <v>0.09457732290497325</v>
       </c>
       <c r="M97" t="n">
-        <v>0.0520732217451195</v>
+        <v>0.02668625617197719</v>
       </c>
       <c r="N97" t="n">
-        <v>0.155177925683644</v>
+        <v>0.1505840140266712</v>
       </c>
       <c r="O97" t="n">
-        <v>0.05212815937703656</v>
+        <v>0.02666526730345604</v>
       </c>
     </row>
     <row r="98" ht="15" customHeight="1">
       <c r="F98" t="n">
-        <v>0.02341036817326098</v>
+        <v>0.01500621930470363</v>
       </c>
       <c r="G98" t="n">
-        <v>0.05346970474814808</v>
+        <v>0.01917960468497175</v>
       </c>
       <c r="J98" t="n">
-        <v>0.03908148784981012</v>
+        <v>0.03719842756782711</v>
       </c>
       <c r="K98" t="n">
-        <v>0.05383435602241492</v>
+        <v>0.02798866159316564</v>
       </c>
       <c r="L98" t="n">
-        <v>0.09702958367607198</v>
+        <v>0.09526448864878434</v>
       </c>
       <c r="M98" t="n">
-        <v>0.05370050992465448</v>
+        <v>0.02752020167735148</v>
       </c>
       <c r="N98" t="n">
-        <v>0.1550728468500274</v>
+        <v>0.1520572169386781</v>
       </c>
       <c r="O98" t="n">
-        <v>0.05375716435756896</v>
+        <v>0.02749855690668904</v>
       </c>
     </row>
     <row r="99" ht="15" customHeight="1">
       <c r="F99" t="n">
-        <v>0.02439181785867959</v>
+        <v>0.01511984734453072</v>
       </c>
       <c r="G99" t="n">
-        <v>0.0550899988314253</v>
+        <v>0.0197608048269406</v>
       </c>
       <c r="J99" t="n">
-        <v>0.03887758130889493</v>
+        <v>0.03763826527648313</v>
       </c>
       <c r="K99" t="n">
-        <v>0.05546570014430627</v>
+        <v>0.0288368028535646</v>
       </c>
       <c r="L99" t="n">
-        <v>0.09680010732230021</v>
+        <v>0.09644027983604789</v>
       </c>
       <c r="M99" t="n">
-        <v>0.05532779810418946</v>
+        <v>0.02835414718272576</v>
       </c>
       <c r="N99" t="n">
-        <v>0.1537461609818485</v>
+        <v>0.1527907969639032</v>
       </c>
       <c r="O99" t="n">
-        <v>0.05538616933810134</v>
+        <v>0.02833184650992204</v>
       </c>
     </row>
     <row r="100" ht="15" customHeight="1">
       <c r="F100" t="n">
-        <v>0.02335848650966738</v>
+        <v>0.01523108771292565</v>
       </c>
       <c r="G100" t="n">
-        <v>0.05671029291470251</v>
+        <v>0.02034200496890944</v>
       </c>
       <c r="J100" t="n">
-        <v>0.03905069509196042</v>
+        <v>0.03819565769969449</v>
       </c>
       <c r="K100" t="n">
-        <v>0.05709704426619764</v>
+        <v>0.02968494411396357</v>
       </c>
       <c r="L100" t="n">
-        <v>0.09610846470850731</v>
+        <v>0.09609298509035422</v>
       </c>
       <c r="M100" t="n">
-        <v>0.05695508628372446</v>
+        <v>0.02918809268810005</v>
       </c>
       <c r="N100" t="n">
-        <v>0.1546163818726697</v>
+        <v>0.1535660847385913</v>
       </c>
       <c r="O100" t="n">
-        <v>0.05701517431863374</v>
+        <v>0.02916513611315504</v>
       </c>
     </row>
     <row r="101" ht="15" customHeight="1">
       <c r="F101" t="n">
-        <v>0.02431135010363095</v>
+        <v>0.01533996065500709</v>
       </c>
       <c r="G101" t="n">
-        <v>0.05833058699797972</v>
+        <v>0.02092320511087828</v>
       </c>
       <c r="J101" t="n">
-        <v>0.03899963629722261</v>
+        <v>0.03856460634240315</v>
       </c>
       <c r="K101" t="n">
-        <v>0.058728388388089</v>
+        <v>0.03053308537436253</v>
       </c>
       <c r="L101" t="n">
-        <v>0.09615865185833428</v>
+        <v>0.09712970676672711</v>
       </c>
       <c r="M101" t="n">
-        <v>0.05858237446325944</v>
+        <v>0.03002203819347434</v>
       </c>
       <c r="N101" t="n">
-        <v>0.1543923821217011</v>
+        <v>0.155177925683644</v>
       </c>
       <c r="O101" t="n">
-        <v>0.05864417929916613</v>
+        <v>0.02999842571638804</v>
       </c>
     </row>
     <row r="102" ht="15" customHeight="1">
       <c r="F102" t="n">
-        <v>0.02425138461797686</v>
+        <v>0.01544648641589372</v>
       </c>
       <c r="G102" t="n">
-        <v>0.05995088108125694</v>
+        <v>0.02150440525284712</v>
       </c>
       <c r="J102" t="n">
-        <v>0.03872599943149194</v>
+        <v>0.03873911270955106</v>
       </c>
       <c r="K102" t="n">
-        <v>0.06035973250998036</v>
+        <v>0.03138122663476148</v>
       </c>
       <c r="L102" t="n">
-        <v>0.09605460213478903</v>
+        <v>0.0969297067667271</v>
       </c>
       <c r="M102" t="n">
-        <v>0.06020966264279442</v>
+        <v>0.03085598369884863</v>
       </c>
       <c r="N102" t="n">
-        <v>0.1533804657219204</v>
+        <v>0.153777925683644</v>
       </c>
       <c r="O102" t="n">
-        <v>0.06027318427969853</v>
+        <v>0.03083171531962104</v>
       </c>
     </row>
     <row r="103" ht="15" customHeight="1">
       <c r="F103" t="n">
-        <v>0.02417956603011173</v>
+        <v>0.01555068524070416</v>
       </c>
       <c r="G103" t="n">
-        <v>0.06157117516453416</v>
+        <v>0.02208560539481596</v>
       </c>
       <c r="J103" t="n">
-        <v>0.0386313790015788</v>
+        <v>0.03891317830608017</v>
       </c>
       <c r="K103" t="n">
-        <v>0.06199107663187173</v>
+        <v>0.03222936789516044</v>
       </c>
       <c r="L103" t="n">
-        <v>0.09560024890087945</v>
+        <v>0.09702970676672712</v>
       </c>
       <c r="M103" t="n">
-        <v>0.0618369508223294</v>
+        <v>0.03168992920422291</v>
       </c>
       <c r="N103" t="n">
-        <v>0.1538869366663052</v>
+        <v>0.154277925683644</v>
       </c>
       <c r="O103" t="n">
-        <v>0.06190218926023092</v>
+        <v>0.03166500492285405</v>
       </c>
     </row>
     <row r="104" ht="15" customHeight="1">
       <c r="F104" t="n">
-        <v>0.02209687031744211</v>
+        <v>0.01565257737455709</v>
       </c>
       <c r="G104" t="n">
-        <v>0.06319146924781137</v>
+        <v>0.0226668055367848</v>
       </c>
       <c r="J104" t="n">
-        <v>0.03851736951429369</v>
+        <v>0.03908148784981012</v>
       </c>
       <c r="K104" t="n">
-        <v>0.06362242075376309</v>
+        <v>0.0330775091555594</v>
       </c>
       <c r="L104" t="n">
-        <v>0.09599952551961347</v>
+        <v>0.09702970676672712</v>
       </c>
       <c r="M104" t="n">
-        <v>0.06346423900186438</v>
+        <v>0.0325238747095972</v>
       </c>
       <c r="N104" t="n">
-        <v>0.1530180989478334</v>
+        <v>0.154877925683644</v>
       </c>
       <c r="O104" t="n">
-        <v>0.06353119424076331</v>
+        <v>0.03249829452608705</v>
       </c>
     </row>
     <row r="105" ht="15" customHeight="1">
       <c r="F105" t="n">
-        <v>0.02300427345737461</v>
+        <v>0.01575218306257117</v>
       </c>
       <c r="G105" t="n">
-        <v>0.06481176333108858</v>
+        <v>0.02324800567875364</v>
       </c>
       <c r="J105" t="n">
-        <v>0.03838556547644698</v>
+        <v>0.03878148784981013</v>
       </c>
       <c r="K105" t="n">
-        <v>0.06525376487565446</v>
+        <v>0.03392565041595836</v>
       </c>
       <c r="L105" t="n">
-        <v>0.095556365353999</v>
+        <v>0.09712970676672711</v>
       </c>
       <c r="M105" t="n">
-        <v>0.06509152718139938</v>
+        <v>0.03335782021497149</v>
       </c>
       <c r="N105" t="n">
-        <v>0.1515802565594825</v>
+        <v>0.154477925683644</v>
       </c>
       <c r="O105" t="n">
-        <v>0.06516019922129571</v>
+        <v>0.03333158412932005</v>
       </c>
     </row>
     <row r="106" ht="15" customHeight="1">
       <c r="F106" t="n">
-        <v>0.02190275142731577</v>
+        <v>0.01584952254986505</v>
       </c>
       <c r="G106" t="n">
-        <v>0.06643205741436579</v>
+        <v>0.02382920582072248</v>
       </c>
       <c r="J106" t="n">
-        <v>0.03833756139484915</v>
+        <v>0.03878148784981013</v>
       </c>
       <c r="K106" t="n">
-        <v>0.06688510899754581</v>
+        <v>0.03477379167635732</v>
       </c>
       <c r="L106" t="n">
-        <v>0.09467470176704396</v>
+        <v>0.09632970676672711</v>
       </c>
       <c r="M106" t="n">
-        <v>0.06671881536093435</v>
+        <v>0.03419176572034578</v>
       </c>
       <c r="N106" t="n">
-        <v>0.1513797134942304</v>
+        <v>0.154277925683644</v>
       </c>
       <c r="O106" t="n">
-        <v>0.06678920420182809</v>
+        <v>0.03416487373255305</v>
       </c>
     </row>
     <row r="107" ht="15" customHeight="1">
       <c r="F107" t="n">
-        <v>0.0237932802046722</v>
+        <v>0.01594461608155739</v>
       </c>
       <c r="G107" t="n">
-        <v>0.06805235149764302</v>
+        <v>0.02441040596269132</v>
       </c>
       <c r="J107" t="n">
-        <v>0.03827495177631059</v>
+        <v>0.03888148784981012</v>
       </c>
       <c r="K107" t="n">
-        <v>0.06851645311943717</v>
+        <v>0.03562193293675628</v>
       </c>
       <c r="L107" t="n">
-        <v>0.09445846812175623</v>
+        <v>0.09682970676672711</v>
       </c>
       <c r="M107" t="n">
-        <v>0.06834610354046934</v>
+        <v>0.03502571122572006</v>
       </c>
       <c r="N107" t="n">
-        <v>0.1518227737450549</v>
+        <v>0.155077925683644</v>
       </c>
       <c r="O107" t="n">
-        <v>0.06841820918236048</v>
+        <v>0.03499816333578605</v>
       </c>
     </row>
     <row r="108" ht="15" customHeight="1">
       <c r="F108" t="n">
-        <v>0.02267683576685049</v>
+        <v>0.01603748390276685</v>
       </c>
       <c r="G108" t="n">
-        <v>0.06967264558092023</v>
+        <v>0.02499160610466016</v>
       </c>
       <c r="J108" t="n">
-        <v>0.03789933112764171</v>
+        <v>0.03908148784981012</v>
       </c>
       <c r="K108" t="n">
-        <v>0.07014779724132854</v>
+        <v>0.03647007419715523</v>
       </c>
       <c r="L108" t="n">
-        <v>0.09431159778114376</v>
+        <v>0.09652970676672712</v>
       </c>
       <c r="M108" t="n">
-        <v>0.06997339172000432</v>
+        <v>0.03585965673109435</v>
       </c>
       <c r="N108" t="n">
-        <v>0.1506157413049336</v>
+        <v>0.153677925683644</v>
       </c>
       <c r="O108" t="n">
-        <v>0.07004721416289288</v>
+        <v>0.03583145293901905</v>
       </c>
     </row>
     <row r="109" ht="15" customHeight="1">
       <c r="F109" t="n">
-        <v>0.02355439409125722</v>
+        <v>0.01612814625861209</v>
       </c>
       <c r="G109" t="n">
-        <v>0.07129293966419743</v>
+        <v>0.02557280624662901</v>
       </c>
       <c r="J109" t="n">
-        <v>0.03761229395565302</v>
+        <v>0.03908148784981012</v>
       </c>
       <c r="K109" t="n">
-        <v>0.07177914136321989</v>
+        <v>0.03731821545755419</v>
       </c>
       <c r="L109" t="n">
-        <v>0.09393802410821445</v>
+        <v>0.09712970676672711</v>
       </c>
       <c r="M109" t="n">
-        <v>0.0716006798995393</v>
+        <v>0.03669360223646864</v>
       </c>
       <c r="N109" t="n">
-        <v>0.1497649201668442</v>
+        <v>0.154377925683644</v>
       </c>
       <c r="O109" t="n">
-        <v>0.07167621914342527</v>
+        <v>0.03666474254225206</v>
       </c>
     </row>
     <row r="110" ht="15" customHeight="1">
       <c r="F110" t="n">
-        <v>0.02242693115529894</v>
+        <v>0.01621662339421175</v>
       </c>
       <c r="G110" t="n">
-        <v>0.07291323374747466</v>
+        <v>0.02615400638859785</v>
       </c>
       <c r="J110" t="n">
-        <v>0.03771543476715486</v>
+        <v>0.03888148784981012</v>
       </c>
       <c r="K110" t="n">
-        <v>0.07341048548511125</v>
+        <v>0.03816635671795315</v>
       </c>
       <c r="L110" t="n">
-        <v>0.09354168046597619</v>
+        <v>0.0964297067667271</v>
       </c>
       <c r="M110" t="n">
-        <v>0.07322796807907428</v>
+        <v>0.03752754774184292</v>
       </c>
       <c r="N110" t="n">
-        <v>0.1490766143237646</v>
+        <v>0.153877925683644</v>
       </c>
       <c r="O110" t="n">
-        <v>0.07330522412395767</v>
+        <v>0.03749803214548506</v>
       </c>
     </row>
     <row r="111" ht="15" customHeight="1">
       <c r="F111" t="n">
-        <v>0.02129542293638228</v>
+        <v>0.01630293555468451</v>
       </c>
       <c r="G111" t="n">
-        <v>0.07453352783075187</v>
+        <v>0.02673520653056669</v>
       </c>
       <c r="J111" t="n">
-        <v>0.03731034806895772</v>
+        <v>0.03878148784981013</v>
       </c>
       <c r="K111" t="n">
-        <v>0.07504182960700262</v>
+        <v>0.03901449797835212</v>
       </c>
       <c r="L111" t="n">
-        <v>0.09302650021743691</v>
+        <v>0.09702970676672712</v>
       </c>
       <c r="M111" t="n">
-        <v>0.07485525625860928</v>
+        <v>0.03836149324721722</v>
       </c>
       <c r="N111" t="n">
-        <v>0.1487571277686725</v>
+        <v>0.154377925683644</v>
       </c>
       <c r="O111" t="n">
-        <v>0.07493422910449006</v>
+        <v>0.03833132174871806</v>
       </c>
     </row>
     <row r="112" ht="15" customHeight="1">
       <c r="F112" t="n">
-        <v>0.02316084541191379</v>
+        <v>0.01638710298514903</v>
       </c>
       <c r="G112" t="n">
-        <v>0.07615382191402909</v>
+        <v>0.02731640667253553</v>
       </c>
       <c r="J112" t="n">
-        <v>0.03729862836787201</v>
+        <v>0.03908148784981012</v>
       </c>
       <c r="K112" t="n">
-        <v>0.07667317372889397</v>
+        <v>0.03986263923875107</v>
       </c>
       <c r="L112" t="n">
-        <v>0.09189641672560456</v>
+        <v>0.0964297067667271</v>
       </c>
       <c r="M112" t="n">
-        <v>0.07648254443814426</v>
+        <v>0.0391954387525915</v>
       </c>
       <c r="N112" t="n">
-        <v>0.1476127644945455</v>
+        <v>0.154677925683644</v>
       </c>
       <c r="O112" t="n">
-        <v>0.07656323408502246</v>
+        <v>0.03916461135195106</v>
       </c>
     </row>
     <row r="113" ht="15" customHeight="1">
       <c r="F113" t="n">
-        <v>0.02102417455930007</v>
+        <v>0.01646914593072393</v>
       </c>
       <c r="G113" t="n">
-        <v>0.07777411599730631</v>
+        <v>0.02789760681450437</v>
       </c>
       <c r="J113" t="n">
-        <v>0.03688187017070815</v>
+        <v>0.03888148784981012</v>
       </c>
       <c r="K113" t="n">
-        <v>0.07830451785078534</v>
+        <v>0.04071078049915003</v>
       </c>
       <c r="L113" t="n">
-        <v>0.09125536335348697</v>
+        <v>0.09682970676672711</v>
       </c>
       <c r="M113" t="n">
-        <v>0.07810983261767925</v>
+        <v>0.04002938425796578</v>
       </c>
       <c r="N113" t="n">
-        <v>0.1463498284943615</v>
+        <v>0.154777925683644</v>
       </c>
       <c r="O113" t="n">
-        <v>0.07819223906555484</v>
+        <v>0.03999790095518406</v>
       </c>
     </row>
     <row r="114" ht="15" customHeight="1">
       <c r="F114" t="n">
-        <v>0.02088638635594769</v>
+        <v>0.01654908463652793</v>
       </c>
       <c r="G114" t="n">
-        <v>0.07939441008058351</v>
+        <v>0.02847880695647321</v>
       </c>
       <c r="J114" t="n">
-        <v>0.03676166798427659</v>
+        <v>0.03908148784981012</v>
       </c>
       <c r="K114" t="n">
-        <v>0.0799358619726767</v>
+        <v>0.04155892175954898</v>
       </c>
       <c r="L114" t="n">
-        <v>0.09120727346409213</v>
+        <v>0.0967297067667271</v>
       </c>
       <c r="M114" t="n">
-        <v>0.07973712079721422</v>
+        <v>0.04086332976334008</v>
       </c>
       <c r="N114" t="n">
-        <v>0.1456746237610981</v>
+        <v>0.154677925683644</v>
       </c>
       <c r="O114" t="n">
-        <v>0.07982124404608723</v>
+        <v>0.04083119055841706</v>
       </c>
     </row>
     <row r="115" ht="15" customHeight="1">
       <c r="F115" t="n">
-        <v>0.02074845677926324</v>
+        <v>0.01662693934767963</v>
       </c>
       <c r="G115" t="n">
-        <v>0.08101470416386074</v>
+        <v>0.02906000709844205</v>
       </c>
       <c r="J115" t="n">
-        <v>0.03643961631538774</v>
+        <v>0.03908148784981012</v>
       </c>
       <c r="K115" t="n">
-        <v>0.08156720609456806</v>
+        <v>0.04240706301994795</v>
       </c>
       <c r="L115" t="n">
-        <v>0.09055608042042793</v>
+        <v>0.0967297067667271</v>
       </c>
       <c r="M115" t="n">
-        <v>0.08136440897674921</v>
+        <v>0.04169727526871436</v>
       </c>
       <c r="N115" t="n">
-        <v>0.1452934542877331</v>
+        <v>0.153777925683644</v>
       </c>
       <c r="O115" t="n">
-        <v>0.08145024902661963</v>
+        <v>0.04166448016165006</v>
       </c>
     </row>
     <row r="116" ht="15" customHeight="1">
       <c r="F116" t="n">
-        <v>0.0226113618066533</v>
+        <v>0.01670273030929772</v>
       </c>
       <c r="G116" t="n">
-        <v>0.08263499824713795</v>
+        <v>0.02964120724041089</v>
       </c>
       <c r="J116" t="n">
-        <v>0.03641730967085205</v>
+        <v>0.03908148784981012</v>
       </c>
       <c r="K116" t="n">
-        <v>0.08319855021645943</v>
+        <v>0.04325520428034691</v>
       </c>
       <c r="L116" t="n">
-        <v>0.09010571758550226</v>
+        <v>0.0964297067667271</v>
       </c>
       <c r="M116" t="n">
-        <v>0.0829916971562842</v>
+        <v>0.04253122077408865</v>
       </c>
       <c r="N116" t="n">
-        <v>0.1431126240672442</v>
+        <v>0.153677925683644</v>
       </c>
       <c r="O116" t="n">
-        <v>0.08307925400715202</v>
+        <v>0.04249776976488306</v>
       </c>
     </row>
     <row r="117" ht="15" customHeight="1">
       <c r="F117" t="n">
-        <v>0.02147528786840835</v>
+        <v>0.01677647776650085</v>
       </c>
       <c r="G117" t="n">
-        <v>0.08425529233041516</v>
+        <v>0.03022240738237973</v>
       </c>
       <c r="J117" t="n">
-        <v>0.03599634255747992</v>
+        <v>0.03908148784981012</v>
       </c>
       <c r="K117" t="n">
-        <v>0.08482989433835079</v>
+        <v>0.04410334554074587</v>
       </c>
       <c r="L117" t="n">
-        <v>0.08886011832232305</v>
+        <v>0.09632970676672711</v>
       </c>
       <c r="M117" t="n">
-        <v>0.08461898533581919</v>
+        <v>0.04336516627946294</v>
       </c>
       <c r="N117" t="n">
-        <v>0.1423384370926092</v>
+        <v>0.153777925683644</v>
       </c>
       <c r="O117" t="n">
-        <v>0.08470825898768441</v>
+        <v>0.04333105936811606</v>
       </c>
     </row>
     <row r="118" ht="15" customHeight="1">
       <c r="F118" t="n">
-        <v>0.02232448181879065</v>
+        <v>0.01684820196440767</v>
       </c>
       <c r="G118" t="n">
-        <v>0.08587558641369238</v>
+        <v>0.03080360752434857</v>
       </c>
       <c r="J118" t="n">
-        <v>0.03577700186355529</v>
+        <v>0.03908148784981012</v>
       </c>
       <c r="K118" t="n">
-        <v>0.08646123846024215</v>
+        <v>0.04495148680114482</v>
       </c>
       <c r="L118" t="n">
-        <v>0.0884041666003238</v>
+        <v>0.0969297067667271</v>
       </c>
       <c r="M118" t="n">
-        <v>0.08624627351535416</v>
+        <v>0.04419911178483722</v>
       </c>
       <c r="N118" t="n">
-        <v>0.1423599718377862</v>
+        <v>0.154677925683644</v>
       </c>
       <c r="O118" t="n">
-        <v>0.08633726396821681</v>
+        <v>0.04416434897134907</v>
       </c>
     </row>
     <row r="119" ht="15" customHeight="1">
       <c r="F119" t="n">
-        <v>0.02015485114183592</v>
+        <v>0.01691792314813685</v>
       </c>
       <c r="G119" t="n">
-        <v>0.08749588049696959</v>
+        <v>0.03138480766631741</v>
       </c>
       <c r="J119" t="n">
-        <v>0.03573369732302215</v>
+        <v>0.03878148784981013</v>
       </c>
       <c r="K119" t="n">
-        <v>0.08809258258213351</v>
+        <v>0.04579962806154379</v>
       </c>
       <c r="L119" t="n">
-        <v>0.08787214929497186</v>
+        <v>0.09632970676672711</v>
       </c>
       <c r="M119" t="n">
-        <v>0.08787356169488915</v>
+        <v>0.04503305729021151</v>
       </c>
       <c r="N119" t="n">
-        <v>0.1405683626661772</v>
+        <v>0.155077925683644</v>
       </c>
       <c r="O119" t="n">
-        <v>0.0879662689487492</v>
+        <v>0.04499763857458207</v>
       </c>
     </row>
     <row r="120" ht="15" customHeight="1">
       <c r="F120" t="n">
-        <v>0.02196957568859847</v>
+        <v>0.01698566156280704</v>
       </c>
       <c r="G120" t="n">
-        <v>0.0891161745802468</v>
+        <v>0.03196600780828626</v>
       </c>
       <c r="J120" t="n">
-        <v>0.0353599037403184</v>
+        <v>0.03878148784981013</v>
       </c>
       <c r="K120" t="n">
-        <v>0.08972392670402488</v>
+        <v>0.04664776932194274</v>
       </c>
       <c r="L120" t="n">
-        <v>0.08776936506763414</v>
+        <v>0.09712970676672711</v>
       </c>
       <c r="M120" t="n">
-        <v>0.08950084987442412</v>
+        <v>0.0458670027955858</v>
       </c>
       <c r="N120" t="n">
-        <v>0.1392603163328539</v>
+        <v>0.154477925683644</v>
       </c>
       <c r="O120" t="n">
-        <v>0.0895952739292816</v>
+        <v>0.04583092817781507</v>
       </c>
     </row>
     <row r="121" ht="15" customHeight="1">
       <c r="F121" t="n">
-        <v>0.01977183531013264</v>
+        <v>0.01705143745353691</v>
       </c>
       <c r="G121" t="n">
-        <v>0.09073646866352403</v>
+        <v>0.0325472079502551</v>
       </c>
       <c r="J121" t="n">
-        <v>0.03516081620923221</v>
+        <v>0.03898148784981012</v>
       </c>
       <c r="K121" t="n">
-        <v>0.09135527082591623</v>
+        <v>0.0474959105823417</v>
       </c>
       <c r="L121" t="n">
-        <v>0.08630862928516575</v>
+        <v>0.09662970676672711</v>
       </c>
       <c r="M121" t="n">
-        <v>0.09112813805395911</v>
+        <v>0.04670094830096008</v>
       </c>
       <c r="N121" t="n">
-        <v>0.1387563720004871</v>
+        <v>0.154377925683644</v>
       </c>
       <c r="O121" t="n">
-        <v>0.09122427890981398</v>
+        <v>0.04666421778104807</v>
       </c>
     </row>
     <row r="122" ht="15" customHeight="1">
       <c r="F122" t="n">
-        <v>0.02156480985749275</v>
+        <v>0.01711527106544511</v>
       </c>
       <c r="G122" t="n">
-        <v>0.09235676274680124</v>
+        <v>0.03312840809222393</v>
       </c>
       <c r="J122" t="n">
-        <v>0.03464162982355161</v>
+        <v>0.03878148784981013</v>
       </c>
       <c r="K122" t="n">
-        <v>0.09298661494780759</v>
+        <v>0.04834405184274066</v>
       </c>
       <c r="L122" t="n">
-        <v>0.08570275731442198</v>
+        <v>0.09702970676672712</v>
       </c>
       <c r="M122" t="n">
-        <v>0.0927554262334941</v>
+        <v>0.04753489380633438</v>
       </c>
       <c r="N122" t="n">
-        <v>0.1367770688317472</v>
+        <v>0.154077925683644</v>
       </c>
       <c r="O122" t="n">
-        <v>0.09285328389034637</v>
+        <v>0.04749750738428107</v>
       </c>
     </row>
     <row r="123" ht="15" customHeight="1">
       <c r="F123" t="n">
-        <v>0.01935167918173312</v>
+        <v>0.01717718264365029</v>
       </c>
       <c r="G123" t="n">
-        <v>0.09397705683007844</v>
+        <v>0.03370960823419278</v>
       </c>
       <c r="J123" t="n">
-        <v>0.03450753967706478</v>
+        <v>0.03888148784981012</v>
       </c>
       <c r="K123" t="n">
-        <v>0.09461795906969896</v>
+        <v>0.04919219310313962</v>
       </c>
       <c r="L123" t="n">
-        <v>0.08516456452225804</v>
+        <v>0.09632970676672711</v>
       </c>
       <c r="M123" t="n">
-        <v>0.09438271441302909</v>
+        <v>0.04836883931170866</v>
       </c>
       <c r="N123" t="n">
-        <v>0.1363429459893051</v>
+        <v>0.154177925683644</v>
       </c>
       <c r="O123" t="n">
-        <v>0.09448228887087877</v>
+        <v>0.04833079698751407</v>
       </c>
     </row>
     <row r="124" ht="15" customHeight="1">
       <c r="F124" t="n">
-        <v>0.02113562313390808</v>
+        <v>0.01723719243327112</v>
       </c>
       <c r="G124" t="n">
-        <v>0.09559735091335567</v>
+        <v>0.03429080837616162</v>
       </c>
       <c r="J124" t="n">
-        <v>0.0338637408635598</v>
+        <v>0.03888148784981012</v>
       </c>
       <c r="K124" t="n">
-        <v>0.09624930319159032</v>
+        <v>0.05004033436353858</v>
       </c>
       <c r="L124" t="n">
-        <v>0.08430686627552908</v>
+        <v>0.0969297067667271</v>
       </c>
       <c r="M124" t="n">
-        <v>0.09601000259256406</v>
+        <v>0.04920278481708294</v>
       </c>
       <c r="N124" t="n">
-        <v>0.1347745426358314</v>
+        <v>0.154577925683644</v>
       </c>
       <c r="O124" t="n">
-        <v>0.09611129385141115</v>
+        <v>0.04916408659074707</v>
       </c>
     </row>
     <row r="125" ht="15" customHeight="1">
       <c r="F125" t="n">
-        <v>0.01891982156507195</v>
+        <v>0.01729532067942625</v>
       </c>
       <c r="G125" t="n">
-        <v>0.09721764499663288</v>
+        <v>0.03487200851813046</v>
       </c>
       <c r="J125" t="n">
-        <v>0.03361542847682476</v>
+        <v>0.03878148784981013</v>
       </c>
       <c r="K125" t="n">
-        <v>0.09788064731348167</v>
+        <v>0.05088847562393754</v>
       </c>
       <c r="L125" t="n">
-        <v>0.08344247794109036</v>
+        <v>0.0967297067667271</v>
       </c>
       <c r="M125" t="n">
-        <v>0.09763729077209905</v>
+        <v>0.05003673032245724</v>
       </c>
       <c r="N125" t="n">
-        <v>0.1326923979339969</v>
+        <v>0.155177925683644</v>
       </c>
       <c r="O125" t="n">
-        <v>0.09774029883194355</v>
+        <v>0.04999737619398007</v>
       </c>
     </row>
     <row r="126" ht="15" customHeight="1">
       <c r="F126" t="n">
-        <v>0.01870745432627905</v>
+        <v>0.01735158762723434</v>
       </c>
       <c r="G126" t="n">
-        <v>0.09883793907991009</v>
+        <v>0.0354532086600993</v>
       </c>
       <c r="J126" t="n">
-        <v>0.03336779761064781</v>
+        <v>0.03888148784981012</v>
       </c>
       <c r="K126" t="n">
-        <v>0.09951199143537304</v>
+        <v>0.05173661688433649</v>
       </c>
       <c r="L126" t="n">
-        <v>0.08248421488579705</v>
+        <v>0.09632970676672711</v>
       </c>
       <c r="M126" t="n">
-        <v>0.09926457895163403</v>
+        <v>0.05087067582783152</v>
       </c>
       <c r="N126" t="n">
-        <v>0.1320170510464722</v>
+        <v>0.154177925683644</v>
       </c>
       <c r="O126" t="n">
-        <v>0.09936930381247594</v>
+        <v>0.05083066579721308</v>
       </c>
     </row>
     <row r="127" ht="15" customHeight="1">
       <c r="F127" t="n">
-        <v>0.0185017012685837</v>
+        <v>0.01740601352181404</v>
       </c>
       <c r="G127" t="n">
-        <v>0.1004582331631873</v>
+        <v>0.03603440880206814</v>
       </c>
       <c r="J127" t="n">
-        <v>0.03292604335881703</v>
+        <v>0.03888148784981012</v>
       </c>
       <c r="K127" t="n">
-        <v>0.1011433355572644</v>
+        <v>0.05258475814473546</v>
       </c>
       <c r="L127" t="n">
-        <v>0.0812448924765044</v>
+        <v>0.0962297067667271</v>
       </c>
       <c r="M127" t="n">
-        <v>0.100891867131169</v>
+        <v>0.05170462133320581</v>
       </c>
       <c r="N127" t="n">
-        <v>0.1300690411359278</v>
+        <v>0.155077925683644</v>
       </c>
       <c r="O127" t="n">
-        <v>0.1009983087930083</v>
+        <v>0.05166395540044608</v>
       </c>
     </row>
     <row r="128" ht="15" customHeight="1">
       <c r="F128" t="n">
-        <v>0.01830564567462536</v>
+        <v>0.01745861860828404</v>
       </c>
       <c r="G128" t="n">
-        <v>0.1020785272464645</v>
+        <v>0.03661560894403698</v>
       </c>
       <c r="J128" t="n">
-        <v>0.03249536081512056</v>
+        <v>0.03888148784981012</v>
       </c>
       <c r="K128" t="n">
-        <v>0.1027746796791558</v>
+        <v>0.05343289940513441</v>
       </c>
       <c r="L128" t="n">
-        <v>0.08033732608006755</v>
+        <v>0.09702970676672712</v>
       </c>
       <c r="M128" t="n">
-        <v>0.102519155310704</v>
+        <v>0.0525385668385801</v>
       </c>
       <c r="N128" t="n">
-        <v>0.1288689073650345</v>
+        <v>0.154177925683644</v>
       </c>
       <c r="O128" t="n">
-        <v>0.1026273137735407</v>
+        <v>0.05249724500367908</v>
       </c>
     </row>
     <row r="129" ht="15" customHeight="1">
       <c r="F129" t="n">
-        <v>0.01910259681033762</v>
+        <v>0.01750942313176296</v>
       </c>
       <c r="G129" t="n">
-        <v>0.1036988213297417</v>
+        <v>0.03719680908600582</v>
       </c>
       <c r="J129" t="n">
-        <v>0.03218028057450968</v>
+        <v>0.03898148784981012</v>
       </c>
       <c r="K129" t="n">
-        <v>0.1044060238010471</v>
+        <v>0.05428104066553337</v>
       </c>
       <c r="L129" t="n">
-        <v>0.0800574276399571</v>
+        <v>0.09682970676672711</v>
       </c>
       <c r="M129" t="n">
-        <v>0.104146443490239</v>
+        <v>0.05337251234395438</v>
       </c>
       <c r="N129" t="n">
-        <v>0.1273235986543683</v>
+        <v>0.154477925683644</v>
       </c>
       <c r="O129" t="n">
-        <v>0.1042563187540731</v>
+        <v>0.05333053460691208</v>
       </c>
     </row>
     <row r="130" ht="15" customHeight="1">
       <c r="F130" t="n">
-        <v>0.01888171776883314</v>
+        <v>0.01755844733736947</v>
       </c>
       <c r="G130" t="n">
-        <v>0.105319115413019</v>
+        <v>0.03777800922797467</v>
       </c>
       <c r="J130" t="n">
-        <v>0.03185037561179881</v>
+        <v>0.03898148784981012</v>
       </c>
       <c r="K130" t="n">
-        <v>0.1060373679229385</v>
+        <v>0.05512918192593234</v>
       </c>
       <c r="L130" t="n">
-        <v>0.07881403513519958</v>
+        <v>0.09662970676672711</v>
       </c>
       <c r="M130" t="n">
-        <v>0.105773731669774</v>
+        <v>0.05420645784932867</v>
       </c>
       <c r="N130" t="n">
-        <v>0.1264916124171326</v>
+        <v>0.155077925683644</v>
       </c>
       <c r="O130" t="n">
-        <v>0.1058853237346055</v>
+        <v>0.05416382421014507</v>
       </c>
     </row>
     <row r="131" ht="15" customHeight="1">
       <c r="F131" t="n">
-        <v>0.01964756050782771</v>
+        <v>0.01760571147022223</v>
       </c>
       <c r="G131" t="n">
-        <v>0.1069394094962962</v>
+        <v>0.0383592093699435</v>
       </c>
       <c r="J131" t="n">
-        <v>0.03159217418560802</v>
+        <v>0.03898148784981012</v>
       </c>
       <c r="K131" t="n">
-        <v>0.1076687120448298</v>
+        <v>0.05597732318633129</v>
       </c>
       <c r="L131" t="n">
-        <v>0.07840679343341742</v>
+        <v>0.09632970676672711</v>
       </c>
       <c r="M131" t="n">
-        <v>0.107401019849309</v>
+        <v>0.05504040335470296</v>
       </c>
       <c r="N131" t="n">
-        <v>0.124653250863151</v>
+        <v>0.153977925683644</v>
       </c>
       <c r="O131" t="n">
-        <v>0.1075143287151379</v>
+        <v>0.05499711381337807</v>
       </c>
     </row>
     <row r="132" ht="15" customHeight="1">
       <c r="F132" t="n">
-        <v>0.01840467698503717</v>
+        <v>0.0176512357754399</v>
       </c>
       <c r="G132" t="n">
-        <v>0.1085597035795734</v>
+        <v>0.03894040951191235</v>
       </c>
       <c r="J132" t="n">
-        <v>0.0313131130742169</v>
+        <v>0.03888148784981012</v>
       </c>
       <c r="K132" t="n">
-        <v>0.1093000561667212</v>
+        <v>0.05682546444673026</v>
       </c>
       <c r="L132" t="n">
-        <v>0.07725404773601816</v>
+        <v>0.0967297067667271</v>
       </c>
       <c r="M132" t="n">
-        <v>0.1090283080288439</v>
+        <v>0.05587434886007725</v>
       </c>
       <c r="N132" t="n">
-        <v>0.1240379158098036</v>
+        <v>0.154577925683644</v>
       </c>
       <c r="O132" t="n">
-        <v>0.1091433336956703</v>
+        <v>0.05583040341661109</v>
       </c>
     </row>
     <row r="133" ht="15" customHeight="1">
       <c r="F133" t="n">
-        <v>0.0191576191581773</v>
+        <v>0.01769504049814114</v>
       </c>
       <c r="G133" t="n">
-        <v>0.1101799976628506</v>
+        <v>0.03952160965388119</v>
       </c>
       <c r="J133" t="n">
-        <v>0.03082062905590505</v>
+        <v>0.03908148784981012</v>
       </c>
       <c r="K133" t="n">
-        <v>0.1109314002886125</v>
+        <v>0.05767360570712921</v>
       </c>
       <c r="L133" t="n">
-        <v>0.07637414324440925</v>
+        <v>0.0967297067667271</v>
       </c>
       <c r="M133" t="n">
-        <v>0.1106555962083789</v>
+        <v>0.05670829436545153</v>
       </c>
       <c r="N133" t="n">
-        <v>0.1215750090744702</v>
+        <v>0.154977925683644</v>
       </c>
       <c r="O133" t="n">
-        <v>0.1107723386762027</v>
+        <v>0.05666369301984409</v>
       </c>
     </row>
     <row r="134" ht="15" customHeight="1">
       <c r="F134" t="n">
-        <v>0.01891093898496391</v>
+        <v>0.01773714588344461</v>
       </c>
       <c r="G134" t="n">
-        <v>0.1118002917461278</v>
+        <v>0.04010280979585003</v>
       </c>
       <c r="J134" t="n">
-        <v>0.03042215890895207</v>
+        <v>0.03878148784981013</v>
       </c>
       <c r="K134" t="n">
-        <v>0.1125627444105039</v>
+        <v>0.05852174696752817</v>
       </c>
       <c r="L134" t="n">
-        <v>0.07578542515999834</v>
+        <v>0.09662970676672711</v>
       </c>
       <c r="M134" t="n">
-        <v>0.1122828843879139</v>
+        <v>0.05754223987082582</v>
       </c>
       <c r="N134" t="n">
-        <v>0.1206939324745312</v>
+        <v>0.154277925683644</v>
       </c>
       <c r="O134" t="n">
-        <v>0.1124013436567351</v>
+        <v>0.05749698262307709</v>
       </c>
     </row>
     <row r="135" ht="15" customHeight="1">
       <c r="F135" t="n">
-        <v>0.01666918842311282</v>
+        <v>0.01777757217646894</v>
       </c>
       <c r="G135" t="n">
-        <v>0.113420585829405</v>
+        <v>0.04068400993781887</v>
       </c>
       <c r="J135" t="n">
-        <v>0.0302251394116375</v>
+        <v>0.03888148784981012</v>
       </c>
       <c r="K135" t="n">
-        <v>0.1141940885323953</v>
+        <v>0.05936988822792713</v>
       </c>
       <c r="L135" t="n">
-        <v>0.07470623868419282</v>
+        <v>0.0964297067667271</v>
       </c>
       <c r="M135" t="n">
-        <v>0.1139101725674489</v>
+        <v>0.0583761853762001</v>
       </c>
       <c r="N135" t="n">
-        <v>0.1186240878273663</v>
+        <v>0.154277925683644</v>
       </c>
       <c r="O135" t="n">
-        <v>0.1140303486372675</v>
+        <v>0.05833027222631008</v>
       </c>
     </row>
     <row r="136" ht="15" customHeight="1">
       <c r="F136" t="n">
-        <v>0.01743691943033982</v>
+        <v>0.01781633962233284</v>
       </c>
       <c r="G136" t="n">
-        <v>0.1150408799126822</v>
+        <v>0.04126521007978771</v>
       </c>
       <c r="J136" t="n">
-        <v>0.02983700734224097</v>
+        <v>0.03878148784981013</v>
       </c>
       <c r="K136" t="n">
-        <v>0.1158254326542866</v>
+        <v>0.06021802948832609</v>
       </c>
       <c r="L136" t="n">
-        <v>0.07295492901840017</v>
+        <v>0.09712970676672711</v>
       </c>
       <c r="M136" t="n">
-        <v>0.1155374607469839</v>
+        <v>0.0592101308815744</v>
       </c>
       <c r="N136" t="n">
-        <v>0.1177948769503558</v>
+        <v>0.154877925683644</v>
       </c>
       <c r="O136" t="n">
-        <v>0.1156593536177999</v>
+        <v>0.05916356182954308</v>
       </c>
     </row>
     <row r="137" ht="15" customHeight="1">
       <c r="F137" t="n">
-        <v>0.01821868396436072</v>
+        <v>0.01785346846615492</v>
       </c>
       <c r="G137" t="n">
-        <v>0.1166611739959594</v>
+        <v>0.04184641022175656</v>
       </c>
       <c r="J137" t="n">
-        <v>0.02916519947904207</v>
+        <v>0.03888148784981012</v>
       </c>
       <c r="K137" t="n">
-        <v>0.117456776776178</v>
+        <v>0.06106617074872505</v>
       </c>
       <c r="L137" t="n">
-        <v>0.07204984136402806</v>
+        <v>0.09682970676672711</v>
       </c>
       <c r="M137" t="n">
-        <v>0.1171647489265189</v>
+        <v>0.06004407638694868</v>
       </c>
       <c r="N137" t="n">
-        <v>0.1155357016608795</v>
+        <v>0.154877925683644</v>
       </c>
       <c r="O137" t="n">
-        <v>0.1172883585983323</v>
+        <v>0.05999685143277609</v>
       </c>
     </row>
     <row r="138" ht="15" customHeight="1">
       <c r="F138" t="n">
-        <v>0.01801903398289133</v>
+        <v>0.01788897895305386</v>
       </c>
       <c r="G138" t="n">
-        <v>0.1182814680792367</v>
+        <v>0.04242761036372539</v>
       </c>
       <c r="J138" t="n">
-        <v>0.02911715260032034</v>
+        <v>0.03898148784981012</v>
       </c>
       <c r="K138" t="n">
-        <v>0.1190881208980694</v>
+        <v>0.061914312009124</v>
       </c>
       <c r="L138" t="n">
-        <v>0.07170932092248383</v>
+        <v>0.09662970676672711</v>
       </c>
       <c r="M138" t="n">
-        <v>0.1187920371060538</v>
+        <v>0.06087802189232297</v>
       </c>
       <c r="N138" t="n">
-        <v>0.1153759637763177</v>
+        <v>0.154277925683644</v>
       </c>
       <c r="O138" t="n">
-        <v>0.1189173635788646</v>
+        <v>0.06083014103600909</v>
       </c>
     </row>
     <row r="139" ht="15" customHeight="1">
       <c r="F139" t="n">
-        <v>0.01584252144364746</v>
+        <v>0.01792289132814831</v>
       </c>
       <c r="G139" t="n">
-        <v>0.1199017621625139</v>
+        <v>0.04300881050569424</v>
       </c>
       <c r="J139" t="n">
-        <v>0.02850030348435542</v>
+        <v>0.03898148784981012</v>
       </c>
       <c r="K139" t="n">
-        <v>0.1207194650199607</v>
+        <v>0.06276245326952297</v>
       </c>
       <c r="L139" t="n">
-        <v>0.07115171289517508</v>
+        <v>0.09652970676672712</v>
       </c>
       <c r="M139" t="n">
-        <v>0.1204193252855888</v>
+        <v>0.06171196739769726</v>
       </c>
       <c r="N139" t="n">
-        <v>0.1140450651140504</v>
+        <v>0.154677925683644</v>
       </c>
       <c r="O139" t="n">
-        <v>0.1205463685593971</v>
+        <v>0.06166343063924209</v>
       </c>
     </row>
     <row r="140" ht="15" customHeight="1">
       <c r="F140" t="n">
-        <v>0.0156936983043449</v>
+        <v>0.01795522583655694</v>
       </c>
       <c r="G140" t="n">
-        <v>0.1215220562457911</v>
+        <v>0.04359001064766308</v>
       </c>
       <c r="J140" t="n">
-        <v>0.02822208890942686</v>
+        <v>0.03878148784981013</v>
       </c>
       <c r="K140" t="n">
-        <v>0.1223508091418521</v>
+        <v>0.06361059452992193</v>
       </c>
       <c r="L140" t="n">
-        <v>0.07009536248350928</v>
+        <v>0.09652970676672712</v>
       </c>
       <c r="M140" t="n">
-        <v>0.1220466134651238</v>
+        <v>0.06254591290307154</v>
       </c>
       <c r="N140" t="n">
-        <v>0.1124724074914574</v>
+        <v>0.154677925683644</v>
       </c>
       <c r="O140" t="n">
-        <v>0.1221753735399294</v>
+        <v>0.06249672024247509</v>
       </c>
     </row>
     <row r="141" ht="15" customHeight="1">
       <c r="F141" t="n">
-        <v>0.01657711652269947</v>
+        <v>0.0179860027233984</v>
       </c>
       <c r="G141" t="n">
-        <v>0.1231423503290683</v>
+        <v>0.04417121078963192</v>
       </c>
       <c r="J141" t="n">
-        <v>0.02818994565381426</v>
+        <v>0.03888148784981012</v>
       </c>
       <c r="K141" t="n">
-        <v>0.1239821532637435</v>
+        <v>0.06445873579032088</v>
       </c>
       <c r="L141" t="n">
-        <v>0.07015861488889394</v>
+        <v>0.09712970676672711</v>
       </c>
       <c r="M141" t="n">
-        <v>0.1236739016446588</v>
+        <v>0.06337985840844583</v>
       </c>
       <c r="N141" t="n">
-        <v>0.111787392725919</v>
+        <v>0.153877925683644</v>
       </c>
       <c r="O141" t="n">
-        <v>0.1238043785204618</v>
+        <v>0.06333000984570809</v>
       </c>
     </row>
     <row r="142" ht="15" customHeight="1">
       <c r="F142" t="n">
-        <v>0.01549732805642696</v>
+        <v>0.01801524223379135</v>
       </c>
       <c r="G142" t="n">
-        <v>0.1247626444123455</v>
+        <v>0.04475241093160076</v>
       </c>
       <c r="J142" t="n">
-        <v>0.02781131049579723</v>
+        <v>0.03898148784981012</v>
       </c>
       <c r="K142" t="n">
-        <v>0.1256134973856348</v>
+        <v>0.06530687705071984</v>
       </c>
       <c r="L142" t="n">
-        <v>0.06895981531273659</v>
+        <v>0.09662970676672711</v>
       </c>
       <c r="M142" t="n">
-        <v>0.1253011898241938</v>
+        <v>0.06421380391382012</v>
       </c>
       <c r="N142" t="n">
-        <v>0.1110194226348151</v>
+        <v>0.153877925683644</v>
       </c>
       <c r="O142" t="n">
-        <v>0.1254333835009942</v>
+        <v>0.0641632994489411</v>
       </c>
     </row>
     <row r="143" ht="15" customHeight="1">
       <c r="F143" t="n">
-        <v>0.01645888486324321</v>
+        <v>0.01804296461285443</v>
       </c>
       <c r="G143" t="n">
-        <v>0.1263829384956227</v>
+        <v>0.0453336110735696</v>
       </c>
       <c r="J143" t="n">
-        <v>0.02789362021365532</v>
+        <v>0.03878148784981013</v>
       </c>
       <c r="K143" t="n">
-        <v>0.1272448415075262</v>
+        <v>0.06615501831111879</v>
       </c>
       <c r="L143" t="n">
-        <v>0.06891730895644474</v>
+        <v>0.09632970676672711</v>
       </c>
       <c r="M143" t="n">
-        <v>0.1269284780037288</v>
+        <v>0.0650477494191944</v>
       </c>
       <c r="N143" t="n">
-        <v>0.110897899035526</v>
+        <v>0.153977925683644</v>
       </c>
       <c r="O143" t="n">
-        <v>0.1270623884815266</v>
+        <v>0.06499658905217409</v>
       </c>
     </row>
     <row r="144" ht="15" customHeight="1">
       <c r="F144" t="n">
-        <v>0.01645749558669263</v>
+        <v>0.01806919010570632</v>
       </c>
       <c r="G144" t="n">
-        <v>0.1280032325789</v>
+        <v>0.04591481121553844</v>
       </c>
       <c r="J144" t="n">
-        <v>0.02774431158566815</v>
+        <v>0.03908148784981012</v>
       </c>
       <c r="K144" t="n">
-        <v>0.1288761856294175</v>
+        <v>0.06700315957151776</v>
       </c>
       <c r="L144" t="n">
-        <v>0.06874798674181384</v>
+        <v>0.09652970676672712</v>
       </c>
       <c r="M144" t="n">
-        <v>0.1285557661832638</v>
+        <v>0.06588169492456869</v>
       </c>
       <c r="N144" t="n">
-        <v>0.1096522178669546</v>
+        <v>0.155177925683644</v>
       </c>
       <c r="O144" t="n">
-        <v>0.128691393462059</v>
+        <v>0.0658298786554071</v>
       </c>
     </row>
     <row r="145" ht="15" customHeight="1">
       <c r="F145" t="n">
-        <v>0.01746523515426502</v>
+        <v>0.01809393895746569</v>
       </c>
       <c r="G145" t="n">
-        <v>0.1296235266621772</v>
+        <v>0.04649601135750728</v>
       </c>
       <c r="J145" t="n">
-        <v>0.02794712420131806</v>
+        <v>0.03908148784981012</v>
       </c>
       <c r="K145" t="n">
-        <v>0.1305075297513089</v>
+        <v>0.06785130083191672</v>
       </c>
       <c r="L145" t="n">
-        <v>0.06906525658172363</v>
+        <v>0.09652970676672712</v>
       </c>
       <c r="M145" t="n">
-        <v>0.1301830543627988</v>
+        <v>0.06671564042994298</v>
       </c>
       <c r="N145" t="n">
-        <v>0.1104743905477962</v>
+        <v>0.154777925683644</v>
       </c>
       <c r="O145" t="n">
-        <v>0.1303203984425914</v>
+        <v>0.06666316825864009</v>
       </c>
     </row>
     <row r="146" ht="15" customHeight="1">
       <c r="F146" t="n">
-        <v>0.01547934597759922</v>
+        <v>0.01811723141325115</v>
       </c>
       <c r="G146" t="n">
-        <v>0.1312438207454544</v>
+        <v>0.04707721149947612</v>
       </c>
       <c r="J146" t="n">
-        <v>0.02766160960283549</v>
+        <v>0.03898148784981012</v>
       </c>
       <c r="K146" t="n">
-        <v>0.1321388738732003</v>
+        <v>0.06869944209231567</v>
       </c>
       <c r="L146" t="n">
-        <v>0.0687087828086895</v>
+        <v>0.09652970676672712</v>
       </c>
       <c r="M146" t="n">
-        <v>0.1318103425423337</v>
+        <v>0.06754958593531728</v>
       </c>
       <c r="N146" t="n">
-        <v>0.110638870886129</v>
+        <v>0.154477925683644</v>
       </c>
       <c r="O146" t="n">
-        <v>0.1319494034231238</v>
+        <v>0.0674964578618731</v>
       </c>
     </row>
     <row r="147" ht="15" customHeight="1">
       <c r="F147" t="n">
-        <v>0.01749949358050042</v>
+        <v>0.01813908771818141</v>
       </c>
       <c r="G147" t="n">
-        <v>0.1328641148287316</v>
+        <v>0.04765841164144496</v>
       </c>
       <c r="J147" t="n">
-        <v>0.02768632758005773</v>
+        <v>0.03888148784981012</v>
       </c>
       <c r="K147" t="n">
-        <v>0.1337702179950916</v>
+        <v>0.06954758335271465</v>
       </c>
       <c r="L147" t="n">
-        <v>0.06927721742399451</v>
+        <v>0.09642779993148728</v>
       </c>
       <c r="M147" t="n">
-        <v>0.1334376307218687</v>
+        <v>0.06838353144069155</v>
       </c>
       <c r="N147" t="n">
-        <v>0.109843498447122</v>
+        <v>0.1550741308913255</v>
       </c>
       <c r="O147" t="n">
-        <v>0.1335784084036562</v>
+        <v>0.0683297474651061</v>
       </c>
     </row>
     <row r="148" ht="15" customHeight="1">
       <c r="F148" t="n">
-        <v>0.01652534348677378</v>
+        <v>0.01815952811737509</v>
       </c>
       <c r="G148" t="n">
-        <v>0.1344844089120088</v>
+        <v>0.0482396117834138</v>
       </c>
       <c r="J148" t="n">
-        <v>0.0278207316812258</v>
+        <v>0.03878148784981013</v>
       </c>
       <c r="K148" t="n">
-        <v>0.135401562116983</v>
+        <v>0.07039572461311359</v>
       </c>
       <c r="L148" t="n">
-        <v>0.06886921242892186</v>
+        <v>0.09692001626931024</v>
       </c>
       <c r="M148" t="n">
-        <v>0.1350649189014037</v>
+        <v>0.06921747694606584</v>
       </c>
       <c r="N148" t="n">
-        <v>0.1109861127959444</v>
+        <v>0.1547608435151329</v>
       </c>
       <c r="O148" t="n">
-        <v>0.1352074133841886</v>
+        <v>0.06916303706833911</v>
       </c>
     </row>
     <row r="149" ht="15" customHeight="1">
       <c r="F149" t="n">
-        <v>0.01555656122022449</v>
+        <v>0.01817857285595088</v>
       </c>
       <c r="G149" t="n">
-        <v>0.136104702995286</v>
+        <v>0.04882081192538264</v>
       </c>
       <c r="J149" t="n">
-        <v>0.0279642754545807</v>
+        <v>0.03878063625904492</v>
       </c>
       <c r="K149" t="n">
-        <v>0.1370329062388743</v>
+        <v>0.07124386587351256</v>
       </c>
       <c r="L149" t="n">
-        <v>0.06938341982475463</v>
+        <v>0.09700644587102489</v>
       </c>
       <c r="M149" t="n">
-        <v>0.1366922070809387</v>
+        <v>0.07005142245144012</v>
       </c>
       <c r="N149" t="n">
-        <v>0.1113645534977653</v>
+        <v>0.1544383589423899</v>
       </c>
       <c r="O149" t="n">
-        <v>0.136836418364721</v>
+        <v>0.0699963266715721</v>
       </c>
     </row>
     <row r="150" ht="15" customHeight="1">
       <c r="F150" t="n">
-        <v>0.01559281230465771</v>
+        <v>0.01819624217902741</v>
       </c>
       <c r="G150" t="n">
-        <v>0.1377249970785633</v>
+        <v>0.04940201206735149</v>
       </c>
       <c r="J150" t="n">
-        <v>0.02781641244836343</v>
+        <v>0.03877732833446736</v>
       </c>
       <c r="K150" t="n">
-        <v>0.1386642503607657</v>
+        <v>0.07209200713391151</v>
       </c>
       <c r="L150" t="n">
-        <v>0.0690184916127761</v>
+        <v>0.09658731800163275</v>
       </c>
       <c r="M150" t="n">
-        <v>0.1383194952604737</v>
+        <v>0.07088536795681441</v>
       </c>
       <c r="N150" t="n">
-        <v>0.1110766601177534</v>
+        <v>0.1545070425915712</v>
       </c>
       <c r="O150" t="n">
-        <v>0.1384654233452534</v>
+        <v>0.07082961627480511</v>
       </c>
     </row>
     <row r="151" ht="15" customHeight="1">
       <c r="F151" t="n">
-        <v>0.01663376226387862</v>
+        <v>0.01821255633172334</v>
       </c>
       <c r="G151" t="n">
-        <v>0.1393452911618405</v>
+        <v>0.04998321220932032</v>
       </c>
       <c r="J151" t="n">
-        <v>0.02797659621081496</v>
+        <v>0.03897161776454879</v>
       </c>
       <c r="K151" t="n">
-        <v>0.1402955944826571</v>
+        <v>0.07294014839431047</v>
       </c>
       <c r="L151" t="n">
-        <v>0.06917307979426929</v>
+        <v>0.09676286192613548</v>
       </c>
       <c r="M151" t="n">
-        <v>0.1399467834400086</v>
+        <v>0.0717193134621887</v>
       </c>
       <c r="N151" t="n">
-        <v>0.1111202722210781</v>
+        <v>0.1538672598811506</v>
       </c>
       <c r="O151" t="n">
-        <v>0.1400944283257858</v>
+        <v>0.0716629058780381</v>
       </c>
     </row>
     <row r="152" ht="15" customHeight="1">
       <c r="F152" t="n">
-        <v>0.0156790766216924</v>
+        <v>0.01822753555915736</v>
       </c>
       <c r="G152" t="n">
-        <v>0.1409655852451177</v>
+        <v>0.05056441235128917</v>
       </c>
       <c r="J152" t="n">
-        <v>0.02794428029017632</v>
+        <v>0.03896360158874024</v>
       </c>
       <c r="K152" t="n">
-        <v>0.1419269386045484</v>
+        <v>0.07378828965470943</v>
       </c>
       <c r="L152" t="n">
-        <v>0.06964583637051747</v>
+        <v>0.09703330690953463</v>
       </c>
       <c r="M152" t="n">
-        <v>0.1415740716195436</v>
+        <v>0.072553258967563</v>
       </c>
       <c r="N152" t="n">
-        <v>0.1120932293729085</v>
+        <v>0.1537193762296025</v>
       </c>
       <c r="O152" t="n">
-        <v>0.1417234333063181</v>
+        <v>0.07249619548127111</v>
       </c>
     </row>
     <row r="153" ht="15" customHeight="1">
       <c r="F153" t="n">
-        <v>0.01772842090190423</v>
+        <v>0.01824120010644809</v>
       </c>
       <c r="G153" t="n">
-        <v>0.1425858793283949</v>
+        <v>0.05114561249325801</v>
       </c>
       <c r="J153" t="n">
-        <v>0.02811891823468846</v>
+        <v>0.03885337684649273</v>
       </c>
       <c r="K153" t="n">
-        <v>0.1435582827264398</v>
+        <v>0.07463643091510838</v>
       </c>
       <c r="L153" t="n">
-        <v>0.07003541334280361</v>
+        <v>0.09679888221683175</v>
       </c>
       <c r="M153" t="n">
-        <v>0.1432013597990786</v>
+        <v>0.07338720447293728</v>
       </c>
       <c r="N153" t="n">
-        <v>0.1114933711384134</v>
+        <v>0.1547637570554014</v>
       </c>
       <c r="O153" t="n">
-        <v>0.1433524382868505</v>
+        <v>0.07332948508450411</v>
       </c>
     </row>
     <row r="154" ht="15" customHeight="1">
       <c r="F154" t="n">
-        <v>0.01678146062831926</v>
+        <v>0.0182535702187142</v>
       </c>
       <c r="G154" t="n">
-        <v>0.1442061734116721</v>
+        <v>0.05172681263522685</v>
       </c>
       <c r="J154" t="n">
-        <v>0.02819996359259241</v>
+        <v>0.03874104057725733</v>
       </c>
       <c r="K154" t="n">
-        <v>0.1451896268483312</v>
+        <v>0.07548457217550734</v>
       </c>
       <c r="L154" t="n">
-        <v>0.07034046271241107</v>
+        <v>0.09675981711302853</v>
       </c>
       <c r="M154" t="n">
-        <v>0.1448286479786136</v>
+        <v>0.07422114997831156</v>
       </c>
       <c r="N154" t="n">
-        <v>0.111818537082762</v>
+        <v>0.1535007677770213</v>
       </c>
       <c r="O154" t="n">
-        <v>0.1449814432673829</v>
+        <v>0.0741627746877371</v>
       </c>
     </row>
     <row r="155" ht="15" customHeight="1">
       <c r="F155" t="n">
-        <v>0.0178378613247427</v>
+        <v>0.01826466614107436</v>
       </c>
       <c r="G155" t="n">
-        <v>0.1458264674949493</v>
+        <v>0.05230801277719569</v>
       </c>
       <c r="J155" t="n">
-        <v>0.02838686991212919</v>
+        <v>0.03872668982048502</v>
       </c>
       <c r="K155" t="n">
-        <v>0.1468209709702225</v>
+        <v>0.07633271343590631</v>
       </c>
       <c r="L155" t="n">
-        <v>0.0700596364806228</v>
+        <v>0.09651634086312644</v>
       </c>
       <c r="M155" t="n">
-        <v>0.1464559361581486</v>
+        <v>0.07505509548368584</v>
       </c>
       <c r="N155" t="n">
-        <v>0.1116665667711234</v>
+        <v>0.1539307738129365</v>
       </c>
       <c r="O155" t="n">
-        <v>0.1466104482479153</v>
+        <v>0.07499606429097011</v>
       </c>
     </row>
     <row r="156" ht="15" customHeight="1">
       <c r="F156" t="n">
-        <v>0.01590512449640633</v>
+        <v>0.01827450811864722</v>
       </c>
       <c r="G156" t="n">
-        <v>0.1474467615782265</v>
+        <v>0.05288921291916453</v>
       </c>
       <c r="J156" t="n">
-        <v>0.02837909074153976</v>
+        <v>0.03881042161562684</v>
       </c>
       <c r="K156" t="n">
-        <v>0.1484523150921139</v>
+        <v>0.07718085469630527</v>
       </c>
       <c r="L156" t="n">
-        <v>0.07059189772584423</v>
+        <v>0.09636868273212709</v>
       </c>
       <c r="M156" t="n">
-        <v>0.1480832243376836</v>
+        <v>0.07588904098906013</v>
       </c>
       <c r="N156" t="n">
-        <v>0.1127352997686665</v>
+        <v>0.1537541405816212</v>
       </c>
       <c r="O156" t="n">
-        <v>0.1482394532284477</v>
+        <v>0.0758293538942031</v>
       </c>
     </row>
     <row r="157" ht="15" customHeight="1">
       <c r="F157" t="n">
-        <v>0.0160230943941825</v>
+        <v>0.01828311639655144</v>
       </c>
       <c r="G157" t="n">
-        <v>0.1490670556615037</v>
+        <v>0.05347041306113338</v>
       </c>
       <c r="J157" t="n">
-        <v>0.02870472302635606</v>
+        <v>0.03879233300213385</v>
       </c>
       <c r="K157" t="n">
-        <v>0.1500836592140052</v>
+        <v>0.07802899595670423</v>
       </c>
       <c r="L157" t="n">
-        <v>0.07146088339604043</v>
+        <v>0.09651707198503212</v>
       </c>
       <c r="M157" t="n">
-        <v>0.1497105125172186</v>
+        <v>0.07672298649443443</v>
       </c>
       <c r="N157" t="n">
-        <v>0.1140838856008972</v>
+        <v>0.1539712335015499</v>
       </c>
       <c r="O157" t="n">
-        <v>0.1498684582089801</v>
+        <v>0.07666264349743612</v>
       </c>
     </row>
     <row r="158" ht="15" customHeight="1">
       <c r="F158" t="n">
-        <v>0.01818888175026193</v>
+        <v>0.01829051121990566</v>
       </c>
       <c r="G158" t="n">
-        <v>0.150687349744781</v>
+        <v>0.05405161320310221</v>
       </c>
       <c r="J158" t="n">
-        <v>0.02891755566050999</v>
+        <v>0.03897252101945704</v>
       </c>
       <c r="K158" t="n">
-        <v>0.1517150033358966</v>
+        <v>0.07887713721710318</v>
       </c>
       <c r="L158" t="n">
-        <v>0.07184046776276642</v>
+        <v>0.09626173788684306</v>
       </c>
       <c r="M158" t="n">
-        <v>0.1513378006967535</v>
+        <v>0.07755693199980872</v>
       </c>
       <c r="N158" t="n">
-        <v>0.1134762231082334</v>
+        <v>0.1530824179911967</v>
       </c>
       <c r="O158" t="n">
-        <v>0.1514974631895125</v>
+        <v>0.07749593310066911</v>
       </c>
     </row>
     <row r="159" ht="15" customHeight="1">
       <c r="F159" t="n">
-        <v>0.01639238953560997</v>
+        <v>0.01829671283382855</v>
       </c>
       <c r="G159" t="n">
-        <v>0.1523076438280582</v>
+        <v>0.05463281334507106</v>
       </c>
       <c r="J159" t="n">
-        <v>0.02890344092285428</v>
+        <v>0.03875108270704748</v>
       </c>
       <c r="K159" t="n">
-        <v>0.1533463474577879</v>
+        <v>0.07972527847750215</v>
       </c>
       <c r="L159" t="n">
-        <v>0.07268995799827135</v>
+        <v>0.09580290970256147</v>
       </c>
       <c r="M159" t="n">
-        <v>0.1529650888762885</v>
+        <v>0.078390877505183</v>
       </c>
       <c r="N159" t="n">
-        <v>0.1151478671539133</v>
+        <v>0.1537880594690358</v>
       </c>
       <c r="O159" t="n">
-        <v>0.1531264681700449</v>
+        <v>0.07832922270390212</v>
       </c>
     </row>
     <row r="160" ht="15" customHeight="1">
       <c r="F160" t="n">
-        <v>0.01762352072119194</v>
+        <v>0.0183017414834388</v>
       </c>
       <c r="G160" t="n">
-        <v>0.1539279379113354</v>
+        <v>0.05521401348703989</v>
       </c>
       <c r="J160" t="n">
-        <v>0.02944588275369292</v>
+        <v>0.03892811510435618</v>
       </c>
       <c r="K160" t="n">
-        <v>0.1549776915796793</v>
+        <v>0.08057341973790109</v>
       </c>
       <c r="L160" t="n">
-        <v>0.07286866127480432</v>
+        <v>0.09644081669718899</v>
       </c>
       <c r="M160" t="n">
-        <v>0.1545923770558235</v>
+        <v>0.07922482301055729</v>
       </c>
       <c r="N160" t="n">
-        <v>0.1161335994247861</v>
+        <v>0.1529885233535416</v>
       </c>
       <c r="O160" t="n">
-        <v>0.1547554731505773</v>
+        <v>0.07916251230713511</v>
       </c>
     </row>
     <row r="161" ht="15" customHeight="1">
       <c r="F161" t="n">
-        <v>0.01887217827797315</v>
+        <v>0.01830561741385502</v>
       </c>
       <c r="G161" t="n">
-        <v>0.1555482319946126</v>
+        <v>0.05579521362900873</v>
       </c>
       <c r="J161" t="n">
-        <v>0.02972838509332999</v>
+        <v>0.03880371525083415</v>
       </c>
       <c r="K161" t="n">
-        <v>0.1566090357015707</v>
+        <v>0.08142156099830006</v>
       </c>
       <c r="L161" t="n">
-        <v>0.07413588476461444</v>
+        <v>0.09597568813572721</v>
       </c>
       <c r="M161" t="n">
-        <v>0.1562196652353585</v>
+        <v>0.08005876851593156</v>
       </c>
       <c r="N161" t="n">
-        <v>0.117968201607701</v>
+        <v>0.1527841750631883</v>
       </c>
       <c r="O161" t="n">
-        <v>0.1563844781311097</v>
+        <v>0.07999580191036812</v>
       </c>
     </row>
     <row r="162" ht="15" customHeight="1">
       <c r="F162" t="n">
-        <v>0.01712826517691893</v>
+        <v>0.01830836087019588</v>
       </c>
       <c r="G162" t="n">
-        <v>0.1571685260778898</v>
+        <v>0.05637641377097758</v>
       </c>
       <c r="J162" t="n">
-        <v>0.03023445188206952</v>
+        <v>0.03877798018593244</v>
       </c>
       <c r="K162" t="n">
-        <v>0.158240379823462</v>
+        <v>0.08226970225869902</v>
       </c>
       <c r="L162" t="n">
-        <v>0.07555093563995091</v>
+        <v>0.09630775328317767</v>
       </c>
       <c r="M162" t="n">
-        <v>0.1578469534148935</v>
+        <v>0.08089271402130586</v>
       </c>
       <c r="N162" t="n">
-        <v>0.1205864553895072</v>
+        <v>0.15417538001645</v>
       </c>
       <c r="O162" t="n">
-        <v>0.1580134831116421</v>
+        <v>0.08082909151360113</v>
       </c>
     </row>
     <row r="163" ht="15" customHeight="1">
       <c r="F163" t="n">
-        <v>0.01738168438899462</v>
+        <v>0.01830999209758005</v>
       </c>
       <c r="G163" t="n">
-        <v>0.158788820161167</v>
+        <v>0.05695761391294642</v>
       </c>
       <c r="J163" t="n">
-        <v>0.03054758706021556</v>
+        <v>0.03865100694910209</v>
       </c>
       <c r="K163" t="n">
-        <v>0.1598717239453534</v>
+        <v>0.08311784351909797</v>
       </c>
       <c r="L163" t="n">
-        <v>0.07617312107306276</v>
+        <v>0.09593724140454196</v>
       </c>
       <c r="M163" t="n">
-        <v>0.1594742415944284</v>
+        <v>0.08172665952668015</v>
       </c>
       <c r="N163" t="n">
-        <v>0.1219231424570541</v>
+        <v>0.1535625036318012</v>
       </c>
       <c r="O163" t="n">
-        <v>0.1596424880921745</v>
+        <v>0.08166238111683412</v>
       </c>
     </row>
     <row r="164" ht="15" customHeight="1">
       <c r="F164" t="n">
-        <v>0.01862233888516554</v>
+        <v>0.01831053134112617</v>
       </c>
       <c r="G164" t="n">
-        <v>0.1604091142444442</v>
+        <v>0.05753881405491526</v>
       </c>
       <c r="J164" t="n">
-        <v>0.03085129456807215</v>
+        <v>0.03872289257979412</v>
       </c>
       <c r="K164" t="n">
-        <v>0.1615030680672448</v>
+        <v>0.08396598477949695</v>
       </c>
       <c r="L164" t="n">
-        <v>0.07686174823619921</v>
+        <v>0.09626438176482172</v>
       </c>
       <c r="M164" t="n">
-        <v>0.1611015297739634</v>
+        <v>0.08256060503205444</v>
       </c>
       <c r="N164" t="n">
-        <v>0.1236130444971908</v>
+        <v>0.1537459113277162</v>
       </c>
       <c r="O164" t="n">
-        <v>0.1612714930727069</v>
+        <v>0.08249567072006712</v>
       </c>
     </row>
     <row r="165" ht="15" customHeight="1">
       <c r="F165" t="n">
-        <v>0.01984013163639702</v>
+        <v>0.01831053134112619</v>
       </c>
       <c r="G165" t="n">
-        <v>0.1620294083277215</v>
+        <v>0.05753881405491526</v>
       </c>
       <c r="J165" t="n">
-        <v>0.03142907834594329</v>
+        <v>0.03849373411745959</v>
       </c>
       <c r="K165" t="n">
-        <v>0.1631344121891361</v>
+        <v>0.0848141260398959</v>
       </c>
       <c r="L165" t="n">
-        <v>0.07777612430160938</v>
+        <v>0.09628940362901844</v>
       </c>
       <c r="M165" t="n">
-        <v>0.1627288179534984</v>
+        <v>0.08339455053742872</v>
       </c>
       <c r="N165" t="n">
-        <v>0.1244909431967666</v>
+        <v>0.1532259685226691</v>
       </c>
       <c r="O165" t="n">
-        <v>0.1629004980532393</v>
+        <v>0.08332896032330012</v>
       </c>
     </row>
     <row r="166" ht="15" customHeight="1">
       <c r="F166" t="n">
-        <v>0.01802797384977085</v>
+        <v>0.01788421473385779</v>
       </c>
       <c r="G166" t="n">
-        <v>0.1636497024109987</v>
+        <v>0.05753854552645125</v>
       </c>
       <c r="J166" t="n">
-        <v>0.03176444233413304</v>
+        <v>0.03876362860154946</v>
       </c>
       <c r="K166" t="n">
-        <v>0.1647657563110275</v>
+        <v>0.08566226730029486</v>
       </c>
       <c r="L166" t="n">
-        <v>0.07917555644154231</v>
+        <v>0.09621253626213375</v>
       </c>
       <c r="M166" t="n">
-        <v>0.1643561061330334</v>
+        <v>0.08422849604280301</v>
       </c>
       <c r="N166" t="n">
-        <v>0.1265916202426307</v>
+        <v>0.153303040635134</v>
       </c>
       <c r="O166" t="n">
-        <v>0.1645295030337716</v>
+        <v>0.08416224992653314</v>
       </c>
     </row>
     <row r="167" ht="15" customHeight="1">
       <c r="F167" t="n">
-        <v>0.02020563061993971</v>
+        <v>0.01746284468742172</v>
       </c>
       <c r="G167" t="n">
-        <v>0.1652699964942759</v>
+        <v>0.05753827699798723</v>
       </c>
       <c r="J167" t="n">
-        <v>0.03185742499127728</v>
+        <v>0.03873267307151479</v>
       </c>
       <c r="K167" t="n">
-        <v>0.1663971004329189</v>
+        <v>0.08651040856069382</v>
       </c>
       <c r="L167" t="n">
-        <v>0.07979302673879166</v>
+        <v>0.09563400892916923</v>
       </c>
       <c r="M167" t="n">
-        <v>0.1659833943125684</v>
+        <v>0.0850624415481773</v>
       </c>
       <c r="N167" t="n">
-        <v>0.1263435497436671</v>
+        <v>0.1534774930835855</v>
       </c>
       <c r="O167" t="n">
-        <v>0.166158508014304</v>
+        <v>0.08499553952976613</v>
       </c>
     </row>
     <row r="168" ht="15" customHeight="1">
       <c r="F168" t="n">
-        <v>0.01937898754400647</v>
+        <v>0.01704693363048317</v>
       </c>
       <c r="G168" t="n">
-        <v>0.1668902905775531</v>
+        <v>0.05753800846952321</v>
       </c>
       <c r="J168" t="n">
-        <v>0.03234132659725127</v>
+        <v>0.03850096456680664</v>
       </c>
       <c r="K168" t="n">
-        <v>0.1680284445548102</v>
+        <v>0.08735854982109277</v>
       </c>
       <c r="L168" t="n">
-        <v>0.08079269472555517</v>
+        <v>0.09555405089512647</v>
       </c>
       <c r="M168" t="n">
-        <v>0.1676106824921034</v>
+        <v>0.08589638705355158</v>
       </c>
       <c r="N168" t="n">
-        <v>0.1284653467692558</v>
+        <v>0.1519496912864977</v>
       </c>
       <c r="O168" t="n">
-        <v>0.1677875129948364</v>
+        <v>0.08582882913299912</v>
       </c>
     </row>
     <row r="169" ht="15" customHeight="1">
       <c r="F169" t="n">
-        <v>0.018548364930122</v>
+        <v>0.01663699399176158</v>
       </c>
       <c r="G169" t="n">
-        <v>0.1685105846608303</v>
+        <v>0.05753773994105919</v>
       </c>
       <c r="J169" t="n">
-        <v>0.03251843037094637</v>
+        <v>0.03856860012687602</v>
       </c>
       <c r="K169" t="n">
-        <v>0.1696597886767016</v>
+        <v>0.08820669108149173</v>
       </c>
       <c r="L169" t="n">
-        <v>0.08137586076102174</v>
+        <v>0.09547289142500706</v>
       </c>
       <c r="M169" t="n">
-        <v>0.1692379706716384</v>
+        <v>0.08673033255892587</v>
       </c>
       <c r="N169" t="n">
-        <v>0.128760514702797</v>
+        <v>0.1524200006623449</v>
       </c>
       <c r="O169" t="n">
-        <v>0.1694165179753688</v>
+        <v>0.08666211873623213</v>
       </c>
     </row>
     <row r="170" ht="15" customHeight="1">
       <c r="F170" t="n">
-        <v>0.01971408308643716</v>
+        <v>0.0162335381999219</v>
       </c>
       <c r="G170" t="n">
-        <v>0.1701308787441075</v>
+        <v>0.05753747141259518</v>
       </c>
       <c r="J170" t="n">
-        <v>0.03268925961702579</v>
+        <v>0.03853567679117395</v>
       </c>
       <c r="K170" t="n">
-        <v>0.1712911327985929</v>
+        <v>0.08905483234189068</v>
       </c>
       <c r="L170" t="n">
-        <v>0.08154381574416417</v>
+        <v>0.09589075978381256</v>
       </c>
       <c r="M170" t="n">
-        <v>0.1708652588511733</v>
+        <v>0.08756427806430016</v>
       </c>
       <c r="N170" t="n">
-        <v>0.1305311224654768</v>
+        <v>0.1530887866296013</v>
       </c>
       <c r="O170" t="n">
-        <v>0.1710455229559012</v>
+        <v>0.08749540833946512</v>
       </c>
     </row>
     <row r="171" ht="15" customHeight="1">
       <c r="F171" t="n">
-        <v>0.01887646232110278</v>
+        <v>0.01583707868364732</v>
       </c>
       <c r="G171" t="n">
-        <v>0.1717511728273848</v>
+        <v>0.05753720288413117</v>
       </c>
       <c r="J171" t="n">
-        <v>0.03305433764015256</v>
+        <v>0.03830229159915148</v>
       </c>
       <c r="K171" t="n">
-        <v>0.1729224769204843</v>
+        <v>0.08990297360228965</v>
       </c>
       <c r="L171" t="n">
-        <v>0.08219785057395543</v>
+        <v>0.09570788523654458</v>
       </c>
       <c r="M171" t="n">
-        <v>0.1724925470307083</v>
+        <v>0.08839822356967444</v>
       </c>
       <c r="N171" t="n">
-        <v>0.1306792389784814</v>
+        <v>0.1518564146067413</v>
       </c>
       <c r="O171" t="n">
-        <v>0.1726745279364336</v>
+        <v>0.08832869794269814</v>
       </c>
     </row>
     <row r="172" ht="15" customHeight="1">
       <c r="F172" t="n">
-        <v>0.02103582294226973</v>
+        <v>0.01544812787160429</v>
       </c>
       <c r="G172" t="n">
-        <v>0.173371466910662</v>
+        <v>0.05753693435566714</v>
       </c>
       <c r="J172" t="n">
-        <v>0.03341418774498987</v>
+        <v>0.03836854159025961</v>
       </c>
       <c r="K172" t="n">
-        <v>0.1745538210423757</v>
+        <v>0.09075111486268861</v>
       </c>
       <c r="L172" t="n">
-        <v>0.08343925614936828</v>
+        <v>0.09572449704820471</v>
       </c>
       <c r="M172" t="n">
-        <v>0.1741198352102433</v>
+        <v>0.08923216907504873</v>
       </c>
       <c r="N172" t="n">
-        <v>0.132306933162997</v>
+        <v>0.1522232500122389</v>
       </c>
       <c r="O172" t="n">
-        <v>0.174303532916966</v>
+        <v>0.08916198754593113</v>
       </c>
     </row>
     <row r="173" ht="15" customHeight="1">
       <c r="F173" t="n">
-        <v>0.01919248525808884</v>
+        <v>0.01506719819250987</v>
       </c>
       <c r="G173" t="n">
-        <v>0.1749917609939392</v>
+        <v>0.05753666582720313</v>
       </c>
       <c r="J173" t="n">
-        <v>0.03376933323620084</v>
+        <v>0.0383345238039494</v>
       </c>
       <c r="K173" t="n">
-        <v>0.176185165164267</v>
+        <v>0.09159925612308757</v>
       </c>
       <c r="L173" t="n">
-        <v>0.08336932336937569</v>
+        <v>0.09473917979401794</v>
       </c>
       <c r="M173" t="n">
-        <v>0.1757471233897783</v>
+        <v>0.09006611458042302</v>
       </c>
       <c r="N173" t="n">
-        <v>0.1340162739402097</v>
+        <v>0.1526859605579185</v>
       </c>
       <c r="O173" t="n">
-        <v>0.1759325378974984</v>
+        <v>0.08999527714916414</v>
       </c>
     </row>
     <row r="174" ht="15" customHeight="1">
       <c r="F174" t="n">
-        <v>0.021346769576711</v>
+        <v>0.01469480207503016</v>
       </c>
       <c r="G174" t="n">
-        <v>0.1766120550772164</v>
+        <v>0.05753639729873911</v>
       </c>
       <c r="J174" t="n">
-        <v>0.03372029741844856</v>
+        <v>0.03820033527967188</v>
       </c>
       <c r="K174" t="n">
-        <v>0.1778165092861584</v>
+        <v>0.09244739738348653</v>
       </c>
       <c r="L174" t="n">
-        <v>0.08418934313295046</v>
+        <v>0.09553621178195909</v>
       </c>
       <c r="M174" t="n">
-        <v>0.1773744115693133</v>
+        <v>0.09090006008579732</v>
       </c>
       <c r="N174" t="n">
-        <v>0.1351093302313055</v>
+        <v>0.1520192168010068</v>
       </c>
       <c r="O174" t="n">
-        <v>0.1775615428780308</v>
+        <v>0.09082856675239713</v>
       </c>
     </row>
     <row r="175" ht="15" customHeight="1">
       <c r="F175" t="n">
-        <v>0.02049899620628703</v>
+        <v>0.01433145194784835</v>
       </c>
       <c r="G175" t="n">
-        <v>0.1782323491604936</v>
+        <v>0.05753612877027509</v>
       </c>
       <c r="J175" t="n">
-        <v>0.03406760359639618</v>
+        <v>0.03846271133717095</v>
       </c>
       <c r="K175" t="n">
-        <v>0.1794478534080498</v>
+        <v>0.09329553864388548</v>
       </c>
       <c r="L175" t="n">
-        <v>0.08530060633906544</v>
+        <v>0.09541351596939709</v>
       </c>
       <c r="M175" t="n">
-        <v>0.1790016997488482</v>
+        <v>0.09173400559117161</v>
       </c>
       <c r="N175" t="n">
-        <v>0.1361881709574708</v>
+        <v>0.1521212740238518</v>
       </c>
       <c r="O175" t="n">
-        <v>0.1791905478585632</v>
+        <v>0.09166185635563014</v>
       </c>
     </row>
     <row r="176" ht="15" customHeight="1">
       <c r="F176" t="n">
-        <v>0.0206494854549678</v>
+        <v>0.01397766023963246</v>
       </c>
       <c r="G176" t="n">
-        <v>0.1798526432437708</v>
+        <v>0.05753586024181107</v>
       </c>
       <c r="J176" t="n">
-        <v>0.03441177507470686</v>
+        <v>0.03831647080473671</v>
       </c>
       <c r="K176" t="n">
-        <v>0.1810791975299411</v>
+        <v>0.09414367990428445</v>
       </c>
       <c r="L176" t="n">
-        <v>0.08520440388669351</v>
+        <v>0.09437347712221883</v>
       </c>
       <c r="M176" t="n">
-        <v>0.1806289879283833</v>
+        <v>0.09256795109654588</v>
       </c>
       <c r="N176" t="n">
-        <v>0.1359548650398917</v>
+        <v>0.150995933231866</v>
       </c>
       <c r="O176" t="n">
-        <v>0.1808195528390956</v>
+        <v>0.09249514595886314</v>
       </c>
     </row>
     <row r="177" ht="15" customHeight="1">
       <c r="F177" t="n">
-        <v>0.0217985632350543</v>
+        <v>0.01363393937909647</v>
       </c>
       <c r="G177" t="n">
-        <v>0.1814729373270481</v>
+        <v>0.05753559171334705</v>
       </c>
       <c r="J177" t="n">
-        <v>0.03455333515804368</v>
+        <v>0.0382625182362154</v>
       </c>
       <c r="K177" t="n">
-        <v>0.1827105416518325</v>
+        <v>0.0949918211646834</v>
       </c>
       <c r="L177" t="n">
-        <v>0.08630202667480757</v>
+        <v>0.09481848000631118</v>
       </c>
       <c r="M177" t="n">
-        <v>0.1822562761079182</v>
+        <v>0.09340189660192016</v>
       </c>
       <c r="N177" t="n">
-        <v>0.1373114813997542</v>
+        <v>0.1511469954304612</v>
       </c>
       <c r="O177" t="n">
-        <v>0.182448557819628</v>
+        <v>0.09332843556209613</v>
       </c>
     </row>
     <row r="178" ht="15" customHeight="1">
       <c r="F178" t="n">
-        <v>0.02195311532569959</v>
+        <v>0.01330080179490799</v>
       </c>
       <c r="G178" t="n">
-        <v>0.1830932314103253</v>
+        <v>0.05753532318488304</v>
       </c>
       <c r="J178" t="n">
-        <v>0.03469492764290687</v>
+        <v>0.0383018630153808</v>
       </c>
       <c r="K178" t="n">
-        <v>0.1843418857737238</v>
+        <v>0.09583996242508236</v>
       </c>
       <c r="L178" t="n">
-        <v>0.08630607145061353</v>
+        <v>0.09475090938756095</v>
       </c>
       <c r="M178" t="n">
-        <v>0.1838835642874532</v>
+        <v>0.09423584210729445</v>
       </c>
       <c r="N178" t="n">
-        <v>0.1375736663050877</v>
+        <v>0.1512782616250499</v>
       </c>
       <c r="O178" t="n">
-        <v>0.1840775628001604</v>
+        <v>0.09416172516532914</v>
       </c>
     </row>
     <row r="179" ht="15" customHeight="1">
       <c r="F179" t="n">
-        <v>0.02011536056479587</v>
+        <v>0.01297875991575021</v>
       </c>
       <c r="G179" t="n">
-        <v>0.1847135254936025</v>
+        <v>0.05753505465641903</v>
       </c>
       <c r="J179" t="n">
-        <v>0.03515026074379529</v>
+        <v>0.03823551452600671</v>
       </c>
       <c r="K179" t="n">
-        <v>0.1859732298956152</v>
+        <v>0.09668810368548132</v>
       </c>
       <c r="L179" t="n">
-        <v>0.08764554715815775</v>
+        <v>0.09457315003185499</v>
       </c>
       <c r="M179" t="n">
-        <v>0.1855108524669882</v>
+        <v>0.09506978761266875</v>
       </c>
       <c r="N179" t="n">
-        <v>0.1397922096534407</v>
+        <v>0.1510935328210441</v>
       </c>
       <c r="O179" t="n">
-        <v>0.1857065677806927</v>
+        <v>0.09499501476856213</v>
       </c>
     </row>
     <row r="180" ht="15" customHeight="1">
       <c r="F180" t="n">
-        <v>0.02027979662324804</v>
+        <v>0.01266832617029306</v>
       </c>
       <c r="G180" t="n">
-        <v>0.1863338195768797</v>
+        <v>0.057534786127955</v>
       </c>
       <c r="J180" t="n">
-        <v>0.03531432457430596</v>
+        <v>0.0378644821518669</v>
       </c>
       <c r="K180" t="n">
-        <v>0.1876045740175065</v>
+        <v>0.09753624494588027</v>
       </c>
       <c r="L180" t="n">
-        <v>0.08750191565017038</v>
+        <v>0.09448758670508023</v>
       </c>
       <c r="M180" t="n">
-        <v>0.1871381406465232</v>
+        <v>0.09590373311804304</v>
       </c>
       <c r="N180" t="n">
-        <v>0.1397409822504975</v>
+        <v>0.150596610023856</v>
       </c>
       <c r="O180" t="n">
-        <v>0.1873355727612251</v>
+        <v>0.09582830437179514</v>
       </c>
     </row>
     <row r="181" ht="15" customHeight="1">
       <c r="F181" t="n">
-        <v>0.02244092117196101</v>
+        <v>0.01237001298724679</v>
       </c>
       <c r="G181" t="n">
-        <v>0.1879541136601569</v>
+        <v>0.05753451759949098</v>
       </c>
       <c r="J181" t="n">
-        <v>0.03567812968329359</v>
+        <v>0.03808977527673515</v>
       </c>
       <c r="K181" t="n">
-        <v>0.1892359181393979</v>
+        <v>0.09838438620627925</v>
       </c>
       <c r="L181" t="n">
-        <v>0.08865300155909259</v>
+        <v>0.0935966041731234</v>
       </c>
       <c r="M181" t="n">
-        <v>0.1887654288260582</v>
+        <v>0.09673767862341733</v>
       </c>
       <c r="N181" t="n">
-        <v>0.1420844436792945</v>
+        <v>0.1498912942388977</v>
       </c>
       <c r="O181" t="n">
-        <v>0.1889645777417575</v>
+        <v>0.09666159397502815</v>
       </c>
     </row>
     <row r="182" ht="15" customHeight="1">
       <c r="F182" t="n">
-        <v>0.02259323188183966</v>
+        <v>0.01208433279528082</v>
       </c>
       <c r="G182" t="n">
-        <v>0.1895744077434341</v>
+        <v>0.05753424907102697</v>
       </c>
       <c r="J182" t="n">
-        <v>0.03593268661961292</v>
+        <v>0.03801240328438525</v>
       </c>
       <c r="K182" t="n">
-        <v>0.1908672622612892</v>
+        <v>0.0992325274666782</v>
       </c>
       <c r="L182" t="n">
-        <v>0.08967662951736571</v>
+        <v>0.09370258720187144</v>
       </c>
       <c r="M182" t="n">
-        <v>0.1903927170055932</v>
+        <v>0.09757162412879161</v>
       </c>
       <c r="N182" t="n">
-        <v>0.1428870535228685</v>
+        <v>0.1495813864715816</v>
       </c>
       <c r="O182" t="n">
-        <v>0.1905935827222899</v>
+        <v>0.09749488357826115</v>
       </c>
     </row>
     <row r="183" ht="15" customHeight="1">
       <c r="F183" t="n">
-        <v>0.02173122642378891</v>
+        <v>0.01181179802307832</v>
       </c>
       <c r="G183" t="n">
-        <v>0.1911947018267113</v>
+        <v>0.05753398054256296</v>
       </c>
       <c r="J183" t="n">
-        <v>0.03596900593211864</v>
+        <v>0.03773337555859098</v>
       </c>
       <c r="K183" t="n">
-        <v>0.1924986063831806</v>
+        <v>0.1000806687270772</v>
       </c>
       <c r="L183" t="n">
-        <v>0.08945062415743091</v>
+        <v>0.09310792055721118</v>
       </c>
       <c r="M183" t="n">
-        <v>0.1920200051851281</v>
+        <v>0.09840556963416588</v>
       </c>
       <c r="N183" t="n">
-        <v>0.1426132713642561</v>
+        <v>0.1486706877273198</v>
       </c>
       <c r="O183" t="n">
-        <v>0.1922225877028223</v>
+        <v>0.09832817318149414</v>
       </c>
     </row>
     <row r="184" ht="15" customHeight="1">
       <c r="F184" t="n">
-        <v>0.02284940246871364</v>
+        <v>0.01155292109931154</v>
       </c>
       <c r="G184" t="n">
-        <v>0.1928149959099885</v>
+        <v>0.05753371201409893</v>
       </c>
       <c r="J184" t="n">
-        <v>0.03617809816966552</v>
+        <v>0.03765370148312615</v>
       </c>
       <c r="K184" t="n">
-        <v>0.194129950505072</v>
+        <v>0.1009288099874761</v>
       </c>
       <c r="L184" t="n">
-        <v>0.09015281011172938</v>
+        <v>0.09351498900502947</v>
       </c>
       <c r="M184" t="n">
-        <v>0.1936472933646631</v>
+        <v>0.09923951513954017</v>
       </c>
       <c r="N184" t="n">
-        <v>0.1439275567864942</v>
+        <v>0.1486629990115243</v>
       </c>
       <c r="O184" t="n">
-        <v>0.1938515926833547</v>
+        <v>0.09916146278472715</v>
       </c>
     </row>
     <row r="185" ht="15" customHeight="1">
       <c r="F185" t="n">
-        <v>0.02194225768751876</v>
+        <v>0.01130821445268623</v>
       </c>
       <c r="G185" t="n">
-        <v>0.1944352899932658</v>
+        <v>0.05753344348563492</v>
       </c>
       <c r="J185" t="n">
-        <v>0.03635097388110826</v>
+        <v>0.03767439044176454</v>
       </c>
       <c r="K185" t="n">
-        <v>0.1957612946269633</v>
+        <v>0.1017769512478751</v>
       </c>
       <c r="L185" t="n">
-        <v>0.09036101201270239</v>
+        <v>0.09272617731121316</v>
       </c>
       <c r="M185" t="n">
-        <v>0.1952745815441981</v>
+        <v>0.1000734606449145</v>
       </c>
       <c r="N185" t="n">
-        <v>0.1441943693726192</v>
+        <v>0.1492621213296075</v>
       </c>
       <c r="O185" t="n">
-        <v>0.1954805976638871</v>
+        <v>0.09999475238796014</v>
       </c>
     </row>
     <row r="186" ht="15" customHeight="1">
       <c r="F186" t="n">
-        <v>0.02300757715644473</v>
+        <v>0.01107819051187401</v>
       </c>
       <c r="G186" t="n">
-        <v>0.196055584076543</v>
+        <v>0.0575331749571709</v>
       </c>
       <c r="J186" t="n">
-        <v>0.0366786436153016</v>
+        <v>0.03759645181827989</v>
       </c>
       <c r="K186" t="n">
-        <v>0.1973926387488547</v>
+        <v>0.102625092508274</v>
       </c>
       <c r="L186" t="n">
-        <v>0.09105379856299592</v>
+        <v>0.09264387024164908</v>
       </c>
       <c r="M186" t="n">
-        <v>0.1969018697237331</v>
+        <v>0.1009074061502888</v>
       </c>
       <c r="N186" t="n">
-        <v>0.1446782290689198</v>
+        <v>0.1490718556869814</v>
       </c>
       <c r="O186" t="n">
-        <v>0.1971096026444195</v>
+        <v>0.1008280419911931</v>
       </c>
     </row>
     <row r="187" ht="15" customHeight="1">
       <c r="F187" t="n">
-        <v>0.02106673114078117</v>
+        <v>0.01086336170555807</v>
       </c>
       <c r="G187" t="n">
-        <v>0.1976758781598202</v>
+        <v>0.05753290642870688</v>
       </c>
       <c r="J187" t="n">
-        <v>0.03687527151984349</v>
+        <v>0.03732089499644604</v>
       </c>
       <c r="K187" t="n">
-        <v>0.1990239828707461</v>
+        <v>0.103473233768673</v>
       </c>
       <c r="L187" t="n">
-        <v>0.09159186181564</v>
+        <v>0.0927704525622241</v>
       </c>
       <c r="M187" t="n">
-        <v>0.1985291579032681</v>
+        <v>0.101741351655663</v>
       </c>
       <c r="N187" t="n">
-        <v>0.1457596367052248</v>
+        <v>0.1485960030890582</v>
       </c>
       <c r="O187" t="n">
-        <v>0.1987386076249519</v>
+        <v>0.1016613315944262</v>
       </c>
     </row>
     <row r="188" ht="15" customHeight="1">
       <c r="F188" t="n">
-        <v>0.0231245945013899</v>
+        <v>0.01066424046241329</v>
       </c>
       <c r="G188" t="n">
-        <v>0.1992961722430974</v>
+        <v>0.05753263790024286</v>
       </c>
       <c r="J188" t="n">
-        <v>0.03676961893377195</v>
+        <v>0.03744872936003672</v>
       </c>
       <c r="K188" t="n">
-        <v>0.2006553269926374</v>
+        <v>0.1043213750290719</v>
       </c>
       <c r="L188" t="n">
-        <v>0.09142477298833271</v>
+        <v>0.09230830903882514</v>
       </c>
       <c r="M188" t="n">
-        <v>0.2001564460828031</v>
+        <v>0.1025752971610373</v>
       </c>
       <c r="N188" t="n">
-        <v>0.1467328064295046</v>
+        <v>0.1480383645412504</v>
       </c>
       <c r="O188" t="n">
-        <v>0.2003676126054843</v>
+        <v>0.1024946211976591</v>
       </c>
     </row>
     <row r="189" ht="15" customHeight="1">
       <c r="F189" t="n">
-        <v>0.0231811469889553</v>
+        <v>0.01048133921114022</v>
       </c>
       <c r="G189" t="n">
-        <v>0.2009164663263746</v>
+        <v>0.05753236937177884</v>
       </c>
       <c r="J189" t="n">
-        <v>0.03696185624101403</v>
+        <v>0.03738096429282577</v>
       </c>
       <c r="K189" t="n">
-        <v>0.2022866711145288</v>
+        <v>0.1051695162894709</v>
       </c>
       <c r="L189" t="n">
-        <v>0.09205245047272073</v>
+        <v>0.09255982443733893</v>
       </c>
       <c r="M189" t="n">
-        <v>0.2017837342623381</v>
+        <v>0.1034092426664116</v>
       </c>
       <c r="N189" t="n">
-        <v>0.1470976074482155</v>
+        <v>0.1483027410489697</v>
       </c>
       <c r="O189" t="n">
-        <v>0.2019966175860167</v>
+        <v>0.1033279108008922</v>
       </c>
     </row>
     <row r="190" ht="15" customHeight="1">
       <c r="F190" t="n">
-        <v>0.02123636835416174</v>
+        <v>0.01031307796329013</v>
       </c>
       <c r="G190" t="n">
-        <v>0.2025367604096518</v>
+        <v>0.05753210084331483</v>
       </c>
       <c r="J190" t="n">
-        <v>0.03695195035917308</v>
+        <v>0.03721860917858695</v>
       </c>
       <c r="K190" t="n">
-        <v>0.2039180152364202</v>
+        <v>0.1060176575498699</v>
       </c>
       <c r="L190" t="n">
-        <v>0.09187481266045069</v>
+        <v>0.09212738352365238</v>
       </c>
       <c r="M190" t="n">
-        <v>0.203411022441873</v>
+        <v>0.1042431881717859</v>
       </c>
       <c r="N190" t="n">
-        <v>0.1469539089678138</v>
+        <v>0.1469929336176284</v>
       </c>
       <c r="O190" t="n">
-        <v>0.2036256225665491</v>
+        <v>0.1041612004041251</v>
       </c>
     </row>
     <row r="191" ht="15" customHeight="1">
       <c r="F191" t="n">
-        <v>0.02329023834769358</v>
+        <v>0.01014741464480787</v>
       </c>
       <c r="G191" t="n">
-        <v>0.204157054492929</v>
+        <v>0.05753183231485082</v>
       </c>
       <c r="J191" t="n">
-        <v>0.03693986820585247</v>
+        <v>0.03706267340109405</v>
       </c>
       <c r="K191" t="n">
-        <v>0.2055493593583115</v>
+        <v>0.1068657988102688</v>
       </c>
       <c r="L191" t="n">
-        <v>0.09219177794316932</v>
+        <v>0.09231337106365237</v>
       </c>
       <c r="M191" t="n">
-        <v>0.205038310621408</v>
+        <v>0.1050771336771602</v>
       </c>
       <c r="N191" t="n">
-        <v>0.147201580194756</v>
+        <v>0.146612743252639</v>
       </c>
       <c r="O191" t="n">
-        <v>0.2052546275470815</v>
+        <v>0.1049944900073582</v>
       </c>
     </row>
     <row r="192" ht="15" customHeight="1">
       <c r="F192" t="n">
-        <v>0.02134273672023519</v>
+        <v>0.009982769267246248</v>
       </c>
       <c r="G192" t="n">
-        <v>0.2057773485762062</v>
+        <v>0.05753156378638679</v>
       </c>
       <c r="J192" t="n">
-        <v>0.03702557669865557</v>
+        <v>0.03721416634412082</v>
       </c>
       <c r="K192" t="n">
-        <v>0.2071807034802029</v>
+        <v>0.1077139400706678</v>
       </c>
       <c r="L192" t="n">
-        <v>0.09260326471252334</v>
+        <v>0.09172017182322567</v>
       </c>
       <c r="M192" t="n">
-        <v>0.206665598800943</v>
+        <v>0.1059110791825345</v>
       </c>
       <c r="N192" t="n">
-        <v>0.1478404903354983</v>
+        <v>0.1472659709594134</v>
       </c>
       <c r="O192" t="n">
-        <v>0.2068836325276139</v>
+        <v>0.1058277796105911</v>
       </c>
     </row>
     <row r="193" ht="15" customHeight="1">
       <c r="F193" t="n">
-        <v>0.02339384322247096</v>
+        <v>0.009819654259302771</v>
       </c>
       <c r="G193" t="n">
-        <v>0.2073976426594835</v>
+        <v>0.05753129525792278</v>
       </c>
       <c r="J193" t="n">
-        <v>0.03730904275518571</v>
+        <v>0.03717409739144109</v>
       </c>
       <c r="K193" t="n">
-        <v>0.2088120476020942</v>
+        <v>0.1085620813310667</v>
       </c>
       <c r="L193" t="n">
-        <v>0.09280919136015936</v>
+        <v>0.09244115421659524</v>
       </c>
       <c r="M193" t="n">
-        <v>0.208292886980478</v>
+        <v>0.1067450246879088</v>
       </c>
       <c r="N193" t="n">
-        <v>0.1478705085964971</v>
+        <v>0.1475401637866652</v>
       </c>
       <c r="O193" t="n">
-        <v>0.2085126375081462</v>
+        <v>0.1066610692138242</v>
       </c>
     </row>
     <row r="194" ht="15" customHeight="1">
       <c r="F194" t="n">
-        <v>0.02144353760508525</v>
+        <v>0.009658582049653495</v>
       </c>
       <c r="G194" t="n">
-        <v>0.2090179367427607</v>
+        <v>0.05753102672945876</v>
       </c>
       <c r="J194" t="n">
-        <v>0.03749023329304628</v>
+        <v>0.03714122643830024</v>
       </c>
       <c r="K194" t="n">
-        <v>0.2104433917239856</v>
+        <v>0.1094102225914657</v>
       </c>
       <c r="L194" t="n">
-        <v>0.09260947627772415</v>
+        <v>0.09206469392413363</v>
       </c>
       <c r="M194" t="n">
-        <v>0.209920175160013</v>
+        <v>0.1075789701932831</v>
       </c>
       <c r="N194" t="n">
-        <v>0.1482915041842087</v>
+        <v>0.1464183200795945</v>
       </c>
       <c r="O194" t="n">
-        <v>0.2101416424886786</v>
+        <v>0.1074943588170572</v>
       </c>
     </row>
     <row r="195" ht="15" customHeight="1">
       <c r="F195" t="n">
-        <v>0.02349179961876243</v>
+        <v>0.009500065066981575</v>
       </c>
       <c r="G195" t="n">
-        <v>0.2106382308260379</v>
+        <v>0.05753075820099475</v>
       </c>
       <c r="J195" t="n">
-        <v>0.0373691152298406</v>
+        <v>0.03700975442054577</v>
       </c>
       <c r="K195" t="n">
-        <v>0.2120747358458769</v>
+        <v>0.1102583638518647</v>
       </c>
       <c r="L195" t="n">
-        <v>0.09280403785686425</v>
+        <v>0.09189063698457828</v>
       </c>
       <c r="M195" t="n">
-        <v>0.211547463339548</v>
+        <v>0.1084129156986573</v>
       </c>
       <c r="N195" t="n">
-        <v>0.1482033463050896</v>
+        <v>0.146800303307435</v>
       </c>
       <c r="O195" t="n">
-        <v>0.211770647469211</v>
+        <v>0.1083276484202901</v>
       </c>
     </row>
     <row r="196" ht="15" customHeight="1">
       <c r="F196" t="n">
-        <v>0.02153860901418687</v>
+        <v>0.009344615739963542</v>
       </c>
       <c r="G196" t="n">
-        <v>0.2122585249093151</v>
+        <v>0.05753048967253072</v>
       </c>
       <c r="J196" t="n">
-        <v>0.03754565548317208</v>
+        <v>0.03687928817865498</v>
       </c>
       <c r="K196" t="n">
-        <v>0.2137060799677684</v>
+        <v>0.1111065051122636</v>
       </c>
       <c r="L196" t="n">
-        <v>0.09309279448922639</v>
+        <v>0.09151890698074744</v>
       </c>
       <c r="M196" t="n">
-        <v>0.2131747515190829</v>
+        <v>0.1092468612040316</v>
       </c>
       <c r="N196" t="n">
-        <v>0.149205904165596</v>
+        <v>0.146285991671178</v>
       </c>
       <c r="O196" t="n">
-        <v>0.2133996524497434</v>
+        <v>0.1091609380235232</v>
       </c>
     </row>
     <row r="197" ht="15" customHeight="1">
       <c r="F197" t="n">
-        <v>0.02258394554204295</v>
+        <v>0.009192746497296109</v>
       </c>
       <c r="G197" t="n">
-        <v>0.2138788189925923</v>
+        <v>0.05753022114406671</v>
       </c>
       <c r="J197" t="n">
-        <v>0.03741982097064406</v>
+        <v>0.03704979536804263</v>
       </c>
       <c r="K197" t="n">
-        <v>0.2153374240896597</v>
+        <v>0.1119546463726626</v>
       </c>
       <c r="L197" t="n">
-        <v>0.09287566456645727</v>
+        <v>0.09184942749545938</v>
       </c>
       <c r="M197" t="n">
-        <v>0.2148020396986179</v>
+        <v>0.1100808067094059</v>
       </c>
       <c r="N197" t="n">
-        <v>0.1484990469721844</v>
+        <v>0.1458752633718144</v>
       </c>
       <c r="O197" t="n">
-        <v>0.2150286574302758</v>
+        <v>0.1099942276267561</v>
       </c>
     </row>
     <row r="198" ht="15" customHeight="1">
       <c r="F198" t="n">
-        <v>0.02362778895301503</v>
+        <v>0.009044969767655661</v>
       </c>
       <c r="G198" t="n">
-        <v>0.2154991130758696</v>
+        <v>0.0575299526156027</v>
       </c>
       <c r="J198" t="n">
-        <v>0.0374915786098599</v>
+        <v>0.03702124364412365</v>
       </c>
       <c r="K198" t="n">
-        <v>0.2169687682115511</v>
+        <v>0.1128027876330615</v>
       </c>
       <c r="L198" t="n">
-        <v>0.09305256648020363</v>
+        <v>0.09128212211153236</v>
       </c>
       <c r="M198" t="n">
-        <v>0.2164293278781529</v>
+        <v>0.1109147522147802</v>
       </c>
       <c r="N198" t="n">
-        <v>0.148882643931311</v>
+        <v>0.1471679966103357</v>
       </c>
       <c r="O198" t="n">
-        <v>0.2166576624108082</v>
+        <v>0.1108275172299892</v>
       </c>
     </row>
     <row r="199" ht="15" customHeight="1">
       <c r="F199" t="n">
-        <v>0.02267011899778749</v>
+        <v>0.008901797979725394</v>
       </c>
       <c r="G199" t="n">
-        <v>0.2171194071591468</v>
+        <v>0.05752968408713868</v>
       </c>
       <c r="J199" t="n">
-        <v>0.03756089531842292</v>
+        <v>0.03679360066231289</v>
       </c>
       <c r="K199" t="n">
-        <v>0.2186001123334424</v>
+        <v>0.1136509288934605</v>
       </c>
       <c r="L199" t="n">
-        <v>0.09322341862211206</v>
+        <v>0.09201691441178469</v>
       </c>
       <c r="M199" t="n">
-        <v>0.2180566160576879</v>
+        <v>0.1117486977201545</v>
       </c>
       <c r="N199" t="n">
-        <v>0.1496565642494322</v>
+        <v>0.1471640695877329</v>
       </c>
       <c r="O199" t="n">
-        <v>0.2182866673913406</v>
+        <v>0.1116608068332222</v>
       </c>
     </row>
     <row r="200" ht="15" customHeight="1">
       <c r="F200" t="n">
-        <v>0.0237109154270447</v>
+        <v>0.00876374356218259</v>
       </c>
       <c r="G200" t="n">
-        <v>0.218739701242424</v>
+        <v>0.05752941555867466</v>
       </c>
       <c r="J200" t="n">
-        <v>0.03782773801393655</v>
+        <v>0.03676683407802518</v>
       </c>
       <c r="K200" t="n">
-        <v>0.2202314564553338</v>
+        <v>0.1144990701538595</v>
       </c>
       <c r="L200" t="n">
-        <v>0.09418813938382925</v>
+        <v>0.09165372797903465</v>
       </c>
       <c r="M200" t="n">
-        <v>0.2196839042372229</v>
+        <v>0.1125826432255288</v>
       </c>
       <c r="N200" t="n">
-        <v>0.1491206771330044</v>
+        <v>0.1461633605049971</v>
       </c>
       <c r="O200" t="n">
-        <v>0.219915672371873</v>
+        <v>0.1124940964364552</v>
       </c>
     </row>
     <row r="201" ht="15" customHeight="1">
       <c r="F201" t="n">
-        <v>0.02175015799147102</v>
+        <v>0.008631318943722502</v>
       </c>
       <c r="G201" t="n">
-        <v>0.2203599953257012</v>
+        <v>0.05752914703021064</v>
       </c>
       <c r="J201" t="n">
-        <v>0.03799207361400408</v>
+        <v>0.0368409115466754</v>
       </c>
       <c r="K201" t="n">
-        <v>0.2218628005772251</v>
+        <v>0.1153472114142584</v>
       </c>
       <c r="L201" t="n">
-        <v>0.09394664715700191</v>
+        <v>0.09139248639610048</v>
       </c>
       <c r="M201" t="n">
-        <v>0.2213111924167578</v>
+        <v>0.1134165887309031</v>
       </c>
       <c r="N201" t="n">
-        <v>0.1501748517884839</v>
+        <v>0.1462657475631196</v>
       </c>
       <c r="O201" t="n">
-        <v>0.2215446773524054</v>
+        <v>0.1133273860396882</v>
       </c>
     </row>
     <row r="202" ht="15" customHeight="1">
       <c r="F202" t="n">
-        <v>0.02178782644175085</v>
+        <v>0.008505036553022184</v>
       </c>
       <c r="G202" t="n">
-        <v>0.2219802894089784</v>
+        <v>0.05752887850174662</v>
       </c>
       <c r="J202" t="n">
-        <v>0.03775386903622892</v>
+        <v>0.03691580072367842</v>
       </c>
       <c r="K202" t="n">
-        <v>0.2234941446991165</v>
+        <v>0.1161953526746574</v>
       </c>
       <c r="L202" t="n">
-        <v>0.09439886033327666</v>
+        <v>0.09143311324580047</v>
       </c>
       <c r="M202" t="n">
-        <v>0.2229384805962928</v>
+        <v>0.1142505342362773</v>
       </c>
       <c r="N202" t="n">
-        <v>0.149818957422327</v>
+        <v>0.1468711089630914</v>
       </c>
       <c r="O202" t="n">
-        <v>0.2231736823329378</v>
+        <v>0.1141606756429212</v>
       </c>
     </row>
     <row r="203" ht="15" customHeight="1">
       <c r="F203" t="n">
-        <v>0.02182390052856851</v>
+        <v>0.008385408818764845</v>
       </c>
       <c r="G203" t="n">
-        <v>0.2236005834922556</v>
+        <v>0.05752860997328261</v>
       </c>
       <c r="J203" t="n">
-        <v>0.03781309119821442</v>
+        <v>0.03689146926444906</v>
       </c>
       <c r="K203" t="n">
-        <v>0.2251254888210079</v>
+        <v>0.1170434939350563</v>
       </c>
       <c r="L203" t="n">
-        <v>0.09444469730430027</v>
+        <v>0.09117553211095292</v>
       </c>
       <c r="M203" t="n">
-        <v>0.2245657687758278</v>
+        <v>0.1150844797416516</v>
       </c>
       <c r="N203" t="n">
-        <v>0.1506528632409903</v>
+        <v>0.1457793229059038</v>
       </c>
       <c r="O203" t="n">
-        <v>0.2248026873134702</v>
+        <v>0.1149939652461542</v>
       </c>
     </row>
     <row r="204" ht="15" customHeight="1">
       <c r="F204" t="n">
-        <v>0.02385836000260844</v>
+        <v>0.008272948169628938</v>
       </c>
       <c r="G204" t="n">
-        <v>0.2252208775755328</v>
+        <v>0.05752834144481858</v>
       </c>
       <c r="J204" t="n">
-        <v>0.03816970701756392</v>
+        <v>0.03676788482440221</v>
       </c>
       <c r="K204" t="n">
-        <v>0.2267568329428992</v>
+        <v>0.1178916351954553</v>
       </c>
       <c r="L204" t="n">
-        <v>0.09428407646171935</v>
+        <v>0.09141966657437606</v>
       </c>
       <c r="M204" t="n">
-        <v>0.2261930569553628</v>
+        <v>0.1159184252470259</v>
       </c>
       <c r="N204" t="n">
-        <v>0.1504764384509298</v>
+        <v>0.1464902675925481</v>
       </c>
       <c r="O204" t="n">
-        <v>0.2264316922940026</v>
+        <v>0.1158272548493872</v>
       </c>
     </row>
     <row r="205" ht="15" customHeight="1">
       <c r="F205" t="n">
-        <v>0.02289118461455494</v>
+        <v>0.008168167034307471</v>
       </c>
       <c r="G205" t="n">
-        <v>0.22684117165881</v>
+        <v>0.05752807291635457</v>
       </c>
       <c r="J205" t="n">
-        <v>0.03822368341188079</v>
+        <v>0.0369450150589527</v>
       </c>
       <c r="K205" t="n">
-        <v>0.2283881770647906</v>
+        <v>0.1187397764558543</v>
       </c>
       <c r="L205" t="n">
-        <v>0.09471691619718062</v>
+        <v>0.09096544021888822</v>
       </c>
       <c r="M205" t="n">
-        <v>0.2278203451348978</v>
+        <v>0.1167523707524002</v>
       </c>
       <c r="N205" t="n">
-        <v>0.1514895522586022</v>
+        <v>0.1457038212240152</v>
       </c>
       <c r="O205" t="n">
-        <v>0.228060697274535</v>
+        <v>0.1166605444526202</v>
       </c>
     </row>
     <row r="206" ht="15" customHeight="1">
       <c r="F206" t="n">
-        <v>0.02292235411509243</v>
+        <v>0.008071577841478578</v>
       </c>
       <c r="G206" t="n">
-        <v>0.2284614657420873</v>
+        <v>0.05752780438789055</v>
       </c>
       <c r="J206" t="n">
-        <v>0.0382749872987684</v>
+        <v>0.03662282762351543</v>
       </c>
       <c r="K206" t="n">
-        <v>0.2300195211866819</v>
+        <v>0.1195879177162532</v>
       </c>
       <c r="L206" t="n">
-        <v>0.09444313490233072</v>
+        <v>0.09141277662730765</v>
       </c>
       <c r="M206" t="n">
-        <v>0.2294476333144328</v>
+        <v>0.1175863162577745</v>
       </c>
       <c r="N206" t="n">
-        <v>0.1512920738704635</v>
+        <v>0.1455198620012964</v>
       </c>
       <c r="O206" t="n">
-        <v>0.2296897022550674</v>
+        <v>0.1174938340558532</v>
       </c>
     </row>
     <row r="207" ht="15" customHeight="1">
       <c r="F207" t="n">
-        <v>0.02395184825490528</v>
+        <v>0.007983693019825461</v>
       </c>
       <c r="G207" t="n">
-        <v>0.2300817598253645</v>
+        <v>0.05752753585942654</v>
       </c>
       <c r="J207" t="n">
-        <v>0.03832358559583011</v>
+        <v>0.03690129017350523</v>
       </c>
       <c r="K207" t="n">
-        <v>0.2316508653085733</v>
+        <v>0.1204360589766522</v>
       </c>
       <c r="L207" t="n">
-        <v>0.09456265096881633</v>
+        <v>0.0909615993824526</v>
       </c>
       <c r="M207" t="n">
-        <v>0.2310749214939677</v>
+        <v>0.1184202617631488</v>
       </c>
       <c r="N207" t="n">
-        <v>0.1521838724929703</v>
+        <v>0.1460382681253828</v>
       </c>
       <c r="O207" t="n">
-        <v>0.2313187072355997</v>
+        <v>0.1183271236590862</v>
       </c>
     </row>
     <row r="208" ht="15" customHeight="1">
       <c r="F208" t="n">
-        <v>0.02297964678467784</v>
+        <v>0.007905024998028094</v>
       </c>
       <c r="G208" t="n">
-        <v>0.2317020539086417</v>
+        <v>0.05752726733096251</v>
       </c>
       <c r="J208" t="n">
-        <v>0.03836944522066928</v>
+        <v>0.03688037036433693</v>
       </c>
       <c r="K208" t="n">
-        <v>0.2332822094304647</v>
+        <v>0.1212842002370511</v>
       </c>
       <c r="L208" t="n">
-        <v>0.09447538278828416</v>
+        <v>0.09091183206714137</v>
       </c>
       <c r="M208" t="n">
-        <v>0.2327022096735027</v>
+        <v>0.1192542072685231</v>
       </c>
       <c r="N208" t="n">
-        <v>0.1519648173325789</v>
+        <v>0.1458589177972657</v>
       </c>
       <c r="O208" t="n">
-        <v>0.2329477122161322</v>
+        <v>0.1191604132623192</v>
       </c>
     </row>
     <row r="209" ht="15" customHeight="1">
       <c r="F209" t="n">
-        <v>0.02300572945509449</v>
+        <v>0.007836086204776549</v>
       </c>
       <c r="G209" t="n">
-        <v>0.2333223479919189</v>
+        <v>0.0575269988024985</v>
       </c>
       <c r="J209" t="n">
-        <v>0.03831253309088922</v>
+        <v>0.03666003585142544</v>
       </c>
       <c r="K209" t="n">
-        <v>0.234913553552356</v>
+        <v>0.1221323414974501</v>
       </c>
       <c r="L209" t="n">
-        <v>0.09488124875238091</v>
+        <v>0.09106339826419227</v>
       </c>
       <c r="M209" t="n">
-        <v>0.2343294978530377</v>
+        <v>0.1200881527738974</v>
       </c>
       <c r="N209" t="n">
-        <v>0.1523347775957455</v>
+        <v>0.1454816892179361</v>
       </c>
       <c r="O209" t="n">
-        <v>0.2345767171966645</v>
+        <v>0.1199937028655522</v>
       </c>
     </row>
     <row r="210" ht="15" customHeight="1">
       <c r="F210" t="n">
-        <v>0.02203007601683957</v>
+        <v>0.007777389068750376</v>
       </c>
       <c r="G210" t="n">
-        <v>0.2349426420751961</v>
+        <v>0.05752673027403449</v>
       </c>
       <c r="J210" t="n">
-        <v>0.03825281612409336</v>
+        <v>0.03664025429018562</v>
       </c>
       <c r="K210" t="n">
-        <v>0.2365448976742474</v>
+        <v>0.1229804827578491</v>
       </c>
       <c r="L210" t="n">
-        <v>0.09518016725275322</v>
+        <v>0.09111622155642349</v>
       </c>
       <c r="M210" t="n">
-        <v>0.2359567860325727</v>
+        <v>0.1209220982792717</v>
       </c>
       <c r="N210" t="n">
-        <v>0.1525936224889268</v>
+        <v>0.1462064605883854</v>
       </c>
       <c r="O210" t="n">
-        <v>0.2362057221771969</v>
+        <v>0.1208269924687852</v>
       </c>
     </row>
     <row r="211" ht="15" customHeight="1">
       <c r="F211" t="n">
-        <v>0.0230526662205975</v>
+        <v>0.007729446018632777</v>
       </c>
       <c r="G211" t="n">
-        <v>0.2365629361584733</v>
+        <v>0.05752646174557047</v>
       </c>
       <c r="J211" t="n">
-        <v>0.03849026123788503</v>
+        <v>0.03662099333603226</v>
       </c>
       <c r="K211" t="n">
-        <v>0.2381762417961387</v>
+        <v>0.123828624018248</v>
       </c>
       <c r="L211" t="n">
-        <v>0.09537205668104776</v>
+        <v>0.09087022552665341</v>
       </c>
       <c r="M211" t="n">
-        <v>0.2375840742121077</v>
+        <v>0.1217560437846459</v>
       </c>
       <c r="N211" t="n">
-        <v>0.1526412212185788</v>
+        <v>0.1460331101096045</v>
       </c>
       <c r="O211" t="n">
-        <v>0.2378347271577293</v>
+        <v>0.1216602820720182</v>
       </c>
     </row>
     <row r="212" ht="15" customHeight="1">
       <c r="F212" t="n">
-        <v>0.02407347981705264</v>
+        <v>0.007692769483105599</v>
       </c>
       <c r="G212" t="n">
-        <v>0.2381832302417506</v>
+        <v>0.05752619321710645</v>
       </c>
       <c r="J212" t="n">
-        <v>0.03852483534986757</v>
+        <v>0.03660222064438032</v>
       </c>
       <c r="K212" t="n">
-        <v>0.2398075859180301</v>
+        <v>0.124676765278647</v>
       </c>
       <c r="L212" t="n">
-        <v>0.0957568354289112</v>
+        <v>0.09052533375770022</v>
       </c>
       <c r="M212" t="n">
-        <v>0.2392113623916427</v>
+        <v>0.1225899892900202</v>
       </c>
       <c r="N212" t="n">
-        <v>0.152677442991158</v>
+        <v>0.1453615159825847</v>
       </c>
       <c r="O212" t="n">
-        <v>0.2394637321382617</v>
+        <v>0.1224935716752512</v>
       </c>
     </row>
     <row r="213" ht="15" customHeight="1">
       <c r="F213" t="n">
-        <v>0.02309249655688937</v>
+        <v>0.007667871890855257</v>
       </c>
       <c r="G213" t="n">
-        <v>0.2398035243250278</v>
+        <v>0.05752592468864243</v>
       </c>
       <c r="J213" t="n">
-        <v>0.03845650537764439</v>
+        <v>0.03678390387064456</v>
       </c>
       <c r="K213" t="n">
-        <v>0.2414389300399215</v>
+        <v>0.1255249065390459</v>
       </c>
       <c r="L213" t="n">
-        <v>0.09573442188799028</v>
+        <v>0.09128146983238225</v>
       </c>
       <c r="M213" t="n">
-        <v>0.2408386505711777</v>
+        <v>0.1234239347953945</v>
       </c>
       <c r="N213" t="n">
-        <v>0.1520021570131208</v>
+        <v>0.1453915564083171</v>
       </c>
       <c r="O213" t="n">
-        <v>0.2410927371187941</v>
+        <v>0.1233268612784842</v>
       </c>
     </row>
     <row r="214" ht="15" customHeight="1">
       <c r="F214" t="n">
-        <v>0.02310969619079201</v>
+        <v>0.007655265670563093</v>
       </c>
       <c r="G214" t="n">
-        <v>0.241423818408305</v>
+        <v>0.05752565616017841</v>
       </c>
       <c r="J214" t="n">
-        <v>0.03838523823881879</v>
+        <v>0.0366660106702399</v>
       </c>
       <c r="K214" t="n">
-        <v>0.2430702741618128</v>
+        <v>0.1263730477994449</v>
       </c>
       <c r="L214" t="n">
-        <v>0.09510473444993159</v>
+        <v>0.09113855733351772</v>
       </c>
       <c r="M214" t="n">
-        <v>0.2424659387507127</v>
+        <v>0.1242578803007688</v>
       </c>
       <c r="N214" t="n">
-        <v>0.1532152324909234</v>
+        <v>0.145323109587793</v>
       </c>
       <c r="O214" t="n">
-        <v>0.2427217420993265</v>
+        <v>0.1241601508817172</v>
       </c>
     </row>
     <row r="215" ht="15" customHeight="1">
       <c r="F215" t="n">
-        <v>0.02312505846944499</v>
+        <v>0.007655265670563093</v>
       </c>
       <c r="G215" t="n">
-        <v>0.2430441124915822</v>
+        <v>0.05752565616017841</v>
       </c>
       <c r="J215" t="n">
-        <v>0.03851100085099418</v>
+        <v>0.03654850869858119</v>
       </c>
       <c r="K215" t="n">
-        <v>0.2447016182837042</v>
+        <v>0.1272211890598439</v>
       </c>
       <c r="L215" t="n">
-        <v>0.09586769150638191</v>
+        <v>0.09089651984392499</v>
       </c>
       <c r="M215" t="n">
-        <v>0.2440932269302477</v>
+        <v>0.1250918258061431</v>
       </c>
       <c r="N215" t="n">
-        <v>0.1519165386310222</v>
+        <v>0.1458560537220034</v>
       </c>
       <c r="O215" t="n">
-        <v>0.2443507470798589</v>
+        <v>0.1249934404849502</v>
       </c>
     </row>
     <row r="216" ht="15" customHeight="1">
       <c r="F216" t="n">
-        <v>0.02413856314353265</v>
+        <v>0.007418709834681771</v>
       </c>
       <c r="G216" t="n">
-        <v>0.2446644065748594</v>
+        <v>0.05750458758874887</v>
       </c>
       <c r="J216" t="n">
-        <v>0.03843376013177388</v>
+        <v>0.03673136561108324</v>
       </c>
       <c r="K216" t="n">
-        <v>0.2463329624055955</v>
+        <v>0.1280693303202428</v>
       </c>
       <c r="L216" t="n">
-        <v>0.09522321144898785</v>
+        <v>0.09035528094642226</v>
       </c>
       <c r="M216" t="n">
-        <v>0.2457205151097826</v>
+        <v>0.1259257713115174</v>
       </c>
       <c r="N216" t="n">
-        <v>0.1532059446398737</v>
+        <v>0.1452902670119396</v>
       </c>
       <c r="O216" t="n">
-        <v>0.2459797520603912</v>
+        <v>0.1258267300881832</v>
       </c>
     </row>
     <row r="217" ht="15" customHeight="1">
       <c r="F217" t="n">
-        <v>0.02215018996373937</v>
+        <v>0.007185782281871084</v>
       </c>
       <c r="G217" t="n">
-        <v>0.2462847006581367</v>
+        <v>0.05748351901731933</v>
       </c>
       <c r="J217" t="n">
-        <v>0.03845348299876129</v>
+        <v>0.03661454906316099</v>
       </c>
       <c r="K217" t="n">
-        <v>0.2479643065274869</v>
+        <v>0.1289174715806418</v>
       </c>
       <c r="L217" t="n">
-        <v>0.09577121266939609</v>
+        <v>0.09101476422382787</v>
       </c>
       <c r="M217" t="n">
-        <v>0.2473478032893176</v>
+        <v>0.1267597168168917</v>
       </c>
       <c r="N217" t="n">
-        <v>0.1528833197239342</v>
+        <v>0.1442256276585928</v>
       </c>
       <c r="O217" t="n">
-        <v>0.2476087570409237</v>
+        <v>0.1266600196914162</v>
       </c>
     </row>
     <row r="218" ht="15" customHeight="1">
       <c r="F218" t="n">
-        <v>0.02315991868074952</v>
+        <v>0.006957024677390358</v>
       </c>
       <c r="G218" t="n">
-        <v>0.2479049947414139</v>
+        <v>0.05746245044588979</v>
       </c>
       <c r="J218" t="n">
-        <v>0.03867013636955974</v>
+        <v>0.03639802671022924</v>
       </c>
       <c r="K218" t="n">
-        <v>0.2495956506493782</v>
+        <v>0.1297656128410407</v>
       </c>
       <c r="L218" t="n">
-        <v>0.09561161355925332</v>
+        <v>0.09047489325895999</v>
       </c>
       <c r="M218" t="n">
-        <v>0.2489750914688526</v>
+        <v>0.1275936623222659</v>
       </c>
       <c r="N218" t="n">
-        <v>0.1531485330896598</v>
+        <v>0.145362013862954</v>
       </c>
       <c r="O218" t="n">
-        <v>0.2492377620214561</v>
+        <v>0.1274933092946492</v>
       </c>
     </row>
     <row r="219" ht="15" customHeight="1">
       <c r="F219" t="n">
-        <v>0.02316772904524748</v>
+        <v>0.006732978686498914</v>
       </c>
       <c r="G219" t="n">
-        <v>0.2495252888246911</v>
+        <v>0.05744138187446025</v>
       </c>
       <c r="J219" t="n">
-        <v>0.03868368716177258</v>
+        <v>0.03658176620770283</v>
       </c>
       <c r="K219" t="n">
-        <v>0.2512269947712696</v>
+        <v>0.1306137541014397</v>
       </c>
       <c r="L219" t="n">
-        <v>0.09564433251020624</v>
+        <v>0.09023559163463701</v>
       </c>
       <c r="M219" t="n">
-        <v>0.2506023796483876</v>
+        <v>0.1284276078276402</v>
       </c>
       <c r="N219" t="n">
-        <v>0.1531014539435072</v>
+        <v>0.1442993038260145</v>
       </c>
       <c r="O219" t="n">
-        <v>0.2508667670019885</v>
+        <v>0.1283265988978822</v>
       </c>
     </row>
     <row r="220" ht="15" customHeight="1">
       <c r="F220" t="n">
-        <v>0.0231736008079176</v>
+        <v>0.006514185974455931</v>
       </c>
       <c r="G220" t="n">
-        <v>0.2511455829079683</v>
+        <v>0.05742031330303069</v>
       </c>
       <c r="J220" t="n">
-        <v>0.03849410229300319</v>
+        <v>0.03666573521099668</v>
       </c>
       <c r="K220" t="n">
-        <v>0.252858338893161</v>
+        <v>0.1314618953618386</v>
       </c>
       <c r="L220" t="n">
-        <v>0.09556928791390154</v>
+        <v>0.09069678293367719</v>
       </c>
       <c r="M220" t="n">
-        <v>0.2522296678279226</v>
+        <v>0.1292615533330145</v>
       </c>
       <c r="N220" t="n">
-        <v>0.1533419514919325</v>
+        <v>0.1446373757487655</v>
       </c>
       <c r="O220" t="n">
-        <v>0.2524957719825208</v>
+        <v>0.1291598885011152</v>
       </c>
     </row>
     <row r="221" ht="15" customHeight="1">
       <c r="F221" t="n">
-        <v>0.02217751371944426</v>
+        <v>0.006301188206520994</v>
       </c>
       <c r="G221" t="n">
-        <v>0.2527658769912455</v>
+        <v>0.05739924473160115</v>
       </c>
       <c r="J221" t="n">
-        <v>0.03860134868085494</v>
+        <v>0.03644990137552562</v>
       </c>
       <c r="K221" t="n">
-        <v>0.2544896830150524</v>
+        <v>0.1323100366222376</v>
       </c>
       <c r="L221" t="n">
-        <v>0.09538639816198585</v>
+        <v>0.09095839073889875</v>
       </c>
       <c r="M221" t="n">
-        <v>0.2538569560074575</v>
+        <v>0.1300954988383888</v>
       </c>
       <c r="N221" t="n">
-        <v>0.1525698949413922</v>
+        <v>0.1450761078321979</v>
       </c>
       <c r="O221" t="n">
-        <v>0.2541247769630532</v>
+        <v>0.1299931781043482</v>
       </c>
     </row>
     <row r="222" ht="15" customHeight="1">
       <c r="F222" t="n">
-        <v>0.02317944753051186</v>
+        <v>0.006094527047953276</v>
       </c>
       <c r="G222" t="n">
-        <v>0.2543861710745227</v>
+        <v>0.05737817616017161</v>
       </c>
       <c r="J222" t="n">
-        <v>0.03870539324293118</v>
+        <v>0.03643423235670448</v>
       </c>
       <c r="K222" t="n">
-        <v>0.2561210271369437</v>
+        <v>0.1331581778826366</v>
       </c>
       <c r="L222" t="n">
-        <v>0.09539558164610584</v>
+        <v>0.09062033863312</v>
       </c>
       <c r="M222" t="n">
-        <v>0.2554842441869926</v>
+        <v>0.1309294443437631</v>
       </c>
       <c r="N222" t="n">
-        <v>0.1531851534983427</v>
+        <v>0.1449153782773032</v>
       </c>
       <c r="O222" t="n">
-        <v>0.2557537819435856</v>
+        <v>0.1308264677075812</v>
       </c>
     </row>
     <row r="223" ht="15" customHeight="1">
       <c r="F223" t="n">
-        <v>0.02317082308354976</v>
+        <v>0.00589474416401211</v>
       </c>
       <c r="G223" t="n">
-        <v>0.2560064651577999</v>
+        <v>0.05735710758874207</v>
       </c>
       <c r="J223" t="n">
-        <v>0.03840308651147384</v>
+        <v>0.03641869580994818</v>
       </c>
       <c r="K223" t="n">
-        <v>0.257752371258835</v>
+        <v>0.1340063191430355</v>
       </c>
       <c r="L223" t="n">
-        <v>0.09588149322933556</v>
+        <v>0.09078255019915921</v>
       </c>
       <c r="M223" t="n">
-        <v>0.2571115323665275</v>
+        <v>0.1317633898491374</v>
       </c>
       <c r="N223" t="n">
-        <v>0.1536687822563808</v>
+        <v>0.1445550652850724</v>
       </c>
       <c r="O223" t="n">
-        <v>0.257382786924118</v>
+        <v>0.1316597573108142</v>
       </c>
     </row>
     <row r="224" ht="15" customHeight="1">
       <c r="F224" t="n">
-        <v>0.0231088333917539</v>
+        <v>0.005702381219956809</v>
       </c>
       <c r="G224" t="n">
-        <v>0.2576267592410771</v>
+        <v>0.05733603901731252</v>
       </c>
       <c r="J224" t="n">
-        <v>0.03852896898496126</v>
+        <v>0.03650325939067152</v>
       </c>
       <c r="K224" t="n">
-        <v>0.2593837153807264</v>
+        <v>0.1348544604034345</v>
       </c>
       <c r="L224" t="n">
-        <v>0.09537405338433347</v>
+        <v>0.09094494901983463</v>
       </c>
       <c r="M224" t="n">
-        <v>0.2587388205460625</v>
+        <v>0.1325973353545117</v>
       </c>
       <c r="N224" t="n">
-        <v>0.1523530076116627</v>
+        <v>0.1439950470564967</v>
       </c>
       <c r="O224" t="n">
-        <v>0.2590117919046504</v>
+        <v>0.1324930469140472</v>
       </c>
     </row>
     <row r="225" ht="15" customHeight="1">
       <c r="F225" t="n">
-        <v>0.02199294722379559</v>
+        <v>0.005517979881046693</v>
       </c>
       <c r="G225" t="n">
-        <v>0.2592470533243543</v>
+        <v>0.05731497044588298</v>
       </c>
       <c r="J225" t="n">
-        <v>0.03816460002678848</v>
+        <v>0.03628789075428938</v>
       </c>
       <c r="K225" t="n">
-        <v>0.2610150595026178</v>
+        <v>0.1357026016638334</v>
       </c>
       <c r="L225" t="n">
-        <v>0.09484596090815109</v>
+        <v>0.09080745867796464</v>
       </c>
       <c r="M225" t="n">
-        <v>0.2603661087255975</v>
+        <v>0.133431280859886</v>
       </c>
       <c r="N225" t="n">
-        <v>0.1519822472757719</v>
+        <v>0.1443352017925673</v>
       </c>
       <c r="O225" t="n">
-        <v>0.2606407968851828</v>
+        <v>0.1333263365172802</v>
       </c>
     </row>
     <row r="226" ht="15" customHeight="1">
       <c r="F226" t="n">
-        <v>0.02282947716982241</v>
+        <v>0.005342081812541075</v>
       </c>
       <c r="G226" t="n">
-        <v>0.2608673474076316</v>
+        <v>0.05729390187445343</v>
       </c>
       <c r="J226" t="n">
-        <v>0.03802029285518559</v>
+        <v>0.03637255755621663</v>
       </c>
       <c r="K226" t="n">
-        <v>0.2626464036245092</v>
+        <v>0.1365507429242324</v>
       </c>
       <c r="L226" t="n">
-        <v>0.09432265666489367</v>
+        <v>0.09047000275636735</v>
       </c>
       <c r="M226" t="n">
-        <v>0.2619933969051325</v>
+        <v>0.1342652263652603</v>
       </c>
       <c r="N226" t="n">
-        <v>0.1504972752704154</v>
+        <v>0.1448754076942752</v>
       </c>
       <c r="O226" t="n">
-        <v>0.2622698018657152</v>
+        <v>0.1341596261205132</v>
       </c>
     </row>
     <row r="227" ht="15" customHeight="1">
       <c r="F227" t="n">
-        <v>0.02262473581998194</v>
+        <v>0.005175228679699273</v>
       </c>
       <c r="G227" t="n">
-        <v>0.2624876414909088</v>
+        <v>0.05727283330302389</v>
       </c>
       <c r="J227" t="n">
-        <v>0.03770636068838269</v>
+        <v>0.03655722745186811</v>
       </c>
       <c r="K227" t="n">
-        <v>0.2642777477464005</v>
+        <v>0.1373988841846313</v>
       </c>
       <c r="L227" t="n">
-        <v>0.09402958151866633</v>
+        <v>0.09013250483786114</v>
       </c>
       <c r="M227" t="n">
-        <v>0.2636206850846675</v>
+        <v>0.1350991718706346</v>
       </c>
       <c r="N227" t="n">
-        <v>0.1502388656173003</v>
+        <v>0.1442155429626118</v>
       </c>
       <c r="O227" t="n">
-        <v>0.2638988068462476</v>
+        <v>0.1349929157237462</v>
       </c>
     </row>
     <row r="228" ht="15" customHeight="1">
       <c r="F228" t="n">
-        <v>0.02138503576442174</v>
+        <v>0.005017962147780525</v>
       </c>
       <c r="G228" t="n">
-        <v>0.264107935574186</v>
+        <v>0.05725176473159434</v>
       </c>
       <c r="J228" t="n">
-        <v>0.03723311674460994</v>
+        <v>0.03624186809665871</v>
       </c>
       <c r="K228" t="n">
-        <v>0.2659090918682919</v>
+        <v>0.1382470254450303</v>
       </c>
       <c r="L228" t="n">
-        <v>0.09269217633357421</v>
+        <v>0.09029488850526432</v>
       </c>
       <c r="M228" t="n">
-        <v>0.2652479732642024</v>
+        <v>0.1359331173760088</v>
       </c>
       <c r="N228" t="n">
-        <v>0.1484477923381337</v>
+        <v>0.1448554857985682</v>
       </c>
       <c r="O228" t="n">
-        <v>0.26552781182678</v>
+        <v>0.1358262053269792</v>
       </c>
     </row>
     <row r="229" ht="15" customHeight="1">
       <c r="F229" t="n">
-        <v>0.02111668959328939</v>
+        <v>0.00487082388204433</v>
       </c>
       <c r="G229" t="n">
-        <v>0.2657282296574632</v>
+        <v>0.0572306961601648</v>
       </c>
       <c r="J229" t="n">
-        <v>0.03681087424209745</v>
+        <v>0.03632644714600322</v>
       </c>
       <c r="K229" t="n">
-        <v>0.2675404359901832</v>
+        <v>0.1390951667054293</v>
       </c>
       <c r="L229" t="n">
-        <v>0.0917358819737224</v>
+        <v>0.08985707734139506</v>
       </c>
       <c r="M229" t="n">
-        <v>0.2668752614437374</v>
+        <v>0.1367670628813831</v>
       </c>
       <c r="N229" t="n">
-        <v>0.1472648294546226</v>
+        <v>0.1434951144031354</v>
       </c>
       <c r="O229" t="n">
-        <v>0.2671568168073123</v>
+        <v>0.1366594949302122</v>
       </c>
     </row>
     <row r="230" ht="15" customHeight="1">
       <c r="F230" t="n">
-        <v>0.02182600989673245</v>
+        <v>0.004734355547749897</v>
       </c>
       <c r="G230" t="n">
-        <v>0.2673485237407404</v>
+        <v>0.05720962758873525</v>
       </c>
       <c r="J230" t="n">
-        <v>0.0364499463990753</v>
+        <v>0.03621093225531659</v>
       </c>
       <c r="K230" t="n">
-        <v>0.2691717801120746</v>
+        <v>0.1399433079658282</v>
       </c>
       <c r="L230" t="n">
-        <v>0.09028613930321619</v>
+        <v>0.09021899492907171</v>
       </c>
       <c r="M230" t="n">
-        <v>0.2685025496232724</v>
+        <v>0.1376010083867574</v>
       </c>
       <c r="N230" t="n">
-        <v>0.145030750988474</v>
+        <v>0.1446343069773048</v>
       </c>
       <c r="O230" t="n">
-        <v>0.2687858217878448</v>
+        <v>0.1374927845334452</v>
       </c>
     </row>
     <row r="231" ht="15" customHeight="1">
       <c r="F231" t="n">
-        <v>0.02151930926489848</v>
+        <v>0.004609098810156566</v>
       </c>
       <c r="G231" t="n">
-        <v>0.2689688178240177</v>
+        <v>0.05718855901730571</v>
       </c>
       <c r="J231" t="n">
-        <v>0.03616064643377363</v>
+        <v>0.0361952910800136</v>
       </c>
       <c r="K231" t="n">
-        <v>0.270803124233966</v>
+        <v>0.1407914492262272</v>
       </c>
       <c r="L231" t="n">
-        <v>0.08976838918616062</v>
+        <v>0.08978056485111252</v>
       </c>
       <c r="M231" t="n">
-        <v>0.2701298378028074</v>
+        <v>0.1384349538921317</v>
       </c>
       <c r="N231" t="n">
-        <v>0.1434863309613951</v>
+        <v>0.1435729417220674</v>
       </c>
       <c r="O231" t="n">
-        <v>0.2704148267683772</v>
+        <v>0.1383260741366782</v>
       </c>
     </row>
     <row r="232" ht="15" customHeight="1">
       <c r="F232" t="n">
-        <v>0.02220290028793506</v>
+        <v>0.004495595334523636</v>
       </c>
       <c r="G232" t="n">
-        <v>0.2705891119072948</v>
+        <v>0.05716749044587617</v>
       </c>
       <c r="J232" t="n">
-        <v>0.03555328756442259</v>
+        <v>0.03647949127550913</v>
       </c>
       <c r="K232" t="n">
-        <v>0.2724344683558573</v>
+        <v>0.1416395904866261</v>
       </c>
       <c r="L232" t="n">
-        <v>0.08830807248666084</v>
+        <v>0.08994173460134719</v>
       </c>
       <c r="M232" t="n">
-        <v>0.2717571259823424</v>
+        <v>0.139268899397506</v>
       </c>
       <c r="N232" t="n">
-        <v>0.140372343395093</v>
+        <v>0.1443109434392921</v>
       </c>
       <c r="O232" t="n">
-        <v>0.2720438317489096</v>
+        <v>0.1391593637399112</v>
       </c>
     </row>
     <row r="233" ht="15" customHeight="1">
       <c r="F233" t="n">
-        <v>0.02088309555598975</v>
+        <v>0.004394386786110441</v>
       </c>
       <c r="G233" t="n">
-        <v>0.2722094059905721</v>
+        <v>0.05714642187444663</v>
       </c>
       <c r="J233" t="n">
-        <v>0.03513818300925227</v>
+        <v>0.0362635856731533</v>
       </c>
       <c r="K233" t="n">
-        <v>0.2740658124777487</v>
+        <v>0.1424877317470251</v>
       </c>
       <c r="L233" t="n">
-        <v>0.08633063006882208</v>
+        <v>0.08980300730680701</v>
       </c>
       <c r="M233" t="n">
-        <v>0.2733844141618774</v>
+        <v>0.1401028449028802</v>
       </c>
       <c r="N233" t="n">
-        <v>0.1388295623112746</v>
+        <v>0.1437491331501016</v>
       </c>
       <c r="O233" t="n">
-        <v>0.2736728367294419</v>
+        <v>0.1399926533431442</v>
       </c>
     </row>
     <row r="234" ht="15" customHeight="1">
       <c r="F234" t="n">
-        <v>0.02156620765921013</v>
+        <v>0.004306014830176279</v>
       </c>
       <c r="G234" t="n">
-        <v>0.2738297000738493</v>
+        <v>0.05712535330301709</v>
       </c>
       <c r="J234" t="n">
-        <v>0.03432564598649281</v>
+        <v>0.03644780378960247</v>
       </c>
       <c r="K234" t="n">
-        <v>0.2756971565996401</v>
+        <v>0.1433358730074241</v>
       </c>
       <c r="L234" t="n">
-        <v>0.08526150279674941</v>
+        <v>0.08976461630414864</v>
       </c>
       <c r="M234" t="n">
-        <v>0.2750117023414123</v>
+        <v>0.1409367904082545</v>
       </c>
       <c r="N234" t="n">
-        <v>0.1363987617316469</v>
+        <v>0.1445878595460722</v>
       </c>
       <c r="O234" t="n">
-        <v>0.2753018417099743</v>
+        <v>0.1408259429463772</v>
       </c>
     </row>
     <row r="235" ht="15" customHeight="1">
       <c r="F235" t="n">
-        <v>0.01925854918774377</v>
+        <v>0.004231021131980491</v>
       </c>
       <c r="G235" t="n">
-        <v>0.2754499941571265</v>
+        <v>0.05710428473158755</v>
       </c>
       <c r="J235" t="n">
-        <v>0.03402598971437427</v>
+        <v>0.03613216321413826</v>
       </c>
       <c r="K235" t="n">
-        <v>0.2773285007215314</v>
+        <v>0.144184014267823</v>
       </c>
       <c r="L235" t="n">
-        <v>0.08412613153454807</v>
+        <v>0.09052656822493318</v>
       </c>
       <c r="M235" t="n">
-        <v>0.2766389905209473</v>
+        <v>0.1417707359136288</v>
       </c>
       <c r="N235" t="n">
-        <v>0.1352207156779172</v>
+        <v>0.1438271331970461</v>
       </c>
       <c r="O235" t="n">
-        <v>0.2769308466905067</v>
+        <v>0.1416592325496102</v>
       </c>
     </row>
     <row r="236" ht="15" customHeight="1">
       <c r="F236" t="n">
-        <v>0.01896643273173823</v>
+        <v>0.004169947356782347</v>
       </c>
       <c r="G236" t="n">
-        <v>0.2770702882404037</v>
+        <v>0.05708321616015799</v>
       </c>
       <c r="J236" t="n">
-        <v>0.03364952741112684</v>
+        <v>0.03611666675365684</v>
       </c>
       <c r="K236" t="n">
-        <v>0.2789598448434227</v>
+        <v>0.145032155528222</v>
       </c>
       <c r="L236" t="n">
-        <v>0.08354995714632305</v>
+        <v>0.08978886970072164</v>
       </c>
       <c r="M236" t="n">
-        <v>0.2782662787004823</v>
+        <v>0.1426046814190031</v>
       </c>
       <c r="N236" t="n">
-        <v>0.1323361981717925</v>
+        <v>0.1436669646728658</v>
       </c>
       <c r="O236" t="n">
-        <v>0.2785598516710391</v>
+        <v>0.1424925221528432</v>
       </c>
     </row>
     <row r="237" ht="15" customHeight="1">
       <c r="F237" t="n">
-        <v>0.02069617088134109</v>
+        <v>0.004123335169841244</v>
       </c>
       <c r="G237" t="n">
-        <v>0.2786905823236809</v>
+        <v>0.05706214758872845</v>
       </c>
       <c r="J237" t="n">
-        <v>0.03300657229498059</v>
+        <v>0.03640131721505428</v>
       </c>
       <c r="K237" t="n">
-        <v>0.2805911889653142</v>
+        <v>0.1458802967886209</v>
       </c>
       <c r="L237" t="n">
-        <v>0.08215842049617966</v>
+        <v>0.08955152736307509</v>
       </c>
       <c r="M237" t="n">
-        <v>0.2798935668800173</v>
+        <v>0.1434386269243774</v>
       </c>
       <c r="N237" t="n">
-        <v>0.1309859832349796</v>
+        <v>0.1442073645433736</v>
       </c>
       <c r="O237" t="n">
-        <v>0.2801888566515715</v>
+        <v>0.1433258117560762</v>
       </c>
     </row>
     <row r="238" ht="15" customHeight="1">
       <c r="F238" t="n">
-        <v>0.01944459399907151</v>
+        <v>0.00409172623641646</v>
       </c>
       <c r="G238" t="n">
-        <v>0.2803108764069582</v>
+        <v>0.05704107901729891</v>
       </c>
       <c r="J238" t="n">
-        <v>0.03279856492964528</v>
+        <v>0.03608611740522677</v>
       </c>
       <c r="K238" t="n">
-        <v>0.2822225330872055</v>
+        <v>0.1467284380490199</v>
       </c>
       <c r="L238" t="n">
-        <v>0.08084966399926594</v>
+        <v>0.08961454784355466</v>
       </c>
       <c r="M238" t="n">
-        <v>0.2815208550595523</v>
+        <v>0.1442725724297517</v>
       </c>
       <c r="N238" t="n">
-        <v>0.1298708936734294</v>
+        <v>0.1436483433784119</v>
       </c>
       <c r="O238" t="n">
-        <v>0.2818178616321039</v>
+        <v>0.1441591013593092</v>
       </c>
     </row>
     <row r="239" ht="15" customHeight="1">
       <c r="F239" t="n">
-        <v>0.01919289191674085</v>
+        <v>0.0040756622217673</v>
       </c>
       <c r="G239" t="n">
-        <v>0.2819311704902353</v>
+        <v>0.05702001044586937</v>
       </c>
       <c r="J239" t="n">
-        <v>0.03239316187802917</v>
+        <v>0.03627107013107038</v>
       </c>
       <c r="K239" t="n">
-        <v>0.2838538772090969</v>
+        <v>0.1475765793094189</v>
       </c>
       <c r="L239" t="n">
-        <v>0.08024437559611683</v>
+        <v>0.09027793777372134</v>
       </c>
       <c r="M239" t="n">
-        <v>0.2831481432390873</v>
+        <v>0.145106517935126</v>
       </c>
       <c r="N239" t="n">
-        <v>0.1279632768576133</v>
+        <v>0.1440899117478229</v>
       </c>
       <c r="O239" t="n">
-        <v>0.2834468666126363</v>
+        <v>0.1449923909625422</v>
       </c>
     </row>
     <row r="240" ht="15" customHeight="1">
       <c r="F240" t="n">
-        <v>0.01794023837937796</v>
+        <v>0.004073636703402155</v>
       </c>
       <c r="G240" t="n">
-        <v>0.2835514645735125</v>
+        <v>0.05699894187443982</v>
       </c>
       <c r="J240" t="n">
-        <v>0.03188621904963933</v>
+        <v>0.03625617819948126</v>
       </c>
       <c r="K240" t="n">
-        <v>0.2854852213309882</v>
+        <v>0.1484247205698178</v>
       </c>
       <c r="L240" t="n">
-        <v>0.0785352756164143</v>
+        <v>0.08974170378513621</v>
       </c>
       <c r="M240" t="n">
-        <v>0.2847754314186222</v>
+        <v>0.1459404634405003</v>
       </c>
       <c r="N240" t="n">
-        <v>0.1268495602187985</v>
+        <v>0.1440320802214493</v>
       </c>
       <c r="O240" t="n">
-        <v>0.2850758715931687</v>
+        <v>0.1458256805657752</v>
       </c>
     </row>
     <row r="241" ht="15" customHeight="1">
       <c r="F241" t="n">
-        <v>0.01768661843222273</v>
+        <v>0.0040738414280529</v>
       </c>
       <c r="G241" t="n">
-        <v>0.2851717586567897</v>
+        <v>0.05697787330301027</v>
       </c>
       <c r="J241" t="n">
-        <v>0.03127771201207934</v>
+        <v>0.03624144441735555</v>
       </c>
       <c r="K241" t="n">
-        <v>0.2871165654528796</v>
+        <v>0.1492728618302168</v>
       </c>
       <c r="L241" t="n">
-        <v>0.07832230378980784</v>
+        <v>0.08940585250936028</v>
       </c>
       <c r="M241" t="n">
-        <v>0.2864027195981572</v>
+        <v>0.1467744089458746</v>
       </c>
       <c r="N241" t="n">
-        <v>0.1250296471618152</v>
+        <v>0.1437748593691331</v>
       </c>
       <c r="O241" t="n">
-        <v>0.2867048765737011</v>
+        <v>0.1466589701690082</v>
       </c>
     </row>
     <row r="242" ht="15" customHeight="1">
       <c r="F242" t="n">
-        <v>0.018432017120515</v>
+        <v>0.004074613082505736</v>
       </c>
       <c r="G242" t="n">
-        <v>0.286792052740067</v>
+        <v>0.05695680473158073</v>
       </c>
       <c r="J242" t="n">
-        <v>0.03106761633295273</v>
+        <v>0.03632687159158934</v>
       </c>
       <c r="K242" t="n">
-        <v>0.2887479095747709</v>
+        <v>0.1501210030906157</v>
       </c>
       <c r="L242" t="n">
-        <v>0.07690539984594683</v>
+        <v>0.08987039057795471</v>
       </c>
       <c r="M242" t="n">
-        <v>0.2880300077776922</v>
+        <v>0.1476083544512488</v>
       </c>
       <c r="N242" t="n">
-        <v>0.1236034410914945</v>
+        <v>0.1434182597607168</v>
       </c>
       <c r="O242" t="n">
-        <v>0.2883338815542335</v>
+        <v>0.1474922597722412</v>
       </c>
     </row>
     <row r="243" ht="15" customHeight="1">
       <c r="F243" t="n">
-        <v>0.0171764194894946</v>
+        <v>0.00407632961996203</v>
       </c>
       <c r="G243" t="n">
-        <v>0.2884123468233442</v>
+        <v>0.05693573616015119</v>
       </c>
       <c r="J243" t="n">
-        <v>0.03065590757986308</v>
+        <v>0.03631246252907877</v>
       </c>
       <c r="K243" t="n">
-        <v>0.2903792536966623</v>
+        <v>0.1509691443510147</v>
       </c>
       <c r="L243" t="n">
-        <v>0.07628450351448091</v>
+        <v>0.09023532462248049</v>
       </c>
       <c r="M243" t="n">
-        <v>0.2896572959572272</v>
+        <v>0.1484422999566231</v>
       </c>
       <c r="N243" t="n">
-        <v>0.1220708454126664</v>
+        <v>0.1440622919660428</v>
       </c>
       <c r="O243" t="n">
-        <v>0.2899628865347659</v>
+        <v>0.1483255493754742</v>
       </c>
     </row>
     <row r="244" ht="15" customHeight="1">
       <c r="F244" t="n">
-        <v>0.01791981058440138</v>
+        <v>0.004079368993623184</v>
       </c>
       <c r="G244" t="n">
-        <v>0.2900326409066214</v>
+        <v>0.05691466758872164</v>
       </c>
       <c r="J244" t="n">
-        <v>0.030042561320414</v>
+        <v>0.03599822003672</v>
       </c>
       <c r="K244" t="n">
-        <v>0.2920105978185537</v>
+        <v>0.1518172856114137</v>
       </c>
       <c r="L244" t="n">
-        <v>0.0745595545250595</v>
+        <v>0.0893006612744987</v>
       </c>
       <c r="M244" t="n">
-        <v>0.2912845841367622</v>
+        <v>0.1492762454619974</v>
       </c>
       <c r="N244" t="n">
-        <v>0.1191317635301616</v>
+        <v>0.1440069665549534</v>
       </c>
       <c r="O244" t="n">
-        <v>0.2915918915152982</v>
+        <v>0.1491588389787072</v>
       </c>
     </row>
     <row r="245" ht="15" customHeight="1">
       <c r="F245" t="n">
-        <v>0.01666217545047521</v>
+        <v>0.004084109156690566</v>
       </c>
       <c r="G245" t="n">
-        <v>0.2916529349898986</v>
+        <v>0.05689359901729209</v>
       </c>
       <c r="J245" t="n">
-        <v>0.02992755312220897</v>
+        <v>0.03618414692140909</v>
       </c>
       <c r="K245" t="n">
-        <v>0.293641941940445</v>
+        <v>0.1526654268718126</v>
       </c>
       <c r="L245" t="n">
-        <v>0.0743304926073321</v>
+        <v>0.09016640716557045</v>
       </c>
       <c r="M245" t="n">
-        <v>0.2929118723162971</v>
+        <v>0.1501101909673717</v>
       </c>
       <c r="N245" t="n">
-        <v>0.1179860988488108</v>
+        <v>0.1440522940972909</v>
       </c>
       <c r="O245" t="n">
-        <v>0.2932208964958307</v>
+        <v>0.1499921285819402</v>
       </c>
     </row>
     <row r="246" ht="15" customHeight="1">
       <c r="F246" t="n">
-        <v>0.01840349913295593</v>
+        <v>0.004090928062365579</v>
       </c>
       <c r="G246" t="n">
-        <v>0.2932732290731758</v>
+        <v>0.05687253044586255</v>
       </c>
       <c r="J246" t="n">
-        <v>0.02951085855285163</v>
+        <v>0.03607024599004222</v>
       </c>
       <c r="K246" t="n">
-        <v>0.2952732860623364</v>
+        <v>0.1535135681322116</v>
       </c>
       <c r="L246" t="n">
-        <v>0.07269725749094824</v>
+        <v>0.08953256892725672</v>
       </c>
       <c r="M246" t="n">
-        <v>0.2945391604958322</v>
+        <v>0.150944136472746</v>
       </c>
       <c r="N246" t="n">
-        <v>0.1157337547734444</v>
+        <v>0.1426982851628978</v>
       </c>
       <c r="O246" t="n">
-        <v>0.294849901476363</v>
+        <v>0.1508254181851732</v>
       </c>
     </row>
     <row r="247" ht="15" customHeight="1">
       <c r="F247" t="n">
-        <v>0.01814376667708337</v>
+        <v>0.004100203663849597</v>
       </c>
       <c r="G247" t="n">
-        <v>0.2948935231564531</v>
+        <v>0.05685146187443301</v>
       </c>
       <c r="J247" t="n">
-        <v>0.02889245317994549</v>
+        <v>0.0361565200495155</v>
       </c>
       <c r="K247" t="n">
-        <v>0.2969046301842277</v>
+        <v>0.1543617093926105</v>
       </c>
       <c r="L247" t="n">
-        <v>0.0717597889055574</v>
+        <v>0.08999915319111859</v>
       </c>
       <c r="M247" t="n">
-        <v>0.2961664486753671</v>
+        <v>0.1517780819781203</v>
       </c>
       <c r="N247" t="n">
-        <v>0.1143746347088929</v>
+        <v>0.1439449503216164</v>
       </c>
       <c r="O247" t="n">
-        <v>0.2964789064568955</v>
+        <v>0.1516587077884062</v>
       </c>
     </row>
     <row r="248" ht="15" customHeight="1">
       <c r="F248" t="n">
-        <v>0.01688296312809739</v>
+        <v>0.00411231391434401</v>
       </c>
       <c r="G248" t="n">
-        <v>0.2965138172397303</v>
+        <v>0.05683039330300347</v>
       </c>
       <c r="J248" t="n">
-        <v>0.02867231257109412</v>
+        <v>0.03614297190672505</v>
       </c>
       <c r="K248" t="n">
-        <v>0.2985359743061191</v>
+        <v>0.1552098506530095</v>
       </c>
       <c r="L248" t="n">
-        <v>0.07111802658080912</v>
+        <v>0.08956616658871711</v>
       </c>
       <c r="M248" t="n">
-        <v>0.2977937368549021</v>
+        <v>0.1526120274834946</v>
       </c>
       <c r="N248" t="n">
-        <v>0.1137086420599869</v>
+        <v>0.143192300143289</v>
       </c>
       <c r="O248" t="n">
-        <v>0.2981079114374278</v>
+        <v>0.1524919973916392</v>
       </c>
     </row>
     <row r="249" ht="15" customHeight="1">
       <c r="F249" t="n">
-        <v>0.01562107353123784</v>
+        <v>0.004127636767050219</v>
       </c>
       <c r="G249" t="n">
-        <v>0.2981341113230075</v>
+        <v>0.05680932473157393</v>
       </c>
       <c r="J249" t="n">
-        <v>0.02805041229390109</v>
+        <v>0.035929604368567</v>
       </c>
       <c r="K249" t="n">
-        <v>0.3001673184280105</v>
+        <v>0.1560579919134085</v>
       </c>
       <c r="L249" t="n">
-        <v>0.06967191024635278</v>
+        <v>0.08913361575161338</v>
       </c>
       <c r="M249" t="n">
-        <v>0.2994210250344371</v>
+        <v>0.1534459729888689</v>
       </c>
       <c r="N249" t="n">
-        <v>0.111635680231557</v>
+        <v>0.142340345197758</v>
       </c>
       <c r="O249" t="n">
-        <v>0.2997369164179602</v>
+        <v>0.1533252869948722</v>
       </c>
     </row>
     <row r="250" ht="15" customHeight="1">
       <c r="F250" t="n">
-        <v>0.01635808293174457</v>
+        <v>0.004146550175169593</v>
       </c>
       <c r="G250" t="n">
-        <v>0.2997544054062847</v>
+        <v>0.05678825616014439</v>
       </c>
       <c r="J250" t="n">
-        <v>0.02772672791596997</v>
+        <v>0.03591642024193749</v>
       </c>
       <c r="K250" t="n">
-        <v>0.3017986625499018</v>
+        <v>0.1569061331738074</v>
       </c>
       <c r="L250" t="n">
-        <v>0.06912137963183801</v>
+        <v>0.08920150731136844</v>
       </c>
       <c r="M250" t="n">
-        <v>0.3010483132139721</v>
+        <v>0.1542799184942431</v>
       </c>
       <c r="N250" t="n">
-        <v>0.1104556526284335</v>
+        <v>0.1426890960548657</v>
       </c>
       <c r="O250" t="n">
-        <v>0.3013659213984926</v>
+        <v>0.1541585765981052</v>
       </c>
     </row>
     <row r="251" ht="15" customHeight="1">
       <c r="F251" t="n">
-        <v>0.01609397637485742</v>
+        <v>0.00416943209190352</v>
       </c>
       <c r="G251" t="n">
-        <v>0.3013746994895619</v>
+        <v>0.05676718758871484</v>
       </c>
       <c r="J251" t="n">
-        <v>0.02730123500490433</v>
+        <v>0.03610342233373261</v>
       </c>
       <c r="K251" t="n">
-        <v>0.3034300066717932</v>
+        <v>0.1577542744342064</v>
       </c>
       <c r="L251" t="n">
-        <v>0.06796637446691425</v>
+        <v>0.08986984789954336</v>
       </c>
       <c r="M251" t="n">
-        <v>0.3026756013935071</v>
+        <v>0.1551138639996174</v>
       </c>
       <c r="N251" t="n">
-        <v>0.108768462655447</v>
+        <v>0.1431385632844545</v>
       </c>
       <c r="O251" t="n">
-        <v>0.302994926379025</v>
+        <v>0.1549918662013382</v>
       </c>
     </row>
     <row r="252" ht="15" customHeight="1">
       <c r="F252" t="n">
-        <v>0.01582873890581624</v>
+        <v>0.004196660470453396</v>
       </c>
       <c r="G252" t="n">
-        <v>0.3029949935728392</v>
+        <v>0.05674611901728529</v>
       </c>
       <c r="J252" t="n">
-        <v>0.02667390912830774</v>
+        <v>0.03619061345084851</v>
       </c>
       <c r="K252" t="n">
-        <v>0.3050613507936846</v>
+        <v>0.1586024156946053</v>
       </c>
       <c r="L252" t="n">
-        <v>0.06680683448123098</v>
+        <v>0.08983864414769921</v>
       </c>
       <c r="M252" t="n">
-        <v>0.3043028895730421</v>
+        <v>0.1559478095049917</v>
       </c>
       <c r="N252" t="n">
-        <v>0.1069740137174283</v>
+        <v>0.1423887574563668</v>
       </c>
       <c r="O252" t="n">
-        <v>0.3046239313595574</v>
+        <v>0.1558251558045712</v>
       </c>
     </row>
     <row r="253" ht="15" customHeight="1">
       <c r="F253" t="n">
-        <v>0.01556235556986087</v>
+        <v>0.004228613264020596</v>
       </c>
       <c r="G253" t="n">
-        <v>0.3046152876561163</v>
+        <v>0.05672505044585575</v>
       </c>
       <c r="J253" t="n">
-        <v>0.0265447258537837</v>
+        <v>0.03597799640018132</v>
       </c>
       <c r="K253" t="n">
-        <v>0.3066926949155759</v>
+        <v>0.1594505569550043</v>
       </c>
       <c r="L253" t="n">
-        <v>0.06584269940443779</v>
+        <v>0.08920790268739692</v>
       </c>
       <c r="M253" t="n">
-        <v>0.305930177752577</v>
+        <v>0.156781755010366</v>
       </c>
       <c r="N253" t="n">
-        <v>0.1045722092192076</v>
+        <v>0.1422396891404449</v>
       </c>
       <c r="O253" t="n">
-        <v>0.3062529363400898</v>
+        <v>0.1566584454078042</v>
       </c>
     </row>
     <row r="254" ht="15" customHeight="1">
       <c r="F254" t="n">
-        <v>0.01429481141223116</v>
+        <v>0.004265668425806515</v>
       </c>
       <c r="G254" t="n">
-        <v>0.3062355817393936</v>
+        <v>0.05670398187442621</v>
       </c>
       <c r="J254" t="n">
-        <v>0.02611366074893584</v>
+        <v>0.03616557398862717</v>
       </c>
       <c r="K254" t="n">
-        <v>0.3083240390374672</v>
+        <v>0.1602986982154032</v>
       </c>
       <c r="L254" t="n">
-        <v>0.06407390896618409</v>
+        <v>0.08937763015019776</v>
       </c>
       <c r="M254" t="n">
-        <v>0.307557465932112</v>
+        <v>0.1576157005157403</v>
       </c>
       <c r="N254" t="n">
-        <v>0.1036629525656158</v>
+        <v>0.1432913689065312</v>
       </c>
       <c r="O254" t="n">
-        <v>0.3078819413206222</v>
+        <v>0.1574917350110372</v>
       </c>
     </row>
     <row r="255" ht="15" customHeight="1">
       <c r="F255" t="n">
-        <v>0.01502609147816698</v>
+        <v>0.004308203909012528</v>
       </c>
       <c r="G255" t="n">
-        <v>0.3078558758226708</v>
+        <v>0.05668291330299666</v>
       </c>
       <c r="J255" t="n">
-        <v>0.0253806893813677</v>
+        <v>0.03605334902308216</v>
       </c>
       <c r="K255" t="n">
-        <v>0.3099553831593587</v>
+        <v>0.1611468394758022</v>
       </c>
       <c r="L255" t="n">
-        <v>0.06320040289611942</v>
+        <v>0.08894783316766267</v>
       </c>
       <c r="M255" t="n">
-        <v>0.309184754111647</v>
+        <v>0.1584496460211146</v>
       </c>
       <c r="N255" t="n">
-        <v>0.101546147161483</v>
+        <v>0.1433438073244681</v>
       </c>
       <c r="O255" t="n">
-        <v>0.3095109463011546</v>
+        <v>0.1583250246142702</v>
       </c>
     </row>
     <row r="256" ht="15" customHeight="1">
       <c r="F256" t="n">
-        <v>0.01375618081290814</v>
+        <v>0.004356597666840031</v>
       </c>
       <c r="G256" t="n">
-        <v>0.309476169905948</v>
+        <v>0.05666184473156712</v>
       </c>
       <c r="J256" t="n">
-        <v>0.02524578731868282</v>
+        <v>0.03584132431044244</v>
       </c>
       <c r="K256" t="n">
-        <v>0.31158672728125</v>
+        <v>0.1619949807362012</v>
       </c>
       <c r="L256" t="n">
-        <v>0.06192212092389321</v>
+        <v>0.08901851837135275</v>
       </c>
       <c r="M256" t="n">
-        <v>0.310812042291182</v>
+        <v>0.1592835915264889</v>
       </c>
       <c r="N256" t="n">
-        <v>0.09882169641164001</v>
+        <v>0.1433970149640977</v>
       </c>
       <c r="O256" t="n">
-        <v>0.311139951281687</v>
+        <v>0.1591583142175032</v>
       </c>
     </row>
     <row r="257" ht="15" customHeight="1">
       <c r="F257" t="n">
-        <v>0.01448506446169452</v>
+        <v>0.004411227652490413</v>
       </c>
       <c r="G257" t="n">
-        <v>0.3110964639892252</v>
+        <v>0.05664077616013757</v>
       </c>
       <c r="J257" t="n">
-        <v>0.0245089301284848</v>
+        <v>0.0359295026576041</v>
       </c>
       <c r="K257" t="n">
-        <v>0.3132180714031413</v>
+        <v>0.1628431219966001</v>
       </c>
       <c r="L257" t="n">
-        <v>0.06143900277915504</v>
+        <v>0.08958969239282899</v>
       </c>
       <c r="M257" t="n">
-        <v>0.312439330470717</v>
+        <v>0.1601175370318631</v>
       </c>
       <c r="N257" t="n">
-        <v>0.09818950372091728</v>
+        <v>0.1422510023952627</v>
       </c>
       <c r="O257" t="n">
-        <v>0.3127689562622193</v>
+        <v>0.1599916038207362</v>
       </c>
     </row>
     <row r="258" ht="15" customHeight="1">
       <c r="F258" t="n">
-        <v>0.01321272746976596</v>
+        <v>0.004472471819165047</v>
       </c>
       <c r="G258" t="n">
-        <v>0.3127167580725024</v>
+        <v>0.05661970758870803</v>
       </c>
       <c r="J258" t="n">
-        <v>0.02417009337837719</v>
+        <v>0.03591788687146333</v>
       </c>
       <c r="K258" t="n">
-        <v>0.3148494155250327</v>
+        <v>0.1636912632569991</v>
       </c>
       <c r="L258" t="n">
-        <v>0.05995098819155442</v>
+        <v>0.08976136186365252</v>
       </c>
       <c r="M258" t="n">
-        <v>0.3140666186502519</v>
+        <v>0.1609514825372374</v>
       </c>
       <c r="N258" t="n">
-        <v>0.09554947249414542</v>
+        <v>0.1420057801878051</v>
       </c>
       <c r="O258" t="n">
-        <v>0.3143979612427518</v>
+        <v>0.1608248934239692</v>
       </c>
     </row>
     <row r="259" ht="15" customHeight="1">
       <c r="F259" t="n">
-        <v>0.0139391548823623</v>
+        <v>0.004540708120065323</v>
       </c>
       <c r="G259" t="n">
-        <v>0.3143370521557796</v>
+        <v>0.05659863901727849</v>
       </c>
       <c r="J259" t="n">
-        <v>0.02382925263596355</v>
+        <v>0.0360064797589162</v>
       </c>
       <c r="K259" t="n">
-        <v>0.3164807596469241</v>
+        <v>0.164539404517398</v>
       </c>
       <c r="L259" t="n">
-        <v>0.05915801689074077</v>
+        <v>0.08933353341538439</v>
       </c>
       <c r="M259" t="n">
-        <v>0.315693906829787</v>
+        <v>0.1617854280426117</v>
       </c>
       <c r="N259" t="n">
-        <v>0.09360150613615481</v>
+        <v>0.1427613589115676</v>
       </c>
       <c r="O259" t="n">
-        <v>0.3160269662232841</v>
+        <v>0.1616581830272023</v>
       </c>
     </row>
     <row r="260" ht="15" customHeight="1">
       <c r="F260" t="n">
-        <v>0.01366433174472339</v>
+        <v>0.004616314508392678</v>
       </c>
       <c r="G260" t="n">
-        <v>0.3159573462390569</v>
+        <v>0.05657757044584893</v>
       </c>
       <c r="J260" t="n">
-        <v>0.02348638346884743</v>
+        <v>0.03579528412685885</v>
       </c>
       <c r="K260" t="n">
-        <v>0.3181121037688155</v>
+        <v>0.165387545777797</v>
       </c>
       <c r="L260" t="n">
-        <v>0.05796002860636362</v>
+        <v>0.08960621367958566</v>
       </c>
       <c r="M260" t="n">
-        <v>0.3173211950093219</v>
+        <v>0.162619373547986</v>
       </c>
       <c r="N260" t="n">
-        <v>0.09244550805177609</v>
+        <v>0.1429177491363923</v>
       </c>
       <c r="O260" t="n">
-        <v>0.3176559712038166</v>
+        <v>0.1624914726304352</v>
       </c>
     </row>
     <row r="261" ht="15" customHeight="1">
       <c r="F261" t="n">
-        <v>0.01238824310208908</v>
+        <v>0.004699668937348418</v>
       </c>
       <c r="G261" t="n">
-        <v>0.317577640322334</v>
+        <v>0.05655650187441939</v>
       </c>
       <c r="J261" t="n">
-        <v>0.02284146144463242</v>
+        <v>0.03588430278218742</v>
       </c>
       <c r="K261" t="n">
-        <v>0.3197434478907068</v>
+        <v>0.1662356870381959</v>
       </c>
       <c r="L261" t="n">
-        <v>0.05655696306807251</v>
+        <v>0.08937940928781735</v>
       </c>
       <c r="M261" t="n">
-        <v>0.3189484831888569</v>
+        <v>0.1634533190533603</v>
       </c>
       <c r="N261" t="n">
-        <v>0.09038138164583986</v>
+        <v>0.1425749614321218</v>
       </c>
       <c r="O261" t="n">
-        <v>0.3192849761843489</v>
+        <v>0.1633247622336682</v>
       </c>
     </row>
     <row r="262" ht="15" customHeight="1">
       <c r="F262" t="n">
-        <v>0.01411087399969921</v>
+        <v>0.004791149360133959</v>
       </c>
       <c r="G262" t="n">
-        <v>0.3191979344056113</v>
+        <v>0.05653543330298985</v>
       </c>
       <c r="J262" t="n">
-        <v>0.02229446213092208</v>
+        <v>0.03577353853179803</v>
       </c>
       <c r="K262" t="n">
-        <v>0.3213747920125982</v>
+        <v>0.1670838282985949</v>
       </c>
       <c r="L262" t="n">
-        <v>0.05564876000551691</v>
+        <v>0.08925312687164053</v>
       </c>
       <c r="M262" t="n">
-        <v>0.3205757713683919</v>
+        <v>0.1642872645587346</v>
       </c>
       <c r="N262" t="n">
-        <v>0.08950903032317659</v>
+        <v>0.1423330063685982</v>
       </c>
       <c r="O262" t="n">
-        <v>0.3209139811648813</v>
+        <v>0.1641580518369012</v>
       </c>
     </row>
     <row r="263" ht="15" customHeight="1">
       <c r="F263" t="n">
-        <v>0.01383220948279363</v>
+        <v>0.004891133729950682</v>
       </c>
       <c r="G263" t="n">
-        <v>0.3208182284888885</v>
+        <v>0.05651436473156031</v>
       </c>
       <c r="J263" t="n">
-        <v>0.02194536109531994</v>
+        <v>0.03586299418258677</v>
       </c>
       <c r="K263" t="n">
-        <v>0.3230061361344895</v>
+        <v>0.1679319695589939</v>
       </c>
       <c r="L263" t="n">
-        <v>0.05453535914834634</v>
+        <v>0.08902737306261632</v>
       </c>
       <c r="M263" t="n">
-        <v>0.3222030595479269</v>
+        <v>0.1651212100641089</v>
       </c>
       <c r="N263" t="n">
-        <v>0.08662835748861669</v>
+        <v>0.1431918945156641</v>
       </c>
       <c r="O263" t="n">
-        <v>0.3225429861454137</v>
+        <v>0.1649913414401342</v>
       </c>
     </row>
     <row r="264" ht="15" customHeight="1">
       <c r="F264" t="n">
-        <v>0.01255223459661219</v>
+        <v>0.004999999999999998</v>
       </c>
       <c r="G264" t="n">
-        <v>0.3224385225721657</v>
+        <v>0.05649329616013077</v>
       </c>
       <c r="J264" t="n">
-        <v>0.0213941339054296</v>
+        <v>0.03575267254144984</v>
       </c>
       <c r="K264" t="n">
-        <v>0.3246374802563809</v>
+        <v>0.1687801108193928</v>
       </c>
       <c r="L264" t="n">
-        <v>0.05371670022621022</v>
+        <v>0.08880215449230572</v>
       </c>
       <c r="M264" t="n">
-        <v>0.3238303477274618</v>
+        <v>0.1659551555694831</v>
       </c>
       <c r="N264" t="n">
-        <v>0.08493926654699085</v>
+        <v>0.1423516364431616</v>
       </c>
       <c r="O264" t="n">
-        <v>0.3241719911259461</v>
-      </c>
-    </row>
-    <row r="265" ht="15" customHeight="1"/>
-    <row r="266" ht="15" customHeight="1"/>
-    <row r="267" ht="15" customHeight="1"/>
-    <row r="268" ht="15" customHeight="1"/>
-    <row r="269" ht="15" customHeight="1"/>
-    <row r="270" ht="15" customHeight="1"/>
-    <row r="271" ht="15" customHeight="1"/>
-    <row r="272" ht="15" customHeight="1"/>
-    <row r="273" ht="15" customHeight="1"/>
-    <row r="274" ht="15" customHeight="1"/>
-    <row r="275" ht="15" customHeight="1"/>
-    <row r="276" ht="15" customHeight="1"/>
-    <row r="277" ht="15" customHeight="1"/>
-    <row r="278" ht="15" customHeight="1"/>
-    <row r="279" ht="15" customHeight="1"/>
-    <row r="280" ht="15" customHeight="1"/>
-    <row r="281" ht="15" customHeight="1"/>
-    <row r="282" ht="15" customHeight="1"/>
-    <row r="283" ht="15" customHeight="1"/>
-    <row r="284" ht="15" customHeight="1"/>
-    <row r="285" ht="15" customHeight="1"/>
-    <row r="286" ht="15" customHeight="1"/>
-    <row r="287" ht="15" customHeight="1"/>
-    <row r="288" ht="15" customHeight="1"/>
-    <row r="289" ht="15" customHeight="1"/>
-    <row r="290" ht="15" customHeight="1"/>
-    <row r="291" ht="15" customHeight="1"/>
-    <row r="292" ht="15" customHeight="1"/>
-    <row r="293" ht="15" customHeight="1"/>
-    <row r="294" ht="15" customHeight="1"/>
-    <row r="295" ht="15" customHeight="1"/>
-    <row r="296" ht="15" customHeight="1"/>
-    <row r="297" ht="15" customHeight="1"/>
-    <row r="298" ht="15" customHeight="1"/>
-    <row r="299" ht="15" customHeight="1"/>
-    <row r="300" ht="15" customHeight="1"/>
-    <row r="301" ht="15" customHeight="1"/>
-    <row r="302" ht="15" customHeight="1"/>
-    <row r="303" ht="15" customHeight="1"/>
-    <row r="304" ht="15" customHeight="1"/>
-    <row r="305" ht="15" customHeight="1"/>
-    <row r="306" ht="15" customHeight="1"/>
-    <row r="307" ht="15" customHeight="1"/>
-    <row r="308" ht="15" customHeight="1"/>
-    <row r="309" ht="15" customHeight="1"/>
-    <row r="310" ht="15" customHeight="1"/>
-    <row r="311" ht="15" customHeight="1"/>
-    <row r="312" ht="15" customHeight="1"/>
-    <row r="313" ht="15" customHeight="1"/>
-    <row r="314" ht="15" customHeight="1"/>
-    <row r="315" ht="15" customHeight="1"/>
-    <row r="316" ht="15" customHeight="1"/>
-    <row r="317" ht="15" customHeight="1"/>
-    <row r="318" ht="15" customHeight="1"/>
-    <row r="319" ht="15" customHeight="1"/>
-    <row r="320" ht="15" customHeight="1"/>
-    <row r="321" ht="15" customHeight="1"/>
-    <row r="322" ht="15" customHeight="1"/>
-    <row r="323" ht="15" customHeight="1"/>
-    <row r="324" ht="15" customHeight="1"/>
-    <row r="325" ht="15" customHeight="1"/>
-    <row r="326" ht="15" customHeight="1"/>
-    <row r="327" ht="15" customHeight="1"/>
-    <row r="328" ht="15" customHeight="1"/>
-    <row r="329" ht="15" customHeight="1"/>
-    <row r="330" ht="15" customHeight="1"/>
-    <row r="331" ht="15" customHeight="1"/>
-    <row r="332" ht="15" customHeight="1"/>
-    <row r="333" ht="15" customHeight="1"/>
-    <row r="334" ht="15" customHeight="1"/>
-    <row r="335" ht="15" customHeight="1"/>
-    <row r="336" ht="15" customHeight="1"/>
-    <row r="337" ht="15" customHeight="1"/>
-    <row r="338" ht="15" customHeight="1"/>
-    <row r="339" ht="15" customHeight="1"/>
-    <row r="340" ht="15" customHeight="1"/>
-    <row r="341" ht="15" customHeight="1"/>
-    <row r="342" ht="15" customHeight="1"/>
-    <row r="343" ht="15" customHeight="1"/>
-    <row r="344" ht="15" customHeight="1"/>
-    <row r="345" ht="15" customHeight="1"/>
-    <row r="346" ht="15" customHeight="1"/>
-    <row r="347" ht="15" customHeight="1"/>
-    <row r="348" ht="15" customHeight="1"/>
-    <row r="349" ht="15" customHeight="1"/>
-    <row r="350" ht="15" customHeight="1"/>
-    <row r="351" ht="15" customHeight="1"/>
-    <row r="352" ht="15" customHeight="1"/>
-    <row r="353" ht="15" customHeight="1"/>
-    <row r="354" ht="15" customHeight="1"/>
-    <row r="355" ht="15" customHeight="1"/>
-    <row r="356" ht="15" customHeight="1"/>
-    <row r="357" ht="15" customHeight="1"/>
-    <row r="358" ht="15" customHeight="1"/>
-    <row r="359" ht="15" customHeight="1"/>
-    <row r="360" ht="15" customHeight="1"/>
-    <row r="361" ht="15" customHeight="1"/>
-    <row r="362" ht="15" customHeight="1"/>
-    <row r="363" ht="15" customHeight="1"/>
-    <row r="364" ht="15" customHeight="1"/>
-    <row r="365" ht="15" customHeight="1"/>
-    <row r="366" ht="15" customHeight="1"/>
-    <row r="367" ht="15" customHeight="1"/>
-    <row r="368" ht="15" customHeight="1"/>
-    <row r="369" ht="15" customHeight="1"/>
-    <row r="370" ht="15" customHeight="1"/>
-    <row r="371" ht="15" customHeight="1"/>
-    <row r="372" ht="15" customHeight="1"/>
-    <row r="373" ht="15" customHeight="1"/>
-    <row r="374" ht="15" customHeight="1"/>
-    <row r="375" ht="15" customHeight="1"/>
-    <row r="376" ht="15" customHeight="1"/>
-    <row r="377" ht="15" customHeight="1"/>
-    <row r="378" ht="15" customHeight="1"/>
-    <row r="379" ht="15" customHeight="1"/>
-    <row r="380" ht="15" customHeight="1"/>
-    <row r="381" ht="15" customHeight="1"/>
-    <row r="382" ht="15" customHeight="1"/>
-    <row r="383" ht="15" customHeight="1"/>
-    <row r="384" ht="15" customHeight="1"/>
-    <row r="385" ht="15" customHeight="1"/>
-    <row r="386" ht="15" customHeight="1"/>
-    <row r="387" ht="15" customHeight="1"/>
-    <row r="388" ht="15" customHeight="1"/>
-    <row r="389" ht="15" customHeight="1"/>
-    <row r="390" ht="15" customHeight="1"/>
-    <row r="391" ht="15" customHeight="1"/>
-    <row r="392" ht="15" customHeight="1"/>
-    <row r="393" ht="15" customHeight="1"/>
-    <row r="394" ht="15" customHeight="1"/>
-    <row r="395" ht="15" customHeight="1"/>
-    <row r="396" ht="15" customHeight="1"/>
-    <row r="397" ht="15" customHeight="1"/>
-    <row r="398" ht="15" customHeight="1"/>
-    <row r="399" ht="15" customHeight="1"/>
-    <row r="400" ht="15" customHeight="1"/>
-    <row r="401" ht="15" customHeight="1"/>
-    <row r="402" ht="15" customHeight="1"/>
-    <row r="403" ht="15" customHeight="1"/>
-    <row r="404" ht="15" customHeight="1"/>
-    <row r="405" ht="15" customHeight="1"/>
-    <row r="406" ht="15" customHeight="1"/>
-    <row r="407" ht="15" customHeight="1"/>
-    <row r="408" ht="15" customHeight="1"/>
-    <row r="409" ht="15" customHeight="1"/>
-    <row r="410" ht="15" customHeight="1"/>
-    <row r="411" ht="15" customHeight="1"/>
-    <row r="412" ht="15" customHeight="1"/>
-    <row r="413" ht="15" customHeight="1"/>
-    <row r="414" ht="15" customHeight="1"/>
-    <row r="415" ht="15" customHeight="1"/>
-    <row r="416" ht="15" customHeight="1"/>
-    <row r="417" ht="15" customHeight="1"/>
-    <row r="418" ht="15" customHeight="1"/>
-    <row r="419" ht="15" customHeight="1"/>
-    <row r="420" ht="15" customHeight="1"/>
-    <row r="421" ht="15" customHeight="1"/>
-    <row r="422" ht="15" customHeight="1"/>
-    <row r="423" ht="15" customHeight="1"/>
-    <row r="424" ht="15" customHeight="1"/>
-    <row r="425" ht="15" customHeight="1"/>
-    <row r="426" ht="15" customHeight="1"/>
-    <row r="427" ht="15" customHeight="1"/>
-    <row r="428" ht="15" customHeight="1"/>
-    <row r="429" ht="15" customHeight="1"/>
-    <row r="430" ht="15" customHeight="1"/>
-    <row r="431" ht="15" customHeight="1"/>
-    <row r="432" ht="15" customHeight="1"/>
-    <row r="433" ht="15" customHeight="1"/>
-    <row r="434" ht="15" customHeight="1"/>
-    <row r="435" ht="15" customHeight="1"/>
-    <row r="436" ht="15" customHeight="1"/>
-    <row r="437" ht="15" customHeight="1"/>
-    <row r="438" ht="15" customHeight="1"/>
-    <row r="439" ht="15" customHeight="1"/>
-    <row r="440" ht="15" customHeight="1"/>
-    <row r="441" ht="15" customHeight="1"/>
-    <row r="442" ht="15" customHeight="1"/>
-    <row r="443" ht="15" customHeight="1"/>
-    <row r="444" ht="15" customHeight="1"/>
-    <row r="445" ht="15" customHeight="1"/>
-    <row r="446" ht="15" customHeight="1"/>
-    <row r="447" ht="15" customHeight="1"/>
-    <row r="448" ht="15" customHeight="1"/>
-    <row r="449" ht="15" customHeight="1"/>
-    <row r="450" ht="15" customHeight="1"/>
-    <row r="451" ht="15" customHeight="1"/>
-    <row r="452" ht="15" customHeight="1"/>
-    <row r="453" ht="15" customHeight="1"/>
-    <row r="454" ht="15" customHeight="1"/>
-    <row r="455" ht="15" customHeight="1"/>
-    <row r="456" ht="15" customHeight="1"/>
-    <row r="457" ht="15" customHeight="1"/>
-    <row r="458" ht="15" customHeight="1"/>
-    <row r="459" ht="15" customHeight="1"/>
-    <row r="460" ht="15" customHeight="1"/>
-    <row r="461" ht="15" customHeight="1"/>
-    <row r="462" ht="15" customHeight="1"/>
-    <row r="463" ht="15" customHeight="1"/>
-    <row r="464" ht="15" customHeight="1"/>
+        <v>0.1658246310433672</v>
+      </c>
+    </row>
+    <row r="265" ht="15" customHeight="1">
+      <c r="F265" t="n">
+        <v>0.004999999999999998</v>
+      </c>
+      <c r="G265" t="n">
+        <v>0.05648013826539392</v>
+      </c>
+    </row>
+    <row r="266" ht="15" customHeight="1">
+      <c r="F266" t="n">
+        <v>0.00529623882852203</v>
+      </c>
+      <c r="G266" t="n">
+        <v>0.05648040679385793</v>
+      </c>
+    </row>
+    <row r="267" ht="15" customHeight="1">
+      <c r="F267" t="n">
+        <v>0.005589735832718538</v>
+      </c>
+      <c r="G267" t="n">
+        <v>0.05648067532232195</v>
+      </c>
+    </row>
+    <row r="268" ht="15" customHeight="1">
+      <c r="F268" t="n">
+        <v>0.005880417224009386</v>
+      </c>
+      <c r="G268" t="n">
+        <v>0.05648094385078598</v>
+      </c>
+    </row>
+    <row r="269" ht="15" customHeight="1">
+      <c r="F269" t="n">
+        <v>0.006168209213776546</v>
+      </c>
+      <c r="G269" t="n">
+        <v>0.05648121237924999</v>
+      </c>
+    </row>
+    <row r="270" ht="15" customHeight="1">
+      <c r="F270" t="n">
+        <v>0.00645303801343998</v>
+      </c>
+      <c r="G270" t="n">
+        <v>0.05648148090771401</v>
+      </c>
+    </row>
+    <row r="271" ht="15" customHeight="1">
+      <c r="F271" t="n">
+        <v>0.006734829834406993</v>
+      </c>
+      <c r="G271" t="n">
+        <v>0.05648174943617802</v>
+      </c>
+    </row>
+    <row r="272" ht="15" customHeight="1">
+      <c r="F272" t="n">
+        <v>0.007013510888096888</v>
+      </c>
+      <c r="G272" t="n">
+        <v>0.05648201796464205</v>
+      </c>
+    </row>
+    <row r="273" ht="15" customHeight="1">
+      <c r="F273" t="n">
+        <v>0.007289007385892686</v>
+      </c>
+      <c r="G273" t="n">
+        <v>0.05648228649310606</v>
+      </c>
+    </row>
+    <row r="274" ht="15" customHeight="1">
+      <c r="F274" t="n">
+        <v>0.007561245539213869</v>
+      </c>
+      <c r="G274" t="n">
+        <v>0.05648255502157008</v>
+      </c>
+    </row>
+    <row r="275" ht="15" customHeight="1">
+      <c r="F275" t="n">
+        <v>0.007830151559467695</v>
+      </c>
+      <c r="G275" t="n">
+        <v>0.05648282355003409</v>
+      </c>
+    </row>
+    <row r="276" ht="15" customHeight="1">
+      <c r="F276" t="n">
+        <v>0.008095651658072911</v>
+      </c>
+      <c r="G276" t="n">
+        <v>0.05648309207849812</v>
+      </c>
+    </row>
+    <row r="277" ht="15" customHeight="1">
+      <c r="F277" t="n">
+        <v>0.008357672046413696</v>
+      </c>
+      <c r="G277" t="n">
+        <v>0.05648336060696213</v>
+      </c>
+    </row>
+    <row r="278" ht="15" customHeight="1">
+      <c r="F278" t="n">
+        <v>0.008616138935908936</v>
+      </c>
+      <c r="G278" t="n">
+        <v>0.05648362913542614</v>
+      </c>
+    </row>
+    <row r="279" ht="15" customHeight="1">
+      <c r="F279" t="n">
+        <v>0.00887097853796591</v>
+      </c>
+      <c r="G279" t="n">
+        <v>0.05648389766389016</v>
+      </c>
+    </row>
+    <row r="280" ht="15" customHeight="1">
+      <c r="F280" t="n">
+        <v>0.009122117064002726</v>
+      </c>
+      <c r="G280" t="n">
+        <v>0.05648416619235418</v>
+      </c>
+    </row>
+    <row r="281" ht="15" customHeight="1">
+      <c r="F281" t="n">
+        <v>0.009369480725404812</v>
+      </c>
+      <c r="G281" t="n">
+        <v>0.0564844347208182</v>
+      </c>
+    </row>
+    <row r="282" ht="15" customHeight="1">
+      <c r="F282" t="n">
+        <v>0.009612995733590438</v>
+      </c>
+      <c r="G282" t="n">
+        <v>0.05648470324928221</v>
+      </c>
+    </row>
+    <row r="283" ht="15" customHeight="1">
+      <c r="F283" t="n">
+        <v>0.00985258829996688</v>
+      </c>
+      <c r="G283" t="n">
+        <v>0.05648497177774623</v>
+      </c>
+    </row>
+    <row r="284" ht="15" customHeight="1">
+      <c r="F284" t="n">
+        <v>0.01008818463595157</v>
+      </c>
+      <c r="G284" t="n">
+        <v>0.05648524030621025</v>
+      </c>
+    </row>
+    <row r="285" ht="15" customHeight="1">
+      <c r="F285" t="n">
+        <v>0.01031971095293129</v>
+      </c>
+      <c r="G285" t="n">
+        <v>0.05648550883467427</v>
+      </c>
+    </row>
+    <row r="286" ht="15" customHeight="1">
+      <c r="F286" t="n">
+        <v>0.01054709346232362</v>
+      </c>
+      <c r="G286" t="n">
+        <v>0.05648577736313828</v>
+      </c>
+    </row>
+    <row r="287" ht="15" customHeight="1">
+      <c r="F287" t="n">
+        <v>0.01077025837553586</v>
+      </c>
+      <c r="G287" t="n">
+        <v>0.0564860458916023</v>
+      </c>
+    </row>
+    <row r="288" ht="15" customHeight="1">
+      <c r="F288" t="n">
+        <v>0.0109891319039847</v>
+      </c>
+      <c r="G288" t="n">
+        <v>0.05648631442006632</v>
+      </c>
+    </row>
+    <row r="289" ht="15" customHeight="1">
+      <c r="F289" t="n">
+        <v>0.01120364025905836</v>
+      </c>
+      <c r="G289" t="n">
+        <v>0.05648658294853034</v>
+      </c>
+    </row>
+    <row r="290" ht="15" customHeight="1">
+      <c r="F290" t="n">
+        <v>0.01141401095559407</v>
+      </c>
+      <c r="G290" t="n">
+        <v>0.05648685147699435</v>
+      </c>
+    </row>
+    <row r="291" ht="15" customHeight="1">
+      <c r="F291" t="n">
+        <v>0.01162197802552096</v>
+      </c>
+      <c r="G291" t="n">
+        <v>0.05648712000545836</v>
+      </c>
+    </row>
+    <row r="292" ht="15" customHeight="1">
+      <c r="F292" t="n">
+        <v>0.01182776898367548</v>
+      </c>
+      <c r="G292" t="n">
+        <v>0.05648738853392239</v>
+      </c>
+    </row>
+    <row r="293" ht="15" customHeight="1">
+      <c r="F293" t="n">
+        <v>0.012031310041447</v>
+      </c>
+      <c r="G293" t="n">
+        <v>0.05648765706238641</v>
+      </c>
+    </row>
+    <row r="294" ht="15" customHeight="1">
+      <c r="F294" t="n">
+        <v>0.01223252741025178</v>
+      </c>
+      <c r="G294" t="n">
+        <v>0.05648792559085042</v>
+      </c>
+    </row>
+    <row r="295" ht="15" customHeight="1">
+      <c r="F295" t="n">
+        <v>0.0124313473014971</v>
+      </c>
+      <c r="G295" t="n">
+        <v>0.05648819411931444</v>
+      </c>
+    </row>
+    <row r="296" ht="15" customHeight="1">
+      <c r="F296" t="n">
+        <v>0.01262769592659873</v>
+      </c>
+      <c r="G296" t="n">
+        <v>0.05648846264777846</v>
+      </c>
+    </row>
+    <row r="297" ht="15" customHeight="1">
+      <c r="F297" t="n">
+        <v>0.01282149949694684</v>
+      </c>
+      <c r="G297" t="n">
+        <v>0.05648873117624248</v>
+      </c>
+    </row>
+    <row r="298" ht="15" customHeight="1">
+      <c r="F298" t="n">
+        <v>0.01301268422395731</v>
+      </c>
+      <c r="G298" t="n">
+        <v>0.05648899970470649</v>
+      </c>
+    </row>
+    <row r="299" ht="15" customHeight="1">
+      <c r="F299" t="n">
+        <v>0.0132011763190374</v>
+      </c>
+      <c r="G299" t="n">
+        <v>0.05648926823317051</v>
+      </c>
+    </row>
+    <row r="300" ht="15" customHeight="1">
+      <c r="F300" t="n">
+        <v>0.01338690199360242</v>
+      </c>
+      <c r="G300" t="n">
+        <v>0.05648953676163453</v>
+      </c>
+    </row>
+    <row r="301" ht="15" customHeight="1">
+      <c r="F301" t="n">
+        <v>0.01356978745904346</v>
+      </c>
+      <c r="G301" t="n">
+        <v>0.05648980529009855</v>
+      </c>
+    </row>
+    <row r="302" ht="15" customHeight="1">
+      <c r="F302" t="n">
+        <v>0.01374975892677594</v>
+      </c>
+      <c r="G302" t="n">
+        <v>0.05649007381856256</v>
+      </c>
+    </row>
+    <row r="303" ht="15" customHeight="1">
+      <c r="F303" t="n">
+        <v>0.01392674260820713</v>
+      </c>
+      <c r="G303" t="n">
+        <v>0.05649034234702657</v>
+      </c>
+    </row>
+    <row r="304" ht="15" customHeight="1">
+      <c r="F304" t="n">
+        <v>0.01410066471475181</v>
+      </c>
+      <c r="G304" t="n">
+        <v>0.0564906108754906</v>
+      </c>
+    </row>
+    <row r="305" ht="15" customHeight="1">
+      <c r="F305" t="n">
+        <v>0.0142714514578021</v>
+      </c>
+      <c r="G305" t="n">
+        <v>0.05649087940395461</v>
+      </c>
+    </row>
+    <row r="306" ht="15" customHeight="1">
+      <c r="F306" t="n">
+        <v>0.01443902904877293</v>
+      </c>
+      <c r="G306" t="n">
+        <v>0.05649114793241863</v>
+      </c>
+    </row>
+    <row r="307" ht="15" customHeight="1">
+      <c r="F307" t="n">
+        <v>0.01460332369907155</v>
+      </c>
+      <c r="G307" t="n">
+        <v>0.05649141646088265</v>
+      </c>
+    </row>
+    <row r="308" ht="15" customHeight="1">
+      <c r="F308" t="n">
+        <v>0.01476426162011218</v>
+      </c>
+      <c r="G308" t="n">
+        <v>0.05649168498934667</v>
+      </c>
+    </row>
+    <row r="309" ht="15" customHeight="1">
+      <c r="F309" t="n">
+        <v>0.01492176902328807</v>
+      </c>
+      <c r="G309" t="n">
+        <v>0.05649195351781069</v>
+      </c>
+    </row>
+    <row r="310" ht="15" customHeight="1">
+      <c r="F310" t="n">
+        <v>0.01507577212001356</v>
+      </c>
+      <c r="G310" t="n">
+        <v>0.0564922220462747</v>
+      </c>
+    </row>
+    <row r="311" ht="15" customHeight="1">
+      <c r="F311" t="n">
+        <v>0.01522619712169593</v>
+      </c>
+      <c r="G311" t="n">
+        <v>0.05649249057473871</v>
+      </c>
+    </row>
+    <row r="312" ht="15" customHeight="1">
+      <c r="F312" t="n">
+        <v>0.01537297023974878</v>
+      </c>
+      <c r="G312" t="n">
+        <v>0.05649275910320274</v>
+      </c>
+    </row>
+    <row r="313" ht="15" customHeight="1">
+      <c r="F313" t="n">
+        <v>0.01551601768556658</v>
+      </c>
+      <c r="G313" t="n">
+        <v>0.05649302763166675</v>
+      </c>
+    </row>
+    <row r="314" ht="15" customHeight="1">
+      <c r="F314" t="n">
+        <v>0.01565526567056309</v>
+      </c>
+      <c r="G314" t="n">
+        <v>0.05649329616013077</v>
+      </c>
+    </row>
+    <row r="315" ht="15" customHeight="1">
+      <c r="F315" t="n">
+        <v>0.01565526567056309</v>
+      </c>
+      <c r="G315" t="n">
+        <v>0.05648013826539392</v>
+      </c>
+    </row>
+    <row r="316" ht="15" customHeight="1">
+      <c r="F316" t="n">
+        <v>0.01575670206621158</v>
+      </c>
+      <c r="G316" t="n">
+        <v>0.0565017438937515</v>
+      </c>
+    </row>
+    <row r="317" ht="15" customHeight="1">
+      <c r="F317" t="n">
+        <v>0.01585544894120412</v>
+      </c>
+      <c r="G317" t="n">
+        <v>0.05652334952210908</v>
+      </c>
+    </row>
+    <row r="318" ht="15" customHeight="1">
+      <c r="F318" t="n">
+        <v>0.01595137262354961</v>
+      </c>
+      <c r="G318" t="n">
+        <v>0.05654495515046666</v>
+      </c>
+    </row>
+    <row r="319" ht="15" customHeight="1">
+      <c r="F319" t="n">
+        <v>0.01604433944125673</v>
+      </c>
+      <c r="G319" t="n">
+        <v>0.05656656077882423</v>
+      </c>
+    </row>
+    <row r="320" ht="15" customHeight="1">
+      <c r="F320" t="n">
+        <v>0.01613421572233438</v>
+      </c>
+      <c r="G320" t="n">
+        <v>0.05658816640718181</v>
+      </c>
+    </row>
+    <row r="321" ht="15" customHeight="1">
+      <c r="F321" t="n">
+        <v>0.0162208677947913</v>
+      </c>
+      <c r="G321" t="n">
+        <v>0.05660977203553939</v>
+      </c>
+    </row>
+    <row r="322" ht="15" customHeight="1">
+      <c r="F322" t="n">
+        <v>0.01630416198663623</v>
+      </c>
+      <c r="G322" t="n">
+        <v>0.05663137766389697</v>
+      </c>
+    </row>
+    <row r="323" ht="15" customHeight="1">
+      <c r="F323" t="n">
+        <v>0.01638396462587807</v>
+      </c>
+      <c r="G323" t="n">
+        <v>0.05665298329225455</v>
+      </c>
+    </row>
+    <row r="324" ht="15" customHeight="1">
+      <c r="F324" t="n">
+        <v>0.01646014204052555</v>
+      </c>
+      <c r="G324" t="n">
+        <v>0.05667458892061213</v>
+      </c>
+    </row>
+    <row r="325" ht="15" customHeight="1">
+      <c r="F325" t="n">
+        <v>0.01653256055858743</v>
+      </c>
+      <c r="G325" t="n">
+        <v>0.0566961945489697</v>
+      </c>
+    </row>
+    <row r="326" ht="15" customHeight="1">
+      <c r="F326" t="n">
+        <v>0.01660108650807259</v>
+      </c>
+      <c r="G326" t="n">
+        <v>0.05671780017732728</v>
+      </c>
+    </row>
+    <row r="327" ht="15" customHeight="1">
+      <c r="F327" t="n">
+        <v>0.01666558621698973</v>
+      </c>
+      <c r="G327" t="n">
+        <v>0.05673940580568486</v>
+      </c>
+    </row>
+    <row r="328" ht="15" customHeight="1">
+      <c r="F328" t="n">
+        <v>0.01672592601334775</v>
+      </c>
+      <c r="G328" t="n">
+        <v>0.05676101143404244</v>
+      </c>
+    </row>
+    <row r="329" ht="15" customHeight="1">
+      <c r="F329" t="n">
+        <v>0.01678197222515537</v>
+      </c>
+      <c r="G329" t="n">
+        <v>0.05678261706240002</v>
+      </c>
+    </row>
+    <row r="330" ht="15" customHeight="1">
+      <c r="F330" t="n">
+        <v>0.01683359118042136</v>
+      </c>
+      <c r="G330" t="n">
+        <v>0.0568042226907576</v>
+      </c>
+    </row>
+    <row r="331" ht="15" customHeight="1">
+      <c r="F331" t="n">
+        <v>0.01688064920715458</v>
+      </c>
+      <c r="G331" t="n">
+        <v>0.05682582831911518</v>
+      </c>
+    </row>
+    <row r="332" ht="15" customHeight="1">
+      <c r="F332" t="n">
+        <v>0.01692301263336378</v>
+      </c>
+      <c r="G332" t="n">
+        <v>0.05684743394747275</v>
+      </c>
+    </row>
+    <row r="333" ht="15" customHeight="1">
+      <c r="F333" t="n">
+        <v>0.01696054778705778</v>
+      </c>
+      <c r="G333" t="n">
+        <v>0.05686903957583033</v>
+      </c>
+    </row>
+    <row r="334" ht="15" customHeight="1">
+      <c r="F334" t="n">
+        <v>0.01699312099624536</v>
+      </c>
+      <c r="G334" t="n">
+        <v>0.05689064520418791</v>
+      </c>
+    </row>
+    <row r="335" ht="15" customHeight="1">
+      <c r="F335" t="n">
+        <v>0.01702059858893529</v>
+      </c>
+      <c r="G335" t="n">
+        <v>0.05691225083254549</v>
+      </c>
+    </row>
+    <row r="336" ht="15" customHeight="1">
+      <c r="F336" t="n">
+        <v>0.01704284689313641</v>
+      </c>
+      <c r="G336" t="n">
+        <v>0.05693385646090307</v>
+      </c>
+    </row>
+    <row r="337" ht="15" customHeight="1">
+      <c r="F337" t="n">
+        <v>0.01705973223685747</v>
+      </c>
+      <c r="G337" t="n">
+        <v>0.05695546208926064</v>
+      </c>
+    </row>
+    <row r="338" ht="15" customHeight="1">
+      <c r="F338" t="n">
+        <v>0.01707112094810729</v>
+      </c>
+      <c r="G338" t="n">
+        <v>0.05697706771761822</v>
+      </c>
+    </row>
+    <row r="339" ht="15" customHeight="1">
+      <c r="F339" t="n">
+        <v>0.01707687935489465</v>
+      </c>
+      <c r="G339" t="n">
+        <v>0.0569986733459758</v>
+      </c>
+    </row>
+    <row r="340" ht="15" customHeight="1">
+      <c r="F340" t="n">
+        <v>0.01707741961252578</v>
+      </c>
+      <c r="G340" t="n">
+        <v>0.05702027897433338</v>
+      </c>
+    </row>
+    <row r="341" ht="15" customHeight="1">
+      <c r="F341" t="n">
+        <v>0.01707588301279404</v>
+      </c>
+      <c r="G341" t="n">
+        <v>0.05704188460269096</v>
+      </c>
+    </row>
+    <row r="342" ht="15" customHeight="1">
+      <c r="F342" t="n">
+        <v>0.01707268171100565</v>
+      </c>
+      <c r="G342" t="n">
+        <v>0.05706349023104854</v>
+      </c>
+    </row>
+    <row r="343" ht="15" customHeight="1">
+      <c r="F343" t="n">
+        <v>0.01706768203516941</v>
+      </c>
+      <c r="G343" t="n">
+        <v>0.05708509585940611</v>
+      </c>
+    </row>
+    <row r="344" ht="15" customHeight="1">
+      <c r="F344" t="n">
+        <v>0.0170607503132941</v>
+      </c>
+      <c r="G344" t="n">
+        <v>0.0571067014877637</v>
+      </c>
+    </row>
+    <row r="345" ht="15" customHeight="1">
+      <c r="F345" t="n">
+        <v>0.01705175287338852</v>
+      </c>
+      <c r="G345" t="n">
+        <v>0.05712830711612127</v>
+      </c>
+    </row>
+    <row r="346" ht="15" customHeight="1">
+      <c r="F346" t="n">
+        <v>0.01704055604346147</v>
+      </c>
+      <c r="G346" t="n">
+        <v>0.05714991274447885</v>
+      </c>
+    </row>
+    <row r="347" ht="15" customHeight="1">
+      <c r="F347" t="n">
+        <v>0.01702702615152174</v>
+      </c>
+      <c r="G347" t="n">
+        <v>0.05717151837283643</v>
+      </c>
+    </row>
+    <row r="348" ht="15" customHeight="1">
+      <c r="F348" t="n">
+        <v>0.01701102952557812</v>
+      </c>
+      <c r="G348" t="n">
+        <v>0.05719312400119401</v>
+      </c>
+    </row>
+    <row r="349" ht="15" customHeight="1">
+      <c r="F349" t="n">
+        <v>0.01699243249363939</v>
+      </c>
+      <c r="G349" t="n">
+        <v>0.05721472962955159</v>
+      </c>
+    </row>
+    <row r="350" ht="15" customHeight="1">
+      <c r="F350" t="n">
+        <v>0.01697110138371438</v>
+      </c>
+      <c r="G350" t="n">
+        <v>0.05723633525790916</v>
+      </c>
+    </row>
+    <row r="351" ht="15" customHeight="1">
+      <c r="F351" t="n">
+        <v>0.01694690252381184</v>
+      </c>
+      <c r="G351" t="n">
+        <v>0.05725794088626674</v>
+      </c>
+    </row>
+    <row r="352" ht="15" customHeight="1">
+      <c r="F352" t="n">
+        <v>0.01691970224194057</v>
+      </c>
+      <c r="G352" t="n">
+        <v>0.05727954651462432</v>
+      </c>
+    </row>
+    <row r="353" ht="15" customHeight="1">
+      <c r="F353" t="n">
+        <v>0.01688936686610941</v>
+      </c>
+      <c r="G353" t="n">
+        <v>0.0573011521429819</v>
+      </c>
+    </row>
+    <row r="354" ht="15" customHeight="1">
+      <c r="F354" t="n">
+        <v>0.01685576272432709</v>
+      </c>
+      <c r="G354" t="n">
+        <v>0.05732275777133948</v>
+      </c>
+    </row>
+    <row r="355" ht="15" customHeight="1">
+      <c r="F355" t="n">
+        <v>0.01681875614460244</v>
+      </c>
+      <c r="G355" t="n">
+        <v>0.05734436339969706</v>
+      </c>
+    </row>
+    <row r="356" ht="15" customHeight="1">
+      <c r="F356" t="n">
+        <v>0.01677821345494425</v>
+      </c>
+      <c r="G356" t="n">
+        <v>0.05736596902805463</v>
+      </c>
+    </row>
+    <row r="357" ht="15" customHeight="1">
+      <c r="F357" t="n">
+        <v>0.01673400098336129</v>
+      </c>
+      <c r="G357" t="n">
+        <v>0.05738757465641222</v>
+      </c>
+    </row>
+    <row r="358" ht="15" customHeight="1">
+      <c r="F358" t="n">
+        <v>0.0166859850578624</v>
+      </c>
+      <c r="G358" t="n">
+        <v>0.05740918028476979</v>
+      </c>
+    </row>
+    <row r="359" ht="15" customHeight="1">
+      <c r="F359" t="n">
+        <v>0.01663403200645631</v>
+      </c>
+      <c r="G359" t="n">
+        <v>0.05743078591312737</v>
+      </c>
+    </row>
+    <row r="360" ht="15" customHeight="1">
+      <c r="F360" t="n">
+        <v>0.01657800815715185</v>
+      </c>
+      <c r="G360" t="n">
+        <v>0.05745239154148495</v>
+      </c>
+    </row>
+    <row r="361" ht="15" customHeight="1">
+      <c r="F361" t="n">
+        <v>0.01651777983795784</v>
+      </c>
+      <c r="G361" t="n">
+        <v>0.05747399716984253</v>
+      </c>
+    </row>
+    <row r="362" ht="15" customHeight="1">
+      <c r="F362" t="n">
+        <v>0.016453213376883</v>
+      </c>
+      <c r="G362" t="n">
+        <v>0.05749560279820011</v>
+      </c>
+    </row>
+    <row r="363" ht="15" customHeight="1">
+      <c r="F363" t="n">
+        <v>0.01638417510193622</v>
+      </c>
+      <c r="G363" t="n">
+        <v>0.05751720842655768</v>
+      </c>
+    </row>
+    <row r="364" ht="15" customHeight="1">
+      <c r="F364" t="n">
+        <v>0.01631053134112618</v>
+      </c>
+      <c r="G364" t="n">
+        <v>0.05753881405491526</v>
+      </c>
+    </row>
+    <row r="365" ht="15" customHeight="1">
+      <c r="F365" t="n">
+        <v>0.01631053134112618</v>
+      </c>
+      <c r="G365" t="n">
+        <v>0.05753881405491526</v>
+      </c>
+    </row>
+    <row r="366" ht="15" customHeight="1">
+      <c r="F366" t="n">
+        <v>0.01670475917042326</v>
+      </c>
+      <c r="G366" t="n">
+        <v>0.05912115855615287</v>
+      </c>
+    </row>
+    <row r="367" ht="15" customHeight="1">
+      <c r="F367" t="n">
+        <v>0.01709135669786932</v>
+      </c>
+      <c r="G367" t="n">
+        <v>0.06070350305739047</v>
+      </c>
+    </row>
+    <row r="368" ht="15" customHeight="1">
+      <c r="F368" t="n">
+        <v>0.01747014359124754</v>
+      </c>
+      <c r="G368" t="n">
+        <v>0.06228584755862806</v>
+      </c>
+    </row>
+    <row r="369" ht="15" customHeight="1">
+      <c r="F369" t="n">
+        <v>0.01784093951834111</v>
+      </c>
+      <c r="G369" t="n">
+        <v>0.06386819205986566</v>
+      </c>
+    </row>
+    <row r="370" ht="15" customHeight="1">
+      <c r="F370" t="n">
+        <v>0.01820356414693322</v>
+      </c>
+      <c r="G370" t="n">
+        <v>0.06545053656110326</v>
+      </c>
+    </row>
+    <row r="371" ht="15" customHeight="1">
+      <c r="F371" t="n">
+        <v>0.01855783714480706</v>
+      </c>
+      <c r="G371" t="n">
+        <v>0.06703288106234087</v>
+      </c>
+    </row>
+    <row r="372" ht="15" customHeight="1">
+      <c r="F372" t="n">
+        <v>0.01890357817974579</v>
+      </c>
+      <c r="G372" t="n">
+        <v>0.06861522556357846</v>
+      </c>
+    </row>
+    <row r="373" ht="15" customHeight="1">
+      <c r="F373" t="n">
+        <v>0.01924060691953262</v>
+      </c>
+      <c r="G373" t="n">
+        <v>0.07019757006481606</v>
+      </c>
+    </row>
+    <row r="374" ht="15" customHeight="1">
+      <c r="F374" t="n">
+        <v>0.01956874303195071</v>
+      </c>
+      <c r="G374" t="n">
+        <v>0.07177991456605366</v>
+      </c>
+    </row>
+    <row r="375" ht="15" customHeight="1">
+      <c r="F375" t="n">
+        <v>0.01988780618478327</v>
+      </c>
+      <c r="G375" t="n">
+        <v>0.07336225906729127</v>
+      </c>
+    </row>
+    <row r="376" ht="15" customHeight="1">
+      <c r="F376" t="n">
+        <v>0.02019761604581347</v>
+      </c>
+      <c r="G376" t="n">
+        <v>0.07494460356852886</v>
+      </c>
+    </row>
+    <row r="377" ht="15" customHeight="1">
+      <c r="F377" t="n">
+        <v>0.0204979922828245</v>
+      </c>
+      <c r="G377" t="n">
+        <v>0.07652694806976647</v>
+      </c>
+    </row>
+    <row r="378" ht="15" customHeight="1">
+      <c r="F378" t="n">
+        <v>0.02078875456359955</v>
+      </c>
+      <c r="G378" t="n">
+        <v>0.07810929257100406</v>
+      </c>
+    </row>
+    <row r="379" ht="15" customHeight="1">
+      <c r="F379" t="n">
+        <v>0.02106972255592179</v>
+      </c>
+      <c r="G379" t="n">
+        <v>0.07969163707224167</v>
+      </c>
+    </row>
+    <row r="380" ht="15" customHeight="1">
+      <c r="F380" t="n">
+        <v>0.02134071592757442</v>
+      </c>
+      <c r="G380" t="n">
+        <v>0.08127398157347927</v>
+      </c>
+    </row>
+    <row r="381" ht="15" customHeight="1">
+      <c r="F381" t="n">
+        <v>0.0216015543463406</v>
+      </c>
+      <c r="G381" t="n">
+        <v>0.08285632607471687</v>
+      </c>
+    </row>
+    <row r="382" ht="15" customHeight="1">
+      <c r="F382" t="n">
+        <v>0.02185205748000354</v>
+      </c>
+      <c r="G382" t="n">
+        <v>0.08443867057595447</v>
+      </c>
+    </row>
+    <row r="383" ht="15" customHeight="1">
+      <c r="F383" t="n">
+        <v>0.02209204499634643</v>
+      </c>
+      <c r="G383" t="n">
+        <v>0.08602101507719206</v>
+      </c>
+    </row>
+    <row r="384" ht="15" customHeight="1">
+      <c r="F384" t="n">
+        <v>0.02232133656315244</v>
+      </c>
+      <c r="G384" t="n">
+        <v>0.08760335957842967</v>
+      </c>
+    </row>
+    <row r="385" ht="15" customHeight="1">
+      <c r="F385" t="n">
+        <v>0.02253975184820474</v>
+      </c>
+      <c r="G385" t="n">
+        <v>0.08918570407966726</v>
+      </c>
+    </row>
+    <row r="386" ht="15" customHeight="1">
+      <c r="F386" t="n">
+        <v>0.02274711051928655</v>
+      </c>
+      <c r="G386" t="n">
+        <v>0.09076804858090486</v>
+      </c>
+    </row>
+    <row r="387" ht="15" customHeight="1">
+      <c r="F387" t="n">
+        <v>0.02294323224418102</v>
+      </c>
+      <c r="G387" t="n">
+        <v>0.09235039308214246</v>
+      </c>
+    </row>
+    <row r="388" ht="15" customHeight="1">
+      <c r="F388" t="n">
+        <v>0.02312793669067136</v>
+      </c>
+      <c r="G388" t="n">
+        <v>0.09393273758338007</v>
+      </c>
+    </row>
+    <row r="389" ht="15" customHeight="1">
+      <c r="F389" t="n">
+        <v>0.02330104352654075</v>
+      </c>
+      <c r="G389" t="n">
+        <v>0.09551508208461768</v>
+      </c>
+    </row>
+    <row r="390" ht="15" customHeight="1">
+      <c r="F390" t="n">
+        <v>0.02346237241957237</v>
+      </c>
+      <c r="G390" t="n">
+        <v>0.09709742658585527</v>
+      </c>
+    </row>
+    <row r="391" ht="15" customHeight="1">
+      <c r="F391" t="n">
+        <v>0.02361174303754941</v>
+      </c>
+      <c r="G391" t="n">
+        <v>0.09867977108709286</v>
+      </c>
+    </row>
+    <row r="392" ht="15" customHeight="1">
+      <c r="F392" t="n">
+        <v>0.02374897504825502</v>
+      </c>
+      <c r="G392" t="n">
+        <v>0.1002621155883305</v>
+      </c>
+    </row>
+    <row r="393" ht="15" customHeight="1">
+      <c r="F393" t="n">
+        <v>0.02387388811947245</v>
+      </c>
+      <c r="G393" t="n">
+        <v>0.1018444600895681</v>
+      </c>
+    </row>
+    <row r="394" ht="15" customHeight="1">
+      <c r="F394" t="n">
+        <v>0.02398630191898483</v>
+      </c>
+      <c r="G394" t="n">
+        <v>0.1034268045908057</v>
+      </c>
+    </row>
+    <row r="395" ht="15" customHeight="1">
+      <c r="F395" t="n">
+        <v>0.02408603611457538</v>
+      </c>
+      <c r="G395" t="n">
+        <v>0.1050091490920433</v>
+      </c>
+    </row>
+    <row r="396" ht="15" customHeight="1">
+      <c r="F396" t="n">
+        <v>0.02417291037402724</v>
+      </c>
+      <c r="G396" t="n">
+        <v>0.1065914935932809</v>
+      </c>
+    </row>
+    <row r="397" ht="15" customHeight="1">
+      <c r="F397" t="n">
+        <v>0.02424674436512365</v>
+      </c>
+      <c r="G397" t="n">
+        <v>0.1081738380945185</v>
+      </c>
+    </row>
+    <row r="398" ht="15" customHeight="1">
+      <c r="F398" t="n">
+        <v>0.02430735775564776</v>
+      </c>
+      <c r="G398" t="n">
+        <v>0.1097561825957561</v>
+      </c>
+    </row>
+    <row r="399" ht="15" customHeight="1">
+      <c r="F399" t="n">
+        <v>0.02435457021338275</v>
+      </c>
+      <c r="G399" t="n">
+        <v>0.1113385270969937</v>
+      </c>
+    </row>
+    <row r="400" ht="15" customHeight="1">
+      <c r="F400" t="n">
+        <v>0.02438820140611183</v>
+      </c>
+      <c r="G400" t="n">
+        <v>0.1129208715982312</v>
+      </c>
+    </row>
+    <row r="401" ht="15" customHeight="1">
+      <c r="F401" t="n">
+        <v>0.02441404178816824</v>
+      </c>
+      <c r="G401" t="n">
+        <v>0.1145032160994689</v>
+      </c>
+    </row>
+    <row r="402" ht="15" customHeight="1">
+      <c r="F402" t="n">
+        <v>0.02441402468601183</v>
+      </c>
+      <c r="G402" t="n">
+        <v>0.1160855606007065</v>
+      </c>
+    </row>
+    <row r="403" ht="15" customHeight="1">
+      <c r="F403" t="n">
+        <v>0.02441086472501968</v>
+      </c>
+      <c r="G403" t="n">
+        <v>0.1176679051019441</v>
+      </c>
+    </row>
+    <row r="404" ht="15" customHeight="1">
+      <c r="F404" t="n">
+        <v>0.02440252158463854</v>
+      </c>
+      <c r="G404" t="n">
+        <v>0.1192502496031817</v>
+      </c>
+    </row>
+    <row r="405" ht="15" customHeight="1">
+      <c r="F405" t="n">
+        <v>0.02438938891960202</v>
+      </c>
+      <c r="G405" t="n">
+        <v>0.1208325941044193</v>
+      </c>
+    </row>
+    <row r="406" ht="15" customHeight="1">
+      <c r="F406" t="n">
+        <v>0.02437186038464372</v>
+      </c>
+      <c r="G406" t="n">
+        <v>0.1224149386056569</v>
+      </c>
+    </row>
+    <row r="407" ht="15" customHeight="1">
+      <c r="F407" t="n">
+        <v>0.02435032963449727</v>
+      </c>
+      <c r="G407" t="n">
+        <v>0.1239972831068945</v>
+      </c>
+    </row>
+    <row r="408" ht="15" customHeight="1">
+      <c r="F408" t="n">
+        <v>0.02432519032389625</v>
+      </c>
+      <c r="G408" t="n">
+        <v>0.1255796276081321</v>
+      </c>
+    </row>
+    <row r="409" ht="15" customHeight="1">
+      <c r="F409" t="n">
+        <v>0.02429683610757426</v>
+      </c>
+      <c r="G409" t="n">
+        <v>0.1271619721093697</v>
+      </c>
+    </row>
+    <row r="410" ht="15" customHeight="1">
+      <c r="F410" t="n">
+        <v>0.02426566064026493</v>
+      </c>
+      <c r="G410" t="n">
+        <v>0.1287443166106073</v>
+      </c>
+    </row>
+    <row r="411" ht="15" customHeight="1">
+      <c r="F411" t="n">
+        <v>0.02423205757670183</v>
+      </c>
+      <c r="G411" t="n">
+        <v>0.1303266611118449</v>
+      </c>
+    </row>
+    <row r="412" ht="15" customHeight="1">
+      <c r="F412" t="n">
+        <v>0.0241964205716186</v>
+      </c>
+      <c r="G412" t="n">
+        <v>0.1319090056130825</v>
+      </c>
+    </row>
+    <row r="413" ht="15" customHeight="1">
+      <c r="F413" t="n">
+        <v>0.02415914327974884</v>
+      </c>
+      <c r="G413" t="n">
+        <v>0.1334913501143201</v>
+      </c>
+    </row>
+    <row r="414" ht="15" customHeight="1">
+      <c r="F414" t="n">
+        <v>0.02412061935582614</v>
+      </c>
+      <c r="G414" t="n">
+        <v>0.1350736946155577</v>
+      </c>
+    </row>
+    <row r="415" ht="15" customHeight="1">
+      <c r="F415" t="n">
+        <v>0.02408124245458409</v>
+      </c>
+      <c r="G415" t="n">
+        <v>0.1366560391167953</v>
+      </c>
+    </row>
+    <row r="416" ht="15" customHeight="1">
+      <c r="F416" t="n">
+        <v>0.02404114074636613</v>
+      </c>
+      <c r="G416" t="n">
+        <v>0.1382383836180329</v>
+      </c>
+    </row>
+    <row r="417" ht="15" customHeight="1">
+      <c r="F417" t="n">
+        <v>0.02398851749986172</v>
+      </c>
+      <c r="G417" t="n">
+        <v>0.1398207281192705</v>
+      </c>
+    </row>
+    <row r="418" ht="15" customHeight="1">
+      <c r="F418" t="n">
+        <v>0.02391981436174218</v>
+      </c>
+      <c r="G418" t="n">
+        <v>0.1414030726205081</v>
+      </c>
+    </row>
+    <row r="419" ht="15" customHeight="1">
+      <c r="F419" t="n">
+        <v>0.0238391260449965</v>
+      </c>
+      <c r="G419" t="n">
+        <v>0.1429854171217457</v>
+      </c>
+    </row>
+    <row r="420" ht="15" customHeight="1">
+      <c r="F420" t="n">
+        <v>0.02375054726261364</v>
+      </c>
+      <c r="G420" t="n">
+        <v>0.1445677616229833</v>
+      </c>
+    </row>
+    <row r="421" ht="15" customHeight="1">
+      <c r="F421" t="n">
+        <v>0.02365817272758255</v>
+      </c>
+      <c r="G421" t="n">
+        <v>0.1461501061242209</v>
+      </c>
+    </row>
+    <row r="422" ht="15" customHeight="1">
+      <c r="F422" t="n">
+        <v>0.02356609715289223</v>
+      </c>
+      <c r="G422" t="n">
+        <v>0.1477324506254585</v>
+      </c>
+    </row>
+    <row r="423" ht="15" customHeight="1">
+      <c r="F423" t="n">
+        <v>0.02347841525153162</v>
+      </c>
+      <c r="G423" t="n">
+        <v>0.15</v>
+      </c>
+    </row>
+    <row r="424" ht="15" customHeight="1">
+      <c r="F424" t="n">
+        <v>0.02339922173648969</v>
+      </c>
+      <c r="G424" t="n">
+        <v>0.1508971396279337</v>
+      </c>
+    </row>
+    <row r="425" ht="15" customHeight="1">
+      <c r="F425" t="n">
+        <v>0.0233326113207554</v>
+      </c>
+      <c r="G425" t="n">
+        <v>0.1524794841291713</v>
+      </c>
+    </row>
+    <row r="426" ht="15" customHeight="1">
+      <c r="F426" t="n">
+        <v>0.02328267871731773</v>
+      </c>
+      <c r="G426" t="n">
+        <v>0.1540618286304089</v>
+      </c>
+    </row>
+    <row r="427" ht="15" customHeight="1">
+      <c r="F427" t="n">
+        <v>0.02324534817320246</v>
+      </c>
+      <c r="G427" t="n">
+        <v>0.1556441731316465</v>
+      </c>
+    </row>
+    <row r="428" ht="15" customHeight="1">
+      <c r="F428" t="n">
+        <v>0.02321029890221356</v>
+      </c>
+      <c r="G428" t="n">
+        <v>0.1572265176328841</v>
+      </c>
+    </row>
+    <row r="429" ht="15" customHeight="1">
+      <c r="F429" t="n">
+        <v>0.02317730742682576</v>
+      </c>
+      <c r="G429" t="n">
+        <v>0.1588088621341217</v>
+      </c>
+    </row>
+    <row r="430" ht="15" customHeight="1">
+      <c r="F430" t="n">
+        <v>0.02314624253649619</v>
+      </c>
+      <c r="G430" t="n">
+        <v>0.1603912066353593</v>
+      </c>
+    </row>
+    <row r="431" ht="15" customHeight="1">
+      <c r="F431" t="n">
+        <v>0.02311697302068199</v>
+      </c>
+      <c r="G431" t="n">
+        <v>0.1619735511365969</v>
+      </c>
+    </row>
+    <row r="432" ht="15" customHeight="1">
+      <c r="F432" t="n">
+        <v>0.02308936766884034</v>
+      </c>
+      <c r="G432" t="n">
+        <v>0.1635558956378345</v>
+      </c>
+    </row>
+    <row r="433" ht="15" customHeight="1">
+      <c r="F433" t="n">
+        <v>0.02306329527042838</v>
+      </c>
+      <c r="G433" t="n">
+        <v>0.1651382401390721</v>
+      </c>
+    </row>
+    <row r="434" ht="15" customHeight="1">
+      <c r="F434" t="n">
+        <v>0.02303862461490324</v>
+      </c>
+      <c r="G434" t="n">
+        <v>0.1667205846403097</v>
+      </c>
+    </row>
+    <row r="435" ht="15" customHeight="1">
+      <c r="F435" t="n">
+        <v>0.02301522449172209</v>
+      </c>
+      <c r="G435" t="n">
+        <v>0.1683029291415473</v>
+      </c>
+    </row>
+    <row r="436" ht="15" customHeight="1">
+      <c r="F436" t="n">
+        <v>0.02299296369034207</v>
+      </c>
+      <c r="G436" t="n">
+        <v>0.1698852736427849</v>
+      </c>
+    </row>
+    <row r="437" ht="15" customHeight="1">
+      <c r="F437" t="n">
+        <v>0.02297171100022034</v>
+      </c>
+      <c r="G437" t="n">
+        <v>0.1714676181440225</v>
+      </c>
+    </row>
+    <row r="438" ht="15" customHeight="1">
+      <c r="F438" t="n">
+        <v>0.02295133521081403</v>
+      </c>
+      <c r="G438" t="n">
+        <v>0.1730499626452601</v>
+      </c>
+    </row>
+    <row r="439" ht="15" customHeight="1">
+      <c r="F439" t="n">
+        <v>0.0229317051115803</v>
+      </c>
+      <c r="G439" t="n">
+        <v>0.1746323071464977</v>
+      </c>
+    </row>
+    <row r="440" ht="15" customHeight="1">
+      <c r="F440" t="n">
+        <v>0.02291268949197631</v>
+      </c>
+      <c r="G440" t="n">
+        <v>0.1762146516477353</v>
+      </c>
+    </row>
+    <row r="441" ht="15" customHeight="1">
+      <c r="F441" t="n">
+        <v>0.02289415714145919</v>
+      </c>
+      <c r="G441" t="n">
+        <v>0.1777969961489729</v>
+      </c>
+    </row>
+    <row r="442" ht="15" customHeight="1">
+      <c r="F442" t="n">
+        <v>0.02287597684948611</v>
+      </c>
+      <c r="G442" t="n">
+        <v>0.1793793406502105</v>
+      </c>
+    </row>
+    <row r="443" ht="15" customHeight="1">
+      <c r="F443" t="n">
+        <v>0.0228580174055142</v>
+      </c>
+      <c r="G443" t="n">
+        <v>0.1809616851514481</v>
+      </c>
+    </row>
+    <row r="444" ht="15" customHeight="1">
+      <c r="F444" t="n">
+        <v>0.02284014759900062</v>
+      </c>
+      <c r="G444" t="n">
+        <v>0.1825440296526857</v>
+      </c>
+    </row>
+    <row r="445" ht="15" customHeight="1">
+      <c r="F445" t="n">
+        <v>0.02282223621940251</v>
+      </c>
+      <c r="G445" t="n">
+        <v>0.1841263741539233</v>
+      </c>
+    </row>
+    <row r="446" ht="15" customHeight="1">
+      <c r="F446" t="n">
+        <v>0.02280415205617704</v>
+      </c>
+      <c r="G446" t="n">
+        <v>0.1857087186551609</v>
+      </c>
+    </row>
+    <row r="447" ht="15" customHeight="1">
+      <c r="F447" t="n">
+        <v>0.02278576389878133</v>
+      </c>
+      <c r="G447" t="n">
+        <v>0.1872910631563985</v>
+      </c>
+    </row>
+    <row r="448" ht="15" customHeight="1">
+      <c r="F448" t="n">
+        <v>0.02276732485006218</v>
+      </c>
+      <c r="G448" t="n">
+        <v>0.1888734076576361</v>
+      </c>
+    </row>
+    <row r="449" ht="15" customHeight="1">
+      <c r="F449" t="n">
+        <v>0.02274919394952685</v>
+      </c>
+      <c r="G449" t="n">
+        <v>0.1904557521588737</v>
+      </c>
+    </row>
+    <row r="450" ht="15" customHeight="1">
+      <c r="F450" t="n">
+        <v>0.02273138260416278</v>
+      </c>
+      <c r="G450" t="n">
+        <v>0.1920380966601113</v>
+      </c>
+    </row>
+    <row r="451" ht="15" customHeight="1">
+      <c r="F451" t="n">
+        <v>0.02271390220055484</v>
+      </c>
+      <c r="G451" t="n">
+        <v>0.1936204411613489</v>
+      </c>
+    </row>
+    <row r="452" ht="15" customHeight="1">
+      <c r="F452" t="n">
+        <v>0.02269676412528795</v>
+      </c>
+      <c r="G452" t="n">
+        <v>0.1952027856625865</v>
+      </c>
+    </row>
+    <row r="453" ht="15" customHeight="1">
+      <c r="F453" t="n">
+        <v>0.02267997976494698</v>
+      </c>
+      <c r="G453" t="n">
+        <v>0.1967851301638241</v>
+      </c>
+    </row>
+    <row r="454" ht="15" customHeight="1">
+      <c r="F454" t="n">
+        <v>0.02266356050611681</v>
+      </c>
+      <c r="G454" t="n">
+        <v>0.1983674746650617</v>
+      </c>
+    </row>
+    <row r="455" ht="15" customHeight="1">
+      <c r="F455" t="n">
+        <v>0.02264751773538234</v>
+      </c>
+      <c r="G455" t="n">
+        <v>0.1999498191662993</v>
+      </c>
+    </row>
+    <row r="456" ht="15" customHeight="1">
+      <c r="F456" t="n">
+        <v>0.02263186283932846</v>
+      </c>
+      <c r="G456" t="n">
+        <v>0.2015321636675369</v>
+      </c>
+    </row>
+    <row r="457" ht="15" customHeight="1">
+      <c r="F457" t="n">
+        <v>0.02261660720454007</v>
+      </c>
+      <c r="G457" t="n">
+        <v>0.2031145081687745</v>
+      </c>
+    </row>
+    <row r="458" ht="15" customHeight="1">
+      <c r="F458" t="n">
+        <v>0.02260176221760203</v>
+      </c>
+      <c r="G458" t="n">
+        <v>0.2046968526700121</v>
+      </c>
+    </row>
+    <row r="459" ht="15" customHeight="1">
+      <c r="F459" t="n">
+        <v>0.02258733926509925</v>
+      </c>
+      <c r="G459" t="n">
+        <v>0.2062791971712497</v>
+      </c>
+    </row>
+    <row r="460" ht="15" customHeight="1">
+      <c r="F460" t="n">
+        <v>0.0225733497336166</v>
+      </c>
+      <c r="G460" t="n">
+        <v>0.2078615416724873</v>
+      </c>
+    </row>
+    <row r="461" ht="15" customHeight="1">
+      <c r="F461" t="n">
+        <v>0.02255980500973899</v>
+      </c>
+      <c r="G461" t="n">
+        <v>0.2094438861737249</v>
+      </c>
+    </row>
+    <row r="462" ht="15" customHeight="1">
+      <c r="F462" t="n">
+        <v>0.0225467164800513</v>
+      </c>
+      <c r="G462" t="n">
+        <v>0.2110262306749625</v>
+      </c>
+    </row>
+    <row r="463" ht="15" customHeight="1">
+      <c r="F463" t="n">
+        <v>0.02253409553113839</v>
+      </c>
+      <c r="G463" t="n">
+        <v>0.2126085751762001</v>
+      </c>
+    </row>
+    <row r="464" ht="15" customHeight="1">
+      <c r="F464" t="n">
+        <v>0.0225219535495852</v>
+      </c>
+      <c r="G464" t="n">
+        <v>0.2141909196774377</v>
+      </c>
+    </row>
     <row r="465" ht="15" customHeight="1"/>
     <row r="466" ht="15" customHeight="1"/>
     <row r="467" ht="15" customHeight="1"/>
